--- a/Wastewater_Effluent_Filtration/Water_Salt_Transport_1.xlsx
+++ b/Wastewater_Effluent_Filtration/Water_Salt_Transport_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Recovery</t>
   </si>
@@ -70,25 +70,34 @@
     <t>Density</t>
   </si>
   <si>
-    <t>Salinity</t>
-  </si>
-  <si>
     <t>Mass transfer</t>
   </si>
   <si>
     <t xml:space="preserve"> Pressure drop Corr</t>
   </si>
   <si>
-    <t>CP modulus Corr</t>
+    <t>Cross-flow Velocity</t>
   </si>
   <si>
-    <t xml:space="preserve">CP Factor </t>
+    <t>Brine pH</t>
   </si>
   <si>
-    <t>Reynolds number</t>
+    <t>Permeate pH</t>
   </si>
   <si>
-    <t>Cross-flow Velocity</t>
+    <t>Film layer pH</t>
+  </si>
+  <si>
+    <t>Brine Alkalinity</t>
+  </si>
+  <si>
+    <t>Permeate Alkalinity</t>
+  </si>
+  <si>
+    <t>Trace Conc. in Brine</t>
+  </si>
+  <si>
+    <t>Trace Conc. in Permeate</t>
   </si>
 </sst>
 </file>
@@ -420,13 +429,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y100"/>
+  <dimension ref="A1:AB100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,4100 +511,5000 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.476205577332286E-06</v>
+        <v>1.024675930281544E-05</v>
       </c>
       <c r="C2">
-        <v>0.0147</v>
+        <v>0.01528279910082424</v>
       </c>
       <c r="D2">
-        <v>6.856052254449331E-05</v>
+        <v>4.067378392194192E-05</v>
       </c>
       <c r="E2">
-        <v>0.01562164734702545</v>
+        <v>0.01712859808826239</v>
       </c>
       <c r="F2">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="G2">
-        <v>19.08329770277185</v>
+        <v>35.62056790136123</v>
       </c>
       <c r="H2">
-        <v>19.66785134084311</v>
+        <v>32.70031808943216</v>
       </c>
       <c r="I2">
-        <v>18.81242518242154</v>
+        <v>19.21877399156423</v>
       </c>
       <c r="J2">
-        <v>18.70966411165601</v>
+        <v>19.33875347287569</v>
       </c>
       <c r="K2">
-        <v>17.79466251843233</v>
+        <v>40.02080934581261</v>
       </c>
       <c r="L2">
-        <v>0.3854045034786154</v>
+        <v>0.2991926186385995</v>
       </c>
       <c r="M2">
         <v>0.009722999999999999</v>
       </c>
       <c r="N2">
-        <v>0.01071514285714286</v>
+        <v>0.001913418367346939</v>
       </c>
       <c r="O2">
-        <v>0.01135294897959183</v>
+        <v>0.003316591836734694</v>
       </c>
       <c r="P2">
-        <v>0.00986473469387756</v>
+        <v>0.005612693877551015</v>
       </c>
       <c r="Q2">
-        <v>0.4270603300092276</v>
+        <v>0.3197583227202322</v>
       </c>
       <c r="R2">
-        <v>1.017017635279714</v>
+        <v>1.001436918766472</v>
       </c>
       <c r="S2">
-        <v>0.4471470261</v>
+        <v>8.964085134901906E-05</v>
       </c>
       <c r="T2">
-        <v>8.964670149379598E-05</v>
+        <v>0.001398452219922817</v>
       </c>
       <c r="U2">
-        <v>0.001398543669766902</v>
+        <v>0.17</v>
       </c>
       <c r="V2">
-        <v>1.055399130839905</v>
+        <v>7.997886678068794</v>
       </c>
       <c r="W2">
-        <v>1.062697098437105</v>
+        <v>9.406930401017185</v>
       </c>
       <c r="X2">
-        <v>270.733015458491</v>
+        <v>8.431525754116974</v>
       </c>
       <c r="Y2">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+        <v>0.002525592234190321</v>
+      </c>
+      <c r="Z2">
+        <v>5.674365469458889E-05</v>
+      </c>
+      <c r="AA2">
+        <v>0.002556182908434622</v>
+      </c>
+      <c r="AB2">
+        <v>2.774575085819797E-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.473720789241897E-06</v>
+        <v>1.023786881480394E-05</v>
       </c>
       <c r="C3">
-        <v>0.0148477923179541</v>
+        <v>0.01543675996261114</v>
       </c>
       <c r="D3">
-        <v>6.931665482747169E-05</v>
+        <v>4.115645041382274E-05</v>
       </c>
       <c r="E3">
-        <v>0.01578679861712393</v>
+        <v>0.01731685715642861</v>
       </c>
       <c r="F3">
-        <v>4.899985694153031</v>
+        <v>5.399985694102835</v>
       </c>
       <c r="S3">
-        <v>0.4516636627272728</v>
+        <v>8.885577390501866E-05</v>
       </c>
       <c r="T3">
-        <v>8.885648049281569E-05</v>
+        <v>0.001401977922210843</v>
       </c>
       <c r="U3">
-        <v>0.001401973003019861</v>
+        <v>0.1683</v>
       </c>
       <c r="V3">
-        <v>1.055640446711198</v>
+        <v>7.995769571512306</v>
       </c>
       <c r="W3">
-        <v>1.073931878715914</v>
+        <v>9.405426304699223</v>
       </c>
       <c r="X3">
-        <v>267.9997859863252</v>
+        <v>8.433861100273397</v>
       </c>
       <c r="Y3">
-        <v>0.1683</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+        <v>0.002550530098629672</v>
+      </c>
+      <c r="Z3">
+        <v>5.685196406748234E-05</v>
+      </c>
+      <c r="AA3">
+        <v>0.002581722677703071</v>
+      </c>
+      <c r="AB3">
+        <v>2.793272612163458E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.469066295510538E-06</v>
+        <v>1.022878683998742E-05</v>
       </c>
       <c r="C4">
-        <v>0.01499859309002682</v>
+        <v>0.01559385795763356</v>
       </c>
       <c r="D4">
-        <v>7.011465256102014E-05</v>
+        <v>4.165052735974136E-05</v>
       </c>
       <c r="E4">
-        <v>0.01595502281921002</v>
+        <v>0.0175092342147668</v>
       </c>
       <c r="F4">
-        <v>4.899971315437977</v>
+        <v>5.3999713153363</v>
       </c>
       <c r="S4">
-        <v>0.4562724756122449</v>
+        <v>8.806970424645449E-05</v>
       </c>
       <c r="T4">
-        <v>8.807041174577197E-05</v>
+        <v>0.001405548521308018</v>
       </c>
       <c r="U4">
-        <v>0.001405543539162455</v>
+        <v>0.1666</v>
       </c>
       <c r="V4">
-        <v>1.055879612093398</v>
+        <v>7.993659198203604</v>
       </c>
       <c r="W4">
-        <v>1.085375701987076</v>
+        <v>9.403936335040374</v>
       </c>
       <c r="X4">
-        <v>265.2914140125917</v>
+        <v>8.436252765465824</v>
       </c>
       <c r="Y4">
-        <v>0.1666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+        <v>0.002575975793880306</v>
+      </c>
+      <c r="Z4">
+        <v>5.696366364926222E-05</v>
+      </c>
+      <c r="AA4">
+        <v>0.002607781758841657</v>
+      </c>
+      <c r="AB4">
+        <v>2.812172735079142E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.464313966806643E-06</v>
+        <v>1.021950717312893E-05</v>
       </c>
       <c r="C5">
-        <v>0.01515249492958832</v>
+        <v>0.01575418999299721</v>
       </c>
       <c r="D5">
-        <v>7.093110201310158E-05</v>
+        <v>4.215641939698887E-05</v>
       </c>
       <c r="E5">
-        <v>0.01612684706767913</v>
+        <v>0.01770586410373317</v>
       </c>
       <c r="F5">
-        <v>4.89995686244866</v>
+        <v>5.399956862294174</v>
       </c>
       <c r="S5">
-        <v>0.4609763155670104</v>
+        <v>8.728263097596939E-05</v>
       </c>
       <c r="T5">
-        <v>8.728333939749716E-05</v>
+        <v>0.001409165056991092</v>
       </c>
       <c r="U5">
-        <v>0.001409160010425741</v>
+        <v>0.1649</v>
       </c>
       <c r="V5">
-        <v>1.056122277279057</v>
+        <v>7.991551502598274</v>
       </c>
       <c r="W5">
-        <v>1.09706442637273</v>
+        <v>9.402476815803031</v>
       </c>
       <c r="X5">
-        <v>262.5830419642745</v>
+        <v>8.43872720109167</v>
       </c>
       <c r="Y5">
-        <v>0.1649</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
+        <v>0.002601944991099183</v>
+      </c>
+      <c r="Z5">
+        <v>5.707853547534008E-05</v>
+      </c>
+      <c r="AA5">
+        <v>0.002634376192155996</v>
+      </c>
+      <c r="AB5">
+        <v>2.831159698135035E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.459460697137389E-06</v>
+        <v>1.021002333182801E-05</v>
       </c>
       <c r="C6">
-        <v>0.01530959455279223</v>
+        <v>0.01591785700938888</v>
       </c>
       <c r="D6">
-        <v>7.17666465777773E-05</v>
+        <v>4.267455037263263E-05</v>
       </c>
       <c r="E6">
-        <v>0.0163023874567155</v>
+        <v>0.01790688754667641</v>
       </c>
       <c r="F6">
-        <v>4.899942333735041</v>
+        <v>5.399942333526368</v>
       </c>
       <c r="S6">
-        <v>0.4657781521875</v>
+        <v>8.649454243712355E-05</v>
       </c>
       <c r="T6">
-        <v>8.649525179179099E-05</v>
+        <v>0.001412828604002508</v>
       </c>
       <c r="U6">
-        <v>0.001412823491502389</v>
+        <v>0.1632</v>
       </c>
       <c r="V6">
-        <v>1.056368530411053</v>
+        <v>7.989442807248647</v>
       </c>
       <c r="W6">
-        <v>1.109005949436429</v>
+        <v>9.401047193561181</v>
       </c>
       <c r="X6">
-        <v>259.8746698158698</v>
+        <v>8.441279748517015</v>
       </c>
       <c r="Y6">
-        <v>0.1632</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+        <v>0.002628454016678598</v>
+      </c>
+      <c r="Z6">
+        <v>5.719689478273981E-05</v>
+      </c>
+      <c r="AA6">
+        <v>0.002661522698355732</v>
+      </c>
+      <c r="AB6">
+        <v>2.850265423930255E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.454503226536884E-06</v>
+        <v>1.020032855550898E-05</v>
       </c>
       <c r="C7">
-        <v>0.0154699927412787</v>
+        <v>0.01608496419316799</v>
       </c>
       <c r="D7">
-        <v>7.262196002110739E-05</v>
+        <v>4.320536443475268E-05</v>
       </c>
       <c r="E7">
-        <v>0.01648176509393009</v>
+        <v>0.01811245147329002</v>
       </c>
       <c r="F7">
-        <v>4.89992772780133</v>
+        <v>5.399927727537044</v>
       </c>
       <c r="S7">
-        <v>0.4706810801052632</v>
+        <v>8.570542672297761E-05</v>
       </c>
       <c r="T7">
-        <v>8.570613702196102E-05</v>
+        <v>0.001416540273941292</v>
       </c>
       <c r="U7">
-        <v>0.001416535093939419</v>
+        <v>0.1615</v>
       </c>
       <c r="V7">
-        <v>1.056618462792707</v>
+        <v>7.987341071864202</v>
       </c>
       <c r="W7">
-        <v>1.121208509791163</v>
+        <v>9.399638143667516</v>
       </c>
       <c r="X7">
-        <v>257.1662975787993</v>
+        <v>8.443890896129323</v>
       </c>
       <c r="Y7">
-        <v>0.1615</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+        <v>0.002655519881119607</v>
+      </c>
+      <c r="Z7">
+        <v>5.731928863994078E-05</v>
+      </c>
+      <c r="AA7">
+        <v>0.002689238698820116</v>
+      </c>
+      <c r="AB7">
+        <v>2.869597406464499E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.449438159540087E-06</v>
+        <v>1.019041577739988E-05</v>
       </c>
       <c r="C8">
-        <v>0.01563379455810059</v>
+        <v>0.0162556212019843</v>
       </c>
       <c r="D8">
-        <v>7.349774795055952E-05</v>
+        <v>4.374932730165524E-05</v>
       </c>
       <c r="E8">
-        <v>0.01666510637769531</v>
+        <v>0.01832270935950416</v>
       </c>
       <c r="F8">
-        <v>4.899913043104027</v>
+        <v>5.399913042782652</v>
       </c>
       <c r="S8">
-        <v>0.4756883256382979</v>
+        <v>8.491527165598104E-05</v>
       </c>
       <c r="T8">
-        <v>8.491598291071244E-05</v>
+        <v>0.001420301216695796</v>
       </c>
       <c r="U8">
-        <v>0.001420295967570818</v>
+        <v>0.1598</v>
       </c>
       <c r="V8">
-        <v>1.056872169049601</v>
+        <v>7.985242621646934</v>
       </c>
       <c r="W8">
-        <v>1.133680705965667</v>
+        <v>9.398280477504638</v>
       </c>
       <c r="X8">
-        <v>254.4579252455036</v>
+        <v>8.446608263899414</v>
       </c>
       <c r="Y8">
-        <v>0.1598</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
+        <v>0.002683160312954497</v>
+      </c>
+      <c r="Z8">
+        <v>5.744525609258432E-05</v>
+      </c>
+      <c r="AA8">
+        <v>0.002717542344828152</v>
+      </c>
+      <c r="AB8">
+        <v>2.888932201764538E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.444261959214317E-06</v>
+        <v>1.018027762929554E-05</v>
       </c>
       <c r="C9">
-        <v>0.01580110957756457</v>
+        <v>0.01642994240493788</v>
       </c>
       <c r="D9">
-        <v>7.439474969214446E-05</v>
+        <v>4.430692749349483E-05</v>
       </c>
       <c r="E9">
-        <v>0.01685254328797769</v>
+        <v>0.01853782159681882</v>
       </c>
       <c r="F9">
-        <v>4.899898278049834</v>
+        <v>5.399898277669839</v>
       </c>
       <c r="S9">
-        <v>0.4808032538709678</v>
+        <v>8.412406478221966E-05</v>
       </c>
       <c r="T9">
-        <v>8.412477700439513E-05</v>
+        <v>0.001424112622252767</v>
       </c>
       <c r="U9">
-        <v>0.001424107302326474</v>
+        <v>0.1581</v>
       </c>
       <c r="V9">
-        <v>1.057129747283644</v>
+        <v>7.983144190272336</v>
       </c>
       <c r="W9">
-        <v>1.146431516188959</v>
+        <v>9.396943599076828</v>
       </c>
       <c r="X9">
-        <v>251.7495528045151</v>
+        <v>8.449377963914749</v>
       </c>
       <c r="Y9">
-        <v>0.1581</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
+        <v>0.002711393808189572</v>
+      </c>
+      <c r="Z9">
+        <v>5.757587021672169E-05</v>
+      </c>
+      <c r="AA9">
+        <v>0.002746452592385255</v>
+      </c>
+      <c r="AB9">
+        <v>2.908548815583702E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.438970925587387E-06</v>
+        <v>1.016990640157785E-05</v>
       </c>
       <c r="C10">
-        <v>0.01597205213004144</v>
+        <v>0.01660804713838836</v>
       </c>
       <c r="D10">
-        <v>7.531374049718769E-05</v>
+        <v>4.487867782247761E-05</v>
       </c>
       <c r="E10">
-        <v>0.0170442136933322</v>
+        <v>0.01875795587672223</v>
       </c>
       <c r="F10">
-        <v>4.899883430993452</v>
+        <v>5.399883430553251</v>
       </c>
       <c r="S10">
-        <v>0.4860293761956522</v>
+        <v>8.333179336861216E-05</v>
       </c>
       <c r="T10">
-        <v>8.333250657020093E-05</v>
+        <v>0.001427975722679198</v>
       </c>
       <c r="U10">
-        <v>0.001427970330213886</v>
+        <v>0.1564</v>
       </c>
       <c r="V10">
-        <v>1.057391299232074</v>
+        <v>7.98105356733469</v>
       </c>
       <c r="W10">
-        <v>1.159470319274299</v>
+        <v>9.395655571212119</v>
       </c>
       <c r="X10">
-        <v>249.0411802713995</v>
+        <v>8.452240656884005</v>
       </c>
       <c r="Y10">
-        <v>0.1564</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+        <v>0.00274023965534145</v>
+      </c>
+      <c r="Z10">
+        <v>5.771082920703936E-05</v>
+      </c>
+      <c r="AA10">
+        <v>0.00277598919134427</v>
+      </c>
+      <c r="AB10">
+        <v>2.928258196424049E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.433561197324468E-06</v>
+        <v>1.015929401885518E-05</v>
       </c>
       <c r="C11">
-        <v>0.01614674156289357</v>
+        <v>0.01679005997861436</v>
       </c>
       <c r="D11">
-        <v>7.62555336016101E-05</v>
+        <v>4.546511692951265E-05</v>
       </c>
       <c r="E11">
-        <v>0.01724026168351796</v>
+        <v>0.01898328760518491</v>
       </c>
       <c r="F11">
-        <v>4.899868500235274</v>
+        <v>5.399868499733221</v>
       </c>
       <c r="S11">
-        <v>0.4913703583516483</v>
+        <v>8.253844438070021E-05</v>
       </c>
       <c r="T11">
-        <v>8.253915857395444E-05</v>
+        <v>0.001431891793825208</v>
       </c>
       <c r="U11">
-        <v>0.001431886327020887</v>
+        <v>0.1547</v>
       </c>
       <c r="V11">
-        <v>1.057656930458943</v>
+        <v>7.978956641875407</v>
       </c>
       <c r="W11">
-        <v>1.17280691724612</v>
+        <v>9.394408362247356</v>
       </c>
       <c r="X11">
-        <v>246.3328076287642</v>
+        <v>8.455179739078744</v>
       </c>
       <c r="Y11">
-        <v>0.1547</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+        <v>0.00276971799409018</v>
+      </c>
+      <c r="Z11">
+        <v>5.785066867197484E-05</v>
+      </c>
+      <c r="AA11">
+        <v>0.002806172780458336</v>
+      </c>
+      <c r="AB11">
+        <v>2.948155553804427E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.42802874080005E-06</v>
+        <v>1.014843206272015E-05</v>
       </c>
       <c r="C12">
-        <v>0.01632530251877459</v>
+        <v>0.01697611103263308</v>
       </c>
       <c r="D12">
-        <v>7.722098259435189E-05</v>
+        <v>4.606681074311116E-05</v>
       </c>
       <c r="E12">
-        <v>0.01744083792190514</v>
+        <v>0.01921400035615724</v>
       </c>
       <c r="F12">
-        <v>4.899853484018919</v>
+        <v>5.399853483453307</v>
       </c>
       <c r="S12">
-        <v>0.496830029</v>
+        <v>8.174400448258727E-05</v>
       </c>
       <c r="T12">
-        <v>8.174471968005165E-05</v>
+        <v>0.001435862157597867</v>
       </c>
       <c r="U12">
-        <v>0.001435856614589315</v>
+        <v>0.153</v>
       </c>
       <c r="V12">
-        <v>1.057926750530483</v>
+        <v>7.976866930137068</v>
       </c>
       <c r="W12">
-        <v>1.186451559313275</v>
+        <v>9.393196548494911</v>
       </c>
       <c r="X12">
-        <v>243.6244348744676</v>
+        <v>8.458183274917943</v>
       </c>
       <c r="Y12">
-        <v>0.153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+        <v>0.002799849853261493</v>
+      </c>
+      <c r="Z12">
+        <v>5.799584932967558E-05</v>
+      </c>
+      <c r="AA12">
+        <v>0.002837024905179673</v>
+      </c>
+      <c r="AB12">
+        <v>2.968317857385848E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.422369321605462E-06</v>
+        <v>1.013731170511311E-05</v>
       </c>
       <c r="C13">
-        <v>0.01650786523266426</v>
+        <v>0.01716633624860937</v>
       </c>
       <c r="D13">
-        <v>7.82109841904694E-05</v>
+        <v>4.668435440307977E-05</v>
       </c>
       <c r="E13">
-        <v>0.01764610001844777</v>
+        <v>0.01945028633619847</v>
       </c>
       <c r="F13">
-        <v>4.899838380528645</v>
+        <v>5.3998383798977</v>
       </c>
       <c r="S13">
-        <v>0.5024123888764045</v>
+        <v>8.094846002522487E-05</v>
       </c>
       <c r="T13">
-        <v>8.094917623974718E-05</v>
+        <v>0.001439888184133627</v>
       </c>
       <c r="U13">
-        <v>0.001439882562987259</v>
+        <v>0.1513</v>
       </c>
       <c r="V13">
-        <v>1.0582008732149</v>
+        <v>7.974776118732919</v>
       </c>
       <c r="W13">
-        <v>1.200414967241345</v>
+        <v>9.392053606708613</v>
       </c>
       <c r="X13">
-        <v>240.916062016157</v>
+        <v>8.461296353745217</v>
       </c>
       <c r="Y13">
-        <v>0.1513</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
+        <v>0.002830657201620278</v>
+      </c>
+      <c r="Z13">
+        <v>5.814614413023318E-05</v>
+      </c>
+      <c r="AA13">
+        <v>0.002868568070647154</v>
+      </c>
+      <c r="AB13">
+        <v>2.988529044725825E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.416578531904507E-06</v>
+        <v>1.012592369213472E-05</v>
       </c>
       <c r="C14">
-        <v>0.01669456584912419</v>
+        <v>0.01736087774740716</v>
       </c>
       <c r="D14">
-        <v>7.922648044833172E-05</v>
+        <v>4.73183741218804E-05</v>
       </c>
       <c r="E14">
-        <v>0.01785621294087856</v>
+        <v>0.01969234689376285</v>
       </c>
       <c r="F14">
-        <v>4.899823187886606</v>
+        <v>5.399823187188489</v>
       </c>
       <c r="S14">
-        <v>0.5081216205681818</v>
+        <v>8.015179703004906E-05</v>
       </c>
       <c r="T14">
-        <v>8.015251427479103E-05</v>
+        <v>0.001443971294009872</v>
       </c>
       <c r="U14">
-        <v>0.001443965592720428</v>
+        <v>0.1496</v>
       </c>
       <c r="V14">
-        <v>1.058479416699792</v>
+        <v>7.972686982475266</v>
       </c>
       <c r="W14">
-        <v>1.214708363325072</v>
+        <v>9.390937105256805</v>
       </c>
       <c r="X14">
-        <v>238.2076890460784</v>
+        <v>8.464453076849919</v>
       </c>
       <c r="Y14">
-        <v>0.1496</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
+        <v>0.002862163009091756</v>
+      </c>
+      <c r="Z14">
+        <v>5.830267969992427E-05</v>
+      </c>
+      <c r="AA14">
+        <v>0.002900825829513062</v>
+      </c>
+      <c r="AB14">
+        <v>3.009142075709099E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.41065175240557E-06</v>
+        <v>1.011425833180312E-05</v>
       </c>
       <c r="C15">
-        <v>0.01688554676140782</v>
+        <v>0.01755988417698515</v>
       </c>
       <c r="D15">
-        <v>8.02684620433131E-05</v>
+        <v>4.796952916766666E-05</v>
       </c>
       <c r="E15">
-        <v>0.0180713494404009</v>
+        <v>0.01994039306572959</v>
       </c>
       <c r="F15">
-        <v>4.899807904149959</v>
+        <v>5.399807903382759</v>
       </c>
       <c r="S15">
-        <v>0.5139620989655173</v>
+        <v>7.935400117921212E-05</v>
       </c>
       <c r="T15">
-        <v>7.935471946766066E-05</v>
+        <v>0.001448112960743508</v>
       </c>
       <c r="U15">
-        <v>0.00144810717723054</v>
+        <v>0.1479</v>
       </c>
       <c r="V15">
-        <v>1.058762503814058</v>
+        <v>7.970596994280054</v>
       </c>
       <c r="W15">
-        <v>1.229343499347</v>
+        <v>9.389891550216827</v>
       </c>
       <c r="X15">
-        <v>235.499315949879</v>
+        <v>8.467713224701981</v>
       </c>
       <c r="Y15">
-        <v>0.1479</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
+        <v>0.002894391288739938</v>
+      </c>
+      <c r="Z15">
+        <v>5.84651321913889E-05</v>
+      </c>
+      <c r="AA15">
+        <v>0.002933822776740143</v>
+      </c>
+      <c r="AB15">
+        <v>3.029868355144132E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.40458413233875E-06</v>
+        <v>1.010230548705152E-05</v>
       </c>
       <c r="C16">
-        <v>0.01708095697419113</v>
+        <v>0.01776351109149466</v>
       </c>
       <c r="D16">
-        <v>8.133797153477189E-05</v>
+        <v>4.863851397416293E-05</v>
       </c>
       <c r="E16">
-        <v>0.01829169051144567</v>
+        <v>0.02019464616478261</v>
       </c>
       <c r="F16">
-        <v>4.899792527307764</v>
+        <v>5.399792526469493</v>
       </c>
       <c r="S16">
-        <v>0.5199384024418605</v>
+        <v>7.855505780993839E-05</v>
       </c>
       <c r="T16">
-        <v>7.855577715591808E-05</v>
+        <v>0.001452314713546207</v>
       </c>
       <c r="U16">
-        <v>0.001452308845650344</v>
+        <v>0.1462</v>
       </c>
       <c r="V16">
-        <v>1.059050262257544</v>
+        <v>7.968509055711527</v>
       </c>
       <c r="W16">
-        <v>1.244332687853447</v>
+        <v>9.38889787134749</v>
       </c>
       <c r="X16">
-        <v>232.7909427375093</v>
+        <v>8.471045126075985</v>
       </c>
       <c r="Y16">
-        <v>0.1462</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
+        <v>0.0029273671742812</v>
+      </c>
+      <c r="Z16">
+        <v>5.863422650641302E-05</v>
+      </c>
+      <c r="AA16">
+        <v>0.002967584684800476</v>
+      </c>
+      <c r="AB16">
+        <v>3.050887032732658E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.398370596419095E-06</v>
+        <v>1.00900544970193E-05</v>
       </c>
       <c r="C17">
-        <v>0.01728095249186944</v>
+        <v>0.01797192135711255</v>
       </c>
       <c r="D17">
-        <v>8.243610649773043E-05</v>
+        <v>4.93260607164507E-05</v>
       </c>
       <c r="E17">
-        <v>0.01851742589111335</v>
+        <v>0.02045533839168286</v>
       </c>
       <c r="F17">
-        <v>4.89977705527775</v>
+        <v>5.399777054366343</v>
       </c>
       <c r="S17">
-        <v>0.5260553248235295</v>
+        <v>7.775495189236705E-05</v>
       </c>
       <c r="T17">
-        <v>7.775567231005205E-05</v>
+        <v>0.001456578139893937</v>
       </c>
       <c r="U17">
-        <v>0.00145657218537293</v>
+        <v>0.1445</v>
       </c>
       <c r="V17">
-        <v>1.059342824866367</v>
+        <v>7.966420966137007</v>
       </c>
       <c r="W17">
-        <v>1.25968883613016</v>
+        <v>9.387972329814243</v>
       </c>
       <c r="X17">
-        <v>230.0825693984312</v>
+        <v>8.474466815746888</v>
       </c>
       <c r="Y17">
-        <v>0.1445</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
+        <v>0.002961116973666785</v>
+      </c>
+      <c r="Z17">
+        <v>5.881018737990542E-05</v>
+      </c>
+      <c r="AA17">
+        <v>0.003002138517911925</v>
+      </c>
+      <c r="AB17">
+        <v>3.072125109041543E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.392005826131088E-06</v>
+        <v>1.007749418225837E-05</v>
       </c>
       <c r="C18">
-        <v>0.01748569673455243</v>
+        <v>0.01818528558683155</v>
       </c>
       <c r="D18">
-        <v>8.356402325654514E-05</v>
+        <v>5.003294172547554E-05</v>
       </c>
       <c r="E18">
-        <v>0.01874875458888393</v>
+        <v>0.02072271351408103</v>
       </c>
       <c r="F18">
-        <v>4.899761485902847</v>
+        <v>5.399761484916157</v>
       </c>
       <c r="S18">
-        <v>0.5323178882142857</v>
+        <v>7.695366801941811E-05</v>
       </c>
       <c r="T18">
-        <v>7.695438952334562E-05</v>
+        <v>0.001460904888541075</v>
       </c>
       <c r="U18">
-        <v>0.001460898845065585</v>
+        <v>0.1428</v>
       </c>
       <c r="V18">
-        <v>1.059640329878514</v>
+        <v>7.964330762824545</v>
       </c>
       <c r="W18">
-        <v>1.275425482237002</v>
+        <v>9.387091647949044</v>
       </c>
       <c r="X18">
-        <v>227.3741959169862</v>
+        <v>8.477942909178696</v>
       </c>
       <c r="Y18">
-        <v>0.1428</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
+        <v>0.002995668244932105</v>
+      </c>
+      <c r="Z18">
+        <v>5.899372837454119E-05</v>
+      </c>
+      <c r="AA18">
+        <v>0.003037512532993134</v>
+      </c>
+      <c r="AB18">
+        <v>3.093784481675719E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.385484246939024E-06</v>
+        <v>1.00646128137793E-05</v>
       </c>
       <c r="C19">
-        <v>0.01769536098408612</v>
+        <v>0.0184037826066521</v>
       </c>
       <c r="D19">
-        <v>8.47229408189914E-05</v>
+        <v>5.075997224804246E-05</v>
       </c>
       <c r="E19">
-        <v>0.01898588545676868</v>
+        <v>0.02099702758662811</v>
       </c>
       <c r="F19">
-        <v>4.899745816947503</v>
+        <v>5.399745815883294</v>
       </c>
       <c r="S19">
-        <v>0.538731356746988</v>
+        <v>7.615119039835214E-05</v>
       </c>
       <c r="T19">
-        <v>7.615191300343633E-05</v>
+        <v>0.00146529667278033</v>
       </c>
       <c r="U19">
-        <v>0.00146529053792945</v>
+        <v>0.1411</v>
       </c>
       <c r="V19">
-        <v>1.059942921213407</v>
+        <v>7.962246522776769</v>
       </c>
       <c r="W19">
-        <v>1.291556833793787</v>
+        <v>9.386294915973453</v>
       </c>
       <c r="X19">
-        <v>224.665822298723</v>
+        <v>8.481520918157662</v>
       </c>
       <c r="Y19">
-        <v>0.1411</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
+        <v>0.003031049865613522</v>
+      </c>
+      <c r="Z19">
+        <v>5.918488722556378E-05</v>
+      </c>
+      <c r="AA19">
+        <v>0.003073736324416945</v>
+      </c>
+      <c r="AB19">
+        <v>3.115641686292769E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.378799988781213E-06</v>
+        <v>1.005139807265107E-05</v>
       </c>
       <c r="C20">
-        <v>0.01791012486266255</v>
+        <v>0.01862759995585215</v>
       </c>
       <c r="D20">
-        <v>8.591414551046464E-05</v>
+        <v>5.150801346811149E-05</v>
       </c>
       <c r="E20">
-        <v>0.01922903779537934</v>
+        <v>0.02127854972316312</v>
       </c>
       <c r="F20">
-        <v>4.899730046093777</v>
+        <v>5.399730044949721</v>
       </c>
       <c r="S20">
-        <v>0.5453012513414633</v>
+        <v>7.534750283426516E-05</v>
       </c>
       <c r="T20">
-        <v>7.53482265558116E-05</v>
+        <v>0.001469755273740868</v>
       </c>
       <c r="U20">
-        <v>0.001469749044997358</v>
+        <v>0.1394</v>
       </c>
       <c r="V20">
-        <v>1.060250748780009</v>
+        <v>7.960151958494057</v>
       </c>
       <c r="W20">
-        <v>1.308097809209479</v>
+        <v>9.385561075597327</v>
       </c>
       <c r="X20">
-        <v>221.9574485617624</v>
+        <v>8.4851681646551</v>
       </c>
       <c r="Y20">
-        <v>0.1394</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
+        <v>0.003067292121447521</v>
+      </c>
+      <c r="Z20">
+        <v>5.938437056423199E-05</v>
+      </c>
+      <c r="AA20">
+        <v>0.003110840957435896</v>
+      </c>
+      <c r="AB20">
+        <v>3.137885917721861E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.371946908508704E-06</v>
+        <v>1.003783697891984E-05</v>
       </c>
       <c r="C21">
-        <v>0.01813017684682492</v>
+        <v>0.01885693442427665</v>
       </c>
       <c r="D21">
-        <v>8.713899504932479E-05</v>
+        <v>5.227797591009198E-05</v>
       </c>
       <c r="E21">
-        <v>0.01947844202180059</v>
+        <v>0.021567562919469</v>
       </c>
       <c r="F21">
-        <v>4.899714170937255</v>
+        <v>5.39971416971093</v>
       </c>
       <c r="S21">
-        <v>0.5520333655555555</v>
+        <v>7.454258870133629E-05</v>
       </c>
       <c r="T21">
-        <v>7.454331355505722E-05</v>
+        <v>0.001474282543626031</v>
       </c>
       <c r="U21">
-        <v>0.001474276218371248</v>
+        <v>0.1377</v>
       </c>
       <c r="V21">
-        <v>1.060563968821932</v>
+        <v>7.95806027784992</v>
       </c>
       <c r="W21">
-        <v>1.325064083115686</v>
+        <v>9.384918836907797</v>
       </c>
       <c r="X21">
-        <v>219.249074674085</v>
+        <v>8.488916272662218</v>
       </c>
       <c r="Y21">
-        <v>0.1377</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
+        <v>0.003104426785038672</v>
+      </c>
+      <c r="Z21">
+        <v>5.95924581417688E-05</v>
+      </c>
+      <c r="AA21">
+        <v>0.003148859008031682</v>
+      </c>
+      <c r="AB21">
+        <v>3.160377374541591E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.36491854027568E-06</v>
+        <v>1.002391591770876E-05</v>
       </c>
       <c r="C22">
-        <v>0.01835571481997212</v>
+        <v>0.01909199262988123</v>
       </c>
       <c r="D22">
-        <v>8.839892403410107E-05</v>
+        <v>5.307082267434207E-05</v>
       </c>
       <c r="E22">
-        <v>0.01973434036939327</v>
+        <v>0.02186436496663649</v>
       </c>
       <c r="F22">
-        <v>4.899698188982564</v>
+        <v>5.399698187671443</v>
       </c>
       <c r="S22">
-        <v>0.5589337826249999</v>
+        <v>7.373643094541469E-05</v>
       </c>
       <c r="T22">
-        <v>7.373715694744518E-05</v>
+        <v>0.001478880409930366</v>
       </c>
       <c r="U22">
-        <v>0.001478873985438848</v>
+        <v>0.136</v>
       </c>
       <c r="V22">
-        <v>1.060882744240012</v>
+        <v>7.955960723134906</v>
       </c>
       <c r="W22">
-        <v>1.342472133972331</v>
+        <v>9.384323724454664</v>
       </c>
       <c r="X22">
-        <v>216.5407006423545</v>
+        <v>8.492706359708011</v>
       </c>
       <c r="Y22">
-        <v>0.136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
+        <v>0.003142487214124884</v>
+      </c>
+      <c r="Z22">
+        <v>5.980996755083547E-05</v>
+      </c>
+      <c r="AA22">
+        <v>0.003187824698460261</v>
+      </c>
+      <c r="AB22">
+        <v>3.18344721825562E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.357708089769917E-06</v>
+        <v>1.000962052902107E-05</v>
       </c>
       <c r="C23">
-        <v>0.01858694666675614</v>
+        <v>0.01933299164009904</v>
       </c>
       <c r="D23">
-        <v>8.969544920481241E-05</v>
+        <v>5.388757357131624E-05</v>
       </c>
       <c r="E23">
-        <v>0.01999698765385146</v>
+        <v>0.02216926939721135</v>
       </c>
       <c r="F23">
-        <v>4.899682097638728</v>
+        <v>5.399682096240177</v>
       </c>
       <c r="S23">
-        <v>0.5660088937974683</v>
+        <v>7.292901205418028E-05</v>
       </c>
       <c r="T23">
-        <v>7.292973922109501E-05</v>
+        <v>0.00148355087917374</v>
       </c>
       <c r="U23">
-        <v>0.001483544352607442</v>
+        <v>0.1343</v>
       </c>
       <c r="V23">
-        <v>1.061207244982592</v>
+        <v>7.953861740220727</v>
       </c>
       <c r="W23">
-        <v>1.360339296180372</v>
+        <v>9.38383601307506</v>
       </c>
       <c r="X23">
-        <v>213.832326451729</v>
+        <v>8.496607320131449</v>
       </c>
       <c r="Y23">
-        <v>0.1343</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
+        <v>0.003181508445094175</v>
+      </c>
+      <c r="Z23">
+        <v>6.003707063324348E-05</v>
+      </c>
+      <c r="AA23">
+        <v>0.003227773941830865</v>
+      </c>
+      <c r="AB23">
+        <v>3.206762534687715E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.350308406871364E-06</v>
+        <v>9.994935709638381E-06</v>
       </c>
       <c r="C24">
-        <v>0.01882409091313501</v>
+        <v>0.01958015964095196</v>
       </c>
       <c r="D24">
-        <v>9.103017546928517E-05</v>
+        <v>5.47293090750692E-05</v>
       </c>
       <c r="E24">
-        <v>0.02026665209312843</v>
+        <v>0.02248260653901542</v>
       </c>
       <c r="F24">
-        <v>4.89966589421412</v>
+        <v>5.399665892725394</v>
       </c>
       <c r="S24">
-        <v>0.5732654180769231</v>
+        <v>7.212031404854805E-05</v>
       </c>
       <c r="T24">
-        <v>7.212104239737939E-05</v>
+        <v>0.001488296041428569</v>
       </c>
       <c r="U24">
-        <v>0.001488289409830699</v>
+        <v>0.1326</v>
       </c>
       <c r="V24">
-        <v>1.06153764843035</v>
+        <v>7.951757916714291</v>
       </c>
       <c r="W24">
-        <v>1.378683815859077</v>
+        <v>9.383422086140666</v>
       </c>
       <c r="X24">
-        <v>211.123952109919</v>
+        <v>8.500573647607498</v>
       </c>
       <c r="Y24">
-        <v>0.1326</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
+        <v>0.003221527308869316</v>
+      </c>
+      <c r="Z24">
+        <v>6.027452087799812E-05</v>
+      </c>
+      <c r="AA24">
+        <v>0.003268744535631941</v>
+      </c>
+      <c r="AB24">
+        <v>3.230588531692205E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.342711950892753E-06</v>
+        <v>9.979845527943714E-06</v>
       </c>
       <c r="C25">
-        <v>0.01906737741622158</v>
+        <v>0.01983373665824906</v>
       </c>
       <c r="D25">
-        <v>9.240480255098153E-05</v>
+        <v>5.559717502820188E-05</v>
       </c>
       <c r="E25">
-        <v>0.02054361619066259</v>
+        <v>0.02280472462773441</v>
       </c>
       <c r="F25">
-        <v>4.899649575911189</v>
+        <v>5.39964957432942</v>
       </c>
       <c r="S25">
-        <v>0.5807104235064935</v>
+        <v>7.131031845271977E-05</v>
       </c>
       <c r="T25">
-        <v>7.13110480009762E-05</v>
+        <v>0.00149311807464696</v>
       </c>
       <c r="U25">
-        <v>0.001493111334935399</v>
+        <v>0.1309</v>
       </c>
       <c r="V25">
-        <v>1.061874139838747</v>
+        <v>7.949657612928889</v>
       </c>
       <c r="W25">
-        <v>1.397524910929428</v>
+        <v>9.383103953458292</v>
       </c>
       <c r="X25">
-        <v>208.4155775954214</v>
+        <v>8.504626759530199</v>
       </c>
       <c r="Y25">
-        <v>0.1309</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25">
+        <v>0.00326258253988219</v>
+      </c>
+      <c r="Z25">
+        <v>6.05228160087826E-05</v>
+      </c>
+      <c r="AA25">
+        <v>0.003310776206415253</v>
+      </c>
+      <c r="AB25">
+        <v>3.254842789498596E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5.334910806822425E-06</v>
+        <v>9.964333210314509E-06</v>
       </c>
       <c r="C26">
-        <v>0.01931704810850672</v>
+        <v>0.02009397533565986</v>
       </c>
       <c r="D26">
-        <v>9.382113137156346E-05</v>
+        <v>5.649238740317269E-05</v>
       </c>
       <c r="E26">
-        <v>0.02082817770396727</v>
+        <v>0.02313599103157647</v>
       </c>
       <c r="F26">
-        <v>4.899633139820683</v>
+        <v>5.399633138142877</v>
       </c>
       <c r="S26">
-        <v>0.5883513501315789</v>
+        <v>7.04990062882431E-05</v>
       </c>
       <c r="T26">
-        <v>7.049973705392968E-05</v>
+        <v>0.001498019249918767</v>
       </c>
       <c r="U26">
-        <v>0.001498012398879029</v>
+        <v>0.1292</v>
       </c>
       <c r="V26">
-        <v>1.062216912773811</v>
+        <v>7.947542603391016</v>
       </c>
       <c r="W26">
-        <v>1.416882837004576</v>
+        <v>9.382872454895987</v>
       </c>
       <c r="X26">
-        <v>205.7072029230772</v>
+        <v>8.508751853026125</v>
       </c>
       <c r="Y26">
-        <v>0.1292</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25">
+        <v>0.003304714904669998</v>
+      </c>
+      <c r="Z26">
+        <v>6.078259049465142E-05</v>
+      </c>
+      <c r="AA26">
+        <v>0.003353910782448415</v>
+      </c>
+      <c r="AB26">
+        <v>3.279634165831942E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5.32689659865321E-06</v>
+        <v>9.948381028936339E-06</v>
       </c>
       <c r="C27">
-        <v>0.01957335780153519</v>
+        <v>0.02036114177496995</v>
       </c>
       <c r="D27">
-        <v>9.528107266581209E-05</v>
+        <v>5.741623796684362E-05</v>
       </c>
       <c r="E27">
-        <v>0.02112065066253921</v>
+        <v>0.02347679354597182</v>
       </c>
       <c r="F27">
-        <v>4.899616582915663</v>
+        <v>5.399616581138694</v>
       </c>
       <c r="S27">
-        <v>0.5961960348000001</v>
+        <v>6.968635803684431E-05</v>
       </c>
       <c r="T27">
-        <v>6.968709003848308E-05</v>
+        <v>0.001503001936323818</v>
       </c>
       <c r="U27">
-        <v>0.001502994970601522</v>
+        <v>0.1275</v>
       </c>
       <c r="V27">
-        <v>1.062566169626067</v>
+        <v>7.94542616754195</v>
       </c>
       <c r="W27">
-        <v>1.43677895663532</v>
+        <v>9.382717500301238</v>
       </c>
       <c r="X27">
-        <v>202.9988280684875</v>
+        <v>8.5129339394868</v>
       </c>
       <c r="Y27">
-        <v>0.1275</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25">
+        <v>0.00334796733552567</v>
+      </c>
+      <c r="Z27">
+        <v>6.105445577633441E-05</v>
+      </c>
+      <c r="AA27">
+        <v>0.003398192308325616</v>
+      </c>
+      <c r="AB27">
+        <v>3.305077302059915E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5.31866052186811E-06</v>
+        <v>9.931970276180412E-06</v>
       </c>
       <c r="C28">
-        <v>0.01983657505462802</v>
+        <v>0.02063551644438891</v>
       </c>
       <c r="D28">
-        <v>9.678665436077149E-05</v>
+        <v>5.837010001187087E-05</v>
       </c>
       <c r="E28">
-        <v>0.02142136650491294</v>
+        <v>0.02382754182348787</v>
       </c>
       <c r="F28">
-        <v>4.899599902044921</v>
+        <v>5.399599900165517</v>
       </c>
       <c r="S28">
-        <v>0.604252737972973</v>
+        <v>6.887235363181147E-05</v>
       </c>
       <c r="T28">
-        <v>6.88730868884639E-05</v>
+        <v>0.001508068606899944</v>
       </c>
       <c r="U28">
-        <v>0.001508061522992736</v>
+        <v>0.1258</v>
       </c>
       <c r="V28">
-        <v>1.062922122115319</v>
+        <v>7.943304087951525</v>
       </c>
       <c r="W28">
-        <v>1.457235816660744</v>
+        <v>9.382684670002021</v>
       </c>
       <c r="X28">
-        <v>200.2904530314181</v>
+        <v>8.517218308681585</v>
       </c>
       <c r="Y28">
-        <v>0.1258</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
+        <v>0.003392385077143904</v>
+      </c>
+      <c r="Z28">
+        <v>6.13390507751951E-05</v>
+      </c>
+      <c r="AA28">
+        <v>0.003443667193937846</v>
+      </c>
+      <c r="AB28">
+        <v>3.33096266602919E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5.310193253628596E-06</v>
+        <v>9.915081188395585E-06</v>
       </c>
       <c r="C29">
-        <v>0.02010698311490565</v>
+        <v>0.02091739516143518</v>
       </c>
       <c r="D29">
-        <v>9.83400316715262E-05</v>
+        <v>5.935543486149596E-05</v>
       </c>
       <c r="E29">
-        <v>0.02173067527374944</v>
+        <v>0.02418866890859081</v>
       </c>
       <c r="F29">
-        <v>4.899583093926062</v>
+        <v>5.399583091940804</v>
       </c>
       <c r="S29">
-        <v>0.6125301727397261</v>
+        <v>6.805697242729541E-05</v>
       </c>
       <c r="T29">
-        <v>6.805770695858545E-05</v>
+        <v>0.001513221844490239</v>
       </c>
       <c r="U29">
-        <v>0.001513214638739145</v>
+        <v>0.1241</v>
       </c>
       <c r="V29">
-        <v>1.06328499186608</v>
+        <v>7.941176677415246</v>
       </c>
       <c r="W29">
-        <v>1.478277229506765</v>
+        <v>9.382734120711239</v>
       </c>
       <c r="X29">
-        <v>197.5820778017392</v>
+        <v>8.521557706370718</v>
       </c>
       <c r="Y29">
-        <v>0.1241</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
+        <v>0.003438015844628407</v>
+      </c>
+      <c r="Z29">
+        <v>6.16370523366681E-05</v>
+      </c>
+      <c r="AA29">
+        <v>0.003490384420886854</v>
+      </c>
+      <c r="AB29">
+        <v>3.357583848373305E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5.301484961215766E-06</v>
+        <v>9.897692865630726E-06</v>
       </c>
       <c r="C30">
-        <v>0.02038488093550613</v>
+        <v>0.02120709015763759</v>
       </c>
       <c r="D30">
-        <v>9.994349641164781E-05</v>
+        <v>6.037379898780388E-05</v>
       </c>
       <c r="E30">
-        <v>0.02204894694287696</v>
+        <v>0.02456063290159584</v>
       </c>
       <c r="F30">
-        <v>4.899566155138032</v>
+        <v>5.399566153043342</v>
       </c>
       <c r="S30">
-        <v>0.62103753625</v>
+        <v>6.724019317717205E-05</v>
       </c>
       <c r="T30">
-        <v>6.724092900331134E-05</v>
+        <v>0.001518464348306861</v>
       </c>
       <c r="U30">
-        <v>0.001518457016887</v>
+        <v>0.1224</v>
       </c>
       <c r="V30">
-        <v>1.06365501100857</v>
+        <v>7.93903632369149</v>
       </c>
       <c r="W30">
-        <v>1.499928363461018</v>
+        <v>9.382902177765514</v>
       </c>
       <c r="X30">
-        <v>194.8737023761933</v>
+        <v>8.525986221230072</v>
       </c>
       <c r="Y30">
-        <v>0.1224</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25">
+        <v>0.003484909994521348</v>
+      </c>
+      <c r="Z30">
+        <v>6.194922490148864E-05</v>
+      </c>
+      <c r="AA30">
+        <v>0.003538395651198008</v>
+      </c>
+      <c r="AB30">
+        <v>3.384795759179567E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5.292525256385546E-06</v>
+        <v>9.879783189992975E-06</v>
       </c>
       <c r="C31">
-        <v>0.02067058427971872</v>
+        <v>0.02150493123311153</v>
       </c>
       <c r="D31">
-        <v>0.0001015994880894276</v>
+        <v>6.142685179713344E-05</v>
       </c>
       <c r="E31">
-        <v>0.02237657284140914</v>
+        <v>0.02494391876649614</v>
       </c>
       <c r="F31">
-        <v>4.899549082113128</v>
+        <v>5.399549079905254</v>
       </c>
       <c r="S31">
-        <v>0.6297845438028169</v>
+        <v>6.642199400828049E-05</v>
       </c>
       <c r="T31">
-        <v>6.642273115009428E-05</v>
+        <v>0.001523798940865333</v>
       </c>
       <c r="U31">
-        <v>0.001523791479775936</v>
+        <v>0.1207</v>
       </c>
       <c r="V31">
-        <v>1.064032422832403</v>
+        <v>7.936896293388301</v>
       </c>
       <c r="W31">
-        <v>1.522215839551643</v>
+        <v>9.383211810368275</v>
       </c>
       <c r="X31">
-        <v>192.1653267555209</v>
+        <v>8.530521357995047</v>
       </c>
       <c r="Y31">
-        <v>0.1207</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25">
+        <v>0.003533120709586416</v>
+      </c>
+      <c r="Z31">
+        <v>6.227644304716979E-05</v>
+      </c>
+      <c r="AA31">
+        <v>0.003587755477868518</v>
+      </c>
+      <c r="AB31">
+        <v>3.41254167921742E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5.283303125821453E-06</v>
+        <v>9.861328738333656E-06</v>
       </c>
       <c r="C32">
-        <v>0.02096442691959914</v>
+        <v>0.02181126700998745</v>
       </c>
       <c r="D32">
-        <v>0.000103310606455372</v>
+        <v>6.251636417869754E-05</v>
       </c>
       <c r="E32">
-        <v>0.02271396719370379</v>
+        <v>0.02533904029577045</v>
       </c>
       <c r="F32">
-        <v>4.899531871128461</v>
+        <v>5.399531868803477</v>
       </c>
       <c r="S32">
-        <v>0.6387814658571429</v>
+        <v>6.56023523875945E-05</v>
       </c>
       <c r="T32">
-        <v>6.560309086654949E-05</v>
+        <v>0.001529228575310335</v>
       </c>
       <c r="U32">
-        <v>0.001529220980364021</v>
+        <v>0.119</v>
       </c>
       <c r="V32">
-        <v>1.064417482498623</v>
+        <v>7.934737547496916</v>
       </c>
       <c r="W32">
-        <v>1.54516783630638</v>
+        <v>9.383588443933197</v>
       </c>
       <c r="X32">
-        <v>189.456950920619</v>
+        <v>8.535084862802201</v>
       </c>
       <c r="Y32">
-        <v>0.119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25">
+        <v>0.003582704199108405</v>
+      </c>
+      <c r="Z32">
+        <v>6.261920537586058E-05</v>
+      </c>
+      <c r="AA32">
+        <v>0.003638521621598181</v>
+      </c>
+      <c r="AB32">
+        <v>3.441297508405884E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5.273806931504081E-06</v>
+        <v>9.842304688306833E-06</v>
       </c>
       <c r="C33">
-        <v>0.02126676193863021</v>
+        <v>0.02212646629470932</v>
       </c>
       <c r="D33">
-        <v>0.0001050796239554415</v>
+        <v>6.364422790447826E-05</v>
       </c>
       <c r="E33">
-        <v>0.0230615688193179</v>
+        <v>0.02574654224708919</v>
       </c>
       <c r="F33">
-        <v>4.899514518296716</v>
+        <v>5.399514515850503</v>
       </c>
       <c r="S33">
-        <v>0.6480391682608696</v>
+        <v>6.478124509758994E-05</v>
       </c>
       <c r="T33">
-        <v>6.478198493582374E-05</v>
+        <v>0.001534756343573897</v>
       </c>
       <c r="U33">
-        <v>0.001534748610385127</v>
+        <v>0.1173</v>
       </c>
       <c r="V33">
-        <v>1.064810457790649</v>
+        <v>7.932577666153577</v>
       </c>
       <c r="W33">
-        <v>1.568814205395776</v>
+        <v>9.384066671125058</v>
       </c>
       <c r="X33">
-        <v>186.7485748542864</v>
+        <v>8.539708159756115</v>
       </c>
       <c r="Y33">
-        <v>0.1173</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25">
+        <v>0.003633719923655254</v>
+      </c>
+      <c r="Z33">
+        <v>6.297839722645228E-05</v>
+      </c>
+      <c r="AA33">
+        <v>0.003690755080243313</v>
+      </c>
+      <c r="AB33">
+        <v>3.47093784081053E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5.264024324807341E-06</v>
+        <v>9.822684732203319E-06</v>
       </c>
       <c r="C34">
-        <v>0.02157796314914013</v>
+        <v>0.02245091956039763</v>
       </c>
       <c r="D34">
-        <v>0.000106909500955154</v>
+        <v>6.481246589720411E-05</v>
       </c>
       <c r="E34">
-        <v>0.0234198429550125</v>
+        <v>0.02616700267602082</v>
       </c>
       <c r="F34">
-        <v>4.899497019556173</v>
+        <v>5.39949701698441</v>
       </c>
       <c r="S34">
-        <v>0.6575691560294118</v>
+        <v>6.395864821272627E-05</v>
       </c>
       <c r="T34">
-        <v>6.395938943307883E-05</v>
+        <v>0.00154038548524776</v>
       </c>
       <c r="U34">
-        <v>0.001540377609220384</v>
+        <v>0.1156</v>
       </c>
       <c r="V34">
-        <v>1.065211629919546</v>
+        <v>7.930406500962386</v>
       </c>
       <c r="W34">
-        <v>1.593186595579082</v>
+        <v>9.384715501079093</v>
       </c>
       <c r="X34">
-        <v>184.0401985759526</v>
+        <v>8.544452684464089</v>
       </c>
       <c r="Y34">
-        <v>0.1156</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25">
+        <v>0.003686230828455678</v>
+      </c>
+      <c r="Z34">
+        <v>6.335533336375796E-05</v>
+      </c>
+      <c r="AA34">
+        <v>0.003744520458211477</v>
+      </c>
+      <c r="AB34">
+        <v>3.501173290594154E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5.253942220919171E-06</v>
+        <v>9.802440896047541E-06</v>
       </c>
       <c r="C35">
-        <v>0.02189842663642648</v>
+        <v>0.02278504056180808</v>
       </c>
       <c r="D35">
-        <v>0.0001088034013076737</v>
+        <v>6.602324405134231E-05</v>
       </c>
       <c r="E35">
-        <v>0.02378928326501931</v>
+        <v>0.02660103544489618</v>
       </c>
       <c r="F35">
-        <v>4.899479370660242</v>
+        <v>5.399479367958389</v>
       </c>
       <c r="S35">
-        <v>0.6673836210447762</v>
+        <v>6.313453704501283E-05</v>
       </c>
       <c r="T35">
-        <v>6.313527967105953E-05</v>
+        <v>0.001546119396301241</v>
       </c>
       <c r="U35">
-        <v>0.001546111372615084</v>
+        <v>0.1139</v>
       </c>
       <c r="V35">
-        <v>1.065621294446627</v>
+        <v>7.928222464017866</v>
       </c>
       <c r="W35">
-        <v>1.618318589457096</v>
+        <v>9.385455097246476</v>
       </c>
       <c r="X35">
-        <v>181.3318220426199</v>
+        <v>8.549238793722992</v>
       </c>
       <c r="Y35">
-        <v>0.1139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25">
+        <v>0.00374030359703914</v>
+      </c>
+      <c r="Z35">
+        <v>6.375042856359271E-05</v>
+      </c>
+      <c r="AA35">
+        <v>0.00379988626008171</v>
+      </c>
+      <c r="AB35">
+        <v>3.532502908999601E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5.243546717485223E-06</v>
+        <v>9.781543535084616E-06</v>
       </c>
       <c r="C36">
-        <v>0.02222857244301919</v>
+        <v>0.02312926809692561</v>
       </c>
       <c r="D36">
-        <v>0.0001107647105083986</v>
+        <v>6.727888321638612E-05</v>
       </c>
       <c r="E36">
-        <v>0.02417041401454793</v>
+        <v>0.02704929303544905</v>
       </c>
       <c r="F36">
-        <v>4.899461567165694</v>
+        <v>5.399461564328982</v>
       </c>
       <c r="S36">
-        <v>0.6774954940909091</v>
+        <v>6.230888613831465E-05</v>
       </c>
       <c r="T36">
-        <v>6.230963019440167E-05</v>
+        <v>0.001551961639994187</v>
       </c>
       <c r="U36">
-        <v>0.001551953463590544</v>
+        <v>0.1122</v>
       </c>
       <c r="V36">
-        <v>1.066039762188857</v>
+        <v>7.926024333428681</v>
       </c>
       <c r="W36">
-        <v>1.644245851329791</v>
+        <v>9.386307727415796</v>
       </c>
       <c r="X36">
-        <v>178.6234452837866</v>
+        <v>8.55408371157284</v>
       </c>
       <c r="Y36">
-        <v>0.1122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25">
+        <v>0.003796008948076648</v>
+      </c>
+      <c r="Z36">
+        <v>6.416471831846529E-05</v>
+      </c>
+      <c r="AA36">
+        <v>0.003856925066611887</v>
+      </c>
+      <c r="AB36">
+        <v>3.564883900385577E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5.232823064922664E-06</v>
+        <v>9.759961051524155E-06</v>
       </c>
       <c r="C37">
-        <v>0.02256884640813474</v>
+        <v>0.02348406793098268</v>
       </c>
       <c r="D37">
-        <v>0.0001127970546626791</v>
+        <v>6.858187403828767E-05</v>
       </c>
       <c r="E37">
-        <v>0.02456379246867302</v>
+        <v>0.02751246951053781</v>
       </c>
       <c r="F37">
-        <v>4.89944360442056</v>
+        <v>5.399443601443976</v>
       </c>
       <c r="S37">
-        <v>0.6879185016923078</v>
+        <v>6.14816692006035E-05</v>
       </c>
       <c r="T37">
-        <v>6.148241471188533E-05</v>
+        <v>0.001557915956868862</v>
       </c>
       <c r="U37">
-        <v>0.001557907622434829</v>
+        <v>0.1105</v>
       </c>
       <c r="V37">
-        <v>1.066467360310908</v>
+        <v>7.923815048337615</v>
       </c>
       <c r="W37">
-        <v>1.67100629038592</v>
+        <v>9.387320945262548</v>
       </c>
       <c r="X37">
-        <v>175.91506826079</v>
+        <v>8.559027039705221</v>
       </c>
       <c r="Y37">
-        <v>0.1105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25">
+        <v>0.003853421936226774</v>
+      </c>
+      <c r="Z37">
+        <v>6.459967915235409E-05</v>
+      </c>
+      <c r="AA37">
+        <v>0.003915713931652011</v>
+      </c>
+      <c r="AB37">
+        <v>3.598161679009464E-05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5.221755565254127E-06</v>
+        <v>9.737659863177215E-06</v>
       </c>
       <c r="C38">
-        <v>0.02291972217928273</v>
+        <v>0.02384993490062243</v>
       </c>
       <c r="D38">
-        <v>0.0001149043227905845</v>
+        <v>6.993489183545584E-05</v>
       </c>
       <c r="E38">
-        <v>0.02497001148946379</v>
+        <v>0.02799130386525728</v>
       </c>
       <c r="F38">
-        <v>4.899425477550558</v>
+        <v>5.399425474428826</v>
       </c>
       <c r="S38">
-        <v>0.6986672282812501</v>
+        <v>6.065285908385421E-05</v>
       </c>
       <c r="T38">
-        <v>6.065360607633385E-05</v>
+        <v>0.001563986277085435</v>
       </c>
       <c r="U38">
-        <v>0.001563977779036943</v>
+        <v>0.1088</v>
       </c>
       <c r="V38">
-        <v>1.066904433415035</v>
+        <v>7.921590507763616</v>
       </c>
       <c r="W38">
-        <v>1.698640237378489</v>
+        <v>9.388461728608076</v>
       </c>
       <c r="X38">
-        <v>173.2066909562469</v>
+        <v>8.564034356619839</v>
       </c>
       <c r="Y38">
-        <v>0.1088</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25">
+        <v>0.003912622283993561</v>
+      </c>
+      <c r="Z38">
+        <v>6.505607431531202E-05</v>
+      </c>
+      <c r="AA38">
+        <v>0.003976334749071728</v>
+      </c>
+      <c r="AB38">
+        <v>3.63259051493586E-05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5.210327528182397E-06</v>
+        <v>9.714604212049543E-06</v>
       </c>
       <c r="C39">
-        <v>0.02328170341510007</v>
+        <v>0.02422739521822222</v>
       </c>
       <c r="D39">
-        <v>0.0001170906902793538</v>
+        <v>7.134081401747381E-05</v>
       </c>
       <c r="E39">
-        <v>0.02538970240761142</v>
+        <v>0.02848658363259862</v>
       </c>
       <c r="F39">
-        <v>4.899407181444598</v>
+        <v>5.399407178172161</v>
       </c>
       <c r="S39">
-        <v>0.7097571842857143</v>
+        <v>5.982242774234392E-05</v>
       </c>
       <c r="T39">
-        <v>5.982317624291573E-05</v>
+        <v>0.001570176733196893</v>
       </c>
       <c r="U39">
-        <v>0.00157016806566032</v>
+        <v>0.1071</v>
       </c>
       <c r="V39">
-        <v>1.067351344760667</v>
+        <v>7.919354361945003</v>
       </c>
       <c r="W39">
-        <v>1.727190639973566</v>
+        <v>9.38971088399358</v>
       </c>
       <c r="X39">
-        <v>170.4983133756224</v>
+        <v>8.569085869715927</v>
       </c>
       <c r="Y39">
-        <v>0.1071</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25">
+        <v>0.003973694763512265</v>
+      </c>
+      <c r="Z39">
+        <v>6.553478873370736E-05</v>
+      </c>
+      <c r="AA39">
+        <v>0.004038874571991131</v>
+      </c>
+      <c r="AB39">
+        <v>3.668356876735471E-05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5.198521141019753E-06</v>
+        <v>9.690755949051585E-06</v>
       </c>
       <c r="C40">
-        <v>0.02365532620098428</v>
+        <v>0.0246170089989352</v>
       </c>
       <c r="D40">
-        <v>0.0001193606465848273</v>
+        <v>7.280273952696169E-05</v>
       </c>
       <c r="E40">
-        <v>0.02582353813941879</v>
+        <v>0.02899914883129232</v>
       </c>
       <c r="F40">
-        <v>4.899388710739188</v>
+        <v>5.39938870731019</v>
       </c>
       <c r="S40">
-        <v>0.7212048808064516</v>
+        <v>5.899034617939873E-05</v>
       </c>
       <c r="T40">
-        <v>5.899109621589386E-05</v>
+        <v>0.001576491673721552</v>
       </c>
       <c r="U40">
-        <v>0.00157648283051377</v>
+        <v>0.1054</v>
       </c>
       <c r="V40">
-        <v>1.067808477607994</v>
+        <v>7.917103453878719</v>
       </c>
       <c r="W40">
-        <v>1.756703274790394</v>
+        <v>9.391153498740888</v>
       </c>
       <c r="X40">
-        <v>167.7899355087577</v>
+        <v>8.574250824946924</v>
       </c>
       <c r="Y40">
-        <v>0.1054</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25">
+        <v>0.004036729601815145</v>
+      </c>
+      <c r="Z40">
+        <v>6.603804194258232E-05</v>
+      </c>
+      <c r="AA40">
+        <v>0.004103426039785064</v>
+      </c>
+      <c r="AB40">
+        <v>3.705140824623384E-05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5.186317448721922E-06</v>
+        <v>9.666074374079871E-06</v>
       </c>
       <c r="C41">
-        <v>0.02404116170187607</v>
+        <v>0.02501937303597468</v>
       </c>
       <c r="D41">
-        <v>0.000121719023570847</v>
+        <v>7.432401005415753E-05</v>
       </c>
       <c r="E41">
-        <v>0.02627223666180111</v>
+        <v>0.02952989633327461</v>
       </c>
       <c r="F41">
-        <v>4.899370059801469</v>
+        <v>5.39937005620973</v>
       </c>
       <c r="S41">
-        <v>0.7330279116393443</v>
+        <v>5.815658439847879E-05</v>
       </c>
       <c r="T41">
-        <v>5.8157335999714E-05</v>
+        <v>0.001582935678113531</v>
       </c>
       <c r="U41">
-        <v>0.001582926652720228</v>
+        <v>0.1037</v>
       </c>
       <c r="V41">
-        <v>1.068276236666236</v>
+        <v>7.914831990948698</v>
       </c>
       <c r="W41">
-        <v>1.787226983795994</v>
+        <v>9.392676256148421</v>
       </c>
       <c r="X41">
-        <v>165.0815573251329</v>
+        <v>8.579429677675995</v>
       </c>
       <c r="Y41">
-        <v>0.1037</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25">
+        <v>0.004101822906075351</v>
+      </c>
+      <c r="Z41">
+        <v>6.656567048933614E-05</v>
+      </c>
+      <c r="AA41">
+        <v>0.004170087918990618</v>
+      </c>
+      <c r="AB41">
+        <v>3.743593288089757E-05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5.173696197698129E-06</v>
+        <v>9.640516036198233E-06</v>
       </c>
       <c r="C42">
-        <v>0.02443981907984783</v>
+        <v>0.02543512385307336</v>
       </c>
       <c r="D42">
-        <v>0.0001241710298638803</v>
+        <v>7.590823386507659E-05</v>
       </c>
       <c r="E42">
-        <v>0.02673656477762768</v>
+        <v>0.03007978465271529</v>
       </c>
       <c r="F42">
-        <v>4.899351222710573</v>
+        <v>5.399351218949573</v>
       </c>
       <c r="S42">
-        <v>0.7452450435000001</v>
+        <v>5.732111136624349E-05</v>
       </c>
       <c r="T42">
-        <v>5.73218645620734E-05</v>
+        <v>0.001589513573545176</v>
       </c>
       <c r="U42">
-        <v>0.001589504359097272</v>
+        <v>0.102</v>
       </c>
       <c r="V42">
-        <v>1.068755049640559</v>
+        <v>7.912544980093178</v>
       </c>
       <c r="W42">
-        <v>1.818813930450863</v>
+        <v>9.39437463172615</v>
       </c>
       <c r="X42">
-        <v>162.3731788381851</v>
+        <v>8.584699199328004</v>
       </c>
       <c r="Y42">
-        <v>0.102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25">
+        <v>0.004169077193335117</v>
+      </c>
+      <c r="Z42">
+        <v>6.712027448448121E-05</v>
+      </c>
+      <c r="AA42">
+        <v>0.004238965452092448</v>
+      </c>
+      <c r="AB42">
+        <v>3.783361858070725E-05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5.16063576248383E-06</v>
+        <v>9.614034437320005E-06</v>
       </c>
       <c r="C43">
-        <v>0.02485194870781366</v>
+        <v>0.02586494106695824</v>
       </c>
       <c r="D43">
-        <v>0.0001267222872091121</v>
+        <v>7.755931297871782E-05</v>
       </c>
       <c r="E43">
-        <v>0.02721734230688977</v>
+        <v>0.03064983917818058</v>
       </c>
       <c r="F43">
-        <v>4.899332193237774</v>
+        <v>5.399332189300623</v>
       </c>
       <c r="S43">
-        <v>0.7578763154237289</v>
+        <v>5.648389494206193E-05</v>
       </c>
       <c r="T43">
-        <v>5.648464976343483E-05</v>
+        <v>0.001596230452172181</v>
       </c>
       <c r="U43">
-        <v>0.00159622104142013</v>
+        <v>0.1003</v>
       </c>
       <c r="V43">
-        <v>1.069245368984015</v>
+        <v>7.910237901660683</v>
       </c>
       <c r="W43">
-        <v>1.851519884822433</v>
+        <v>9.396207083747976</v>
       </c>
       <c r="X43">
-        <v>159.6648000329717</v>
+        <v>8.590021502320699</v>
       </c>
       <c r="Y43">
-        <v>0.1003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25">
+        <v>0.00423860188687496</v>
+      </c>
+      <c r="Z43">
+        <v>6.770272084899892E-05</v>
+      </c>
+      <c r="AA43">
+        <v>0.004310171076389257</v>
+      </c>
+      <c r="AB43">
+        <v>3.824760506394594E-05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5.147112980654862E-06</v>
+        <v>9.586579845780214E-06</v>
       </c>
       <c r="C44">
-        <v>0.02527824571506545</v>
+        <v>0.02630955109719926</v>
       </c>
       <c r="D44">
-        <v>0.0001293788730018426</v>
+        <v>7.928147273807448E-05</v>
       </c>
       <c r="E44">
-        <v>0.02771544667127364</v>
+        <v>0.03124115800798196</v>
       </c>
       <c r="F44">
-        <v>4.899312964824705</v>
+        <v>5.399312960704113</v>
       </c>
       <c r="S44">
-        <v>0.7709431484482758</v>
+        <v>5.564490181701067E-05</v>
       </c>
       <c r="T44">
-        <v>5.564565829602826E-05</v>
+        <v>0.001603091690403917</v>
       </c>
       <c r="U44">
-        <v>0.001603082075689677</v>
+        <v>0.09860000000000002</v>
       </c>
       <c r="V44">
-        <v>1.069747673784928</v>
+        <v>7.907910181658232</v>
       </c>
       <c r="W44">
-        <v>1.885404535460792</v>
+        <v>9.398177393951189</v>
       </c>
       <c r="X44">
-        <v>156.9564208548169</v>
+        <v>8.59539639961484</v>
       </c>
       <c r="Y44">
-        <v>0.09860000000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25">
+        <v>0.004310513941461614</v>
+      </c>
+      <c r="Z44">
+        <v>6.831454680460576E-05</v>
+      </c>
+      <c r="AA44">
+        <v>0.00438382492934314</v>
+      </c>
+      <c r="AB44">
+        <v>3.867888808500262E-05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5.133103085298127E-06</v>
+        <v>9.558098967120078E-06</v>
       </c>
       <c r="C45">
-        <v>0.0257194539052771</v>
+        <v>0.02676973126604946</v>
       </c>
       <c r="D45">
-        <v>0.0001321473654731144</v>
+        <v>8.107929584372367E-05</v>
       </c>
       <c r="E45">
-        <v>0.02823181801270023</v>
+        <v>0.03185491832244145</v>
       </c>
       <c r="F45">
-        <v>4.899293530559251</v>
+        <v>5.399293526247503</v>
       </c>
       <c r="S45">
-        <v>0.7844684668421052</v>
+        <v>5.480409747325358E-05</v>
       </c>
       <c r="T45">
-        <v>5.480485564323556E-05</v>
+        <v>0.001610102970806313</v>
       </c>
       <c r="U45">
-        <v>0.001610093144032712</v>
+        <v>0.09690000000000001</v>
       </c>
       <c r="V45">
-        <v>1.070262471778474</v>
+        <v>7.905558832655966</v>
       </c>
       <c r="W45">
-        <v>1.920531837598655</v>
+        <v>9.400315410556086</v>
       </c>
       <c r="X45">
-        <v>154.2480413086498</v>
+        <v>8.600844601759038</v>
       </c>
       <c r="Y45">
-        <v>0.09690000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25">
+        <v>0.00438493849224507</v>
+      </c>
+      <c r="Z45">
+        <v>6.895791690512628E-05</v>
+      </c>
+      <c r="AA45">
+        <v>0.004460055561645914</v>
+      </c>
+      <c r="AB45">
+        <v>3.912739752892804E-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5.118579515028583E-06</v>
+        <v>9.528534628523907E-06</v>
       </c>
       <c r="C46">
-        <v>0.02617637009348788</v>
+        <v>0.02724631433694599</v>
       </c>
       <c r="D46">
-        <v>0.0001350348970717312</v>
+        <v>8.295776039093316E-05</v>
       </c>
       <c r="E46">
-        <v>0.02876746480450159</v>
+        <v>0.03249238345082946</v>
       </c>
       <c r="F46">
-        <v>4.899273883149755</v>
+        <v>5.399273878638676</v>
       </c>
       <c r="S46">
-        <v>0.7984768323214285</v>
+        <v>5.396144610260477E-05</v>
       </c>
       <c r="T46">
-        <v>5.396220599815779E-05</v>
+        <v>0.001617270304768212</v>
       </c>
       <c r="U46">
-        <v>0.001617260257365428</v>
+        <v>0.09520000000000002</v>
       </c>
       <c r="V46">
-        <v>1.070790301633687</v>
+        <v>7.903190902545</v>
       </c>
       <c r="W46">
-        <v>1.956970394864054</v>
+        <v>9.402620609136504</v>
       </c>
       <c r="X46">
-        <v>151.539661394037</v>
+        <v>8.606361723147653</v>
       </c>
       <c r="Y46">
-        <v>0.09520000000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25">
+        <v>0.004462009573947569</v>
+      </c>
+      <c r="Z46">
+        <v>6.963461367627759E-05</v>
+      </c>
+      <c r="AA46">
+        <v>0.004539000707433718</v>
+      </c>
+      <c r="AB46">
+        <v>3.959454892333269E-05</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5.103513756960874E-06</v>
+        <v>9.497825490731334E-06</v>
       </c>
       <c r="C47">
-        <v>0.02664984891524091</v>
+        <v>0.02774019354742881</v>
       </c>
       <c r="D47">
-        <v>0.0001380492134704031</v>
+        <v>8.492228236554341E-05</v>
       </c>
       <c r="E47">
-        <v>0.02932347009515354</v>
+        <v>0.03315491072773423</v>
       </c>
       <c r="F47">
-        <v>4.899254014896824</v>
+        <v>5.399254010177743</v>
       </c>
       <c r="S47">
-        <v>0.8129945929090908</v>
+        <v>5.311691052147802E-05</v>
       </c>
       <c r="T47">
-        <v>5.311767217857004E-05</v>
+        <v>0.00162460005736102</v>
       </c>
       <c r="U47">
-        <v>0.001624589780249845</v>
+        <v>0.09350000000000001</v>
       </c>
       <c r="V47">
-        <v>1.071331735463423</v>
+        <v>7.900795490190308</v>
       </c>
       <c r="W47">
-        <v>1.99479388402405</v>
+        <v>9.405057916637665</v>
       </c>
       <c r="X47">
-        <v>148.831281047063</v>
+        <v>8.611917716224305</v>
       </c>
       <c r="Y47">
-        <v>0.09350000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25">
+        <v>0.004541870936861593</v>
+      </c>
+      <c r="Z47">
+        <v>7.034585826662916E-05</v>
+      </c>
+      <c r="AA47">
+        <v>0.004620808092133908</v>
+      </c>
+      <c r="AB47">
+        <v>4.008339452689448E-05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5.087875180287664E-06</v>
+        <v>9.465905560176341E-06</v>
       </c>
       <c r="C48">
-        <v>0.0271408081689774</v>
+        <v>0.02825232820048554</v>
       </c>
       <c r="D48">
-        <v>0.0001411987400177304</v>
+        <v>8.697876492966854E-05</v>
       </c>
       <c r="E48">
-        <v>0.02990099844275598</v>
+        <v>0.03384396009190877</v>
       </c>
       <c r="F48">
-        <v>4.899233917661777</v>
+        <v>5.399233912725485</v>
       </c>
       <c r="S48">
-        <v>0.8280500483333333</v>
+        <v>5.227045212167481E-05</v>
       </c>
       <c r="T48">
-        <v>5.227121557771547E-05</v>
+        <v>0.001632098976140491</v>
       </c>
       <c r="U48">
-        <v>0.001632088459691999</v>
+        <v>0.09180000000000001</v>
       </c>
       <c r="V48">
-        <v>1.071887381487601</v>
+        <v>7.898375106879832</v>
       </c>
       <c r="W48">
-        <v>2.034081526718094</v>
+        <v>9.407673661056124</v>
       </c>
       <c r="X48">
-        <v>146.1229002675404</v>
+        <v>8.617544838062898</v>
       </c>
       <c r="Y48">
-        <v>0.09180000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25">
+        <v>0.004624676956835575</v>
+      </c>
+      <c r="Z48">
+        <v>7.109458730379066E-05</v>
+      </c>
+      <c r="AA48">
+        <v>0.004705636327274778</v>
+      </c>
+      <c r="AB48">
+        <v>4.059343039523709E-05</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5.071630831517486E-06</v>
+        <v>9.432703842583963E-06</v>
       </c>
       <c r="C49">
-        <v>0.02765023476197664</v>
+        <v>0.02878374988794885</v>
       </c>
       <c r="D49">
-        <v>0.0001444926574789633</v>
+        <v>8.913365293986736E-05</v>
       </c>
       <c r="E49">
-        <v>0.03050130361846512</v>
+        <v>0.03456110374680753</v>
       </c>
       <c r="F49">
-        <v>4.89921358283264</v>
+        <v>5.39921357766935</v>
       </c>
       <c r="S49">
-        <v>0.8436736341509434</v>
+        <v>5.142203077690322E-05</v>
       </c>
       <c r="T49">
-        <v>5.142279607083032E-05</v>
+        <v>0.001639774221355606</v>
       </c>
       <c r="U49">
-        <v>0.001639763455346805</v>
+        <v>0.09010000000000001</v>
       </c>
       <c r="V49">
-        <v>1.072457887059619</v>
+        <v>7.895927070781137</v>
       </c>
       <c r="W49">
-        <v>2.074918613501028</v>
+        <v>9.410426021193592</v>
       </c>
       <c r="X49">
-        <v>143.4145190734</v>
+        <v>8.623208845776503</v>
       </c>
       <c r="Y49">
-        <v>0.09010000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25">
+        <v>0.004710593605317306</v>
+      </c>
+      <c r="Z49">
+        <v>7.18821302122638E-05</v>
+      </c>
+      <c r="AA49">
+        <v>0.004793656004574392</v>
+      </c>
+      <c r="AB49">
+        <v>4.112819562025212E-05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5.054745200751148E-06</v>
+        <v>9.398143867477212E-06</v>
       </c>
       <c r="C50">
-        <v>0.02817919134090929</v>
+        <v>0.0293355694309298</v>
       </c>
       <c r="D50">
-        <v>0.0001479409882155972</v>
+        <v>9.139399558231135E-05</v>
       </c>
       <c r="E50">
-        <v>0.03112573718445304</v>
+        <v>0.03530803684536251</v>
       </c>
       <c r="F50">
-        <v>4.899193001286943</v>
+        <v>5.39919299588624</v>
       </c>
       <c r="S50">
-        <v>0.8598981271153846</v>
+        <v>5.057160473611545E-05</v>
       </c>
       <c r="T50">
-        <v>5.05723719084884E-05</v>
+        <v>0.001647633398927178</v>
       </c>
       <c r="U50">
-        <v>0.001647622372492153</v>
+        <v>0.08840000000000001</v>
       </c>
       <c r="V50">
-        <v>1.073043942025201</v>
+        <v>7.893449694940021</v>
       </c>
       <c r="W50">
-        <v>2.117397087377757</v>
+        <v>9.413353950970366</v>
       </c>
       <c r="X50">
-        <v>140.706137425974</v>
+        <v>8.628935164217957</v>
       </c>
       <c r="Y50">
-        <v>0.08840000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25">
+        <v>0.004799799595223172</v>
+      </c>
+      <c r="Z50">
+        <v>7.271166246108313E-05</v>
+      </c>
+      <c r="AA50">
+        <v>0.004885050770131203</v>
+      </c>
+      <c r="AB50">
+        <v>4.168781940762942E-05</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5.037180002865186E-06</v>
+        <v>9.362143115684647E-06</v>
       </c>
       <c r="C51">
-        <v>0.02872882370076603</v>
+        <v>0.02990898463554445</v>
       </c>
       <c r="D51">
-        <v>0.0001515546932192734</v>
+        <v>9.376751813731087E-05</v>
       </c>
       <c r="E51">
-        <v>0.03177575809108556</v>
+        <v>0.03608658934692207</v>
       </c>
       <c r="F51">
-        <v>4.899172163350442</v>
+        <v>5.39917215770123</v>
       </c>
       <c r="S51">
-        <v>0.8767588747058823</v>
+        <v>4.971913052844902E-05</v>
       </c>
       <c r="T51">
-        <v>4.971989962154978E-05</v>
+        <v>0.00165568459754108</v>
       </c>
       <c r="U51">
-        <v>0.00165567329911708</v>
+        <v>0.08670000000000001</v>
       </c>
       <c r="V51">
-        <v>1.073646282390498</v>
+        <v>7.890942373819907</v>
       </c>
       <c r="W51">
-        <v>2.161616196672488</v>
+        <v>9.416431533281589</v>
       </c>
       <c r="X51">
-        <v>137.9977552396272</v>
+        <v>8.634702363051428</v>
       </c>
       <c r="Y51">
-        <v>0.08670000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25">
+        <v>0.004892487593904781</v>
+      </c>
+      <c r="Z51">
+        <v>7.358518237337837E-05</v>
+      </c>
+      <c r="AA51">
+        <v>0.004980018671125783</v>
+      </c>
+      <c r="AB51">
+        <v>4.22754007049553E-05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5.017635647301976E-06</v>
+        <v>9.322512992082236E-06</v>
       </c>
       <c r="C52">
-        <v>0.02930036908091696</v>
+        <v>0.0305052889778926</v>
       </c>
       <c r="D52">
-        <v>0.0001553805527629533</v>
+        <v>9.628019002555868E-05</v>
       </c>
       <c r="E52">
-        <v>0.03245210799439013</v>
+        <v>0.03689715441689794</v>
       </c>
       <c r="F52">
-        <v>4.898089882189242</v>
+        <v>5.398089868892739</v>
       </c>
       <c r="S52">
-        <v>0.8942940522</v>
+        <v>4.886456289918886E-05</v>
       </c>
       <c r="T52">
-        <v>4.886533395713221E-05</v>
+        <v>0.003743856970232864</v>
       </c>
       <c r="U52">
-        <v>0.003743830909085458</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="V52">
-        <v>1.074265694283021</v>
+        <v>7.888403319627209</v>
       </c>
       <c r="W52">
-        <v>2.2076263941762</v>
+        <v>9.41984814287613</v>
       </c>
       <c r="X52">
-        <v>135.2893725635664</v>
+        <v>8.640516315832341</v>
       </c>
       <c r="Y52">
-        <v>0.08500000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25">
+        <v>0.004988865642135409</v>
+      </c>
+      <c r="Z52">
+        <v>7.452053435711696E-05</v>
+      </c>
+      <c r="AA52">
+        <v>0.0050787735365342</v>
+      </c>
+      <c r="AB52">
+        <v>4.289438920244259E-05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5.878970569285844E-06</v>
+        <v>9.629769755686226E-06</v>
       </c>
       <c r="C53">
-        <v>0.029895164765165</v>
+        <v>0.03112588099397151</v>
       </c>
       <c r="D53">
-        <v>0.0001304395835832696</v>
+        <v>9.1785224449709E-05</v>
       </c>
       <c r="E53">
-        <v>0.03189723630918156</v>
+        <v>0.03461797969416375</v>
       </c>
       <c r="F53">
-        <v>5.599260554276713</v>
+        <v>6.097350417916628</v>
       </c>
       <c r="S53">
-        <v>0.9125449512244899</v>
+        <v>9.030858370959505E-05</v>
       </c>
       <c r="T53">
-        <v>9.03100379456502E-05</v>
+        <v>0.001420905797233235</v>
       </c>
       <c r="U53">
-        <v>0.001420895703572081</v>
+        <v>0.1715</v>
       </c>
       <c r="V53">
-        <v>1.055227076030976</v>
+        <v>7.885490259588179</v>
       </c>
       <c r="W53">
-        <v>2.16988002103276</v>
+        <v>9.503588608945453</v>
       </c>
       <c r="X53">
-        <v>272.9608603849376</v>
+        <v>8.704184230096429</v>
       </c>
       <c r="Y53">
-        <v>0.1715</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25">
+        <v>0.005089158399437008</v>
+      </c>
+      <c r="Z53">
+        <v>7.37368495743603E-05</v>
+      </c>
+      <c r="AA53">
+        <v>0.005181546580357297</v>
+      </c>
+      <c r="AB53">
+        <v>3.636424648175954E-05</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5.860239681651272E-06</v>
+        <v>9.598104094943277E-06</v>
       </c>
       <c r="C54">
-        <v>0.03051526320644796</v>
+        <v>0.03177242465583655</v>
       </c>
       <c r="D54">
-        <v>0.0001336985993623073</v>
+        <v>9.414867617348617E-05</v>
       </c>
       <c r="E54">
-        <v>0.03259044414054658</v>
+        <v>0.03539292970407294</v>
       </c>
       <c r="F54">
-        <v>5.599242141793145</v>
+        <v>6.097332005189638</v>
       </c>
       <c r="S54">
-        <v>0.931556304375</v>
+        <v>8.869289238773768E-05</v>
       </c>
       <c r="T54">
-        <v>8.869435049712679E-05</v>
+        <v>0.001428281594305982</v>
       </c>
       <c r="U54">
-        <v>0.001428271235998368</v>
+        <v>0.168</v>
       </c>
       <c r="V54">
-        <v>1.055710855575526</v>
+        <v>7.88259868121358</v>
       </c>
       <c r="W54">
-        <v>2.217037016363713</v>
+        <v>9.506207698231698</v>
       </c>
       <c r="X54">
-        <v>267.3847761054204</v>
+        <v>8.708876260051884</v>
       </c>
       <c r="Y54">
-        <v>0.168</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25">
+        <v>0.005193646348392479</v>
+      </c>
+      <c r="Z54">
+        <v>7.463655502999785E-05</v>
+      </c>
+      <c r="AA54">
+        <v>0.005288737878979704</v>
+      </c>
+      <c r="AB54">
+        <v>3.695846727827012E-05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5.840700324905171E-06</v>
+        <v>9.565040980406625E-06</v>
       </c>
       <c r="C55">
-        <v>0.03116167947468382</v>
+        <v>0.03244643052774428</v>
       </c>
       <c r="D55">
-        <v>0.0001371226310143673</v>
+        <v>9.663451973433747E-05</v>
       </c>
       <c r="E55">
-        <v>0.03331409841881333</v>
+        <v>0.03620261660492381</v>
       </c>
       <c r="F55">
-        <v>5.599223473067999</v>
+        <v>6.097313336208772</v>
       </c>
       <c r="S55">
-        <v>0.9513766512765959</v>
+        <v>8.70729848590562E-05</v>
       </c>
       <c r="T55">
-        <v>8.707444693653054E-05</v>
+        <v>0.001435852887335487</v>
       </c>
       <c r="U55">
-        <v>0.00143584225162445</v>
+        <v>0.1645</v>
       </c>
       <c r="V55">
-        <v>1.056209218491328</v>
+        <v>7.879672321196967</v>
       </c>
       <c r="W55">
-        <v>2.26626519855873</v>
+        <v>9.508913637567003</v>
       </c>
       <c r="X55">
-        <v>261.8086904738952</v>
+        <v>8.713604414770346</v>
       </c>
       <c r="Y55">
-        <v>0.1645</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25">
+        <v>0.005302561450378915</v>
+      </c>
+      <c r="Z55">
+        <v>7.557951010738643E-05</v>
+      </c>
+      <c r="AA55">
+        <v>0.005400477866462713</v>
+      </c>
+      <c r="AB55">
+        <v>3.75821253826878E-05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5.820299262222279E-06</v>
+        <v>9.530487068249218E-06</v>
       </c>
       <c r="C56">
-        <v>0.03183612636258968</v>
+        <v>0.03314968696270102</v>
       </c>
       <c r="D56">
-        <v>0.000140724416470323</v>
+        <v>9.925236713262312E-05</v>
       </c>
       <c r="E56">
-        <v>0.03407022803531381</v>
+        <v>0.03704938523629624</v>
       </c>
       <c r="F56">
-        <v>5.599204536866633</v>
+        <v>6.097294399738494</v>
       </c>
       <c r="S56">
-        <v>0.9720587523913045</v>
+        <v>8.54487600000346E-05</v>
       </c>
       <c r="T56">
-        <v>8.545022614481556E-05</v>
+        <v>0.001443629205852498</v>
       </c>
       <c r="U56">
-        <v>0.001443618279073422</v>
+        <v>0.161</v>
       </c>
       <c r="V56">
-        <v>1.056722929760938</v>
+        <v>7.876710019912445</v>
       </c>
       <c r="W56">
-        <v>2.317702587436314</v>
+        <v>9.511724378922326</v>
       </c>
       <c r="X56">
-        <v>256.2326035151381</v>
+        <v>8.718380373489216</v>
       </c>
       <c r="Y56">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25">
+        <v>0.005416191492558732</v>
+      </c>
+      <c r="Z56">
+        <v>7.656930567386966E-05</v>
+      </c>
+      <c r="AA56">
+        <v>0.005517062556486192</v>
+      </c>
+      <c r="AB56">
+        <v>3.823679321485534E-05</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5.798978524695305E-06</v>
+        <v>9.494340656223193E-06</v>
       </c>
       <c r="C57">
-        <v>0.032540468628059</v>
+        <v>0.03388414106482476</v>
       </c>
       <c r="D57">
-        <v>0.0001445180288619143</v>
+        <v>0.0001020128513170431</v>
       </c>
       <c r="E57">
-        <v>0.03486104436695377</v>
+        <v>0.03793579260587386</v>
       </c>
       <c r="F57">
-        <v>5.599185321180676</v>
+        <v>6.097275183769457</v>
       </c>
       <c r="S57">
-        <v>0.9936600580000001</v>
+        <v>8.382011199910874E-05</v>
       </c>
       <c r="T57">
-        <v>8.382158231520513E-05</v>
+        <v>0.001451620765119946</v>
       </c>
       <c r="U57">
-        <v>0.001451609532614221</v>
+        <v>0.1575</v>
       </c>
       <c r="V57">
-        <v>1.057252812326277</v>
+        <v>7.87371450959136</v>
       </c>
       <c r="W57">
-        <v>2.371499616799576</v>
+        <v>9.514674538659587</v>
       </c>
       <c r="X57">
-        <v>250.6565152255301</v>
+        <v>8.723228157847787</v>
       </c>
       <c r="Y57">
-        <v>0.1575</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25">
+        <v>0.005534849763378396</v>
+      </c>
+      <c r="Z57">
+        <v>7.761064149624092E-05</v>
+      </c>
+      <c r="AA57">
+        <v>0.005638814240114445</v>
+      </c>
+      <c r="AB57">
+        <v>3.892360145523747E-05</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5.776674821618771E-06</v>
+        <v>9.456490759000863E-06</v>
       </c>
       <c r="C58">
-        <v>0.03327674023258621</v>
+        <v>0.03465191670604085</v>
       </c>
       <c r="D58">
-        <v>0.0001485190563672469</v>
+        <v>0.0001049277638705993</v>
       </c>
       <c r="E58">
-        <v>0.03568896203264123</v>
+        <v>0.03886463203750134</v>
       </c>
       <c r="F58">
-        <v>5.59916581315603</v>
+        <v>6.097255675446493</v>
       </c>
       <c r="S58">
-        <v>1.016243241136364</v>
+        <v>8.218692997434879E-05</v>
       </c>
       <c r="T58">
-        <v>8.218840457090235E-05</v>
+        <v>0.001459838530929836</v>
       </c>
       <c r="U58">
-        <v>0.00145982697694816</v>
+        <v>0.154</v>
       </c>
       <c r="V58">
-        <v>1.05779975296087</v>
+        <v>7.870676080966091</v>
       </c>
       <c r="W58">
-        <v>2.427820546438179</v>
+        <v>9.51771808036499</v>
       </c>
       <c r="X58">
-        <v>245.0804253043669</v>
+        <v>8.728111171942684</v>
       </c>
       <c r="Y58">
-        <v>0.154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25">
+        <v>0.005658877925239354</v>
+      </c>
+      <c r="Z58">
+        <v>7.870498270097811E-05</v>
+      </c>
+      <c r="AA58">
+        <v>0.005766084481902153</v>
+      </c>
+      <c r="AB58">
+        <v>3.964706417657354E-05</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5.753319028761248E-06</v>
+        <v>9.416815962451009E-06</v>
       </c>
       <c r="C59">
-        <v>0.03404716398087037</v>
+        <v>0.03545533505353318</v>
       </c>
       <c r="D59">
-        <v>0.0001527448078351661</v>
+        <v>0.0001080102163325139</v>
       </c>
       <c r="E59">
-        <v>0.03655662258175982</v>
+        <v>0.03983896057835607</v>
       </c>
       <c r="F59">
-        <v>5.599145999009668</v>
+        <v>6.097235860985394</v>
       </c>
       <c r="S59">
-        <v>1.039876804883721</v>
+        <v>8.054909777073181E-05</v>
       </c>
       <c r="T59">
-        <v>8.055057676240027E-05</v>
+        <v>0.001468294296838296</v>
       </c>
       <c r="U59">
-        <v>0.001468282404432045</v>
+        <v>0.1505</v>
       </c>
       <c r="V59">
-        <v>1.058364708616956</v>
+        <v>7.867594438145302</v>
       </c>
       <c r="W59">
-        <v>2.486845073589103</v>
+        <v>9.520863668921196</v>
       </c>
       <c r="X59">
-        <v>239.5043338899646</v>
+        <v>8.733034354737697</v>
       </c>
       <c r="Y59">
-        <v>0.1505</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25">
+        <v>0.005788649389019317</v>
+      </c>
+      <c r="Z59">
+        <v>7.985653841057225E-05</v>
+      </c>
+      <c r="AA59">
+        <v>0.005899257445105074</v>
+      </c>
+      <c r="AB59">
+        <v>4.040986967134029E-05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5.728835391286496E-06</v>
+        <v>9.37518328330344E-06</v>
       </c>
       <c r="C60">
-        <v>0.03485417396118072</v>
+        <v>0.03629693802584746</v>
       </c>
       <c r="D60">
-        <v>0.0001572145581025266</v>
+        <v>0.0001112748273388317</v>
       </c>
       <c r="E60">
-        <v>0.03746692145467342</v>
+        <v>0.04086213033981896</v>
       </c>
       <c r="F60">
-        <v>5.599125863940302</v>
+        <v>6.097215725583573</v>
       </c>
       <c r="S60">
-        <v>1.064635776428571</v>
+        <v>7.890649339479497E-05</v>
       </c>
       <c r="T60">
-        <v>7.890797690216951E-05</v>
+        <v>0.00147700076376358</v>
       </c>
       <c r="U60">
-        <v>0.001476988514662538</v>
+        <v>0.147</v>
       </c>
       <c r="V60">
-        <v>1.058948714007217</v>
+        <v>7.864469083932981</v>
       </c>
       <c r="W60">
-        <v>2.548770166984587</v>
+        <v>9.524116567455483</v>
       </c>
       <c r="X60">
-        <v>233.9282407256938</v>
+        <v>8.737999606642914</v>
       </c>
       <c r="Y60">
-        <v>0.147</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25">
+        <v>0.005924573028319524</v>
+      </c>
+      <c r="Z60">
+        <v>8.106975777618136E-05</v>
+      </c>
+      <c r="AA60">
+        <v>0.006038753815948733</v>
+      </c>
+      <c r="AB60">
+        <v>4.121515324073028E-05</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5.703140808641978E-06</v>
+        <v>9.331446683819847E-06</v>
       </c>
       <c r="C61">
-        <v>0.03570044126369482</v>
+        <v>0.0371795151770306</v>
       </c>
       <c r="D61">
-        <v>0.0001619498310753636</v>
+        <v>0.000114737944172199</v>
       </c>
       <c r="E61">
-        <v>0.03842303891800911</v>
+        <v>0.04193782421971801</v>
       </c>
       <c r="F61">
-        <v>5.599105392024279</v>
+        <v>6.097195253315935</v>
       </c>
       <c r="S61">
-        <v>1.090602502682927</v>
+        <v>7.725898869015573E-05</v>
       </c>
       <c r="T61">
-        <v>7.726047684022402E-05</v>
+        <v>0.001485971636046089</v>
       </c>
       <c r="U61">
-        <v>0.001485959010520373</v>
+        <v>0.1435</v>
       </c>
       <c r="V61">
-        <v>1.059552889820968</v>
+        <v>7.861297276281603</v>
       </c>
       <c r="W61">
-        <v>2.613812171293137</v>
+        <v>9.527499939293056</v>
       </c>
       <c r="X61">
-        <v>228.3521456617203</v>
+        <v>8.743021089439559</v>
       </c>
       <c r="Y61">
-        <v>0.1435</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25">
+        <v>0.006067097498332775</v>
+      </c>
+      <c r="Z61">
+        <v>8.23503883416721E-05</v>
+      </c>
+      <c r="AA61">
+        <v>0.006185035246746489</v>
+      </c>
+      <c r="AB61">
+        <v>4.206568863022343E-05</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5.676143857472888E-06</v>
+        <v>9.285445533923827E-06</v>
       </c>
       <c r="C62">
-        <v>0.03658890354951031</v>
+        <v>0.03810613460785206</v>
       </c>
       <c r="D62">
-        <v>0.0001669747371525408</v>
+        <v>0.0001184179024083337</v>
       </c>
       <c r="E62">
-        <v>0.0394284755093789</v>
+        <v>0.04307009692795871</v>
       </c>
       <c r="F62">
-        <v>5.59908456609906</v>
+        <v>6.097174427018353</v>
       </c>
       <c r="S62">
-        <v>1.11786756525</v>
+        <v>7.560644888586979E-05</v>
       </c>
       <c r="T62">
-        <v>7.560794181252758E-05</v>
+        <v>0.001495221728164436</v>
       </c>
       <c r="U62">
-        <v>0.001495208704868146</v>
+        <v>0.14</v>
       </c>
       <c r="V62">
-        <v>1.060178452158264</v>
+        <v>7.858076897554096</v>
       </c>
       <c r="W62">
-        <v>2.682209218325095</v>
+        <v>9.530990302836184</v>
       </c>
       <c r="X62">
-        <v>222.7760487526108</v>
+        <v>8.748079987989263</v>
       </c>
       <c r="Y62">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25">
+        <v>0.006216716176082553</v>
+      </c>
+      <c r="Z62">
+        <v>8.370254847687291E-05</v>
+      </c>
+      <c r="AA62">
+        <v>0.006338609485699396</v>
+      </c>
+      <c r="AB62">
+        <v>4.296651494749083E-05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5.647743789909033E-06</v>
+        <v>9.237002785049961E-06</v>
       </c>
       <c r="C63">
-        <v>0.03752279916008359</v>
+        <v>0.03908017862594036</v>
       </c>
       <c r="D63">
-        <v>0.0001723163694966654</v>
+        <v>0.0001223353340964719</v>
       </c>
       <c r="E63">
-        <v>0.04048709291152079</v>
+        <v>0.04426342212156243</v>
       </c>
       <c r="F63">
-        <v>5.599063367633264</v>
+        <v>6.097153228157669</v>
       </c>
       <c r="S63">
-        <v>1.146530836153846</v>
+        <v>7.394873196436384E-05</v>
       </c>
       <c r="T63">
-        <v>7.395022980898008E-05</v>
+        <v>0.001504767082570388</v>
       </c>
       <c r="U63">
-        <v>0.001504753638364071</v>
+        <v>0.1365</v>
       </c>
       <c r="V63">
-        <v>1.060826723457395</v>
+        <v>7.854802464846238</v>
       </c>
       <c r="W63">
-        <v>2.754224007586449</v>
+        <v>9.534588023390851</v>
       </c>
       <c r="X63">
-        <v>217.1999497347703</v>
+        <v>8.753174815207119</v>
       </c>
       <c r="Y63">
-        <v>0.1365</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25">
+        <v>0.006373972935764749</v>
+      </c>
+      <c r="Z63">
+        <v>8.513204720263134E-05</v>
+      </c>
+      <c r="AA63">
+        <v>0.006500036228539188</v>
+      </c>
+      <c r="AB63">
+        <v>4.39221981270105E-05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5.617829311329853E-06</v>
+        <v>9.185922819642659E-06</v>
       </c>
       <c r="C64">
-        <v>0.03850570660194114</v>
+        <v>0.04010538502835731</v>
       </c>
       <c r="D64">
-        <v>0.0001780052769109825</v>
+        <v>0.0001265135350715221</v>
       </c>
       <c r="E64">
-        <v>0.04160316112620281</v>
+        <v>0.04552274669160109</v>
       </c>
       <c r="F64">
-        <v>5.599041776576261</v>
+        <v>6.097131636681288</v>
       </c>
       <c r="S64">
-        <v>1.176702700263158</v>
+        <v>7.228568816448616E-05</v>
       </c>
       <c r="T64">
-        <v>7.228719107653238E-05</v>
+        <v>0.001514625108421502</v>
       </c>
       <c r="U64">
-        <v>0.001514611218169855</v>
+        <v>0.133</v>
       </c>
       <c r="V64">
-        <v>1.061499144700867</v>
+        <v>7.851471829220276</v>
       </c>
       <c r="W64">
-        <v>2.830147015387947</v>
+        <v>9.538297958742005</v>
       </c>
       <c r="X64">
-        <v>211.6238484058659</v>
+        <v>8.758306547863675</v>
       </c>
       <c r="Y64">
-        <v>0.133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25">
+        <v>0.006539468748621648</v>
+      </c>
+      <c r="Z64">
+        <v>8.664554394370293E-05</v>
+      </c>
+      <c r="AA64">
+        <v>0.006669933966181614</v>
+      </c>
+      <c r="AB64">
+        <v>4.493767467131893E-05</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5.586277147796693E-06</v>
+        <v>9.131989016523165E-06</v>
       </c>
       <c r="C65">
-        <v>0.03954159042153655</v>
+        <v>0.04118589506871639</v>
       </c>
       <c r="D65">
-        <v>0.0001840760295949381</v>
+        <v>0.0001309789037963996</v>
       </c>
       <c r="E65">
-        <v>0.04278141312915377</v>
+        <v>0.04685355354695909</v>
       </c>
       <c r="F65">
-        <v>5.599019771187397</v>
+        <v>6.097109630846353</v>
       </c>
       <c r="S65">
-        <v>1.208505475945946</v>
+        <v>7.061715937647952E-05</v>
       </c>
       <c r="T65">
-        <v>7.061866751423121E-05</v>
+        <v>0.001524814738821417</v>
       </c>
       <c r="U65">
-        <v>0.001524800375162036</v>
+        <v>0.1295</v>
       </c>
       <c r="V65">
-        <v>1.062197289464661</v>
+        <v>7.848080429802173</v>
       </c>
       <c r="W65">
-        <v>2.910300212867603</v>
+        <v>9.54211532312206</v>
       </c>
       <c r="X65">
-        <v>206.0477447857549</v>
+        <v>8.763470047491918</v>
       </c>
       <c r="Y65">
-        <v>0.1295</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25">
+        <v>0.006713869375775106</v>
+      </c>
+      <c r="Z65">
+        <v>8.82500531577978E-05</v>
+      </c>
+      <c r="AA65">
+        <v>0.006848987920006217</v>
+      </c>
+      <c r="AB65">
+        <v>4.601890464732961E-05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5.552950474546946E-06</v>
+        <v>9.074960971967669E-06</v>
       </c>
       <c r="C66">
-        <v>0.0406348547102016</v>
+        <v>0.04232630940663083</v>
       </c>
       <c r="D66">
-        <v>0.00019056789622063</v>
+        <v>0.0001357614685472999</v>
       </c>
       <c r="E66">
-        <v>0.0440271084824576</v>
+        <v>0.04826193445931929</v>
       </c>
       <c r="F66">
-        <v>5.598997327843628</v>
+        <v>6.097087187027356</v>
       </c>
       <c r="S66">
-        <v>1.2420750725</v>
+        <v>6.894297829454419E-05</v>
       </c>
       <c r="T66">
-        <v>6.894449182586248E-05</v>
+        <v>0.001535356606367611</v>
       </c>
       <c r="U66">
-        <v>0.001535341739445745</v>
+        <v>0.126</v>
       </c>
       <c r="V66">
-        <v>1.062922880342952</v>
+        <v>7.844627566504104</v>
       </c>
       <c r="W66">
-        <v>2.995041393364463</v>
+        <v>9.546067758435097</v>
       </c>
       <c r="X66">
-        <v>200.4716384790349</v>
+        <v>8.768681264549059</v>
       </c>
       <c r="Y66">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25">
+        <v>0.006897914356958921</v>
+      </c>
+      <c r="Z66">
+        <v>8.99551187348614E-05</v>
+      </c>
+      <c r="AA66">
+        <v>0.007037959281543964</v>
+      </c>
+      <c r="AB66">
+        <v>4.717129483838467E-05</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5.517696991806716E-06</v>
+        <v>9.014571129172817E-06</v>
       </c>
       <c r="C67">
-        <v>0.04179040576202962</v>
+        <v>0.04353175363343322</v>
       </c>
       <c r="D67">
-        <v>0.0001975256646194658</v>
+        <v>0.0001408955265884463</v>
       </c>
       <c r="E67">
-        <v>0.04534610749873084</v>
+        <v>0.04975467467556537</v>
       </c>
       <c r="F67">
-        <v>5.598974420813544</v>
+        <v>6.097064279490116</v>
       </c>
       <c r="S67">
-        <v>1.277562931714286</v>
+        <v>6.726296779300381E-05</v>
       </c>
       <c r="T67">
-        <v>6.726448689621405E-05</v>
+        <v>0.001546273253185966</v>
       </c>
       <c r="U67">
-        <v>0.001546257850349078</v>
+        <v>0.1225</v>
       </c>
       <c r="V67">
-        <v>1.063677807413741</v>
+        <v>7.841105707086793</v>
       </c>
       <c r="W67">
-        <v>3.084769217600738</v>
+        <v>9.550115706022837</v>
       </c>
       <c r="X67">
-        <v>194.8955294663949</v>
+        <v>8.773912286232626</v>
       </c>
       <c r="Y67">
-        <v>0.1225</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25">
+        <v>0.007092427478051036</v>
+      </c>
+      <c r="Z67">
+        <v>9.176792509134903E-05</v>
+      </c>
+      <c r="AA67">
+        <v>0.007237696081164124</v>
+      </c>
+      <c r="AB67">
+        <v>4.840373539207428E-05</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5.480346663212758E-06</v>
+        <v>8.950521054588376E-06</v>
       </c>
       <c r="C68">
-        <v>0.04301372576489462</v>
+        <v>0.04480795534245806</v>
       </c>
       <c r="D68">
-        <v>0.0002050006399761586</v>
+        <v>0.0001464204191014003</v>
       </c>
       <c r="E68">
-        <v>0.04674495810682872</v>
+        <v>0.05133935182491146</v>
       </c>
       <c r="F68">
-        <v>5.59895102200282</v>
+        <v>6.097040880137185</v>
       </c>
       <c r="S68">
-        <v>1.315138312058824</v>
+        <v>6.557693988785649E-05</v>
       </c>
       <c r="T68">
-        <v>6.557846475273327E-05</v>
+        <v>0.00155758936430767</v>
       </c>
       <c r="U68">
-        <v>0.00155757338975244</v>
+        <v>0.119</v>
       </c>
       <c r="V68">
-        <v>1.064464150168038</v>
+        <v>7.837512253368221</v>
       </c>
       <c r="W68">
-        <v>3.179929122913518</v>
+        <v>9.554278294321289</v>
       </c>
       <c r="X68">
-        <v>189.319417397355</v>
+        <v>8.779173593120634</v>
       </c>
       <c r="Y68">
-        <v>0.119</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25">
+        <v>0.007298329229608675</v>
+      </c>
+      <c r="Z68">
+        <v>9.3699824107922E-05</v>
+      </c>
+      <c r="AA68">
+        <v>0.007449145856039774</v>
+      </c>
+      <c r="AB68">
+        <v>4.972379535883918E-05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5.440709190384096E-06</v>
+        <v>8.882476916282193E-06</v>
       </c>
       <c r="C69">
-        <v>0.04431095985958913</v>
+        <v>0.04616133518862038</v>
       </c>
       <c r="D69">
-        <v>0.0002130518615497051</v>
+        <v>0.0001523814818255284</v>
       </c>
       <c r="E69">
-        <v>0.04823099805715536</v>
+        <v>0.05302445159058065</v>
       </c>
       <c r="F69">
-        <v>5.598927100655136</v>
+        <v>6.097016958208714</v>
       </c>
       <c r="S69">
-        <v>1.354990988181818</v>
+        <v>6.388469484401596E-05</v>
       </c>
       <c r="T69">
-        <v>6.388622567289647E-05</v>
+        <v>0.001569332045290062</v>
       </c>
       <c r="U69">
-        <v>0.001569315459652654</v>
+        <v>0.1155</v>
       </c>
       <c r="V69">
-        <v>1.065284202588476</v>
+        <v>7.833841226486969</v>
       </c>
       <c r="W69">
-        <v>3.281020275996963</v>
+        <v>9.558559671156228</v>
       </c>
       <c r="X69">
-        <v>183.743302065465</v>
+        <v>8.784465984328845</v>
       </c>
       <c r="Y69">
-        <v>0.1155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25">
+        <v>0.007516651332805668</v>
+      </c>
+      <c r="Z69">
+        <v>9.576288321828386E-05</v>
+      </c>
+      <c r="AA69">
+        <v>0.007673370766969498</v>
+      </c>
+      <c r="AB69">
+        <v>5.114082187646292E-05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5.398570885641565E-06</v>
+        <v>8.810064218719837E-06</v>
       </c>
       <c r="C70">
-        <v>0.04568901948452786</v>
+        <v>0.04759911499195772</v>
       </c>
       <c r="D70">
-        <v>0.0002217476062302214</v>
+        <v>0.0001588312161518035</v>
       </c>
       <c r="E70">
-        <v>0.04981247548341262</v>
+        <v>0.05481950364719711</v>
       </c>
       <c r="F70">
-        <v>5.598902623007882</v>
+        <v>6.096992479938087</v>
       </c>
       <c r="S70">
-        <v>1.3973344565625</v>
+        <v>6.21860200012941E-05</v>
       </c>
       <c r="T70">
-        <v>6.218755701033745E-05</v>
+        <v>0.001581531140528026</v>
       </c>
       <c r="U70">
-        <v>0.001581513900406486</v>
+        <v>0.112</v>
       </c>
       <c r="V70">
-        <v>1.066140502733811</v>
+        <v>7.830089244651993</v>
       </c>
       <c r="W70">
-        <v>3.388603774381811</v>
+        <v>9.562933315375179</v>
       </c>
       <c r="X70">
-        <v>178.1671831558064</v>
+        <v>8.789771842757045</v>
       </c>
       <c r="Y70">
-        <v>0.112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25">
+        <v>0.007748554096855274</v>
+      </c>
+      <c r="Z70">
+        <v>9.796916465446767E-05</v>
+      </c>
+      <c r="AA70">
+        <v>0.007911565452753656</v>
+      </c>
+      <c r="AB70">
+        <v>5.266672044102228E-05</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5.353691051587187E-06</v>
+        <v>8.732861683329894E-06</v>
       </c>
       <c r="C71">
-        <v>0.04715570567415037</v>
+        <v>0.04912944672666114</v>
       </c>
       <c r="D71">
-        <v>0.000231167251213393</v>
+        <v>0.000165830741457361</v>
       </c>
       <c r="E71">
-        <v>0.05149869186766531</v>
+        <v>0.05673524199111258</v>
       </c>
       <c r="F71">
-        <v>5.598877551888739</v>
+        <v>6.096967408148418</v>
       </c>
       <c r="S71">
-        <v>1.442409761612903</v>
+        <v>6.048068854223027E-05</v>
       </c>
       <c r="T71">
-        <v>6.048223196284877E-05</v>
+        <v>0.001594219607875075</v>
       </c>
       <c r="U71">
-        <v>0.001594201665269999</v>
+        <v>0.1085</v>
       </c>
       <c r="V71">
-        <v>1.067035867309673</v>
+        <v>7.826246801158234</v>
       </c>
       <c r="W71">
-        <v>3.503312371950021</v>
+        <v>9.567410135998896</v>
       </c>
       <c r="X71">
-        <v>172.5910603940522</v>
+        <v>8.795097322813934</v>
       </c>
       <c r="Y71">
-        <v>0.1085</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25">
+        <v>0.007995347159184332</v>
+      </c>
+      <c r="Z71">
+        <v>0.0001003346230078793</v>
+      </c>
+      <c r="AA71">
+        <v>0.008165078315086324</v>
+      </c>
+      <c r="AB71">
+        <v>5.43134559671752E-05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5.305797661488069E-06</v>
+        <v>8.650393942786202E-06</v>
       </c>
       <c r="C72">
-        <v>0.04871985695491494</v>
+        <v>0.05076156725950127</v>
       </c>
       <c r="D72">
-        <v>0.0002414036035432695</v>
+        <v>0.0001734516127768502</v>
       </c>
       <c r="E72">
-        <v>0.0533001722512099</v>
+        <v>0.05878379460228322</v>
       </c>
       <c r="F72">
-        <v>5.598851846243809</v>
+        <v>6.096941701780588</v>
       </c>
       <c r="S72">
-        <v>1.490490087</v>
+        <v>5.87684580444129E-05</v>
       </c>
       <c r="T72">
-        <v>5.877000812490621E-05</v>
+        <v>0.001607433957012184</v>
       </c>
       <c r="U72">
-        <v>0.001607415258668476</v>
+        <v>0.105</v>
       </c>
       <c r="V72">
-        <v>1.067973432542978</v>
+        <v>7.822308984765422</v>
       </c>
       <c r="W72">
-        <v>3.625862057905436</v>
+        <v>9.57205393510454</v>
       </c>
       <c r="X72">
-        <v>167.0149334800824</v>
+        <v>8.800481723747867</v>
       </c>
       <c r="Y72">
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25">
+        <v>0.008258514243723548</v>
+      </c>
+      <c r="Z72">
+        <v>0.0001028809010362045</v>
+      </c>
+      <c r="AA72">
+        <v>0.008435437143723631</v>
+      </c>
+      <c r="AB72">
+        <v>5.609300039353336E-05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5.254582185227005E-06</v>
+        <v>8.562122904093485E-06</v>
       </c>
       <c r="C73">
-        <v>0.05039152776013463</v>
+        <v>0.05250598504042278</v>
       </c>
       <c r="D73">
-        <v>0.0002525658381208732</v>
+        <v>0.0001817781128312133</v>
       </c>
       <c r="E73">
-        <v>0.05522886880360837</v>
+        <v>0.06097890871185547</v>
       </c>
       <c r="F73">
-        <v>5.598825460582313</v>
+        <v>6.096915315337813</v>
       </c>
       <c r="S73">
-        <v>1.541886296896552</v>
+        <v>5.704906881183316E-05</v>
       </c>
       <c r="T73">
-        <v>5.705062581925877E-05</v>
+        <v>0.001621214765954378</v>
       </c>
       <c r="U73">
-        <v>0.001621195252582555</v>
+        <v>0.1015</v>
       </c>
       <c r="V73">
-        <v>1.068956702706474</v>
+        <v>7.818268823453653</v>
       </c>
       <c r="W73">
-        <v>3.757065905007372</v>
+        <v>9.576589358291967</v>
       </c>
       <c r="X73">
-        <v>161.4388019185557</v>
+        <v>8.805761385583109</v>
       </c>
       <c r="Y73">
-        <v>0.1015</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25">
+        <v>0.008539742979678282</v>
+      </c>
+      <c r="Z73">
+        <v>0.0001056121779071017</v>
+      </c>
+      <c r="AA73">
+        <v>0.008724380045217769</v>
+      </c>
+      <c r="AB73">
+        <v>5.803296471700636E-05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5.199693413767296E-06</v>
+        <v>8.467437458752096E-06</v>
       </c>
       <c r="C74">
-        <v>0.05218220497163512</v>
+        <v>0.0543747067164082</v>
       </c>
       <c r="D74">
-        <v>0.000264783234595369</v>
+        <v>0.0001909101687028287</v>
       </c>
       <c r="E74">
-        <v>0.05729840547989532</v>
+        <v>0.06333621929882055</v>
       </c>
       <c r="F74">
-        <v>5.598798344316866</v>
+        <v>6.096888198225781</v>
       </c>
       <c r="S74">
-        <v>1.596953664642857</v>
+        <v>5.532224205447891E-05</v>
       </c>
       <c r="T74">
-        <v>5.532380627680792E-05</v>
+        <v>0.001635607296693763</v>
       </c>
       <c r="U74">
-        <v>0.00163558690204358</v>
+        <v>0.098</v>
       </c>
       <c r="V74">
-        <v>1.069989607812092</v>
+        <v>7.814118824614527</v>
       </c>
       <c r="W74">
-        <v>3.897850712918049</v>
+        <v>9.581440540475796</v>
       </c>
       <c r="X74">
-        <v>155.8626652201114</v>
+        <v>8.811195938370043</v>
       </c>
       <c r="Y74">
-        <v>0.098</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25">
+        <v>0.008840961936884396</v>
+      </c>
+      <c r="Z74">
+        <v>0.0001085777263273541</v>
+      </c>
+      <c r="AA74">
+        <v>0.009033892440949938</v>
+      </c>
+      <c r="AB74">
+        <v>6.013568640474914E-05</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5.140729973688314E-06</v>
+        <v>8.365641293121503E-06</v>
       </c>
       <c r="C75">
-        <v>0.05410507244337734</v>
+        <v>0.05638151399595284</v>
       </c>
       <c r="D75">
-        <v>0.0002782099805896444</v>
+        <v>0.000200967097089795</v>
       </c>
       <c r="E75">
-        <v>0.05952437345185844</v>
+        <v>0.06587357045541586</v>
       </c>
       <c r="F75">
-        <v>5.59877044097811</v>
+        <v>6.096860293967092</v>
       </c>
       <c r="S75">
-        <v>1.656100096666667</v>
+        <v>5.358767776463315E-05</v>
       </c>
       <c r="T75">
-        <v>5.358924951324441E-05</v>
+        <v>0.001650662228950848</v>
       </c>
       <c r="U75">
-        <v>0.001650640878702683</v>
+        <v>0.0945</v>
       </c>
       <c r="V75">
-        <v>1.071076572876264</v>
+        <v>7.809847442101483</v>
       </c>
       <c r="W75">
-        <v>4.049277105568602</v>
+        <v>9.586216606020916</v>
       </c>
       <c r="X75">
-        <v>150.2865229742477</v>
+        <v>8.816560874163882</v>
       </c>
       <c r="Y75">
-        <v>0.0945</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25">
+        <v>0.009164383574312436</v>
+      </c>
+      <c r="Z75">
+        <v>0.0001117816861228922</v>
+      </c>
+      <c r="AA75">
+        <v>0.009366253802229389</v>
+      </c>
+      <c r="AB75">
+        <v>6.243976457816427E-05</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5.07723134300247E-06</v>
+        <v>8.253029624176986E-06</v>
       </c>
       <c r="C76">
-        <v>0.05617533638425379</v>
+        <v>0.05854230426129373</v>
       </c>
       <c r="D76">
-        <v>0.0002930314050743642</v>
+        <v>0.0002121550841134031</v>
       </c>
       <c r="E76">
-        <v>0.06192468982792503</v>
+        <v>0.06860755329144451</v>
       </c>
       <c r="F76">
-        <v>5.598741687275498</v>
+        <v>6.095141887146016</v>
       </c>
       <c r="S76">
-        <v>1.719796254230769</v>
+        <v>5.184505218594251E-05</v>
       </c>
       <c r="T76">
-        <v>5.184663179852277E-05</v>
+        <v>0.00390408393484965</v>
       </c>
       <c r="U76">
-        <v>0.001666414148665062</v>
+        <v>0.091</v>
       </c>
       <c r="V76">
-        <v>1.072222601728125</v>
+        <v>7.80544730557718</v>
       </c>
       <c r="W76">
-        <v>4.212563933872451</v>
+        <v>9.591351363806497</v>
       </c>
       <c r="X76">
-        <v>144.7103745681535</v>
+        <v>8.821989505225913</v>
       </c>
       <c r="Y76">
-        <v>0.091</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25">
+        <v>0.009512560570012034</v>
+      </c>
+      <c r="Z76">
+        <v>0.0001153050044084197</v>
+      </c>
+      <c r="AA76">
+        <v>0.009724092803677514</v>
+      </c>
+      <c r="AB76">
+        <v>6.497189995026424E-05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5.008666753242345E-06</v>
+        <v>5.913848423997423E-06</v>
       </c>
       <c r="C77">
-        <v>0.05841062858342097</v>
+        <v>0.06087551022838095</v>
       </c>
       <c r="D77">
-        <v>0.0003094721747047044</v>
+        <v>0.0002642978876923514</v>
       </c>
       <c r="E77">
-        <v>0.06452003524417693</v>
+        <v>0.0650123362719202</v>
       </c>
       <c r="F77">
-        <v>5.598712011961544</v>
+        <v>6.364069930362401</v>
       </c>
       <c r="S77">
-        <v>1.7885881044</v>
+        <v>8.957186174354999E-05</v>
       </c>
       <c r="T77">
-        <v>5.009560281966676E-05</v>
+        <v>0.001400690197257249</v>
       </c>
       <c r="U77">
-        <v>0.001682971036917486</v>
+        <v>0.17</v>
       </c>
       <c r="V77">
-        <v>1.073433378668152</v>
+        <v>7.800771443535929</v>
       </c>
       <c r="W77">
-        <v>4.38911804382156</v>
+        <v>9.826850603097594</v>
       </c>
       <c r="X77">
-        <v>139.1342192989832</v>
+        <v>8.850646226965983</v>
       </c>
       <c r="Y77">
-        <v>0.08749999999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25">
+        <v>0.009888450792636179</v>
+      </c>
+      <c r="Z77">
+        <v>0.0001590731319127199</v>
+      </c>
+      <c r="AA77">
+        <v>0.0101104576398266</v>
+      </c>
+      <c r="AB77">
+        <v>7.224609210198767E-05</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>4.934421819553327E-06</v>
+        <v>5.839593670819261E-06</v>
       </c>
       <c r="C78">
-        <v>0.06083151010045081</v>
+        <v>0.06340097740924297</v>
       </c>
       <c r="D78">
-        <v>0.0003278071868152077</v>
+        <v>0.0002791762845774929</v>
       </c>
       <c r="E78">
-        <v>0.06733439108190031</v>
+        <v>0.06781339602200769</v>
       </c>
       <c r="F78">
-        <v>5.598681334452446</v>
+        <v>6.364044397676546</v>
       </c>
       <c r="S78">
-        <v>1.86311260875</v>
+        <v>8.642515509086922E-05</v>
       </c>
       <c r="T78">
-        <v>4.833578233707573E-05</v>
+        <v>0.001415183789580926</v>
       </c>
       <c r="U78">
-        <v>0.001700384521845991</v>
+        <v>0.1632</v>
       </c>
       <c r="V78">
-        <v>1.07471539302076</v>
+        <v>7.794391218005743</v>
       </c>
       <c r="W78">
-        <v>4.580570821897981</v>
+        <v>9.827573109006318</v>
       </c>
       <c r="X78">
-        <v>133.5580563416522</v>
+        <v>8.853354439196684</v>
       </c>
       <c r="Y78">
-        <v>0.08399999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25">
+        <v>0.01029384152849966</v>
+      </c>
+      <c r="Z78">
+        <v>0.000163484003787697</v>
+      </c>
+      <c r="AA78">
+        <v>0.01052871645431513</v>
+      </c>
+      <c r="AB78">
+        <v>7.56416902010269E-05</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>4.853781890129546E-06</v>
+        <v>5.758910349779933E-06</v>
       </c>
       <c r="C79">
-        <v>0.06346210587930454</v>
+        <v>0.066145403545098</v>
       </c>
       <c r="D79">
-        <v>0.0003483762736767798</v>
+        <v>0.0002957935016705958</v>
       </c>
       <c r="E79">
-        <v>0.070395702210842</v>
+        <v>0.07086117287898801</v>
       </c>
       <c r="F79">
-        <v>5.598649563137736</v>
+        <v>6.36401795455764</v>
       </c>
       <c r="S79">
-        <v>1.944117504782609</v>
+        <v>8.326198742245202E-05</v>
       </c>
       <c r="T79">
-        <v>4.656675629611884E-05</v>
+        <v>0.001430459657934324</v>
       </c>
       <c r="U79">
-        <v>0.001718737824700811</v>
+        <v>0.1564</v>
       </c>
       <c r="V79">
-        <v>1.076076092756272</v>
+        <v>7.787876071452013</v>
       </c>
       <c r="W79">
-        <v>4.788823279649116</v>
+        <v>9.828004169035053</v>
       </c>
       <c r="X79">
-        <v>127.9818848570248</v>
+        <v>8.856074551118452</v>
       </c>
       <c r="Y79">
-        <v>0.08049999999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25">
+        <v>0.01073429185566105</v>
+      </c>
+      <c r="Z79">
+        <v>0.0001682999355707981</v>
+      </c>
+      <c r="AA79">
+        <v>0.01098319796579835</v>
+      </c>
+      <c r="AB79">
+        <v>7.940122138430446E-05</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4.764154278591943E-06</v>
+        <v>5.670940493764995E-06</v>
       </c>
       <c r="C80">
-        <v>0.06633091177046943</v>
+        <v>0.06913856763798107</v>
       </c>
       <c r="D80">
-        <v>0.0003717261332209085</v>
+        <v>0.0003144684560005892</v>
       </c>
       <c r="E80">
-        <v>0.07373380765968444</v>
+        <v>0.07418902939823328</v>
       </c>
       <c r="F80">
-        <v>5.597095479718665</v>
+        <v>6.3639905138347</v>
       </c>
       <c r="S80">
-        <v>2.032486482272728</v>
+        <v>8.008154946601722E-05</v>
       </c>
       <c r="T80">
-        <v>4.478807214675115E-05</v>
+        <v>0.001446597237294815</v>
       </c>
       <c r="U80">
-        <v>0.003649269071421714</v>
+        <v>0.1496</v>
       </c>
       <c r="V80">
-        <v>1.077524075953824</v>
+        <v>7.781200073755726</v>
       </c>
       <c r="W80">
-        <v>5.015905282971731</v>
+        <v>9.828028398390916</v>
       </c>
       <c r="X80">
-        <v>122.4057037187872</v>
+        <v>8.858815170692031</v>
       </c>
       <c r="Y80">
-        <v>0.07699999999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25">
+        <v>0.01121456421566515</v>
+      </c>
+      <c r="Z80">
+        <v>0.000173574688703484</v>
+      </c>
+      <c r="AA80">
+        <v>0.01147882509054445</v>
+      </c>
+      <c r="AB80">
+        <v>8.358631094008856E-05</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6.079801961919161E-06</v>
+        <v>5.574669669197737E-06</v>
       </c>
       <c r="C81">
-        <v>0.06947182537224317</v>
+        <v>0.07241590569426586</v>
       </c>
       <c r="D81">
-        <v>0.0002935372498429989</v>
+        <v>0.0003356021908766866</v>
       </c>
       <c r="E81">
-        <v>0.074222632009239</v>
+        <v>0.07783648679719707</v>
       </c>
       <c r="F81">
-        <v>6.698819959328116</v>
+        <v>6.363961975257521</v>
       </c>
       <c r="S81">
-        <v>2.129271552857143</v>
+        <v>7.688295333202069E-05</v>
       </c>
       <c r="T81">
-        <v>9.153654259157798E-05</v>
+        <v>0.001463688165475891</v>
       </c>
       <c r="U81">
-        <v>0.001463847922084622</v>
+        <v>0.1428</v>
       </c>
       <c r="V81">
-        <v>1.054922946021633</v>
+        <v>7.774367521355446</v>
       </c>
       <c r="W81">
-        <v>5.049158640084285</v>
+        <v>9.827514627452077</v>
       </c>
       <c r="X81">
-        <v>277.0528418497964</v>
+        <v>8.861620200464344</v>
       </c>
       <c r="Y81">
-        <v>0.1743</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25">
+        <v>0.01174032562171094</v>
+      </c>
+      <c r="Z81">
+        <v>0.0001793745109608345</v>
+      </c>
+      <c r="AA81">
+        <v>0.01202145550862085</v>
+      </c>
+      <c r="AB81">
+        <v>8.82715272901841E-05</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5.979019019400048E-06</v>
+        <v>5.468890661262493E-06</v>
       </c>
       <c r="C82">
-        <v>0.07293073977836317</v>
+        <v>0.07601992086943532</v>
       </c>
       <c r="D82">
-        <v>0.0003138710845960574</v>
+        <v>0.0003597058725157105</v>
       </c>
       <c r="E82">
-        <v>0.07805377101995431</v>
+        <v>0.08185067882207851</v>
       </c>
       <c r="F82">
-        <v>6.698790204614375</v>
+        <v>6.36393222277324</v>
       </c>
       <c r="S82">
-        <v>2.235735130500001</v>
+        <v>7.36652207470856E-05</v>
       </c>
       <c r="T82">
-        <v>8.770569034032883E-05</v>
+        <v>0.001481838856651103</v>
       </c>
       <c r="U82">
-        <v>0.001481999347390451</v>
+        <v>0.136</v>
       </c>
       <c r="V82">
-        <v>1.056071989926298</v>
+        <v>7.767337542576342</v>
       </c>
       <c r="W82">
-        <v>5.30978034149349</v>
+        <v>9.826143793970784</v>
       </c>
       <c r="X82">
-        <v>263.82927105635</v>
+        <v>8.864468821583879</v>
       </c>
       <c r="Y82">
-        <v>0.166</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25">
+        <v>0.01231837317724845</v>
+      </c>
+      <c r="Z82">
+        <v>0.0001857568423683441</v>
+      </c>
+      <c r="AA82">
+        <v>0.01261811470768738</v>
+      </c>
+      <c r="AB82">
+        <v>9.355547304258071E-05</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5.867719600137437E-06</v>
+        <v>5.352156661084678E-06</v>
       </c>
       <c r="C83">
-        <v>0.07675268023592988</v>
+        <v>0.08000203744822057</v>
       </c>
       <c r="D83">
-        <v>0.0003371635220979181</v>
+        <v>0.0003874410028935466</v>
       </c>
       <c r="E83">
-        <v>0.08229163771701613</v>
+        <v>0.08628822577563686</v>
       </c>
       <c r="F83">
-        <v>6.698759100690238</v>
+        <v>6.363901121062465</v>
       </c>
       <c r="S83">
-        <v>2.353405400526317</v>
+        <v>7.042726882980028E-05</v>
       </c>
       <c r="T83">
-        <v>8.385076735203125E-05</v>
+        <v>0.001501173780099354</v>
       </c>
       <c r="U83">
-        <v>0.001501334967366192</v>
+        <v>0.1292</v>
       </c>
       <c r="V83">
-        <v>1.057306281624552</v>
+        <v>7.760095185284098</v>
       </c>
       <c r="W83">
-        <v>5.598070592994294</v>
+        <v>9.823457237281144</v>
       </c>
       <c r="X83">
-        <v>250.6056665715577</v>
+        <v>8.867356952959984</v>
       </c>
       <c r="Y83">
-        <v>0.1577</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25">
+        <v>0.01295693193171582</v>
+      </c>
+      <c r="Z83">
+        <v>0.000192781527832091</v>
+      </c>
+      <c r="AA83">
+        <v>0.01327730203582658</v>
+      </c>
+      <c r="AB83">
+        <v>9.956316539698069E-05</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5.744200643092431E-06</v>
+        <v>5.222720814923807E-06</v>
       </c>
       <c r="C84">
-        <v>0.08099798672003165</v>
+        <v>0.08442507058407207</v>
       </c>
       <c r="D84">
-        <v>0.0003640996483078098</v>
+        <v>0.0004196784906753605</v>
       </c>
       <c r="E84">
-        <v>0.08700293286949461</v>
+        <v>0.09121767305679021</v>
       </c>
       <c r="F84">
-        <v>6.698726488528197</v>
+        <v>6.363868511083298</v>
       </c>
       <c r="S84">
-        <v>2.484150145000001</v>
+        <v>6.716789265884458E-05</v>
       </c>
       <c r="T84">
-        <v>7.997033928018372E-05</v>
+        <v>0.00152183968471309</v>
       </c>
       <c r="U84">
-        <v>0.001522001515081645</v>
+        <v>0.1224</v>
       </c>
       <c r="V84">
-        <v>1.058637188950932</v>
+        <v>7.752620430635273</v>
       </c>
       <c r="W84">
-        <v>5.918566861870382</v>
+        <v>9.818774712446135</v>
       </c>
       <c r="X84">
-        <v>237.3820229332909</v>
+        <v>8.870303840823214</v>
       </c>
       <c r="Y84">
-        <v>0.1493999999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25">
+        <v>0.01366605139859825</v>
+      </c>
+      <c r="Z84">
+        <v>0.0002005047815804036</v>
+      </c>
+      <c r="AA84">
+        <v>0.01400939863973934</v>
+      </c>
+      <c r="AB84">
+        <v>0.0001064552960347691</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5.606380129755146E-06</v>
+        <v>5.078457192076625E-06</v>
       </c>
       <c r="C85">
-        <v>0.08574115654778013</v>
+        <v>0.08936656423662483</v>
       </c>
       <c r="D85">
-        <v>0.0003955909421187044</v>
+        <v>0.0004575877278192065</v>
       </c>
       <c r="E85">
-        <v>0.09226937708153138</v>
+        <v>0.09672269490882375</v>
       </c>
       <c r="F85">
-        <v>6.698692179567388</v>
+        <v>6.363834204255406</v>
       </c>
       <c r="S85">
-        <v>2.630276624117648</v>
+        <v>6.388574408902296E-05</v>
       </c>
       <c r="T85">
-        <v>7.606280129620446E-05</v>
+        <v>0.001544011123853041</v>
       </c>
       <c r="U85">
-        <v>0.001544173522843361</v>
+        <v>0.1156</v>
       </c>
       <c r="V85">
-        <v>1.06007834673335</v>
+        <v>7.744893670278357</v>
       </c>
       <c r="W85">
-        <v>6.276828372893291</v>
+        <v>9.811109724758131</v>
       </c>
       <c r="X85">
-        <v>224.1583340579145</v>
+        <v>8.873389101154995</v>
       </c>
       <c r="Y85">
-        <v>0.1410999999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25">
+        <v>0.01445814237606989</v>
+      </c>
+      <c r="Z85">
+        <v>0.0002089762787353861</v>
+      </c>
+      <c r="AA85">
+        <v>0.01482721883642784</v>
+      </c>
+      <c r="AB85">
+        <v>0.0001144398768606735</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5.451688864224992E-06</v>
+        <v>4.916756739550486E-06</v>
       </c>
       <c r="C86">
-        <v>0.09107525439813391</v>
+        <v>0.09492337526842512</v>
       </c>
       <c r="D86">
-        <v>0.0004328762491900149</v>
+        <v>0.0005027749685631964</v>
       </c>
       <c r="E86">
-        <v>0.09819205716454575</v>
+        <v>0.1029063464333676</v>
       </c>
       <c r="F86">
-        <v>6.69865594803054</v>
+        <v>6.363797974774996</v>
       </c>
       <c r="S86">
-        <v>2.794668913124999</v>
+        <v>6.057930500307297E-05</v>
       </c>
       <c r="T86">
-        <v>7.212634625322548E-05</v>
+        <v>0.001567897766190788</v>
       </c>
       <c r="U86">
-        <v>0.001568060631037223</v>
+        <v>0.1088</v>
       </c>
       <c r="V86">
-        <v>1.061646277639329</v>
+        <v>7.736895329326421</v>
       </c>
       <c r="W86">
-        <v>6.679731779901072</v>
+        <v>9.798723709626316</v>
       </c>
       <c r="X86">
-        <v>210.9345919337315</v>
+        <v>8.876600004041663</v>
       </c>
       <c r="Y86">
-        <v>0.1328</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25">
+        <v>0.01534871525715329</v>
+      </c>
+      <c r="Z86">
+        <v>0.0002181965435447196</v>
+      </c>
+      <c r="AA86">
+        <v>0.01574676752140078</v>
+      </c>
+      <c r="AB86">
+        <v>0.0001238088804510514</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5.276924732305911E-06</v>
+        <v>4.73438922251278E-06</v>
       </c>
       <c r="C87">
-        <v>0.0971180796080635</v>
+        <v>0.1012180819550826</v>
       </c>
       <c r="D87">
-        <v>0.000477681631894986</v>
+        <v>0.0005575058595407936</v>
       </c>
       <c r="E87">
-        <v>0.1048973178172678</v>
+        <v>0.1098967657144562</v>
       </c>
       <c r="F87">
-        <v>6.698617520589738</v>
+        <v>6.363759549277666</v>
       </c>
       <c r="S87">
-        <v>2.980980173999999</v>
+        <v>5.724685389931277E-05</v>
       </c>
       <c r="T87">
-        <v>6.81589249190171E-05</v>
+        <v>0.001593754248215588</v>
       </c>
       <c r="U87">
-        <v>0.001593917437713536</v>
+        <v>0.102</v>
       </c>
       <c r="V87">
-        <v>1.063361234764811</v>
+        <v>7.728596628602888</v>
       </c>
       <c r="W87">
-        <v>7.135871960358353</v>
+        <v>9.779180055700884</v>
       </c>
       <c r="X87">
-        <v>197.7107866585151</v>
+        <v>8.880011505642546</v>
       </c>
       <c r="Y87">
-        <v>0.1245</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25">
+        <v>0.01635741650472719</v>
+      </c>
+      <c r="Z87">
+        <v>0.0002281678394806524</v>
+      </c>
+      <c r="AA87">
+        <v>0.0167882980974641</v>
+      </c>
+      <c r="AB87">
+        <v>0.0001349601240056101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5.078053916956796E-06</v>
+        <v>4.531246072910556E-06</v>
       </c>
       <c r="C88">
-        <v>0.1040209651777898</v>
+        <v>0.1084081231047641</v>
       </c>
       <c r="D88">
-        <v>0.0005324832214369801</v>
+        <v>0.0006245847385290403</v>
       </c>
       <c r="E88">
-        <v>0.1125448489352659</v>
+        <v>0.1178634887840792</v>
       </c>
       <c r="F88">
-        <v>6.698576562224646</v>
+        <v>6.361678157763424</v>
       </c>
       <c r="S88">
-        <v>3.193907329285714</v>
+        <v>5.388642307866247E-05</v>
       </c>
       <c r="T88">
-        <v>6.415819502153854E-05</v>
+        <v>0.003947040459233824</v>
       </c>
       <c r="U88">
-        <v>0.001622056999822276</v>
+        <v>0.09520000000000002</v>
       </c>
       <c r="V88">
-        <v>1.06524836728177</v>
+        <v>7.719991719648588</v>
       </c>
       <c r="W88">
-        <v>7.656112172467069</v>
+        <v>9.748692641090026</v>
       </c>
       <c r="X88">
-        <v>184.4869058048707</v>
+        <v>8.883627390691819</v>
       </c>
       <c r="Y88">
-        <v>0.1162</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25">
+        <v>0.01750950569510195</v>
+      </c>
+      <c r="Z88">
+        <v>0.0002388016352394155</v>
+      </c>
+      <c r="AA88">
+        <v>0.01797782223842542</v>
+      </c>
+      <c r="AB88">
+        <v>0.0001483962780473444</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>4.849937366814661E-06</v>
+        <v>5.516693348881247E-06</v>
       </c>
       <c r="C89">
-        <v>0.1119816176359708</v>
+        <v>0.1166991645175515</v>
       </c>
       <c r="D89">
-        <v>0.0006009592385268303</v>
+        <v>0.0005669544735963519</v>
       </c>
       <c r="E89">
-        <v>0.1213389321823445</v>
+        <v>0.1240455953582179</v>
       </c>
       <c r="F89">
-        <v>6.698532656470742</v>
+        <v>7.260430317109749</v>
       </c>
       <c r="S89">
-        <v>3.439592508461538</v>
+        <v>8.99379112340433E-05</v>
       </c>
       <c r="T89">
-        <v>6.012145502001143E-05</v>
+        <v>0.001405613609887396</v>
       </c>
       <c r="U89">
-        <v>0.001652869722612562</v>
+        <v>0.1703</v>
       </c>
       <c r="V89">
-        <v>1.067339366977425</v>
+        <v>7.710630883100584</v>
       </c>
       <c r="W89">
-        <v>8.254349128050647</v>
+        <v>9.644496948544818</v>
       </c>
       <c r="X89">
-        <v>171.262933155725</v>
+        <v>8.893045436584282</v>
       </c>
       <c r="Y89">
-        <v>0.1079</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25">
+        <v>0.01883802139201445</v>
+      </c>
+      <c r="Z89">
+        <v>0.0002051576456789258</v>
+      </c>
+      <c r="AA89">
+        <v>0.01934931654306989</v>
+      </c>
+      <c r="AB89">
+        <v>0.0001353273599868272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>4.585950882499016E-06</v>
+        <v>5.474841889482638E-06</v>
       </c>
       <c r="C90">
-        <v>0.1212633391690912</v>
+        <v>0.1177360592500867</v>
       </c>
       <c r="D90">
-        <v>0.0006888105107289212</v>
+        <v>0.0005786074816216211</v>
       </c>
       <c r="E90">
-        <v>0.1315442856371537</v>
+        <v>0.1256391869506349</v>
       </c>
       <c r="F90">
-        <v>6.698485277177296</v>
+        <v>7.260390208810704</v>
       </c>
       <c r="S90">
-        <v>3.7262252175</v>
+        <v>8.386772625173944E-05</v>
       </c>
       <c r="T90">
-        <v>5.604555670584258E-05</v>
+        <v>0.001434306788257016</v>
       </c>
       <c r="U90">
-        <v>0.001686850416193225</v>
+        <v>0.1572</v>
       </c>
       <c r="V90">
-        <v>1.069674849684628</v>
+        <v>7.703325142339017</v>
       </c>
       <c r="W90">
-        <v>8.94859085967032</v>
+        <v>9.651951297041256</v>
       </c>
       <c r="X90">
-        <v>158.0388475049875</v>
+        <v>8.91494565146502</v>
       </c>
       <c r="Y90">
-        <v>0.09959999999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25">
+        <v>0.02039076003754241</v>
+      </c>
+      <c r="Z90">
+        <v>0.0002179700246818653</v>
+      </c>
+      <c r="AA90">
+        <v>0.02095048230832681</v>
+      </c>
+      <c r="AB90">
+        <v>0.000145176530504795</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>4.277455923814059E-06</v>
+        <v>5.430098589684923E-06</v>
       </c>
       <c r="C91">
-        <v>0.132224659956215</v>
+        <v>0.1187915317885414</v>
       </c>
       <c r="D91">
-        <v>0.0008053521009982372</v>
+        <v>0.0005912667714215396</v>
       </c>
       <c r="E91">
-        <v>0.1435086708736167</v>
+        <v>0.1273436103017674</v>
       </c>
       <c r="F91">
-        <v>6.698433747040162</v>
+        <v>7.260346618223993</v>
       </c>
       <c r="S91">
-        <v>4.064972964545455</v>
+        <v>7.773409680735491E-05</v>
       </c>
       <c r="T91">
-        <v>5.192678715542482E-05</v>
+        <v>0.001466189605216202</v>
       </c>
       <c r="U91">
-        <v>0.00172463809060845</v>
+        <v>0.1441</v>
       </c>
       <c r="V91">
-        <v>1.072307895837597</v>
+        <v>7.695390314695079</v>
       </c>
       <c r="W91">
-        <v>9.762494617252834</v>
+        <v>9.659310002876589</v>
       </c>
       <c r="X91">
-        <v>144.8146201457571</v>
+        <v>8.938319377869336</v>
       </c>
       <c r="Y91">
-        <v>0.09129999999999998</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25">
+        <v>0.02222465003871155</v>
+      </c>
+      <c r="Z91">
+        <v>0.000233087858425924</v>
+      </c>
+      <c r="AA91">
+        <v>0.02284187374267427</v>
+      </c>
+      <c r="AB91">
+        <v>0.0001569194293217616</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>3.910950900485463E-06</v>
+        <v>5.381777643223568E-06</v>
       </c>
       <c r="C92">
-        <v>0.1453665907417367</v>
+        <v>0.1198660796523334</v>
       </c>
       <c r="D92">
-        <v>0.0009673477322304628</v>
+        <v>0.0006051775008802002</v>
       </c>
       <c r="E92">
-        <v>0.1576885359861368</v>
+        <v>0.1291851516192763</v>
       </c>
       <c r="F92">
-        <v>6.696463639373067</v>
+        <v>7.260298804064202</v>
       </c>
       <c r="S92">
-        <v>4.471470261000001</v>
+        <v>7.153049417916009E-05</v>
       </c>
       <c r="T92">
-        <v>4.776070582899278E-05</v>
+        <v>0.001501962916930672</v>
       </c>
       <c r="U92">
-        <v>0.003850703793771411</v>
+        <v>0.131</v>
       </c>
       <c r="V92">
-        <v>1.075309483865777</v>
+        <v>7.686696047463711</v>
       </c>
       <c r="W92">
-        <v>10.72711129157393</v>
+        <v>9.666300249607211</v>
       </c>
       <c r="X92">
-        <v>131.5902118364265</v>
+        <v>8.963399558827737</v>
       </c>
       <c r="Y92">
-        <v>0.08299999999999998</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25">
+        <v>0.02442380625674012</v>
+      </c>
+      <c r="Z92">
+        <v>0.0002511970396804168</v>
+      </c>
+      <c r="AA92">
+        <v>0.02511036917400953</v>
+      </c>
+      <c r="AB92">
+        <v>0.0001711581831194627</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6.685746514922822E-06</v>
+        <v>5.328912032003677E-06</v>
       </c>
       <c r="C93">
-        <v>0.1614109510761263</v>
+        <v>0.1209602163693192</v>
       </c>
       <c r="D93">
-        <v>0.0006253778280780373</v>
+        <v>0.0006206888592750494</v>
       </c>
       <c r="E93">
-        <v>0.1738282624421104</v>
+        <v>0.131200883502838</v>
       </c>
       <c r="F93">
-        <v>9.348681001452317</v>
+        <v>7.260245767402722</v>
       </c>
       <c r="S93">
-        <v>4.968300290000002</v>
+        <v>6.524899096966475E-05</v>
       </c>
       <c r="T93">
-        <v>8.987182781478796E-05</v>
+        <v>0.001542574234602069</v>
       </c>
       <c r="U93">
-        <v>0.001420459974430192</v>
+        <v>0.1179</v>
       </c>
       <c r="V93">
-        <v>1.055541447251079</v>
+        <v>7.677065892720849</v>
       </c>
       <c r="W93">
-        <v>11.82505186681023</v>
+        <v>9.672347752058448</v>
       </c>
       <c r="X93">
-        <v>270.9573212191833</v>
+        <v>8.990414427425433</v>
       </c>
       <c r="Y93">
-        <v>0.1709999999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25">
+        <v>0.02710965172530231</v>
+      </c>
+      <c r="Z93">
+        <v>0.0002732763224109476</v>
+      </c>
+      <c r="AA93">
+        <v>0.02788139261744176</v>
+      </c>
+      <c r="AB93">
+        <v>0.0001887881981221983</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6.123303317330702E-06</v>
+        <v>5.270088722190051E-06</v>
       </c>
       <c r="C94">
-        <v>0.1815091477321324</v>
+        <v>0.1220744712536714</v>
       </c>
       <c r="D94">
-        <v>0.0007684607451640135</v>
+        <v>0.0006383181546806873</v>
       </c>
       <c r="E94">
-        <v>0.1956946508902024</v>
+        <v>0.1334450022506876</v>
       </c>
       <c r="F94">
-        <v>9.348625645654661</v>
+        <v>7.260186119486622</v>
       </c>
       <c r="S94">
-        <v>5.589337826250003</v>
+        <v>5.887977032361643E-05</v>
       </c>
       <c r="T94">
-        <v>8.104148522994975E-05</v>
+        <v>0.00158934512094116</v>
       </c>
       <c r="U94">
-        <v>0.001463986150471004</v>
+        <v>0.1047999999999999</v>
       </c>
       <c r="V94">
-        <v>1.058412576041162</v>
+        <v>7.666258218043963</v>
       </c>
       <c r="W94">
-        <v>13.31256128504779</v>
+        <v>9.676519446899674</v>
       </c>
       <c r="X94">
-        <v>240.6833065875288</v>
+        <v>9.01963973562904</v>
       </c>
       <c r="Y94">
-        <v>0.1519999999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25">
+        <v>0.03046419865066374</v>
+      </c>
+      <c r="Z94">
+        <v>0.0003008000408651903</v>
+      </c>
+      <c r="AA94">
+        <v>0.03134296816985671</v>
+      </c>
+      <c r="AB94">
+        <v>0.0002111882534998519</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5.412860214610397E-06</v>
+        <v>5.20071952734775E-06</v>
       </c>
       <c r="C95">
-        <v>0.2073292458731279</v>
+        <v>0.1232093885723536</v>
       </c>
       <c r="D95">
-        <v>0.0009919862124811469</v>
+        <v>0.0006591454939210501</v>
       </c>
       <c r="E95">
-        <v>0.2234229183989458</v>
+        <v>0.1359939596115082</v>
       </c>
       <c r="F95">
-        <v>9.348562183952223</v>
+        <v>7.257985130804692</v>
       </c>
       <c r="S95">
-        <v>6.387814658571433</v>
+        <v>5.241037827537116E-05</v>
       </c>
       <c r="T95">
-        <v>7.207093212301223E-05</v>
+        <v>0.003891576795223292</v>
       </c>
       <c r="U95">
-        <v>0.00151511798583053</v>
+        <v>0.09169999999999993</v>
       </c>
       <c r="V95">
-        <v>1.06185444581026</v>
+        <v>7.653928747725714</v>
       </c>
       <c r="W95">
-        <v>15.19883798632284</v>
+        <v>9.677470826029932</v>
       </c>
       <c r="X95">
-        <v>210.4082723339432</v>
+        <v>9.051410998144512</v>
       </c>
       <c r="Y95">
-        <v>0.1329999999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25">
+        <v>0.03477325559492068</v>
+      </c>
+      <c r="Z95">
+        <v>0.0003362344763900349</v>
+      </c>
+      <c r="AA95">
+        <v>0.03579036530076484</v>
+      </c>
+      <c r="AB95">
+        <v>0.000240667205056953</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>4.493376926599344E-06</v>
+        <v>9.178549023682561E-06</v>
       </c>
       <c r="C96">
-        <v>0.2417187891499024</v>
+        <v>0.1243655229410181</v>
       </c>
       <c r="D96">
-        <v>0.001386699990884182</v>
+        <v>0.0003789414907537814</v>
       </c>
       <c r="E96">
-        <v>0.2595045849600021</v>
+        <v>0.137691734621071</v>
       </c>
       <c r="F96">
-        <v>9.348487713324717</v>
+        <v>10.55664013086267</v>
       </c>
       <c r="S96">
-        <v>7.452450435000007</v>
+        <v>8.990808422171057E-05</v>
       </c>
       <c r="T96">
-        <v>6.293709767437935E-05</v>
+        <v>0.001402233982106162</v>
       </c>
       <c r="U96">
-        <v>0.001576639299765007</v>
+        <v>0.1697999999999998</v>
       </c>
       <c r="V96">
-        <v>1.066092108484845</v>
+        <v>7.6380016132918</v>
       </c>
       <c r="W96">
-        <v>17.65337312653076</v>
+        <v>9.395170085850038</v>
       </c>
       <c r="X96">
-        <v>180.1317484288529</v>
+        <v>9.087667975599119</v>
       </c>
       <c r="Y96">
-        <v>0.1139999999999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25">
+        <v>0.04051275911467579</v>
+      </c>
+      <c r="Z96">
+        <v>0.0002280729924711932</v>
+      </c>
+      <c r="AA96">
+        <v>0.04171531498338283</v>
+      </c>
+      <c r="AB96">
+        <v>0.0001827517848718259</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>3.270357626058975E-06</v>
+        <v>9.084211128481148E-06</v>
       </c>
       <c r="C97">
-        <v>0.2897852069817062</v>
+        <v>0.1255463475262587</v>
       </c>
       <c r="D97">
-        <v>0.00225589080066534</v>
+        <v>0.0003928422993771687</v>
       </c>
       <c r="E97">
-        <v>0.3078718677481458</v>
+        <v>0.1412796321825275</v>
       </c>
       <c r="F97">
-        <v>9.346122371295033</v>
+        <v>10.55656099230617</v>
       </c>
       <c r="S97">
-        <v>8.942940522000011</v>
+        <v>7.671462674206594E-05</v>
       </c>
       <c r="T97">
-        <v>5.360845470052746E-05</v>
+        <v>0.001469111293208797</v>
       </c>
       <c r="U97">
-        <v>0.004000080137757185</v>
+        <v>0.1414999999999998</v>
       </c>
       <c r="V97">
-        <v>1.071500747789778</v>
+        <v>7.623016811019182</v>
       </c>
       <c r="W97">
-        <v>20.94366447266298</v>
+        <v>9.398311996931451</v>
       </c>
       <c r="X97">
-        <v>149.8529154279977</v>
+        <v>9.128244239367707</v>
       </c>
       <c r="Y97">
-        <v>0.09499999999999986</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25">
+        <v>0.04856969633911674</v>
+      </c>
+      <c r="Z97">
+        <v>0.0002655437650168944</v>
+      </c>
+      <c r="AA97">
+        <v>0.05002182762308505</v>
+      </c>
+      <c r="AB97">
+        <v>0.0002162007551510832</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6.333834850289694E-06</v>
+        <v>8.960255576182417E-06</v>
       </c>
       <c r="C98">
-        <v>0.3616675360269657</v>
+        <v>0.1267497466149787</v>
       </c>
       <c r="D98">
-        <v>0.001471656825928988</v>
+        <v>0.0004115616455129117</v>
       </c>
       <c r="E98">
-        <v>0.3876038561521815</v>
+        <v>0.1459977254492981</v>
       </c>
       <c r="F98">
-        <v>13.59854907357415</v>
+        <v>10.55646113371206</v>
       </c>
       <c r="S98">
-        <v>11.17867565249999</v>
+        <v>6.318681345575886E-05</v>
       </c>
       <c r="T98">
-        <v>9.109262966747752E-05</v>
+        <v>0.001555747032064459</v>
       </c>
       <c r="U98">
-        <v>0.001481154059722909</v>
+        <v>0.1132000000000001</v>
       </c>
       <c r="V98">
-        <v>1.055477275384774</v>
+        <v>7.603759035744229</v>
       </c>
       <c r="W98">
-        <v>26.36760926205316</v>
+        <v>9.376318254697658</v>
       </c>
       <c r="X98">
-        <v>274.3821369399205</v>
+        <v>9.171578753948811</v>
       </c>
       <c r="Y98">
-        <v>0.1744000000000002</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25">
+        <v>0.06064573448264156</v>
+      </c>
+      <c r="Z98">
+        <v>0.0003211707685342438</v>
+      </c>
+      <c r="AA98">
+        <v>0.06247323434006841</v>
+      </c>
+      <c r="AB98">
+        <v>0.0002685995074370566</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>3.37414351001631E-06</v>
+        <v>8.779723580217121E-06</v>
       </c>
       <c r="C99">
-        <v>0.4817328290939779</v>
+        <v>0.1279763309350706</v>
       </c>
       <c r="D99">
-        <v>0.003588168369648245</v>
+        <v>0.000439789292183782</v>
       </c>
       <c r="E99">
-        <v>0.5051206877273297</v>
+        <v>0.152876758060954</v>
       </c>
       <c r="F99">
-        <v>13.59841759632233</v>
+        <v>10.55632626600658</v>
       </c>
       <c r="S99">
-        <v>14.90490086999999</v>
+        <v>4.922797264793615E-05</v>
       </c>
       <c r="T99">
-        <v>7.065510749637527E-05</v>
+        <v>0.00167596649706495</v>
       </c>
       <c r="U99">
-        <v>0.001598717117643982</v>
+        <v>0.08490000000000007</v>
       </c>
       <c r="V99">
-        <v>1.062919026306977</v>
+        <v>7.577300013548847</v>
       </c>
       <c r="W99">
-        <v>34.36195154607685</v>
+        <v>9.291627637336015</v>
       </c>
       <c r="X99">
-        <v>204.8743651536581</v>
+        <v>9.215820577030206</v>
       </c>
       <c r="Y99">
-        <v>0.1308000000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25">
+        <v>0.080753922387344</v>
+      </c>
+      <c r="Z99">
+        <v>0.0004139589343159915</v>
+      </c>
+      <c r="AA99">
+        <v>0.08320811261761218</v>
+      </c>
+      <c r="AB99">
+        <v>0.0003620334868305605</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.779452610452909E-07</v>
+        <v>8.464826631228541E-06</v>
       </c>
       <c r="C100">
-        <v>0.7208051594561427</v>
+        <v>0.1292266891864714</v>
       </c>
       <c r="D100">
-        <v>0.08637742397062642</v>
+        <v>0.0004917575794481284</v>
       </c>
       <c r="E100">
-        <v>0.7230987684972581</v>
+        <v>0.1648282224282836</v>
       </c>
       <c r="F100">
-        <v>13.59598320406923</v>
+        <v>10.55467121187284</v>
       </c>
       <c r="S100">
-        <v>22.35735130499998</v>
+        <v>3.466911542856202E-05</v>
       </c>
       <c r="T100">
-        <v>4.930977889869909E-05</v>
+        <v>0.003313918931850795</v>
       </c>
       <c r="U100">
-        <v>0.004016795930774003</v>
+        <v>0.05660000000000005</v>
       </c>
       <c r="V100">
-        <v>1.07536030380759</v>
+        <v>0</v>
       </c>
       <c r="W100">
-        <v>49.19039241477946</v>
+        <v>0</v>
       </c>
       <c r="X100">
-        <v>135.3277521722178</v>
+        <v>0</v>
       </c>
       <c r="Y100">
-        <v>0.08720000000000008</v>
+        <v>0.120923904113858</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100">
+        <v>0.124631152183003</v>
+      </c>
+      <c r="AB100">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Wastewater_Effluent_Filtration/Water_Salt_Transport_1.xlsx
+++ b/Wastewater_Effluent_Filtration/Water_Salt_Transport_1.xlsx
@@ -526,55 +526,55 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.024675930281544E-05</v>
+        <v>5.575161272722939E-06</v>
       </c>
       <c r="C2">
         <v>0.01528279910082424</v>
       </c>
       <c r="D2">
-        <v>4.067378392194192E-05</v>
+        <v>7.081916557345742E-05</v>
       </c>
       <c r="E2">
-        <v>0.01712859808826239</v>
+        <v>0.0162589400869221</v>
       </c>
       <c r="F2">
-        <v>5.4</v>
+        <v>3.1</v>
       </c>
       <c r="G2">
-        <v>35.62056790136123</v>
+        <v>18.9489100524082</v>
       </c>
       <c r="H2">
-        <v>32.70031808943216</v>
+        <v>18.74111166878413</v>
       </c>
       <c r="I2">
-        <v>19.21877399156423</v>
+        <v>19.78796225663777</v>
       </c>
       <c r="J2">
-        <v>19.33875347287569</v>
+        <v>20.45868268672586</v>
       </c>
       <c r="K2">
-        <v>40.02080934581261</v>
+        <v>24.75239762644668</v>
       </c>
       <c r="L2">
-        <v>0.2991926186385995</v>
+        <v>0.214718741087579</v>
       </c>
       <c r="M2">
-        <v>0.009722999999999999</v>
+        <v>0.011112</v>
       </c>
       <c r="N2">
-        <v>0.001913418367346939</v>
+        <v>0.01842551020408163</v>
       </c>
       <c r="O2">
-        <v>0.003316591836734694</v>
+        <v>0.003795655102040817</v>
       </c>
       <c r="P2">
-        <v>0.005612693877551015</v>
+        <v>0.0001020489795918366</v>
       </c>
       <c r="Q2">
-        <v>0.3197583227202322</v>
+        <v>0.2481539553732934</v>
       </c>
       <c r="R2">
-        <v>1.001436918766472</v>
+        <v>1.001035365858081</v>
       </c>
       <c r="S2">
         <v>8.964085134901906E-05</v>
@@ -586,25 +586,25 @@
         <v>0.17</v>
       </c>
       <c r="V2">
-        <v>7.997886678068794</v>
+        <v>7.999001207581545</v>
       </c>
       <c r="W2">
-        <v>9.406930401017185</v>
+        <v>9.733184612597539</v>
       </c>
       <c r="X2">
-        <v>8.431525754116974</v>
+        <v>8.452662113479041</v>
       </c>
       <c r="Y2">
         <v>0.002525592234190321</v>
       </c>
       <c r="Z2">
-        <v>5.674365469458889E-05</v>
+        <v>9.2568110157867E-05</v>
       </c>
       <c r="AA2">
         <v>0.002556182908434622</v>
       </c>
       <c r="AB2">
-        <v>2.774575085819797E-05</v>
+        <v>3.09177790268806E-05</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -612,19 +612,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.023786881480394E-05</v>
+        <v>5.567112591175569E-06</v>
       </c>
       <c r="C3">
-        <v>0.01543675996261114</v>
+        <v>0.01543645546380657</v>
       </c>
       <c r="D3">
-        <v>4.115645041382274E-05</v>
+        <v>7.166686258954538E-05</v>
       </c>
       <c r="E3">
-        <v>0.01731685715642861</v>
+        <v>0.01642990766178214</v>
       </c>
       <c r="F3">
-        <v>5.399985694102835</v>
+        <v>3.099985694102835</v>
       </c>
       <c r="S3">
         <v>8.885577390501866E-05</v>
@@ -636,25 +636,25 @@
         <v>0.1683</v>
       </c>
       <c r="V3">
-        <v>7.995769571512306</v>
+        <v>7.994877685091557</v>
       </c>
       <c r="W3">
-        <v>9.405426304699223</v>
+        <v>9.731743912635322</v>
       </c>
       <c r="X3">
-        <v>8.433861100273397</v>
+        <v>8.451549833629931</v>
       </c>
       <c r="Y3">
-        <v>0.002550530098629672</v>
+        <v>0.002550168235443175</v>
       </c>
       <c r="Z3">
-        <v>5.685196406748234E-05</v>
+        <v>9.282763230129255E-05</v>
       </c>
       <c r="AA3">
-        <v>0.002581722677703071</v>
+        <v>0.002581690637014499</v>
       </c>
       <c r="AB3">
-        <v>2.793272612163458E-05</v>
+        <v>3.129751123205769E-05</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -662,19 +662,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.022878683998742E-05</v>
+        <v>5.558897409464255E-06</v>
       </c>
       <c r="C4">
-        <v>0.01559385795763356</v>
+        <v>0.01559323902096185</v>
       </c>
       <c r="D4">
-        <v>4.165052735974136E-05</v>
+        <v>7.25348841620524E-05</v>
       </c>
       <c r="E4">
-        <v>0.0175092342147668</v>
+        <v>0.01660447336978005</v>
       </c>
       <c r="F4">
-        <v>5.3999713153363</v>
+        <v>3.0999713153363</v>
       </c>
       <c r="S4">
         <v>8.806970424645449E-05</v>
@@ -686,25 +686,25 @@
         <v>0.1666</v>
       </c>
       <c r="V4">
-        <v>7.993659198203604</v>
+        <v>7.990777570222193</v>
       </c>
       <c r="W4">
-        <v>9.403936335040374</v>
+        <v>9.730323865837544</v>
       </c>
       <c r="X4">
-        <v>8.436252765465824</v>
+        <v>8.450559265596784</v>
       </c>
       <c r="Y4">
-        <v>0.002575975793880306</v>
+        <v>0.002575243139556867</v>
       </c>
       <c r="Z4">
-        <v>5.696366364926222E-05</v>
+        <v>9.309372872181813E-05</v>
       </c>
       <c r="AA4">
-        <v>0.002607781758841657</v>
+        <v>0.00260771505666534</v>
       </c>
       <c r="AB4">
-        <v>2.812172735079142E-05</v>
+        <v>3.16801033017202E-05</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -712,19 +712,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.021950717312893E-05</v>
+        <v>5.550510527049963E-06</v>
       </c>
       <c r="C5">
-        <v>0.01575418999299721</v>
+        <v>0.01575324628010412</v>
       </c>
       <c r="D5">
-        <v>4.215641939698887E-05</v>
+        <v>7.342396405856515E-05</v>
       </c>
       <c r="E5">
-        <v>0.01770586410373317</v>
+        <v>0.01678275096056549</v>
       </c>
       <c r="F5">
-        <v>5.399956862294174</v>
+        <v>3.099956862294174</v>
       </c>
       <c r="S5">
         <v>8.728263097596939E-05</v>
@@ -736,25 +736,25 @@
         <v>0.1649</v>
       </c>
       <c r="V5">
-        <v>7.991551502598274</v>
+        <v>7.986692131553399</v>
       </c>
       <c r="W5">
-        <v>9.402476815803031</v>
+        <v>9.728899313506142</v>
       </c>
       <c r="X5">
-        <v>8.43872720109167</v>
+        <v>8.44963207594656</v>
       </c>
       <c r="Y5">
-        <v>0.002601944991099183</v>
+        <v>0.002600832308740734</v>
       </c>
       <c r="Z5">
-        <v>5.707853547534008E-05</v>
+        <v>9.336623269399164E-05</v>
       </c>
       <c r="AA5">
-        <v>0.002634376192155996</v>
+        <v>0.002634272118040223</v>
       </c>
       <c r="AB5">
-        <v>2.831159698135035E-05</v>
+        <v>3.206830886458331E-05</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -762,19 +762,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.021002333182801E-05</v>
+        <v>5.541946517793329E-06</v>
       </c>
       <c r="C6">
-        <v>0.01591785700938888</v>
+        <v>0.01591657776256293</v>
       </c>
       <c r="D6">
-        <v>4.267455037263263E-05</v>
+        <v>7.433487166451517E-05</v>
       </c>
       <c r="E6">
-        <v>0.01790688754667641</v>
+        <v>0.01696485898694839</v>
       </c>
       <c r="F6">
-        <v>5.399942333526368</v>
+        <v>3.099942333526367</v>
       </c>
       <c r="S6">
         <v>8.649454243712355E-05</v>
@@ -786,25 +786,25 @@
         <v>0.1632</v>
       </c>
       <c r="V6">
-        <v>7.989442807248647</v>
+        <v>7.982630565765501</v>
       </c>
       <c r="W6">
-        <v>9.401047193561181</v>
+        <v>9.727461990158879</v>
       </c>
       <c r="X6">
-        <v>8.441279748517015</v>
+        <v>8.448748878094808</v>
       </c>
       <c r="Y6">
-        <v>0.002628454016678598</v>
+        <v>0.002626951747032888</v>
       </c>
       <c r="Z6">
-        <v>5.719689478273981E-05</v>
+        <v>9.364520084504992E-05</v>
       </c>
       <c r="AA6">
-        <v>0.002661522698355732</v>
+        <v>0.002661378407719136</v>
       </c>
       <c r="AB6">
-        <v>2.850265423930255E-05</v>
+        <v>3.246315042066765E-05</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -812,19 +812,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.020032855550898E-05</v>
+        <v>5.533199731330116E-06</v>
       </c>
       <c r="C7">
-        <v>0.01608496419316799</v>
+        <v>0.01608333821404607</v>
       </c>
       <c r="D7">
-        <v>4.320536443475268E-05</v>
+        <v>7.526841399057449E-05</v>
       </c>
       <c r="E7">
-        <v>0.01811245147329002</v>
+        <v>0.01715092106139897</v>
       </c>
       <c r="F7">
-        <v>5.399927727537044</v>
+        <v>3.099927727537044</v>
       </c>
       <c r="S7">
         <v>8.570542672297761E-05</v>
@@ -836,25 +836,25 @@
         <v>0.1615</v>
       </c>
       <c r="V7">
-        <v>7.987341071864202</v>
+        <v>7.978578849252207</v>
       </c>
       <c r="W7">
-        <v>9.399638143667516</v>
+        <v>9.726029993111529</v>
       </c>
       <c r="X7">
-        <v>8.443890896129323</v>
+        <v>8.447951718080439</v>
       </c>
       <c r="Y7">
-        <v>0.002655519881119607</v>
+        <v>0.002653618131729601</v>
       </c>
       <c r="Z7">
-        <v>5.731928863994078E-05</v>
+        <v>9.393109429249434E-05</v>
       </c>
       <c r="AA7">
-        <v>0.002689238698820116</v>
+        <v>0.002689051199901225</v>
       </c>
       <c r="AB7">
-        <v>2.869597406464499E-05</v>
+        <v>3.286292283560913E-05</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -862,19 +862,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.019041577739988E-05</v>
+        <v>5.524264269165279E-06</v>
       </c>
       <c r="C8">
-        <v>0.0162556212019843</v>
+        <v>0.01625363682894028</v>
       </c>
       <c r="D8">
-        <v>4.374932730165524E-05</v>
+        <v>7.622543814339927E-05</v>
       </c>
       <c r="E8">
-        <v>0.01832270935950416</v>
+        <v>0.01734106612436926</v>
       </c>
       <c r="F8">
-        <v>5.399913042782652</v>
+        <v>3.099913042782652</v>
       </c>
       <c r="S8">
         <v>8.491527165598104E-05</v>
@@ -886,25 +886,25 @@
         <v>0.1598</v>
       </c>
       <c r="V8">
-        <v>7.985242621646934</v>
+        <v>7.974546440339645</v>
       </c>
       <c r="W8">
-        <v>9.398280477504638</v>
+        <v>9.724592094739386</v>
       </c>
       <c r="X8">
-        <v>8.446608263899414</v>
+        <v>8.447215125577424</v>
       </c>
       <c r="Y8">
-        <v>0.002683160312954497</v>
+        <v>0.002680848844893826</v>
       </c>
       <c r="Z8">
-        <v>5.744525609258432E-05</v>
+        <v>9.422397782451494E-05</v>
       </c>
       <c r="AA8">
-        <v>0.002717542344828152</v>
+        <v>0.002717308521997668</v>
       </c>
       <c r="AB8">
-        <v>2.888932201764538E-05</v>
+        <v>3.326898120612278E-05</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -912,19 +912,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.018027762929554E-05</v>
+        <v>5.515133991868621E-06</v>
       </c>
       <c r="C9">
-        <v>0.01642994240493788</v>
+        <v>0.01642758748905637</v>
       </c>
       <c r="D9">
-        <v>4.430692749349483E-05</v>
+        <v>7.72068335661181E-05</v>
       </c>
       <c r="E9">
-        <v>0.01853782159681882</v>
+        <v>0.01753542873619183</v>
       </c>
       <c r="F9">
-        <v>5.399898277669839</v>
+        <v>3.099898277669839</v>
       </c>
       <c r="S9">
         <v>8.412406478221966E-05</v>
@@ -936,25 +936,25 @@
         <v>0.1581</v>
       </c>
       <c r="V9">
-        <v>7.983144190272336</v>
+        <v>7.97053665963032</v>
       </c>
       <c r="W9">
-        <v>9.396943599076828</v>
+        <v>9.723150962952493</v>
       </c>
       <c r="X9">
-        <v>8.449377963914749</v>
+        <v>8.446544743645143</v>
       </c>
       <c r="Y9">
-        <v>0.002711393808189572</v>
+        <v>0.002708662015507474</v>
       </c>
       <c r="Z9">
-        <v>5.757587021672169E-05</v>
+        <v>9.452409602215129E-05</v>
       </c>
       <c r="AA9">
-        <v>0.002746452592385255</v>
+        <v>0.002746169162221233</v>
       </c>
       <c r="AB9">
-        <v>2.908548815583702E-05</v>
+        <v>3.368122418324032E-05</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -962,19 +962,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.016990640157785E-05</v>
+        <v>5.505802484153675E-06</v>
       </c>
       <c r="C10">
-        <v>0.01660804713838836</v>
+        <v>0.01660530901792039</v>
       </c>
       <c r="D10">
-        <v>4.487867782247761E-05</v>
+        <v>7.821353499035455E-05</v>
       </c>
       <c r="E10">
-        <v>0.01875795587672223</v>
+        <v>0.01773414937936651</v>
       </c>
       <c r="F10">
-        <v>5.399883430553251</v>
+        <v>3.099883430553251</v>
       </c>
       <c r="S10">
         <v>8.333179336861216E-05</v>
@@ -986,25 +986,25 @@
         <v>0.1564</v>
       </c>
       <c r="V10">
-        <v>7.98105356733469</v>
+        <v>7.966542145496518</v>
       </c>
       <c r="W10">
-        <v>9.395655571212119</v>
+        <v>9.721715117223971</v>
       </c>
       <c r="X10">
-        <v>8.452240656884005</v>
+        <v>8.445959828877204</v>
       </c>
       <c r="Y10">
-        <v>0.00274023965534145</v>
+        <v>0.002737076558110576</v>
       </c>
       <c r="Z10">
-        <v>5.771082920703936E-05</v>
+        <v>9.483183102732233E-05</v>
       </c>
       <c r="AA10">
-        <v>0.00277598919134427</v>
+        <v>0.002775652726765124</v>
       </c>
       <c r="AB10">
-        <v>2.928258196424049E-05</v>
+        <v>3.409899127068619E-05</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1012,19 +1012,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.015929401885518E-05</v>
+        <v>5.496263035075452E-06</v>
       </c>
       <c r="C11">
-        <v>0.01679005997861436</v>
+        <v>0.01678692545179875</v>
       </c>
       <c r="D11">
-        <v>4.546511692951265E-05</v>
+        <v>7.924652540311215E-05</v>
       </c>
       <c r="E11">
-        <v>0.01898328760518491</v>
+        <v>0.01793737478416872</v>
       </c>
       <c r="F11">
-        <v>5.399868499733221</v>
+        <v>3.09986849973322</v>
       </c>
       <c r="S11">
         <v>8.253844438070021E-05</v>
@@ -1036,25 +1036,25 @@
         <v>0.1547</v>
       </c>
       <c r="V11">
-        <v>7.978956641875407</v>
+        <v>7.962561227811692</v>
       </c>
       <c r="W11">
-        <v>9.394408362247356</v>
+        <v>9.720282533949334</v>
       </c>
       <c r="X11">
-        <v>8.455179739078744</v>
+        <v>8.44545462154856</v>
       </c>
       <c r="Y11">
-        <v>0.00276971799409018</v>
+        <v>0.00276611221445215</v>
       </c>
       <c r="Z11">
-        <v>5.785066867197484E-05</v>
+        <v>9.514740511763245E-05</v>
       </c>
       <c r="AA11">
-        <v>0.002806172780458336</v>
+        <v>0.002805779690891437</v>
       </c>
       <c r="AB11">
-        <v>2.948155553804427E-05</v>
+        <v>3.452273283535188E-05</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1062,19 +1062,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.014843206272015E-05</v>
+        <v>5.48650866287989E-06</v>
       </c>
       <c r="C12">
-        <v>0.01697611103263308</v>
+        <v>0.0169725663287587</v>
       </c>
       <c r="D12">
-        <v>4.606681074311116E-05</v>
+        <v>8.030683862264304E-05</v>
       </c>
       <c r="E12">
-        <v>0.01921400035615724</v>
+        <v>0.01814525828559388</v>
       </c>
       <c r="F12">
-        <v>5.399853483453307</v>
+        <v>3.099853483453306</v>
       </c>
       <c r="S12">
         <v>8.174400448258727E-05</v>
@@ -1086,25 +1086,25 @@
         <v>0.153</v>
       </c>
       <c r="V12">
-        <v>7.976866930137068</v>
+        <v>7.958608487086065</v>
       </c>
       <c r="W12">
-        <v>9.393196548494911</v>
+        <v>9.718862000759259</v>
       </c>
       <c r="X12">
-        <v>8.458183274917943</v>
+        <v>8.445047287427547</v>
       </c>
       <c r="Y12">
-        <v>0.002799849853261493</v>
+        <v>0.002795789601222533</v>
       </c>
       <c r="Z12">
-        <v>5.799584932967558E-05</v>
+        <v>9.547120173105514E-05</v>
       </c>
       <c r="AA12">
-        <v>0.002837024905179673</v>
+        <v>0.002836571434869838</v>
       </c>
       <c r="AB12">
-        <v>2.968317857385848E-05</v>
+        <v>3.495175010463225E-05</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1112,19 +1112,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.013731170511311E-05</v>
+        <v>5.476532055722105E-06</v>
       </c>
       <c r="C13">
-        <v>0.01716633624860937</v>
+        <v>0.0171623669971872</v>
       </c>
       <c r="D13">
-        <v>4.668435440307977E-05</v>
+        <v>8.139556321716605E-05</v>
       </c>
       <c r="E13">
-        <v>0.01945028633619847</v>
+        <v>0.01835796018611036</v>
       </c>
       <c r="F13">
-        <v>5.3998383798977</v>
+        <v>3.099838379897699</v>
       </c>
       <c r="S13">
         <v>8.094846002522487E-05</v>
@@ -1136,25 +1136,25 @@
         <v>0.1513</v>
       </c>
       <c r="V13">
-        <v>7.974776118732919</v>
+        <v>7.954661331588237</v>
       </c>
       <c r="W13">
-        <v>9.392053606708613</v>
+        <v>9.717423396241985</v>
       </c>
       <c r="X13">
-        <v>8.461296353745217</v>
+        <v>8.444673917294597</v>
       </c>
       <c r="Y13">
-        <v>0.002830657201620278</v>
+        <v>0.002826130257396595</v>
       </c>
       <c r="Z13">
-        <v>5.814614413023318E-05</v>
+        <v>9.580314539485271E-05</v>
       </c>
       <c r="AA13">
-        <v>0.002868568070647154</v>
+        <v>0.002868050307732368</v>
       </c>
       <c r="AB13">
-        <v>2.988529044725825E-05</v>
+        <v>3.538943687091863E-05</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1162,19 +1162,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.012592369213472E-05</v>
+        <v>5.466325560321571E-06</v>
       </c>
       <c r="C14">
-        <v>0.01736087774740716</v>
+        <v>0.01735646894530049</v>
       </c>
       <c r="D14">
-        <v>4.73183741218804E-05</v>
+        <v>8.251384605420722E-05</v>
       </c>
       <c r="E14">
-        <v>0.01969234689376285</v>
+        <v>0.01857564815382592</v>
       </c>
       <c r="F14">
-        <v>5.399823187188489</v>
+        <v>3.099823187188488</v>
       </c>
       <c r="S14">
         <v>8.015179703004906E-05</v>
@@ -1186,25 +1186,25 @@
         <v>0.1496</v>
       </c>
       <c r="V14">
-        <v>7.972686982475266</v>
+        <v>7.950734600161847</v>
       </c>
       <c r="W14">
-        <v>9.390937105256805</v>
+        <v>9.716004919329107</v>
       </c>
       <c r="X14">
-        <v>8.464453076849919</v>
+        <v>8.44441399449118</v>
       </c>
       <c r="Y14">
-        <v>0.002862163009091756</v>
+        <v>0.00285715670185116</v>
       </c>
       <c r="Z14">
-        <v>5.830267969992427E-05</v>
+        <v>9.614404354292163E-05</v>
       </c>
       <c r="AA14">
-        <v>0.002900825829513062</v>
+        <v>0.002900239635810339</v>
       </c>
       <c r="AB14">
-        <v>3.009142075709099E-05</v>
+        <v>3.583212111219028E-05</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1212,19 +1212,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.011425833180312E-05</v>
+        <v>5.455881174618688E-06</v>
       </c>
       <c r="C15">
-        <v>0.01755988417698515</v>
+        <v>0.01755502015333781</v>
       </c>
       <c r="D15">
-        <v>4.796952916766666E-05</v>
+        <v>8.366289605995025E-05</v>
       </c>
       <c r="E15">
-        <v>0.01994039306572959</v>
+        <v>0.01879849764913755</v>
       </c>
       <c r="F15">
-        <v>5.399807903382759</v>
+        <v>3.099807903382759</v>
       </c>
       <c r="S15">
         <v>7.935400117921212E-05</v>
@@ -1236,25 +1236,25 @@
         <v>0.1479</v>
       </c>
       <c r="V15">
-        <v>7.970596994280054</v>
+        <v>7.946822050472433</v>
       </c>
       <c r="W15">
-        <v>9.389891550216827</v>
+        <v>9.714578902171182</v>
       </c>
       <c r="X15">
-        <v>8.467713224701981</v>
+        <v>8.444208972064992</v>
       </c>
       <c r="Y15">
-        <v>0.002894391288739938</v>
+        <v>0.002888892479532864</v>
       </c>
       <c r="Z15">
-        <v>5.84651321913889E-05</v>
+        <v>9.649385937631224E-05</v>
       </c>
       <c r="AA15">
-        <v>0.002933822776740143</v>
+        <v>0.002933163860117214</v>
       </c>
       <c r="AB15">
-        <v>3.029868355144132E-05</v>
+        <v>3.628293046979412E-05</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1262,19 +1262,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.010230548705152E-05</v>
+        <v>5.445190545774091E-06</v>
       </c>
       <c r="C16">
-        <v>0.01776351109149466</v>
+        <v>0.0177581754702829</v>
       </c>
       <c r="D16">
-        <v>4.863851397416293E-05</v>
+        <v>8.484398818675673E-05</v>
       </c>
       <c r="E16">
-        <v>0.02019464616478261</v>
+        <v>0.01902669238262285</v>
       </c>
       <c r="F16">
-        <v>5.399792526469493</v>
+        <v>3.099792526469494</v>
       </c>
       <c r="S16">
         <v>7.855505780993839E-05</v>
@@ -1286,25 +1286,25 @@
         <v>0.1462</v>
       </c>
       <c r="V16">
-        <v>7.968509055711527</v>
+        <v>7.942928179311612</v>
       </c>
       <c r="W16">
-        <v>9.38889787134749</v>
+        <v>9.713157614528548</v>
       </c>
       <c r="X16">
-        <v>8.471045126075985</v>
+        <v>8.444084355357594</v>
       </c>
       <c r="Y16">
-        <v>0.0029273671742812</v>
+        <v>0.002921362230930033</v>
       </c>
       <c r="Z16">
-        <v>5.863422650641302E-05</v>
+        <v>9.685313860636077E-05</v>
       </c>
       <c r="AA16">
-        <v>0.002967584684800476</v>
+        <v>0.002966848522089859</v>
       </c>
       <c r="AB16">
-        <v>3.050887032732658E-05</v>
+        <v>3.674092667193439E-05</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -1312,19 +1312,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.00900544970193E-05</v>
+        <v>5.434244900837989E-06</v>
       </c>
       <c r="C17">
-        <v>0.01797192135711255</v>
+        <v>0.01796609701713109</v>
       </c>
       <c r="D17">
-        <v>4.93260607164507E-05</v>
+        <v>8.605846867260406E-05</v>
       </c>
       <c r="E17">
-        <v>0.02045533839168286</v>
+        <v>0.01926042478921481</v>
       </c>
       <c r="F17">
-        <v>5.399777054366343</v>
+        <v>3.099777054366343</v>
       </c>
       <c r="S17">
         <v>7.775495189236705E-05</v>
@@ -1336,25 +1336,25 @@
         <v>0.1445</v>
       </c>
       <c r="V17">
-        <v>7.966420966137007</v>
+        <v>7.939057150371445</v>
       </c>
       <c r="W17">
-        <v>9.387972329814243</v>
+        <v>9.711779758002832</v>
       </c>
       <c r="X17">
-        <v>8.474466815746888</v>
+        <v>8.444113975297752</v>
       </c>
       <c r="Y17">
-        <v>0.002961116973666785</v>
+        <v>0.002954591749663253</v>
       </c>
       <c r="Z17">
-        <v>5.881018737990542E-05</v>
+        <v>9.722274613736387E-05</v>
       </c>
       <c r="AA17">
-        <v>0.003002138517911925</v>
+        <v>0.003001320376153599</v>
       </c>
       <c r="AB17">
-        <v>3.072125109041543E-05</v>
+        <v>3.720249399747492E-05</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -1362,19 +1362,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.007749418225837E-05</v>
+        <v>5.423035057003686E-06</v>
       </c>
       <c r="C18">
-        <v>0.01818528558683155</v>
+        <v>0.01817895461889845</v>
       </c>
       <c r="D18">
-        <v>5.003294172547554E-05</v>
+        <v>8.730775953989921E-05</v>
       </c>
       <c r="E18">
-        <v>0.02072271351408103</v>
+        <v>0.01949989655549404</v>
       </c>
       <c r="F18">
-        <v>5.399761484916157</v>
+        <v>3.099761484916157</v>
       </c>
       <c r="S18">
         <v>7.695366801941811E-05</v>
@@ -1386,25 +1386,25 @@
         <v>0.1428</v>
       </c>
       <c r="V18">
-        <v>7.964330762824545</v>
+        <v>7.935194024718841</v>
       </c>
       <c r="W18">
-        <v>9.387091647949044</v>
+        <v>9.710367640327853</v>
       </c>
       <c r="X18">
-        <v>8.477942909178696</v>
+        <v>8.444145099981672</v>
       </c>
       <c r="Y18">
-        <v>0.002995668244932105</v>
+        <v>0.002988608047324275</v>
       </c>
       <c r="Z18">
-        <v>5.899372837454119E-05</v>
+        <v>9.760210141301255E-05</v>
       </c>
       <c r="AA18">
-        <v>0.003037512532993134</v>
+        <v>0.003036607493798315</v>
       </c>
       <c r="AB18">
-        <v>3.093784481675719E-05</v>
+        <v>3.76758988700119E-05</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -1412,19 +1412,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.00646128137793E-05</v>
+        <v>5.411551398224536E-06</v>
       </c>
       <c r="C19">
-        <v>0.0184037826066521</v>
+        <v>0.01839692626780639</v>
       </c>
       <c r="D19">
-        <v>5.075997224804246E-05</v>
+        <v>8.85933639539501E-05</v>
       </c>
       <c r="E19">
-        <v>0.02099702758662811</v>
+        <v>0.01974531917692705</v>
       </c>
       <c r="F19">
-        <v>5.399745815883294</v>
+        <v>3.099745815883293</v>
       </c>
       <c r="S19">
         <v>7.615119039835214E-05</v>
@@ -1436,25 +1436,25 @@
         <v>0.1411</v>
       </c>
       <c r="V19">
-        <v>7.962246522776769</v>
+        <v>7.931343836297042</v>
       </c>
       <c r="W19">
-        <v>9.386294915973453</v>
+        <v>9.708982490832646</v>
       </c>
       <c r="X19">
-        <v>8.481520918157662</v>
+        <v>8.444295499832304</v>
       </c>
       <c r="Y19">
-        <v>0.003031049865613522</v>
+        <v>0.003023439444262965</v>
       </c>
       <c r="Z19">
-        <v>5.918488722556378E-05</v>
+        <v>9.7992422419518E-05</v>
       </c>
       <c r="AA19">
-        <v>0.003073736324416945</v>
+        <v>0.003072739199761306</v>
       </c>
       <c r="AB19">
-        <v>3.115641686292769E-05</v>
+        <v>3.815528548694922E-05</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -1462,19 +1462,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.005139807265107E-05</v>
+        <v>5.399783843350714E-06</v>
       </c>
       <c r="C20">
-        <v>0.01862759995585215</v>
+        <v>0.01862019862029239</v>
       </c>
       <c r="D20">
-        <v>5.150801346811149E-05</v>
+        <v>8.99168721454899E-05</v>
       </c>
       <c r="E20">
-        <v>0.02127854972316312</v>
+        <v>0.01999691455381208</v>
       </c>
       <c r="F20">
-        <v>5.399730044949721</v>
+        <v>3.099730044949721</v>
       </c>
       <c r="S20">
         <v>7.534750283426516E-05</v>
@@ -1486,25 +1486,25 @@
         <v>0.1394</v>
       </c>
       <c r="V20">
-        <v>7.960151958494057</v>
+        <v>7.927516143414314</v>
       </c>
       <c r="W20">
-        <v>9.385561075597327</v>
+        <v>9.707625022608548</v>
       </c>
       <c r="X20">
-        <v>8.4851681646551</v>
+        <v>8.444563707148772</v>
       </c>
       <c r="Y20">
-        <v>0.003067292121447521</v>
+        <v>0.003059115627456178</v>
       </c>
       <c r="Z20">
-        <v>5.938437056423199E-05</v>
+        <v>9.839419846579634E-05</v>
       </c>
       <c r="AA20">
-        <v>0.003110840957435896</v>
+        <v>0.003109746320667091</v>
       </c>
       <c r="AB20">
-        <v>3.137885917721861E-05</v>
+        <v>3.864101384546424E-05</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -1512,19 +1512,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.003783697891984E-05</v>
+        <v>5.387721786085827E-06</v>
       </c>
       <c r="C21">
-        <v>0.01885693442427665</v>
+        <v>0.01884896753076334</v>
       </c>
       <c r="D21">
-        <v>5.227797591009198E-05</v>
+        <v>9.127996826225727E-05</v>
       </c>
       <c r="E21">
-        <v>0.021567562919469</v>
+        <v>0.02025491562385006</v>
       </c>
       <c r="F21">
-        <v>5.39971416971093</v>
+        <v>3.09971416971093</v>
       </c>
       <c r="S21">
         <v>7.454258870133629E-05</v>
@@ -1536,25 +1536,25 @@
         <v>0.1377</v>
       </c>
       <c r="V21">
-        <v>7.95806027784992</v>
+        <v>7.923697270116227</v>
       </c>
       <c r="W21">
-        <v>9.384918836907797</v>
+        <v>9.706277058531679</v>
       </c>
       <c r="X21">
-        <v>8.488916272662218</v>
+        <v>8.444913891034599</v>
       </c>
       <c r="Y21">
-        <v>0.003104426785038672</v>
+        <v>0.003095667743863466</v>
       </c>
       <c r="Z21">
-        <v>5.95924581417688E-05</v>
+        <v>9.880768731827475E-05</v>
       </c>
       <c r="AA21">
-        <v>0.003148859008031682</v>
+        <v>0.003147661200998222</v>
       </c>
       <c r="AB21">
-        <v>3.160377374541591E-05</v>
+        <v>3.913532992195964E-05</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -1562,19 +1562,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.002391591770876E-05</v>
+        <v>5.37535412670238E-06</v>
       </c>
       <c r="C22">
-        <v>0.01909199262988123</v>
+        <v>0.0190834386252946</v>
       </c>
       <c r="D22">
-        <v>5.307082267434207E-05</v>
+        <v>9.268443633752852E-05</v>
       </c>
       <c r="E22">
-        <v>0.02186436496663649</v>
+        <v>0.02051956706643257</v>
       </c>
       <c r="F22">
-        <v>5.399698187671443</v>
+        <v>3.099698187671443</v>
       </c>
       <c r="S22">
         <v>7.373643094541469E-05</v>
@@ -1586,25 +1586,25 @@
         <v>0.136</v>
       </c>
       <c r="V22">
-        <v>7.955960723134906</v>
+        <v>7.919888150460081</v>
       </c>
       <c r="W22">
-        <v>9.384323724454664</v>
+        <v>9.704938918143966</v>
       </c>
       <c r="X22">
-        <v>8.492706359708011</v>
+        <v>8.445345121474285</v>
       </c>
       <c r="Y22">
-        <v>0.003142487214124884</v>
+        <v>0.003133128494570281</v>
       </c>
       <c r="Z22">
-        <v>5.980996755083547E-05</v>
+        <v>9.923341893945903E-05</v>
       </c>
       <c r="AA22">
-        <v>0.003187824698460261</v>
+        <v>0.003186517774386676</v>
       </c>
       <c r="AB22">
-        <v>3.18344721825562E-05</v>
+        <v>3.963867052731876E-05</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -1612,19 +1612,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.000962052902107E-05</v>
+        <v>5.362669176543004E-06</v>
       </c>
       <c r="C23">
-        <v>0.01933299164009904</v>
+        <v>0.0193238279188257</v>
       </c>
       <c r="D23">
-        <v>5.388757357131624E-05</v>
+        <v>9.413216880553013E-05</v>
       </c>
       <c r="E23">
-        <v>0.02216926939721135</v>
+        <v>0.02079112602590103</v>
       </c>
       <c r="F23">
-        <v>5.399682096240177</v>
+        <v>3.099682096240177</v>
       </c>
       <c r="S23">
         <v>7.292901205418028E-05</v>
@@ -1636,25 +1636,25 @@
         <v>0.1343</v>
       </c>
       <c r="V23">
-        <v>7.953861740220727</v>
+        <v>7.916098739202716</v>
       </c>
       <c r="W23">
-        <v>9.38383601307506</v>
+        <v>9.70360579153116</v>
       </c>
       <c r="X23">
-        <v>8.496607320131449</v>
+        <v>8.44584769931055</v>
       </c>
       <c r="Y23">
-        <v>0.003181508445094175</v>
+        <v>0.003171532229704849</v>
       </c>
       <c r="Z23">
-        <v>6.003707063324348E-05</v>
+        <v>9.967189136777981E-05</v>
       </c>
       <c r="AA23">
-        <v>0.003227773941830865</v>
+        <v>0.003226351687093756</v>
       </c>
       <c r="AB23">
-        <v>3.206762534687715E-05</v>
+        <v>4.015200192477867E-05</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -1662,19 +1662,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.994935709638381E-06</v>
+        <v>5.349654668319457E-06</v>
       </c>
       <c r="C24">
-        <v>0.01958015964095196</v>
+        <v>0.01957036247972339</v>
       </c>
       <c r="D24">
-        <v>5.47293090750692E-05</v>
+        <v>9.562517402142733E-05</v>
       </c>
       <c r="E24">
-        <v>0.02248260653901542</v>
+        <v>0.02106986291951504</v>
       </c>
       <c r="F24">
-        <v>5.399665892725394</v>
+        <v>3.099665892725394</v>
       </c>
       <c r="S24">
         <v>7.212031404854805E-05</v>
@@ -1686,25 +1686,25 @@
         <v>0.1326</v>
       </c>
       <c r="V24">
-        <v>7.951757916714291</v>
+        <v>7.912325505557029</v>
       </c>
       <c r="W24">
-        <v>9.383422086140666</v>
+        <v>9.702328077868463</v>
       </c>
       <c r="X24">
-        <v>8.500573647607498</v>
+        <v>8.446509288454219</v>
       </c>
       <c r="Y24">
-        <v>0.003221527308869316</v>
+        <v>0.003210915054555324</v>
       </c>
       <c r="Z24">
-        <v>6.027452087799812E-05</v>
+        <v>0.0001001244312437936</v>
       </c>
       <c r="AA24">
-        <v>0.003268744535631941</v>
+        <v>0.003267200401006179</v>
       </c>
       <c r="AB24">
-        <v>3.230588531692205E-05</v>
+        <v>4.067078380129233E-05</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -1712,19 +1712,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.979845527943714E-06</v>
+        <v>5.336297685542892E-06</v>
       </c>
       <c r="C25">
-        <v>0.01983373665824906</v>
+        <v>0.01982328114603121</v>
       </c>
       <c r="D25">
-        <v>5.559717502820188E-05</v>
+        <v>9.716558577815967E-05</v>
       </c>
       <c r="E25">
-        <v>0.02280472462773441</v>
+        <v>0.02135606228534408</v>
       </c>
       <c r="F25">
-        <v>5.39964957432942</v>
+        <v>3.09964957432942</v>
       </c>
       <c r="S25">
         <v>7.131031845271977E-05</v>
@@ -1736,25 +1736,25 @@
         <v>0.1309</v>
       </c>
       <c r="V25">
-        <v>7.949657612928889</v>
+        <v>7.908561269144989</v>
       </c>
       <c r="W25">
-        <v>9.383103953458292</v>
+        <v>9.701045329517818</v>
       </c>
       <c r="X25">
-        <v>8.504626759530199</v>
+        <v>8.447219832733248</v>
       </c>
       <c r="Y25">
-        <v>0.00326258253988219</v>
+        <v>0.00325131493278015</v>
       </c>
       <c r="Z25">
-        <v>6.05228160087826E-05</v>
+        <v>0.0001005908133508341</v>
       </c>
       <c r="AA25">
-        <v>0.003310776206415253</v>
+        <v>0.003309103383047801</v>
       </c>
       <c r="AB25">
-        <v>3.254842789498596E-05</v>
+        <v>4.120167203751337E-05</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -1762,19 +1762,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>9.964333210314509E-06</v>
+        <v>5.322584659829754E-06</v>
       </c>
       <c r="C26">
-        <v>0.02009397533565986</v>
+        <v>0.0200828352981398</v>
       </c>
       <c r="D26">
-        <v>5.649238740317269E-05</v>
+        <v>9.875567251337803E-05</v>
       </c>
       <c r="E26">
-        <v>0.02313599103157647</v>
+        <v>0.02165002371641977</v>
       </c>
       <c r="F26">
-        <v>5.399633138142877</v>
+        <v>3.099633138142877</v>
       </c>
       <c r="S26">
         <v>7.04990062882431E-05</v>
@@ -1786,25 +1786,25 @@
         <v>0.1292</v>
       </c>
       <c r="V26">
-        <v>7.947542603391016</v>
+        <v>7.904807906353436</v>
       </c>
       <c r="W26">
-        <v>9.382872454895987</v>
+        <v>9.699786231039187</v>
       </c>
       <c r="X26">
-        <v>8.508751853026125</v>
+        <v>8.448028755046789</v>
       </c>
       <c r="Y26">
-        <v>0.003304714904669998</v>
+        <v>0.00329277182908843</v>
       </c>
       <c r="Z26">
-        <v>6.078259049465142E-05</v>
+        <v>0.0001010721303889395</v>
       </c>
       <c r="AA26">
-        <v>0.003353910782448415</v>
+        <v>0.00335210208977162</v>
       </c>
       <c r="AB26">
-        <v>3.279634165831942E-05</v>
+        <v>4.174231747300572E-05</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -1812,19 +1812,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>9.948381028936339E-06</v>
+        <v>5.30850127693763E-06</v>
       </c>
       <c r="C27">
-        <v>0.02036114177496995</v>
+        <v>0.02034928969314816</v>
       </c>
       <c r="D27">
-        <v>5.741623796684362E-05</v>
+        <v>0.000100397848917938</v>
       </c>
       <c r="E27">
-        <v>0.02347679354597182</v>
+        <v>0.02195206284205713</v>
       </c>
       <c r="F27">
-        <v>5.399616581138694</v>
+        <v>3.099616581138693</v>
       </c>
       <c r="S27">
         <v>6.968635803684431E-05</v>
@@ -1836,25 +1836,25 @@
         <v>0.1275</v>
       </c>
       <c r="V27">
-        <v>7.94542616754195</v>
+        <v>7.901067438605805</v>
       </c>
       <c r="W27">
-        <v>9.382717500301238</v>
+        <v>9.698547798700568</v>
       </c>
       <c r="X27">
-        <v>8.5129339394868</v>
+        <v>8.448927318322658</v>
       </c>
       <c r="Y27">
-        <v>0.00334796733552567</v>
+        <v>0.00333532782507109</v>
       </c>
       <c r="Z27">
-        <v>6.105445577633441E-05</v>
+        <v>0.0001015690644881104</v>
       </c>
       <c r="AA27">
-        <v>0.003398192308325616</v>
+        <v>0.003396240220068935</v>
       </c>
       <c r="AB27">
-        <v>3.305077302059915E-05</v>
+        <v>4.229374902585174E-05</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -1862,19 +1862,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>9.931970276180412E-06</v>
+        <v>5.294032464727022E-06</v>
       </c>
       <c r="C28">
-        <v>0.02063551644438891</v>
+        <v>0.02062292336671883</v>
       </c>
       <c r="D28">
-        <v>5.837010001187087E-05</v>
+        <v>0.000102094687165552</v>
       </c>
       <c r="E28">
-        <v>0.02382754182348787</v>
+        <v>0.02226251241289665</v>
       </c>
       <c r="F28">
-        <v>5.399599900165517</v>
+        <v>3.099599900165516</v>
       </c>
       <c r="S28">
         <v>6.887235363181147E-05</v>
@@ -1886,25 +1886,25 @@
         <v>0.1258</v>
       </c>
       <c r="V28">
-        <v>7.943304087951525</v>
+        <v>7.897334061509858</v>
       </c>
       <c r="W28">
-        <v>9.382684670002021</v>
+        <v>9.697361216440898</v>
       </c>
       <c r="X28">
-        <v>8.517218308681585</v>
+        <v>8.449967346093159</v>
       </c>
       <c r="Y28">
-        <v>0.003392385077143904</v>
+        <v>0.003379027267781671</v>
       </c>
       <c r="Z28">
-        <v>6.13390507751951E-05</v>
+        <v>0.0001020829245154549</v>
       </c>
       <c r="AA28">
-        <v>0.003443667193937846</v>
+        <v>0.003441563821028977</v>
       </c>
       <c r="AB28">
-        <v>3.33096266602919E-05</v>
+        <v>4.285341613217313E-05</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -1912,19 +1912,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>9.915081188395585E-06</v>
+        <v>5.279162334982237E-06</v>
       </c>
       <c r="C29">
-        <v>0.02091739516143518</v>
+        <v>0.0209040306089045</v>
       </c>
       <c r="D29">
-        <v>5.935543486149596E-05</v>
+        <v>0.0001038489300030379</v>
       </c>
       <c r="E29">
-        <v>0.02418866890859081</v>
+        <v>0.02258172346055837</v>
       </c>
       <c r="F29">
-        <v>5.399583091940804</v>
+        <v>3.099583091940804</v>
       </c>
       <c r="S29">
         <v>6.805697242729541E-05</v>
@@ -1936,25 +1936,25 @@
         <v>0.1241</v>
       </c>
       <c r="V29">
-        <v>7.941176677415246</v>
+        <v>7.893618466636161</v>
       </c>
       <c r="W29">
-        <v>9.382734120711239</v>
+        <v>9.696191410528677</v>
       </c>
       <c r="X29">
-        <v>8.521557706370718</v>
+        <v>8.451084467409721</v>
       </c>
       <c r="Y29">
-        <v>0.003438015844628407</v>
+        <v>0.003423916916319564</v>
       </c>
       <c r="Z29">
-        <v>6.16370523366681E-05</v>
+        <v>0.0001026139652078217</v>
       </c>
       <c r="AA29">
-        <v>0.003490384420886854</v>
+        <v>0.003488121497808386</v>
       </c>
       <c r="AB29">
-        <v>3.357583848373305E-05</v>
+        <v>4.342568423207029E-05</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -1962,19 +1962,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>9.897692865630726E-06</v>
+        <v>5.263874122663222E-06</v>
       </c>
       <c r="C30">
-        <v>0.02120709015763759</v>
+        <v>0.02119292202111146</v>
       </c>
       <c r="D30">
-        <v>6.037379898780388E-05</v>
+        <v>0.0001056635051198375</v>
       </c>
       <c r="E30">
-        <v>0.02456063290159584</v>
+        <v>0.02291006655186873</v>
       </c>
       <c r="F30">
-        <v>5.399566153043342</v>
+        <v>3.099566153043341</v>
       </c>
       <c r="S30">
         <v>6.724019317717205E-05</v>
@@ -1986,25 +1986,25 @@
         <v>0.1224</v>
       </c>
       <c r="V30">
-        <v>7.93903632369149</v>
+        <v>7.889907680123552</v>
       </c>
       <c r="W30">
-        <v>9.382902177765514</v>
+        <v>9.695059048400996</v>
       </c>
       <c r="X30">
-        <v>8.525986221230072</v>
+        <v>8.45231305316649</v>
       </c>
       <c r="Y30">
-        <v>0.003484909994521348</v>
+        <v>0.003470046123973893</v>
       </c>
       <c r="Z30">
-        <v>6.194922490148864E-05</v>
+        <v>0.0001031634416429901</v>
       </c>
       <c r="AA30">
-        <v>0.003538395651198008</v>
+        <v>0.003535964495219168</v>
       </c>
       <c r="AB30">
-        <v>3.384795759179567E-05</v>
+        <v>4.400908113319674E-05</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -2012,19 +2012,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>9.879783189992975E-06</v>
+        <v>5.248150125214224E-06</v>
       </c>
       <c r="C31">
-        <v>0.02150493123311153</v>
+        <v>0.02148992566218177</v>
       </c>
       <c r="D31">
-        <v>6.142685179713344E-05</v>
+        <v>0.0001075415408923807</v>
       </c>
       <c r="E31">
-        <v>0.02494391876649614</v>
+        <v>0.02324793314811166</v>
       </c>
       <c r="F31">
-        <v>5.399549079905254</v>
+        <v>3.099549079905254</v>
       </c>
       <c r="S31">
         <v>6.642199400828049E-05</v>
@@ -2036,25 +2036,25 @@
         <v>0.1207</v>
       </c>
       <c r="V31">
-        <v>7.936896293388301</v>
+        <v>7.886205251562667</v>
       </c>
       <c r="W31">
-        <v>9.383211810368275</v>
+        <v>9.693971193891329</v>
       </c>
       <c r="X31">
-        <v>8.530521357995047</v>
+        <v>8.453658576026424</v>
       </c>
       <c r="Y31">
-        <v>0.003533120709586416</v>
+        <v>0.003517467006823624</v>
       </c>
       <c r="Z31">
-        <v>6.227644304716979E-05</v>
+        <v>0.0001037324444850146</v>
       </c>
       <c r="AA31">
-        <v>0.003587755477868518</v>
+        <v>0.003585146965840097</v>
       </c>
       <c r="AB31">
-        <v>3.41254167921742E-05</v>
+        <v>4.46039389362617E-05</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -2062,19 +2062,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>9.861328738333656E-06</v>
+        <v>5.231971638280324E-06</v>
       </c>
       <c r="C32">
-        <v>0.02181126700998745</v>
+        <v>0.0217953882924859</v>
       </c>
       <c r="D32">
-        <v>6.251636417869754E-05</v>
+        <v>0.0001094863837281626</v>
       </c>
       <c r="E32">
-        <v>0.02533904029577045</v>
+        <v>0.02359573707842364</v>
       </c>
       <c r="F32">
-        <v>5.399531868803477</v>
+        <v>3.099531868803477</v>
       </c>
       <c r="S32">
         <v>6.56023523875945E-05</v>
@@ -2086,25 +2086,25 @@
         <v>0.119</v>
       </c>
       <c r="V32">
-        <v>7.934737547496916</v>
+        <v>7.882514781140639</v>
       </c>
       <c r="W32">
-        <v>9.383588443933197</v>
+        <v>9.692922016135361</v>
       </c>
       <c r="X32">
-        <v>8.535084862802201</v>
+        <v>8.455107940380449</v>
       </c>
       <c r="Y32">
-        <v>0.003582704199108405</v>
+        <v>0.003566234643428462</v>
       </c>
       <c r="Z32">
-        <v>6.261920537586058E-05</v>
+        <v>0.0001043218786548002</v>
       </c>
       <c r="AA32">
-        <v>0.003638521621598181</v>
+        <v>0.003635726151938723</v>
       </c>
       <c r="AB32">
-        <v>3.441297508405884E-05</v>
+        <v>4.521167867024885E-05</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -2112,19 +2112,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>9.842304688306833E-06</v>
+        <v>5.215318886717777E-06</v>
       </c>
       <c r="C33">
-        <v>0.02212646629470932</v>
+        <v>0.02210967672594616</v>
       </c>
       <c r="D33">
-        <v>6.364422790447826E-05</v>
+        <v>0.0001115016172145441</v>
       </c>
       <c r="E33">
-        <v>0.02574654224708919</v>
+        <v>0.02395391613786185</v>
       </c>
       <c r="F33">
-        <v>5.399514515850503</v>
+        <v>3.099514515850502</v>
       </c>
       <c r="S33">
         <v>6.478124509758994E-05</v>
@@ -2136,25 +2136,25 @@
         <v>0.1173</v>
       </c>
       <c r="V33">
-        <v>7.932577666153577</v>
+        <v>7.878825405899334</v>
       </c>
       <c r="W33">
-        <v>9.384066671125058</v>
+        <v>9.691896875239911</v>
       </c>
       <c r="X33">
-        <v>8.539708159756115</v>
+        <v>8.456637297966004</v>
       </c>
       <c r="Y33">
-        <v>0.003633719923655254</v>
+        <v>0.003616407292193298</v>
       </c>
       <c r="Z33">
-        <v>6.297839722645228E-05</v>
+        <v>0.0001049325827267916</v>
       </c>
       <c r="AA33">
-        <v>0.003690755080243313</v>
+        <v>0.003687762593580295</v>
       </c>
       <c r="AB33">
-        <v>3.47093784081053E-05</v>
+        <v>4.583453307123016E-05</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -2162,19 +2162,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>9.822684732203319E-06</v>
+        <v>5.198170964823467E-06</v>
       </c>
       <c r="C34">
-        <v>0.02245091956039763</v>
+        <v>0.02243317930107457</v>
       </c>
       <c r="D34">
-        <v>6.481246589720411E-05</v>
+        <v>0.0001135910830077478</v>
       </c>
       <c r="E34">
-        <v>0.02616700267602082</v>
+        <v>0.024322933828138</v>
       </c>
       <c r="F34">
-        <v>5.39949701698441</v>
+        <v>3.099497016984409</v>
       </c>
       <c r="S34">
         <v>6.395864821272627E-05</v>
@@ -2186,25 +2186,25 @@
         <v>0.1156</v>
       </c>
       <c r="V34">
-        <v>7.930406500962386</v>
+        <v>7.875152627103527</v>
       </c>
       <c r="W34">
-        <v>9.384715501079093</v>
+        <v>9.690938938529937</v>
       </c>
       <c r="X34">
-        <v>8.544452684464089</v>
+        <v>8.458307930358743</v>
       </c>
       <c r="Y34">
-        <v>0.003686230828455678</v>
+        <v>0.003668046626156041</v>
       </c>
       <c r="Z34">
-        <v>6.335533336375796E-05</v>
+        <v>0.0001055665533168713</v>
       </c>
       <c r="AA34">
-        <v>0.003744520458211477</v>
+        <v>0.003741320359176017</v>
       </c>
       <c r="AB34">
-        <v>3.501173290594154E-05</v>
+        <v>4.646946429418673E-05</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -2212,19 +2212,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>9.802440896047541E-06</v>
+        <v>5.180505690443806E-06</v>
       </c>
       <c r="C35">
-        <v>0.02278504056180808</v>
+        <v>0.02276630748343377</v>
       </c>
       <c r="D35">
-        <v>6.602324405134231E-05</v>
+        <v>0.0001157589056121388</v>
       </c>
       <c r="E35">
-        <v>0.02660103544489618</v>
+        <v>0.02470328121980781</v>
       </c>
       <c r="F35">
-        <v>5.399479367958389</v>
+        <v>3.099479367958388</v>
       </c>
       <c r="S35">
         <v>6.313453704501283E-05</v>
@@ -2236,25 +2236,25 @@
         <v>0.1139</v>
       </c>
       <c r="V35">
-        <v>7.928222464017866</v>
+        <v>7.871479521385801</v>
       </c>
       <c r="W35">
-        <v>9.385455097246476</v>
+        <v>9.690021409015177</v>
       </c>
       <c r="X35">
-        <v>8.549238793722992</v>
+        <v>8.46007581445704</v>
       </c>
       <c r="Y35">
-        <v>0.00374030359703914</v>
+        <v>0.003721217970526774</v>
       </c>
       <c r="Z35">
-        <v>6.375042856359271E-05</v>
+        <v>0.0001062245510817938</v>
       </c>
       <c r="AA35">
-        <v>0.00379988626008171</v>
+        <v>0.003796467387457835</v>
       </c>
       <c r="AB35">
-        <v>3.532502908999601E-05</v>
+        <v>4.712005182470911E-05</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -2262,19 +2262,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>9.781543535084616E-06</v>
+        <v>5.162299625515887E-06</v>
       </c>
       <c r="C36">
-        <v>0.02312926809692561</v>
+        <v>0.02310949761340077</v>
       </c>
       <c r="D36">
-        <v>6.727888321638612E-05</v>
+        <v>0.0001180095162979009</v>
       </c>
       <c r="E36">
-        <v>0.02704929303544905</v>
+        <v>0.02509547904446374</v>
       </c>
       <c r="F36">
-        <v>5.399461564328982</v>
+        <v>3.099461564328982</v>
       </c>
       <c r="S36">
         <v>6.230888613831465E-05</v>
@@ -2286,25 +2286,25 @@
         <v>0.1122</v>
       </c>
       <c r="V36">
-        <v>7.926024333428681</v>
+        <v>7.867811679791834</v>
       </c>
       <c r="W36">
-        <v>9.386307727415796</v>
+        <v>9.689160230690019</v>
       </c>
       <c r="X36">
-        <v>8.55408371157284</v>
+        <v>8.461960588629335</v>
       </c>
       <c r="Y36">
-        <v>0.003796008948076648</v>
+        <v>0.003775990598094123</v>
       </c>
       <c r="Z36">
-        <v>6.416471831846529E-05</v>
+        <v>0.0001069082563790357</v>
       </c>
       <c r="AA36">
-        <v>0.003856925066611887</v>
+        <v>0.003853275680421973</v>
       </c>
       <c r="AB36">
-        <v>3.564883900385577E-05</v>
+        <v>4.778595826623324E-05</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -2312,19 +2312,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>9.759961051524155E-06</v>
+        <v>5.143527840895669E-06</v>
       </c>
       <c r="C37">
-        <v>0.02348406793098268</v>
+        <v>0.02346321281489466</v>
       </c>
       <c r="D37">
-        <v>6.858187403828767E-05</v>
+        <v>0.0001203476849548239</v>
       </c>
       <c r="E37">
-        <v>0.02751246951053781</v>
+        <v>0.02550007987652832</v>
       </c>
       <c r="F37">
-        <v>5.399443601443976</v>
+        <v>3.099443601443975</v>
       </c>
       <c r="S37">
         <v>6.14816692006035E-05</v>
@@ -2336,25 +2336,25 @@
         <v>0.1105</v>
       </c>
       <c r="V37">
-        <v>7.923815048337615</v>
+        <v>7.864147862634256</v>
       </c>
       <c r="W37">
-        <v>9.387320945262548</v>
+        <v>9.688343291916674</v>
       </c>
       <c r="X37">
-        <v>8.559027039705221</v>
+        <v>8.463940717656467</v>
       </c>
       <c r="Y37">
-        <v>0.003853421936226774</v>
+        <v>0.003832438018735894</v>
       </c>
       <c r="Z37">
-        <v>6.459967915235409E-05</v>
+        <v>0.0001076188761366874</v>
       </c>
       <c r="AA37">
-        <v>0.003915713931652011</v>
+        <v>0.003911821676147446</v>
       </c>
       <c r="AB37">
-        <v>3.598161679009464E-05</v>
+        <v>4.84695519951168E-05</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -2362,19 +2362,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>9.737659863177215E-06</v>
+        <v>5.12416391734697E-06</v>
       </c>
       <c r="C38">
-        <v>0.02384993490062243</v>
+        <v>0.02382794508254996</v>
       </c>
       <c r="D38">
-        <v>6.993489183545584E-05</v>
+        <v>0.0001227785503130217</v>
       </c>
       <c r="E38">
-        <v>0.02799130386525728</v>
+        <v>0.02591767061009799</v>
       </c>
       <c r="F38">
-        <v>5.399425474428826</v>
+        <v>3.099425474428826</v>
       </c>
       <c r="S38">
         <v>6.065285908385421E-05</v>
@@ -2386,25 +2386,25 @@
         <v>0.1088</v>
       </c>
       <c r="V38">
-        <v>7.921590507763616</v>
+        <v>7.860487598011058</v>
       </c>
       <c r="W38">
-        <v>9.388461728608076</v>
+        <v>9.687603028068864</v>
       </c>
       <c r="X38">
-        <v>8.564034356619839</v>
+        <v>8.466057356323182</v>
       </c>
       <c r="Y38">
-        <v>0.003912622283993561</v>
+        <v>0.003890638317839006</v>
       </c>
       <c r="Z38">
-        <v>6.505607431531202E-05</v>
+        <v>0.0001083586611851606</v>
       </c>
       <c r="AA38">
-        <v>0.003976334749071728</v>
+        <v>0.003972186553087324</v>
       </c>
       <c r="AB38">
-        <v>3.63259051493586E-05</v>
+        <v>4.916913742283937E-05</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -2412,19 +2412,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>9.714604212049543E-06</v>
+        <v>5.104179800843949E-06</v>
       </c>
       <c r="C39">
-        <v>0.02422739521822222</v>
+        <v>0.02420421756718864</v>
       </c>
       <c r="D39">
-        <v>7.134081401747381E-05</v>
+        <v>0.0001253076566812487</v>
       </c>
       <c r="E39">
-        <v>0.02848658363259862</v>
+        <v>0.02634887510741998</v>
       </c>
       <c r="F39">
-        <v>5.399407178172161</v>
+        <v>3.09940717817216</v>
       </c>
       <c r="S39">
         <v>5.982242774234392E-05</v>
@@ -2436,25 +2436,25 @@
         <v>0.1071</v>
       </c>
       <c r="V39">
-        <v>7.919354361945003</v>
+        <v>7.856834212260339</v>
       </c>
       <c r="W39">
-        <v>9.38971088399358</v>
+        <v>9.686928299894271</v>
       </c>
       <c r="X39">
-        <v>8.569085869715927</v>
+        <v>8.468291200747457</v>
       </c>
       <c r="Y39">
-        <v>0.003973694763512265</v>
+        <v>0.003950674502865257</v>
       </c>
       <c r="Z39">
-        <v>6.553478873370736E-05</v>
+        <v>0.0001091291338848001</v>
       </c>
       <c r="AA39">
-        <v>0.004038874571991131</v>
+        <v>0.004034456670796284</v>
       </c>
       <c r="AB39">
-        <v>3.668356876735471E-05</v>
+        <v>4.988714170259637E-05</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -2462,19 +2462,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>9.690755949051585E-06</v>
+        <v>5.08354563961732E-06</v>
       </c>
       <c r="C40">
-        <v>0.0246170089989352</v>
+        <v>0.02459258708187425</v>
       </c>
       <c r="D40">
-        <v>7.280273952696169E-05</v>
+        <v>0.0001279409952493149</v>
       </c>
       <c r="E40">
-        <v>0.02899914883129232</v>
+        <v>0.02679435708905641</v>
       </c>
       <c r="F40">
-        <v>5.39938870731019</v>
+        <v>3.09938870731019</v>
       </c>
       <c r="S40">
         <v>5.899034617939873E-05</v>
@@ -2486,25 +2486,25 @@
         <v>0.1054</v>
       </c>
       <c r="V40">
-        <v>7.917103453878719</v>
+        <v>7.853178554715837</v>
       </c>
       <c r="W40">
-        <v>9.391153498740888</v>
+        <v>9.686319544598501</v>
       </c>
       <c r="X40">
-        <v>8.574250824946924</v>
+        <v>8.470635359895791</v>
       </c>
       <c r="Y40">
-        <v>0.004036729601815145</v>
+        <v>0.004012634912042361</v>
       </c>
       <c r="Z40">
-        <v>6.603804194258232E-05</v>
+        <v>0.0001099320518728529</v>
       </c>
       <c r="AA40">
-        <v>0.004103426039785064</v>
+        <v>0.004098723921265538</v>
       </c>
       <c r="AB40">
-        <v>3.705140824623384E-05</v>
+        <v>5.062516514972594E-05</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -2512,19 +2512,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>9.666074374079871E-06</v>
+        <v>5.062229676412754E-06</v>
       </c>
       <c r="C41">
-        <v>0.02501937303597468</v>
+        <v>0.02499364685378613</v>
       </c>
       <c r="D41">
-        <v>7.432401005415753E-05</v>
+        <v>0.0001306850488538866</v>
       </c>
       <c r="E41">
-        <v>0.02952989633327461</v>
+        <v>0.02725482332567206</v>
       </c>
       <c r="F41">
-        <v>5.39937005620973</v>
+        <v>3.099370056209731</v>
       </c>
       <c r="S41">
         <v>5.815658439847879E-05</v>
@@ -2536,25 +2536,25 @@
         <v>0.1037</v>
       </c>
       <c r="V41">
-        <v>7.914831990948698</v>
+        <v>7.849525413109991</v>
       </c>
       <c r="W41">
-        <v>9.392676256148421</v>
+        <v>9.685780123327966</v>
       </c>
       <c r="X41">
-        <v>8.579429677675995</v>
+        <v>8.473092728224056</v>
       </c>
       <c r="Y41">
-        <v>0.004101822906075351</v>
+        <v>0.004076613647454977</v>
       </c>
       <c r="Z41">
-        <v>6.656567048933614E-05</v>
+        <v>0.0001107695299323773</v>
       </c>
       <c r="AA41">
-        <v>0.004170087918990618</v>
+        <v>0.004165086195955962</v>
       </c>
       <c r="AB41">
-        <v>3.743593288089757E-05</v>
+        <v>5.138434913085859E-05</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -2562,19 +2562,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>9.640516036198233E-06</v>
+        <v>5.04019810831765E-06</v>
       </c>
       <c r="C42">
-        <v>0.02543512385307336</v>
+        <v>0.025408029550535</v>
       </c>
       <c r="D42">
-        <v>7.590823386507659E-05</v>
+        <v>0.0001335468427308839</v>
       </c>
       <c r="E42">
-        <v>0.03007978465271529</v>
+        <v>0.02773102712579755</v>
       </c>
       <c r="F42">
-        <v>5.399351218949573</v>
+        <v>3.099351218949574</v>
       </c>
       <c r="S42">
         <v>5.732111136624349E-05</v>
@@ -2586,25 +2586,25 @@
         <v>0.102</v>
       </c>
       <c r="V42">
-        <v>7.912544980093178</v>
+        <v>7.845867591247396</v>
       </c>
       <c r="W42">
-        <v>9.39437463172615</v>
+        <v>9.685324826290417</v>
       </c>
       <c r="X42">
-        <v>8.584699199328004</v>
+        <v>8.475675433257972</v>
       </c>
       <c r="Y42">
-        <v>0.004169077193335117</v>
+        <v>0.004142711049413686</v>
       </c>
       <c r="Z42">
-        <v>6.712027448448121E-05</v>
+        <v>0.0001116440225905826</v>
       </c>
       <c r="AA42">
-        <v>0.004238965452092448</v>
+        <v>0.004233647893403047</v>
       </c>
       <c r="AB42">
-        <v>3.783361858070725E-05</v>
+        <v>5.21652663967335E-05</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -2612,19 +2612,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>9.614034437320005E-06</v>
+        <v>5.017414862422597E-06</v>
       </c>
       <c r="C43">
-        <v>0.02586494106695824</v>
+        <v>0.02583641061337914</v>
       </c>
       <c r="D43">
-        <v>7.755931297871782E-05</v>
+        <v>0.0001365340033957125</v>
       </c>
       <c r="E43">
-        <v>0.03064983917818058</v>
+        <v>0.02822377212818887</v>
       </c>
       <c r="F43">
-        <v>5.399332189300623</v>
+        <v>3.099332189300622</v>
       </c>
       <c r="S43">
         <v>5.648389494206193E-05</v>
@@ -2636,25 +2636,25 @@
         <v>0.1003</v>
       </c>
       <c r="V43">
-        <v>7.910237901660683</v>
+        <v>7.842211124017542</v>
       </c>
       <c r="W43">
-        <v>9.396207083747976</v>
+        <v>9.684947550459073</v>
       </c>
       <c r="X43">
-        <v>8.590021502320699</v>
+        <v>8.478370199877363</v>
       </c>
       <c r="Y43">
-        <v>0.00423860188687496</v>
+        <v>0.00421103421935984</v>
       </c>
       <c r="Z43">
-        <v>6.770272084899892E-05</v>
+        <v>0.0001125576755532504</v>
       </c>
       <c r="AA43">
-        <v>0.004310171076389257</v>
+        <v>0.004304520480301459</v>
       </c>
       <c r="AB43">
-        <v>3.824760506394594E-05</v>
+        <v>5.29703430594022E-05</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -2662,19 +2662,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>9.586579845780214E-06</v>
+        <v>4.993841478792476E-06</v>
       </c>
       <c r="C44">
-        <v>0.02630955109719926</v>
+        <v>0.02627951193424092</v>
       </c>
       <c r="D44">
-        <v>7.928147273807448E-05</v>
+        <v>0.0001396548220323366</v>
       </c>
       <c r="E44">
-        <v>0.03124115800798196</v>
+        <v>0.02873391652676641</v>
       </c>
       <c r="F44">
-        <v>5.399312960704113</v>
+        <v>3.099312960704113</v>
       </c>
       <c r="S44">
         <v>5.564490181701067E-05</v>
@@ -2686,25 +2686,25 @@
         <v>0.09860000000000002</v>
       </c>
       <c r="V44">
-        <v>7.907910181658232</v>
+        <v>7.838550735214581</v>
       </c>
       <c r="W44">
-        <v>9.398177393951189</v>
+        <v>9.684667302870212</v>
       </c>
       <c r="X44">
-        <v>8.59539639961484</v>
+        <v>8.481197472804745</v>
       </c>
       <c r="Y44">
-        <v>0.004310513941461614</v>
+        <v>0.00428169760804616</v>
       </c>
       <c r="Z44">
-        <v>6.831454680460576E-05</v>
+        <v>0.000113513543265052</v>
       </c>
       <c r="AA44">
-        <v>0.00438382492934314</v>
+        <v>0.004377823068874597</v>
       </c>
       <c r="AB44">
-        <v>3.867888808500262E-05</v>
+        <v>5.379982344721644E-05</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -2712,19 +2712,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>9.558098967120078E-06</v>
+        <v>4.96943686783755E-06</v>
       </c>
       <c r="C45">
-        <v>0.02676973126604946</v>
+        <v>0.02673810591866563</v>
       </c>
       <c r="D45">
-        <v>8.107929584372367E-05</v>
+        <v>0.0001429183289770178</v>
       </c>
       <c r="E45">
-        <v>0.03185491832244145</v>
+        <v>0.02926237766100359</v>
       </c>
       <c r="F45">
-        <v>5.399293526247503</v>
+        <v>3.099293526247504</v>
       </c>
       <c r="S45">
         <v>5.480409747325358E-05</v>
@@ -2736,25 +2736,25 @@
         <v>0.09690000000000001</v>
       </c>
       <c r="V45">
-        <v>7.905558832655966</v>
+        <v>7.834885090019819</v>
       </c>
       <c r="W45">
-        <v>9.400315410556086</v>
+        <v>9.684459741167059</v>
       </c>
       <c r="X45">
-        <v>8.600844601759038</v>
+        <v>8.484118245324458</v>
       </c>
       <c r="Y45">
-        <v>0.00438493849224507</v>
+        <v>0.00435482364427039</v>
       </c>
       <c r="Z45">
-        <v>6.895791690512628E-05</v>
+        <v>0.0001145135724444381</v>
       </c>
       <c r="AA45">
-        <v>0.004460055561645914</v>
+        <v>0.00445368312581192</v>
       </c>
       <c r="AB45">
-        <v>3.912739752892804E-05</v>
+        <v>5.465823109451447E-05</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -2762,19 +2762,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>9.528534628523907E-06</v>
+        <v>4.944157087793722E-06</v>
       </c>
       <c r="C46">
-        <v>0.02724631433694599</v>
+        <v>0.02721301998276721</v>
       </c>
       <c r="D46">
-        <v>8.295776039093316E-05</v>
+        <v>0.0001463343771961492</v>
       </c>
       <c r="E46">
-        <v>0.03249238345082946</v>
+        <v>0.02981013709151436</v>
       </c>
       <c r="F46">
-        <v>5.399273878638676</v>
+        <v>3.099273878638676</v>
       </c>
       <c r="S46">
         <v>5.396144610260477E-05</v>
@@ -2786,25 +2786,25 @@
         <v>0.09520000000000002</v>
       </c>
       <c r="V46">
-        <v>7.903190902545</v>
+        <v>7.831211143278574</v>
       </c>
       <c r="W46">
-        <v>9.402620609136504</v>
+        <v>9.684371678576504</v>
       </c>
       <c r="X46">
-        <v>8.606361723147653</v>
+        <v>8.4871866749705</v>
       </c>
       <c r="Y46">
-        <v>0.004462009573947569</v>
+        <v>0.004430543466981567</v>
       </c>
       <c r="Z46">
-        <v>6.963461367627759E-05</v>
+        <v>0.0001155620820992878</v>
       </c>
       <c r="AA46">
-        <v>0.004539000707433718</v>
+        <v>0.004532237141789016</v>
       </c>
       <c r="AB46">
-        <v>3.959454892333269E-05</v>
+        <v>5.554368245878013E-05</v>
       </c>
     </row>
     <row r="47" spans="1:28">
@@ -2812,19 +2812,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>9.497825490731334E-06</v>
+        <v>4.917955155373314E-06</v>
       </c>
       <c r="C47">
-        <v>0.02774019354742881</v>
+        <v>0.02770514153923214</v>
       </c>
       <c r="D47">
-        <v>8.492228236554341E-05</v>
+        <v>0.0001499137357253096</v>
       </c>
       <c r="E47">
-        <v>0.03315491072773423</v>
+        <v>0.03037824622738414</v>
       </c>
       <c r="F47">
-        <v>5.399254010177743</v>
+        <v>3.099254010177742</v>
       </c>
       <c r="S47">
         <v>5.311691052147802E-05</v>
@@ -2836,25 +2836,25 @@
         <v>0.09350000000000001</v>
       </c>
       <c r="V47">
-        <v>7.900795490190308</v>
+        <v>7.827532566991875</v>
       </c>
       <c r="W47">
-        <v>9.405057916637665</v>
+        <v>9.684377106277701</v>
       </c>
       <c r="X47">
-        <v>8.611917716224305</v>
+        <v>8.490363782425311</v>
       </c>
       <c r="Y47">
-        <v>0.004541870936861593</v>
+        <v>0.004508997673979428</v>
       </c>
       <c r="Z47">
-        <v>7.034585826662916E-05</v>
+        <v>0.0001166615041363182</v>
       </c>
       <c r="AA47">
-        <v>0.004620808092133908</v>
+        <v>0.004613631568322293</v>
       </c>
       <c r="AB47">
-        <v>4.008339452689448E-05</v>
+        <v>5.646110469661829E-05</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -2862,19 +2862,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>9.465905560176341E-06</v>
+        <v>4.890780682117229E-06</v>
       </c>
       <c r="C48">
-        <v>0.02825232820048554</v>
+        <v>0.02821542353559338</v>
       </c>
       <c r="D48">
-        <v>8.697876492966854E-05</v>
+        <v>0.0001536682004224252</v>
       </c>
       <c r="E48">
-        <v>0.03384396009190877</v>
+        <v>0.03096783245141529</v>
       </c>
       <c r="F48">
-        <v>5.399233912725485</v>
+        <v>3.099233912725485</v>
       </c>
       <c r="S48">
         <v>5.227045212167481E-05</v>
@@ -2886,25 +2886,25 @@
         <v>0.09180000000000001</v>
       </c>
       <c r="V48">
-        <v>7.898375106879832</v>
+        <v>7.823842853784041</v>
       </c>
       <c r="W48">
-        <v>9.407673661056124</v>
+        <v>9.684488379747497</v>
       </c>
       <c r="X48">
-        <v>8.617544838062898</v>
+        <v>8.4936577702458</v>
       </c>
       <c r="Y48">
-        <v>0.004624676956835575</v>
+        <v>0.004590337232680226</v>
       </c>
       <c r="Z48">
-        <v>7.109458730379066E-05</v>
+        <v>0.0001178156251539967</v>
       </c>
       <c r="AA48">
-        <v>0.004705636327274778</v>
+        <v>0.00469802361394499</v>
       </c>
       <c r="AB48">
-        <v>4.059343039523709E-05</v>
+        <v>5.741218447981383E-05</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -2912,19 +2912,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>9.432703842583963E-06</v>
+        <v>4.862579651056778E-06</v>
       </c>
       <c r="C49">
-        <v>0.02878374988794885</v>
+        <v>0.02874489061738906</v>
       </c>
       <c r="D49">
-        <v>8.913365293986736E-05</v>
+        <v>0.0001576107158648563</v>
       </c>
       <c r="E49">
-        <v>0.03456110374680753</v>
+        <v>0.03158010599068824</v>
       </c>
       <c r="F49">
-        <v>5.39921357766935</v>
+        <v>3.09921357766935</v>
       </c>
       <c r="S49">
         <v>5.142203077690322E-05</v>
@@ -2936,25 +2936,25 @@
         <v>0.09010000000000001</v>
       </c>
       <c r="V49">
-        <v>7.895927070781137</v>
+        <v>7.820145088894782</v>
       </c>
       <c r="W49">
-        <v>9.410426021193592</v>
+        <v>9.684722231495471</v>
       </c>
       <c r="X49">
-        <v>8.623208845776503</v>
+        <v>8.497081529564074</v>
       </c>
       <c r="Y49">
-        <v>0.004710593605317306</v>
+        <v>0.00467472443282223</v>
       </c>
       <c r="Z49">
-        <v>7.18821302122638E-05</v>
+        <v>0.0001190287933755238</v>
       </c>
       <c r="AA49">
-        <v>0.004793656004574392</v>
+        <v>0.004785582320161314</v>
       </c>
       <c r="AB49">
-        <v>4.112819562025212E-05</v>
+        <v>5.839857871591473E-05</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -2962,19 +2962,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>9.398143867477212E-06</v>
+        <v>4.833294086850184E-06</v>
       </c>
       <c r="C50">
-        <v>0.0293355694309298</v>
+        <v>0.02929464600011068</v>
       </c>
       <c r="D50">
-        <v>9.139399558231135E-05</v>
+        <v>0.0001617555174024336</v>
       </c>
       <c r="E50">
-        <v>0.03530803684536251</v>
+        <v>0.03221636748036162</v>
       </c>
       <c r="F50">
-        <v>5.39919299588624</v>
+        <v>3.09919299588624</v>
       </c>
       <c r="S50">
         <v>5.057160473611545E-05</v>
@@ -2986,25 +2986,25 @@
         <v>0.08840000000000001</v>
       </c>
       <c r="V50">
-        <v>7.893449694940021</v>
+        <v>7.816433101493018</v>
       </c>
       <c r="W50">
-        <v>9.413353950970366</v>
+        <v>9.685065879937115</v>
       </c>
       <c r="X50">
-        <v>8.628935164217957</v>
+        <v>8.500613700424918</v>
       </c>
       <c r="Y50">
-        <v>0.004799799595223172</v>
+        <v>0.004762333964350052</v>
       </c>
       <c r="Z50">
-        <v>7.271166246108313E-05</v>
+        <v>0.0001203046983947294</v>
       </c>
       <c r="AA50">
-        <v>0.004885050770131203</v>
+        <v>0.004876489699804495</v>
       </c>
       <c r="AB50">
-        <v>4.168781940762942E-05</v>
+        <v>5.942462494684076E-05</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -3012,19 +3012,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>9.362143115684647E-06</v>
+        <v>4.802861650381762E-06</v>
       </c>
       <c r="C51">
-        <v>0.02990898463554445</v>
+        <v>0.02986587914683046</v>
       </c>
       <c r="D51">
-        <v>9.376751813731087E-05</v>
+        <v>0.0001661182959096638</v>
       </c>
       <c r="E51">
-        <v>0.03608658934692207</v>
+        <v>0.03287801632179296</v>
       </c>
       <c r="F51">
-        <v>5.39917215770123</v>
+        <v>3.09917215770123</v>
       </c>
       <c r="S51">
         <v>4.971913052844902E-05</v>
@@ -3036,25 +3036,25 @@
         <v>0.08670000000000001</v>
       </c>
       <c r="V51">
-        <v>7.890942373819907</v>
+        <v>7.812707295239981</v>
       </c>
       <c r="W51">
-        <v>9.416431533281589</v>
+        <v>9.685563813488978</v>
       </c>
       <c r="X51">
-        <v>8.634702363051428</v>
+        <v>8.50429756459363</v>
       </c>
       <c r="Y51">
-        <v>0.004892487593904781</v>
+        <v>0.00485335414603545</v>
       </c>
       <c r="Z51">
-        <v>7.358518237337837E-05</v>
+        <v>0.0001216494224702275</v>
       </c>
       <c r="AA51">
-        <v>0.004980018671125783</v>
+        <v>0.004970941956174253</v>
       </c>
       <c r="AB51">
-        <v>4.22754007049553E-05</v>
+        <v>6.049014775861548E-05</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -3062,19 +3062,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>9.322512992082236E-06</v>
+        <v>4.769111641194788E-06</v>
       </c>
       <c r="C52">
-        <v>0.0305052889778926</v>
+        <v>0.03045987436384887</v>
       </c>
       <c r="D52">
-        <v>9.628019002555868E-05</v>
+        <v>0.0001707839542487558</v>
       </c>
       <c r="E52">
-        <v>0.03689715441689794</v>
+        <v>0.03356511541538116</v>
       </c>
       <c r="F52">
-        <v>5.398089868892739</v>
+        <v>3.098089868892739</v>
       </c>
       <c r="S52">
         <v>4.886456289918886E-05</v>
@@ -3086,25 +3086,25 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="V52">
-        <v>7.888403319627209</v>
+        <v>7.808965193360266</v>
       </c>
       <c r="W52">
-        <v>9.41984814287613</v>
+        <v>9.686396033559705</v>
       </c>
       <c r="X52">
-        <v>8.640516315832341</v>
+        <v>8.50811002844471</v>
       </c>
       <c r="Y52">
-        <v>0.004988865642135409</v>
+        <v>0.004947988240506754</v>
       </c>
       <c r="Z52">
-        <v>7.452053435711696E-05</v>
+        <v>0.0001231057668724404</v>
       </c>
       <c r="AA52">
-        <v>0.0050787735365342</v>
+        <v>0.005069150992342566</v>
       </c>
       <c r="AB52">
-        <v>4.289438920244259E-05</v>
+        <v>6.161011802986168E-05</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -3112,19 +3112,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>9.629769755686226E-06</v>
+        <v>5.698876063163296E-06</v>
       </c>
       <c r="C53">
-        <v>0.03112588099397151</v>
+        <v>0.03107801906608561</v>
       </c>
       <c r="D53">
-        <v>9.1785224449709E-05</v>
+        <v>0.000147991572843378</v>
       </c>
       <c r="E53">
-        <v>0.03461797969416375</v>
+        <v>0.03309274282389862</v>
       </c>
       <c r="F53">
-        <v>6.097350417916628</v>
+        <v>3.897350417916627</v>
       </c>
       <c r="S53">
         <v>9.030858370959505E-05</v>
@@ -3136,25 +3136,25 @@
         <v>0.1715</v>
       </c>
       <c r="V53">
-        <v>7.885490259588179</v>
+        <v>7.804815301343567</v>
       </c>
       <c r="W53">
-        <v>9.503588608945453</v>
+        <v>9.664734227302155</v>
       </c>
       <c r="X53">
-        <v>8.704184230096429</v>
+        <v>8.572065650135258</v>
       </c>
       <c r="Y53">
-        <v>0.005089158399437008</v>
+        <v>0.005046455229764597</v>
       </c>
       <c r="Z53">
-        <v>7.37368495743603E-05</v>
+        <v>0.0001084072592501631</v>
       </c>
       <c r="AA53">
-        <v>0.005181546580357297</v>
+        <v>0.005171345704063234</v>
       </c>
       <c r="AB53">
-        <v>3.636424648175954E-05</v>
+        <v>5.167285276715614E-05</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -3162,19 +3162,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>9.598104094943277E-06</v>
+        <v>5.669814875098694E-06</v>
       </c>
       <c r="C54">
-        <v>0.03177242465583655</v>
+        <v>0.03172239463886149</v>
       </c>
       <c r="D54">
-        <v>9.414867617348617E-05</v>
+        <v>0.0001519548579352895</v>
       </c>
       <c r="E54">
-        <v>0.03539292970407294</v>
+        <v>0.03380648274328736</v>
       </c>
       <c r="F54">
-        <v>6.097332005189638</v>
+        <v>3.897332005189638</v>
       </c>
       <c r="S54">
         <v>8.869289238773768E-05</v>
@@ -3186,25 +3186,25 @@
         <v>0.168</v>
       </c>
       <c r="V54">
-        <v>7.88259868121358</v>
+        <v>7.801289788357385</v>
       </c>
       <c r="W54">
-        <v>9.506207698231698</v>
+        <v>9.665383301484406</v>
       </c>
       <c r="X54">
-        <v>8.708876260051884</v>
+        <v>8.575636151616374</v>
       </c>
       <c r="Y54">
-        <v>0.005193646348392479</v>
+        <v>0.005149331229150314</v>
       </c>
       <c r="Z54">
-        <v>7.463655502999785E-05</v>
+        <v>0.0001096310680170725</v>
       </c>
       <c r="AA54">
-        <v>0.005288737878979704</v>
+        <v>0.005278005555131902</v>
       </c>
       <c r="AB54">
-        <v>3.695846727827012E-05</v>
+        <v>5.263124079128459E-05</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -3212,19 +3212,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>9.565040980406625E-06</v>
+        <v>5.639514939041173E-06</v>
       </c>
       <c r="C55">
-        <v>0.03244643052774428</v>
+        <v>0.03239410612356204</v>
       </c>
       <c r="D55">
-        <v>9.663451973433747E-05</v>
+        <v>0.0001561328149923154</v>
       </c>
       <c r="E55">
-        <v>0.03620261660492381</v>
+        <v>0.03455118526123116</v>
       </c>
       <c r="F55">
-        <v>6.097313336208772</v>
+        <v>3.897313336208772</v>
       </c>
       <c r="S55">
         <v>8.70729848590562E-05</v>
@@ -3236,25 +3236,25 @@
         <v>0.1645</v>
       </c>
       <c r="V55">
-        <v>7.879672321196967</v>
+        <v>7.797745320927437</v>
       </c>
       <c r="W55">
-        <v>9.508913637567003</v>
+        <v>9.66614190664002</v>
       </c>
       <c r="X55">
-        <v>8.713604414770346</v>
+        <v>8.579301277109922</v>
       </c>
       <c r="Y55">
-        <v>0.005302561450378915</v>
+        <v>0.00525655889215315</v>
       </c>
       <c r="Z55">
-        <v>7.557951010738643E-05</v>
+        <v>0.0001109210694368427</v>
       </c>
       <c r="AA55">
-        <v>0.005400477866462713</v>
+        <v>0.005389183732032767</v>
       </c>
       <c r="AB55">
-        <v>3.75821253826878E-05</v>
+        <v>5.36328578531467E-05</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -3262,19 +3262,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>9.530487068249218E-06</v>
+        <v>5.607896138714091E-06</v>
       </c>
       <c r="C56">
-        <v>0.03314968696270102</v>
+        <v>0.03309493163027008</v>
       </c>
       <c r="D56">
-        <v>9.925236713262312E-05</v>
+        <v>0.000160543163181672</v>
       </c>
       <c r="E56">
-        <v>0.03704938523629624</v>
+        <v>0.03532887851097249</v>
       </c>
       <c r="F56">
-        <v>6.097294399738494</v>
+        <v>3.897294399738493</v>
       </c>
       <c r="S56">
         <v>8.54487600000346E-05</v>
@@ -3286,25 +3286,25 @@
         <v>0.161</v>
       </c>
       <c r="V56">
-        <v>7.876710019912445</v>
+        <v>7.794178327809257</v>
       </c>
       <c r="W56">
-        <v>9.511724378922326</v>
+        <v>9.667030309511372</v>
       </c>
       <c r="X56">
-        <v>8.718380373489216</v>
+        <v>8.58307616522811</v>
       </c>
       <c r="Y56">
-        <v>0.005416191492558732</v>
+        <v>0.00536842058395133</v>
       </c>
       <c r="Z56">
-        <v>7.656930567386966E-05</v>
+        <v>0.0001122830573914803</v>
       </c>
       <c r="AA56">
-        <v>0.005517062556486192</v>
+        <v>0.005505173968427976</v>
       </c>
       <c r="AB56">
-        <v>3.823679321485534E-05</v>
+        <v>5.468017786783535E-05</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -3312,19 +3312,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>9.494340656223193E-06</v>
+        <v>5.574871403834935E-06</v>
       </c>
       <c r="C57">
-        <v>0.03388414106482476</v>
+        <v>0.03382680692953871</v>
       </c>
       <c r="D57">
-        <v>0.0001020128513170431</v>
+        <v>0.0001652056086824073</v>
       </c>
       <c r="E57">
-        <v>0.03793579260587386</v>
+        <v>0.03614176903042839</v>
       </c>
       <c r="F57">
-        <v>6.097275183769457</v>
+        <v>3.897275183769457</v>
       </c>
       <c r="S57">
         <v>8.382011199910874E-05</v>
@@ -3336,25 +3336,25 @@
         <v>0.1575</v>
       </c>
       <c r="V57">
-        <v>7.87371450959136</v>
+        <v>7.790585357387327</v>
       </c>
       <c r="W57">
-        <v>9.514674538659587</v>
+        <v>9.668040736671822</v>
       </c>
       <c r="X57">
-        <v>8.723228157847787</v>
+        <v>8.586947159577502</v>
       </c>
       <c r="Y57">
-        <v>0.005534849763378396</v>
+        <v>0.005485223640097105</v>
       </c>
       <c r="Z57">
-        <v>7.761064149624092E-05</v>
+        <v>0.000113722108957559</v>
       </c>
       <c r="AA57">
-        <v>0.005638814240114445</v>
+        <v>0.005626296052662646</v>
       </c>
       <c r="AB57">
-        <v>3.892360145523747E-05</v>
+        <v>5.577798981817936E-05</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -3362,19 +3362,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>9.456490759000863E-06</v>
+        <v>5.540345966552693E-06</v>
       </c>
       <c r="C58">
-        <v>0.03465191670604085</v>
+        <v>0.03459184332319454</v>
       </c>
       <c r="D58">
-        <v>0.0001049277638705993</v>
+        <v>0.0001701421287328766</v>
       </c>
       <c r="E58">
-        <v>0.03886463203750134</v>
+        <v>0.0369922615297439</v>
       </c>
       <c r="F58">
-        <v>6.097255675446493</v>
+        <v>3.897255675446493</v>
       </c>
       <c r="S58">
         <v>8.218692997434879E-05</v>
@@ -3386,25 +3386,25 @@
         <v>0.154</v>
       </c>
       <c r="V58">
-        <v>7.870676080966091</v>
+        <v>7.786963273458984</v>
       </c>
       <c r="W58">
-        <v>9.51771808036499</v>
+        <v>9.669163432963984</v>
       </c>
       <c r="X58">
-        <v>8.728111171942684</v>
+        <v>8.590897753517003</v>
       </c>
       <c r="Y58">
-        <v>0.005658877925239354</v>
+        <v>0.005607303220350276</v>
       </c>
       <c r="Z58">
-        <v>7.870498270097811E-05</v>
+        <v>0.000115243626178145</v>
       </c>
       <c r="AA58">
-        <v>0.005766084481902153</v>
+        <v>0.005752898735909112</v>
       </c>
       <c r="AB58">
-        <v>3.964706417657354E-05</v>
+        <v>5.693169574650381E-05</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -3412,19 +3412,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>9.416815962451009E-06</v>
+        <v>5.504216428842953E-06</v>
       </c>
       <c r="C59">
-        <v>0.03545533505353318</v>
+        <v>0.0353923480021355</v>
       </c>
       <c r="D59">
-        <v>0.0001080102163325139</v>
+        <v>0.0001753773082073756</v>
       </c>
       <c r="E59">
-        <v>0.03983896057835607</v>
+        <v>0.03788298125669529</v>
       </c>
       <c r="F59">
-        <v>6.097235860985394</v>
+        <v>3.897235860985394</v>
       </c>
       <c r="S59">
         <v>8.054909777073181E-05</v>
@@ -3436,25 +3436,25 @@
         <v>0.1505</v>
       </c>
       <c r="V59">
-        <v>7.867594438145302</v>
+        <v>7.783315466730171</v>
       </c>
       <c r="W59">
-        <v>9.520863668921196</v>
+        <v>9.670435363580099</v>
       </c>
       <c r="X59">
-        <v>8.733034354737697</v>
+        <v>8.59495907003331</v>
       </c>
       <c r="Y59">
-        <v>0.005788649389019317</v>
+        <v>0.005735025536493814</v>
       </c>
       <c r="Z59">
-        <v>7.985653841057225E-05</v>
+        <v>0.0001168560490197915</v>
       </c>
       <c r="AA59">
-        <v>0.005899257445105074</v>
+        <v>0.005885363085680335</v>
       </c>
       <c r="AB59">
-        <v>4.040986967134029E-05</v>
+        <v>5.814399589059615E-05</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -3462,19 +3462,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>9.37518328330344E-06</v>
+        <v>5.46636986125468E-06</v>
       </c>
       <c r="C60">
-        <v>0.03629693802584746</v>
+        <v>0.03623084730437188</v>
       </c>
       <c r="D60">
-        <v>0.0001112748273388317</v>
+        <v>0.0001809387327573259</v>
       </c>
       <c r="E60">
-        <v>0.04086213033981896</v>
+        <v>0.03881679949362691</v>
       </c>
       <c r="F60">
-        <v>6.097215725583573</v>
+        <v>3.897215725583572</v>
       </c>
       <c r="S60">
         <v>7.890649339479497E-05</v>
@@ -3486,25 +3486,25 @@
         <v>0.147</v>
       </c>
       <c r="V60">
-        <v>7.864469083932981</v>
+        <v>7.779631774473955</v>
       </c>
       <c r="W60">
-        <v>9.524116567455483</v>
+        <v>9.671823951994721</v>
       </c>
       <c r="X60">
-        <v>8.737999606642914</v>
+        <v>8.599092294301872</v>
       </c>
       <c r="Y60">
-        <v>0.005924573028319524</v>
+        <v>0.005868791476671766</v>
       </c>
       <c r="Z60">
-        <v>8.106975777618136E-05</v>
+        <v>0.0001185650172571128</v>
       </c>
       <c r="AA60">
-        <v>0.006038753815948733</v>
+        <v>0.006024106397341994</v>
       </c>
       <c r="AB60">
-        <v>4.121515324073028E-05</v>
+        <v>5.942288883023057E-05</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -3512,19 +3512,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>9.331446683819847E-06</v>
+        <v>5.426682603406659E-06</v>
       </c>
       <c r="C61">
-        <v>0.0371795151770306</v>
+        <v>0.03711011336709419</v>
       </c>
       <c r="D61">
-        <v>0.000114737944172199</v>
+        <v>0.0001868574603715628</v>
       </c>
       <c r="E61">
-        <v>0.04193782421971801</v>
+        <v>0.03979686251955551</v>
       </c>
       <c r="F61">
-        <v>6.097195253315935</v>
+        <v>3.897195253315936</v>
       </c>
       <c r="S61">
         <v>7.725898869015573E-05</v>
@@ -3536,25 +3536,25 @@
         <v>0.1435</v>
       </c>
       <c r="V61">
-        <v>7.861297276281603</v>
+        <v>7.775915279946648</v>
       </c>
       <c r="W61">
-        <v>9.527499939293056</v>
+        <v>9.673375672862809</v>
       </c>
       <c r="X61">
-        <v>8.743021089439559</v>
+        <v>8.603336807231832</v>
       </c>
       <c r="Y61">
-        <v>0.006067097498332775</v>
+        <v>0.006009040902511148</v>
       </c>
       <c r="Z61">
-        <v>8.23503883416721E-05</v>
+        <v>0.0001203811478165412</v>
       </c>
       <c r="AA61">
-        <v>0.006185035246746489</v>
+        <v>0.006169586482915451</v>
       </c>
       <c r="AB61">
-        <v>4.206568863022343E-05</v>
+        <v>6.077160542027034E-05</v>
       </c>
     </row>
     <row r="62" spans="1:28">
@@ -3562,19 +3562,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>9.285445533923827E-06</v>
+        <v>5.385019050751961E-06</v>
       </c>
       <c r="C62">
-        <v>0.03810613460785206</v>
+        <v>0.03803319476476225</v>
       </c>
       <c r="D62">
-        <v>0.0001184179024083337</v>
+        <v>0.0001931685790871746</v>
       </c>
       <c r="E62">
-        <v>0.04307009692795871</v>
+        <v>0.04082662476624038</v>
       </c>
       <c r="F62">
-        <v>6.097174427018353</v>
+        <v>3.897174427018352</v>
       </c>
       <c r="S62">
         <v>7.560644888586979E-05</v>
@@ -3586,25 +3586,25 @@
         <v>0.14</v>
       </c>
       <c r="V62">
-        <v>7.858076897554096</v>
+        <v>7.772156842909232</v>
       </c>
       <c r="W62">
-        <v>9.530990302836184</v>
+        <v>9.675064578999706</v>
       </c>
       <c r="X62">
-        <v>8.748079987989263</v>
+        <v>8.607660316788836</v>
       </c>
       <c r="Y62">
-        <v>0.006216716176082553</v>
+        <v>0.006156257396378513</v>
       </c>
       <c r="Z62">
-        <v>8.370254847687291E-05</v>
+        <v>0.0001223121972057405</v>
       </c>
       <c r="AA62">
-        <v>0.006338609485699396</v>
+        <v>0.006322306854852831</v>
       </c>
       <c r="AB62">
-        <v>4.296651494749083E-05</v>
+        <v>6.219918147030933E-05</v>
       </c>
     </row>
     <row r="63" spans="1:28">
@@ -3612,19 +3612,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>9.237002785049961E-06</v>
+        <v>5.341230210308361E-06</v>
       </c>
       <c r="C63">
-        <v>0.03908017862594036</v>
+        <v>0.03900345184644623</v>
       </c>
       <c r="D63">
-        <v>0.0001223353340964719</v>
+        <v>0.0001999118770997577</v>
       </c>
       <c r="E63">
-        <v>0.04426342212156243</v>
+        <v>0.0419098867741575</v>
       </c>
       <c r="F63">
-        <v>6.097153228157669</v>
+        <v>3.89715322815767</v>
       </c>
       <c r="S63">
         <v>7.394873196436384E-05</v>
@@ -3636,25 +3636,25 @@
         <v>0.1365</v>
       </c>
       <c r="V63">
-        <v>7.854802464846238</v>
+        <v>7.76836037053801</v>
       </c>
       <c r="W63">
-        <v>9.534588023390851</v>
+        <v>9.676926450128972</v>
       </c>
       <c r="X63">
-        <v>8.753174815207119</v>
+        <v>8.612089936126937</v>
       </c>
       <c r="Y63">
-        <v>0.006373972935764749</v>
+        <v>0.006310973939947047</v>
       </c>
       <c r="Z63">
-        <v>8.513204720263134E-05</v>
+        <v>0.0001243703736814299</v>
       </c>
       <c r="AA63">
-        <v>0.006500036228539188</v>
+        <v>0.006482822436221614</v>
       </c>
       <c r="AB63">
-        <v>4.39221981270105E-05</v>
+        <v>6.371115526817705E-05</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -3662,19 +3662,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>9.185922819642659E-06</v>
+        <v>5.29515199963E-06</v>
       </c>
       <c r="C64">
-        <v>0.04010538502835731</v>
+        <v>0.04002459763511324</v>
       </c>
       <c r="D64">
-        <v>0.0001265135350715221</v>
+        <v>0.000207132651944803</v>
       </c>
       <c r="E64">
-        <v>0.04552274669160109</v>
+        <v>0.04305083875093653</v>
       </c>
       <c r="F64">
-        <v>6.097131636681288</v>
+        <v>3.897131636681288</v>
       </c>
       <c r="S64">
         <v>7.228568816448616E-05</v>
@@ -3686,25 +3686,25 @@
         <v>0.133</v>
       </c>
       <c r="V64">
-        <v>7.851471829220276</v>
+        <v>7.764515604067108</v>
       </c>
       <c r="W64">
-        <v>9.538297958742005</v>
+        <v>9.678939420109124</v>
       </c>
       <c r="X64">
-        <v>8.758306547863675</v>
+        <v>8.616599148322591</v>
       </c>
       <c r="Y64">
-        <v>0.006539468748621648</v>
+        <v>0.006473779296954037</v>
       </c>
       <c r="Z64">
-        <v>8.664554394370293E-05</v>
+        <v>0.0001265660995472538</v>
       </c>
       <c r="AA64">
-        <v>0.006669933966181614</v>
+        <v>0.006651746417299336</v>
       </c>
       <c r="AB64">
-        <v>4.493767467131893E-05</v>
+        <v>6.531807564327626E-05</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -3712,19 +3712,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>9.131989016523165E-06</v>
+        <v>5.246603337605134E-06</v>
       </c>
       <c r="C65">
-        <v>0.04118589506871639</v>
+        <v>0.04110074533736104</v>
       </c>
       <c r="D65">
-        <v>0.0001309789037963996</v>
+        <v>0.0002148826900189627</v>
       </c>
       <c r="E65">
-        <v>0.04685355354695909</v>
+        <v>0.04425411076216972</v>
       </c>
       <c r="F65">
-        <v>6.097109630846353</v>
+        <v>3.897109630846354</v>
       </c>
       <c r="S65">
         <v>7.061715937647952E-05</v>
@@ -3736,25 +3736,25 @@
         <v>0.1295</v>
       </c>
       <c r="V65">
-        <v>7.848080429802173</v>
+        <v>7.760622266950829</v>
       </c>
       <c r="W65">
-        <v>9.54211532312206</v>
+        <v>9.681139682964515</v>
       </c>
       <c r="X65">
-        <v>8.763470047491918</v>
+        <v>8.621212878810557</v>
       </c>
       <c r="Y65">
-        <v>0.006713869375775106</v>
+        <v>0.006645325599586653</v>
       </c>
       <c r="Z65">
-        <v>8.82500531577978E-05</v>
+        <v>0.0001289144781579584</v>
       </c>
       <c r="AA65">
-        <v>0.006848987920006217</v>
+        <v>0.006829757994100852</v>
       </c>
       <c r="AB65">
-        <v>4.601890464732961E-05</v>
+        <v>6.702779282474834E-05</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -3762,19 +3762,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>9.074960971967669E-06</v>
+        <v>5.195383982894366E-06</v>
       </c>
       <c r="C66">
-        <v>0.04232630940663083</v>
+        <v>0.04223646374423166</v>
       </c>
       <c r="D66">
-        <v>0.0001357614685472999</v>
+        <v>0.0002232214599377025</v>
       </c>
       <c r="E66">
-        <v>0.04826193445931929</v>
+        <v>0.04552483074113441</v>
       </c>
       <c r="F66">
-        <v>6.097087187027356</v>
+        <v>3.897087187027356</v>
       </c>
       <c r="S66">
         <v>6.894297829454419E-05</v>
@@ -3786,25 +3786,25 @@
         <v>0.126</v>
       </c>
       <c r="V66">
-        <v>7.844627566504104</v>
+        <v>7.756672967432989</v>
       </c>
       <c r="W66">
-        <v>9.546067758435097</v>
+        <v>9.683509487619997</v>
       </c>
       <c r="X66">
-        <v>8.768681264549059</v>
+        <v>8.62590890118503</v>
       </c>
       <c r="Y66">
-        <v>0.006897914356958921</v>
+        <v>0.006826337019626338</v>
       </c>
       <c r="Z66">
-        <v>8.99551187348614E-05</v>
+        <v>0.0001314293527025958</v>
       </c>
       <c r="AA66">
-        <v>0.007037959281543964</v>
+        <v>0.007017611610802965</v>
       </c>
       <c r="AB66">
-        <v>4.717129483838467E-05</v>
+        <v>6.885300461490996E-05</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -3812,19 +3812,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>9.014571129172817E-06</v>
+        <v>5.141271901161304E-06</v>
       </c>
       <c r="C67">
-        <v>0.04353175363343322</v>
+        <v>0.04343684209521148</v>
       </c>
       <c r="D67">
-        <v>0.0001408955265884463</v>
+        <v>0.0002322175830759603</v>
       </c>
       <c r="E67">
-        <v>0.04975467467556537</v>
+        <v>0.04686869159963947</v>
       </c>
       <c r="F67">
-        <v>6.097064279490116</v>
+        <v>3.897064279490115</v>
       </c>
       <c r="S67">
         <v>6.726296779300381E-05</v>
@@ -3836,25 +3836,25 @@
         <v>0.1225</v>
       </c>
       <c r="V67">
-        <v>7.841105707086793</v>
+        <v>7.752665911182987</v>
       </c>
       <c r="W67">
-        <v>9.550115706022837</v>
+        <v>9.686068475694196</v>
       </c>
       <c r="X67">
-        <v>8.773912286232626</v>
+        <v>8.630698566775802</v>
       </c>
       <c r="Y67">
-        <v>0.007092427478051036</v>
+        <v>0.007017620095824159</v>
       </c>
       <c r="Z67">
-        <v>9.176792509134903E-05</v>
+        <v>0.0001341289066524496</v>
       </c>
       <c r="AA67">
-        <v>0.007237696081164124</v>
+        <v>0.007216147570979768</v>
       </c>
       <c r="AB67">
-        <v>4.840373539207428E-05</v>
+        <v>7.080558043525581E-05</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -3862,19 +3862,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>8.950521054588376E-06</v>
+        <v>5.084020406532391E-06</v>
       </c>
       <c r="C68">
-        <v>0.04480795534245806</v>
+        <v>0.0447075663455684</v>
       </c>
       <c r="D68">
-        <v>0.0001464204191014003</v>
+        <v>0.0002419506447278077</v>
       </c>
       <c r="E68">
-        <v>0.05133935182491146</v>
+        <v>0.04829202936229979</v>
       </c>
       <c r="F68">
-        <v>6.097040880137185</v>
+        <v>3.897040880137185</v>
       </c>
       <c r="S68">
         <v>6.557693988785649E-05</v>
@@ -3886,25 +3886,25 @@
         <v>0.119</v>
       </c>
       <c r="V68">
-        <v>7.837512253368221</v>
+        <v>7.748595620932107</v>
       </c>
       <c r="W68">
-        <v>9.554278294321289</v>
+        <v>9.688804072810365</v>
       </c>
       <c r="X68">
-        <v>8.779173593120634</v>
+        <v>8.635564342841779</v>
       </c>
       <c r="Y68">
-        <v>0.007298329229608675</v>
+        <v>0.007220075719035092</v>
       </c>
       <c r="Z68">
-        <v>9.3699824107922E-05</v>
+        <v>0.0001370316647853383</v>
       </c>
       <c r="AA68">
-        <v>0.007449145856039774</v>
+        <v>0.007426304688348723</v>
       </c>
       <c r="AB68">
-        <v>4.972379535883918E-05</v>
+        <v>7.290150281244028E-05</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -3912,19 +3912,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>8.882476916282193E-06</v>
+        <v>5.023354680194713E-06</v>
       </c>
       <c r="C69">
-        <v>0.04616133518862038</v>
+        <v>0.04605500924559387</v>
       </c>
       <c r="D69">
-        <v>0.0001523814818255284</v>
+        <v>0.0002525134573511909</v>
       </c>
       <c r="E69">
-        <v>0.05302445159058065</v>
+        <v>0.04980191415255637</v>
       </c>
       <c r="F69">
-        <v>6.097016958208714</v>
+        <v>3.897016958208714</v>
       </c>
       <c r="S69">
         <v>6.388469484401596E-05</v>
@@ -3936,25 +3936,25 @@
         <v>0.1155</v>
       </c>
       <c r="V69">
-        <v>7.833841226486969</v>
+        <v>7.744454325446186</v>
       </c>
       <c r="W69">
-        <v>9.558559671156228</v>
+        <v>9.691752010444826</v>
       </c>
       <c r="X69">
-        <v>8.784465984328845</v>
+        <v>8.640531540743511</v>
       </c>
       <c r="Y69">
-        <v>0.007516651332805668</v>
+        <v>0.007434713417648721</v>
       </c>
       <c r="Z69">
-        <v>9.576288321828386E-05</v>
+        <v>0.0001401622562994402</v>
       </c>
       <c r="AA69">
-        <v>0.007673370766969498</v>
+        <v>0.007649135087910429</v>
       </c>
       <c r="AB69">
-        <v>5.114082187646292E-05</v>
+        <v>7.515566537940555E-05</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -3962,19 +3962,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>8.810064218719837E-06</v>
+        <v>4.958967748557906E-06</v>
       </c>
       <c r="C70">
-        <v>0.04759911499195772</v>
+        <v>0.04748633723897645</v>
       </c>
       <c r="D70">
-        <v>0.0001588312161518035</v>
+        <v>0.0002640149029286814</v>
       </c>
       <c r="E70">
-        <v>0.05481950364719711</v>
+        <v>0.05140625665144342</v>
       </c>
       <c r="F70">
-        <v>6.096992479938087</v>
+        <v>3.896992479938087</v>
       </c>
       <c r="S70">
         <v>6.21860200012941E-05</v>
@@ -3986,25 +3986,25 @@
         <v>0.112</v>
       </c>
       <c r="V70">
-        <v>7.830089244651993</v>
+        <v>7.740237528201996</v>
       </c>
       <c r="W70">
-        <v>9.562933315375179</v>
+        <v>9.69490130003345</v>
       </c>
       <c r="X70">
-        <v>8.789771842757045</v>
+        <v>8.645586436125402</v>
       </c>
       <c r="Y70">
-        <v>0.007748554096855274</v>
+        <v>0.007662668141440886</v>
       </c>
       <c r="Z70">
-        <v>9.796916465446767E-05</v>
+        <v>0.0001435457666294374</v>
       </c>
       <c r="AA70">
-        <v>0.007911565452753656</v>
+        <v>0.007885821944864525</v>
       </c>
       <c r="AB70">
-        <v>5.266672044102228E-05</v>
+        <v>7.758879170823805E-05</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -4012,19 +4012,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>8.732861683329894E-06</v>
+        <v>4.890515853434196E-06</v>
       </c>
       <c r="C71">
-        <v>0.04912944672666114</v>
+        <v>0.04900963795949412</v>
       </c>
       <c r="D71">
-        <v>0.000165830741457361</v>
+        <v>0.0002765835322000852</v>
       </c>
       <c r="E71">
-        <v>0.05673524199111258</v>
+        <v>0.05311393310342446</v>
       </c>
       <c r="F71">
-        <v>6.096967408148418</v>
+        <v>3.896967408148419</v>
       </c>
       <c r="S71">
         <v>6.048068854223027E-05</v>
@@ -4036,25 +4036,25 @@
         <v>0.1085</v>
       </c>
       <c r="V71">
-        <v>7.826246801158234</v>
+        <v>7.735937638792601</v>
       </c>
       <c r="W71">
-        <v>9.567410135998896</v>
+        <v>9.698237660840611</v>
       </c>
       <c r="X71">
-        <v>8.795097322813934</v>
+        <v>8.650716156280154</v>
       </c>
       <c r="Y71">
-        <v>0.007995347159184332</v>
+        <v>0.007905220476112224</v>
       </c>
       <c r="Z71">
-        <v>0.0001003346230078793</v>
+        <v>0.0001472112416389143</v>
       </c>
       <c r="AA71">
-        <v>0.008165078315086324</v>
+        <v>0.008137700433676018</v>
       </c>
       <c r="AB71">
-        <v>5.43134559671752E-05</v>
+        <v>8.022504996281301E-05</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -4062,19 +4062,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>8.650393942786202E-06</v>
+        <v>4.81761294947499E-06</v>
       </c>
       <c r="C72">
-        <v>0.05076156725950127</v>
+        <v>0.0506340731070706</v>
       </c>
       <c r="D72">
-        <v>0.0001734516127768502</v>
+        <v>0.000290372173724404</v>
       </c>
       <c r="E72">
-        <v>0.05878379460228322</v>
+        <v>0.05493493249801698</v>
       </c>
       <c r="F72">
-        <v>6.096941701780588</v>
+        <v>3.896941701780587</v>
       </c>
       <c r="S72">
         <v>5.87684580444129E-05</v>
@@ -4086,25 +4086,25 @@
         <v>0.105</v>
       </c>
       <c r="V72">
-        <v>7.822308984765422</v>
+        <v>7.731547191511102</v>
       </c>
       <c r="W72">
-        <v>9.57205393510454</v>
+        <v>9.701788202345124</v>
       </c>
       <c r="X72">
-        <v>8.800481723747867</v>
+        <v>8.65594154293305</v>
       </c>
       <c r="Y72">
-        <v>0.008258514243723548</v>
+        <v>0.008163820783927999</v>
       </c>
       <c r="Z72">
-        <v>0.0001028809010362045</v>
+        <v>0.000151195446010967</v>
       </c>
       <c r="AA72">
-        <v>0.008435437143723631</v>
+        <v>0.008406282946466458</v>
       </c>
       <c r="AB72">
-        <v>5.609300039353336E-05</v>
+        <v>8.308986600728822E-05</v>
       </c>
     </row>
     <row r="73" spans="1:28">
@@ -4112,19 +4112,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>8.562122904093485E-06</v>
+        <v>4.739824253224439E-06</v>
       </c>
       <c r="C73">
-        <v>0.05250598504042278</v>
+        <v>0.05237006279442734</v>
       </c>
       <c r="D73">
-        <v>0.0001817781128312133</v>
+        <v>0.0003055638920429402</v>
       </c>
       <c r="E73">
-        <v>0.06097890871185547</v>
+        <v>0.05688053054887039</v>
       </c>
       <c r="F73">
-        <v>6.096915315337813</v>
+        <v>3.896915315337813</v>
       </c>
       <c r="S73">
         <v>5.704906881183316E-05</v>
@@ -4136,25 +4136,25 @@
         <v>0.1015</v>
       </c>
       <c r="V73">
-        <v>7.818268823453653</v>
+        <v>7.727056352846281</v>
       </c>
       <c r="W73">
-        <v>9.576589358291967</v>
+        <v>9.705521883251407</v>
       </c>
       <c r="X73">
-        <v>8.805761385583109</v>
+        <v>8.661242867085418</v>
       </c>
       <c r="Y73">
-        <v>0.008539742979678282</v>
+        <v>0.008440118209373413</v>
       </c>
       <c r="Z73">
-        <v>0.0001056121779071017</v>
+        <v>0.0001555372885039953</v>
       </c>
       <c r="AA73">
-        <v>0.008724380045217769</v>
+        <v>0.008693289604413325</v>
       </c>
       <c r="AB73">
-        <v>5.803296471700636E-05</v>
+        <v>8.621719162135074E-05</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -4162,19 +4162,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>8.467437458752096E-06</v>
+        <v>4.65665861854196E-06</v>
       </c>
       <c r="C74">
-        <v>0.0543747067164082</v>
+        <v>0.05422950918379821</v>
       </c>
       <c r="D74">
-        <v>0.0001909101687028287</v>
+        <v>0.0003223797790139354</v>
       </c>
       <c r="E74">
-        <v>0.06333621929882055</v>
+        <v>0.05896349604420514</v>
       </c>
       <c r="F74">
-        <v>6.096888198225781</v>
+        <v>3.89688819822578</v>
       </c>
       <c r="S74">
         <v>5.532224205447891E-05</v>
@@ -4186,25 +4186,25 @@
         <v>0.098</v>
       </c>
       <c r="V74">
-        <v>7.814118824614527</v>
+        <v>7.722458704267134</v>
       </c>
       <c r="W74">
-        <v>9.581440540475796</v>
+        <v>9.709419789803329</v>
       </c>
       <c r="X74">
-        <v>8.811195938370043</v>
+        <v>8.66661707730759</v>
       </c>
       <c r="Y74">
-        <v>0.008840961936884396</v>
+        <v>0.008735996099404463</v>
       </c>
       <c r="Z74">
-        <v>0.0001085777263273541</v>
+        <v>0.0001602839091208914</v>
       </c>
       <c r="AA74">
-        <v>0.009033892440949938</v>
+        <v>0.009000685047727323</v>
       </c>
       <c r="AB74">
-        <v>6.013568640474914E-05</v>
+        <v>8.964597195730805E-05</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -4212,19 +4212,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>8.365641293121503E-06</v>
+        <v>4.56755960638243E-06</v>
       </c>
       <c r="C75">
-        <v>0.05638151399595284</v>
+        <v>0.05622606953212356</v>
       </c>
       <c r="D75">
-        <v>0.000200967097089795</v>
+        <v>0.0003410892612537615</v>
       </c>
       <c r="E75">
-        <v>0.06587357045541586</v>
+        <v>0.06119833660006254</v>
       </c>
       <c r="F75">
-        <v>6.096860293967092</v>
+        <v>3.896860293967092</v>
       </c>
       <c r="S75">
         <v>5.358767776463315E-05</v>
@@ -4236,25 +4236,25 @@
         <v>0.0945</v>
       </c>
       <c r="V75">
-        <v>7.809847442101483</v>
+        <v>7.717741076236521</v>
       </c>
       <c r="W75">
-        <v>9.586216606020916</v>
+        <v>9.713444824978975</v>
       </c>
       <c r="X75">
-        <v>8.816560874163882</v>
+        <v>8.672055551303876</v>
       </c>
       <c r="Y75">
-        <v>0.009164383574312436</v>
+        <v>0.009053615069414966</v>
       </c>
       <c r="Z75">
-        <v>0.0001117816861228922</v>
+        <v>0.0001654900420171257</v>
       </c>
       <c r="AA75">
-        <v>0.009366253802229389</v>
+        <v>0.009330723532015103</v>
       </c>
       <c r="AB75">
-        <v>6.243976457816427E-05</v>
+        <v>9.342374179854203E-05</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -4262,19 +4262,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>8.253029624176986E-06</v>
+        <v>4.468981579957532E-06</v>
       </c>
       <c r="C76">
-        <v>0.05854230426129373</v>
+        <v>0.05837549185023394</v>
       </c>
       <c r="D76">
-        <v>0.0002121550841134031</v>
+        <v>0.0003622382353339946</v>
       </c>
       <c r="E76">
-        <v>0.06860755329144451</v>
+        <v>0.06359801953470678</v>
       </c>
       <c r="F76">
-        <v>6.095141887146016</v>
+        <v>3.895141887146016</v>
       </c>
       <c r="S76">
         <v>5.184505218594251E-05</v>
@@ -4286,25 +4286,25 @@
         <v>0.091</v>
       </c>
       <c r="V76">
-        <v>7.80544730557718</v>
+        <v>7.712895512446482</v>
       </c>
       <c r="W76">
-        <v>9.591351363806497</v>
+        <v>9.717957476338709</v>
       </c>
       <c r="X76">
-        <v>8.821989505225913</v>
+        <v>8.677635188748267</v>
       </c>
       <c r="Y76">
-        <v>0.009512560570012034</v>
+        <v>0.00939546603200719</v>
       </c>
       <c r="Z76">
-        <v>0.0001153050044084197</v>
+        <v>0.0001713160352901309</v>
       </c>
       <c r="AA76">
-        <v>0.009724092803677514</v>
+        <v>0.009686004293177277</v>
       </c>
       <c r="AB76">
-        <v>6.497189995026424E-05</v>
+        <v>9.763205096256574E-05</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -4312,19 +4312,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5.913848423997423E-06</v>
+        <v>6.07277633117441E-06</v>
       </c>
       <c r="C77">
-        <v>0.06087551022838095</v>
+        <v>0.06069602199482994</v>
       </c>
       <c r="D77">
-        <v>0.0002642978876923514</v>
+        <v>0.0002571052046204573</v>
       </c>
       <c r="E77">
-        <v>0.0650123362719202</v>
+        <v>0.06493574651534401</v>
       </c>
       <c r="F77">
-        <v>6.364069930362401</v>
+        <v>6.4940699303624</v>
       </c>
       <c r="S77">
         <v>8.957186174354999E-05</v>
@@ -4336,25 +4336,25 @@
         <v>0.17</v>
       </c>
       <c r="V77">
-        <v>7.800771443535929</v>
+        <v>7.706650966015587</v>
       </c>
       <c r="W77">
-        <v>9.826850603097594</v>
+        <v>9.593053782740636</v>
       </c>
       <c r="X77">
-        <v>8.850646226965983</v>
+        <v>8.698424049314815</v>
       </c>
       <c r="Y77">
-        <v>0.009888450792636179</v>
+        <v>0.009764432031875872</v>
       </c>
       <c r="Z77">
-        <v>0.0001590731319127199</v>
+        <v>0.0001355881029304602</v>
       </c>
       <c r="AA77">
-        <v>0.0101104576398266</v>
+        <v>0.01006953918286587</v>
       </c>
       <c r="AB77">
-        <v>7.224609210198767E-05</v>
+        <v>8.222679672713852E-05</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -4362,19 +4362,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5.839593670819261E-06</v>
+        <v>5.998469170729033E-06</v>
       </c>
       <c r="C78">
-        <v>0.06340097740924297</v>
+        <v>0.06321431019442202</v>
       </c>
       <c r="D78">
-        <v>0.0002791762845774929</v>
+        <v>0.0002715099582772812</v>
       </c>
       <c r="E78">
-        <v>0.06781339602200769</v>
+        <v>0.06773812612531113</v>
       </c>
       <c r="F78">
-        <v>6.364044397676546</v>
+        <v>6.494044397676545</v>
       </c>
       <c r="S78">
         <v>8.642515509086922E-05</v>
@@ -4386,25 +4386,25 @@
         <v>0.1632</v>
       </c>
       <c r="V78">
-        <v>7.794391218005743</v>
+        <v>7.702436767863498</v>
       </c>
       <c r="W78">
-        <v>9.827573109006318</v>
+        <v>9.594442605282712</v>
       </c>
       <c r="X78">
-        <v>8.853354439196684</v>
+        <v>8.704799257414665</v>
       </c>
       <c r="Y78">
-        <v>0.01029384152849966</v>
+        <v>0.0101656338622486</v>
       </c>
       <c r="Z78">
-        <v>0.000163484003787697</v>
+        <v>0.0001396595633655424</v>
       </c>
       <c r="AA78">
-        <v>0.01052871645431513</v>
+        <v>0.01048567719895498</v>
       </c>
       <c r="AB78">
-        <v>7.56416902010269E-05</v>
+        <v>8.557182720058385E-05</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -4412,19 +4412,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5.758910349779933E-06</v>
+        <v>5.917717855662774E-06</v>
       </c>
       <c r="C79">
-        <v>0.066145403545098</v>
+        <v>0.06595095368295005</v>
       </c>
       <c r="D79">
-        <v>0.0002957935016705958</v>
+        <v>0.0002875894522868034</v>
       </c>
       <c r="E79">
-        <v>0.07086117287898801</v>
+        <v>0.07078772354084911</v>
       </c>
       <c r="F79">
-        <v>6.36401795455764</v>
+        <v>6.494017954557639</v>
       </c>
       <c r="S79">
         <v>8.326198742245202E-05</v>
@@ -4436,25 +4436,25 @@
         <v>0.1564</v>
       </c>
       <c r="V79">
-        <v>7.787876071452013</v>
+        <v>7.698096631422238</v>
       </c>
       <c r="W79">
-        <v>9.828004169035053</v>
+        <v>9.59567774498351</v>
       </c>
       <c r="X79">
-        <v>8.856074551118452</v>
+        <v>8.711315236849492</v>
       </c>
       <c r="Y79">
-        <v>0.01073429185566105</v>
+        <v>0.01060154578828699</v>
       </c>
       <c r="Z79">
-        <v>0.0001682999355707981</v>
+        <v>0.0001441262966833578</v>
       </c>
       <c r="AA79">
-        <v>0.01098319796579835</v>
+        <v>0.01093785569337909</v>
       </c>
       <c r="AB79">
-        <v>7.940122138430446E-05</v>
+        <v>8.926734694672494E-05</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -4462,19 +4462,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5.670940493764995E-06</v>
+        <v>5.829660812643344E-06</v>
       </c>
       <c r="C80">
-        <v>0.06913856763798107</v>
+        <v>0.06893565205707111</v>
       </c>
       <c r="D80">
-        <v>0.0003144684560005892</v>
+        <v>0.0003056491116811627</v>
       </c>
       <c r="E80">
-        <v>0.07418902939823328</v>
+        <v>0.07411802064386523</v>
       </c>
       <c r="F80">
-        <v>6.3639905138347</v>
+        <v>6.493990513834699</v>
       </c>
       <c r="S80">
         <v>8.008154946601722E-05</v>
@@ -4486,25 +4486,25 @@
         <v>0.1496</v>
       </c>
       <c r="V80">
-        <v>7.781200073755726</v>
+        <v>7.693597023271791</v>
       </c>
       <c r="W80">
-        <v>9.828028398390916</v>
+        <v>9.596472577065803</v>
       </c>
       <c r="X80">
-        <v>8.858815170692031</v>
+        <v>8.717897549607358</v>
       </c>
       <c r="Y80">
-        <v>0.01121456421566515</v>
+        <v>0.01107688303790534</v>
       </c>
       <c r="Z80">
-        <v>0.000173574688703484</v>
+        <v>0.0001490317645493838</v>
       </c>
       <c r="AA80">
-        <v>0.01147882509054445</v>
+        <v>0.01143097334548965</v>
       </c>
       <c r="AB80">
-        <v>8.358631094008856E-05</v>
+        <v>9.33808909014176E-05</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -4512,19 +4512,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5.574669669197737E-06</v>
+        <v>5.733279040488646E-06</v>
       </c>
       <c r="C81">
-        <v>0.07241590569426586</v>
+        <v>0.07220374743542302</v>
       </c>
       <c r="D81">
-        <v>0.0003356021908766866</v>
+        <v>0.0003260725261029581</v>
       </c>
       <c r="E81">
-        <v>0.07783648679719707</v>
+        <v>0.07776868974173164</v>
       </c>
       <c r="F81">
-        <v>6.363961975257521</v>
+        <v>6.49396197525752</v>
       </c>
       <c r="S81">
         <v>7.688295333202069E-05</v>
@@ -4536,25 +4536,25 @@
         <v>0.1428</v>
       </c>
       <c r="V81">
-        <v>7.774367521355446</v>
+        <v>7.688929773652757</v>
       </c>
       <c r="W81">
-        <v>9.827514627452077</v>
+        <v>9.59666924095789</v>
       </c>
       <c r="X81">
-        <v>8.861620200464344</v>
+        <v>8.724595804768647</v>
       </c>
       <c r="Y81">
-        <v>0.01174032562171094</v>
+        <v>0.01159725690806515</v>
       </c>
       <c r="Z81">
-        <v>0.0001793745109608345</v>
+        <v>0.0001544370857034923</v>
       </c>
       <c r="AA81">
-        <v>0.01202145550862085</v>
+        <v>0.01197085870047004</v>
       </c>
       <c r="AB81">
-        <v>8.82715272901841E-05</v>
+        <v>9.798261138980289E-05</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -4562,19 +4562,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5.468890661262493E-06</v>
+        <v>5.627359489262043E-06</v>
       </c>
       <c r="C82">
-        <v>0.07601992086943532</v>
+        <v>0.07579763118088902</v>
       </c>
       <c r="D82">
-        <v>0.0003597058725157105</v>
+        <v>0.0003493479151481895</v>
       </c>
       <c r="E82">
-        <v>0.08185067882207851</v>
+        <v>0.0817870573336683</v>
       </c>
       <c r="F82">
-        <v>6.36393222277324</v>
+        <v>6.493932222773239</v>
       </c>
       <c r="S82">
         <v>7.36652207470856E-05</v>
@@ -4586,25 +4586,25 @@
         <v>0.136</v>
       </c>
       <c r="V82">
-        <v>7.767337542576342</v>
+        <v>7.684076244149334</v>
       </c>
       <c r="W82">
-        <v>9.826143793970784</v>
+        <v>9.595746009096262</v>
       </c>
       <c r="X82">
-        <v>8.864468821583879</v>
+        <v>8.731330159203615</v>
       </c>
       <c r="Y82">
-        <v>0.01231837317724845</v>
+        <v>0.01216939789918323</v>
       </c>
       <c r="Z82">
-        <v>0.0001857568423683441</v>
+        <v>0.000160393997993732</v>
       </c>
       <c r="AA82">
-        <v>0.01261811470768738</v>
+        <v>0.01256450250492405</v>
       </c>
       <c r="AB82">
-        <v>9.355547304258071E-05</v>
+        <v>0.0001031750543340531</v>
       </c>
     </row>
     <row r="83" spans="1:28">
@@ -4612,19 +4612,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5.352156661084678E-06</v>
+        <v>5.510447824988881E-06</v>
       </c>
       <c r="C83">
-        <v>0.08000203744822057</v>
+        <v>0.07976859345803326</v>
       </c>
       <c r="D83">
-        <v>0.0003874410028935466</v>
+        <v>0.0003761060559624167</v>
       </c>
       <c r="E83">
-        <v>0.08628822577563686</v>
+        <v>0.08622999164184668</v>
       </c>
       <c r="F83">
-        <v>6.363901121062465</v>
+        <v>6.493901121062464</v>
       </c>
       <c r="S83">
         <v>7.042726882980028E-05</v>
@@ -4636,25 +4636,25 @@
         <v>0.1292</v>
       </c>
       <c r="V83">
-        <v>7.760095185284098</v>
+        <v>7.679011399704861</v>
       </c>
       <c r="W83">
-        <v>9.823457237281144</v>
+        <v>9.593305103947195</v>
       </c>
       <c r="X83">
-        <v>8.867356952959984</v>
+        <v>8.738200318832423</v>
       </c>
       <c r="Y83">
-        <v>0.01295693193171582</v>
+        <v>0.01280145073608794</v>
       </c>
       <c r="Z83">
-        <v>0.000192781527832091</v>
+        <v>0.0001669755049072397</v>
       </c>
       <c r="AA83">
-        <v>0.01327730203582658</v>
+        <v>0.01322036184442879</v>
       </c>
       <c r="AB83">
-        <v>9.956316539698069E-05</v>
+        <v>0.0001090683291463257</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -4662,19 +4662,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5.222720814923807E-06</v>
+        <v>5.380787386850404E-06</v>
       </c>
       <c r="C84">
-        <v>0.08442507058407207</v>
+        <v>0.08417928720259277</v>
       </c>
       <c r="D84">
-        <v>0.0004196784906753605</v>
+        <v>0.0004071758540501266</v>
       </c>
       <c r="E84">
-        <v>0.09121767305679021</v>
+        <v>0.0911663597688373</v>
       </c>
       <c r="F84">
-        <v>6.363868511083298</v>
+        <v>6.493868511083297</v>
       </c>
       <c r="S84">
         <v>6.716789265884458E-05</v>
@@ -4686,25 +4686,25 @@
         <v>0.1224</v>
       </c>
       <c r="V84">
-        <v>7.752620430635273</v>
+        <v>7.673721159400952</v>
       </c>
       <c r="W84">
-        <v>9.818774712446135</v>
+        <v>9.588360826789515</v>
       </c>
       <c r="X84">
-        <v>8.870303840823214</v>
+        <v>8.745170070185917</v>
       </c>
       <c r="Y84">
-        <v>0.01366605139859825</v>
+        <v>0.01350336602670909</v>
       </c>
       <c r="Z84">
-        <v>0.0002005047815804036</v>
+        <v>0.0001742352350763671</v>
       </c>
       <c r="AA84">
-        <v>0.01400939863973934</v>
+        <v>0.01394876703972226</v>
       </c>
       <c r="AB84">
-        <v>0.0001064552960347691</v>
+        <v>0.0001158222624399045</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -4712,19 +4712,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5.078457192076625E-06</v>
+        <v>5.236239312456106E-06</v>
       </c>
       <c r="C85">
-        <v>0.08936656423662483</v>
+        <v>0.08910705845838941</v>
       </c>
       <c r="D85">
-        <v>0.0004575877278192065</v>
+        <v>0.0004436678944917028</v>
       </c>
       <c r="E85">
-        <v>0.09672269490882375</v>
+        <v>0.09668025740617697</v>
       </c>
       <c r="F85">
-        <v>6.363834204255406</v>
+        <v>6.493834204255405</v>
       </c>
       <c r="S85">
         <v>6.388574408902296E-05</v>
@@ -4736,25 +4736,25 @@
         <v>0.1156</v>
       </c>
       <c r="V85">
-        <v>7.744893670278357</v>
+        <v>7.668177040234478</v>
       </c>
       <c r="W85">
-        <v>9.811109724758131</v>
+        <v>9.579685443066657</v>
       </c>
       <c r="X85">
-        <v>8.873389101154995</v>
+        <v>8.752342733391581</v>
       </c>
       <c r="Y85">
-        <v>0.01445814237606989</v>
+        <v>0.01428743254386396</v>
       </c>
       <c r="Z85">
-        <v>0.0002089762787353861</v>
+        <v>0.0001822316715746833</v>
       </c>
       <c r="AA85">
-        <v>0.01482721883642784</v>
+        <v>0.01476246967368005</v>
       </c>
       <c r="AB85">
-        <v>0.0001144398768606735</v>
+        <v>0.0001236311496750444</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -4762,19 +4762,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>4.916756739550486E-06</v>
+        <v>5.074177269755548E-06</v>
       </c>
       <c r="C86">
-        <v>0.09492337526842512</v>
+        <v>0.09464852036863296</v>
       </c>
       <c r="D86">
-        <v>0.0005027749685631964</v>
+        <v>0.0004871037931846942</v>
       </c>
       <c r="E86">
-        <v>0.1029063464333676</v>
+        <v>0.1028752974712908</v>
       </c>
       <c r="F86">
-        <v>6.363797974774996</v>
+        <v>6.493797974774995</v>
       </c>
       <c r="S86">
         <v>6.057930500307297E-05</v>
@@ -4786,25 +4786,25 @@
         <v>0.1088</v>
       </c>
       <c r="V86">
-        <v>7.736895329326421</v>
+        <v>7.662361964398682</v>
       </c>
       <c r="W86">
-        <v>9.798723709626316</v>
+        <v>9.564946386642957</v>
       </c>
       <c r="X86">
-        <v>8.876600004041663</v>
+        <v>8.759678887690598</v>
       </c>
       <c r="Y86">
-        <v>0.01534871525715329</v>
+        <v>0.01516900759838203</v>
       </c>
       <c r="Z86">
-        <v>0.0002181965435447196</v>
+        <v>0.0001909857297364524</v>
       </c>
       <c r="AA86">
-        <v>0.01574676752140078</v>
+        <v>0.01567739708143035</v>
       </c>
       <c r="AB86">
-        <v>0.0001238088804510514</v>
+        <v>0.0001327771681399149</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -4812,19 +4812,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>4.73438922251278E-06</v>
+        <v>4.891347583193205E-06</v>
       </c>
       <c r="C87">
-        <v>0.1012180819550826</v>
+        <v>0.1009259481403295</v>
       </c>
       <c r="D87">
-        <v>0.0005575058595407936</v>
+        <v>0.0005396233749215831</v>
       </c>
       <c r="E87">
-        <v>0.1098967657144562</v>
+        <v>0.1098803644999111</v>
       </c>
       <c r="F87">
-        <v>6.363759549277666</v>
+        <v>6.493759549277665</v>
       </c>
       <c r="S87">
         <v>5.724685389931277E-05</v>
@@ -4836,25 +4836,25 @@
         <v>0.102</v>
       </c>
       <c r="V87">
-        <v>7.728596628602888</v>
+        <v>7.656243150659663</v>
       </c>
       <c r="W87">
-        <v>9.779180055700884</v>
+        <v>9.540938563184175</v>
       </c>
       <c r="X87">
-        <v>8.880011505642546</v>
+        <v>8.767264924584083</v>
       </c>
       <c r="Y87">
-        <v>0.01635741650472719</v>
+        <v>0.01616754238962507</v>
       </c>
       <c r="Z87">
-        <v>0.0002281678394806524</v>
+        <v>0.00020053144586382</v>
       </c>
       <c r="AA87">
-        <v>0.0167882980974641</v>
+        <v>0.01671370507564971</v>
       </c>
       <c r="AB87">
-        <v>0.0001349601240056101</v>
+        <v>0.0001436347781833717</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -4862,19 +4862,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>4.531246072910556E-06</v>
+        <v>4.687612111588157E-06</v>
       </c>
       <c r="C88">
-        <v>0.1084081231047641</v>
+        <v>0.1080963999092872</v>
       </c>
       <c r="D88">
-        <v>0.0006245847385290403</v>
+        <v>0.0006038699504200789</v>
       </c>
       <c r="E88">
-        <v>0.1178634887840792</v>
+        <v>0.1178660113511368</v>
       </c>
       <c r="F88">
-        <v>6.361678157763424</v>
+        <v>6.491678157763423</v>
       </c>
       <c r="S88">
         <v>5.388642307866247E-05</v>
@@ -4886,25 +4886,25 @@
         <v>0.09520000000000002</v>
       </c>
       <c r="V88">
-        <v>7.719991719648588</v>
+        <v>7.649813095313562</v>
       </c>
       <c r="W88">
-        <v>9.748692641090026</v>
+        <v>9.502484993388245</v>
       </c>
       <c r="X88">
-        <v>8.883627390691819</v>
+        <v>8.775098828421894</v>
       </c>
       <c r="Y88">
-        <v>0.01750950569510195</v>
+        <v>0.0173080431713223</v>
       </c>
       <c r="Z88">
-        <v>0.0002388016352394155</v>
+        <v>0.0002108452153660636</v>
       </c>
       <c r="AA88">
-        <v>0.01797782223842542</v>
+        <v>0.01789728152546874</v>
       </c>
       <c r="AB88">
-        <v>0.0001483962780473444</v>
+        <v>0.0001566822872024733</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -4912,19 +4912,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5.516693348881247E-06</v>
+        <v>5.831444524404237E-06</v>
       </c>
       <c r="C89">
-        <v>0.1166991645175515</v>
+        <v>0.1163650560599693</v>
       </c>
       <c r="D89">
-        <v>0.0005669544735963519</v>
+        <v>0.0005368247053993842</v>
       </c>
       <c r="E89">
-        <v>0.1240455953582179</v>
+        <v>0.1241240133696772</v>
       </c>
       <c r="F89">
-        <v>7.260430317109749</v>
+        <v>7.520430317109748</v>
       </c>
       <c r="S89">
         <v>8.99379112340433E-05</v>
@@ -4936,25 +4936,25 @@
         <v>0.1703</v>
       </c>
       <c r="V89">
-        <v>7.710630883100584</v>
+        <v>7.642552107461992</v>
       </c>
       <c r="W89">
-        <v>9.644496948544818</v>
+        <v>9.336265031014243</v>
       </c>
       <c r="X89">
-        <v>8.893045436584282</v>
+        <v>8.787591165638931</v>
       </c>
       <c r="Y89">
-        <v>0.01883802139201445</v>
+        <v>0.01862321224485739</v>
       </c>
       <c r="Z89">
-        <v>0.0002051576456789258</v>
+        <v>0.0001783084636781431</v>
       </c>
       <c r="AA89">
-        <v>0.01934931654306989</v>
+        <v>0.01926194300533537</v>
       </c>
       <c r="AB89">
-        <v>0.0001353273599868272</v>
+        <v>0.0001422805976548066</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -4962,19 +4962,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5.474841889482638E-06</v>
+        <v>5.788733363646857E-06</v>
       </c>
       <c r="C90">
-        <v>0.1177360592500867</v>
+        <v>0.1173992366970637</v>
       </c>
       <c r="D90">
-        <v>0.0005786074816216211</v>
+        <v>0.0005478497498704208</v>
       </c>
       <c r="E90">
-        <v>0.1256391869506349</v>
+        <v>0.1257494338533245</v>
       </c>
       <c r="F90">
-        <v>7.260390208810704</v>
+        <v>7.520390208810703</v>
       </c>
       <c r="S90">
         <v>8.386772625173944E-05</v>
@@ -4986,25 +4986,25 @@
         <v>0.1572</v>
       </c>
       <c r="V90">
-        <v>7.703325142339017</v>
+        <v>7.63709385968995</v>
       </c>
       <c r="W90">
-        <v>9.651951297041256</v>
+        <v>9.353019867516405</v>
       </c>
       <c r="X90">
-        <v>8.91494565146502</v>
+        <v>8.813618006704544</v>
       </c>
       <c r="Y90">
-        <v>0.02039076003754241</v>
+        <v>0.02016028755995567</v>
       </c>
       <c r="Z90">
-        <v>0.0002179700246818653</v>
+        <v>0.0001897944749277383</v>
       </c>
       <c r="AA90">
-        <v>0.02095048230832681</v>
+        <v>0.02085524820597542</v>
       </c>
       <c r="AB90">
-        <v>0.000145176530504795</v>
+        <v>0.0001514594242103218</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -5012,19 +5012,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5.430098589684923E-06</v>
+        <v>5.742973567119512E-06</v>
       </c>
       <c r="C91">
-        <v>0.1187915317885414</v>
+        <v>0.1184519518947861</v>
       </c>
       <c r="D91">
-        <v>0.0005912667714215396</v>
+        <v>0.0005598460956001695</v>
       </c>
       <c r="E91">
-        <v>0.1273436103017674</v>
+        <v>0.127491600090343</v>
       </c>
       <c r="F91">
-        <v>7.260346618223993</v>
+        <v>7.520346618223992</v>
       </c>
       <c r="S91">
         <v>7.773409680735491E-05</v>
@@ -5036,25 +5036,25 @@
         <v>0.1441</v>
       </c>
       <c r="V91">
-        <v>7.695390314695079</v>
+        <v>7.631060819178243</v>
       </c>
       <c r="W91">
-        <v>9.659310002876589</v>
+        <v>9.370214355208828</v>
       </c>
       <c r="X91">
-        <v>8.938319377869336</v>
+        <v>8.841197072682313</v>
       </c>
       <c r="Y91">
-        <v>0.02222465003871155</v>
+        <v>0.02197578693132185</v>
       </c>
       <c r="Z91">
-        <v>0.000233087858425924</v>
+        <v>0.0002034497734076645</v>
       </c>
       <c r="AA91">
-        <v>0.02284187374267427</v>
+        <v>0.02273741082249952</v>
       </c>
       <c r="AB91">
-        <v>0.0001569194293217616</v>
+        <v>0.0001624583144850945</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -5062,19 +5062,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5.381777643223568E-06</v>
+        <v>5.693434129281428E-06</v>
       </c>
       <c r="C92">
-        <v>0.1198660796523334</v>
+        <v>0.1195236983111424</v>
       </c>
       <c r="D92">
-        <v>0.0006051775008802002</v>
+        <v>0.0005730534659023269</v>
       </c>
       <c r="E92">
-        <v>0.1291851516192763</v>
+        <v>0.1293785078943003</v>
       </c>
       <c r="F92">
-        <v>7.260298804064202</v>
+        <v>7.520298804064201</v>
       </c>
       <c r="S92">
         <v>7.153049417916009E-05</v>
@@ -5086,25 +5086,25 @@
         <v>0.131</v>
       </c>
       <c r="V92">
-        <v>7.686696047463711</v>
+        <v>7.624323304429078</v>
       </c>
       <c r="W92">
-        <v>9.666300249607211</v>
+        <v>9.387480114519441</v>
       </c>
       <c r="X92">
-        <v>8.963399558827737</v>
+        <v>8.870556945644841</v>
       </c>
       <c r="Y92">
-        <v>0.02442380625674012</v>
+        <v>0.02415302064711327</v>
       </c>
       <c r="Z92">
-        <v>0.0002511970396804168</v>
+        <v>0.0002199180710715328</v>
       </c>
       <c r="AA92">
-        <v>0.02511036917400953</v>
+        <v>0.02499490607330097</v>
       </c>
       <c r="AB92">
-        <v>0.0001711581831194627</v>
+        <v>0.0001758589606255967</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -5112,19 +5112,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5.328912032003677E-06</v>
+        <v>5.639083699122511E-06</v>
       </c>
       <c r="C93">
-        <v>0.1209602163693192</v>
+        <v>0.1206149886308235</v>
       </c>
       <c r="D93">
-        <v>0.0006206888592750494</v>
+        <v>0.0005878137383078354</v>
       </c>
       <c r="E93">
-        <v>0.131200883502838</v>
+        <v>0.1314496720017101</v>
       </c>
       <c r="F93">
-        <v>7.260245767402722</v>
+        <v>7.520245767402721</v>
       </c>
       <c r="S93">
         <v>6.524899096966475E-05</v>
@@ -5136,25 +5136,25 @@
         <v>0.1179</v>
       </c>
       <c r="V93">
-        <v>7.677065892720849</v>
+        <v>7.61672377172687</v>
       </c>
       <c r="W93">
-        <v>9.672347752058448</v>
+        <v>9.40413138195656</v>
       </c>
       <c r="X93">
-        <v>8.990414427425433</v>
+        <v>8.901943754585801</v>
       </c>
       <c r="Y93">
-        <v>0.02710965172530231</v>
+        <v>0.02681225426667346</v>
       </c>
       <c r="Z93">
-        <v>0.0002732763224109476</v>
+        <v>0.0002401258048589789</v>
       </c>
       <c r="AA93">
-        <v>0.02788139261744176</v>
+        <v>0.02775257797470935</v>
       </c>
       <c r="AB93">
-        <v>0.0001887881981221983</v>
+        <v>0.000192524560183574</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -5162,19 +5162,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5.270088722190051E-06</v>
+        <v>5.578413880058717E-06</v>
       </c>
       <c r="C94">
-        <v>0.1220744712536714</v>
+        <v>0.1217263513613097</v>
       </c>
       <c r="D94">
-        <v>0.0006383181546806873</v>
+        <v>0.0006046340507440909</v>
       </c>
       <c r="E94">
-        <v>0.1334450022506876</v>
+        <v>0.1337629041268185</v>
       </c>
       <c r="F94">
-        <v>7.260186119486622</v>
+        <v>7.520186119486621</v>
       </c>
       <c r="S94">
         <v>5.887977032361643E-05</v>
@@ -5186,25 +5186,25 @@
         <v>0.1047999999999999</v>
       </c>
       <c r="V94">
-        <v>7.666258218043963</v>
+        <v>7.608036878882921</v>
       </c>
       <c r="W94">
-        <v>9.676519446899674</v>
+        <v>9.419232442309793</v>
       </c>
       <c r="X94">
-        <v>9.01963973562904</v>
+        <v>8.935696980777182</v>
       </c>
       <c r="Y94">
-        <v>0.03046419865066374</v>
+        <v>0.03013377032440027</v>
       </c>
       <c r="Z94">
-        <v>0.0003008000408651903</v>
+        <v>0.0002654800537268218</v>
       </c>
       <c r="AA94">
-        <v>0.03134296816985671</v>
+        <v>0.03119758465152508</v>
       </c>
       <c r="AB94">
-        <v>0.0002111882534998519</v>
+        <v>0.0002137792527029307</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -5212,19 +5212,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5.20071952734775E-06</v>
+        <v>5.506688727222582E-06</v>
       </c>
       <c r="C95">
-        <v>0.1232093885723536</v>
+        <v>0.1228583300277636</v>
       </c>
       <c r="D95">
-        <v>0.0006591454939210501</v>
+        <v>0.0006245491913663604</v>
       </c>
       <c r="E95">
-        <v>0.1359939596115082</v>
+        <v>0.1364002298740792</v>
       </c>
       <c r="F95">
-        <v>7.257985130804692</v>
+        <v>7.517985130804691</v>
       </c>
       <c r="S95">
         <v>5.241037827537116E-05</v>
@@ -5236,25 +5236,25 @@
         <v>0.09169999999999993</v>
       </c>
       <c r="V95">
-        <v>7.653928747725714</v>
+        <v>7.597933632133468</v>
       </c>
       <c r="W95">
-        <v>9.677470826029932</v>
+        <v>9.431290652886263</v>
       </c>
       <c r="X95">
-        <v>9.051410998144512</v>
+        <v>8.972168834546581</v>
       </c>
       <c r="Y95">
-        <v>0.03477325559492068</v>
+        <v>0.03440066893449648</v>
       </c>
       <c r="Z95">
-        <v>0.0003362344763900349</v>
+        <v>0.0002983105239915414</v>
       </c>
       <c r="AA95">
-        <v>0.03579036530076484</v>
+        <v>0.03562384256564254</v>
       </c>
       <c r="AB95">
-        <v>0.000240667205056953</v>
+        <v>0.0002418466949140026</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -5262,19 +5262,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>9.178549023682561E-06</v>
+        <v>5.691344941422599E-06</v>
       </c>
       <c r="C96">
-        <v>0.1243655229410181</v>
+        <v>0.1240114789035787</v>
       </c>
       <c r="D96">
-        <v>0.0003789414907537814</v>
+        <v>0.0005852204244459534</v>
       </c>
       <c r="E96">
-        <v>0.137691734621071</v>
+        <v>0.1320771786671488</v>
       </c>
       <c r="F96">
-        <v>10.55664013086267</v>
+        <v>7.57664013086267</v>
       </c>
       <c r="S96">
         <v>8.990808422171057E-05</v>
@@ -5286,25 +5286,25 @@
         <v>0.1697999999999998</v>
       </c>
       <c r="V96">
-        <v>7.6380016132918</v>
+        <v>7.585905107318367</v>
       </c>
       <c r="W96">
-        <v>9.395170085850038</v>
+        <v>9.507430915093197</v>
       </c>
       <c r="X96">
-        <v>9.087667975599119</v>
+        <v>9.018379027799829</v>
       </c>
       <c r="Y96">
-        <v>0.04051275911467579</v>
+        <v>0.04008439533624732</v>
       </c>
       <c r="Z96">
-        <v>0.0002280729924711932</v>
+        <v>0.0003241751131463835</v>
       </c>
       <c r="AA96">
-        <v>0.04171531498338283</v>
+        <v>0.04152084187743063</v>
       </c>
       <c r="AB96">
-        <v>0.0001827517848718259</v>
+        <v>0.0002556908592564879</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -5312,19 +5312,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>9.084211128481148E-06</v>
+        <v>5.623526649968891E-06</v>
       </c>
       <c r="C97">
-        <v>0.1255463475262587</v>
+        <v>0.1251869670795704</v>
       </c>
       <c r="D97">
-        <v>0.0003928422993771687</v>
+        <v>0.0006038393319073357</v>
       </c>
       <c r="E97">
-        <v>0.1412796321825275</v>
+        <v>0.1346625276572257</v>
       </c>
       <c r="F97">
-        <v>10.55656099230617</v>
+        <v>7.576560992306172</v>
       </c>
       <c r="S97">
         <v>7.671462674206594E-05</v>
@@ -5336,25 +5336,25 @@
         <v>0.1414999999999998</v>
       </c>
       <c r="V97">
-        <v>7.623016811019182</v>
+        <v>7.571032995880621</v>
       </c>
       <c r="W97">
-        <v>9.398311996931451</v>
+        <v>9.51223413382103</v>
       </c>
       <c r="X97">
-        <v>9.128244239367707</v>
+        <v>9.062283612009978</v>
       </c>
       <c r="Y97">
-        <v>0.04856969633911674</v>
+        <v>0.04803643938086753</v>
       </c>
       <c r="Z97">
-        <v>0.0002655437650168944</v>
+        <v>0.0003785483374845139</v>
       </c>
       <c r="AA97">
-        <v>0.05002182762308505</v>
+        <v>0.04977387208106548</v>
       </c>
       <c r="AB97">
-        <v>0.0002162007551510832</v>
+        <v>0.0003026797630189386</v>
       </c>
     </row>
     <row r="98" spans="1:28">
@@ -5362,19 +5362,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>8.960255576182417E-06</v>
+        <v>5.538520268166197E-06</v>
       </c>
       <c r="C98">
-        <v>0.1267497466149787</v>
+        <v>0.1263848817694518</v>
       </c>
       <c r="D98">
-        <v>0.0004115616455129117</v>
+        <v>0.000627828536587008</v>
       </c>
       <c r="E98">
-        <v>0.1459977254492981</v>
+        <v>0.1379054074872489</v>
       </c>
       <c r="F98">
-        <v>10.55646113371206</v>
+        <v>7.576461133712056</v>
       </c>
       <c r="S98">
         <v>6.318681345575886E-05</v>
@@ -5386,25 +5386,25 @@
         <v>0.1132000000000001</v>
       </c>
       <c r="V98">
-        <v>7.603759035744229</v>
+        <v>7.55212353700956</v>
       </c>
       <c r="W98">
-        <v>9.376318254697658</v>
+        <v>9.498997524680082</v>
       </c>
       <c r="X98">
-        <v>9.171578753948811</v>
+        <v>9.11038736910286</v>
       </c>
       <c r="Y98">
-        <v>0.06064573448264156</v>
+        <v>0.05995091214171315</v>
       </c>
       <c r="Z98">
-        <v>0.0003211707685342438</v>
+        <v>0.0004591750193011668</v>
       </c>
       <c r="AA98">
-        <v>0.06247323434006841</v>
+        <v>0.06214167016057697</v>
       </c>
       <c r="AB98">
-        <v>0.0002685995074370566</v>
+        <v>0.0003753357811429216</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -5412,19 +5412,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>8.779723580217121E-06</v>
+        <v>5.421227969735495E-06</v>
       </c>
       <c r="C99">
-        <v>0.1279763309350706</v>
+        <v>0.1276058240338485</v>
       </c>
       <c r="D99">
-        <v>0.000439789292183782</v>
+        <v>0.0006621786023425913</v>
       </c>
       <c r="E99">
-        <v>0.152876758060954</v>
+        <v>0.1423842930903021</v>
       </c>
       <c r="F99">
-        <v>10.55632626600658</v>
+        <v>7.576326266006575</v>
       </c>
       <c r="S99">
         <v>4.922797264793615E-05</v>
@@ -5436,25 +5436,25 @@
         <v>0.08490000000000007</v>
       </c>
       <c r="V99">
-        <v>7.577300013548847</v>
+        <v>7.526480251898173</v>
       </c>
       <c r="W99">
-        <v>9.291627637336015</v>
+        <v>9.443303308788593</v>
       </c>
       <c r="X99">
-        <v>9.215820577030206</v>
+        <v>9.162030523852183</v>
       </c>
       <c r="Y99">
-        <v>0.080753922387344</v>
+        <v>0.07978149118251714</v>
       </c>
       <c r="Z99">
-        <v>0.0004139589343159915</v>
+        <v>0.0005926021109716349</v>
       </c>
       <c r="AA99">
-        <v>0.08320811261761218</v>
+        <v>0.08273044828705499</v>
       </c>
       <c r="AB99">
-        <v>0.0003620334868305605</v>
+        <v>0.0005023218349870039</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -5462,19 +5462,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>8.464826631228541E-06</v>
+        <v>5.228044200092014E-06</v>
       </c>
       <c r="C100">
-        <v>0.1292266891864714</v>
+        <v>0.1288503695772947</v>
       </c>
       <c r="D100">
-        <v>0.0004917575794481284</v>
+        <v>0.0007218263037579244</v>
       </c>
       <c r="E100">
-        <v>0.1648282224282836</v>
+        <v>0.1497048433126593</v>
       </c>
       <c r="F100">
-        <v>10.55467121187284</v>
+        <v>7.57467121187284</v>
       </c>
       <c r="S100">
         <v>3.466911542856202E-05</v>
@@ -5495,13 +5495,13 @@
         <v>0</v>
       </c>
       <c r="Y100">
-        <v>0.120923904113858</v>
+        <v>0.1193759357182899</v>
       </c>
       <c r="Z100">
         <v>0</v>
       </c>
       <c r="AA100">
-        <v>0.124631152183003</v>
+        <v>0.123844511513089</v>
       </c>
       <c r="AB100">
         <v>0</v>

--- a/Wastewater_Effluent_Filtration/Water_Salt_Transport_1.xlsx
+++ b/Wastewater_Effluent_Filtration/Water_Salt_Transport_1.xlsx
@@ -46,9 +46,6 @@
     <t>fourth_stage_Avg_flux(LMH)</t>
   </si>
   <si>
-    <t>fifth_stage_Avg_flux(LMH)</t>
-  </si>
-  <si>
     <t>Brine pH</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>Ntp</t>
+  </si>
+  <si>
+    <t>Ntp_Accum_mgl</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,67 +490,67 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.969229118995047E-06</v>
+        <v>5.451338935819705E-06</v>
       </c>
       <c r="C2">
-        <v>0.02695471416264688</v>
+        <v>0.03694686318841234</v>
       </c>
       <c r="D2">
-        <v>0.0001391179973933317</v>
+        <v>0.0001748378148772857</v>
       </c>
       <c r="E2">
-        <v>0.02848307878555327</v>
+        <v>0.03925233628532358</v>
       </c>
       <c r="F2">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="G2">
-        <v>15.9412406064756</v>
+        <v>17.44398121590797</v>
       </c>
       <c r="H2">
-        <v>13.64806333037532</v>
+        <v>15.63698752546998</v>
       </c>
       <c r="I2">
-        <v>13.4570253926273</v>
+        <v>15.46833105695679</v>
       </c>
       <c r="J2">
-        <v>6.209771682040553</v>
+        <v>10.97647136258729</v>
       </c>
       <c r="K2">
-        <v>0.175770441272971</v>
+        <v>7.170031591118998</v>
       </c>
       <c r="L2">
-        <v>8.065597635026231</v>
+        <v>5.338775773005032</v>
       </c>
       <c r="M2">
-        <v>6.42781288648316</v>
+        <v>7.20137428066348</v>
       </c>
       <c r="N2">
-        <v>8.038541105070445</v>
+        <v>0.01385929047336624</v>
       </c>
       <c r="O2">
-        <v>0.01563455939985023</v>
+        <v>0.0001590028517436723</v>
       </c>
       <c r="P2">
-        <v>0.0001980861473345583</v>
+        <v>0.0153214278263131</v>
       </c>
       <c r="Q2">
-        <v>0.01533389479600695</v>
+        <v>0.001820886426080083</v>
       </c>
       <c r="R2">
-        <v>0.0003623651199362166</v>
+        <v>0.0003443183474015728</v>
       </c>
       <c r="S2">
-        <v>0.0003445985175291288</v>
+        <v>5.891561662775525E-07</v>
       </c>
       <c r="T2">
-        <v>4.287150544550917E-08</v>
+        <v>0.01046677910478757</v>
       </c>
       <c r="U2">
-        <v>0.000457936431516571</v>
+        <v>0.0001378657114774632</v>
       </c>
       <c r="V2">
-        <v>2.731631657485846E-05</v>
+        <v>1.931636483510737</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -558,52 +558,55 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.955667587510947E-06</v>
+        <v>5.455724692787506E-06</v>
       </c>
       <c r="C3">
-        <v>0.02722557877037671</v>
+        <v>0.03731829778814502</v>
       </c>
       <c r="D3">
-        <v>0.0001409457765731906</v>
+        <v>0.0001765572531072915</v>
       </c>
       <c r="E3">
-        <v>0.02877892923538092</v>
+        <v>0.03967011057283602</v>
       </c>
       <c r="F3">
-        <v>3.099985695938484</v>
+        <v>3.599985244620505</v>
+      </c>
+      <c r="K3">
+        <v>7.173341286487782</v>
       </c>
       <c r="L3">
-        <v>8.066290777123923</v>
+        <v>5.346538678037028</v>
       </c>
       <c r="M3">
-        <v>6.426753895007592</v>
+        <v>7.2062081983628</v>
       </c>
       <c r="N3">
-        <v>8.039221814657695</v>
+        <v>0.01399767721701899</v>
       </c>
       <c r="O3">
-        <v>0.01579048337209786</v>
+        <v>0.0001616070431983781</v>
       </c>
       <c r="P3">
-        <v>0.0001996734914444111</v>
+        <v>0.01545779693136596</v>
       </c>
       <c r="Q3">
-        <v>0.01548512236849251</v>
+        <v>0.001818937193764193</v>
       </c>
       <c r="R3">
-        <v>0.0003656566918118399</v>
+        <v>0.0003477903594342525</v>
       </c>
       <c r="S3">
-        <v>0.0003480788775899741</v>
+        <v>5.757339784528268E-07</v>
       </c>
       <c r="T3">
-        <v>4.298565695895657E-08</v>
+        <v>0.01057111156330585</v>
       </c>
       <c r="U3">
-        <v>0.0004622861296472954</v>
+        <v>0.0001402045720842581</v>
       </c>
       <c r="V3">
-        <v>2.761415400120856E-05</v>
+        <v>1.948021371491638</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -611,52 +614,55 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.941221012882088E-06</v>
+        <v>5.435923849354823E-06</v>
       </c>
       <c r="C4">
-        <v>0.02750195257643593</v>
+        <v>0.03769729514054337</v>
       </c>
       <c r="D4">
-        <v>0.0001428380635429839</v>
+        <v>0.0001790544815246498</v>
       </c>
       <c r="E4">
-        <v>0.02908069952389473</v>
+        <v>0.04008584113399313</v>
       </c>
       <c r="F4">
-        <v>3.09997131905428</v>
+        <v>3.599970414128759</v>
+      </c>
+      <c r="K4">
+        <v>7.17666206023116</v>
       </c>
       <c r="L4">
-        <v>8.066994171491251</v>
+        <v>5.352865708402949</v>
       </c>
       <c r="M4">
-        <v>6.42573423534903</v>
+        <v>7.209764526393264</v>
       </c>
       <c r="N4">
-        <v>8.039905631952685</v>
+        <v>0.01413886160654778</v>
       </c>
       <c r="O4">
-        <v>0.01594957326883922</v>
+        <v>0.0001642168861841274</v>
       </c>
       <c r="P4">
-        <v>0.0002013076682873002</v>
+        <v>0.01559696896950475</v>
       </c>
       <c r="Q4">
-        <v>0.01563940263049946</v>
+        <v>0.001822294310539702</v>
       </c>
       <c r="R4">
-        <v>0.0003690255356997119</v>
+        <v>0.0003513333658164546</v>
       </c>
       <c r="S4">
-        <v>0.0003516302642423518</v>
+        <v>5.795834802970627E-07</v>
       </c>
       <c r="T4">
-        <v>4.314088947280654E-08</v>
+        <v>0.01067754938974689</v>
       </c>
       <c r="U4">
-        <v>0.0004667215579702146</v>
+        <v>0.000142511053194468</v>
       </c>
       <c r="V4">
-        <v>2.791822538082182E-05</v>
+        <v>1.964255036430322</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -664,52 +670,55 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.926477214573745E-06</v>
+        <v>5.415718892869462E-06</v>
       </c>
       <c r="C5">
-        <v>0.02778400530337297</v>
+        <v>0.03808408112671882</v>
       </c>
       <c r="D5">
-        <v>0.00014478110822228</v>
+        <v>0.0001816220325134832</v>
       </c>
       <c r="E5">
-        <v>0.02938876760915702</v>
+        <v>0.04051019410486375</v>
       </c>
       <c r="F5">
-        <v>3.099956867942791</v>
+        <v>3.599955507076164</v>
+      </c>
+      <c r="K5">
+        <v>7.180007424239748</v>
       </c>
       <c r="L5">
-        <v>8.067704518772512</v>
+        <v>5.359260255859385</v>
       </c>
       <c r="M5">
-        <v>6.42473284978544</v>
+        <v>7.213342754452264</v>
       </c>
       <c r="N5">
-        <v>8.040594965775682</v>
+        <v>0.01428293010881957</v>
       </c>
       <c r="O5">
-        <v>0.01611192652245316</v>
+        <v>0.0001668960702563292</v>
       </c>
       <c r="P5">
-        <v>0.0002029812305200905</v>
+        <v>0.01573897592475182</v>
       </c>
       <c r="Q5">
-        <v>0.01579682919848709</v>
+        <v>0.001825754502129936</v>
       </c>
       <c r="R5">
-        <v>0.0003724658652221046</v>
+        <v>0.0003549493841910542</v>
       </c>
       <c r="S5">
-        <v>0.0003552548737614536</v>
+        <v>5.835304403789998E-07</v>
       </c>
       <c r="T5">
-        <v>4.329938252996593E-08</v>
+        <v>0.01078615803239176</v>
       </c>
       <c r="U5">
-        <v>0.0004712453036670125</v>
+        <v>0.0001448793490930015</v>
       </c>
       <c r="V5">
-        <v>2.822874029849507E-05</v>
+        <v>1.980667417358253</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -717,52 +726,55 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.911427047007939E-06</v>
+        <v>5.395097563523028E-06</v>
       </c>
       <c r="C6">
-        <v>0.02807191388873912</v>
+        <v>0.03847889840895013</v>
       </c>
       <c r="D6">
-        <v>0.0001467769586220294</v>
+        <v>0.0001842628799105473</v>
       </c>
       <c r="E6">
-        <v>0.02970332982675653</v>
+        <v>0.04094343526421271</v>
       </c>
       <c r="F6">
-        <v>3.099942341155617</v>
+        <v>3.599940521968955</v>
+      </c>
+      <c r="K6">
+        <v>7.183377089740056</v>
       </c>
       <c r="L6">
-        <v>8.068409997981187</v>
+        <v>5.36573638140847</v>
       </c>
       <c r="M6">
-        <v>6.423724077384926</v>
+        <v>7.216950980545576</v>
       </c>
       <c r="N6">
-        <v>8.041278248458108</v>
+        <v>0.0144299721300546</v>
       </c>
       <c r="O6">
-        <v>0.01627764470257747</v>
+        <v>0.0001696491433935814</v>
       </c>
       <c r="P6">
-        <v>0.0002046937877939028</v>
+        <v>0.01588390531457079</v>
       </c>
       <c r="Q6">
-        <v>0.01595749964987526</v>
+        <v>0.001829293384998586</v>
       </c>
       <c r="R6">
-        <v>0.0003759876519074151</v>
+        <v>0.0003586406951676237</v>
       </c>
       <c r="S6">
-        <v>0.0003589549943279008</v>
+        <v>5.875620624809273E-07</v>
       </c>
       <c r="T6">
-        <v>4.346327537769934E-08</v>
+        <v>0.01089700468534279</v>
       </c>
       <c r="U6">
-        <v>0.0004758600595354346</v>
+        <v>0.0001473133579952781</v>
       </c>
       <c r="V6">
-        <v>2.854527640537076E-05</v>
+        <v>1.997335425660971</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -770,52 +782,55 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.896060966469725E-06</v>
+        <v>5.374047073439099E-06</v>
       </c>
       <c r="C7">
-        <v>0.02836586269852983</v>
+        <v>0.0388819998355716</v>
       </c>
       <c r="D7">
-        <v>0.0001488277742392155</v>
+        <v>0.0001869801672510192</v>
       </c>
       <c r="E7">
-        <v>0.03002459063521467</v>
+        <v>0.04138584120072757</v>
       </c>
       <c r="F7">
-        <v>3.099927737198696</v>
+        <v>3.599925457266279</v>
+      </c>
+      <c r="K7">
+        <v>7.186773307479603</v>
       </c>
       <c r="L7">
-        <v>8.069124022476096</v>
+        <v>5.372297832615472</v>
       </c>
       <c r="M7">
-        <v>6.422786453788534</v>
+        <v>7.220591116793045</v>
       </c>
       <c r="N7">
-        <v>8.041988059774503</v>
+        <v>0.01458008079307209</v>
       </c>
       <c r="O7">
-        <v>0.01644683365957519</v>
+        <v>0.0001724791604598975</v>
       </c>
       <c r="P7">
-        <v>0.0002064519976298394</v>
+        <v>0.01603184859803997</v>
       </c>
       <c r="Q7">
-        <v>0.01612151556564334</v>
+        <v>0.001832907489317749</v>
       </c>
       <c r="R7">
-        <v>0.0003795716802647236</v>
+        <v>0.0003624096755160988</v>
       </c>
       <c r="S7">
-        <v>0.0003627330104442431</v>
+        <v>5.916804392875047E-07</v>
       </c>
       <c r="T7">
-        <v>4.362879204938205E-08</v>
+        <v>0.01101015933089382</v>
       </c>
       <c r="U7">
-        <v>0.0004805686361999616</v>
+        <v>0.0001498158004998292</v>
       </c>
       <c r="V7">
-        <v>2.886988328884582E-05</v>
+        <v>2.014291051517993</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -823,52 +838,55 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.880369046032787E-06</v>
+        <v>5.352554135387657E-06</v>
       </c>
       <c r="C8">
-        <v>0.02866604392112867</v>
+        <v>0.03929364898097927</v>
       </c>
       <c r="D8">
-        <v>0.0001509358326798011</v>
+        <v>0.0001897772181495306</v>
       </c>
       <c r="E8">
-        <v>0.03035276304660703</v>
+        <v>0.04183769988353023</v>
       </c>
       <c r="F8">
-        <v>3.099913054530329</v>
+        <v>3.599910311378157</v>
+      </c>
+      <c r="K8">
+        <v>7.190193731471331</v>
       </c>
       <c r="L8">
-        <v>8.069850988418695</v>
+        <v>5.3789330797414</v>
       </c>
       <c r="M8">
-        <v>6.421840067030538</v>
+        <v>7.224255688325221</v>
       </c>
       <c r="N8">
-        <v>8.042690935433532</v>
+        <v>0.01473335315086583</v>
       </c>
       <c r="O8">
-        <v>0.01661960367725546</v>
+        <v>0.0001753872198710092</v>
       </c>
       <c r="P8">
-        <v>0.0002082520415358283</v>
+        <v>0.01618290116302638</v>
       </c>
       <c r="Q8">
-        <v>0.01628898305378567</v>
+        <v>0.00183662924108245</v>
       </c>
       <c r="R8">
-        <v>0.0003832425784658016</v>
+        <v>0.0003662588031232989</v>
       </c>
       <c r="S8">
-        <v>0.0003665914081213941</v>
+        <v>5.958963047066984E-07</v>
       </c>
       <c r="T8">
-        <v>4.379897859976919E-08</v>
+        <v>0.01112569490036609</v>
       </c>
       <c r="U8">
-        <v>0.0004853739420819947</v>
+        <v>0.0001523877947955132</v>
       </c>
       <c r="V8">
-        <v>2.920084056569783E-05</v>
+        <v>2.031550243141128</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -876,52 +894,55 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.864340925007951E-06</v>
+        <v>5.330604885622175E-06</v>
       </c>
       <c r="C9">
-        <v>0.02897265798659586</v>
+        <v>0.03971412072036454</v>
       </c>
       <c r="D9">
-        <v>0.0001531035387058281</v>
+        <v>0.000192657551053165</v>
       </c>
       <c r="E9">
-        <v>0.03068806906106329</v>
+        <v>0.04229931121632603</v>
       </c>
       <c r="F9">
-        <v>3.099898291559103</v>
+        <v>3.599895082663351</v>
+      </c>
+      <c r="K9">
+        <v>7.193640614561084</v>
       </c>
       <c r="L9">
-        <v>8.070579023954314</v>
+        <v>5.38565823345983</v>
       </c>
       <c r="M9">
-        <v>6.420935992713943</v>
+        <v>7.227953759074286</v>
       </c>
       <c r="N9">
-        <v>8.043407797329211</v>
+        <v>0.01488989041894105</v>
       </c>
       <c r="O9">
-        <v>0.0167960698238761</v>
+        <v>0.0001783786227652689</v>
       </c>
       <c r="P9">
-        <v>0.0002100990198568411</v>
+        <v>0.01633716215143438</v>
       </c>
       <c r="Q9">
-        <v>0.01646001252126223</v>
+        <v>0.001840429708840452</v>
       </c>
       <c r="R9">
-        <v>0.0003869894421470978</v>
+        <v>0.0003701906623364021</v>
       </c>
       <c r="S9">
-        <v>0.0003705327802627145</v>
+        <v>6.002061365837416E-07</v>
       </c>
       <c r="T9">
-        <v>4.397267803050545E-08</v>
+        <v>0.01124368744988836</v>
       </c>
       <c r="U9">
-        <v>0.0004902790291950732</v>
+        <v>0.0001550339394361857</v>
       </c>
       <c r="V9">
-        <v>2.953957816379312E-05</v>
+        <v>2.049129028428537</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -929,52 +950,55 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.847965846160542E-06</v>
+        <v>5.308184955370118E-06</v>
       </c>
       <c r="C10">
-        <v>0.02928591401320335</v>
+        <v>0.04014370184177009</v>
       </c>
       <c r="D10">
-        <v>0.0001553334313864034</v>
+        <v>0.0001956248901763046</v>
       </c>
       <c r="E10">
-        <v>0.03103074016071012</v>
+        <v>0.04277098769992586</v>
       </c>
       <c r="F10">
-        <v>3.099883446641692</v>
+        <v>3.599879769427087</v>
+      </c>
+      <c r="K10">
+        <v>7.197111647499431</v>
       </c>
       <c r="L10">
-        <v>8.071304428986245</v>
+        <v>5.392454685600757</v>
       </c>
       <c r="M10">
-        <v>6.420049640571208</v>
+        <v>7.231673460590933</v>
       </c>
       <c r="N10">
-        <v>8.044128550036508</v>
+        <v>0.015049798155856</v>
       </c>
       <c r="O10">
-        <v>0.01697635211522413</v>
+        <v>0.0001814532613167486</v>
       </c>
       <c r="P10">
-        <v>0.0002119932891463046</v>
+        <v>0.01649473533015822</v>
       </c>
       <c r="Q10">
-        <v>0.0166347192938613</v>
+        <v>0.001844359152998924</v>
       </c>
       <c r="R10">
-        <v>0.0003908225160752025</v>
+        <v>0.0003742079499037914</v>
       </c>
       <c r="S10">
-        <v>0.0003745598325190697</v>
+        <v>6.046253086804887E-07</v>
       </c>
       <c r="T10">
-        <v>4.415122373136525E-08</v>
+        <v>0.01136421629239327</v>
       </c>
       <c r="U10">
-        <v>0.0004952870667062827</v>
+        <v>0.0001577542871890963</v>
       </c>
       <c r="V10">
-        <v>2.988580368172305E-05</v>
+        <v>2.067036393914969</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -982,52 +1006,55 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.831232558415538E-06</v>
+        <v>5.285279319201233E-06</v>
       </c>
       <c r="C11">
-        <v>0.02960603028333321</v>
+        <v>0.04058269169838101</v>
       </c>
       <c r="D11">
-        <v>0.0001576281958873071</v>
+        <v>0.0001986831850725214</v>
       </c>
       <c r="E11">
-        <v>0.03138101778568068</v>
+        <v>0.04325305502340089</v>
       </c>
       <c r="F11">
-        <v>3.099868518080557</v>
+        <v>3.599864369918686</v>
+      </c>
+      <c r="K11">
+        <v>7.200610982354963</v>
       </c>
       <c r="L11">
-        <v>8.07204704390344</v>
+        <v>5.399348725237804</v>
       </c>
       <c r="M11">
-        <v>6.419182823895241</v>
+        <v>7.235430397997204</v>
       </c>
       <c r="N11">
-        <v>8.044853362509592</v>
+        <v>0.0152131865612905</v>
       </c>
       <c r="O11">
-        <v>0.01716057583858762</v>
+        <v>0.0001846187065404723</v>
       </c>
       <c r="P11">
-        <v>0.0002139364198183032</v>
+        <v>0.01665572847496217</v>
       </c>
       <c r="Q11">
-        <v>0.01681322365405676</v>
+        <v>0.001848362929347423</v>
       </c>
       <c r="R11">
-        <v>0.0003947438536970444</v>
+        <v>0.0003783134809432981</v>
       </c>
       <c r="S11">
-        <v>0.0003786753894563811</v>
+        <v>6.091444599921628E-07</v>
       </c>
       <c r="T11">
-        <v>4.433376404269682E-08</v>
+        <v>0.01148736422651639</v>
       </c>
       <c r="U11">
-        <v>0.0005004013662999592</v>
+        <v>0.0001605554311327191</v>
       </c>
       <c r="V11">
-        <v>3.02397000582044E-05</v>
+        <v>2.085286969083525</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1035,52 +1062,55 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.814129316527925E-06</v>
+        <v>5.26187230347365E-06</v>
       </c>
       <c r="C12">
-        <v>0.0299332347509715</v>
+        <v>0.04103140290408444</v>
       </c>
       <c r="D12">
-        <v>0.0001599906732621808</v>
+        <v>0.000201836626312527</v>
       </c>
       <c r="E12">
-        <v>0.03173915387631691</v>
+        <v>0.04374585277311233</v>
       </c>
       <c r="F12">
-        <v>3.099853504121495</v>
+        <v>3.599848882329042</v>
+      </c>
+      <c r="K12">
+        <v>7.204136241903891</v>
       </c>
       <c r="L12">
-        <v>8.072779246598243</v>
+        <v>5.406326507267964</v>
       </c>
       <c r="M12">
-        <v>6.418343442097918</v>
+        <v>7.239215303534346</v>
       </c>
       <c r="N12">
-        <v>8.045585066590565</v>
+        <v>0.0153801706485655</v>
       </c>
       <c r="O12">
-        <v>0.01734887183212951</v>
+        <v>0.0001878759954286246</v>
       </c>
       <c r="P12">
-        <v>0.00021593100384771</v>
+        <v>0.01682025475880234</v>
       </c>
       <c r="Q12">
-        <v>0.01699565120739409</v>
+        <v>0.001852483335404557</v>
       </c>
       <c r="R12">
-        <v>0.0003987551891720645</v>
+        <v>0.0003825101957931126</v>
       </c>
       <c r="S12">
-        <v>0.000382882401186296</v>
+        <v>6.13777009560864E-07</v>
       </c>
       <c r="T12">
-        <v>4.452170231178144E-08</v>
+        <v>0.01161321765757621</v>
       </c>
       <c r="U12">
-        <v>0.0005056253848137565</v>
+        <v>0.0001634383685686614</v>
       </c>
       <c r="V12">
-        <v>3.060173669091465E-05</v>
+        <v>2.103891333895524</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1088,52 +1118,55 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.796643931065789E-06</v>
+        <v>5.23794767307961E-06</v>
       </c>
       <c r="C13">
-        <v>0.03026776558330532</v>
+        <v>0.0414901620757448</v>
       </c>
       <c r="D13">
-        <v>0.0001624238694388404</v>
+        <v>0.000205089659638196</v>
       </c>
       <c r="E13">
-        <v>0.03210541147108034</v>
+        <v>0.0442497352305516</v>
       </c>
       <c r="F13">
-        <v>3.099838402951016</v>
+        <v>3.599833304787915</v>
+      </c>
+      <c r="K13">
+        <v>7.207687563846381</v>
       </c>
       <c r="L13">
-        <v>8.073527876828004</v>
+        <v>5.413390945632598</v>
       </c>
       <c r="M13">
-        <v>6.417550730746901</v>
+        <v>7.243029686300061</v>
       </c>
       <c r="N13">
-        <v>8.046331681149184</v>
+        <v>0.01555087058848838</v>
       </c>
       <c r="O13">
-        <v>0.01754137678525627</v>
+        <v>0.0001912289609347658</v>
       </c>
       <c r="P13">
-        <v>0.0002179804867979706</v>
+        <v>0.0169884319658068</v>
       </c>
       <c r="Q13">
-        <v>0.01718213318512692</v>
+        <v>0.001856718819846547</v>
       </c>
       <c r="R13">
-        <v>0.0004028543256832267</v>
+        <v>0.0003868011667906806</v>
       </c>
       <c r="S13">
-        <v>0.0003871839503939812</v>
+        <v>6.185276283769445E-07</v>
       </c>
       <c r="T13">
-        <v>4.47131695114578E-08</v>
+        <v>0.01174186686307068</v>
       </c>
       <c r="U13">
-        <v>0.0005109627291746873</v>
+        <v>0.0001664065523116368</v>
       </c>
       <c r="V13">
-        <v>3.097269886231515E-05</v>
+        <v>2.122860573107425</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1141,52 +1174,55 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.77876359515754E-06</v>
+        <v>5.213488369446267E-06</v>
       </c>
       <c r="C14">
-        <v>0.03060987173914471</v>
+        <v>0.04195931062592783</v>
       </c>
       <c r="D14">
-        <v>0.0001649309721014783</v>
+        <v>0.0002084470142050269</v>
       </c>
       <c r="E14">
-        <v>0.03248006525633635</v>
+        <v>0.04476507203280727</v>
       </c>
       <c r="F14">
-        <v>3.099823212693687</v>
+        <v>3.599817635361185</v>
+      </c>
+      <c r="K14">
+        <v>7.211266820180596</v>
       </c>
       <c r="L14">
-        <v>8.074265598643745</v>
+        <v>5.420547005505116</v>
       </c>
       <c r="M14">
-        <v>6.416740752754873</v>
+        <v>7.24687555571908</v>
       </c>
       <c r="N14">
-        <v>8.047066021764069</v>
+        <v>0.01572541197061967</v>
       </c>
       <c r="O14">
-        <v>0.01773823356137511</v>
+        <v>0.0001946822836426808</v>
       </c>
       <c r="P14">
-        <v>0.000220082424482912</v>
+        <v>0.01716038325155635</v>
       </c>
       <c r="Q14">
-        <v>0.01737280680852969</v>
+        <v>0.00186106863742716</v>
       </c>
       <c r="R14">
-        <v>0.000407063839833832</v>
+        <v>0.0003911896058720705</v>
       </c>
       <c r="S14">
-        <v>0.0003915832599078956</v>
+        <v>6.233997924573277E-07</v>
       </c>
       <c r="T14">
-        <v>4.491240685151728E-08</v>
+        <v>0.01187340618478385</v>
       </c>
       <c r="U14">
-        <v>0.000516417161337328</v>
+        <v>0.0001694641243711214</v>
       </c>
       <c r="V14">
-        <v>3.135110916773896E-05</v>
+        <v>2.142206824911761</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1194,52 +1230,55 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.760474985117436E-06</v>
+        <v>5.188476673364413E-06</v>
       </c>
       <c r="C15">
-        <v>0.03095981358704175</v>
+        <v>0.04243920560997062</v>
       </c>
       <c r="D15">
-        <v>0.0001675153601257512</v>
+        <v>0.000211913717526107</v>
       </c>
       <c r="E15">
-        <v>0.03286340226055943</v>
+        <v>0.04529224910703582</v>
       </c>
       <c r="F15">
-        <v>3.099807931409142</v>
+        <v>3.599801872047784</v>
+      </c>
+      <c r="K15">
+        <v>7.214874056914822</v>
       </c>
       <c r="L15">
-        <v>8.075018424722156</v>
+        <v>5.427794514953395</v>
       </c>
       <c r="M15">
-        <v>6.415969074172178</v>
+        <v>7.250752202538488</v>
       </c>
       <c r="N15">
-        <v>8.047811128620687</v>
+        <v>0.01590392610495274</v>
       </c>
       <c r="O15">
-        <v>0.01793959162041985</v>
+        <v>0.0001982395571543563</v>
       </c>
       <c r="P15">
-        <v>0.0002222431449442298</v>
+        <v>0.01733623744252336</v>
       </c>
       <c r="Q15">
-        <v>0.01756781534839975</v>
+        <v>0.001865540787106193</v>
       </c>
       <c r="R15">
-        <v>0.000411371689718141</v>
+        <v>0.0003956788726086177</v>
       </c>
       <c r="S15">
-        <v>0.0003960837006837697</v>
+        <v>6.284008355872629E-07</v>
       </c>
       <c r="T15">
-        <v>4.511604962797992E-08</v>
+        <v>0.01200793425444377</v>
       </c>
       <c r="U15">
-        <v>0.0005219926332013463</v>
+        <v>0.0001726143248591351</v>
       </c>
       <c r="V15">
-        <v>3.173877962532988E-05</v>
+        <v>2.161942002103873</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1247,52 +1286,55 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.741764184214813E-06</v>
+        <v>5.162894098849697E-06</v>
       </c>
       <c r="C16">
-        <v>0.0313178635664245</v>
+        <v>0.04293022063197579</v>
       </c>
       <c r="D16">
-        <v>0.0001701806196447569</v>
+        <v>0.0002154951219680387</v>
       </c>
       <c r="E16">
-        <v>0.03325572252530249</v>
+        <v>0.045831669518839</v>
       </c>
       <c r="F16">
-        <v>3.099792557089072</v>
+        <v>3.59978601277658</v>
+      </c>
+      <c r="K16">
+        <v>7.218508660805147</v>
       </c>
       <c r="L16">
-        <v>8.075781195700564</v>
+        <v>5.435134106058384</v>
       </c>
       <c r="M16">
-        <v>6.4152655818905</v>
+        <v>7.254659433727516</v>
       </c>
       <c r="N16">
-        <v>8.048578755526453</v>
+        <v>0.01608655036713644</v>
       </c>
       <c r="O16">
-        <v>0.01814560730036724</v>
+        <v>0.000201905212879436</v>
       </c>
       <c r="P16">
-        <v>0.0002244668671360879</v>
+        <v>0.01751612926409797</v>
       </c>
       <c r="Q16">
-        <v>0.01776730887931465</v>
+        <v>0.001870144064236774</v>
       </c>
       <c r="R16">
-        <v>0.0004157724090328843</v>
+        <v>0.0004002724827455134</v>
       </c>
       <c r="S16">
-        <v>0.000400688800505097</v>
+        <v>6.335372789555622E-07</v>
       </c>
       <c r="T16">
-        <v>4.532333015153863E-08</v>
+        <v>0.01214555425362498</v>
       </c>
       <c r="U16">
-        <v>0.0005276932594057186</v>
+        <v>0.0001758610769359573</v>
       </c>
       <c r="V16">
-        <v>3.213670543131751E-05</v>
+        <v>2.182078505226928</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1300,52 +1342,55 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.722616607807421E-06</v>
+        <v>5.136721286765132E-06</v>
       </c>
       <c r="C17">
-        <v>0.03168430689521014</v>
+        <v>0.04343274681444647</v>
       </c>
       <c r="D17">
-        <v>0.000172930561518459</v>
+        <v>0.000219196933819577</v>
       </c>
       <c r="E17">
-        <v>0.03365733982041708</v>
+        <v>0.0463837543731254</v>
       </c>
       <c r="F17">
-        <v>3.099777087653983</v>
+        <v>3.599770055403035</v>
+      </c>
+      <c r="K17">
+        <v>7.222172953921119</v>
       </c>
       <c r="L17">
-        <v>8.076541630754669</v>
+        <v>5.44257721133477</v>
       </c>
       <c r="M17">
-        <v>6.414567707435369</v>
+        <v>7.258603106605863</v>
       </c>
       <c r="N17">
-        <v>8.049342511939811</v>
+        <v>0.01627342854542182</v>
       </c>
       <c r="O17">
-        <v>0.01835644424664055</v>
+        <v>0.0002056854254251715</v>
       </c>
       <c r="P17">
-        <v>0.0002267518066251358</v>
+        <v>0.01770019967821399</v>
       </c>
       <c r="Q17">
-        <v>0.01797144460249444</v>
+        <v>0.001874861318929044</v>
       </c>
       <c r="R17">
-        <v>0.0004202893568090403</v>
+        <v>0.0004049741173980612</v>
       </c>
       <c r="S17">
-        <v>0.0004054022531777434</v>
+        <v>6.38810594480636E-07</v>
       </c>
       <c r="T17">
-        <v>4.553816498341504E-08</v>
+        <v>0.01228637417335074</v>
       </c>
       <c r="U17">
-        <v>0.0005335233365112998</v>
+        <v>0.0001792098635746865</v>
       </c>
       <c r="V17">
-        <v>3.254358433606803E-05</v>
+        <v>2.202630436059304</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1353,52 +1398,55 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.703017042207063E-06</v>
+        <v>5.109938072082851E-06</v>
       </c>
       <c r="C18">
-        <v>0.0320594423277541</v>
+        <v>0.04394719383683488</v>
       </c>
       <c r="D18">
-        <v>0.000175769236434557</v>
+        <v>0.0002230252381797062</v>
       </c>
       <c r="E18">
-        <v>0.03406858245691197</v>
+        <v>0.04694894387736898</v>
       </c>
       <c r="F18">
-        <v>3.09976152094969</v>
+        <v>3.599753997705602</v>
+      </c>
+      <c r="K18">
+        <v>7.225864362564432</v>
       </c>
       <c r="L18">
-        <v>8.077302287589132</v>
+        <v>5.450112973289263</v>
       </c>
       <c r="M18">
-        <v>6.413891175664724</v>
+        <v>7.262576139068822</v>
       </c>
       <c r="N18">
-        <v>8.050108673092634</v>
+        <v>0.01646471120161226</v>
       </c>
       <c r="O18">
-        <v>0.0185722739185455</v>
+        <v>0.000209582880533417</v>
       </c>
       <c r="P18">
-        <v>0.0002291019079267363</v>
+        <v>0.01788859656344357</v>
       </c>
       <c r="Q18">
-        <v>0.01818038692684783</v>
+        <v>0.001879728193359859</v>
       </c>
       <c r="R18">
-        <v>0.0004249233148663628</v>
+        <v>0.0004097876329552466</v>
       </c>
       <c r="S18">
-        <v>0.0004102279283564667</v>
+        <v>6.442349996034925E-07</v>
       </c>
       <c r="T18">
-        <v>4.575964882637896E-08</v>
+        <v>0.01243050708180045</v>
       </c>
       <c r="U18">
-        <v>0.0005394873811800525</v>
+        <v>0.000182663137810908</v>
       </c>
       <c r="V18">
-        <v>3.296012262217352E-05</v>
+        <v>2.223610600048088</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1406,52 +1454,55 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.682949546282118E-06</v>
+        <v>5.082523347337149E-06</v>
       </c>
       <c r="C19">
-        <v>0.03244358296740855</v>
+        <v>0.04447399104886687</v>
       </c>
       <c r="D19">
-        <v>0.0001787009561885005</v>
+        <v>0.0002269865345337509</v>
       </c>
       <c r="E19">
-        <v>0.0344897940969478</v>
+        <v>0.04752769835490846</v>
       </c>
       <c r="F19">
-        <v>3.0997458547437</v>
+        <v>3.599737837381984</v>
+      </c>
+      <c r="K19">
+        <v>7.229589211572446</v>
       </c>
       <c r="L19">
-        <v>8.078079383814012</v>
+        <v>5.457760195684514</v>
       </c>
       <c r="M19">
-        <v>6.413299333549123</v>
+        <v>7.266589040401752</v>
       </c>
       <c r="N19">
-        <v>8.050903363663105</v>
+        <v>0.01666055612114333</v>
       </c>
       <c r="O19">
-        <v>0.01879327599096259</v>
+        <v>0.0002136058362255972</v>
       </c>
       <c r="P19">
-        <v>0.0002315243869190385</v>
+        <v>0.01808147449561326</v>
       </c>
       <c r="Q19">
-        <v>0.01839430817518496</v>
+        <v>0.00188471138230476</v>
       </c>
       <c r="R19">
-        <v>0.0004296583411064861</v>
+        <v>0.0004147170714848327</v>
       </c>
       <c r="S19">
-        <v>0.0004151698821963178</v>
+        <v>6.498081097267938E-07</v>
       </c>
       <c r="T19">
-        <v>4.598499642841366E-08</v>
+        <v>0.0125780714666678</v>
       </c>
       <c r="U19">
-        <v>0.0005455901192349667</v>
+        <v>0.0001862281259180847</v>
       </c>
       <c r="V19">
-        <v>3.338839854181072E-05</v>
+        <v>2.245034581836432</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1459,52 +1510,55 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.662397443727609E-06</v>
+        <v>5.054455059066431E-06</v>
       </c>
       <c r="C20">
-        <v>0.03283705713827708</v>
+        <v>0.04501358866489532</v>
       </c>
       <c r="D20">
-        <v>0.0001817303136929603</v>
+        <v>0.0002310877703288114</v>
       </c>
       <c r="E20">
-        <v>0.03492133466014127</v>
+        <v>0.04812049940734572</v>
       </c>
       <c r="F20">
-        <v>3.099730086721315</v>
+        <v>3.599721572045124</v>
+      </c>
+      <c r="K20">
+        <v>7.233338591058731</v>
       </c>
       <c r="L20">
-        <v>8.078853060879586</v>
+        <v>5.465493192396202</v>
       </c>
       <c r="M20">
-        <v>6.412699445089728</v>
+        <v>7.270625328596688</v>
       </c>
       <c r="N20">
-        <v>8.051687023842886</v>
+        <v>0.01686112868559354</v>
       </c>
       <c r="O20">
-        <v>0.01901963881540215</v>
+        <v>0.0002177545607748923</v>
       </c>
       <c r="P20">
-        <v>0.0002340155429619277</v>
+        <v>0.01827899599699507</v>
       </c>
       <c r="Q20">
-        <v>0.0186133892707225</v>
+        <v>0.001889882024128644</v>
       </c>
       <c r="R20">
-        <v>0.000434529216884643</v>
+        <v>0.0004197666722576998</v>
       </c>
       <c r="S20">
-        <v>0.000420232368747536</v>
+        <v>6.555552712768903E-07</v>
       </c>
       <c r="T20">
-        <v>4.621951852866633E-08</v>
+        <v>0.01272919150740864</v>
       </c>
       <c r="U20">
-        <v>0.0005518364816824441</v>
+        <v>0.0001899053393112796</v>
       </c>
       <c r="V20">
-        <v>3.382618409124004E-05</v>
+        <v>2.266915062218217</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1512,52 +1566,55 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.641343292463745E-06</v>
+        <v>5.025710179576233E-06</v>
       </c>
       <c r="C21">
-        <v>0.03324020932129663</v>
+        <v>0.04556645904630972</v>
       </c>
       <c r="D21">
-        <v>0.0001848622056711126</v>
+        <v>0.0002353363789027274</v>
       </c>
       <c r="E21">
-        <v>0.03536358128405045</v>
+        <v>0.04872785114216827</v>
       </c>
       <c r="F21">
-        <v>3.099714214481474</v>
+        <v>3.599705199218902</v>
+      </c>
+      <c r="K21">
+        <v>7.237120636128659</v>
       </c>
       <c r="L21">
-        <v>8.079631849749022</v>
+        <v>5.473341964823121</v>
       </c>
       <c r="M21">
-        <v>6.412138871487713</v>
+        <v>7.274702122822701</v>
       </c>
       <c r="N21">
-        <v>8.052479098655732</v>
+        <v>0.01706660244022094</v>
       </c>
       <c r="O21">
-        <v>0.01925156009037055</v>
+        <v>0.0002220400962714427</v>
       </c>
       <c r="P21">
-        <v>0.0002365821352510396</v>
+        <v>0.01848133073740083</v>
       </c>
       <c r="Q21">
-        <v>0.01883781964175754</v>
+        <v>0.001895182103716086</v>
       </c>
       <c r="R21">
-        <v>0.000439526877521722</v>
+        <v>0.0004249408835785198</v>
       </c>
       <c r="S21">
-        <v>0.0004254198520713509</v>
+        <v>6.614681980948528E-07</v>
       </c>
       <c r="T21">
-        <v>4.646092196840444E-08</v>
+        <v>0.01288399750948392</v>
       </c>
       <c r="U21">
-        <v>0.0005582316705415949</v>
+        <v>0.000193704381094925</v>
       </c>
       <c r="V21">
-        <v>3.427517941008315E-05</v>
+        <v>2.289268913283356</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -1565,52 +1622,55 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.619768788625655E-06</v>
+        <v>4.996264565333688E-06</v>
       </c>
       <c r="C22">
-        <v>0.03365340116024195</v>
+        <v>0.0461330980796523</v>
       </c>
       <c r="D22">
-        <v>0.0001881018599772757</v>
+        <v>0.0002397403262788965</v>
       </c>
       <c r="E22">
-        <v>0.03581692932227541</v>
+        <v>0.04935028141151003</v>
       </c>
       <c r="F22">
-        <v>3.099698235532397</v>
+        <v>3.59968871633367</v>
+      </c>
+      <c r="K22">
+        <v>7.24093315907077</v>
       </c>
       <c r="L22">
-        <v>8.080416850143438</v>
+        <v>5.481295563206579</v>
       </c>
       <c r="M22">
-        <v>6.411627841288976</v>
+        <v>7.278812005170194</v>
       </c>
       <c r="N22">
-        <v>8.053283241171858</v>
+        <v>0.0172771594695203</v>
       </c>
       <c r="O22">
-        <v>0.01948924731480954</v>
+        <v>0.0002264660267761911</v>
       </c>
       <c r="P22">
-        <v>0.0002392281523226496</v>
+        <v>0.01868865759532188</v>
       </c>
       <c r="Q22">
-        <v>0.01906779830131049</v>
+        <v>0.001900649065363039</v>
       </c>
       <c r="R22">
-        <v>0.0004446535233286715</v>
+        <v>0.0004302443762707751</v>
       </c>
       <c r="S22">
-        <v>0.0004307370194607181</v>
+        <v>6.67563886365853E-07</v>
       </c>
       <c r="T22">
-        <v>4.67092959320825E-08</v>
+        <v>0.01304262617358878</v>
       </c>
       <c r="U22">
-        <v>0.0005647811266807387</v>
+        <v>0.0001976285498290252</v>
       </c>
       <c r="V22">
-        <v>3.473600933199227E-05</v>
+        <v>2.312111994158171</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -1618,52 +1678,55 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.597654753968115E-06</v>
+        <v>4.966092958388466E-06</v>
       </c>
       <c r="C23">
-        <v>0.0340770125437896</v>
+        <v>0.04671402665880892</v>
       </c>
       <c r="D23">
-        <v>0.0001914548623913126</v>
+        <v>0.0002443081564531907</v>
       </c>
       <c r="E23">
-        <v>0.03628179345377015</v>
+        <v>0.0499883432298053</v>
       </c>
       <c r="F23">
-        <v>3.099682147286853</v>
+        <v>3.599672120721354</v>
+      </c>
+      <c r="K23">
+        <v>7.244777636070146</v>
       </c>
       <c r="L23">
-        <v>8.081208574992107</v>
+        <v>5.489365570354943</v>
       </c>
       <c r="M23">
-        <v>6.411158064650301</v>
+        <v>7.282960860447282</v>
       </c>
       <c r="N23">
-        <v>8.054095737476471</v>
+        <v>0.01749299103208669</v>
       </c>
       <c r="O23">
-        <v>0.01973291844344862</v>
+        <v>0.0002310407326864629</v>
       </c>
       <c r="P23">
-        <v>0.0002419566959570786</v>
+        <v>0.01890116403240997</v>
       </c>
       <c r="Q23">
-        <v>0.01930353431115836</v>
+        <v>0.001906269811097438</v>
       </c>
       <c r="R23">
-        <v>0.0004499177102125413</v>
+        <v>0.0004356820574401981</v>
       </c>
       <c r="S23">
-        <v>0.0004361887955387534</v>
+        <v>6.738469438614749E-07</v>
       </c>
       <c r="T23">
-        <v>4.696567864080114E-08</v>
+        <v>0.01320522108021865</v>
       </c>
       <c r="U23">
-        <v>0.0005714905585459127</v>
+        <v>0.0002016852015131447</v>
       </c>
       <c r="V23">
-        <v>3.520889397008551E-05</v>
+        <v>2.335461965260103</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -1671,52 +1734,55 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.574981079823564E-06</v>
+        <v>4.935168914586715E-06</v>
       </c>
       <c r="C24">
-        <v>0.03451144277047419</v>
+        <v>0.047309792280634</v>
       </c>
       <c r="D24">
-        <v>0.0001949271877305576</v>
+        <v>0.0002490490447767368</v>
       </c>
       <c r="E24">
-        <v>0.0367586088527784</v>
+        <v>0.05064261624402504</v>
       </c>
       <c r="F24">
-        <v>3.099665947057211</v>
+        <v>3.599655409610361</v>
+      </c>
+      <c r="K24">
+        <v>7.248651849309037</v>
       </c>
       <c r="L24">
-        <v>8.081994007408099</v>
+        <v>5.497541142156464</v>
       </c>
       <c r="M24">
-        <v>6.410707822179665</v>
+        <v>7.287140789552256</v>
       </c>
       <c r="N24">
-        <v>8.054906285232429</v>
+        <v>0.0177142980872072</v>
       </c>
       <c r="O24">
-        <v>0.01998280256841646</v>
+        <v>0.000235768390926489</v>
       </c>
       <c r="P24">
-        <v>0.0002447697835142746</v>
+        <v>0.01911904729165757</v>
       </c>
       <c r="Q24">
-        <v>0.01954524734450382</v>
+        <v>0.001912082920106536</v>
       </c>
       <c r="R24">
-        <v>0.0004553336042820684</v>
+        <v>0.0004412590857798946</v>
       </c>
       <c r="S24">
-        <v>0.000441780357460037</v>
+        <v>6.8033679820756E-07</v>
       </c>
       <c r="T24">
-        <v>4.723189968456417E-08</v>
+        <v>0.0133719330786636</v>
       </c>
       <c r="U24">
-        <v>0.000578365964502013</v>
+        <v>0.0002058782695983563</v>
       </c>
       <c r="V24">
-        <v>3.569354037859689E-05</v>
+        <v>2.359335811785428</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -1724,52 +1790,55 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.55172666563776E-06</v>
+        <v>4.903464727556283E-06</v>
       </c>
       <c r="C25">
-        <v>0.03495711180401632</v>
+        <v>0.04792097076421657</v>
       </c>
       <c r="D25">
-        <v>0.0001985252343045296</v>
+        <v>0.0002539728573049395</v>
       </c>
       <c r="E25">
-        <v>0.03724783244159898</v>
+        <v>0.0513137083042691</v>
       </c>
       <c r="F25">
-        <v>3.099649632050094</v>
+        <v>3.599638580120063</v>
+      </c>
+      <c r="K25">
+        <v>7.252559215712072</v>
       </c>
       <c r="L25">
-        <v>8.082793410276421</v>
+        <v>5.505840843917302</v>
       </c>
       <c r="M25">
-        <v>6.410334277342272</v>
+        <v>7.291362057371305</v>
       </c>
       <c r="N25">
-        <v>8.055739101228159</v>
+        <v>0.01794129197936669</v>
       </c>
       <c r="O25">
-        <v>0.02023914065653207</v>
+        <v>0.0002406596819801101</v>
       </c>
       <c r="P25">
-        <v>0.0002476761455302577</v>
+        <v>0.01934251436141797</v>
       </c>
       <c r="Q25">
-        <v>0.01979316830216904</v>
+        <v>0.001918059599079579</v>
       </c>
       <c r="R25">
-        <v>0.0004608887940893705</v>
+        <v>0.0004469808877147218</v>
       </c>
       <c r="S25">
-        <v>0.0004475171512984831</v>
+        <v>6.870346398545003E-07</v>
       </c>
       <c r="T25">
-        <v>4.750504700618378E-08</v>
+        <v>0.01354292080345665</v>
       </c>
       <c r="U25">
-        <v>0.0005854136583217977</v>
+        <v>0.0002102170577147666</v>
       </c>
       <c r="V25">
-        <v>3.619218625424146E-05</v>
+        <v>2.383753119446101</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -1777,52 +1846,55 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4.527869386640492E-06</v>
+        <v>4.870951400401518E-06</v>
       </c>
       <c r="C26">
-        <v>0.035414461627302</v>
+        <v>0.04854816810509698</v>
       </c>
       <c r="D26">
-        <v>0.000202255860686338</v>
+        <v>0.0002590902143338128</v>
       </c>
       <c r="E26">
-        <v>0.03774994425225231</v>
+        <v>0.05200225718192769</v>
       </c>
       <c r="F26">
-        <v>3.099633199360698</v>
+        <v>3.599621629254928</v>
+      </c>
+      <c r="K26">
+        <v>7.256499662430108</v>
       </c>
       <c r="L26">
-        <v>8.083599505382182</v>
+        <v>5.514254208225695</v>
       </c>
       <c r="M26">
-        <v>6.409985337209282</v>
+        <v>7.295617105436763</v>
       </c>
       <c r="N26">
-        <v>8.056570592598426</v>
+        <v>0.01817419503591125</v>
       </c>
       <c r="O26">
-        <v>0.02050218624220315</v>
+        <v>0.0002457196552570905</v>
       </c>
       <c r="P26">
-        <v>0.0002506757932772364</v>
+        <v>0.01957178350302769</v>
       </c>
       <c r="Q26">
-        <v>0.02004754040095956</v>
+        <v>0.001924240092718158</v>
       </c>
       <c r="R26">
-        <v>0.0004666084098016284</v>
+        <v>0.0004528531752551805</v>
       </c>
       <c r="S26">
-        <v>0.000453404909801792</v>
+        <v>6.939612441378321E-07</v>
       </c>
       <c r="T26">
-        <v>4.778840296486073E-08</v>
+        <v>0.01371835111590062</v>
       </c>
       <c r="U26">
-        <v>0.0005926402566384761</v>
+        <v>0.0002147061732939036</v>
       </c>
       <c r="V26">
-        <v>3.670361450881673E-05</v>
+        <v>2.408732922429092</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -1830,52 +1902,55 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.503385948170451E-06</v>
+        <v>4.837598435017155E-06</v>
       </c>
       <c r="C27">
-        <v>0.03588395770419021</v>
+        <v>0.04919202247697382</v>
       </c>
       <c r="D27">
-        <v>0.0002061264310877282</v>
+        <v>0.0002644125701732519</v>
       </c>
       <c r="E27">
-        <v>0.03826544882989872</v>
+        <v>0.0527089322777988</v>
       </c>
       <c r="F27">
-        <v>3.099616645966762</v>
+        <v>3.599604553898347</v>
+      </c>
+      <c r="K27">
+        <v>7.260470228949279</v>
       </c>
       <c r="L27">
-        <v>8.084405060908209</v>
+        <v>5.522784541485962</v>
       </c>
       <c r="M27">
-        <v>6.409710700252475</v>
+        <v>7.299906832844496</v>
       </c>
       <c r="N27">
-        <v>8.057422009081852</v>
+        <v>0.01841324137431998</v>
       </c>
       <c r="O27">
-        <v>0.02077220638152216</v>
+        <v>0.000250956655869954</v>
       </c>
       <c r="P27">
-        <v>0.000253777549881498</v>
+        <v>0.01980708408183181</v>
       </c>
       <c r="Q27">
-        <v>0.020308619494175</v>
+        <v>0.00193063123571173</v>
       </c>
       <c r="R27">
-        <v>0.0004724829435928716</v>
+        <v>0.0004588819647753277</v>
       </c>
       <c r="S27">
-        <v>0.0004594496714204431</v>
+        <v>7.011302143740942E-07</v>
       </c>
       <c r="T27">
-        <v>4.808059079417728E-08</v>
+        <v>0.01389839971513538</v>
       </c>
       <c r="U27">
-        <v>0.0006000527452002048</v>
+        <v>0.0002193530746536433</v>
       </c>
       <c r="V27">
-        <v>3.722992538651673E-05</v>
+        <v>2.434295345757673</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -1883,52 +1958,55 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4.478251923370037E-06</v>
+        <v>4.803373926006992E-06</v>
       </c>
       <c r="C28">
-        <v>0.03636609055923214</v>
+        <v>0.0498532063946333</v>
       </c>
       <c r="D28">
-        <v>0.0002101448576835928</v>
+        <v>0.0002699522865334377</v>
       </c>
       <c r="E28">
-        <v>0.03879487684242619</v>
+        <v>0.05343443668180539</v>
       </c>
       <c r="F28">
-        <v>3.09959996872205</v>
+        <v>3.599587350805853</v>
+      </c>
+      <c r="K28">
+        <v>7.264474908746607</v>
       </c>
       <c r="L28">
-        <v>8.085209188805036</v>
+        <v>5.531435742006106</v>
       </c>
       <c r="M28">
-        <v>6.409431219428684</v>
+        <v>7.304232192585189</v>
       </c>
       <c r="N28">
-        <v>8.058257862896939</v>
+        <v>0.01865867765429903</v>
       </c>
       <c r="O28">
-        <v>0.0210494824468146</v>
+        <v>0.0002563797332286522</v>
       </c>
       <c r="P28">
-        <v>0.000256979705559429</v>
+        <v>0.02004865776894155</v>
       </c>
       <c r="Q28">
-        <v>0.02057667539350719</v>
+        <v>0.001937240921661933</v>
       </c>
       <c r="R28">
-        <v>0.0004785486727780202</v>
+        <v>0.0004650735976748001</v>
       </c>
       <c r="S28">
-        <v>0.0004656578010262491</v>
+        <v>7.085555691618504E-07</v>
       </c>
       <c r="T28">
-        <v>4.838615082754221E-08</v>
+        <v>0.01408325169676351</v>
       </c>
       <c r="U28">
-        <v>0.000607658458981471</v>
+        <v>0.0002241658210790363</v>
       </c>
       <c r="V28">
-        <v>3.776906156089576E-05</v>
+        <v>2.460461715142144</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -1936,52 +2014,55 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>4.452441591413769E-06</v>
+        <v>4.768244325296094E-06</v>
       </c>
       <c r="C29">
-        <v>0.03686137748665061</v>
+        <v>0.05053242905364836</v>
       </c>
       <c r="D29">
-        <v>0.0002143196562367056</v>
+        <v>0.000275722731614984</v>
       </c>
       <c r="E29">
-        <v>0.03933878670362535</v>
+        <v>0.05417950913498872</v>
       </c>
       <c r="F29">
-        <v>3.099583164349407</v>
+        <v>3.599570016598014</v>
+      </c>
+      <c r="K29">
+        <v>7.268512722445221</v>
       </c>
       <c r="L29">
-        <v>8.086029336237475</v>
+        <v>5.540223430841449</v>
       </c>
       <c r="M29">
-        <v>6.409271720579133</v>
+        <v>7.30860055285478</v>
       </c>
       <c r="N29">
-        <v>8.059131528915206</v>
+        <v>0.01891076392719041</v>
       </c>
       <c r="O29">
-        <v>0.02133431125148933</v>
+        <v>0.0002620009722248352</v>
       </c>
       <c r="P29">
-        <v>0.0002602979327206472</v>
+        <v>0.02029675936958921</v>
       </c>
       <c r="Q29">
-        <v>0.02085199219790074</v>
+        <v>0.001944052638908567</v>
       </c>
       <c r="R29">
-        <v>0.0004847699835447205</v>
+        <v>0.0004714347626351513</v>
       </c>
       <c r="S29">
-        <v>0.0004720360121889261</v>
+        <v>7.162448608117496E-07</v>
       </c>
       <c r="T29">
-        <v>4.869896507750677E-08</v>
+        <v>0.01427310218821125</v>
       </c>
       <c r="U29">
-        <v>0.0006154651630557254</v>
+        <v>0.0002291550534489725</v>
       </c>
       <c r="V29">
-        <v>3.832559075106829E-05</v>
+        <v>2.487255634382551</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -1989,52 +2070,55 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.425927908600645E-06</v>
+        <v>4.732174430888286E-06</v>
       </c>
       <c r="C30">
-        <v>0.03737036440096191</v>
+        <v>0.0512304388636766</v>
       </c>
       <c r="D30">
-        <v>0.0002186600019201255</v>
+        <v>0.0002817383790746213</v>
       </c>
       <c r="E30">
-        <v>0.03989776639769521</v>
+        <v>0.05494492631088414</v>
       </c>
       <c r="F30">
-        <v>3.099566229433361</v>
+        <v>3.599552547752784</v>
+      </c>
+      <c r="K30">
+        <v>7.272585376360973</v>
       </c>
       <c r="L30">
-        <v>8.086850766280858</v>
+        <v>5.549136386107769</v>
       </c>
       <c r="M30">
-        <v>6.409135909723062</v>
+        <v>7.313004355568483</v>
       </c>
       <c r="N30">
-        <v>8.060000466175943</v>
+        <v>0.01916977452378715</v>
       </c>
       <c r="O30">
-        <v>0.02162700588091667</v>
+        <v>0.0002678274178807646</v>
       </c>
       <c r="P30">
-        <v>0.0002637301000009468</v>
+        <v>0.020551658074182</v>
       </c>
       <c r="Q30">
-        <v>0.02113487028421124</v>
+        <v>0.001951110542276364</v>
       </c>
       <c r="R30">
-        <v>0.0004911913069339702</v>
+        <v>0.0004779725198264616</v>
       </c>
       <c r="S30">
-        <v>0.0004785913915392574</v>
+        <v>7.242245014001997E-07</v>
       </c>
       <c r="T30">
-        <v>4.90250448555758E-08</v>
+        <v>0.01446815700952739</v>
       </c>
       <c r="U30">
-        <v>0.0006234809904488457</v>
+        <v>0.0002343270873958874</v>
       </c>
       <c r="V30">
-        <v>3.889698118343657E-05</v>
+        <v>2.514700502903973</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2042,52 +2126,55 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.398682437056864E-06</v>
+        <v>4.695127307907181E-06</v>
       </c>
       <c r="C31">
-        <v>0.03789362784320194</v>
+        <v>0.05194802619444565</v>
       </c>
       <c r="D31">
-        <v>0.0002231757933034405</v>
+        <v>0.0002880149226197585</v>
       </c>
       <c r="E31">
-        <v>0.0404724354234829</v>
+        <v>0.05573150521687156</v>
       </c>
       <c r="F31">
-        <v>3.099549160412106</v>
+        <v>3.599534940597227</v>
+      </c>
+      <c r="K31">
+        <v>7.276694181157539</v>
       </c>
       <c r="L31">
-        <v>8.087671154350035</v>
+        <v>5.558193511414406</v>
       </c>
       <c r="M31">
-        <v>6.409057118818686</v>
+        <v>7.317452517811415</v>
       </c>
       <c r="N31">
-        <v>8.060878054941499</v>
+        <v>0.0194359991309126</v>
       </c>
       <c r="O31">
-        <v>0.02192789708909858</v>
+        <v>0.0002738732199187345</v>
       </c>
       <c r="P31">
-        <v>0.000267284992108412</v>
+        <v>0.0208136376168849</v>
       </c>
       <c r="Q31">
-        <v>0.02142562632614473</v>
+        <v>0.001958391845667147</v>
       </c>
       <c r="R31">
-        <v>0.0004978105396662625</v>
+        <v>0.0004846943268028709</v>
       </c>
       <c r="S31">
-        <v>0.0004853314248701645</v>
+        <v>7.325029546413549E-07</v>
       </c>
       <c r="T31">
-        <v>4.936397163889583E-08</v>
+        <v>0.01466863348730389</v>
       </c>
       <c r="U31">
-        <v>0.0006317145680441331</v>
+        <v>0.0002396944461001778</v>
       </c>
       <c r="V31">
-        <v>3.94849269920634E-05</v>
+        <v>2.542822448950827</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2095,52 +2182,55 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4.370675149054888E-06</v>
+        <v>4.657064019094369E-06</v>
       </c>
       <c r="C32">
-        <v>0.03843177715820049</v>
+        <v>0.05268602635547173</v>
       </c>
       <c r="D32">
-        <v>0.0002278777296592158</v>
+        <v>0.0002945694159056572</v>
       </c>
       <c r="E32">
-        <v>0.04106344681717797</v>
+        <v>0.05654010561680276</v>
       </c>
       <c r="F32">
-        <v>3.099531953569052</v>
+        <v>3.599517191298832</v>
+      </c>
+      <c r="K32">
+        <v>7.280836130577767</v>
       </c>
       <c r="L32">
-        <v>8.088493931013458</v>
+        <v>5.567383517654823</v>
       </c>
       <c r="M32">
-        <v>6.409041154714585</v>
+        <v>7.321937000508814</v>
       </c>
       <c r="N32">
-        <v>8.061765805486388</v>
+        <v>0.01970974378678394</v>
       </c>
       <c r="O32">
-        <v>0.02223733440476987</v>
+        <v>0.000280146526032257</v>
       </c>
       <c r="P32">
-        <v>0.0002709695547031577</v>
+        <v>0.02108299827075943</v>
       </c>
       <c r="Q32">
-        <v>0.02172459512309442</v>
+        <v>0.001965942610876075</v>
       </c>
       <c r="R32">
-        <v>0.0005046361580508803</v>
+        <v>0.00049160806714356</v>
       </c>
       <c r="S32">
-        <v>0.0004922640257401434</v>
+        <v>7.411102756594597E-07</v>
       </c>
       <c r="T32">
-        <v>4.9716172834941E-08</v>
+        <v>0.01487476118789251</v>
       </c>
       <c r="U32">
-        <v>0.0006401749914877341</v>
+        <v>0.0002452645195517004</v>
       </c>
       <c r="V32">
-        <v>4.009022741402872E-05</v>
+        <v>2.571647569418183</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2148,52 +2238,55 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4.341874478156027E-06</v>
+        <v>4.617943739189676E-06</v>
       </c>
       <c r="C33">
-        <v>0.0389854568600634</v>
+        <v>0.05344532283285675</v>
       </c>
       <c r="D33">
-        <v>0.0002327773852769642</v>
+        <v>0.0003014204076274782</v>
       </c>
       <c r="E33">
-        <v>0.04167148948966169</v>
+        <v>0.0573716329647129</v>
       </c>
       <c r="F33">
-        <v>3.099514605023482</v>
+        <v>3.599499295855867</v>
+      </c>
+      <c r="K33">
+        <v>7.285014717034586</v>
       </c>
       <c r="L33">
-        <v>8.08933333947021</v>
+        <v>5.576714288500632</v>
       </c>
       <c r="M33">
-        <v>6.409095942919348</v>
+        <v>7.326460687600247</v>
       </c>
       <c r="N33">
-        <v>8.062666132533545</v>
+        <v>0.01999133215288179</v>
       </c>
       <c r="O33">
-        <v>0.02255568751853895</v>
+        <v>0.000286660567604644</v>
       </c>
       <c r="P33">
-        <v>0.0002747915254508209</v>
+        <v>0.0213600570484389</v>
       </c>
       <c r="Q33">
-        <v>0.02203213076026896</v>
+        <v>0.001973768662337665</v>
       </c>
       <c r="R33">
-        <v>0.0005116767192737462</v>
+        <v>0.0004987220810112107</v>
       </c>
       <c r="S33">
-        <v>0.0004993975664585101</v>
+        <v>7.500661315105578E-07</v>
       </c>
       <c r="T33">
-        <v>5.008123230397066E-08</v>
+        <v>0.01508678287873803</v>
       </c>
       <c r="U33">
-        <v>0.0006488718721264835</v>
+        <v>0.0002510489195729653</v>
       </c>
       <c r="V33">
-        <v>4.071378415919281E-05</v>
+        <v>2.601203783253141</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2201,52 +2294,55 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4.31224708038965E-06</v>
+        <v>4.577723428068727E-06</v>
       </c>
       <c r="C34">
-        <v>0.03955534920528085</v>
+        <v>0.05422685080969836</v>
       </c>
       <c r="D34">
-        <v>0.0002378873071303933</v>
+        <v>0.0003085881208024844</v>
       </c>
       <c r="E34">
-        <v>0.04229729057218962</v>
+        <v>0.05822704118440376</v>
       </c>
       <c r="F34">
-        <v>3.099497110720826</v>
+        <v>3.599481250087365</v>
+      </c>
+      <c r="K34">
+        <v>7.289230953007502</v>
       </c>
       <c r="L34">
-        <v>8.090167764803578</v>
+        <v>5.586204144917948</v>
       </c>
       <c r="M34">
-        <v>6.409207762153863</v>
+        <v>7.331031971100336</v>
       </c>
       <c r="N34">
-        <v>8.063571626679314</v>
+        <v>0.02028110673501822</v>
       </c>
       <c r="O34">
-        <v>0.02288334775373142</v>
+        <v>0.0002934321830662816</v>
       </c>
       <c r="P34">
-        <v>0.0002787573560412832</v>
+        <v>0.02164514952470509</v>
       </c>
       <c r="Q34">
-        <v>0.02234860802557772</v>
+        <v>0.001981851676651123</v>
       </c>
       <c r="R34">
-        <v>0.0005189502585331528</v>
+        <v>0.0005060451988770886</v>
       </c>
       <c r="S34">
-        <v>0.0005067409118294838</v>
+        <v>7.593840279559635E-07</v>
       </c>
       <c r="T34">
-        <v>5.04623000848812E-08</v>
+        <v>0.01530495543696105</v>
       </c>
       <c r="U34">
-        <v>0.0006578153734201201</v>
+        <v>0.000257062562533463</v>
       </c>
       <c r="V34">
-        <v>4.135589865449203E-05</v>
+        <v>2.631521958416874</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2254,52 +2350,55 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4.281757828842231E-06</v>
+        <v>4.536357870040541E-06</v>
       </c>
       <c r="C35">
-        <v>0.04014217699480548</v>
+        <v>0.05503160099908487</v>
       </c>
       <c r="D35">
-        <v>0.0002432211125155045</v>
+        <v>0.0003160946331355117</v>
       </c>
       <c r="E35">
-        <v>0.04294161810525755</v>
+        <v>0.05910733599032517</v>
       </c>
       <c r="F35">
-        <v>3.099479466421993</v>
+        <v>3.599463049622079</v>
+      </c>
+      <c r="K35">
+        <v>7.293481804304275</v>
       </c>
       <c r="L35">
-        <v>8.091010101158854</v>
+        <v>5.595838815337618</v>
       </c>
       <c r="M35">
-        <v>6.455630022558796</v>
+        <v>7.335640597591789</v>
       </c>
       <c r="N35">
-        <v>8.084161949871755</v>
+        <v>0.02057943023579362</v>
       </c>
       <c r="O35">
-        <v>0.0232207296999656</v>
+        <v>0.0003004710119355518</v>
       </c>
       <c r="P35">
-        <v>0.0002872302106140652</v>
+        <v>0.02193863158213874</v>
       </c>
       <c r="Q35">
-        <v>0.02267442381314555</v>
+        <v>0.00199025044171624</v>
       </c>
       <c r="R35">
-        <v>0.0005094491472464127</v>
+        <v>0.000513586778203195</v>
       </c>
       <c r="S35">
-        <v>0.0005143034558523107</v>
+        <v>7.691034632202019E-07</v>
       </c>
       <c r="T35">
-        <v>1.519184593056196E-07</v>
+        <v>0.01552955085299728</v>
       </c>
       <c r="U35">
-        <v>0.0006670162611031892</v>
+        <v>0.0002633141285212175</v>
       </c>
       <c r="V35">
-        <v>4.386460708695131E-05</v>
+        <v>2.662632908307871</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -2307,52 +2406,55 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4.250369572642623E-06</v>
+        <v>4.493799343063306E-06</v>
       </c>
       <c r="C36">
-        <v>0.04074670662938563</v>
+        <v>0.05586062382281137</v>
       </c>
       <c r="D36">
-        <v>0.0002487936113445005</v>
+        <v>0.000323964105846275</v>
       </c>
       <c r="E36">
-        <v>0.04360528379283443</v>
+        <v>0.06001357812913787</v>
       </c>
       <c r="F36">
-        <v>3.099461667691822</v>
+        <v>3.599444689886677</v>
+      </c>
+      <c r="K36">
+        <v>7.297770411967252</v>
       </c>
       <c r="L36">
-        <v>8.091672402155289</v>
+        <v>5.605621981354238</v>
       </c>
       <c r="M36">
-        <v>6.455457735121659</v>
+        <v>7.340286789344817</v>
       </c>
       <c r="N36">
-        <v>8.084942885686402</v>
+        <v>0.02088668719373087</v>
       </c>
       <c r="O36">
-        <v>0.02356820696495578</v>
+        <v>0.0003077922514045531</v>
       </c>
       <c r="P36">
-        <v>0.0002915454220455253</v>
+        <v>0.02224087978123605</v>
       </c>
       <c r="Q36">
-        <v>0.02301025676262887</v>
+        <v>0.00199898400748589</v>
       </c>
       <c r="R36">
-        <v>0.0005171447388805976</v>
+        <v>0.0005213567429719825</v>
       </c>
       <c r="S36">
-        <v>0.0005220936306612956</v>
+        <v>7.792542188240742E-07</v>
       </c>
       <c r="T36">
-        <v>1.542760708605138E-07</v>
+        <v>0.0157608574700348</v>
       </c>
       <c r="U36">
-        <v>0.000676457952830708</v>
+        <v>0.0002698170337612013</v>
       </c>
       <c r="V36">
-        <v>4.456203589000226E-05</v>
+        <v>2.694569295499881</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -2360,52 +2462,55 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>4.218043135802563E-06</v>
+        <v>4.44999767840124E-06</v>
       </c>
       <c r="C37">
-        <v>0.04136975144504781</v>
+        <v>0.05671503397230315</v>
       </c>
       <c r="D37">
-        <v>0.0002546209309935886</v>
+        <v>0.0003322230183976962</v>
       </c>
       <c r="E37">
-        <v>0.04428914615482159</v>
+        <v>0.06094688724886924</v>
       </c>
       <c r="F37">
-        <v>3.099443709886868</v>
+        <v>3.599426166093028</v>
+      </c>
+      <c r="K37">
+        <v>7.302097471327551</v>
       </c>
       <c r="L37">
-        <v>8.092343438044328</v>
+        <v>5.615575868906205</v>
       </c>
       <c r="M37">
-        <v>6.455357465951652</v>
+        <v>7.344980501017611</v>
       </c>
       <c r="N37">
-        <v>8.085730361887077</v>
+        <v>0.02120328557745897</v>
       </c>
       <c r="O37">
-        <v>0.02392630945023132</v>
+        <v>0.0003154167758009073</v>
       </c>
       <c r="P37">
-        <v>0.0002960334086512367</v>
+        <v>0.02255229356237066</v>
       </c>
       <c r="Q37">
-        <v>0.0233563046399173</v>
+        <v>0.002008031265976481</v>
       </c>
       <c r="R37">
-        <v>0.0005251086392442495</v>
+        <v>0.0005293656274143388</v>
       </c>
       <c r="S37">
-        <v>0.0005301234668857638</v>
+        <v>7.898548887726764E-07</v>
       </c>
       <c r="T37">
-        <v>1.567654805325399E-07</v>
+        <v>0.01599918116905439</v>
       </c>
       <c r="U37">
-        <v>0.0006861794284759496</v>
+        <v>0.0002765896964253777</v>
       </c>
       <c r="V37">
-        <v>4.528089308718956E-05</v>
+        <v>2.727367321641994</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -2413,52 +2518,55 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4.184737035415188E-06</v>
+        <v>4.404899883551713E-06</v>
       </c>
       <c r="C38">
-        <v>0.04201217535932989</v>
+        <v>0.05759601539345791</v>
       </c>
       <c r="D38">
-        <v>0.0002607206732098876</v>
+        <v>0.0003409004669292739</v>
       </c>
       <c r="E38">
-        <v>0.04499411374741232</v>
+        <v>0.06190844565263994</v>
       </c>
       <c r="F38">
-        <v>3.099425588141974</v>
+        <v>3.599407473224469</v>
+      </c>
+      <c r="K38">
+        <v>7.306459893654672</v>
       </c>
       <c r="L38">
-        <v>8.093011872124853</v>
+        <v>5.625689603372657</v>
       </c>
       <c r="M38">
-        <v>6.4552970397905</v>
+        <v>7.349713257557169</v>
       </c>
       <c r="N38">
-        <v>8.08650931655586</v>
+        <v>0.02152965852748487</v>
       </c>
       <c r="O38">
-        <v>0.02429553251338101</v>
+        <v>0.00032335834359316</v>
       </c>
       <c r="P38">
-        <v>0.000300702007577885</v>
+        <v>0.02287329766075182</v>
       </c>
       <c r="Q38">
-        <v>0.02371304207742781</v>
+        <v>0.002017448155177043</v>
       </c>
       <c r="R38">
-        <v>0.000533370077241066</v>
+        <v>0.0005376246238600506</v>
       </c>
       <c r="S38">
-        <v>0.0005384041965952205</v>
+        <v>8.009519452381042E-07</v>
       </c>
       <c r="T38">
-        <v>1.593664583875739E-07</v>
+        <v>0.01624484666081422</v>
       </c>
       <c r="U38">
-        <v>0.0006961934680913988</v>
+        <v>0.0002836443869155206</v>
       </c>
       <c r="V38">
-        <v>4.602106368962124E-05</v>
+        <v>2.761063921194193</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -2466,52 +2574,55 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4.150407443630589E-06</v>
+        <v>4.358450144245919E-06</v>
       </c>
       <c r="C39">
-        <v>0.04267489686228418</v>
+        <v>0.05850482674149804</v>
       </c>
       <c r="D39">
-        <v>0.0002671120779417955</v>
+        <v>0.0003500284795146446</v>
       </c>
       <c r="E39">
-        <v>0.04572114883781315</v>
+        <v>0.06289950273251925</v>
       </c>
       <c r="F39">
-        <v>3.099407297355835</v>
+        <v>3.599388606020859</v>
+      </c>
+      <c r="K39">
+        <v>7.310864180787287</v>
       </c>
       <c r="L39">
-        <v>8.093687345004511</v>
+        <v>5.635982000181144</v>
       </c>
       <c r="M39">
-        <v>6.455339665188658</v>
+        <v>7.354492845301231</v>
       </c>
       <c r="N39">
-        <v>8.087304903186752</v>
+        <v>0.02186626646691173</v>
       </c>
       <c r="O39">
-        <v>0.02467640283886995</v>
+        <v>0.0003316398468026198</v>
       </c>
       <c r="P39">
-        <v>0.0003055682838831273</v>
+        <v>0.02320434289099904</v>
       </c>
       <c r="Q39">
-        <v>0.02408097337901808</v>
+        <v>0.002027226973591005</v>
       </c>
       <c r="R39">
-        <v>0.0005419237747969714</v>
+        <v>0.0005461456345253651</v>
       </c>
       <c r="S39">
-        <v>0.0005469477653275512</v>
+        <v>8.125735393888316E-07</v>
       </c>
       <c r="T39">
-        <v>1.620779593834779E-07</v>
+        <v>0.01649819907786023</v>
       </c>
       <c r="U39">
-        <v>0.0007065136649866651</v>
+        <v>0.0002910011987286421</v>
       </c>
       <c r="V39">
-        <v>4.678592379474253E-05</v>
+        <v>2.795699549462425</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -2519,52 +2630,55 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4.115007945220139E-06</v>
+        <v>4.310589533667048E-06</v>
       </c>
       <c r="C40">
-        <v>0.04335889339106389</v>
+        <v>0.0594428073586268</v>
       </c>
       <c r="D40">
-        <v>0.0002738162217565701</v>
+        <v>0.0003596424004057347</v>
       </c>
       <c r="E40">
-        <v>0.04647127124670307</v>
+        <v>0.06392137946690238</v>
       </c>
       <c r="F40">
-        <v>3.09938883217544</v>
+        <v>3.599369558962551</v>
+      </c>
+      <c r="K40">
+        <v>7.31530503582225</v>
       </c>
       <c r="L40">
-        <v>8.094362562288575</v>
+        <v>5.646446280134509</v>
       </c>
       <c r="M40">
-        <v>6.455464148671638</v>
+        <v>7.359312376658251</v>
       </c>
       <c r="N40">
-        <v>8.088106498763002</v>
+        <v>0.02221359915433284</v>
       </c>
       <c r="O40">
-        <v>0.02506948081556329</v>
+        <v>0.0003402787840087525</v>
       </c>
       <c r="P40">
-        <v>0.0003106426350857349</v>
+        <v>0.02354590927676368</v>
       </c>
       <c r="Q40">
-        <v>0.02446063546940875</v>
+        <v>0.002037420083491296</v>
       </c>
       <c r="R40">
-        <v>0.0005507968480968563</v>
+        <v>0.000554941329057397</v>
       </c>
       <c r="S40">
-        <v>0.0005557668893173604</v>
+        <v>8.247719047074588E-07</v>
       </c>
       <c r="T40">
-        <v>1.649113256455388E-07</v>
+        <v>0.01675960549526558</v>
       </c>
       <c r="U40">
-        <v>0.0007171544350058896</v>
+        <v>0.0002986756946226064</v>
       </c>
       <c r="V40">
-        <v>4.757564809294336E-05</v>
+        <v>2.831316103511013</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -2572,52 +2686,55 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>4.078489409214154E-06</v>
+        <v>4.261255885940825E-06</v>
       </c>
       <c r="C41">
-        <v>0.04406520613154435</v>
+        <v>0.06041138383335174</v>
       </c>
       <c r="D41">
-        <v>0.0002808562371089799</v>
+        <v>0.0003697813211430896</v>
       </c>
       <c r="E41">
-        <v>0.04724556261516202</v>
+        <v>0.06497547345857503</v>
       </c>
       <c r="F41">
-        <v>3.09937018697901</v>
+        <v>3.599350326252828</v>
+      </c>
+      <c r="K41">
+        <v>7.319786770807689</v>
       </c>
       <c r="L41">
-        <v>8.095045140903053</v>
+        <v>5.65709695195762</v>
       </c>
       <c r="M41">
-        <v>6.455716198710209</v>
+        <v>7.364177096639786</v>
       </c>
       <c r="N41">
-        <v>8.088931524932709</v>
+        <v>0.02257217817679717</v>
       </c>
       <c r="O41">
-        <v>0.02547536340868587</v>
+        <v>0.0003493002319324987</v>
       </c>
       <c r="P41">
-        <v>0.0003159426009201506</v>
+        <v>0.02389850746025995</v>
       </c>
       <c r="Q41">
-        <v>0.02485260003697123</v>
+        <v>0.002048033342186789</v>
       </c>
       <c r="R41">
-        <v>0.0005599921431120119</v>
+        <v>0.0005640252070435067</v>
       </c>
       <c r="S41">
-        <v>0.0005648751184647656</v>
+        <v>8.375872183269878E-07</v>
       </c>
       <c r="T41">
-        <v>1.678692741553305E-07</v>
+        <v>0.01702945680347284</v>
       </c>
       <c r="U41">
-        <v>0.0007281311364306921</v>
+        <v>0.0003066898879135072</v>
       </c>
       <c r="V41">
-        <v>4.839316595764308E-05</v>
+        <v>2.86795900141214</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -2625,52 +2742,55 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>4.040799725083862E-06</v>
+        <v>4.210383482425352E-06</v>
       </c>
       <c r="C42">
-        <v>0.0447949452964516</v>
+        <v>0.06141207720855522</v>
       </c>
       <c r="D42">
-        <v>0.0002882575718628392</v>
+        <v>0.0003804885952343276</v>
       </c>
       <c r="E42">
-        <v>0.04804517094360136</v>
+        <v>0.06606326418464961</v>
       </c>
       <c r="F42">
-        <v>3.099351355857767</v>
+        <v>3.599330901799109</v>
+      </c>
+      <c r="K42">
+        <v>7.324309545843422</v>
       </c>
       <c r="L42">
-        <v>8.095731270834612</v>
+        <v>5.667945487473585</v>
       </c>
       <c r="M42">
-        <v>6.456038906075202</v>
+        <v>7.369089734774626</v>
       </c>
       <c r="N42">
-        <v>8.08975383782972</v>
+        <v>0.02294255947587825</v>
       </c>
       <c r="O42">
-        <v>0.0258946870888153</v>
+        <v>0.0003587304472278436</v>
       </c>
       <c r="P42">
-        <v>0.0003214774622735064</v>
+        <v>0.0242626820288945</v>
       </c>
       <c r="Q42">
-        <v>0.02525747683520222</v>
+        <v>0.002059083894961443</v>
       </c>
       <c r="R42">
-        <v>0.0005695545868941662</v>
+        <v>0.0005734116673739263</v>
       </c>
       <c r="S42">
-        <v>0.0005742869059512757</v>
+        <v>8.510673262033324E-07</v>
       </c>
       <c r="T42">
-        <v>1.709706543147947E-07</v>
+        <v>0.01730816958539883</v>
       </c>
       <c r="U42">
-        <v>0.0007394601026052429</v>
+        <v>0.0003150669150842335</v>
       </c>
       <c r="V42">
-        <v>4.923731058088122E-05</v>
+        <v>2.905677136676361</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -2678,52 +2798,55 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4.001883672151024E-06</v>
+        <v>4.157902955223342E-06</v>
       </c>
       <c r="C43">
-        <v>0.04554929593585141</v>
+        <v>0.06244651091386574</v>
       </c>
       <c r="D43">
-        <v>0.0002960482783090347</v>
+        <v>0.0003918124187396062</v>
       </c>
       <c r="E43">
-        <v>0.04887131564745001</v>
+        <v>0.06718631892839989</v>
       </c>
       <c r="F43">
-        <v>3.099332332595808</v>
+        <v>3.599311279192166</v>
+      </c>
+      <c r="K43">
+        <v>7.328873577860975</v>
       </c>
       <c r="L43">
-        <v>8.096416359704797</v>
+        <v>5.678992700661802</v>
       </c>
       <c r="M43">
-        <v>6.456484828467761</v>
+        <v>7.374046918025678</v>
       </c>
       <c r="N43">
-        <v>8.090593838041556</v>
+        <v>0.02332533623907572</v>
       </c>
       <c r="O43">
-        <v>0.02632813131977363</v>
+        <v>0.0003685945396986256</v>
       </c>
       <c r="P43">
-        <v>0.0003272683995671297</v>
+        <v>0.02463901420065608</v>
       </c>
       <c r="Q43">
-        <v>0.02567591619534303</v>
+        <v>0.002070616852317536</v>
       </c>
       <c r="R43">
-        <v>0.0005794883227934625</v>
+        <v>0.0005831160843238878</v>
       </c>
       <c r="S43">
-        <v>0.000584017684515631</v>
+        <v>8.652752700949526E-07</v>
       </c>
       <c r="T43">
-        <v>1.74218798214025E-07</v>
+        <v>0.0175961882747262</v>
       </c>
       <c r="U43">
-        <v>0.0007511587939954864</v>
+        <v>0.0003238288719431244</v>
       </c>
       <c r="V43">
-        <v>5.01115187505335E-05</v>
+        <v>2.944522117345855</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -2731,52 +2854,55 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>3.961682601717228E-06</v>
+        <v>4.10374089745716E-06</v>
       </c>
       <c r="C44">
-        <v>0.04632952434374007</v>
+        <v>0.06351641950860928</v>
       </c>
       <c r="D44">
-        <v>0.0003042593588622491</v>
+        <v>0.0004038065339549287</v>
       </c>
       <c r="E44">
-        <v>0.04972529291418046</v>
+        <v>0.06834629886898012</v>
       </c>
       <c r="F44">
-        <v>3.099313110648453</v>
+        <v>3.599291451683881</v>
+      </c>
+      <c r="K44">
+        <v>7.333476837433347</v>
       </c>
       <c r="L44">
-        <v>8.097109820222748</v>
+        <v>5.690243315568873</v>
       </c>
       <c r="M44">
-        <v>6.457050485005963</v>
+        <v>7.379047279075835</v>
       </c>
       <c r="N44">
-        <v>8.091447555547745</v>
+        <v>0.02372114213044428</v>
       </c>
       <c r="O44">
-        <v>0.02677642205977719</v>
+        <v>0.0003789212510557459</v>
       </c>
       <c r="P44">
-        <v>0.0003333324728199732</v>
+        <v>0.02502812449976536</v>
       </c>
       <c r="Q44">
-        <v>0.02610861322762837</v>
+        <v>0.002082673345350191</v>
       </c>
       <c r="R44">
-        <v>0.0005898211794421616</v>
+        <v>0.0005931548913765392</v>
       </c>
       <c r="S44">
-        <v>0.0005940839511659312</v>
+        <v>8.802783953489001E-07</v>
       </c>
       <c r="T44">
-        <v>1.776265020034992E-07</v>
+        <v>0.01789398757477418</v>
       </c>
       <c r="U44">
-        <v>0.0007632458159824682</v>
+        <v>0.0003330008947526195</v>
       </c>
       <c r="V44">
-        <v>5.101693672826614E-05</v>
+        <v>2.984548941044299</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -2784,52 +2910,55 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>3.920134281828656E-06</v>
+        <v>4.047819763870983E-06</v>
       </c>
       <c r="C45">
-        <v>0.04713698513294846</v>
+        <v>0.06462365833272603</v>
       </c>
       <c r="D45">
-        <v>0.0003129251540470387</v>
+        <v>0.0004165310285810571</v>
       </c>
       <c r="E45">
-        <v>0.05060848169469115</v>
+        <v>0.06954496603292351</v>
       </c>
       <c r="F45">
-        <v>3.099293683118524</v>
+        <v>3.599271412162687</v>
+      </c>
+      <c r="K45">
+        <v>7.338121152672472</v>
       </c>
       <c r="L45">
-        <v>8.097804847919452</v>
+        <v>5.701701188638211</v>
       </c>
       <c r="M45">
-        <v>6.457719387396408</v>
+        <v>7.384088768504077</v>
       </c>
       <c r="N45">
-        <v>8.092305667454015</v>
+        <v>0.0241306547774511</v>
       </c>
       <c r="O45">
-        <v>0.02724033591217994</v>
+        <v>0.0003897415591898502</v>
       </c>
       <c r="P45">
-        <v>0.0003396875056890632</v>
+        <v>0.02543067627440422</v>
       </c>
       <c r="Q45">
-        <v>0.0265563113337369</v>
+        <v>0.00209529771520639</v>
       </c>
       <c r="R45">
-        <v>0.0006005898448404805</v>
+        <v>0.0006035456740604197</v>
       </c>
       <c r="S45">
-        <v>0.0006045033603705615</v>
+        <v>8.961525349225129E-07</v>
       </c>
       <c r="T45">
-        <v>1.812104104264627E-07</v>
+        <v>0.01820207506038859</v>
       </c>
       <c r="U45">
-        <v>0.0007757410594781558</v>
+        <v>0.0003426102036099681</v>
       </c>
       <c r="V45">
-        <v>5.195430631085188E-05</v>
+        <v>3.025816273356457</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -2837,52 +2966,55 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>3.877172541312726E-06</v>
+        <v>3.990057446673523E-06</v>
       </c>
       <c r="C46">
-        <v>0.04797312906114312</v>
+        <v>0.0657702141774429</v>
       </c>
       <c r="D46">
-        <v>0.0003220838074203497</v>
+        <v>0.0004300533081234406</v>
       </c>
       <c r="E46">
-        <v>0.05152235006948006</v>
+        <v>0.07078419043581996</v>
       </c>
       <c r="F46">
-        <v>3.09927404273038</v>
+        <v>3.59925115312694</v>
+      </c>
+      <c r="K46">
+        <v>7.342811623992743</v>
       </c>
       <c r="L46">
-        <v>8.098493999660091</v>
+        <v>5.71340015178282</v>
       </c>
       <c r="M46">
-        <v>6.458496387902395</v>
+        <v>7.38918471808268</v>
       </c>
       <c r="N46">
-        <v>8.093167346401323</v>
+        <v>0.02455459965634862</v>
       </c>
       <c r="O46">
-        <v>0.02772070463372442</v>
+        <v>0.0004010988959249049</v>
       </c>
       <c r="P46">
-        <v>0.0003463549280648891</v>
+        <v>0.02584737946296133</v>
       </c>
       <c r="Q46">
-        <v>0.02701980636032434</v>
+        <v>0.002108475613514896</v>
       </c>
       <c r="R46">
-        <v>0.0006118245273867304</v>
+        <v>0.0006143072726590893</v>
       </c>
       <c r="S46">
-        <v>0.0006152948273341353</v>
+        <v>9.12958082997185E-07</v>
       </c>
       <c r="T46">
-        <v>1.849853597200189E-07</v>
+        <v>0.01852099407568821</v>
       </c>
       <c r="U46">
-        <v>0.000788665822927572</v>
+        <v>0.0003526946487566418</v>
       </c>
       <c r="V46">
-        <v>5.292532795175405E-05</v>
+        <v>3.068389350031409</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -2890,52 +3022,55 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>3.832727048622476E-06</v>
+        <v>3.930367107889451E-06</v>
       </c>
       <c r="C47">
-        <v>0.0488395117021199</v>
+        <v>0.06695821710233961</v>
       </c>
       <c r="D47">
-        <v>0.0003317777968089708</v>
+        <v>0.0004444492219316972</v>
       </c>
       <c r="E47">
-        <v>0.05246846233810108</v>
+        <v>0.07206595816032456</v>
       </c>
       <c r="F47">
-        <v>3.099254181801678</v>
+        <v>3.599230666655694</v>
+      </c>
+      <c r="K47">
+        <v>7.347541994172774</v>
       </c>
       <c r="L47">
-        <v>8.099196619804946</v>
+        <v>5.725327860988261</v>
       </c>
       <c r="M47">
-        <v>6.459454072471075</v>
+        <v>7.394322990589218</v>
       </c>
       <c r="N47">
-        <v>8.094061011714137</v>
+        <v>0.02499375421562905</v>
       </c>
       <c r="O47">
-        <v>0.02821842008291823</v>
+        <v>0.0004130256433886451</v>
       </c>
       <c r="P47">
-        <v>0.0003533657345797193</v>
+        <v>0.02627899589658763</v>
       </c>
       <c r="Q47">
-        <v>0.02749995148455957</v>
+        <v>0.002122301941084205</v>
       </c>
       <c r="R47">
-        <v>0.0006235295385017094</v>
+        <v>0.0006254598965604729</v>
       </c>
       <c r="S47">
-        <v>0.0006264786426427611</v>
+        <v>9.308053540669657E-07</v>
       </c>
       <c r="T47">
-        <v>1.889554963138771E-07</v>
+        <v>0.01885132679254151</v>
       </c>
       <c r="U47">
-        <v>0.0008020429228362232</v>
+        <v>0.0003632825091493261</v>
       </c>
       <c r="V47">
-        <v>5.393481979613998E-05</v>
+        <v>3.112336347545753</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -2943,52 +3078,55 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>3.786722936309628E-06</v>
+        <v>5.302544635662166E-06</v>
       </c>
       <c r="C48">
-        <v>0.04973780307073677</v>
+        <v>0.06818995354456939</v>
       </c>
       <c r="D48">
-        <v>0.0003420545679798988</v>
+        <v>0.000345689828966756</v>
       </c>
       <c r="E48">
-        <v>0.05344848663189804</v>
+        <v>0.07194864874266377</v>
       </c>
       <c r="F48">
-        <v>3.099234092212379</v>
+        <v>4.599230666655694</v>
+      </c>
+      <c r="K48">
+        <v>7.352321160974504</v>
       </c>
       <c r="L48">
-        <v>8.099897715398354</v>
+        <v>5.679044099482003</v>
       </c>
       <c r="M48">
-        <v>6.460540384349885</v>
+        <v>7.392742829892941</v>
       </c>
       <c r="N48">
-        <v>8.094961087081902</v>
+        <v>0.02544895289289277</v>
       </c>
       <c r="O48">
-        <v>0.02873443960788747</v>
+        <v>0.0003707823410320655</v>
       </c>
       <c r="P48">
-        <v>0.0003607405917920661</v>
+        <v>0.02672634208094881</v>
       </c>
       <c r="Q48">
-        <v>0.02799766300207916</v>
+        <v>0.002083457242455835</v>
       </c>
       <c r="R48">
-        <v>0.0006357663335258934</v>
+        <v>0.0006370252501013323</v>
       </c>
       <c r="S48">
-        <v>0.0006380765998121397</v>
+        <v>6.995329579185464E-07</v>
       </c>
       <c r="T48">
-        <v>1.931490014526329E-07</v>
+        <v>0.0191936979829747</v>
       </c>
       <c r="U48">
-        <v>0.0008158967765962248</v>
+        <v>0.0003288110521416786</v>
       </c>
       <c r="V48">
-        <v>5.498231881177119E-05</v>
+        <v>3.144137098694929</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -2996,52 +3134,55 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>3.739080503911045E-06</v>
+        <v>5.24575335366879E-06</v>
       </c>
       <c r="C49">
-        <v>0.05066979832550577</v>
+        <v>0.06947003399203358</v>
       </c>
       <c r="D49">
-        <v>0.0003529672726098807</v>
+        <v>0.0003560795669189508</v>
       </c>
       <c r="E49">
-        <v>0.05446420333387516</v>
+        <v>0.07332114137699772</v>
       </c>
       <c r="F49">
-        <v>3.099213765370855</v>
+        <v>4.599230666655694</v>
+      </c>
+      <c r="K49">
+        <v>7.357157864768223</v>
       </c>
       <c r="L49">
-        <v>8.100595273273376</v>
+        <v>5.690032476406361</v>
       </c>
       <c r="M49">
-        <v>6.461735552738831</v>
+        <v>7.397778309730302</v>
       </c>
       <c r="N49">
-        <v>8.095855696857619</v>
+        <v>0.02592212592217316</v>
       </c>
       <c r="O49">
-        <v>0.02926979241951191</v>
+        <v>0.000381408106127222</v>
       </c>
       <c r="P49">
-        <v>0.000368505807850585</v>
+        <v>0.02719130217224113</v>
       </c>
       <c r="Q49">
-        <v>0.02851392520337262</v>
+        <v>0.002097936860756556</v>
       </c>
       <c r="R49">
-        <v>0.0006485869383438363</v>
+        <v>0.0006490313957078118</v>
       </c>
       <c r="S49">
-        <v>0.0006501121366198886</v>
+        <v>7.134812282358037E-07</v>
       </c>
       <c r="T49">
-        <v>1.975909724991413E-07</v>
+        <v>0.0195496392458206</v>
       </c>
       <c r="U49">
-        <v>0.0008302536531581957</v>
+        <v>0.0003384130625705103</v>
       </c>
       <c r="V49">
-        <v>5.606872950989402E-05</v>
+        <v>3.177415605382024</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -3049,52 +3190,55 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3.689714817970204E-06</v>
+        <v>5.186861224100993E-06</v>
       </c>
       <c r="C50">
-        <v>0.05163742969190761</v>
+        <v>0.07079914850020887</v>
       </c>
       <c r="D50">
-        <v>0.0003645756481984169</v>
+        <v>0.0003670979966378705</v>
       </c>
       <c r="E50">
-        <v>0.05551751420616444</v>
+        <v>0.07474547159843971</v>
       </c>
       <c r="F50">
-        <v>3.099193192176357</v>
+        <v>4.599230666655694</v>
+      </c>
+      <c r="K50">
+        <v>7.362042106831824</v>
       </c>
       <c r="L50">
-        <v>8.10130308772991</v>
+        <v>5.701883192779385</v>
       </c>
       <c r="M50">
-        <v>6.463140084656283</v>
+        <v>7.403193537275871</v>
       </c>
       <c r="N50">
-        <v>8.096784490269357</v>
+        <v>0.02641329357248174</v>
       </c>
       <c r="O50">
-        <v>0.02982558639281309</v>
+        <v>0.0003927408756307617</v>
       </c>
       <c r="P50">
-        <v>0.0003767045338869796</v>
+        <v>0.02767386688976968</v>
       </c>
       <c r="Q50">
-        <v>0.02904979709308471</v>
+        <v>0.002111448579669309</v>
       </c>
       <c r="R50">
-        <v>0.0006619941110420204</v>
+        <v>0.000661499047909342</v>
       </c>
       <c r="S50">
-        <v>0.0006626104932669538</v>
+        <v>7.250339623553158E-07</v>
       </c>
       <c r="T50">
-        <v>2.022865401853104E-07</v>
+        <v>0.0199190859031908</v>
       </c>
       <c r="U50">
-        <v>0.0008451418247668169</v>
+        <v>0.0003486638889260323</v>
       </c>
       <c r="V50">
-        <v>5.720080741912321E-05</v>
+        <v>3.212266914409792</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -3102,52 +3246,55 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>3.638535351038014E-06</v>
+        <v>5.125752945850954E-06</v>
       </c>
       <c r="C51">
-        <v>0.05264277977119602</v>
+        <v>0.07218016909831811</v>
       </c>
       <c r="D51">
-        <v>0.0003769470581499434</v>
+        <v>0.0003788030957474426</v>
       </c>
       <c r="E51">
-        <v>0.05661045245168626</v>
+        <v>0.07622454856156444</v>
       </c>
       <c r="F51">
-        <v>3.099172362977841</v>
+        <v>4.599230666655694</v>
+      </c>
+      <c r="K51">
+        <v>7.366975986074626</v>
       </c>
       <c r="L51">
-        <v>8.102010966309463</v>
+        <v>5.713975167479163</v>
       </c>
       <c r="M51">
-        <v>6.422982284529118</v>
+        <v>7.408675812503299</v>
       </c>
       <c r="N51">
-        <v>8.079488899846991</v>
+        <v>0.02692350048810627</v>
       </c>
       <c r="O51">
-        <v>0.03040301544887047</v>
+        <v>0.0004046430508990224</v>
       </c>
       <c r="P51">
-        <v>0.0003799886903843171</v>
+        <v>0.02817509077820302</v>
       </c>
       <c r="Q51">
-        <v>0.0296064206809679</v>
+        <v>0.002125559829410534</v>
       </c>
       <c r="R51">
-        <v>0.000695705410693834</v>
+        <v>0.0006744554011239889</v>
       </c>
       <c r="S51">
-        <v>0.0006755988894772825</v>
+        <v>7.372331064103307E-07</v>
       </c>
       <c r="T51">
-        <v>6.444616732775783E-08</v>
+        <v>0.02030281966817639</v>
       </c>
       <c r="U51">
-        <v>0.0008605916486363795</v>
+        <v>0.0003594371184295638</v>
       </c>
       <c r="V51">
-        <v>5.612601624417527E-05</v>
+        <v>3.248743045447928</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -3155,52 +3302,55 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>3.583397615823043E-06</v>
+        <v>5.062304907224659E-06</v>
       </c>
       <c r="C52">
-        <v>0.05368809642545695</v>
+        <v>0.07361619641836951</v>
       </c>
       <c r="D52">
-        <v>0.0003903628557112572</v>
+        <v>0.0003912601268833052</v>
       </c>
       <c r="E52">
-        <v>0.0577427747647557</v>
+        <v>0.07776149685823872</v>
       </c>
       <c r="F52">
-        <v>3.098090351940308</v>
+        <v>4.599230666655694</v>
+      </c>
+      <c r="K52">
+        <v>7.371955734010158</v>
       </c>
       <c r="L52">
-        <v>8.102925483457932</v>
+        <v>5.726293072101719</v>
       </c>
       <c r="M52">
-        <v>6.425388775950395</v>
+        <v>7.41421365101268</v>
       </c>
       <c r="N52">
-        <v>8.080639384029499</v>
+        <v>0.02745387763685041</v>
       </c>
       <c r="O52">
-        <v>0.03100347598404019</v>
+        <v>0.0004171476289090276</v>
       </c>
       <c r="P52">
-        <v>0.0003892022435076158</v>
+        <v>0.02869608139717887</v>
       </c>
       <c r="Q52">
-        <v>0.03018463498637338</v>
+        <v>0.002140369572488234</v>
       </c>
       <c r="R52">
-        <v>0.0007106630296730169</v>
+        <v>0.0006879297644843405</v>
       </c>
       <c r="S52">
-        <v>0.0006891095783434816</v>
+        <v>7.501685059966835E-07</v>
       </c>
       <c r="T52">
-        <v>6.55136546110236E-08</v>
+        <v>0.02070168731917132</v>
       </c>
       <c r="U52">
-        <v>0.0008766809612842236</v>
+        <v>0.0003707638523410576</v>
       </c>
       <c r="V52">
-        <v>5.733503322563337E-05</v>
+        <v>3.286900482500921</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -3208,52 +3358,55 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>4.630492640274199E-06</v>
+        <v>4.995053156052357E-06</v>
       </c>
       <c r="C53">
-        <v>0.05477580527381911</v>
+        <v>0.0751105828732978</v>
       </c>
       <c r="D53">
-        <v>0.0003169172144251618</v>
+        <v>0.0004046441184870639</v>
       </c>
       <c r="E53">
-        <v>0.05764046522114047</v>
+        <v>0.07935850666250395</v>
       </c>
       <c r="F53">
-        <v>3.897351091748611</v>
+        <v>4.598468102701801</v>
+      </c>
+      <c r="K53">
+        <v>7.37698256385606</v>
       </c>
       <c r="L53">
-        <v>8.103838467166295</v>
+        <v>5.738885670104571</v>
       </c>
       <c r="M53">
-        <v>6.347937599766134</v>
+        <v>7.419810166358182</v>
       </c>
       <c r="N53">
-        <v>8.076458074660493</v>
+        <v>0.02800564763701248</v>
       </c>
       <c r="O53">
-        <v>0.03162825708078575</v>
+        <v>0.0004303311539277282</v>
       </c>
       <c r="P53">
-        <v>0.0003339619395139074</v>
+        <v>0.02923803469972358</v>
       </c>
       <c r="Q53">
-        <v>0.03078614461814278</v>
+        <v>0.002155930028863425</v>
       </c>
       <c r="R53">
-        <v>0.0006645127199196741</v>
+        <v>0.0007019538378716536</v>
       </c>
       <c r="S53">
-        <v>0.0007031717021126424</v>
+        <v>7.641098693249182E-07</v>
       </c>
       <c r="T53">
-        <v>5.079138936054471E-08</v>
+        <v>0.02111660412461684</v>
       </c>
       <c r="U53">
-        <v>0.0008934023067548071</v>
+        <v>0.000382711342427954</v>
       </c>
       <c r="V53">
-        <v>5.528840232990177E-05</v>
+        <v>3.32680948512125</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -3261,52 +3414,55 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>4.579983858904889E-06</v>
+        <v>4.926486883411278E-06</v>
       </c>
       <c r="C54">
-        <v>0.05591036544172315</v>
+        <v>0.07666695659735635</v>
       </c>
       <c r="D54">
-        <v>0.0003271464612395143</v>
+        <v>0.0004188434790172941</v>
       </c>
       <c r="E54">
-        <v>0.05885548677275629</v>
+        <v>0.08102145697827688</v>
       </c>
       <c r="F54">
-        <v>3.897332687814387</v>
+        <v>4.598449119524187</v>
+      </c>
+      <c r="K54">
+        <v>7.382053864518027</v>
       </c>
       <c r="L54">
-        <v>8.104773436462988</v>
+        <v>5.751694026548425</v>
       </c>
       <c r="M54">
-        <v>6.349364657016133</v>
+        <v>7.425465049060776</v>
       </c>
       <c r="N54">
-        <v>8.077725191167691</v>
+        <v>0.02858013339707674</v>
       </c>
       <c r="O54">
-        <v>0.03228022156289558</v>
+        <v>0.0004441845693289566</v>
       </c>
       <c r="P54">
-        <v>0.0003413218891697523</v>
+        <v>0.02980224521369983</v>
       </c>
       <c r="Q54">
-        <v>0.03141367861602243</v>
+        <v>0.002172281455223019</v>
       </c>
       <c r="R54">
-        <v>0.0006779347526340324</v>
+        <v>0.0007165619572050355</v>
       </c>
       <c r="S54">
-        <v>0.0007178200544193774</v>
+        <v>7.787517883423252E-07</v>
       </c>
       <c r="T54">
-        <v>5.141424491023408E-08</v>
+        <v>0.02154856022424577</v>
       </c>
       <c r="U54">
-        <v>0.0009108630130969926</v>
+        <v>0.0003952782053555286</v>
       </c>
       <c r="V54">
-        <v>5.651076183314363E-05</v>
+        <v>3.368534644557383</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -3314,52 +3470,55 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>4.527395092399388E-06</v>
+        <v>4.855152411302434E-06</v>
       </c>
       <c r="C55">
-        <v>0.05709298712215898</v>
+        <v>0.07828925687646995</v>
       </c>
       <c r="D55">
-        <v>0.0003380435026748177</v>
+        <v>0.0004340479484145342</v>
       </c>
       <c r="E55">
-        <v>0.06012150033968532</v>
+        <v>0.08275314729863721</v>
       </c>
       <c r="F55">
-        <v>3.897314028066457</v>
+        <v>4.598429872553624</v>
+      </c>
+      <c r="K55">
+        <v>7.387176846253378</v>
       </c>
       <c r="L55">
-        <v>8.105712687625665</v>
+        <v>5.764777344459631</v>
       </c>
       <c r="M55">
-        <v>6.391966703202014</v>
+        <v>7.431186969854372</v>
       </c>
       <c r="N55">
-        <v>8.098347334479211</v>
+        <v>0.02917877060617776</v>
       </c>
       <c r="O55">
-        <v>0.03295977261978337</v>
+        <v>0.0004587967686169188</v>
       </c>
       <c r="P55">
-        <v>0.0003538966904775816</v>
+        <v>0.03039011678302912</v>
       </c>
       <c r="Q55">
-        <v>0.0320676306131158</v>
+        <v>0.002189462625901171</v>
       </c>
       <c r="R55">
-        <v>0.0006700274798038897</v>
+        <v>0.0007317913871075184</v>
       </c>
       <c r="S55">
-        <v>0.0007330917276145788</v>
+        <v>7.943688288812325E-07</v>
       </c>
       <c r="T55">
-        <v>1.733710829881505E-07</v>
+        <v>0.02199863005443493</v>
       </c>
       <c r="U55">
-        <v>0.0009290407205706914</v>
+        <v>0.000408542994881269</v>
       </c>
       <c r="V55">
-        <v>6.031528768372806E-05</v>
+        <v>3.412156149311533</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -3367,52 +3526,55 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>4.47259842344615E-06</v>
+        <v>4.780884837384275E-06</v>
       </c>
       <c r="C56">
-        <v>0.05832679024432168</v>
+        <v>0.0799817614183842</v>
       </c>
       <c r="D56">
-        <v>0.0003496750111277775</v>
+        <v>0.0004503663935682249</v>
       </c>
       <c r="E56">
-        <v>0.06144170249115171</v>
+        <v>0.08455778288879343</v>
       </c>
       <c r="F56">
-        <v>3.897295101301552</v>
+        <v>4.598410350240369</v>
+      </c>
+      <c r="K56">
+        <v>7.392349588368476</v>
       </c>
       <c r="L56">
-        <v>8.106433383499301</v>
+        <v>5.778150781242076</v>
       </c>
       <c r="M56">
-        <v>6.39322282593391</v>
+        <v>7.436977356678885</v>
       </c>
       <c r="N56">
-        <v>8.09944106040988</v>
+        <v>0.02980311786351604</v>
       </c>
       <c r="O56">
-        <v>0.03366859600955088</v>
+        <v>0.0004742302387750346</v>
       </c>
       <c r="P56">
-        <v>0.0003621940131185697</v>
+        <v>0.03100317448209712</v>
       </c>
       <c r="Q56">
-        <v>0.03275018720297041</v>
+        <v>0.002207537784716326</v>
       </c>
       <c r="R56">
-        <v>0.0006846853320866479</v>
+        <v>0.0007476826266353149</v>
       </c>
       <c r="S56">
-        <v>0.0007490247353652656</v>
+        <v>8.110650427915657E-07</v>
       </c>
       <c r="T56">
-        <v>1.774803181074387E-07</v>
+        <v>0.02246797977312088</v>
       </c>
       <c r="U56">
-        <v>0.0009479260560682341</v>
+        <v>0.0004225634692687529</v>
       </c>
       <c r="V56">
-        <v>6.167455848246894E-05</v>
+        <v>3.457763069649951</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -3420,52 +3582,55 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>4.415455634360665E-06</v>
+        <v>4.703506675031597E-06</v>
       </c>
       <c r="C57">
-        <v>0.0596151705828371</v>
+        <v>0.08174912575226902</v>
       </c>
       <c r="D57">
-        <v>0.0003621167485032358</v>
+        <v>0.0004679238112763596</v>
       </c>
       <c r="E57">
-        <v>0.0628195557123695</v>
+        <v>0.08643990700442412</v>
       </c>
       <c r="F57">
-        <v>3.897275895544944</v>
+        <v>4.598390540239477</v>
+      </c>
+      <c r="K57">
+        <v>7.39756814738903</v>
       </c>
       <c r="L57">
-        <v>8.107152624698026</v>
+        <v>5.791797495827479</v>
       </c>
       <c r="M57">
-        <v>6.394625906552587</v>
+        <v>7.442821533836895</v>
       </c>
       <c r="N57">
-        <v>8.10054459690331</v>
+        <v>0.03045487092184362</v>
       </c>
       <c r="O57">
-        <v>0.03440873827613827</v>
+        <v>0.0004905421278981262</v>
       </c>
       <c r="P57">
-        <v>0.0003709839458496066</v>
+        <v>0.0316430775198167</v>
       </c>
       <c r="Q57">
-        <v>0.03346275391121227</v>
+        <v>0.002226654067048398</v>
       </c>
       <c r="R57">
-        <v>0.0007001115502172718</v>
+        <v>0.0007642797724484821</v>
       </c>
       <c r="S57">
-        <v>0.0007656657854774246</v>
+        <v>8.289868572704878E-07</v>
       </c>
       <c r="T57">
-        <v>1.818848542492732E-07</v>
+        <v>0.02295787791320648</v>
       </c>
       <c r="U57">
-        <v>0.0009676205337923623</v>
+        <v>0.0004373925366535741</v>
       </c>
       <c r="V57">
-        <v>6.309430181727567E-05</v>
+        <v>3.505451351103581</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -3473,52 +3638,55 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>4.355817054825429E-06</v>
+        <v>4.622826454990861E-06</v>
       </c>
       <c r="C58">
-        <v>0.06096183089725378</v>
+        <v>0.08359642579638248</v>
       </c>
       <c r="D58">
-        <v>0.0003754551696929959</v>
+        <v>0.0004868644328170381</v>
       </c>
       <c r="E58">
-        <v>0.0642588157740339</v>
+        <v>0.08840443396487657</v>
       </c>
       <c r="F58">
-        <v>3.897256397979171</v>
+        <v>4.5983704293375</v>
+      </c>
+      <c r="K58">
+        <v>7.402839530259686</v>
       </c>
       <c r="L58">
-        <v>8.107864542881915</v>
+        <v>5.805768947318701</v>
       </c>
       <c r="M58">
-        <v>6.396195334559176</v>
+        <v>7.448738123309118</v>
       </c>
       <c r="N58">
-        <v>8.101662796113297</v>
+        <v>0.03113587839443329</v>
       </c>
       <c r="O58">
-        <v>0.03518232360182665</v>
+        <v>0.0005078238112191938</v>
       </c>
       <c r="P58">
-        <v>0.0003803133125251902</v>
+        <v>0.0323116325982887</v>
       </c>
       <c r="Q58">
-        <v>0.0342073594194167</v>
+        <v>0.002246817851406772</v>
       </c>
       <c r="R58">
-        <v>0.0007163677924465288</v>
+        <v>0.0007816309266664642</v>
       </c>
       <c r="S58">
-        <v>0.0007830631468552241</v>
+        <v>8.48250186460473E-07</v>
       </c>
       <c r="T58">
-        <v>1.865830892504146E-07</v>
+        <v>0.02346970712630995</v>
       </c>
       <c r="U58">
-        <v>0.0009881779481554324</v>
+        <v>0.0004531133709239596</v>
       </c>
       <c r="V58">
-        <v>6.457964237613451E-05</v>
+        <v>3.555330650909055</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -3526,52 +3694,55 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>4.293520500297478E-06</v>
+        <v>4.538637609178028E-06</v>
       </c>
       <c r="C59">
-        <v>0.06237081637929008</v>
+        <v>0.08552920629320958</v>
       </c>
       <c r="D59">
-        <v>0.0003897893570393294</v>
+        <v>0.0005073555259580473</v>
       </c>
       <c r="E59">
-        <v>0.06576356260884143</v>
+        <v>0.09045668643757887</v>
       </c>
       <c r="F59">
-        <v>3.897236594862346</v>
+        <v>4.598350003368196</v>
+      </c>
+      <c r="K59">
+        <v>7.4081601628169</v>
       </c>
       <c r="L59">
-        <v>8.108577872770896</v>
+        <v>5.820066251961968</v>
       </c>
       <c r="M59">
-        <v>6.397955354644048</v>
+        <v>7.45471902405016</v>
       </c>
       <c r="N59">
-        <v>8.102803108052621</v>
+        <v>0.0318481587335778</v>
       </c>
       <c r="O59">
-        <v>0.03599167267832203</v>
+        <v>0.0005261566144980784</v>
       </c>
       <c r="P59">
-        <v>0.0003902348883090797</v>
+        <v>0.03301081433658828</v>
       </c>
       <c r="Q59">
-        <v>0.03498621968981136</v>
+        <v>0.002268166394175769</v>
       </c>
       <c r="R59">
-        <v>0.0007335196322475707</v>
+        <v>0.00079978866332879</v>
       </c>
       <c r="S59">
-        <v>0.0008012695785707119</v>
+        <v>8.69032752636512E-07</v>
       </c>
       <c r="T59">
-        <v>1.916039512197421E-07</v>
+        <v>0.02400497674852823</v>
       </c>
       <c r="U59">
-        <v>0.001009656978522393</v>
+        <v>0.0004698001226860785</v>
       </c>
       <c r="V59">
-        <v>6.613620840110439E-05</v>
+        <v>3.607520976220186</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -3579,52 +3750,55 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>4.228389925317829E-06</v>
+        <v>4.450716937173748E-06</v>
       </c>
       <c r="C60">
-        <v>0.06384655511791508</v>
+        <v>0.0875535360733822</v>
       </c>
       <c r="D60">
-        <v>0.0004052334030414881</v>
+        <v>0.0005295921657191623</v>
       </c>
       <c r="E60">
-        <v>0.06733823491956054</v>
+        <v>0.0926024367657505</v>
       </c>
       <c r="F60">
-        <v>3.897216471437785</v>
+        <v>4.598329247119542</v>
+      </c>
+      <c r="K60">
+        <v>7.413530731522826</v>
       </c>
       <c r="L60">
-        <v>8.10929019106783</v>
+        <v>5.834710100445439</v>
       </c>
       <c r="M60">
-        <v>6.399937273530218</v>
+        <v>7.46076510035101</v>
       </c>
       <c r="N60">
-        <v>8.103976025511093</v>
+        <v>0.03259392068879398</v>
       </c>
       <c r="O60">
-        <v>0.03683932595903662</v>
+        <v>0.0005456404805612274</v>
       </c>
       <c r="P60">
-        <v>0.0004008094966692117</v>
+        <v>0.03374278214474095</v>
       </c>
       <c r="Q60">
-        <v>0.03580176016737239</v>
+        <v>0.002290808895045154</v>
       </c>
       <c r="R60">
-        <v>0.0007516386716413912</v>
+        <v>0.0008188105592948886</v>
       </c>
       <c r="S60">
-        <v>0.0008203428636806996</v>
+        <v>8.91527517182451E-07</v>
       </c>
       <c r="T60">
-        <v>1.969791053205144E-07</v>
+        <v>0.02456533809676256</v>
       </c>
       <c r="U60">
-        <v>0.001032121758763376</v>
+        <v>0.0004875430355752454</v>
       </c>
       <c r="V60">
-        <v>6.777074549068075E-05</v>
+        <v>3.662155628681619</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -3632,52 +3806,55 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>4.160234025439645E-06</v>
+        <v>4.358823145732299E-06</v>
       </c>
       <c r="C61">
-        <v>0.06539390442803394</v>
+        <v>0.08967607129064228</v>
       </c>
       <c r="D61">
-        <v>0.0004219193407852316</v>
+        <v>0.0005538032088830723</v>
       </c>
       <c r="E61">
-        <v>0.06898766924413623</v>
+        <v>0.09484795340655315</v>
       </c>
       <c r="F61">
-        <v>3.897196011831122</v>
+        <v>4.598308144227628</v>
+      </c>
+      <c r="K61">
+        <v>7.418954216097437</v>
       </c>
       <c r="L61">
-        <v>8.109995207822793</v>
+        <v>5.849733049106967</v>
       </c>
       <c r="M61">
-        <v>6.402136682030703</v>
+        <v>7.466880975256609</v>
       </c>
       <c r="N61">
-        <v>8.105174773296367</v>
+        <v>0.03337558605972649</v>
       </c>
       <c r="O61">
-        <v>0.0377280702629968</v>
+        <v>0.0005663940408444355</v>
       </c>
       <c r="P61">
-        <v>0.0004121012797194112</v>
+        <v>0.03450990344351403</v>
       </c>
       <c r="Q61">
-        <v>0.03665664117946339</v>
+        <v>0.002314853860752572</v>
       </c>
       <c r="R61">
-        <v>0.0007708283312255937</v>
+        <v>0.0008387598039723937</v>
       </c>
       <c r="S61">
-        <v>0.0008403464218410747</v>
+        <v>9.159539976832148E-07</v>
       </c>
       <c r="T61">
-        <v>2.027533919683616E-07</v>
+        <v>0.02515260139093786</v>
       </c>
       <c r="U61">
-        <v>0.001055642515184661</v>
+        <v>0.0005064481684534566</v>
       </c>
       <c r="V61">
-        <v>6.948822386645177E-05</v>
+        <v>3.719383789673615</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -3685,52 +3862,55 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>4.088844632357938E-06</v>
+        <v>4.262695134180389E-06</v>
       </c>
       <c r="C62">
-        <v>0.06701820405521516</v>
+        <v>0.09190412799268627</v>
       </c>
       <c r="D62">
-        <v>0.0004400007895637829</v>
+        <v>0.0005802588847006896</v>
       </c>
       <c r="E62">
-        <v>0.07071714401773287</v>
+        <v>0.09720005280573857</v>
       </c>
       <c r="F62">
-        <v>3.897175198935378</v>
+        <v>4.598286677058309</v>
+      </c>
+      <c r="K62">
+        <v>7.424427868164527</v>
       </c>
       <c r="L62">
-        <v>8.110695828471172</v>
+        <v>5.865148543336717</v>
       </c>
       <c r="M62">
-        <v>6.40455022550168</v>
+        <v>7.473059963370872</v>
       </c>
       <c r="N62">
-        <v>8.106393238567927</v>
+        <v>0.03419581586019853</v>
       </c>
       <c r="O62">
-        <v>0.03866096948757874</v>
+        <v>0.0005885434742340293</v>
       </c>
       <c r="P62">
-        <v>0.0004241835150314524</v>
+        <v>0.03531477968308307</v>
       </c>
       <c r="Q62">
-        <v>0.03755378650066934</v>
+        <v>0.002340478787905349</v>
       </c>
       <c r="R62">
-        <v>0.0007912052141236102</v>
+        <v>0.0008597059002217614</v>
       </c>
       <c r="S62">
-        <v>0.0008613500135523024</v>
+        <v>9.425916956707315E-07</v>
       </c>
       <c r="T62">
-        <v>2.089778550749942E-07</v>
+        <v>0.02576875522149997</v>
       </c>
       <c r="U62">
-        <v>0.001080296372467616</v>
+        <v>0.0005266271661498689</v>
       </c>
       <c r="V62">
-        <v>7.129419137412178E-05</v>
+        <v>3.77937050172693</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -3738,52 +3918,55 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>4.013994935547815E-06</v>
+        <v>4.162050206472538E-06</v>
       </c>
       <c r="C63">
-        <v>0.06872533747228314</v>
+        <v>0.0942457656621218</v>
       </c>
       <c r="D63">
-        <v>0.0004596575206944787</v>
+        <v>0.0006092805057548163</v>
       </c>
       <c r="E63">
-        <v>0.0725324294017141</v>
+        <v>0.09966615764546286</v>
       </c>
       <c r="F63">
-        <v>3.897154014279423</v>
+        <v>4.598264826571654</v>
+      </c>
+      <c r="K63">
+        <v>7.429954207716055</v>
       </c>
       <c r="L63">
-        <v>8.111392970212451</v>
+        <v>5.881007697557201</v>
       </c>
       <c r="M63">
-        <v>6.407230478832548</v>
+        <v>7.47931148642513</v>
       </c>
       <c r="N63">
-        <v>8.107650938458464</v>
+        <v>0.03505754079317198</v>
       </c>
       <c r="O63">
-        <v>0.03964139989713123</v>
+        <v>0.000612251419114785</v>
       </c>
       <c r="P63">
-        <v>0.0004371481478175692</v>
+        <v>0.03616027457783121</v>
       </c>
       <c r="Q63">
-        <v>0.03849641679006795</v>
+        <v>0.002367808596541035</v>
       </c>
       <c r="R63">
-        <v>0.0008128697757895569</v>
+        <v>0.000881725472235251</v>
       </c>
       <c r="S63">
-        <v>0.0008834305529291544</v>
+        <v>9.717434535465498E-07</v>
       </c>
       <c r="T63">
-        <v>2.157007666662109E-07</v>
+        <v>0.02641598927420126</v>
       </c>
       <c r="U63">
-        <v>0.001106168223264885</v>
+        <v>0.0005482223998406013</v>
       </c>
       <c r="V63">
-        <v>7.319885201458306E-05</v>
+        <v>3.842302333056604</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -3791,52 +3974,55 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>3.935437494103249E-06</v>
+        <v>4.056582080403956E-06</v>
       </c>
       <c r="C64">
-        <v>0.07052180273416706</v>
+        <v>0.09670988369255251</v>
       </c>
       <c r="D64">
-        <v>0.0004811012272586748</v>
+        <v>0.0006412530407219698</v>
       </c>
       <c r="E64">
-        <v>0.07443984373557416</v>
+        <v>0.1022543621812411</v>
       </c>
       <c r="F64">
-        <v>3.89713243788041</v>
+        <v>4.598242572169946</v>
+      </c>
+      <c r="K64">
+        <v>7.435533154505687</v>
       </c>
       <c r="L64">
-        <v>8.112085197862507</v>
+        <v>5.897338883862749</v>
       </c>
       <c r="M64">
-        <v>6.37176568391735</v>
+        <v>7.485630323229147</v>
       </c>
       <c r="N64">
-        <v>8.090763743355451</v>
+        <v>0.03596399577669981</v>
       </c>
       <c r="O64">
-        <v>0.04067309073263949</v>
+        <v>0.0006376943083034037</v>
       </c>
       <c r="P64">
-        <v>0.0004452262766016902</v>
+        <v>0.03704954999839148</v>
       </c>
       <c r="Q64">
-        <v>0.03948808907991738</v>
+        <v>0.002397062433038447</v>
       </c>
       <c r="R64">
-        <v>0.0008604264857936979</v>
+        <v>0.0009049032019400326</v>
       </c>
       <c r="S64">
-        <v>0.0009066730490386937</v>
+        <v>1.003799960711886E-06</v>
       </c>
       <c r="T64">
-        <v>6.095682425392775E-08</v>
+        <v>0.02709671998142128</v>
       </c>
       <c r="U64">
-        <v>0.001133351627771472</v>
+        <v>0.0005713859442181497</v>
       </c>
       <c r="V64">
-        <v>7.227360456179817E-05</v>
+        <v>3.908387827205554</v>
       </c>
     </row>
     <row r="65" spans="1:22">
@@ -3844,52 +4030,55 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>3.852901958260081E-06</v>
+        <v>3.945958714726686E-06</v>
       </c>
       <c r="C65">
-        <v>0.0724147946667862</v>
+        <v>0.09930633316962902</v>
       </c>
       <c r="D65">
-        <v>0.0005045828904968175</v>
+        <v>0.00067664157501824</v>
       </c>
       <c r="E65">
-        <v>0.07644631753501713</v>
+        <v>0.1049735056253938</v>
       </c>
       <c r="F65">
-        <v>3.897110448073993</v>
+        <v>4.598219891522796</v>
+      </c>
+      <c r="K65">
+        <v>7.441164571154149</v>
       </c>
       <c r="L65">
-        <v>8.113013788842451</v>
+        <v>5.914199233554527</v>
       </c>
       <c r="M65">
-        <v>6.375689307105098</v>
+        <v>7.492021866932189</v>
       </c>
       <c r="N65">
-        <v>8.092406582210106</v>
+        <v>0.03691876068125106</v>
       </c>
       <c r="O65">
-        <v>0.0417603303125324</v>
+        <v>0.0006650927137499431</v>
       </c>
       <c r="P65">
-        <v>0.0004601652430917652</v>
+        <v>0.037986103716374</v>
       </c>
       <c r="Q65">
-        <v>0.04053207996083964</v>
+        <v>0.002428442995738924</v>
       </c>
       <c r="R65">
-        <v>0.0008851936436414193</v>
+        <v>0.0009293329155070412</v>
       </c>
       <c r="S65">
-        <v>0.0009311760785580028</v>
+        <v>1.039212378855685E-06</v>
       </c>
       <c r="T65">
-        <v>6.235381738095675E-08</v>
+        <v>0.02781362090134568</v>
       </c>
       <c r="U65">
-        <v>0.001162029412182544</v>
+        <v>0.0005963056532360884</v>
       </c>
       <c r="V65">
-        <v>7.437540308667907E-05</v>
+        <v>3.977863619085011</v>
       </c>
     </row>
     <row r="66" spans="1:22">
@@ -3897,52 +4086,55 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>3.766092736127453E-06</v>
+        <v>3.829820325251218E-06</v>
       </c>
       <c r="C66">
-        <v>0.07441230054946091</v>
+        <v>0.1020460468250349</v>
       </c>
       <c r="D66">
-        <v>0.0005304022455703003</v>
+        <v>0.000716013067618997</v>
       </c>
       <c r="E66">
-        <v>0.07855946647478897</v>
+        <v>0.1078332552360842</v>
       </c>
       <c r="F66">
-        <v>3.897088021320487</v>
+        <v>4.598196760367374</v>
+      </c>
+      <c r="K66">
+        <v>7.446848648080398</v>
       </c>
       <c r="L66">
-        <v>8.113937007961848</v>
+        <v>5.931635732914723</v>
       </c>
       <c r="M66">
-        <v>6.379926073160772</v>
+        <v>7.498481495394575</v>
       </c>
       <c r="N66">
-        <v>8.094090094369273</v>
+        <v>0.03792580701368165</v>
       </c>
       <c r="O66">
-        <v>0.04290755712001686</v>
+        <v>0.0006946994461005034</v>
       </c>
       <c r="P66">
-        <v>0.0004763328386898923</v>
+        <v>0.03897381651416942</v>
       </c>
       <c r="Q66">
-        <v>0.04163338235853959</v>
+        <v>0.0024622407506108</v>
       </c>
       <c r="R66">
-        <v>0.0009117582170442072</v>
+        <v>0.0009551188517050464</v>
       </c>
       <c r="S66">
-        <v>0.0009570403486896869</v>
+        <v>1.078551784680458E-06</v>
       </c>
       <c r="T66">
-        <v>6.388449690509112E-08</v>
+        <v>0.0285696574360154</v>
       </c>
       <c r="U66">
-        <v>0.001192242023546318</v>
+        <v>0.0006231931122383186</v>
       </c>
       <c r="V66">
-        <v>7.660325495720593E-05</v>
+        <v>4.050997389492488</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -3950,52 +4142,55 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>3.674686064771135E-06</v>
+        <v>3.707776758738548E-06</v>
       </c>
       <c r="C67">
-        <v>0.07652321192957208</v>
+        <v>0.1049411906466753</v>
       </c>
       <c r="D67">
-        <v>0.0005589201544810511</v>
+        <v>0.0007600656676499052</v>
       </c>
       <c r="E67">
-        <v>0.08078767417757671</v>
+        <v>0.1108441991687209</v>
       </c>
       <c r="F67">
-        <v>3.897065131984724</v>
+        <v>4.598173152281811</v>
+      </c>
+      <c r="K67">
+        <v>7.452586552374246</v>
       </c>
       <c r="L67">
-        <v>8.114849876875139</v>
+        <v>5.949727546321676</v>
       </c>
       <c r="M67">
-        <v>6.384503759724308</v>
+        <v>7.505014381493736</v>
       </c>
       <c r="N67">
-        <v>8.09581891629648</v>
+        <v>0.03898955294418397</v>
       </c>
       <c r="O67">
-        <v>0.04411987781376907</v>
+        <v>0.0007268311281949775</v>
       </c>
       <c r="P67">
-        <v>0.0004938923521499401</v>
+        <v>0.04001700439312824</v>
       </c>
       <c r="Q67">
-        <v>0.04279685733401089</v>
+        <v>0.002498751141076728</v>
       </c>
       <c r="R67">
-        <v>0.0009403464585123821</v>
+        <v>0.0009823771459884856</v>
       </c>
       <c r="S67">
-        <v>0.0009843825333809091</v>
+        <v>1.122499355177193E-06</v>
       </c>
       <c r="T67">
-        <v>6.55720285308436E-08</v>
+        <v>0.02936812784526617</v>
       </c>
       <c r="U67">
-        <v>0.001224117416934578</v>
+        <v>0.0006523103316399681</v>
       </c>
       <c r="V67">
-        <v>7.896998203475444E-05</v>
+        <v>4.128096217782112</v>
       </c>
     </row>
     <row r="68" spans="1:22">
@@ -4003,52 +4198,55 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3.57832717597716E-06</v>
+        <v>3.579405594190165E-06</v>
       </c>
       <c r="C68">
-        <v>0.07875745580531006</v>
+        <v>0.1080053413813525</v>
       </c>
       <c r="D68">
-        <v>0.0005905748609013975</v>
+        <v>0.0008096685311624916</v>
       </c>
       <c r="E68">
-        <v>0.08314018713482334</v>
+        <v>0.1140179525109577</v>
       </c>
       <c r="F68">
-        <v>3.897041752078529</v>
+        <v>4.598149038419765</v>
+      </c>
+      <c r="K68">
+        <v>7.458377743221503</v>
       </c>
       <c r="L68">
-        <v>8.11575861364285</v>
+        <v>5.968546182665649</v>
       </c>
       <c r="M68">
-        <v>6.389460491423702</v>
+        <v>7.511615152161127</v>
       </c>
       <c r="N68">
-        <v>8.097600847555013</v>
+        <v>0.04011492711524248</v>
       </c>
       <c r="O68">
-        <v>0.04540299503322845</v>
+        <v>0.0007618622743575584</v>
       </c>
       <c r="P68">
-        <v>0.0005130398776766223</v>
+        <v>0.04112048242995329</v>
       </c>
       <c r="Q68">
-        <v>0.04402793118329026</v>
+        <v>0.002538386583500798</v>
       </c>
       <c r="R68">
-        <v>0.0009712226319010613</v>
+        <v>0.001011237576771818</v>
       </c>
       <c r="S68">
-        <v>0.001013333032244214</v>
+        <v>1.171929731122953E-06</v>
       </c>
       <c r="T68">
-        <v>6.743968674172663E-08</v>
+        <v>0.030212710713314</v>
       </c>
       <c r="U68">
-        <v>0.001257798223843397</v>
+        <v>0.0006839621961470005</v>
       </c>
       <c r="V68">
-        <v>8.149050701354811E-05</v>
+        <v>4.209512607519925</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -4056,52 +4254,55 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>3.476626830025322E-06</v>
+        <v>3.444249755231251E-06</v>
       </c>
       <c r="C69">
-        <v>0.08112614916726184</v>
+        <v>0.1112536951040856</v>
       </c>
       <c r="D69">
-        <v>0.0006259037496905535</v>
+        <v>0.0008659171106280603</v>
       </c>
       <c r="E69">
-        <v>0.0856272228585824</v>
+        <v>0.1173672763423175</v>
       </c>
       <c r="F69">
-        <v>3.897017850966636</v>
+        <v>4.598124387207737</v>
+      </c>
+      <c r="K69">
+        <v>7.464219571008742</v>
       </c>
       <c r="L69">
-        <v>8.116656752230345</v>
+        <v>5.988195044183509</v>
       </c>
       <c r="M69">
-        <v>6.394824624544633</v>
+        <v>7.518284671314888</v>
       </c>
       <c r="N69">
-        <v>8.099435638110268</v>
+        <v>0.04130744423163293</v>
       </c>
       <c r="O69">
-        <v>0.04676329670460881</v>
+        <v>0.0008002623774839878</v>
       </c>
       <c r="P69">
-        <v>0.0005340118920940839</v>
+        <v>0.04228963684954275</v>
       </c>
       <c r="Q69">
-        <v>0.04533267992727175</v>
+        <v>0.002581613862077243</v>
       </c>
       <c r="R69">
-        <v>0.001004721175392993</v>
+        <v>0.001041845626682142</v>
       </c>
       <c r="S69">
-        <v>0.001044038050200502</v>
+        <v>1.227925048853125E-06</v>
       </c>
       <c r="T69">
-        <v>6.951959136560436E-08</v>
+        <v>0.03110752127444027</v>
       </c>
       <c r="U69">
-        <v>0.00129344391223218</v>
+        <v>0.0007185274775353169</v>
       </c>
       <c r="V69">
-        <v>8.418115967397132E-05</v>
+        <v>4.295656370464446</v>
       </c>
     </row>
     <row r="70" spans="1:22">
@@ -4109,52 +4310,55 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>3.369157854475754E-06</v>
+        <v>3.301816062692293E-06</v>
       </c>
       <c r="C70">
-        <v>0.08364178183656094</v>
+        <v>0.1147033131663811</v>
       </c>
       <c r="D70">
-        <v>0.0006655727764537839</v>
+        <v>0.0009302110161929481</v>
       </c>
       <c r="E70">
-        <v>0.08826009416373899</v>
+        <v>0.1209062139442866</v>
       </c>
       <c r="F70">
-        <v>3.896993395023291</v>
+        <v>4.598099163991032</v>
+      </c>
+      <c r="K70">
+        <v>7.470116568451703</v>
       </c>
       <c r="L70">
-        <v>8.117545857567842</v>
+        <v>6.008809095791109</v>
       </c>
       <c r="M70">
-        <v>6.400630542688524</v>
+        <v>7.525028202307659</v>
       </c>
       <c r="N70">
-        <v>8.101320960011954</v>
+        <v>0.04257329366457508</v>
       </c>
       <c r="O70">
-        <v>0.0482079618549999</v>
+        <v>0.0008426241099599492</v>
       </c>
       <c r="P70">
-        <v>0.0005570984492316227</v>
+        <v>0.04353051256790105</v>
       </c>
       <c r="Q70">
-        <v>0.04671792863826797</v>
+        <v>0.002628992811193869</v>
       </c>
       <c r="R70">
-        <v>0.001041250266464934</v>
+        <v>0.001074364929858183</v>
       </c>
       <c r="S70">
-        <v>0.001076662066782037</v>
+        <v>1.291863321659193E-06</v>
       </c>
       <c r="T70">
-        <v>7.184978634543591E-08</v>
+        <v>0.03205717733059355</v>
       </c>
       <c r="U70">
-        <v>0.001331233373249624</v>
+        <v>0.0007564807709760544</v>
       </c>
       <c r="V70">
-        <v>8.706011936862844E-05</v>
+        <v>4.387009931503302</v>
       </c>
     </row>
     <row r="71" spans="1:22">
@@ -4162,52 +4366,55 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3.255451246589498E-06</v>
+        <v>3.151574137458935E-06</v>
       </c>
       <c r="C71">
-        <v>0.08631843374172569</v>
+        <v>0.118373413235742</v>
       </c>
       <c r="D71">
-        <v>0.0007104170053938812</v>
+        <v>0.001004366189764498</v>
       </c>
       <c r="E71">
-        <v>0.09105135160726452</v>
+        <v>0.1246502454163256</v>
       </c>
       <c r="F71">
-        <v>3.896968347232528</v>
+        <v>4.598073330622565</v>
+      </c>
+      <c r="K71">
+        <v>7.476063690490015</v>
       </c>
       <c r="L71">
-        <v>8.118430117964269</v>
+        <v>6.030520912096804</v>
       </c>
       <c r="M71">
-        <v>6.40696586913504</v>
+        <v>7.531836362880532</v>
       </c>
       <c r="N71">
-        <v>8.10327192314848</v>
+        <v>0.04391944429536912</v>
       </c>
       <c r="O71">
-        <v>0.04974508648099243</v>
+        <v>0.0008896785021082998</v>
       </c>
       <c r="P71">
-        <v>0.0005826725302416719</v>
+        <v>0.04484991643102064</v>
       </c>
       <c r="Q71">
-        <v>0.04819136987606806</v>
+        <v>0.002681309096896209</v>
       </c>
       <c r="R71">
-        <v>0.001081286386667639</v>
+        <v>0.001108980190069038</v>
       </c>
       <c r="S71">
-        <v>0.001111390783459318</v>
+        <v>1.365565621459269E-06</v>
       </c>
       <c r="T71">
-        <v>7.447549023245547E-08</v>
+        <v>0.03306687721961347</v>
       </c>
       <c r="U71">
-        <v>0.00137136799434256</v>
+        <v>0.0007984016720764378</v>
       </c>
       <c r="V71">
-        <v>9.015233473278523E-05</v>
+        <v>4.48414415858844</v>
       </c>
     </row>
     <row r="72" spans="1:22">
@@ -4215,52 +4422,55 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3.134992339691507E-06</v>
+        <v>2.992957202986676E-06</v>
       </c>
       <c r="C72">
-        <v>0.08917203429960342</v>
+        <v>0.1222857148039413</v>
       </c>
       <c r="D72">
-        <v>0.0007614973404963198</v>
+        <v>0.001090779902663449</v>
       </c>
       <c r="E72">
-        <v>0.09401494769797357</v>
+        <v>0.1286164660960102</v>
       </c>
       <c r="F72">
-        <v>3.896942666718655</v>
+        <v>4.598046844978968</v>
+      </c>
+      <c r="K72">
+        <v>7.482063250884508</v>
       </c>
       <c r="L72">
-        <v>8.119302243398979</v>
+        <v>6.053530559321172</v>
       </c>
       <c r="M72">
-        <v>6.442195892601316</v>
+        <v>7.538714242999907</v>
       </c>
       <c r="N72">
-        <v>8.118799890693214</v>
+        <v>0.04535376982181116</v>
       </c>
       <c r="O72">
-        <v>0.05138383361268412</v>
+        <v>0.000942387471346189</v>
       </c>
       <c r="P72">
-        <v>0.0006169691521050589</v>
+        <v>0.04625553667549145</v>
       </c>
       <c r="Q72">
-        <v>0.04976170599238142</v>
+        <v>0.002739485945315842</v>
       </c>
       <c r="R72">
-        <v>0.001103111843099699</v>
+        <v>0.001145900677550624</v>
       </c>
       <c r="S72">
-        <v>0.001148434660391621</v>
+        <v>1.451398072521149E-06</v>
       </c>
       <c r="T72">
-        <v>4.261199903873651E-07</v>
+        <v>0.03414249307119804</v>
       </c>
       <c r="U72">
-        <v>0.001414075182996219</v>
+        <v>0.0008450529207061508</v>
       </c>
       <c r="V72">
-        <v>9.627330960101322E-05</v>
+        <v>4.587748275678939</v>
       </c>
     </row>
     <row r="73" spans="1:22">
@@ -4268,52 +4478,55 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>3.007216932259478E-06</v>
+        <v>5.00388751739213E-06</v>
       </c>
       <c r="C73">
-        <v>0.09222067350508983</v>
+        <v>0.1264648504901922</v>
       </c>
       <c r="D73">
-        <v>0.0008201815563855447</v>
+        <v>0.0006375349008806446</v>
       </c>
       <c r="E73">
-        <v>0.09716642623957079</v>
+        <v>0.1327896862023921</v>
       </c>
       <c r="F73">
-        <v>3.896916308194895</v>
+        <v>7.198046844978968</v>
+      </c>
+      <c r="K73">
+        <v>7.488117724889831</v>
       </c>
       <c r="L73">
-        <v>8.11995477338162</v>
+        <v>5.997810634891737</v>
       </c>
       <c r="M73">
-        <v>6.448300275321103</v>
+        <v>7.545505666333312</v>
       </c>
       <c r="N73">
-        <v>8.12021048586489</v>
+        <v>0.04688519679941338</v>
       </c>
       <c r="O73">
-        <v>0.05313441514580752</v>
+        <v>0.0008250632959631948</v>
       </c>
       <c r="P73">
-        <v>0.0006490054895899656</v>
+        <v>0.04775609014894577</v>
       </c>
       <c r="Q73">
-        <v>0.05143958854925318</v>
+        <v>0.002623651813456348</v>
       </c>
       <c r="R73">
-        <v>0.001152739092519902</v>
+        <v>0.00118536444580849</v>
       </c>
       <c r="S73">
-        <v>0.001188021161784766</v>
+        <v>8.802717567961341E-07</v>
       </c>
       <c r="T73">
-        <v>4.53183475724288E-07</v>
+        <v>0.0352906806625943</v>
       </c>
       <c r="U73">
-        <v>0.001459516626906397</v>
+        <v>0.0007564782481574793</v>
       </c>
       <c r="V73">
-        <v>9.983049549720046E-05</v>
+        <v>4.671238115390821</v>
       </c>
     </row>
     <row r="74" spans="1:22">
@@ -4321,52 +4534,55 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>2.871507983332491E-06</v>
+        <v>4.875882465892256E-06</v>
       </c>
       <c r="C74">
-        <v>0.09548497678897214</v>
+        <v>0.1309586831898105</v>
       </c>
       <c r="D74">
-        <v>0.0008882625169240117</v>
+        <v>0.0006775908570962917</v>
       </c>
       <c r="E74">
-        <v>0.1005231417607643</v>
+        <v>0.1375397855200919</v>
       </c>
       <c r="F74">
-        <v>3.896889221309811</v>
+        <v>7.198046844978968</v>
+      </c>
+      <c r="K74">
+        <v>7.494221277802321</v>
       </c>
       <c r="L74">
-        <v>8.120602716404628</v>
+        <v>6.016097054211473</v>
       </c>
       <c r="M74">
-        <v>6.429716083741383</v>
+        <v>7.552378578342807</v>
       </c>
       <c r="N74">
-        <v>8.109272769339746</v>
+        <v>0.04853020156739375</v>
       </c>
       <c r="O74">
-        <v>0.055008894062101</v>
+        <v>0.0008664975178299803</v>
       </c>
       <c r="P74">
-        <v>0.0006797542298967858</v>
+        <v>0.04936796294664181</v>
       </c>
       <c r="Q74">
-        <v>0.05323554745842222</v>
+        <v>0.002675481420325258</v>
       </c>
       <c r="R74">
-        <v>0.001230049777061986</v>
+        <v>0.001227667452024622</v>
       </c>
       <c r="S74">
-        <v>0.001230434303867232</v>
+        <v>9.185942834222324E-07</v>
       </c>
       <c r="T74">
-        <v>8.492240306366915E-08</v>
+        <v>0.03652404503453847</v>
       </c>
       <c r="U74">
-        <v>0.001508076845885297</v>
+        <v>0.0007953184520163664</v>
       </c>
       <c r="V74">
-        <v>0.0001009481063569201</v>
+        <v>4.759895221086855</v>
       </c>
     </row>
     <row r="75" spans="1:22">
@@ -4374,52 +4590,55 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>2.727193544481412E-06</v>
+        <v>4.738947836945129E-06</v>
       </c>
       <c r="C75">
-        <v>0.098988558799048</v>
+        <v>0.1357839088317629</v>
       </c>
       <c r="D75">
-        <v>0.0009681349293654394</v>
+        <v>0.0007228690008844867</v>
       </c>
       <c r="E75">
-        <v>0.1041045149900058</v>
+        <v>0.1426300143255002</v>
       </c>
       <c r="F75">
-        <v>3.896861349867746</v>
+        <v>7.198046844978968</v>
+      </c>
+      <c r="K75">
+        <v>7.50039216570865</v>
       </c>
       <c r="L75">
-        <v>8.121464874211567</v>
+        <v>6.036923091669824</v>
       </c>
       <c r="M75">
-        <v>6.439632928219397</v>
+        <v>7.560045429024735</v>
       </c>
       <c r="N75">
-        <v>8.111512776095804</v>
+        <v>0.05029552393959981</v>
       </c>
       <c r="O75">
-        <v>0.05702108442625672</v>
+        <v>0.0009129960745410073</v>
       </c>
       <c r="P75">
-        <v>0.0007218709340080029</v>
+        <v>0.05109731411428317</v>
       </c>
       <c r="Q75">
-        <v>0.05516167700217631</v>
+        <v>0.002727582208755537</v>
       </c>
       <c r="R75">
-        <v>0.001292346713584038</v>
+        <v>0.001273102594903925</v>
       </c>
       <c r="S75">
-        <v>0.001276002799477016</v>
+        <v>9.552520573607497E-07</v>
       </c>
       <c r="T75">
-        <v>8.954745432700369E-08</v>
+        <v>0.03784733120426152</v>
       </c>
       <c r="U75">
-        <v>0.001560192725127089</v>
+        <v>0.0008387147667456748</v>
       </c>
       <c r="V75">
-        <v>0.0001052297877298312</v>
+        <v>4.854372753192082</v>
       </c>
     </row>
     <row r="76" spans="1:22">
@@ -4427,52 +4646,55 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>2.570769985902802E-06</v>
+        <v>4.59215414466273E-06</v>
       </c>
       <c r="C76">
-        <v>0.1027585751017281</v>
+        <v>0.1409785642098736</v>
       </c>
       <c r="D76">
-        <v>0.001064147182245379</v>
+        <v>0.0007744436418275075</v>
       </c>
       <c r="E76">
-        <v>0.107926554865818</v>
+        <v>0.148096920014068</v>
       </c>
       <c r="F76">
-        <v>3.895143795975722</v>
+        <v>7.198046844978968</v>
+      </c>
+      <c r="K76">
+        <v>7.506606572128064</v>
       </c>
       <c r="L76">
-        <v>8.122326604484524</v>
+        <v>6.05876582089576</v>
       </c>
       <c r="M76">
-        <v>6.451548756921693</v>
+        <v>7.567834933644475</v>
       </c>
       <c r="N76">
-        <v>8.113824886624826</v>
+        <v>0.05219485193440977</v>
       </c>
       <c r="O76">
-        <v>0.05918643879134321</v>
+        <v>0.0009643229543959196</v>
       </c>
       <c r="P76">
-        <v>0.0007717478704191144</v>
+        <v>0.05295768841834193</v>
       </c>
       <c r="Q76">
-        <v>0.05723357432096832</v>
+        <v>0.002784525273780499</v>
       </c>
       <c r="R76">
-        <v>0.001364278519775667</v>
+        <v>0.001322031338859562</v>
       </c>
       <c r="S76">
-        <v>0.001325076386093273</v>
+        <v>9.968415224284257E-07</v>
       </c>
       <c r="T76">
-        <v>9.512322140435391E-08</v>
+        <v>0.03927073952878136</v>
       </c>
       <c r="U76">
-        <v>0.001616152838103907</v>
+        <v>0.0008863509243513873</v>
       </c>
       <c r="V76">
-        <v>0.0001099504619689387</v>
+        <v>4.955229953830685</v>
       </c>
     </row>
     <row r="77" spans="1:22">
@@ -4480,52 +4702,55 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>4.707152564887431E-06</v>
+        <v>4.433177929265E-06</v>
       </c>
       <c r="C77">
-        <v>0.1068263522185074</v>
+        <v>0.1465867290325954</v>
       </c>
       <c r="D77">
-        <v>0.0005742904221143068</v>
+        <v>0.0008339273863885879</v>
       </c>
       <c r="E77">
-        <v>0.1125574152541626</v>
+        <v>0.153980094906999</v>
       </c>
       <c r="F77">
-        <v>6.494072378183044</v>
+        <v>7.196941712688487</v>
+      </c>
+      <c r="K77">
+        <v>7.512861599847596</v>
       </c>
       <c r="L77">
-        <v>8.12317984845812</v>
+        <v>6.081756282387495</v>
       </c>
       <c r="M77">
-        <v>6.283484364058848</v>
+        <v>7.575743855415938</v>
       </c>
       <c r="N77">
-        <v>8.117414632936068</v>
+        <v>0.05424407309361032</v>
       </c>
       <c r="O77">
-        <v>0.06152302642818017</v>
+        <v>0.001021334119025796</v>
       </c>
       <c r="P77">
-        <v>0.0005354916314821187</v>
+        <v>0.05496461494412438</v>
       </c>
       <c r="Q77">
-        <v>0.05946834615301603</v>
+        <v>0.002847172462524445</v>
       </c>
       <c r="R77">
-        <v>0.001145901427607619</v>
+        <v>0.001374872718753048</v>
       </c>
       <c r="S77">
-        <v>0.001378075636608148</v>
+        <v>1.044799940801596E-06</v>
       </c>
       <c r="T77">
-        <v>5.227255279209403E-08</v>
+        <v>0.04080611507295857</v>
       </c>
       <c r="U77">
-        <v>0.001676400933149306</v>
+        <v>0.0009389411320969128</v>
       </c>
       <c r="V77">
-        <v>0.0001075243408515076</v>
+        <v>5.063128299198832</v>
       </c>
     </row>
     <row r="78" spans="1:22">
@@ -4533,52 +4758,55 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>4.579236197020542E-06</v>
+        <v>4.263328397244587E-06</v>
       </c>
       <c r="C78">
-        <v>0.1112535214600238</v>
+        <v>0.1526597624345207</v>
       </c>
       <c r="D78">
-        <v>0.0006149696808596038</v>
+        <v>0.0009027249160582343</v>
       </c>
       <c r="E78">
-        <v>0.1172716151929751</v>
+        <v>0.1603315886083244</v>
       </c>
       <c r="F78">
-        <v>6.494046881108527</v>
+        <v>7.196915418586247</v>
+      </c>
+      <c r="K78">
+        <v>7.519150872919082</v>
       </c>
       <c r="L78">
-        <v>8.123964797250856</v>
+        <v>6.105963210652764</v>
       </c>
       <c r="M78">
-        <v>6.285807764540845</v>
+        <v>7.583777403639314</v>
       </c>
       <c r="N78">
-        <v>8.120482111458129</v>
+        <v>0.05646168721755135</v>
       </c>
       <c r="O78">
-        <v>0.06406417371137593</v>
+        <v>0.001084878849223926</v>
       </c>
       <c r="P78">
-        <v>0.0005594812038967497</v>
+        <v>0.05713617504752438</v>
       </c>
       <c r="Q78">
-        <v>0.06189844801657471</v>
+        <v>0.002916384389317939</v>
       </c>
       <c r="R78">
-        <v>0.001193298034832842</v>
+        <v>0.001432115548703558</v>
       </c>
       <c r="S78">
-        <v>0.001435493276777121</v>
+        <v>1.10000414763797E-06</v>
       </c>
       <c r="T78">
-        <v>5.382901924158987E-08</v>
+        <v>0.04246724732049447</v>
       </c>
       <c r="U78">
-        <v>0.001741770791161714</v>
+        <v>0.0009972150186122091</v>
       </c>
       <c r="V78">
-        <v>0.000112369560329281</v>
+        <v>5.178827667076453</v>
       </c>
     </row>
     <row r="79" spans="1:22">
@@ -4586,52 +4814,55 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>4.440763088856576E-06</v>
+        <v>4.079991377223073E-06</v>
       </c>
       <c r="C79">
-        <v>0.1160638932765092</v>
+        <v>0.1592578945005408</v>
       </c>
       <c r="D79">
-        <v>0.0006616804596725417</v>
+        <v>0.0009834771095047113</v>
       </c>
       <c r="E79">
-        <v>0.1223835595786235</v>
+        <v>0.1672046091093181</v>
       </c>
       <c r="F79">
-        <v>6.494020477172298</v>
+        <v>7.196888189824468</v>
+      </c>
+      <c r="K79">
+        <v>7.525469832125587</v>
       </c>
       <c r="L79">
-        <v>8.124725859550564</v>
+        <v>6.131572719369522</v>
       </c>
       <c r="M79">
-        <v>6.288925843513898</v>
+        <v>7.591937245403402</v>
       </c>
       <c r="N79">
-        <v>8.123718035618429</v>
+        <v>0.05886937453791341</v>
       </c>
       <c r="O79">
-        <v>0.06682524729865764</v>
+        <v>0.001156262076462905</v>
       </c>
       <c r="P79">
-        <v>0.0005865616063282036</v>
+        <v>0.0594935572500551</v>
       </c>
       <c r="Q79">
-        <v>0.06453780236360697</v>
+        <v>0.002993449872145043</v>
       </c>
       <c r="R79">
-        <v>0.00124569069112433</v>
+        <v>0.001494333615858163</v>
       </c>
       <c r="S79">
-        <v>0.001497903687549203</v>
+        <v>1.16466033576931E-06</v>
       </c>
       <c r="T79">
-        <v>5.560208416232848E-08</v>
+        <v>0.04427029220318501</v>
       </c>
       <c r="U79">
-        <v>0.001812614322937037</v>
+        <v>0.001062271654192121</v>
       </c>
       <c r="V79">
-        <v>0.0001176725067261333</v>
+        <v>5.303246391176573</v>
       </c>
     </row>
     <row r="80" spans="1:22">
@@ -4639,52 +4870,55 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4.290423355339908E-06</v>
+        <v>3.881600868379576E-06</v>
       </c>
       <c r="C80">
-        <v>0.1213094484045472</v>
+        <v>0.1664521862001334</v>
       </c>
       <c r="D80">
-        <v>0.0007158467550852093</v>
+        <v>0.001079529919191684</v>
       </c>
       <c r="E80">
-        <v>0.1279439178761237</v>
+        <v>0.1746629711692403</v>
       </c>
       <c r="F80">
-        <v>6.493993079737291</v>
+        <v>7.196859937158551</v>
+      </c>
+      <c r="K80">
+        <v>7.531814086775903</v>
       </c>
       <c r="L80">
-        <v>8.125453007956263</v>
+        <v>6.158790114090108</v>
       </c>
       <c r="M80">
-        <v>6.317252909715632</v>
+        <v>7.600228055177844</v>
       </c>
       <c r="N80">
-        <v>8.139609995515093</v>
+        <v>0.06149269783161571</v>
       </c>
       <c r="O80">
-        <v>0.06983609664830898</v>
+        <v>0.001237103621735811</v>
       </c>
       <c r="P80">
-        <v>0.0006234019399904441</v>
+        <v>0.06206174394905102</v>
       </c>
       <c r="Q80">
-        <v>0.067414716530538</v>
+        <v>0.00307997328097773</v>
       </c>
       <c r="R80">
-        <v>0.001278835993831089</v>
+        <v>0.001562204932018272</v>
       </c>
       <c r="S80">
-        <v>0.001565987691433978</v>
+        <v>1.241408945725807E-06</v>
       </c>
       <c r="T80">
-        <v>1.982873500531954E-07</v>
+        <v>0.04623429313723014</v>
       </c>
       <c r="U80">
-        <v>0.001889657132764806</v>
+        <v>0.001135476610522551</v>
       </c>
       <c r="V80">
-        <v>0.000126985713128422</v>
+        <v>5.437498497491191</v>
       </c>
     </row>
     <row r="81" spans="1:22">
@@ -4692,52 +4926,55 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>4.126693259791181E-06</v>
+        <v>3.666367237461606E-06</v>
       </c>
       <c r="C81">
-        <v>0.1270520008640454</v>
+        <v>0.1743270745944639</v>
       </c>
       <c r="D81">
-        <v>0.0007793735327485207</v>
+        <v>0.001195588499331572</v>
       </c>
       <c r="E81">
-        <v>0.1340119959210237</v>
+        <v>0.1827807791967285</v>
       </c>
       <c r="F81">
-        <v>6.493964589195818</v>
+        <v>7.196830557990659</v>
+      </c>
+      <c r="K81">
+        <v>7.538171554357889</v>
       </c>
       <c r="L81">
-        <v>8.125910804646155</v>
+        <v>6.18785078073013</v>
       </c>
       <c r="M81">
-        <v>6.322807919244369</v>
+        <v>7.608642113944032</v>
       </c>
       <c r="N81">
-        <v>8.142766660079754</v>
+        <v>0.06436201184161</v>
       </c>
       <c r="O81">
-        <v>0.073131939253467</v>
+        <v>0.001329548057892647</v>
       </c>
       <c r="P81">
-        <v>0.0006601095970671666</v>
+        <v>0.06487039969514975</v>
       </c>
       <c r="Q81">
-        <v>0.0705640441751431</v>
+        <v>0.003178185102610912</v>
       </c>
       <c r="R81">
-        <v>0.001344526906915853</v>
+        <v>0.001636536528355061</v>
       </c>
       <c r="S81">
-        <v>0.00164054909162845</v>
+        <v>1.334000264593361E-06</v>
       </c>
       <c r="T81">
-        <v>2.09771593134237E-07</v>
+        <v>0.04838185582897812</v>
       </c>
       <c r="U81">
-        <v>0.001973593867033205</v>
+        <v>0.00121862177993004</v>
       </c>
       <c r="V81">
-        <v>0.0001334522736740778</v>
+        <v>5.582956138255049</v>
       </c>
     </row>
     <row r="82" spans="1:22">
@@ -4745,52 +4982,55 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>3.947793784336968E-06</v>
+        <v>3.432248494858325E-06</v>
       </c>
       <c r="C82">
-        <v>0.1333656322306103</v>
+        <v>0.1829836488992206</v>
       </c>
       <c r="D82">
-        <v>0.000854866660387697</v>
+        <v>0.001338477257469145</v>
       </c>
       <c r="E82">
-        <v>0.1406575712302076</v>
+        <v>0.1916444653415857</v>
       </c>
       <c r="F82">
-        <v>6.493934890275729</v>
+        <v>7.196799933597951</v>
+      </c>
+      <c r="K82">
+        <v>7.544537283486512</v>
       </c>
       <c r="L82">
-        <v>8.126319834547489</v>
+        <v>6.219127917630309</v>
       </c>
       <c r="M82">
-        <v>6.331280929123268</v>
+        <v>7.617187028624053</v>
       </c>
       <c r="N82">
-        <v>8.146108076527444</v>
+        <v>0.06751363503079587</v>
       </c>
       <c r="O82">
-        <v>0.07675553073628701</v>
+        <v>0.001436605911117013</v>
       </c>
       <c r="P82">
-        <v>0.0007041457311900477</v>
+        <v>0.0679550104247767</v>
       </c>
       <c r="Q82">
-        <v>0.07402502003855448</v>
+        <v>0.003291062609996654</v>
       </c>
       <c r="R82">
-        <v>0.001419172564904413</v>
+        <v>0.001718296654759584</v>
       </c>
       <c r="S82">
-        <v>0.001722566057630216</v>
+        <v>1.447827707817857E-06</v>
       </c>
       <c r="T82">
-        <v>2.232777972101651E-07</v>
+        <v>0.05074001753143052</v>
       </c>
       <c r="U82">
-        <v>0.002065600946701161</v>
+        <v>0.001314203609405847</v>
       </c>
       <c r="V82">
-        <v>0.0001406263220387805</v>
+        <v>5.741355528787521</v>
       </c>
     </row>
     <row r="83" spans="1:22">
@@ -4798,52 +5038,55 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>3.751641187673917E-06</v>
+        <v>6.291351241329827E-06</v>
       </c>
       <c r="C83">
-        <v>0.1403398830500957</v>
+        <v>0.1925439210908917</v>
       </c>
       <c r="D83">
-        <v>0.000945984751869895</v>
+        <v>0.0008117112023902886</v>
       </c>
       <c r="E83">
-        <v>0.1479631909667244</v>
+        <v>0.2024208813863408</v>
       </c>
       <c r="F83">
-        <v>6.493903848615927</v>
+        <v>9.756799933597952</v>
+      </c>
+      <c r="K83">
+        <v>7.550900570404393</v>
       </c>
       <c r="L83">
-        <v>8.126667786762813</v>
+        <v>6.179494353087749</v>
       </c>
       <c r="M83">
-        <v>6.343589558049066</v>
+        <v>7.627341603637714</v>
       </c>
       <c r="N83">
-        <v>8.149648013308104</v>
+        <v>0.07099137340551581</v>
       </c>
       <c r="O83">
-        <v>0.08075823521023948</v>
+        <v>0.001302256520111553</v>
       </c>
       <c r="P83">
-        <v>0.0007580067336407519</v>
+        <v>0.07135837609923881</v>
       </c>
       <c r="Q83">
-        <v>0.07784638043190449</v>
+        <v>0.003153076126611947</v>
       </c>
       <c r="R83">
-        <v>0.00150508092372273</v>
+        <v>0.001808657119341256</v>
       </c>
       <c r="S83">
-        <v>0.001813215677621427</v>
+        <v>8.040281565363391E-07</v>
       </c>
       <c r="T83">
-        <v>2.393885564711783E-07</v>
+        <v>0.05334137615890551</v>
       </c>
       <c r="U83">
-        <v>0.00216691540063076</v>
+        <v>0.001221113227900028</v>
       </c>
       <c r="V83">
-        <v>0.000148637247541593</v>
+        <v>5.879985552047518</v>
       </c>
     </row>
     <row r="84" spans="1:22">
@@ -4851,52 +5094,55 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>3.535788984904752E-06</v>
+        <v>5.990787608053459E-06</v>
       </c>
       <c r="C84">
-        <v>0.1480839885111082</v>
+        <v>0.2031957105291418</v>
       </c>
       <c r="D84">
-        <v>0.001058024859628796</v>
+        <v>0.0008993270810176971</v>
       </c>
       <c r="E84">
-        <v>0.1560270656396989</v>
+        <v>0.213598795401101</v>
       </c>
       <c r="F84">
-        <v>6.493871306359168</v>
+        <v>9.756799933597952</v>
+      </c>
+      <c r="K84">
+        <v>7.557227167922052</v>
       </c>
       <c r="L84">
-        <v>8.126930254156676</v>
+        <v>6.207925344720357</v>
       </c>
       <c r="M84">
-        <v>6.340313569498739</v>
+        <v>7.635858327981956</v>
       </c>
       <c r="N84">
-        <v>8.142438347297515</v>
+        <v>0.0748629910102605</v>
       </c>
       <c r="O84">
-        <v>0.0852026923478283</v>
+        <v>0.001401704701205367</v>
       </c>
       <c r="P84">
-        <v>0.0008190282101195095</v>
+        <v>0.07514755943105142</v>
       </c>
       <c r="Q84">
-        <v>0.08208756373791461</v>
+        <v>0.003263941423773942</v>
       </c>
       <c r="R84">
-        <v>0.001631114765882219</v>
+        <v>0.001909093402184852</v>
       </c>
       <c r="S84">
-        <v>0.00191393658256948</v>
+        <v>8.654290457947012E-07</v>
       </c>
       <c r="T84">
-        <v>7.054500129394654E-08</v>
+        <v>0.05623694632173915</v>
       </c>
       <c r="U84">
-        <v>0.002279041964691269</v>
+        <v>0.001313387042031489</v>
       </c>
       <c r="V84">
-        <v>0.0001539225740444493</v>
+        <v>6.030851579684334</v>
       </c>
     </row>
     <row r="85" spans="1:22">
@@ -4904,52 +5150,55 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>3.297363127546405E-06</v>
+        <v>5.657678880057626E-06</v>
       </c>
       <c r="C85">
-        <v>0.1567325746082541</v>
+        <v>0.2150954977907962</v>
       </c>
       <c r="D85">
-        <v>0.001198944237553557</v>
+        <v>0.001007419415846917</v>
       </c>
       <c r="E85">
-        <v>0.1649667371494565</v>
+        <v>0.2260234301697787</v>
       </c>
       <c r="F85">
-        <v>6.493837076411552</v>
+        <v>9.756799933597952</v>
+      </c>
+      <c r="K85">
+        <v>7.563547837798935</v>
       </c>
       <c r="L85">
-        <v>8.127314038636326</v>
+        <v>6.240701901086947</v>
       </c>
       <c r="M85">
-        <v>6.364163212021526</v>
+        <v>7.645333990882133</v>
       </c>
       <c r="N85">
-        <v>8.146993547972198</v>
+        <v>0.07918424314608728</v>
       </c>
       <c r="O85">
-        <v>0.0901664372971053</v>
+        <v>0.001518171499225722</v>
       </c>
       <c r="P85">
-        <v>0.0009039056369481831</v>
+        <v>0.07937600754912658</v>
       </c>
       <c r="Q85">
-        <v>0.0868202960303871</v>
+        <v>0.003384312826443813</v>
       </c>
       <c r="R85">
-        <v>0.001750471798470428</v>
+        <v>0.002021342106487149</v>
       </c>
       <c r="S85">
-        <v>0.00202651693772055</v>
+        <v>9.344629450520178E-07</v>
       </c>
       <c r="T85">
-        <v>7.574257393722139E-08</v>
+        <v>0.05946774392642784</v>
       </c>
       <c r="U85">
-        <v>0.002404048987670494</v>
+        <v>0.001421056183925698</v>
       </c>
       <c r="V85">
-        <v>0.0001641681603722538</v>
+        <v>6.196084515556937</v>
       </c>
     </row>
     <row r="86" spans="1:22">
@@ -4957,52 +5206,55 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>3.032996486662075E-06</v>
+        <v>5.286765471928643E-06</v>
       </c>
       <c r="C86">
-        <v>0.1664534265064228</v>
+        <v>0.2284760026892304</v>
       </c>
       <c r="D86">
-        <v>0.001381246697488442</v>
+        <v>0.001143954137989683</v>
       </c>
       <c r="E86">
-        <v>0.1749237645390808</v>
+        <v>0.2399049978882364</v>
       </c>
       <c r="F86">
-        <v>6.493800934852537</v>
+        <v>9.756799933597952</v>
+      </c>
+      <c r="K86">
+        <v>7.569808915370543</v>
       </c>
       <c r="L86">
-        <v>8.127549406346217</v>
+        <v>6.276066925542237</v>
       </c>
       <c r="M86">
-        <v>6.39562362153026</v>
+        <v>7.655030844729019</v>
       </c>
       <c r="N86">
-        <v>8.152365052457899</v>
+        <v>0.08403837262401607</v>
       </c>
       <c r="O86">
-        <v>0.09574534552586506</v>
+        <v>0.001654025570332696</v>
       </c>
       <c r="P86">
-        <v>0.001013978580314961</v>
+        <v>0.0841254884692942</v>
       </c>
       <c r="Q86">
-        <v>0.09213716004488183</v>
+        <v>0.003523377492354194</v>
       </c>
       <c r="R86">
-        <v>0.001895032140151825</v>
+        <v>0.002147617584208529</v>
       </c>
       <c r="S86">
-        <v>0.002153169512417212</v>
+        <v>1.021301030906077E-06</v>
       </c>
       <c r="T86">
-        <v>8.986836490663779E-08</v>
+        <v>0.06309566191033419</v>
       </c>
       <c r="U86">
-        <v>0.002544041539376633</v>
+        <v>0.001545967931223793</v>
       </c>
       <c r="V86">
-        <v>0.0001761771047015405</v>
+        <v>6.378019482248932</v>
       </c>
     </row>
     <row r="87" spans="1:22">
@@ -5010,52 +5262,55 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>2.738782683614951E-06</v>
+        <v>4.871710885682768E-06</v>
       </c>
       <c r="C87">
-        <v>0.1774582384936851</v>
+        <v>0.2436314725926464</v>
       </c>
       <c r="D87">
-        <v>0.00162571490575586</v>
+        <v>0.00132158208592949</v>
       </c>
       <c r="E87">
-        <v>0.1860697841840848</v>
+        <v>0.2555010465291208</v>
       </c>
       <c r="F87">
-        <v>6.493762610741083</v>
+        <v>9.756799933597952</v>
+      </c>
+      <c r="K87">
+        <v>7.575983099517045</v>
       </c>
       <c r="L87">
-        <v>8.127587690691939</v>
+        <v>6.314613106464528</v>
       </c>
       <c r="M87">
-        <v>6.434083595468493</v>
+        <v>7.66495210620316</v>
       </c>
       <c r="N87">
-        <v>8.15744830207127</v>
+        <v>0.08953066242759497</v>
       </c>
       <c r="O87">
-        <v>0.1020607699889017</v>
+        <v>0.001815221905444978</v>
       </c>
       <c r="P87">
-        <v>0.001159957929103062</v>
+        <v>0.08949896253442353</v>
       </c>
       <c r="Q87">
-        <v>0.09815330190519717</v>
+        <v>0.003686963646081895</v>
       </c>
       <c r="R87">
-        <v>0.002079572276546766</v>
+        <v>0.002290724003087037</v>
       </c>
       <c r="S87">
-        <v>0.002296708155354033</v>
+        <v>1.133932911612215E-06</v>
       </c>
       <c r="T87">
-        <v>9.968637330091478E-08</v>
+        <v>0.0671989748422749</v>
       </c>
       <c r="U87">
-        <v>0.002701899168354973</v>
+        <v>0.001693187498423165</v>
       </c>
       <c r="V87">
-        <v>0.0001899922752853543</v>
+        <v>6.579708209669374</v>
       </c>
     </row>
     <row r="88" spans="1:22">
@@ -5063,52 +5318,55 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>2.408116588122959E-06</v>
+        <v>4.404887174543334E-06</v>
       </c>
       <c r="C88">
-        <v>0.1900177044642515</v>
+        <v>0.2609393219145548</v>
       </c>
       <c r="D88">
-        <v>0.001971157304965443</v>
+        <v>0.001561633447052779</v>
       </c>
       <c r="E88">
-        <v>0.1986064764386453</v>
+        <v>0.273129700650396</v>
       </c>
       <c r="F88">
-        <v>6.491683158854656</v>
+        <v>9.756799933597952</v>
+      </c>
+      <c r="K88">
+        <v>7.582036155586094</v>
       </c>
       <c r="L88">
-        <v>8.127394791715538</v>
+        <v>6.357292922724444</v>
       </c>
       <c r="M88">
-        <v>6.483215691100133</v>
+        <v>7.675113588455166</v>
       </c>
       <c r="N88">
-        <v>8.162838863087108</v>
+        <v>0.09579605103631997</v>
       </c>
       <c r="O88">
-        <v>0.1092679708503159</v>
+        <v>0.002011085683913452</v>
       </c>
       <c r="P88">
-        <v>0.001363285888860832</v>
+        <v>0.09562839102644795</v>
       </c>
       <c r="Q88">
-        <v>0.1050157111643865</v>
+        <v>0.003884085583489582</v>
       </c>
       <c r="R88">
-        <v>0.002324673799958022</v>
+        <v>0.002454266150956711</v>
       </c>
       <c r="S88">
-        <v>0.002460751617424085</v>
+        <v>1.285730509347414E-06</v>
       </c>
       <c r="T88">
-        <v>1.135194708763895E-07</v>
+        <v>0.07187795965255002</v>
       </c>
       <c r="U88">
-        <v>0.002881321089288517</v>
+        <v>0.001870529893246895</v>
       </c>
       <c r="V88">
-        <v>0.0002065772992910169</v>
+        <v>6.805320693860327</v>
       </c>
     </row>
     <row r="89" spans="1:22">
@@ -5116,52 +5374,55 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>3.315209834863382E-06</v>
+        <v>3.875771049880031E-06</v>
       </c>
       <c r="C89">
-        <v>0.2044828234765042</v>
+        <v>0.2808914517966704</v>
       </c>
       <c r="D89">
-        <v>0.001608291800148229</v>
+        <v>0.00190364696042735</v>
       </c>
       <c r="E89">
-        <v>0.2121027565921554</v>
+        <v>0.2931827538856718</v>
       </c>
       <c r="F89">
-        <v>7.520435995417494</v>
+        <v>9.755513661291641</v>
+      </c>
+      <c r="K89">
+        <v>7.587929862496999</v>
       </c>
       <c r="L89">
-        <v>8.126920985365865</v>
+        <v>6.405673287697838</v>
       </c>
       <c r="M89">
-        <v>6.389017176745206</v>
+        <v>7.685526511578733</v>
       </c>
       <c r="N89">
-        <v>8.167624865964763</v>
+        <v>0.1030102791403512</v>
       </c>
       <c r="O89">
-        <v>0.1175683312319663</v>
+        <v>0.002257588026475832</v>
       </c>
       <c r="P89">
-        <v>0.001138098318008642</v>
+        <v>0.1026856452912909</v>
       </c>
       <c r="Q89">
-        <v>0.112915021730881</v>
+        <v>0.004130350235771223</v>
       </c>
       <c r="R89">
-        <v>0.002139309284796782</v>
+        <v>0.002642956952529585</v>
       </c>
       <c r="S89">
-        <v>0.002650031471112794</v>
+        <v>1.501630658339605E-06</v>
       </c>
       <c r="T89">
-        <v>8.291686666694312E-08</v>
+        <v>0.07726314655711181</v>
       </c>
       <c r="U89">
-        <v>0.003087070611596017</v>
+        <v>0.002091157239719172</v>
       </c>
       <c r="V89">
-        <v>0.0002119706848246939</v>
+        <v>7.060933005131293</v>
       </c>
     </row>
     <row r="90" spans="1:22">
@@ -5169,52 +5430,55 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>2.866598329434808E-06</v>
+        <v>3.276674500287508E-06</v>
       </c>
       <c r="C90">
-        <v>0.2213890344495339</v>
+        <v>0.304140435533024</v>
       </c>
       <c r="D90">
-        <v>0.002005951287677473</v>
+        <v>0.002425354810428262</v>
       </c>
       <c r="E90">
-        <v>0.2290196350691164</v>
+        <v>0.3161678838858301</v>
       </c>
       <c r="F90">
-        <v>7.520395960199567</v>
+        <v>9.755472395469841</v>
+      </c>
+      <c r="K90">
+        <v>7.593592438498208</v>
       </c>
       <c r="L90">
-        <v>8.126033661894137</v>
+        <v>6.462337248640912</v>
       </c>
       <c r="M90">
-        <v>6.45847637100811</v>
+        <v>7.696179412524662</v>
       </c>
       <c r="N90">
-        <v>8.1811400770102</v>
+        <v>0.1114063367331742</v>
       </c>
       <c r="O90">
-        <v>0.1272708506414628</v>
+        <v>0.002584281047121596</v>
       </c>
       <c r="P90">
-        <v>0.001372367621627185</v>
+        <v>0.1108985865459176</v>
       </c>
       <c r="Q90">
-        <v>0.122146331101388</v>
+        <v>0.00445520282273257</v>
       </c>
       <c r="R90">
-        <v>0.002396419498019686</v>
+        <v>0.002863078229352189</v>
       </c>
       <c r="S90">
-        <v>0.002870860517299971</v>
+        <v>1.830237169961188E-06</v>
       </c>
       <c r="T90">
-        <v>2.65501528908547E-07</v>
+        <v>0.08352747900022786</v>
       </c>
       <c r="U90">
-        <v>0.003326662272160294</v>
+        <v>0.002379075397947919</v>
       </c>
       <c r="V90">
-        <v>0.0002366494949381904</v>
+        <v>7.356127301710136</v>
       </c>
     </row>
     <row r="91" spans="1:22">
@@ -5222,52 +5486,55 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>2.352100705123934E-06</v>
+        <v>2.595321071314463E-06</v>
       </c>
       <c r="C91">
-        <v>0.2413329511006118</v>
+        <v>0.3315690792350781</v>
       </c>
       <c r="D91">
-        <v>0.002649399479634363</v>
+        <v>0.003312573585101316</v>
       </c>
       <c r="E91">
-        <v>0.2486681276360879</v>
+        <v>0.3427200755864095</v>
       </c>
       <c r="F91">
-        <v>7.520352457345834</v>
+        <v>9.755427559788039</v>
+      </c>
+      <c r="K91">
+        <v>7.598975516530905</v>
       </c>
       <c r="L91">
-        <v>8.124521648691273</v>
+        <v>6.533082058079142</v>
       </c>
       <c r="M91">
-        <v>6.534000499825467</v>
+        <v>7.707136954640711</v>
       </c>
       <c r="N91">
-        <v>8.188050590112915</v>
+        <v>0.1212992508864517</v>
       </c>
       <c r="O91">
-        <v>0.1387161672796297</v>
+        <v>0.003058514890796761</v>
       </c>
       <c r="P91">
-        <v>0.0017322770500382</v>
+        <v>0.1205752577934798</v>
       </c>
       <c r="Q91">
-        <v>0.1330326867016942</v>
+        <v>0.004924844228869201</v>
       </c>
       <c r="R91">
-        <v>0.002811721025785781</v>
+        <v>0.003123191683186937</v>
       </c>
       <c r="S91">
-        <v>0.003131823700551886</v>
+        <v>2.387884321913314E-06</v>
       </c>
       <c r="T91">
-        <v>3.29708946738628E-07</v>
+        <v>0.09090460660043514</v>
       </c>
       <c r="U91">
-        <v>0.003607572524635031</v>
+        <v>0.002788290225900269</v>
       </c>
       <c r="V91">
-        <v>0.000264007240216999</v>
+        <v>7.708467380081009</v>
       </c>
     </row>
     <row r="92" spans="1:22">
@@ -5275,52 +5542,55 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1.762993883668841E-06</v>
+        <v>1.826181968391339E-06</v>
       </c>
       <c r="C92">
-        <v>0.2652013062627095</v>
+        <v>0.3643947298000758</v>
       </c>
       <c r="D92">
-        <v>0.003848747082433465</v>
+        <v>0.005112362917488122</v>
       </c>
       <c r="E92">
-        <v>0.2717254768936651</v>
+        <v>0.3736913197192783</v>
       </c>
       <c r="F92">
-        <v>7.520304750295988</v>
+        <v>9.755378396901541</v>
+      </c>
+      <c r="K92">
+        <v>7.603962081625794</v>
       </c>
       <c r="L92">
-        <v>8.122505973685684</v>
+        <v>6.63144390956782</v>
       </c>
       <c r="M92">
-        <v>6.64261173172596</v>
+        <v>7.718395388193678</v>
       </c>
       <c r="N92">
-        <v>8.195561688831733</v>
+        <v>0.1331233244860172</v>
       </c>
       <c r="O92">
-        <v>0.1524145563025888</v>
+        <v>0.003871364183386268</v>
       </c>
       <c r="P92">
-        <v>0.00238334701494148</v>
+        <v>0.1321402991499409</v>
       </c>
       <c r="Q92">
-        <v>0.1460547832692851</v>
+        <v>0.005730087914544374</v>
       </c>
       <c r="R92">
-        <v>0.003528582377107043</v>
+        <v>0.003435272063073439</v>
       </c>
       <c r="S92">
-        <v>0.003444973099712402</v>
+        <v>3.51611042521387E-06</v>
       </c>
       <c r="T92">
-        <v>4.480044483227664E-07</v>
+        <v>0.09971623823788862</v>
       </c>
       <c r="U92">
-        <v>0.003941929053076836</v>
+        <v>0.003470333369023242</v>
       </c>
       <c r="V92">
-        <v>0.0003023292870050097</v>
+        <v>8.158075879567861</v>
       </c>
     </row>
     <row r="93" spans="1:22">
@@ -5328,52 +5598,55 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1.106118126522966E-06</v>
+        <v>1.002669178581497E-06</v>
       </c>
       <c r="C93">
-        <v>0.2942404795049625</v>
+        <v>0.4043149927870301</v>
       </c>
       <c r="D93">
-        <v>0.006697339561931671</v>
+        <v>0.01011288299764739</v>
       </c>
       <c r="E93">
-        <v>0.2991587958956072</v>
+        <v>0.4104238221347139</v>
       </c>
       <c r="F93">
-        <v>7.520251847067811</v>
+        <v>9.755323887197738</v>
+      </c>
+      <c r="K93">
+        <v>7.608420594595635</v>
       </c>
       <c r="L93">
-        <v>8.119902691232165</v>
+        <v>6.797962907518953</v>
       </c>
       <c r="M93">
-        <v>6.817280590038831</v>
+        <v>7.730105375373474</v>
       </c>
       <c r="N93">
-        <v>8.203856535653898</v>
+        <v>0.1474846534085318</v>
       </c>
       <c r="O93">
-        <v>0.169084690667883</v>
+        <v>0.005808766024311645</v>
       </c>
       <c r="P93">
-        <v>0.003892608192458351</v>
+        <v>0.1461858781760961</v>
       </c>
       <c r="Q93">
-        <v>0.1618910278128604</v>
+        <v>0.007655189260319908</v>
       </c>
       <c r="R93">
-        <v>0.005120978748718979</v>
+        <v>0.003816578280034354</v>
       </c>
       <c r="S93">
-        <v>0.0038276981102973</v>
+        <v>6.626786133477759E-06</v>
       </c>
       <c r="T93">
-        <v>7.246384570203588E-07</v>
+        <v>0.1104102276677626</v>
       </c>
       <c r="U93">
-        <v>0.004346329027084817</v>
+        <v>0.005044607823884827</v>
       </c>
       <c r="V93">
-        <v>0.0003677530327005561</v>
+        <v>8.83766201370789</v>
       </c>
     </row>
     <row r="94" spans="1:22">
@@ -5381,52 +5654,55 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>4.878759371551765E-07</v>
+        <v>3.673034428752686E-07</v>
       </c>
       <c r="C94">
-        <v>0.3301833719978414</v>
+        <v>0.453590256510703</v>
       </c>
       <c r="D94">
-        <v>0.01642558120491925</v>
+        <v>0.0294338872277478</v>
       </c>
       <c r="E94">
-        <v>0.3327953334223859</v>
+        <v>0.4562466829622192</v>
       </c>
       <c r="F94">
-        <v>7.520192369533492</v>
+        <v>9.755262614777383</v>
+      </c>
+      <c r="K94">
+        <v>7.612101875997084</v>
       </c>
       <c r="L94">
-        <v>8.116689741723659</v>
+        <v>7.10490887061362</v>
       </c>
       <c r="M94">
-        <v>7.117363733423725</v>
+        <v>7.743352531663108</v>
       </c>
       <c r="N94">
-        <v>8.209419489819277</v>
+        <v>0.1651941393315593</v>
       </c>
       <c r="O94">
-        <v>0.1897337009773111</v>
+        <v>0.01266566040404288</v>
       </c>
       <c r="P94">
-        <v>0.00898194293950607</v>
+        <v>0.1635022142905682</v>
       </c>
       <c r="Q94">
-        <v>0.1814872839458782</v>
+        <v>0.0144803212571772</v>
       </c>
       <c r="R94">
-        <v>0.0103407868961142</v>
+        <v>0.004292822216771964</v>
       </c>
       <c r="S94">
-        <v>0.004306069794277335</v>
+        <v>1.825071255362819E-05</v>
       </c>
       <c r="T94">
-        <v>6.193741806136745E-07</v>
+        <v>0.1235809301482473</v>
       </c>
       <c r="U94">
-        <v>0.004843651026382851</v>
+        <v>0.01049614613419114</v>
       </c>
       <c r="V94">
-        <v>0.0005317067984479465</v>
+        <v>10.32393987900299</v>
       </c>
     </row>
     <row r="95" spans="1:22">
@@ -5434,52 +5710,55 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1.836592316430773E-07</v>
+        <v>1.495864703923502E-07</v>
       </c>
       <c r="C95">
-        <v>0.3750059135396874</v>
+        <v>0.5141840235511252</v>
       </c>
       <c r="D95">
-        <v>0.04559186446216607</v>
+        <v>0.0746421072305388</v>
       </c>
       <c r="E95">
-        <v>0.3761629973597871</v>
+        <v>0.5154415293885972</v>
       </c>
       <c r="F95">
-        <v>7.517993619112675</v>
+        <v>9.752995444264625</v>
+      </c>
+      <c r="K95">
+        <v>7.614409900822652</v>
       </c>
       <c r="L95">
-        <v>8.113327661356223</v>
+        <v>7.385123630685741</v>
       </c>
       <c r="M95">
-        <v>7.469219395704042</v>
+        <v>7.759686635612588</v>
       </c>
       <c r="N95">
-        <v>8.225631570574453</v>
+        <v>0.1869839220354903</v>
       </c>
       <c r="O95">
-        <v>0.2155553806969976</v>
+        <v>0.02834092183972345</v>
       </c>
       <c r="P95">
-        <v>0.02421214762123831</v>
+        <v>0.1847910561524812</v>
       </c>
       <c r="Q95">
-        <v>0.2059367835244159</v>
+        <v>0.03006568240843968</v>
       </c>
       <c r="R95">
-        <v>0.02567174444662483</v>
+        <v>0.004903475288803156</v>
       </c>
       <c r="S95">
-        <v>0.004921134140005439</v>
+        <v>4.32046700595784E-05</v>
       </c>
       <c r="T95">
-        <v>2.992469939975442E-06</v>
+        <v>0.1397358992931125</v>
       </c>
       <c r="U95">
-        <v>0.005459643058944982</v>
+        <v>0.02290440621689334</v>
       </c>
       <c r="V95">
-        <v>0.0009786774946437772</v>
+        <v>13.62808557715075</v>
       </c>
     </row>
     <row r="96" spans="1:22">
@@ -5487,52 +5766,55 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>9.690147936427764E-08</v>
+        <v>8.377125759557488E-08</v>
       </c>
       <c r="C96">
-        <v>0.4299082550526078</v>
+        <v>0.5874410096045565</v>
       </c>
       <c r="D96">
-        <v>0.08916598496046101</v>
+        <v>0.1365777195988535</v>
       </c>
       <c r="E96">
-        <v>0.4302759672597742</v>
+        <v>0.5882669154271893</v>
       </c>
       <c r="F96">
-        <v>7.576650079506416</v>
+        <v>9.752801416628238</v>
+      </c>
+      <c r="K96">
+        <v>7.614244320190423</v>
       </c>
       <c r="L96">
-        <v>8.110574164612245</v>
+        <v>7.534801357321773</v>
       </c>
       <c r="M96">
-        <v>7.652302255310548</v>
+        <v>7.777745951841088</v>
       </c>
       <c r="N96">
-        <v>8.241672182894062</v>
+        <v>0.2134244220681182</v>
       </c>
       <c r="O96">
-        <v>0.2474459195429575</v>
+        <v>0.04964263401168511</v>
       </c>
       <c r="P96">
-        <v>0.0468830915478917</v>
+        <v>0.2105786184431549</v>
       </c>
       <c r="Q96">
-        <v>0.2359809567040478</v>
+        <v>0.05121195826632016</v>
       </c>
       <c r="R96">
-        <v>0.04844882525485499</v>
+        <v>0.005713520391927087</v>
       </c>
       <c r="S96">
-        <v>0.005740824418349685</v>
+        <v>7.389381759129403E-05</v>
       </c>
       <c r="T96">
-        <v>5.237753405285398E-06</v>
+        <v>0.1592078148058158</v>
       </c>
       <c r="U96">
-        <v>0.006206470652995184</v>
+        <v>0.03977447128361079</v>
       </c>
       <c r="V96">
-        <v>0.00162722157238193</v>
+        <v>19.35073854112465</v>
       </c>
     </row>
     <row r="97" spans="1:22">
@@ -5540,211 +5822,55 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5.927476265671829E-08</v>
+        <v>5.483714320002093E-08</v>
       </c>
       <c r="C97">
-        <v>0.4980567090710373</v>
+        <v>0.6776136676056957</v>
       </c>
       <c r="D97">
-        <v>0.1491950636350748</v>
+        <v>0.2143078409282591</v>
       </c>
       <c r="E97">
-        <v>0.4983266067271807</v>
+        <v>0.6782647995492717</v>
       </c>
       <c r="F97">
-        <v>7.576571305503218</v>
+        <v>9.752567415975777</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>8.10915261058506</v>
+        <v>0</v>
       </c>
       <c r="M97">
-        <v>7.745313770786002</v>
+        <v>0</v>
       </c>
       <c r="N97">
-        <v>8.26091317391114</v>
+        <v>0.2461807796794043</v>
       </c>
       <c r="O97">
-        <v>0.2875584851419707</v>
+        <v>0</v>
       </c>
       <c r="P97">
-        <v>0.07801084100329617</v>
+        <v>0.2424519504785214</v>
       </c>
       <c r="Q97">
-        <v>0.2734873829938865</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>0.07968047638180524</v>
+        <v>0.006841445706794232</v>
       </c>
       <c r="S97">
-        <v>0.006887941751338568</v>
+        <v>0</v>
       </c>
       <c r="T97">
-        <v>7.834647967480258E-06</v>
+        <v>0.1830944835102564</v>
       </c>
       <c r="U97">
-        <v>0.007122320469117837</v>
+        <v>0</v>
       </c>
       <c r="V97">
-        <v>0.002504953126558382</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22">
-      <c r="A98">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>4.005672132692837E-08</v>
-      </c>
-      <c r="C98">
-        <v>0.5852721204300266</v>
-      </c>
-      <c r="D98">
-        <v>0.2268152744586899</v>
-      </c>
-      <c r="E98">
-        <v>0.5854996898429189</v>
-      </c>
-      <c r="F98">
-        <v>7.576472015102284</v>
-      </c>
-      <c r="L98">
-        <v>8.10996923744513</v>
-      </c>
-      <c r="M98">
-        <v>7.785844149584617</v>
-      </c>
-      <c r="N98">
-        <v>8.283545794834001</v>
-      </c>
-      <c r="O98">
-        <v>0.3399453961766386</v>
-      </c>
-      <c r="P98">
-        <v>0.1181838552554137</v>
-      </c>
-      <c r="Q98">
-        <v>0.3219391096469061</v>
-      </c>
-      <c r="R98">
-        <v>0.1199571694167141</v>
-      </c>
-      <c r="S98">
-        <v>0.00860796852718132</v>
-      </c>
-      <c r="T98">
-        <v>1.069369052284464E-05</v>
-      </c>
-      <c r="U98">
-        <v>0.008276662304757681</v>
-      </c>
-      <c r="V98">
-        <v>0.003622600936841786</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22">
-      <c r="A99">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>2.819666504086456E-08</v>
-      </c>
-      <c r="C99">
-        <v>0.7047577357538056</v>
-      </c>
-      <c r="D99">
-        <v>0.3336077071887214</v>
-      </c>
-      <c r="E99">
-        <v>0.7049707065827682</v>
-      </c>
-      <c r="F99">
-        <v>7.576338140532964</v>
-      </c>
-      <c r="L99">
-        <v>8.11421339513041</v>
-      </c>
-      <c r="M99">
-        <v>7.799103292208186</v>
-      </c>
-      <c r="N99">
-        <v>8.310902319056055</v>
-      </c>
-      <c r="O99">
-        <v>0.4138659098170469</v>
-      </c>
-      <c r="P99">
-        <v>0.1735056618934647</v>
-      </c>
-      <c r="Q99">
-        <v>0.3892664230569702</v>
-      </c>
-      <c r="R99">
-        <v>0.1753865720523467</v>
-      </c>
-      <c r="S99">
-        <v>0.01147372680606748</v>
-      </c>
-      <c r="T99">
-        <v>1.419782622898699E-05</v>
-      </c>
-      <c r="U99">
-        <v>0.00982801609406298</v>
-      </c>
-      <c r="V99">
-        <v>0.00512997422845694</v>
-      </c>
-    </row>
-    <row r="100" spans="1:22">
-      <c r="A100">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>1.969598449033754E-08</v>
-      </c>
-      <c r="C100">
-        <v>0.8903327500363478</v>
-      </c>
-      <c r="D100">
-        <v>0.5009939460571975</v>
-      </c>
-      <c r="E100">
-        <v>0.8905545063136351</v>
-      </c>
-      <c r="F100">
-        <v>7.574689480557907</v>
-      </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-      <c r="N100">
-        <v>0</v>
-      </c>
-      <c r="O100">
-        <v>0.5340460337788381</v>
-      </c>
-      <c r="P100">
-        <v>0</v>
-      </c>
-      <c r="Q100">
-        <v>0.4962063485592819</v>
-      </c>
-      <c r="R100">
-        <v>0</v>
-      </c>
-      <c r="S100">
-        <v>0.01720349129598673</v>
-      </c>
-      <c r="T100">
-        <v>0</v>
-      </c>
-      <c r="U100">
-        <v>0.012177037026866</v>
-      </c>
-      <c r="V100">
-        <v>0</v>
+        <v>19.14916834798792</v>
       </c>
     </row>
   </sheetData>

--- a/Wastewater_Effluent_Filtration/Water_Salt_Transport_1.xlsx
+++ b/Wastewater_Effluent_Filtration/Water_Salt_Transport_1.xlsx
@@ -502,73 +502,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.781007843981483E-06</v>
+        <v>5.312586227732173E-06</v>
       </c>
       <c r="C2">
         <v>0.03694686318841234</v>
       </c>
       <c r="D2">
-        <v>0.002666854264914183</v>
+        <v>0.002669913739319391</v>
       </c>
       <c r="E2">
-        <v>0.03842358084078651</v>
+        <v>0.03903952133096326</v>
       </c>
       <c r="F2">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="G2">
-        <v>12.97338205282513</v>
+        <v>18.22849573685846</v>
       </c>
       <c r="H2">
-        <v>13.54415297460067</v>
+        <v>18.83013772705667</v>
       </c>
       <c r="I2">
-        <v>11.16655108278936</v>
+        <v>18.59573787494297</v>
       </c>
       <c r="J2">
-        <v>12.88773081692898</v>
+        <v>21.0112994711963</v>
       </c>
       <c r="K2">
-        <v>8.432695721570733</v>
+        <v>6.987858977128199</v>
       </c>
       <c r="L2">
-        <v>9.080515783576063</v>
+        <v>5.937170349917405</v>
       </c>
       <c r="M2">
-        <v>8.485734641984982</v>
+        <v>7.029903492653528</v>
       </c>
       <c r="N2">
-        <v>0.01751410134214093</v>
+        <v>0.01307673784443165</v>
       </c>
       <c r="O2">
-        <v>0.002469334794511615</v>
+        <v>0.0009826921001400365</v>
       </c>
       <c r="P2">
-        <v>0.01532142861191153</v>
+        <v>0.0153214278143169</v>
       </c>
       <c r="Q2">
-        <v>0.001168167974186373</v>
+        <v>0.003384438828631315</v>
       </c>
       <c r="R2">
-        <v>0.0003443183650554325</v>
+        <v>0.0003443183471323083</v>
       </c>
       <c r="S2">
-        <v>6.38252477327271E-07</v>
+        <v>1.103675618709053E-05</v>
       </c>
       <c r="T2">
-        <v>0.01046677964146964</v>
+        <v>0.01046677909658883</v>
       </c>
       <c r="U2">
-        <v>0.003095887599627727</v>
+        <v>0.002597988032717151</v>
       </c>
       <c r="V2">
-        <v>43.37648115838408</v>
+        <v>36.4004103264</v>
       </c>
       <c r="W2">
-        <v>0.0001643032619751446</v>
+        <v>2.266471536709103E-05</v>
       </c>
       <c r="X2">
-        <v>9.602887005099513E-07</v>
+        <v>1.65060705114359E-06</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -576,61 +576,61 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.775859083124274E-06</v>
+        <v>5.30519744510516E-06</v>
       </c>
       <c r="C3">
-        <v>0.03729312590481132</v>
+        <v>0.03729309500102945</v>
       </c>
       <c r="D3">
-        <v>0.002696040024972294</v>
+        <v>0.002699518053503224</v>
       </c>
       <c r="E3">
-        <v>0.03879485994255467</v>
+        <v>0.0394212521059662</v>
       </c>
       <c r="F3">
-        <v>6.299985244231278</v>
+        <v>6.499985244231278</v>
       </c>
       <c r="K3">
-        <v>8.429997140213414</v>
+        <v>6.989883604509671</v>
       </c>
       <c r="L3">
-        <v>9.099265866067707</v>
+        <v>5.960439604180961</v>
       </c>
       <c r="M3">
-        <v>8.503106024329178</v>
+        <v>7.051185683700241</v>
       </c>
       <c r="N3">
-        <v>0.01766606868100587</v>
+        <v>0.01319889992265682</v>
       </c>
       <c r="O3">
-        <v>0.00253927451534306</v>
+        <v>0.001000397745605885</v>
       </c>
       <c r="P3">
-        <v>0.01546439084057542</v>
+        <v>0.01544200346063695</v>
       </c>
       <c r="Q3">
-        <v>0.001175993758323304</v>
+        <v>0.003317635130712235</v>
       </c>
       <c r="R3">
-        <v>0.0003477898813441002</v>
+        <v>0.0003476848278489267</v>
       </c>
       <c r="S3">
-        <v>4.780341670845899E-07</v>
+        <v>6.157542020116955E-06</v>
       </c>
       <c r="T3">
-        <v>0.01054123309643774</v>
+        <v>0.01054626183460774</v>
       </c>
       <c r="U3">
-        <v>0.003160789073584021</v>
+        <v>0.002622949387475345</v>
       </c>
       <c r="V3">
-        <v>43.8311484341849</v>
+        <v>36.57527709715853</v>
       </c>
       <c r="W3">
-        <v>0.0001660480621038202</v>
+        <v>2.528735698918498E-05</v>
       </c>
       <c r="X3">
-        <v>9.60099799814939E-07</v>
+        <v>1.650505819774516E-06</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -638,61 +638,61 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.770201594134931E-06</v>
+        <v>5.29727916547406E-06</v>
       </c>
       <c r="C4">
-        <v>0.03764615739338111</v>
+        <v>0.03764609068416747</v>
       </c>
       <c r="D4">
-        <v>0.002726146476442495</v>
+        <v>0.002729969540666938</v>
       </c>
       <c r="E4">
-        <v>0.03917338687122555</v>
+        <v>0.03981050997695865</v>
       </c>
       <c r="F4">
-        <v>6.299970413340205</v>
+        <v>6.499970413340205</v>
       </c>
       <c r="K4">
-        <v>8.42711830510591</v>
+        <v>6.991795470274954</v>
       </c>
       <c r="L4">
-        <v>9.096092031518317</v>
+        <v>5.965534442710731</v>
       </c>
       <c r="M4">
-        <v>8.500898725708263</v>
+        <v>7.055091627163093</v>
       </c>
       <c r="N4">
-        <v>0.01782042372351264</v>
+        <v>0.01332337443466754</v>
       </c>
       <c r="O4">
-        <v>0.002554999368244836</v>
+        <v>0.001012147721372887</v>
       </c>
       <c r="P4">
-        <v>0.01561019081080248</v>
+        <v>0.01556572150481986</v>
       </c>
       <c r="Q4">
-        <v>0.001189427526478308</v>
+        <v>0.003328444029804719</v>
       </c>
       <c r="R4">
-        <v>0.000351333879784682</v>
+        <v>0.0003511698001533023</v>
       </c>
       <c r="S4">
-        <v>4.849707965172824E-07</v>
+        <v>6.158017715868232E-06</v>
       </c>
       <c r="T4">
-        <v>0.01061654374973216</v>
+        <v>0.01062711196161929</v>
       </c>
       <c r="U4">
-        <v>0.003180149335637888</v>
+        <v>0.002647091948120434</v>
       </c>
       <c r="V4">
-        <v>44.07312306999741</v>
+        <v>36.74631982647749</v>
       </c>
       <c r="W4">
-        <v>0.0001678268762044348</v>
+        <v>2.792739732508918E-05</v>
       </c>
       <c r="X4">
-        <v>9.598982813574137E-07</v>
+        <v>1.650410226486252E-06</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -700,61 +700,61 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.76443287594991E-06</v>
+        <v>5.289203816502851E-06</v>
       </c>
       <c r="C5">
-        <v>0.03800615750592687</v>
+        <v>0.03800605069595613</v>
       </c>
       <c r="D5">
-        <v>0.002756945404754504</v>
+        <v>0.002761126397460144</v>
       </c>
       <c r="E5">
-        <v>0.03955955504609098</v>
+        <v>0.04020769121616006</v>
       </c>
       <c r="F5">
-        <v>6.299955505877826</v>
+        <v>6.499955505877827</v>
       </c>
       <c r="K5">
-        <v>8.424213867100622</v>
+        <v>6.993723523127549</v>
       </c>
       <c r="L5">
-        <v>9.092928241147906</v>
+        <v>5.970518278196326</v>
       </c>
       <c r="M5">
-        <v>8.498788255872391</v>
+        <v>7.059042738605015</v>
       </c>
       <c r="N5">
-        <v>0.01797779923232983</v>
+        <v>0.0134502942976912</v>
       </c>
       <c r="O5">
-        <v>0.002571202571330204</v>
+        <v>0.001023905809937011</v>
       </c>
       <c r="P5">
-        <v>0.01575885847352747</v>
+        <v>0.01569187900456228</v>
       </c>
       <c r="Q5">
-        <v>0.001203111082930652</v>
+        <v>0.003339553447111499</v>
       </c>
       <c r="R5">
-        <v>0.0003549508788464157</v>
+        <v>0.0003547266226526573</v>
       </c>
       <c r="S5">
-        <v>4.911639675606665E-07</v>
+        <v>6.160360546215602E-06</v>
       </c>
       <c r="T5">
-        <v>0.01069320760967128</v>
+        <v>0.01070938020918114</v>
       </c>
       <c r="U5">
-        <v>0.003200181161835586</v>
+        <v>0.002671738912620793</v>
       </c>
       <c r="V5">
-        <v>44.26427686711766</v>
+        <v>36.9181733460406</v>
       </c>
       <c r="W5">
-        <v>0.0001696421890563866</v>
+        <v>3.061161725451417E-05</v>
       </c>
       <c r="X5">
-        <v>9.596949706970436E-07</v>
+        <v>1.650313823843623E-06</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -762,61 +762,61 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.758549602925159E-06</v>
+        <v>5.280966673077416E-06</v>
       </c>
       <c r="C6">
-        <v>0.03837333679864741</v>
+        <v>0.03837318532406547</v>
       </c>
       <c r="D6">
-        <v>0.002788460988635102</v>
+        <v>0.002793013377107688</v>
       </c>
       <c r="E6">
-        <v>0.0399535990794392</v>
+        <v>0.04061304045906951</v>
       </c>
       <c r="F6">
-        <v>6.299940520350005</v>
+        <v>6.499940520350005</v>
       </c>
       <c r="K6">
-        <v>8.421279936904813</v>
+        <v>6.99566939853886</v>
       </c>
       <c r="L6">
-        <v>9.089725517327732</v>
+        <v>5.975564840217291</v>
       </c>
       <c r="M6">
-        <v>8.49666220564797</v>
+        <v>7.06303576158973</v>
       </c>
       <c r="N6">
-        <v>0.01813828461421524</v>
+        <v>0.01357973584443864</v>
       </c>
       <c r="O6">
-        <v>0.002587758279855659</v>
+        <v>0.001035943750943964</v>
       </c>
       <c r="P6">
-        <v>0.01591048084217953</v>
+        <v>0.0158205490624524</v>
       </c>
       <c r="Q6">
-        <v>0.001217111881650214</v>
+        <v>0.003350915557619211</v>
       </c>
       <c r="R6">
-        <v>0.0003586431675430704</v>
+        <v>0.0003583575212162661</v>
       </c>
       <c r="S6">
-        <v>4.974873804558495E-07</v>
+        <v>6.162312740183024E-06</v>
       </c>
       <c r="T6">
-        <v>0.0107712599685029</v>
+        <v>0.01079310563935364</v>
       </c>
       <c r="U6">
-        <v>0.003220626376942707</v>
+        <v>0.002696906061158849</v>
       </c>
       <c r="V6">
-        <v>44.43626072716298</v>
+        <v>37.0918088414118</v>
       </c>
       <c r="W6">
-        <v>0.0001714951189462016</v>
+        <v>3.334181395235835E-05</v>
       </c>
       <c r="X6">
-        <v>9.594895955833369E-07</v>
+        <v>1.650216530073057E-06</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -824,61 +824,61 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.752548304685015E-06</v>
+        <v>5.272562804183258E-06</v>
       </c>
       <c r="C7">
-        <v>0.03874791443875281</v>
+        <v>0.03874771344982291</v>
       </c>
       <c r="D7">
-        <v>0.002820718549815641</v>
+        <v>0.002825656406647452</v>
       </c>
       <c r="E7">
-        <v>0.0403557632735896</v>
+        <v>0.04102681247611279</v>
       </c>
       <c r="F7">
-        <v>6.299925455215496</v>
+        <v>6.499925455215497</v>
       </c>
       <c r="K7">
-        <v>8.418317147596147</v>
+        <v>6.99763018515777</v>
       </c>
       <c r="L7">
-        <v>9.086489492925962</v>
+        <v>5.980672320485476</v>
       </c>
       <c r="M7">
-        <v>8.494524975554754</v>
+        <v>7.06706839100475</v>
       </c>
       <c r="N7">
-        <v>0.01830197436510324</v>
+        <v>0.01371177576121227</v>
       </c>
       <c r="O7">
-        <v>0.002604691937819818</v>
+        <v>0.00104826828358553</v>
       </c>
       <c r="P7">
-        <v>0.01606514788386931</v>
+        <v>0.01595180836250327</v>
       </c>
       <c r="Q7">
-        <v>0.0012314397207249</v>
+        <v>0.00336254735282872</v>
       </c>
       <c r="R7">
-        <v>0.0003624131220710979</v>
+        <v>0.0003620648392002249</v>
       </c>
       <c r="S7">
-        <v>5.039455042213535E-07</v>
+        <v>6.16388484519626E-06</v>
       </c>
       <c r="T7">
-        <v>0.01085074032209827</v>
+        <v>0.01087832879280832</v>
       </c>
       <c r="U7">
-        <v>0.003241510538031983</v>
+        <v>0.002722610437381</v>
       </c>
       <c r="V7">
-        <v>44.59968463069684</v>
+        <v>37.26758984086737</v>
       </c>
       <c r="W7">
-        <v>0.0001733868227974023</v>
+        <v>3.611827519180218E-05</v>
       </c>
       <c r="X7">
-        <v>9.592822003317304E-07</v>
+        <v>1.650118490742111E-06</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -886,61 +886,61 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.746425374829756E-06</v>
+        <v>5.263987084614076E-06</v>
       </c>
       <c r="C8">
-        <v>0.03913011865033725</v>
+        <v>0.03912986299283542</v>
       </c>
       <c r="D8">
-        <v>0.002853744610274662</v>
+        <v>0.002859082646499555</v>
       </c>
       <c r="E8">
-        <v>0.0407663021323195</v>
+        <v>0.041449272710648</v>
       </c>
       <c r="F8">
-        <v>6.299910308883918</v>
+        <v>6.499910308883918</v>
       </c>
       <c r="K8">
-        <v>8.41532906498265</v>
+        <v>6.999606062451316</v>
       </c>
       <c r="L8">
-        <v>9.083220306688361</v>
+        <v>5.985842194898645</v>
       </c>
       <c r="M8">
-        <v>8.492377361854189</v>
+        <v>7.071141305264862</v>
       </c>
       <c r="N8">
-        <v>0.01846896673135093</v>
+        <v>0.01384649392586787</v>
       </c>
       <c r="O8">
-        <v>0.0026220189396705</v>
+        <v>0.00106089019926583</v>
       </c>
       <c r="P8">
-        <v>0.01622295328986021</v>
+        <v>0.01608573667111683</v>
       </c>
       <c r="Q8">
-        <v>0.001246106291074233</v>
+        <v>0.003374460575603102</v>
       </c>
       <c r="R8">
-        <v>0.0003662632196941498</v>
+        <v>0.0003658510195657039</v>
       </c>
       <c r="S8">
-        <v>5.10541638077788E-07</v>
+        <v>6.165068836924693E-06</v>
       </c>
       <c r="T8">
-        <v>0.01093168957512026</v>
+        <v>0.01096509175403627</v>
       </c>
       <c r="U8">
-        <v>0.003262850307041035</v>
+        <v>0.002748869952920253</v>
       </c>
       <c r="V8">
-        <v>44.75912906230471</v>
+        <v>37.44570799365285</v>
       </c>
       <c r="W8">
-        <v>0.0001753186630675933</v>
+        <v>3.894237599263361E-05</v>
       </c>
       <c r="X8">
-        <v>9.590730345487855E-07</v>
+        <v>1.650019696877434E-06</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -948,61 +948,61 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.740177049928363E-06</v>
+        <v>5.255234165654864E-06</v>
       </c>
       <c r="C9">
-        <v>0.03952018718840244</v>
+        <v>0.03951987138365624</v>
       </c>
       <c r="D9">
-        <v>0.002887566973563727</v>
+        <v>0.002893320573604455</v>
       </c>
       <c r="E9">
-        <v>0.04118548089077703</v>
+        <v>0.04188069783154873</v>
       </c>
       <c r="F9">
-        <v>6.2998950797136</v>
+        <v>6.499895079713601</v>
       </c>
       <c r="K9">
-        <v>8.412305844560731</v>
+        <v>7.001600436244268</v>
       </c>
       <c r="L9">
-        <v>9.079909785144213</v>
+        <v>5.991082123582361</v>
       </c>
       <c r="M9">
-        <v>8.490213291829972</v>
+        <v>7.075260574399484</v>
       </c>
       <c r="N9">
-        <v>0.01863936401943352</v>
+        <v>0.01398397353583133</v>
       </c>
       <c r="O9">
-        <v>0.002639734718644303</v>
+        <v>0.001073821679204729</v>
       </c>
       <c r="P9">
-        <v>0.01638399465543855</v>
+        <v>0.01622241705924064</v>
       </c>
       <c r="Q9">
-        <v>0.001261123977943417</v>
+        <v>0.003386639118981198</v>
       </c>
       <c r="R9">
-        <v>0.0003701960441893763</v>
+        <v>0.0003697186104337552</v>
       </c>
       <c r="S9">
-        <v>5.172877559844406E-07</v>
+        <v>6.16580035316437E-06</v>
       </c>
       <c r="T9">
-        <v>0.01101415021241143</v>
+        <v>0.01105343822501602</v>
       </c>
       <c r="U9">
-        <v>0.003284645907576119</v>
+        <v>0.002775703465142334</v>
       </c>
       <c r="V9">
-        <v>44.91688465589775</v>
+        <v>37.62629215070989</v>
       </c>
       <c r="W9">
-        <v>0.000177291737109009</v>
+        <v>4.1816305304982E-05</v>
       </c>
       <c r="X9">
-        <v>9.588614091192511E-07</v>
+        <v>1.649919978187786E-06</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1010,61 +1010,61 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.733799428547799E-06</v>
+        <v>5.246298500965814E-06</v>
       </c>
       <c r="C10">
-        <v>0.03991836784291154</v>
+        <v>0.03991798606637419</v>
       </c>
       <c r="D10">
-        <v>0.002922214784033476</v>
+        <v>0.002928400043578431</v>
       </c>
       <c r="E10">
-        <v>0.04161357609863675</v>
+        <v>0.04232137634833165</v>
       </c>
       <c r="F10">
-        <v>6.299879766009324</v>
+        <v>6.499879766009324</v>
       </c>
       <c r="K10">
-        <v>8.409253318656097</v>
+        <v>7.003611888744547</v>
       </c>
       <c r="L10">
-        <v>9.076561186138481</v>
+        <v>5.99638868899371</v>
       </c>
       <c r="M10">
-        <v>8.488035683419911</v>
+        <v>7.079423224442695</v>
       </c>
       <c r="N10">
-        <v>0.01881327303357253</v>
+        <v>0.01412430127340336</v>
       </c>
       <c r="O10">
-        <v>0.002657863548547136</v>
+        <v>0.00108707362352205</v>
       </c>
       <c r="P10">
-        <v>0.01654837368454175</v>
+        <v>0.01636193638467824</v>
       </c>
       <c r="Q10">
-        <v>0.001276505842955155</v>
+        <v>0.003399114232039719</v>
       </c>
       <c r="R10">
-        <v>0.0003742142915419132</v>
+        <v>0.000373670271412892</v>
       </c>
       <c r="S10">
-        <v>5.241844141178622E-07</v>
+        <v>6.166098499315412E-06</v>
       </c>
       <c r="T10">
-        <v>0.01109816656355095</v>
+        <v>0.01114341360284073</v>
       </c>
       <c r="U10">
-        <v>0.003306921329500162</v>
+        <v>0.00280313035651169</v>
       </c>
       <c r="V10">
-        <v>45.07426133275652</v>
+        <v>37.80944407008494</v>
       </c>
       <c r="W10">
-        <v>0.0001793075593392348</v>
+        <v>4.474123890346178E-05</v>
       </c>
       <c r="X10">
-        <v>9.586477323059269E-07</v>
+        <v>1.649819405562773E-06</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1072,61 +1072,61 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.727288429329492E-06</v>
+        <v>5.237174288266795E-06</v>
       </c>
       <c r="C11">
-        <v>0.04032491897542669</v>
+        <v>0.04032446503365766</v>
       </c>
       <c r="D11">
-        <v>0.002957718632774329</v>
+        <v>0.002964352398379981</v>
       </c>
       <c r="E11">
-        <v>0.04205087621132753</v>
+        <v>0.04277160922442523</v>
       </c>
       <c r="F11">
-        <v>6.299864366019944</v>
+        <v>6.499864366019944</v>
       </c>
       <c r="K11">
-        <v>8.406169995324717</v>
+        <v>7.005641994430925</v>
       </c>
       <c r="L11">
-        <v>9.073174255372425</v>
+        <v>6.001769440801398</v>
       </c>
       <c r="M11">
-        <v>8.485845037957612</v>
+        <v>7.083635599922228</v>
       </c>
       <c r="N11">
-        <v>0.01899080500593545</v>
+        <v>0.01426756751131415</v>
       </c>
       <c r="O11">
-        <v>0.002676421506433428</v>
+        <v>0.001100660239538175</v>
       </c>
       <c r="P11">
-        <v>0.01671619640807567</v>
+        <v>0.01650438497976218</v>
       </c>
       <c r="Q11">
-        <v>0.001292264391333556</v>
+        <v>0.003411871991841456</v>
       </c>
       <c r="R11">
-        <v>0.0003783207762356252</v>
+        <v>0.0003777087788075467</v>
       </c>
       <c r="S11">
-        <v>5.312358327114392E-07</v>
+        <v>6.165896487706017E-06</v>
       </c>
       <c r="T11">
-        <v>0.01118378464304601</v>
+        <v>0.0112350650670861</v>
       </c>
       <c r="U11">
-        <v>0.003329694559954557</v>
+        <v>0.002831171535931036</v>
       </c>
       <c r="V11">
-        <v>45.2320702474332</v>
+        <v>37.99525410206942</v>
       </c>
       <c r="W11">
-        <v>0.0001813674553115309</v>
+        <v>4.77189542217427E-05</v>
       </c>
       <c r="X11">
-        <v>9.584318996727303E-07</v>
+        <v>1.649717900278454E-06</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1134,61 +1134,61 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.720639793217379E-06</v>
+        <v>5.227855472179249E-06</v>
       </c>
       <c r="C12">
-        <v>0.04074011009034505</v>
+        <v>0.04073957739627185</v>
       </c>
       <c r="D12">
-        <v>0.002994110639756999</v>
+        <v>0.003001210551266684</v>
       </c>
       <c r="E12">
-        <v>0.04249768224108834</v>
+        <v>0.04323171056050166</v>
       </c>
       <c r="F12">
-        <v>6.299848877935857</v>
+        <v>6.499848877935857</v>
       </c>
       <c r="K12">
-        <v>8.403055920344597</v>
+        <v>7.007686959502672</v>
       </c>
       <c r="L12">
-        <v>9.069745500414932</v>
+        <v>6.007213678299281</v>
       </c>
       <c r="M12">
-        <v>8.483640029936121</v>
+        <v>7.0878861779858</v>
       </c>
       <c r="N12">
-        <v>0.01917207593370769</v>
+        <v>0.01441386648100055</v>
       </c>
       <c r="O12">
-        <v>0.002695420132434206</v>
+        <v>0.001114587554741734</v>
       </c>
       <c r="P12">
-        <v>0.01688757343048392</v>
+        <v>0.01664985734629463</v>
       </c>
       <c r="Q12">
-        <v>0.001308415165054204</v>
+        <v>0.003424977171596913</v>
       </c>
       <c r="R12">
-        <v>0.0003825184377956576</v>
+        <v>0.000381837033055545</v>
       </c>
       <c r="S12">
-        <v>5.384487345736439E-07</v>
+        <v>6.165283498526018E-06</v>
       </c>
       <c r="T12">
-        <v>0.01127105231063591</v>
+        <v>0.01132844166187671</v>
       </c>
       <c r="U12">
-        <v>0.003352978785243683</v>
+        <v>0.00285984734796457</v>
       </c>
       <c r="V12">
-        <v>45.39084438494375</v>
+        <v>38.18380565572961</v>
       </c>
       <c r="W12">
-        <v>0.0001834728684338868</v>
+        <v>5.074967839294562E-05</v>
       </c>
       <c r="X12">
-        <v>9.582139144241217E-07</v>
+        <v>1.649615652024866E-06</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1196,61 +1196,61 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.713849108625653E-06</v>
+        <v>5.218335778306087E-06</v>
       </c>
       <c r="C13">
-        <v>0.04116422244372245</v>
+        <v>0.04116360399003596</v>
       </c>
       <c r="D13">
-        <v>0.003031424525146349</v>
+        <v>0.003039009061931639</v>
       </c>
       <c r="E13">
-        <v>0.04295430846337582</v>
+        <v>0.04370200834007085</v>
       </c>
       <c r="F13">
-        <v>6.299833299886311</v>
+        <v>6.499833299886311</v>
       </c>
       <c r="K13">
-        <v>8.39990632941714</v>
+        <v>7.009750829952037</v>
       </c>
       <c r="L13">
-        <v>9.066278679307338</v>
+        <v>6.012734608507815</v>
       </c>
       <c r="M13">
-        <v>8.48142295470784</v>
+        <v>7.092187452945121</v>
       </c>
       <c r="N13">
-        <v>0.01935720689776695</v>
+        <v>0.01456329658129559</v>
       </c>
       <c r="O13">
-        <v>0.002714882949795527</v>
+        <v>0.001128874660355548</v>
       </c>
       <c r="P13">
-        <v>0.0170626201525674</v>
+        <v>0.0167984515055609</v>
       </c>
       <c r="Q13">
-        <v>0.001324969942242492</v>
+        <v>0.003438392088602762</v>
       </c>
       <c r="R13">
-        <v>0.000386810347785108</v>
+        <v>0.000386058063949444</v>
       </c>
       <c r="S13">
-        <v>5.458249240380045E-07</v>
+        <v>6.164146753126983E-06</v>
       </c>
       <c r="T13">
-        <v>0.01136001942889875</v>
+        <v>0.01142359440697685</v>
       </c>
       <c r="U13">
-        <v>0.003376799309747561</v>
+        <v>0.002889181223686955</v>
       </c>
       <c r="V13">
-        <v>45.55096861360452</v>
+        <v>38.37518169484197</v>
       </c>
       <c r="W13">
-        <v>0.000185625368625016</v>
+        <v>5.383654453874586E-05</v>
       </c>
       <c r="X13">
-        <v>9.579934430591998E-07</v>
+        <v>1.649512458502398E-06</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1258,61 +1258,61 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.706911735526285E-06</v>
+        <v>5.208608608229668E-06</v>
       </c>
       <c r="C14">
-        <v>0.04159754969279718</v>
+        <v>0.04159683802330988</v>
       </c>
       <c r="D14">
-        <v>0.003069695759453763</v>
+        <v>0.003077784288035288</v>
       </c>
       <c r="E14">
-        <v>0.04342108311837016</v>
+        <v>0.04418284515197023</v>
       </c>
       <c r="F14">
-        <v>6.299817629936645</v>
+        <v>6.499817629936645</v>
       </c>
       <c r="K14">
-        <v>8.396721819612281</v>
+        <v>7.011831285496882</v>
       </c>
       <c r="L14">
-        <v>9.062764966313123</v>
+        <v>6.018327395525473</v>
       </c>
       <c r="M14">
-        <v>8.479187934021388</v>
+        <v>7.096534182205069</v>
       </c>
       <c r="N14">
-        <v>0.01954632421535753</v>
+        <v>0.01471596046676082</v>
       </c>
       <c r="O14">
-        <v>0.002734809545981608</v>
+        <v>0.001143532359076631</v>
       </c>
       <c r="P14">
-        <v>0.01724145708677564</v>
+        <v>0.01695027036257179</v>
       </c>
       <c r="Q14">
-        <v>0.001341947733389565</v>
+        <v>0.003452157337109034</v>
       </c>
       <c r="R14">
-        <v>0.0003911997173630747</v>
+        <v>0.0003903750402812204</v>
       </c>
       <c r="S14">
-        <v>5.533778093782107E-07</v>
+        <v>6.162515838923417E-06</v>
       </c>
       <c r="T14">
-        <v>0.01145073783934365</v>
+        <v>0.01152057637496878</v>
       </c>
       <c r="U14">
-        <v>0.00340115941063287</v>
+        <v>0.002919196120861473</v>
       </c>
       <c r="V14">
-        <v>45.71271291274088</v>
+        <v>38.56946439903798</v>
       </c>
       <c r="W14">
-        <v>0.0001878265428415688</v>
+        <v>5.698014639705954E-05</v>
       </c>
       <c r="X14">
-        <v>9.577705273728598E-07</v>
+        <v>1.649408435725156E-06</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1320,61 +1320,61 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.699822853931608E-06</v>
+        <v>5.198667105761856E-06</v>
       </c>
       <c r="C15">
-        <v>0.04204039858858274</v>
+        <v>0.04203958576739349</v>
       </c>
       <c r="D15">
-        <v>0.003108961632715905</v>
+        <v>0.003117574459237684</v>
       </c>
       <c r="E15">
-        <v>0.04389834922391744</v>
+        <v>0.04467457905155117</v>
       </c>
       <c r="F15">
-        <v>6.299801866085219</v>
+        <v>6.499801866085219</v>
       </c>
       <c r="K15">
-        <v>8.393508060802313</v>
+        <v>7.013931435000549</v>
       </c>
       <c r="L15">
-        <v>9.059216013739878</v>
+        <v>6.02400087120493</v>
       </c>
       <c r="M15">
-        <v>8.476945693143792</v>
+        <v>7.100932646124169</v>
       </c>
       <c r="N15">
-        <v>0.01973956001615496</v>
+        <v>0.0148719653875388</v>
       </c>
       <c r="O15">
-        <v>0.002755251471417171</v>
+        <v>0.001158577575675351</v>
       </c>
       <c r="P15">
-        <v>0.01742421006784904</v>
+        <v>0.01710542108700239</v>
       </c>
       <c r="Q15">
-        <v>0.001359359872860285</v>
+        <v>0.003466262061333695</v>
       </c>
       <c r="R15">
-        <v>0.0003956899051740366</v>
+        <v>0.0003947912761943502</v>
       </c>
       <c r="S15">
-        <v>5.610986247962553E-07</v>
+        <v>6.160329508285298E-06</v>
       </c>
       <c r="T15">
-        <v>0.01154326172932883</v>
+        <v>0.01161944281467116</v>
       </c>
       <c r="U15">
-        <v>0.003426108714523239</v>
+        <v>0.00294991708851586</v>
       </c>
       <c r="V15">
-        <v>45.87631979034403</v>
+        <v>38.76673753676353</v>
       </c>
       <c r="W15">
-        <v>0.0001900781418041623</v>
+        <v>6.018328004687093E-05</v>
       </c>
       <c r="X15">
-        <v>9.575455642561619E-07</v>
+        <v>1.649303428249973E-06</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1382,61 +1382,61 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.692577432281174E-06</v>
+        <v>5.188504112894771E-06</v>
       </c>
       <c r="C16">
-        <v>0.04249308971597654</v>
+        <v>0.04249216729423252</v>
       </c>
       <c r="D16">
-        <v>0.003149261388630582</v>
+        <v>0.003158419814414478</v>
       </c>
       <c r="E16">
-        <v>0.04438646540285668</v>
+        <v>0.0451775844229731</v>
       </c>
       <c r="F16">
-        <v>6.299786006260305</v>
+        <v>6.499786006260305</v>
       </c>
       <c r="K16">
-        <v>8.390256948309998</v>
+        <v>7.016046989022652</v>
       </c>
       <c r="L16">
-        <v>9.055617295202557</v>
+        <v>6.029748476427755</v>
       </c>
       <c r="M16">
-        <v>8.474683921283388</v>
+        <v>7.105377644850707</v>
       </c>
       <c r="N16">
-        <v>0.01993705197597749</v>
+        <v>0.01503142338535116</v>
       </c>
       <c r="O16">
-        <v>0.002776190060655288</v>
+        <v>0.001174022415586028</v>
       </c>
       <c r="P16">
-        <v>0.01761101065151171</v>
+        <v>0.01726401595939389</v>
       </c>
       <c r="Q16">
-        <v>0.001377228807931831</v>
+        <v>0.003480748239858527</v>
       </c>
       <c r="R16">
-        <v>0.0004002844261804232</v>
+        <v>0.0003993102406906998</v>
       </c>
       <c r="S16">
-        <v>5.690098484716999E-07</v>
+        <v>6.157618370954206E-06</v>
       </c>
       <c r="T16">
-        <v>0.01163764722950099</v>
+        <v>0.01172025125334739</v>
       </c>
       <c r="U16">
-        <v>0.003451634986659051</v>
+        <v>0.002981369566528374</v>
       </c>
       <c r="V16">
-        <v>46.04195565752643</v>
+        <v>38.96708630075457</v>
       </c>
       <c r="W16">
-        <v>0.0001923818209434615</v>
+        <v>6.344650315398677E-05</v>
       </c>
       <c r="X16">
-        <v>9.573179863816999E-07</v>
+        <v>1.649197650548867E-06</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -1444,61 +1444,61 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.685170196794845E-06</v>
+        <v>5.178112126911051E-06</v>
       </c>
       <c r="C17">
-        <v>0.04295595828453355</v>
+        <v>0.04295491726458332</v>
       </c>
       <c r="D17">
-        <v>0.003190636368057914</v>
+        <v>0.003200362748583407</v>
       </c>
       <c r="E17">
-        <v>0.0448858067665571</v>
+        <v>0.04569225289974784</v>
       </c>
       <c r="F17">
-        <v>6.29977004831674</v>
+        <v>6.49977004831674</v>
       </c>
       <c r="K17">
-        <v>8.386969115230411</v>
+        <v>7.01818403087824</v>
       </c>
       <c r="L17">
-        <v>9.051975022395508</v>
+        <v>6.035581931111322</v>
       </c>
       <c r="M17">
-        <v>8.472408890903683</v>
+        <v>7.10987762865105</v>
       </c>
       <c r="N17">
-        <v>0.02013894446909893</v>
+        <v>0.01519445163205428</v>
       </c>
       <c r="O17">
-        <v>0.002797664632643171</v>
+        <v>0.0011898870639591</v>
       </c>
       <c r="P17">
-        <v>0.0178019963202597</v>
+        <v>0.01742617205021195</v>
       </c>
       <c r="Q17">
-        <v>0.00139556869776346</v>
+        <v>0.003495598683112908</v>
       </c>
       <c r="R17">
-        <v>0.0004049869604902108</v>
+        <v>0.0004039355656591674</v>
       </c>
       <c r="S17">
-        <v>5.7710892553083E-07</v>
+        <v>6.154298209371506E-06</v>
       </c>
       <c r="T17">
-        <v>0.01173395325588736</v>
+        <v>0.0118230616261335</v>
       </c>
       <c r="U17">
-        <v>0.003477777858360341</v>
+        <v>0.003013581175172438</v>
       </c>
       <c r="V17">
-        <v>46.20978002727396</v>
+        <v>39.17059877229122</v>
       </c>
       <c r="W17">
-        <v>0.0001947394727339999</v>
+        <v>6.677337402780773E-05</v>
       </c>
       <c r="X17">
-        <v>9.570878380661288E-07</v>
+        <v>1.649090798456088E-06</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -1506,61 +1506,61 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.677595652354978E-06</v>
+        <v>5.167483328654924E-06</v>
       </c>
       <c r="C18">
-        <v>0.04342935497401541</v>
+        <v>0.04342818577072617</v>
       </c>
       <c r="D18">
-        <v>0.00323313012354891</v>
+        <v>0.003243447932491619</v>
       </c>
       <c r="E18">
-        <v>0.0453967658890148</v>
+        <v>0.04621899439021143</v>
       </c>
       <c r="F18">
-        <v>6.299753990032311</v>
+        <v>6.499753990032311</v>
       </c>
       <c r="K18">
-        <v>8.383649296331416</v>
+        <v>7.020338533393238</v>
       </c>
       <c r="L18">
-        <v>9.04829051842224</v>
+        <v>6.041497936888906</v>
       </c>
       <c r="M18">
-        <v>8.470122809276553</v>
+        <v>7.114429263470725</v>
       </c>
       <c r="N18">
-        <v>0.02034538827667578</v>
+        <v>0.01536117263881732</v>
       </c>
       <c r="O18">
-        <v>0.002819703552399567</v>
+        <v>0.00120618607471647</v>
       </c>
       <c r="P18">
-        <v>0.01799731093481323</v>
+        <v>0.01759201220934408</v>
       </c>
       <c r="Q18">
-        <v>0.001414399045997518</v>
+        <v>0.003510848390880621</v>
       </c>
       <c r="R18">
-        <v>0.0004098013634850285</v>
+        <v>0.0004086710569383316</v>
       </c>
       <c r="S18">
-        <v>5.853993196575372E-07</v>
+        <v>6.15038598276267E-06</v>
       </c>
       <c r="T18">
-        <v>0.01183224105823887</v>
+        <v>0.01192793639340684</v>
       </c>
       <c r="U18">
-        <v>0.003504566172979107</v>
+        <v>0.003046580231229629</v>
       </c>
       <c r="V18">
-        <v>46.37993865211727</v>
+        <v>39.37736564567164</v>
       </c>
       <c r="W18">
-        <v>0.0001971530440732173</v>
+        <v>7.016470590919006E-05</v>
       </c>
       <c r="X18">
-        <v>9.568554507431993E-07</v>
+        <v>1.648983073330338E-06</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -1568,61 +1568,61 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.669848041594621E-06</v>
+        <v>5.1566095254785E-06</v>
       </c>
       <c r="C19">
-        <v>0.04391364683968368</v>
+        <v>0.04391233923865671</v>
       </c>
       <c r="D19">
-        <v>0.003276788590939128</v>
+        <v>0.003287722488047637</v>
       </c>
       <c r="E19">
-        <v>0.04591975381497301</v>
+        <v>0.04675823812649974</v>
       </c>
       <c r="F19">
-        <v>6.299737829104028</v>
+        <v>6.499737829104028</v>
       </c>
       <c r="K19">
-        <v>8.380287348496479</v>
+        <v>7.022512132930597</v>
       </c>
       <c r="L19">
-        <v>9.044552506837123</v>
+        <v>6.047497984018827</v>
       </c>
       <c r="M19">
-        <v>8.46781750953201</v>
+        <v>7.119033229523496</v>
       </c>
       <c r="N19">
-        <v>0.02055654110467911</v>
+        <v>0.01553171464561371</v>
       </c>
       <c r="O19">
-        <v>0.00284230270008662</v>
+        <v>0.001222937203491425</v>
       </c>
       <c r="P19">
-        <v>0.01819710505395559</v>
+        <v>0.01776166478547015</v>
       </c>
       <c r="Q19">
-        <v>0.001433741664065819</v>
+        <v>0.003526516231797483</v>
       </c>
       <c r="R19">
-        <v>0.0004147316763062981</v>
+        <v>0.0004135207035763505</v>
       </c>
       <c r="S19">
-        <v>5.938994062980148E-07</v>
+        <v>6.14586046444808E-06</v>
       </c>
       <c r="T19">
-        <v>0.0119325744905914</v>
+        <v>0.01203494068451741</v>
       </c>
       <c r="U19">
-        <v>0.003532002070255315</v>
+        <v>0.003080396531278633</v>
       </c>
       <c r="V19">
-        <v>46.55254656068559</v>
+        <v>39.58748065423126</v>
       </c>
       <c r="W19">
-        <v>0.0001996244348486616</v>
+        <v>7.362296812901824E-05</v>
       </c>
       <c r="X19">
-        <v>9.566201143947536E-07</v>
+        <v>1.64887439335347E-06</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -1630,61 +1630,61 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.661921345204443E-06</v>
+        <v>5.145482150923474E-06</v>
       </c>
       <c r="C20">
-        <v>0.04440921828174153</v>
+        <v>0.04440776139415193</v>
       </c>
       <c r="D20">
-        <v>0.003321660241537625</v>
+        <v>0.003333236145885714</v>
       </c>
       <c r="E20">
-        <v>0.0464552011635361</v>
+        <v>0.04731043382144443</v>
       </c>
       <c r="F20">
-        <v>6.299721563144092</v>
+        <v>6.499721563144092</v>
       </c>
       <c r="K20">
-        <v>8.376890498783498</v>
+        <v>7.024705181368305</v>
       </c>
       <c r="L20">
-        <v>9.040767782901437</v>
+        <v>6.053590339763127</v>
       </c>
       <c r="M20">
-        <v>8.465498702677234</v>
+        <v>7.123695600593295</v>
       </c>
       <c r="N20">
-        <v>0.02077256840229609</v>
+        <v>0.01570621193149325</v>
       </c>
       <c r="O20">
-        <v>0.002865505164457403</v>
+        <v>0.001240160767728504</v>
       </c>
       <c r="P20">
-        <v>0.01840153631480791</v>
+        <v>0.01793526415807591</v>
       </c>
       <c r="Q20">
-        <v>0.001453615877725626</v>
+        <v>0.003542594839589601</v>
       </c>
       <c r="R20">
-        <v>0.0004197821370002005</v>
+        <v>0.000418488689467959</v>
       </c>
       <c r="S20">
-        <v>6.026076454932192E-07</v>
+        <v>6.140656177347923E-06</v>
       </c>
       <c r="T20">
-        <v>0.01203502049571745</v>
+        <v>0.01214414244248374</v>
       </c>
       <c r="U20">
-        <v>0.003560128327935605</v>
+        <v>0.003115062184632166</v>
       </c>
       <c r="V20">
-        <v>46.72772611026561</v>
+        <v>39.80104147605495</v>
       </c>
       <c r="W20">
-        <v>0.000202155858181603</v>
+        <v>7.715039225052357E-05</v>
       </c>
       <c r="X20">
-        <v>9.563823349148449E-07</v>
+        <v>1.648764740931585E-06</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -1692,61 +1692,61 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.653809272077061E-06</v>
+        <v>5.134092250488961E-06</v>
       </c>
       <c r="C21">
-        <v>0.04491647208470701</v>
+        <v>0.04491485429845151</v>
       </c>
       <c r="D21">
-        <v>0.003367796254322582</v>
+        <v>0.003380041423047964</v>
       </c>
       <c r="E21">
-        <v>0.04700355930577736</v>
+        <v>0.04787605290100241</v>
       </c>
       <c r="F21">
-        <v>6.299705189675626</v>
+        <v>6.499705189675626</v>
       </c>
       <c r="K21">
-        <v>8.373453393470166</v>
+        <v>7.026917861871285</v>
       </c>
       <c r="L21">
-        <v>9.03693736283174</v>
+        <v>6.059768098712198</v>
       </c>
       <c r="M21">
-        <v>8.463168378717116</v>
+        <v>7.128409939767805</v>
       </c>
       <c r="N21">
-        <v>0.02099364325708422</v>
+        <v>0.01588480515573726</v>
       </c>
       <c r="O21">
-        <v>0.002889340078765875</v>
+        <v>0.001257874483695623</v>
       </c>
       <c r="P21">
-        <v>0.0186107699004509</v>
+        <v>0.01811295143361278</v>
       </c>
       <c r="Q21">
-        <v>0.001474041915788908</v>
+        <v>0.003559141822020519</v>
       </c>
       <c r="R21">
-        <v>0.0004249571929181598</v>
+        <v>0.0004235794059283369</v>
       </c>
       <c r="S21">
-        <v>6.1152898632862E-07</v>
+        <v>6.13481471798868E-06</v>
       </c>
       <c r="T21">
-        <v>0.01213964879408513</v>
+        <v>0.01225561256912388</v>
       </c>
       <c r="U21">
-        <v>0.003588976064977982</v>
+        <v>0.003150609396243942</v>
       </c>
       <c r="V21">
-        <v>46.90559698707266</v>
+        <v>40.01814881479089</v>
       </c>
       <c r="W21">
-        <v>0.0002047495598242099</v>
+        <v>8.074937804653087E-05</v>
       </c>
       <c r="X21">
-        <v>9.561417375429116E-07</v>
+        <v>1.648654106906436E-06</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -1754,61 +1754,61 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.645505220236792E-06</v>
+        <v>5.12243042703317E-06</v>
       </c>
       <c r="C22">
-        <v>0.04543583053258681</v>
+        <v>0.04543403945939406</v>
       </c>
       <c r="D22">
-        <v>0.003415250725829456</v>
+        <v>0.00342819383802575</v>
       </c>
       <c r="E22">
-        <v>0.04756530161032865</v>
+        <v>0.04845558980128405</v>
       </c>
       <c r="F22">
-        <v>6.299688706128157</v>
+        <v>6.499688706128157</v>
       </c>
       <c r="K22">
-        <v>8.369978250009067</v>
+        <v>7.029148731811267</v>
       </c>
       <c r="L22">
-        <v>9.03305703925308</v>
+        <v>6.066044417823742</v>
       </c>
       <c r="M22">
-        <v>8.460823947547878</v>
+        <v>7.133186042823154</v>
       </c>
       <c r="N22">
-        <v>0.02121994704681321</v>
+        <v>0.01606764178913778</v>
       </c>
       <c r="O22">
-        <v>0.002913826816168058</v>
+        <v>0.001276102465725142</v>
       </c>
       <c r="P22">
-        <v>0.01882497900025917</v>
+        <v>0.01829487405375768</v>
       </c>
       <c r="Q22">
-        <v>0.001495045106307916</v>
+        <v>0.003576134460106541</v>
       </c>
       <c r="R22">
-        <v>0.0004302615137173077</v>
+        <v>0.0004287974633184662</v>
       </c>
       <c r="S22">
-        <v>6.206750776376768E-07</v>
+        <v>6.128236285242735E-06</v>
       </c>
       <c r="T22">
-        <v>0.01224653220319897</v>
+        <v>0.01236942510878488</v>
       </c>
       <c r="U22">
-        <v>0.003618567804704298</v>
+        <v>0.003187074432890936</v>
       </c>
       <c r="V22">
-        <v>47.08627110729357</v>
+        <v>40.23890838928823</v>
       </c>
       <c r="W22">
-        <v>0.0002074078255452335</v>
+        <v>8.442184365351261E-05</v>
       </c>
       <c r="X22">
-        <v>9.558984775006347E-07</v>
+        <v>1.648542563409437E-06</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -1816,61 +1816,61 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.63700227569152E-06</v>
+        <v>5.1104868382839E-06</v>
       </c>
       <c r="C23">
-        <v>0.04596773660609008</v>
+        <v>0.04596575902422151</v>
       </c>
       <c r="D23">
-        <v>0.003464080865428787</v>
+        <v>0.003477752112864412</v>
       </c>
       <c r="E23">
-        <v>0.04814092480423712</v>
+        <v>0.04904956339390957</v>
       </c>
       <c r="F23">
-        <v>6.299672109832753</v>
+        <v>6.499672109832753</v>
       </c>
       <c r="K23">
-        <v>8.366459002749892</v>
+        <v>7.0313999954519</v>
       </c>
       <c r="L23">
-        <v>9.02911751176079</v>
+        <v>6.072412289030773</v>
       </c>
       <c r="M23">
-        <v>8.458458954333793</v>
+        <v>7.138017160387764</v>
       </c>
       <c r="N23">
-        <v>0.02145167008770744</v>
+        <v>0.01625487646411768</v>
       </c>
       <c r="O23">
-        <v>0.002938973027992016</v>
+        <v>0.001294863444414583</v>
       </c>
       <c r="P23">
-        <v>0.01904434525208134</v>
+        <v>0.01848118721317099</v>
       </c>
       <c r="Q23">
-        <v>0.001516652782920944</v>
+        <v>0.003593631358811428</v>
       </c>
       <c r="R23">
-        <v>0.0004357000053456579</v>
+        <v>0.0004341477066986336</v>
       </c>
       <c r="S23">
-        <v>6.300633659171757E-07</v>
+        <v>6.12096477982412E-06</v>
       </c>
       <c r="T23">
-        <v>0.01235574694242042</v>
+        <v>0.01248565739582151</v>
       </c>
       <c r="U23">
-        <v>0.00364891631273078</v>
+        <v>0.003224492816327063</v>
       </c>
       <c r="V23">
-        <v>47.26984816867436</v>
+        <v>40.46342931930052</v>
       </c>
       <c r="W23">
-        <v>0.0002101330712934825</v>
+        <v>8.817078291842553E-05</v>
       </c>
       <c r="X23">
-        <v>9.556521301924925E-07</v>
+        <v>1.648430000227405E-06</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -1878,61 +1878,61 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.628293191959757E-06</v>
+        <v>5.098251167839948E-06</v>
       </c>
       <c r="C24">
-        <v>0.04651265526943189</v>
+        <v>0.0465104770615466</v>
       </c>
       <c r="D24">
-        <v>0.003514347222826236</v>
+        <v>0.00352877840744263</v>
       </c>
       <c r="E24">
-        <v>0.04873095042411385</v>
+        <v>0.0496585185017831</v>
       </c>
       <c r="F24">
-        <v>6.299655398016912</v>
+        <v>6.499655398016912</v>
       </c>
       <c r="K24">
-        <v>8.362900524263781</v>
+        <v>7.033671358643832</v>
       </c>
       <c r="L24">
-        <v>9.025129271552915</v>
+        <v>6.078882777578173</v>
       </c>
       <c r="M24">
-        <v>8.456083279269331</v>
+        <v>7.142911700252812</v>
       </c>
       <c r="N24">
-        <v>0.0216890123577038</v>
+        <v>0.01644667150283183</v>
       </c>
       <c r="O24">
-        <v>0.002964835758646748</v>
+        <v>0.001314184732200305</v>
       </c>
       <c r="P24">
-        <v>0.01926905925809621</v>
+        <v>0.0186720533138679</v>
       </c>
       <c r="Q24">
-        <v>0.001538885769794945</v>
+        <v>0.003611622783929168</v>
       </c>
       <c r="R24">
-        <v>0.000441277825114629</v>
+        <v>0.0004396352290309261</v>
       </c>
       <c r="S24">
-        <v>6.396875885233976E-07</v>
+        <v>6.112905433176678E-06</v>
       </c>
       <c r="T24">
-        <v>0.01246737297613439</v>
+        <v>0.0126043902750458</v>
       </c>
       <c r="U24">
-        <v>0.003680078592692842</v>
+        <v>0.003262904417224077</v>
       </c>
       <c r="V24">
-        <v>47.45644525535022</v>
+        <v>40.691826035406</v>
       </c>
       <c r="W24">
-        <v>0.0002129279310384945</v>
+        <v>9.199875532780647E-05</v>
       </c>
       <c r="X24">
-        <v>9.554030366984646E-07</v>
+        <v>1.648316432067808E-06</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -1940,61 +1940,61 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.619370367437841E-06</v>
+        <v>5.085712593035033E-06</v>
       </c>
       <c r="C25">
-        <v>0.04707107485445274</v>
+        <v>0.04706868094017132</v>
       </c>
       <c r="D25">
-        <v>0.003566113936253732</v>
+        <v>0.003581338575063112</v>
       </c>
       <c r="E25">
-        <v>0.04933592637520365</v>
+        <v>0.05028302752665444</v>
       </c>
       <c r="F25">
-        <v>6.299638567799045</v>
+        <v>6.499638567799045</v>
       </c>
       <c r="K25">
-        <v>8.359298900292281</v>
+        <v>7.035963511396756</v>
       </c>
       <c r="L25">
-        <v>9.021087798952562</v>
+        <v>6.08545484974213</v>
       </c>
       <c r="M25">
-        <v>8.45369355695788</v>
+        <v>7.147868272855142</v>
       </c>
       <c r="N25">
-        <v>0.02193218348236687</v>
+        <v>0.01664319730504782</v>
       </c>
       <c r="O25">
-        <v>0.002991438698205461</v>
+        <v>0.001334089316209318</v>
       </c>
       <c r="P25">
-        <v>0.01949932125145077</v>
+        <v>0.01886764332075022</v>
       </c>
       <c r="Q25">
-        <v>0.001561773913170883</v>
+        <v>0.003630142836730769</v>
       </c>
       <c r="R25">
-        <v>0.0004470003983292537</v>
+        <v>0.0004452653890776501</v>
       </c>
       <c r="S25">
-        <v>6.495619310744875E-07</v>
+        <v>6.104057248404687E-06</v>
       </c>
       <c r="T25">
-        <v>0.01258149368241285</v>
+        <v>0.01272570827319933</v>
       </c>
       <c r="U25">
-        <v>0.003712081080430671</v>
+        <v>0.003302349793662653</v>
       </c>
       <c r="V25">
-        <v>47.64617537045707</v>
+        <v>40.92421757388939</v>
       </c>
       <c r="W25">
-        <v>0.0002157951061625863</v>
+        <v>9.590866444718083E-05</v>
       </c>
       <c r="X25">
-        <v>9.551509230204596E-07</v>
+        <v>1.648201824430162E-06</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -2002,61 +2002,61 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>3.61022583618087E-06</v>
+        <v>5.072859771342221E-06</v>
       </c>
       <c r="C26">
-        <v>0.04764350855074483</v>
+        <v>0.04764088281339644</v>
       </c>
       <c r="D26">
-        <v>0.003619448989762727</v>
+        <v>0.003635502428218168</v>
       </c>
       <c r="E26">
-        <v>0.04995642861947956</v>
+        <v>0.05092369221469231</v>
       </c>
       <c r="F26">
-        <v>6.299621616182614</v>
+        <v>6.499621616182615</v>
       </c>
       <c r="K26">
-        <v>8.355653028664202</v>
+        <v>7.038273725901015</v>
       </c>
       <c r="L26">
-        <v>9.016987578961571</v>
+        <v>6.092127775753267</v>
       </c>
       <c r="M26">
-        <v>8.451287355259234</v>
+        <v>7.1528840898771</v>
       </c>
       <c r="N26">
-        <v>0.02218140380847427</v>
+        <v>0.01684463293647991</v>
       </c>
       <c r="O26">
-        <v>0.00301880447079706</v>
+        <v>0.001354602029616411</v>
       </c>
       <c r="P26">
-        <v>0.01973534161116498</v>
+        <v>0.01906813674817153</v>
       </c>
       <c r="Q26">
-        <v>0.001585346803732061</v>
+        <v>0.003649237168591621</v>
       </c>
       <c r="R26">
-        <v>0.0004528734356502824</v>
+        <v>0.0004510438276543507</v>
       </c>
       <c r="S26">
-        <v>6.59700085640924E-07</v>
+        <v>6.09442722667646E-06</v>
       </c>
       <c r="T26">
-        <v>0.01269819647980735</v>
+        <v>0.0128496998321406</v>
       </c>
       <c r="U26">
-        <v>0.003744951431708183</v>
+        <v>0.003342871885752264</v>
       </c>
       <c r="V26">
-        <v>47.83914893602532</v>
+        <v>41.16072799058481</v>
       </c>
       <c r="W26">
-        <v>0.0002187374103546995</v>
+        <v>9.990271464514431E-05</v>
       </c>
       <c r="X26">
-        <v>9.548957120064943E-07</v>
+        <v>1.648086313704949E-06</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -2064,61 +2064,61 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3.600851208234442E-06</v>
+        <v>5.059680756913396E-06</v>
       </c>
       <c r="C27">
-        <v>0.04823049601155793</v>
+        <v>0.04822762121853214</v>
       </c>
       <c r="D27">
-        <v>0.003674424537388827</v>
+        <v>0.003691344070568396</v>
       </c>
       <c r="E27">
-        <v>0.05059306295945564</v>
+        <v>0.05158114550903321</v>
       </c>
       <c r="F27">
-        <v>6.299604540049923</v>
+        <v>6.499604540049923</v>
       </c>
       <c r="K27">
-        <v>8.351964679373616</v>
+        <v>7.040607875086913</v>
       </c>
       <c r="L27">
-        <v>9.012829115746186</v>
+        <v>6.098915734116257</v>
       </c>
       <c r="M27">
-        <v>8.448865707132237</v>
+        <v>7.157971063620591</v>
       </c>
       <c r="N27">
-        <v>0.02243690513297663</v>
+        <v>0.01705116668190475</v>
       </c>
       <c r="O27">
-        <v>0.003046971408143816</v>
+        <v>0.001375756103886646</v>
       </c>
       <c r="P27">
-        <v>0.01997734154193076</v>
+        <v>0.01927372207589926</v>
       </c>
       <c r="Q27">
-        <v>0.001609635909079665</v>
+        <v>0.003668883001001783</v>
       </c>
       <c r="R27">
-        <v>0.0004589029521244776</v>
+        <v>0.0004569764863267197</v>
       </c>
       <c r="S27">
-        <v>6.701099708407264E-07</v>
+        <v>6.083889438841697E-06</v>
       </c>
       <c r="T27">
-        <v>0.01281757308044867</v>
+        <v>0.01297645753809244</v>
       </c>
       <c r="U27">
-        <v>0.003778730067688404</v>
+        <v>0.003384517502833559</v>
       </c>
       <c r="V27">
-        <v>48.03548116842366</v>
+        <v>41.40148748064697</v>
       </c>
       <c r="W27">
-        <v>0.0002217579541925393</v>
+        <v>0.0001039853998271807</v>
       </c>
       <c r="X27">
-        <v>9.546375275561532E-07</v>
+        <v>1.647969606245654E-06</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -2126,61 +2126,61 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3.591237692483425E-06</v>
+        <v>5.046163031214796E-06</v>
       </c>
       <c r="C28">
-        <v>0.04883260508553319</v>
+        <v>0.04882946280161273</v>
       </c>
       <c r="D28">
-        <v>0.003731117180807514</v>
+        <v>0.003748942185628981</v>
       </c>
       <c r="E28">
-        <v>0.05124646702048282</v>
+        <v>0.05225605362994325</v>
       </c>
       <c r="F28">
-        <v>6.299587336155377</v>
+        <v>6.499587336155377</v>
       </c>
       <c r="K28">
-        <v>8.348227002923609</v>
+        <v>7.042960747831184</v>
       </c>
       <c r="L28">
-        <v>9.00861238232415</v>
+        <v>6.105813247767547</v>
       </c>
       <c r="M28">
-        <v>8.446429408294065</v>
+        <v>7.163122406222107</v>
       </c>
       <c r="N28">
-        <v>0.02269893126439329</v>
+        <v>0.01726299655458067</v>
       </c>
       <c r="O28">
-        <v>0.003075977550362461</v>
+        <v>0.001397576615185533</v>
       </c>
       <c r="P28">
-        <v>0.02022555378021253</v>
+        <v>0.01948459827961409</v>
       </c>
       <c r="Q28">
-        <v>0.001634672119081319</v>
+        <v>0.003689145409906659</v>
       </c>
       <c r="R28">
-        <v>0.0004650952878292565</v>
+        <v>0.0004630696295279072</v>
       </c>
       <c r="S28">
-        <v>6.808010602895192E-07</v>
+        <v>6.072481400333857E-06</v>
       </c>
       <c r="T28">
-        <v>0.01293971960764814</v>
+        <v>0.01310607834937973</v>
       </c>
       <c r="U28">
-        <v>0.003813458373945201</v>
+        <v>0.003427334276339067</v>
       </c>
       <c r="V28">
-        <v>48.23529169097635</v>
+        <v>41.64663166824474</v>
       </c>
       <c r="W28">
-        <v>0.0002248597217717796</v>
+        <v>0.0001081585209524633</v>
       </c>
       <c r="X28">
-        <v>9.543758902046526E-07</v>
+        <v>1.647851962608441E-06</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -2188,61 +2188,61 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>3.581376030538299E-06</v>
+        <v>5.032293410563385E-06</v>
       </c>
       <c r="C29">
-        <v>0.0494504336869678</v>
+        <v>0.04944700417991389</v>
       </c>
       <c r="D29">
-        <v>0.003789608353013253</v>
+        <v>0.003808380429832637</v>
       </c>
       <c r="E29">
-        <v>0.0519173123268054</v>
+        <v>0.05294911822974376</v>
       </c>
       <c r="F29">
-        <v>6.299570001118336</v>
+        <v>6.499570001118336</v>
       </c>
       <c r="K29">
-        <v>8.344443604946404</v>
+        <v>7.045335181873988</v>
       </c>
       <c r="L29">
-        <v>9.004332372100606</v>
+        <v>6.112828270956335</v>
       </c>
       <c r="M29">
-        <v>8.443976830909405</v>
+        <v>7.168344477832386</v>
       </c>
       <c r="N29">
-        <v>0.022967738849517</v>
+        <v>0.01748033107429842</v>
       </c>
       <c r="O29">
-        <v>0.00310585914938591</v>
+        <v>0.001420097703191817</v>
       </c>
       <c r="P29">
-        <v>0.02048022339200884</v>
+        <v>0.01970097434632242</v>
       </c>
       <c r="Q29">
-        <v>0.001660492797394711</v>
+        <v>0.003710031656650759</v>
       </c>
       <c r="R29">
-        <v>0.0004714571301137629</v>
+        <v>0.0004693298644337644</v>
       </c>
       <c r="S29">
-        <v>6.917872306788469E-07</v>
+        <v>6.060132533764776E-06</v>
       </c>
       <c r="T29">
-        <v>0.01306473688482215</v>
+        <v>0.01323866388462686</v>
       </c>
       <c r="U29">
-        <v>0.003849175505091575</v>
+        <v>0.00347137395893604</v>
       </c>
       <c r="V29">
-        <v>48.43870263064998</v>
+        <v>41.89630269933074</v>
       </c>
       <c r="W29">
-        <v>0.0002280461634173466</v>
+        <v>0.0001124261914548113</v>
       </c>
       <c r="X29">
-        <v>9.541110523462484E-07</v>
+        <v>1.6477332409063E-06</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -2250,61 +2250,61 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3.571256490494385E-06</v>
+        <v>5.018058036464441E-06</v>
       </c>
       <c r="C30">
-        <v>0.05008461181660606</v>
+        <v>0.05008087395422057</v>
       </c>
       <c r="D30">
-        <v>0.003849984680424144</v>
+        <v>0.003869747806786397</v>
       </c>
       <c r="E30">
-        <v>0.05260630658917829</v>
+        <v>0.05366107878354315</v>
       </c>
       <c r="F30">
-        <v>6.299552531415467</v>
+        <v>6.499552531415468</v>
       </c>
       <c r="K30">
-        <v>8.340610383382897</v>
+        <v>7.047730455495691</v>
       </c>
       <c r="L30">
-        <v>8.999987783905082</v>
+        <v>6.119959869011308</v>
       </c>
       <c r="M30">
-        <v>8.441507362108254</v>
+        <v>7.173634632878251</v>
       </c>
       <c r="N30">
-        <v>0.0232435982897966</v>
+        <v>0.01770338987111934</v>
       </c>
       <c r="O30">
-        <v>0.003136650092879502</v>
+        <v>0.001443351458360712</v>
       </c>
       <c r="P30">
-        <v>0.02074160853915626</v>
+        <v>0.01992307077256786</v>
       </c>
       <c r="Q30">
-        <v>0.001687132941867983</v>
+        <v>0.003731594861574395</v>
       </c>
       <c r="R30">
-        <v>0.0004779955376538057</v>
+        <v>0.0004757641662657089</v>
       </c>
       <c r="S30">
-        <v>7.030812036622964E-07</v>
+        <v>6.046841477412099E-06</v>
       </c>
       <c r="T30">
-        <v>0.01319273079287397</v>
+        <v>0.01337432068915034</v>
       </c>
       <c r="U30">
-        <v>0.003885921444490383</v>
+        <v>0.003516690221001717</v>
       </c>
       <c r="V30">
-        <v>48.64583858679153</v>
+        <v>42.15064904371434</v>
       </c>
       <c r="W30">
-        <v>0.0002313207818835104</v>
+        <v>0.0001167916356373735</v>
       </c>
       <c r="X30">
-        <v>9.538427268368028E-07</v>
+        <v>1.647613477225215E-06</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -2312,61 +2312,61 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>3.56086884219605E-06</v>
+        <v>5.003442340087973E-06</v>
       </c>
       <c r="C31">
-        <v>0.05073580374810158</v>
+        <v>0.05073173488587457</v>
       </c>
       <c r="D31">
-        <v>0.003912338395125491</v>
+        <v>0.003933139092432723</v>
       </c>
       <c r="E31">
-        <v>0.05331419616579804</v>
+        <v>0.05439271515533805</v>
       </c>
       <c r="F31">
-        <v>6.299534923372488</v>
+        <v>6.499534923372488</v>
       </c>
       <c r="K31">
-        <v>8.336727577391677</v>
+        <v>7.050146527912578</v>
       </c>
       <c r="L31">
-        <v>8.995581124743964</v>
+        <v>6.127215867574251</v>
       </c>
       <c r="M31">
-        <v>8.439024423827195</v>
+        <v>7.178997234888245</v>
       </c>
       <c r="N31">
-        <v>0.0235267947432743</v>
+        <v>0.01793240449665115</v>
       </c>
       <c r="O31">
-        <v>0.003168409692715222</v>
+        <v>0.001467374642922025</v>
       </c>
       <c r="P31">
-        <v>0.02100998143489271</v>
+        <v>0.02015111972906072</v>
       </c>
       <c r="Q31">
-        <v>0.001714632486505115</v>
+        <v>0.003753854450810869</v>
       </c>
       <c r="R31">
-        <v>0.0004847179666178922</v>
+        <v>0.0004823799032345581</v>
       </c>
       <c r="S31">
-        <v>7.146898269255964E-07</v>
+        <v>6.032546030685235E-06</v>
       </c>
       <c r="T31">
-        <v>0.01332381261468219</v>
+        <v>0.01351316055489892</v>
       </c>
       <c r="U31">
-        <v>0.003923755017278787</v>
+        <v>0.003563341157917712</v>
       </c>
       <c r="V31">
-        <v>48.85683501880158</v>
+        <v>42.40982650771004</v>
       </c>
       <c r="W31">
-        <v>0.0002346873674189406</v>
+        <v>0.0001212587801106604</v>
       </c>
       <c r="X31">
-        <v>9.535709304174175E-07</v>
+        <v>1.647492673604371E-06</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -2374,61 +2374,61 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3.550202277243289E-06</v>
+        <v>4.988430930684873E-06</v>
       </c>
       <c r="C32">
-        <v>0.05140471039600124</v>
+        <v>0.05140028625435231</v>
       </c>
       <c r="D32">
-        <v>0.003976767838987419</v>
+        <v>0.003998655351307403</v>
       </c>
       <c r="E32">
-        <v>0.05404176868310448</v>
+        <v>0.0551448503144111</v>
       </c>
       <c r="F32">
-        <v>6.299517173155443</v>
+        <v>6.499517173155443</v>
       </c>
       <c r="K32">
-        <v>8.332795488660659</v>
+        <v>7.052585354920016</v>
       </c>
       <c r="L32">
-        <v>8.991105132925721</v>
+        <v>6.134599627260611</v>
       </c>
       <c r="M32">
-        <v>8.436524718381861</v>
+        <v>7.184435105196819</v>
       </c>
       <c r="N32">
-        <v>0.02381762881542515</v>
+        <v>0.01816761920884728</v>
       </c>
       <c r="O32">
-        <v>0.003201171375315772</v>
+        <v>0.001492206192047519</v>
       </c>
       <c r="P32">
-        <v>0.02128562927701254</v>
+        <v>0.02038536637589286</v>
       </c>
       <c r="Q32">
-        <v>0.00174303449025623</v>
+        <v>0.003776841934829164</v>
       </c>
       <c r="R32">
-        <v>0.0004916322991434774</v>
+        <v>0.0004891848654803277</v>
       </c>
       <c r="S32">
-        <v>7.266321613486821E-07</v>
+        <v>6.017198728733256E-06</v>
       </c>
       <c r="T32">
-        <v>0.01345809915178795</v>
+        <v>0.01365530083199865</v>
       </c>
       <c r="U32">
-        <v>0.003962716040214432</v>
+        <v>0.003611387738652419</v>
       </c>
       <c r="V32">
-        <v>49.07182790333844</v>
+        <v>42.67399834959871</v>
       </c>
       <c r="W32">
-        <v>0.0002381497560420445</v>
+        <v>0.0001258318206867934</v>
       </c>
       <c r="X32">
-        <v>9.532956842062462E-07</v>
+        <v>1.647370732253999E-06</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -2436,61 +2436,61 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3.539245439911446E-06</v>
+        <v>4.973007636885228E-06</v>
       </c>
       <c r="C33">
-        <v>0.05209207188233477</v>
+        <v>0.05208726641236746</v>
       </c>
       <c r="D33">
-        <v>0.004043377905195048</v>
+        <v>0.004066404395416548</v>
       </c>
       <c r="E33">
-        <v>0.05478985596477047</v>
+        <v>0.05591835340328875</v>
       </c>
       <c r="F33">
-        <v>6.299499276761065</v>
+        <v>6.499499276761065</v>
       </c>
       <c r="K33">
-        <v>8.328809472062908</v>
+        <v>7.05504554537532</v>
       </c>
       <c r="L33">
-        <v>8.986561617543575</v>
+        <v>6.142117682462731</v>
       </c>
       <c r="M33">
-        <v>8.434010141707875</v>
+        <v>7.189950732277733</v>
       </c>
       <c r="N33">
-        <v>0.0241164180536876</v>
+        <v>0.01840929186126467</v>
       </c>
       <c r="O33">
-        <v>0.003234989573682719</v>
+        <v>0.00151788664666501</v>
       </c>
       <c r="P33">
-        <v>0.0215688552884148</v>
+        <v>0.0206260696286619</v>
       </c>
       <c r="Q33">
-        <v>0.001772381310315379</v>
+        <v>0.003800590211472214</v>
       </c>
       <c r="R33">
-        <v>0.0004987468740272764</v>
+        <v>0.0004961872954332494</v>
       </c>
       <c r="S33">
-        <v>7.389183345950179E-07</v>
+        <v>6.000748241335617E-06</v>
       </c>
       <c r="T33">
-        <v>0.01359571339978177</v>
+        <v>0.01380086478987323</v>
       </c>
       <c r="U33">
-        <v>0.00400286264010744</v>
+        <v>0.003660895268589814</v>
       </c>
       <c r="V33">
-        <v>49.29096167043866</v>
+        <v>42.94333601393037</v>
       </c>
       <c r="W33">
-        <v>0.0002417121686466583</v>
+        <v>0.0001305147073686514</v>
       </c>
       <c r="X33">
-        <v>9.530166630444036E-07</v>
+        <v>1.647247722731234E-06</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -2498,61 +2498,61 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3.527986328946981E-06</v>
+        <v>4.957155369617058E-06</v>
       </c>
       <c r="C34">
-        <v>0.05279867032317507</v>
+        <v>0.05279345555967557</v>
       </c>
       <c r="D34">
-        <v>0.004112280651679537</v>
+        <v>0.004136501412282717</v>
       </c>
       <c r="E34">
-        <v>0.05555933710529156</v>
+        <v>0.05671414291824636</v>
       </c>
       <c r="F34">
-        <v>6.299481230006747</v>
+        <v>6.499481230006747</v>
       </c>
       <c r="K34">
-        <v>8.324771580165088</v>
+        <v>7.057527598853206</v>
       </c>
       <c r="L34">
-        <v>8.981946769751779</v>
+        <v>6.149772236811376</v>
       </c>
       <c r="M34">
-        <v>8.431480249940916</v>
+        <v>7.195545191691952</v>
       </c>
       <c r="N34">
-        <v>0.02442349788427591</v>
+        <v>0.01865769487912643</v>
       </c>
       <c r="O34">
-        <v>0.003269917125712963</v>
+        <v>0.001544459700843457</v>
       </c>
       <c r="P34">
-        <v>0.0218599799057398</v>
+        <v>0.02087350314950293</v>
       </c>
       <c r="Q34">
-        <v>0.001802723175692668</v>
+        <v>0.003825145512621636</v>
       </c>
       <c r="R34">
-        <v>0.0005060705204345217</v>
+        <v>0.0005033959211272482</v>
       </c>
       <c r="S34">
-        <v>7.515646655939804E-07</v>
+        <v>5.983168086961959E-06</v>
       </c>
       <c r="T34">
-        <v>0.01373678473448286</v>
+        <v>0.01394998198871564</v>
       </c>
       <c r="U34">
-        <v>0.004044250322848501</v>
+        <v>0.00371193254049003</v>
       </c>
       <c r="V34">
-        <v>49.51438680992324</v>
+        <v>43.21801937183569</v>
       </c>
       <c r="W34">
-        <v>0.0002453789841100924</v>
+        <v>0.000135311806209647</v>
       </c>
       <c r="X34">
-        <v>9.527340106115562E-07</v>
+        <v>1.64712362005734E-06</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -2560,61 +2560,61 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3.516412304115173E-06</v>
+        <v>4.940856129722579E-06</v>
       </c>
       <c r="C35">
-        <v>0.05352533285558544</v>
+        <v>0.0535196787559053</v>
       </c>
       <c r="D35">
-        <v>0.004183595866446821</v>
+        <v>0.004209069550090055</v>
       </c>
       <c r="E35">
-        <v>0.05635114189559213</v>
+        <v>0.05753319028596472</v>
       </c>
       <c r="F35">
-        <v>6.299463028519529</v>
+        <v>6.499463028519529</v>
       </c>
       <c r="K35">
-        <v>8.320676324347959</v>
+        <v>7.060031965375215</v>
       </c>
       <c r="L35">
-        <v>8.977261077153873</v>
+        <v>6.157565156749881</v>
       </c>
       <c r="M35">
-        <v>8.428936563492078</v>
+        <v>7.201217653785787</v>
       </c>
       <c r="N35">
-        <v>0.02473922297022461</v>
+        <v>0.01891311629969782</v>
       </c>
       <c r="O35">
-        <v>0.003306012795933586</v>
+        <v>0.001571970287886578</v>
       </c>
       <c r="P35">
-        <v>0.02215934194648677</v>
+        <v>0.02112795624856086</v>
       </c>
       <c r="Q35">
-        <v>0.001834107991541883</v>
+        <v>0.003850564449867771</v>
       </c>
       <c r="R35">
-        <v>0.000513612594401222</v>
+        <v>0.0005108199920681479</v>
       </c>
       <c r="S35">
-        <v>7.645834936171731E-07</v>
+        <v>5.964429872528156E-06</v>
       </c>
       <c r="T35">
-        <v>0.01388144942719382</v>
+        <v>0.01410278869689811</v>
       </c>
       <c r="U35">
-        <v>0.004086942729850949</v>
+        <v>0.003764572383416969</v>
       </c>
       <c r="V35">
-        <v>49.74226233280614</v>
+        <v>43.49823714513626</v>
       </c>
       <c r="W35">
-        <v>0.0002491549061256375</v>
+        <v>0.0001402280636108958</v>
       </c>
       <c r="X35">
-        <v>9.524473427043572E-07</v>
+        <v>1.646998401731239E-06</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -2622,61 +2622,61 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>3.504509988166399E-06</v>
+        <v>4.924090870967893E-06</v>
       </c>
       <c r="C36">
-        <v>0.05427293493117846</v>
+        <v>0.05426680919841766</v>
       </c>
       <c r="D36">
-        <v>0.004257451797885886</v>
+        <v>0.004284240666117529</v>
       </c>
       <c r="E36">
-        <v>0.0571662544568507</v>
+        <v>0.05837652362267839</v>
       </c>
       <c r="F36">
-        <v>6.299444667724195</v>
+        <v>6.499444667724195</v>
       </c>
       <c r="K36">
-        <v>8.31652570260499</v>
+        <v>7.062558544408486</v>
       </c>
       <c r="L36">
-        <v>8.97249825413232</v>
+        <v>6.165510377914321</v>
       </c>
       <c r="M36">
-        <v>8.42637654881859</v>
+        <v>7.206977892902503</v>
       </c>
       <c r="N36">
-        <v>0.02506396857892599</v>
+        <v>0.01917586093624041</v>
       </c>
       <c r="O36">
-        <v>0.003343328305721356</v>
+        <v>0.001600471730385678</v>
       </c>
       <c r="P36">
-        <v>0.0224673000367132</v>
+        <v>0.02138973491217742</v>
       </c>
       <c r="Q36">
-        <v>0.001866592651721011</v>
+        <v>0.00387685512254511</v>
       </c>
       <c r="R36">
-        <v>0.000521383018808913</v>
+        <v>0.0005184693187680816</v>
       </c>
       <c r="S36">
-        <v>7.779965429781505E-07</v>
+        <v>5.94442208523535E-06</v>
       </c>
       <c r="T36">
-        <v>0.01402985104382023</v>
+        <v>0.01425942833801146</v>
       </c>
       <c r="U36">
-        <v>0.004130996870821446</v>
+        <v>0.003818894520809178</v>
       </c>
       <c r="V36">
-        <v>49.97475189921395</v>
+        <v>43.78418840187686</v>
       </c>
       <c r="W36">
-        <v>0.0002530448589028069</v>
+        <v>0.0001452681747086663</v>
       </c>
       <c r="X36">
-        <v>9.521567991823493E-07</v>
+        <v>1.646872072779576E-06</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -2684,61 +2684,61 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3.4922652763394E-06</v>
+        <v>4.906839511581049E-06</v>
       </c>
       <c r="C37">
-        <v>0.05504240390245988</v>
+        <v>0.05503577179122227</v>
       </c>
       <c r="D37">
-        <v>0.004333985843373665</v>
+        <v>0.004362156039429237</v>
       </c>
       <c r="E37">
-        <v>0.05800571729358776</v>
+        <v>0.0592452319623864</v>
       </c>
       <c r="F37">
-        <v>6.299426142830664</v>
+        <v>6.499426142830664</v>
       </c>
       <c r="K37">
-        <v>8.31231602899552</v>
+        <v>7.065106666337635</v>
       </c>
       <c r="L37">
-        <v>8.967655890342321</v>
+        <v>6.173602795083575</v>
       </c>
       <c r="M37">
-        <v>8.423799001256731</v>
+        <v>7.212819707887476</v>
       </c>
       <c r="N37">
-        <v>0.02539813227543683</v>
+        <v>0.01944625153940741</v>
       </c>
       <c r="O37">
-        <v>0.003381925070028217</v>
+        <v>0.001630013112472169</v>
       </c>
       <c r="P37">
-        <v>0.02278423399648231</v>
+        <v>0.02165916383201792</v>
       </c>
       <c r="Q37">
-        <v>0.001900236275803975</v>
+        <v>0.003904107406921408</v>
       </c>
       <c r="R37">
-        <v>0.0005293923268437736</v>
+        <v>0.0005263543171785869</v>
       </c>
       <c r="S37">
-        <v>7.918232136456236E-07</v>
+        <v>5.923169883101726E-06</v>
       </c>
       <c r="T37">
-        <v>0.01418214110802021</v>
+        <v>0.01442005193519919</v>
       </c>
       <c r="U37">
-        <v>0.004176478591789573</v>
+        <v>0.003874980950953595</v>
       </c>
       <c r="V37">
-        <v>50.21202661172367</v>
+        <v>44.07608200470836</v>
       </c>
       <c r="W37">
-        <v>0.0002570541313314008</v>
+        <v>0.0001504373912254707</v>
       </c>
       <c r="X37">
-        <v>9.518621220296864E-07</v>
+        <v>1.646744666683118E-06</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -2746,61 +2746,61 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>3.479663221333077E-06</v>
+        <v>4.88908077362861E-06</v>
       </c>
       <c r="C38">
-        <v>0.05583472293463309</v>
+        <v>0.05582754703734403</v>
       </c>
       <c r="D38">
-        <v>0.004413345443530657</v>
+        <v>0.004442967287072489</v>
       </c>
       <c r="E38">
-        <v>0.05887063559562832</v>
+        <v>0.06014046970011603</v>
       </c>
       <c r="F38">
-        <v>6.299407448820141</v>
+        <v>6.499407448820142</v>
       </c>
       <c r="K38">
-        <v>8.308045934611085</v>
+        <v>7.067676660833456</v>
       </c>
       <c r="L38">
-        <v>8.962731115313208</v>
+        <v>6.181852721021066</v>
       </c>
       <c r="M38">
-        <v>8.421204893304481</v>
+        <v>7.21874936482465</v>
       </c>
       <c r="N38">
-        <v>0.02574213551302134</v>
+        <v>0.01972463026482827</v>
       </c>
       <c r="O38">
-        <v>0.003421871790252654</v>
+        <v>0.001660653246131083</v>
       </c>
       <c r="P38">
-        <v>0.02311054646086791</v>
+        <v>0.02193658658866005</v>
       </c>
       <c r="Q38">
-        <v>0.001935100024129909</v>
+        <v>0.003932354239040356</v>
       </c>
       <c r="R38">
-        <v>0.0005376517097129943</v>
+        <v>0.0005344860538550788</v>
       </c>
       <c r="S38">
-        <v>8.060814362389739E-07</v>
+        <v>5.900588828721452E-06</v>
       </c>
       <c r="T38">
-        <v>0.01433847958483631</v>
+        <v>0.01458481866932803</v>
       </c>
       <c r="U38">
-        <v>0.004223462009932057</v>
+        <v>0.00393292141731369</v>
       </c>
       <c r="V38">
-        <v>50.45426714170839</v>
+        <v>44.37413822020224</v>
       </c>
       <c r="W38">
-        <v>0.000261188295503386</v>
+        <v>0.0001557411605537924</v>
       </c>
       <c r="X38">
-        <v>9.515632154227759E-07</v>
+        <v>1.646616166958327E-06</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -2808,61 +2808,61 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>3.466688027486307E-06</v>
+        <v>4.870792173273655E-06</v>
       </c>
       <c r="C39">
-        <v>0.0566509352757617</v>
+        <v>0.05664317528734834</v>
       </c>
       <c r="D39">
-        <v>0.004495688947802295</v>
+        <v>0.004526837258208044</v>
       </c>
       <c r="E39">
-        <v>0.05976218203520914</v>
+        <v>0.06106346158375504</v>
       </c>
       <c r="F39">
-        <v>6.29938858043023</v>
+        <v>6.49938858043023</v>
       </c>
       <c r="K39">
-        <v>8.303716025262869</v>
+        <v>7.070269975365543</v>
       </c>
       <c r="L39">
-        <v>8.957730384045437</v>
+        <v>6.19026846012193</v>
       </c>
       <c r="M39">
-        <v>8.41860159640261</v>
+        <v>7.224771547421052</v>
       </c>
       <c r="N39">
-        <v>0.02609642541338274</v>
+        <v>0.02001136005877585</v>
       </c>
       <c r="O39">
-        <v>0.003463266631645351</v>
+        <v>0.001692455276978551</v>
       </c>
       <c r="P39">
-        <v>0.02344666465827645</v>
+        <v>0.02222236805452702</v>
       </c>
       <c r="Q39">
-        <v>0.001971247611769626</v>
+        <v>0.003961642641535493</v>
       </c>
       <c r="R39">
-        <v>0.0005461730688919904</v>
+        <v>0.0005428762993316877</v>
       </c>
       <c r="S39">
-        <v>8.207767263572283E-07</v>
+        <v>5.876602377902401E-06</v>
       </c>
       <c r="T39">
-        <v>0.0144990354193586</v>
+        <v>0.01475389640348698</v>
       </c>
       <c r="U39">
-        <v>0.004272045932809143</v>
+        <v>0.003992811382961745</v>
       </c>
       <c r="V39">
-        <v>50.70167157388945</v>
+        <v>44.67858932721474</v>
       </c>
       <c r="W39">
-        <v>0.0002654533433428813</v>
+        <v>0.0001611857789945977</v>
       </c>
       <c r="X39">
-        <v>9.512601217684009E-07</v>
+        <v>1.646486501231723E-06</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -2870,61 +2870,61 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>3.453322954483449E-06</v>
+        <v>4.851949885899847E-06</v>
       </c>
       <c r="C40">
-        <v>0.05749214892621266</v>
+        <v>0.05748376138459255</v>
       </c>
       <c r="D40">
-        <v>0.004581186673899696</v>
+        <v>0.004613941121728127</v>
       </c>
       <c r="E40">
-        <v>0.06068160192124544</v>
+        <v>0.06201550804254201</v>
       </c>
       <c r="F40">
-        <v>6.299369532138875</v>
+        <v>6.499369532138875</v>
       </c>
       <c r="K40">
-        <v>8.299319763847421</v>
+        <v>7.072885791634612</v>
       </c>
       <c r="L40">
-        <v>8.95263550725263</v>
+        <v>6.198852760833343</v>
       </c>
       <c r="M40">
-        <v>8.415976386481519</v>
+        <v>7.23088557963974</v>
       </c>
       <c r="N40">
-        <v>0.02646147636147528</v>
+        <v>0.02030682626493387</v>
       </c>
       <c r="O40">
-        <v>0.003506146485805962</v>
+        <v>0.001725483721521793</v>
       </c>
       <c r="P40">
-        <v>0.02379304235257495</v>
+        <v>0.02251689588376882</v>
       </c>
       <c r="Q40">
-        <v>0.002008757676521292</v>
+        <v>0.003992049725908716</v>
       </c>
       <c r="R40">
-        <v>0.0005549690736043393</v>
+        <v>0.0005515375847664262</v>
       </c>
       <c r="S40">
-        <v>8.359557637281072E-07</v>
+        <v>5.851182213593199E-06</v>
       </c>
       <c r="T40">
-        <v>0.01466398686269004</v>
+        <v>0.01492746229091481</v>
       </c>
       <c r="U40">
-        <v>0.004322278465677639</v>
+        <v>0.00405475210175851</v>
       </c>
       <c r="V40">
-        <v>50.95443495872843</v>
+        <v>44.98968015722816</v>
       </c>
       <c r="W40">
-        <v>0.0002698554904502627</v>
+        <v>0.0001667772986040332</v>
       </c>
       <c r="X40">
-        <v>9.509523834693196E-07</v>
+        <v>1.646355710418269E-06</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -2932,61 +2932,61 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3.439550272475273E-06</v>
+        <v>4.832528682271278E-06</v>
       </c>
       <c r="C41">
-        <v>0.05835954175002107</v>
+        <v>0.05835047974955753</v>
       </c>
       <c r="D41">
-        <v>0.004670022021411734</v>
+        <v>0.004704467513210604</v>
       </c>
       <c r="E41">
-        <v>0.06163021888741262</v>
+        <v>0.06299799108347645</v>
       </c>
       <c r="F41">
-        <v>6.299350298146768</v>
+        <v>6.499350298146768</v>
       </c>
       <c r="K41">
-        <v>8.294857007908959</v>
+        <v>7.075524190560214</v>
       </c>
       <c r="L41">
-        <v>8.947452519736876</v>
+        <v>6.207615129004489</v>
       </c>
       <c r="M41">
-        <v>8.413336141698732</v>
+        <v>7.23709750758154</v>
       </c>
       <c r="N41">
-        <v>0.02683779324468298</v>
+        <v>0.02061143843777669</v>
       </c>
       <c r="O41">
-        <v>0.003550618497603176</v>
+        <v>0.001759810475028671</v>
       </c>
       <c r="P41">
-        <v>0.02415016177349386</v>
+        <v>0.0228205818863567</v>
       </c>
       <c r="Q41">
-        <v>0.002047704489294723</v>
+        <v>0.004023622013391821</v>
       </c>
       <c r="R41">
-        <v>0.0005640532230771362</v>
+        <v>0.0005604832634968005</v>
       </c>
       <c r="S41">
-        <v>8.516273190645306E-07</v>
+        <v>5.824238125024109E-06</v>
       </c>
       <c r="T41">
-        <v>0.01483352306591976</v>
+        <v>0.01510570344155672</v>
       </c>
       <c r="U41">
-        <v>0.004374268206745619</v>
+        <v>0.004118853308980978</v>
       </c>
       <c r="V41">
-        <v>51.21277088087802</v>
+        <v>45.30766949610078</v>
       </c>
       <c r="W41">
-        <v>0.0002744015161135386</v>
+        <v>0.0001725224705558156</v>
       </c>
       <c r="X41">
-        <v>9.506399905536272E-07</v>
+        <v>1.646223790471989E-06</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -2994,61 +2994,61 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3.425351157452056E-06</v>
+        <v>4.812501782072999E-06</v>
       </c>
       <c r="C42">
-        <v>0.05925436707883123</v>
+        <v>0.05924457995349665</v>
       </c>
       <c r="D42">
-        <v>0.004762392778440459</v>
+        <v>0.004798619876224209</v>
       </c>
       <c r="E42">
-        <v>0.06260944106167569</v>
+        <v>0.06401238066037788</v>
       </c>
       <c r="F42">
-        <v>6.299330872358538</v>
+        <v>6.499330872358538</v>
       </c>
       <c r="K42">
-        <v>8.290326979298957</v>
+        <v>7.078184425421798</v>
       </c>
       <c r="L42">
-        <v>8.942176490186807</v>
+        <v>6.216563368596296</v>
       </c>
       <c r="M42">
-        <v>8.410680525976781</v>
+        <v>7.243410083828204</v>
       </c>
       <c r="N42">
-        <v>0.02722591282380097</v>
+        <v>0.02092563223715583</v>
       </c>
       <c r="O42">
-        <v>0.003596768633402549</v>
+        <v>0.001795512211188884</v>
       </c>
       <c r="P42">
-        <v>0.02451853606156385</v>
+        <v>0.02313386455090611</v>
       </c>
       <c r="Q42">
-        <v>0.002088170382051331</v>
+        <v>0.004056430141378523</v>
       </c>
       <c r="R42">
-        <v>0.0005734399163397708</v>
+        <v>0.0005697275805863301</v>
       </c>
       <c r="S42">
-        <v>8.678172482222977E-07</v>
+        <v>5.795709795831502E-06</v>
       </c>
       <c r="T42">
-        <v>0.01500784398023933</v>
+        <v>0.01528881761043298</v>
       </c>
       <c r="U42">
-        <v>0.004428108528064795</v>
+        <v>0.004185232139378431</v>
       </c>
       <c r="V42">
-        <v>51.47690399565456</v>
+        <v>45.63283091094786</v>
       </c>
       <c r="W42">
-        <v>0.0002790986667704549</v>
+        <v>0.0001784281018005074</v>
       </c>
       <c r="X42">
-        <v>9.50322888550927E-07</v>
+        <v>1.64609077872891E-06</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -3056,61 +3056,61 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3.410705646455449E-06</v>
+        <v>4.791840790104986E-06</v>
       </c>
       <c r="C43">
-        <v>0.06017795986358362</v>
+        <v>0.06016739283616229</v>
       </c>
       <c r="D43">
-        <v>0.004858512501144469</v>
+        <v>0.004896617883003828</v>
       </c>
       <c r="E43">
-        <v>0.06362076789486014</v>
+        <v>0.06506024174283787</v>
       </c>
       <c r="F43">
-        <v>6.299311248361992</v>
+        <v>6.499311248361992</v>
       </c>
       <c r="K43">
-        <v>8.28573097385633</v>
+        <v>7.080866898980186</v>
       </c>
       <c r="L43">
-        <v>8.936810710366986</v>
+        <v>6.225696069707027</v>
       </c>
       <c r="M43">
-        <v>8.40801499047838</v>
+        <v>7.249819205488928</v>
       </c>
       <c r="N43">
-        <v>0.02762640679312976</v>
+        <v>0.02124987155962985</v>
       </c>
       <c r="O43">
-        <v>0.003644715963296617</v>
+        <v>0.001832667795666446</v>
       </c>
       <c r="P43">
-        <v>0.02489871175104711</v>
+        <v>0.02345721089683031</v>
       </c>
       <c r="Q43">
-        <v>0.002130244005632147</v>
+        <v>0.004090585401473905</v>
       </c>
       <c r="R43">
-        <v>0.0005831445281887801</v>
+        <v>0.000579285747887864</v>
       </c>
       <c r="S43">
-        <v>8.845405512420552E-07</v>
+        <v>5.765598178162338E-06</v>
       </c>
       <c r="T43">
-        <v>0.01518716153027618</v>
+        <v>0.01547701397434916</v>
       </c>
       <c r="U43">
-        <v>0.004483919632775751</v>
+        <v>0.004254012343753139</v>
       </c>
       <c r="V43">
-        <v>51.74707766182519</v>
+        <v>45.96545319755209</v>
       </c>
       <c r="W43">
-        <v>0.0002839546478460782</v>
+        <v>0.0001845019704486252</v>
       </c>
       <c r="X43">
-        <v>9.500011681699432E-07</v>
+        <v>1.645956655050991E-06</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -3118,61 +3118,61 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>3.395592510011863E-06</v>
+        <v>4.770515518118569E-06</v>
       </c>
       <c r="C44">
-        <v>0.06113174343879808</v>
+        <v>0.06112033723190639</v>
       </c>
       <c r="D44">
-        <v>0.004958612153251932</v>
+        <v>0.004998699116217871</v>
       </c>
       <c r="E44">
-        <v>0.06466579757040107</v>
+        <v>0.06614324194781515</v>
       </c>
       <c r="F44">
-        <v>6.299291419405773</v>
+        <v>6.499291419405774</v>
       </c>
       <c r="K44">
-        <v>8.28105857319191</v>
+        <v>7.08357182857783</v>
       </c>
       <c r="L44">
-        <v>8.931337755428942</v>
+        <v>6.235028245717586</v>
       </c>
       <c r="M44">
-        <v>8.405327823724521</v>
+        <v>7.256334649081011</v>
       </c>
       <c r="N44">
-        <v>0.02803988422123033</v>
+        <v>0.02158465093487059</v>
       </c>
       <c r="O44">
-        <v>0.003694524171040641</v>
+        <v>0.001871370430494084</v>
       </c>
       <c r="P44">
-        <v>0.02529127153976116</v>
+        <v>0.02379111823295714</v>
       </c>
       <c r="Q44">
-        <v>0.002174028031633382</v>
+        <v>0.004126137469424706</v>
       </c>
       <c r="R44">
-        <v>0.0005931834934928755</v>
+        <v>0.0005891740263311346</v>
       </c>
       <c r="S44">
-        <v>9.018503583440029E-07</v>
+        <v>5.733779040136097E-06</v>
       </c>
       <c r="T44">
-        <v>0.01537170018368136</v>
+        <v>0.01567051400246288</v>
       </c>
       <c r="U44">
-        <v>0.00454177746800449</v>
+        <v>0.004325330359673299</v>
       </c>
       <c r="V44">
-        <v>52.02353734653183</v>
+        <v>46.30584274340861</v>
       </c>
       <c r="W44">
-        <v>0.0002889775639242154</v>
+        <v>0.0001907521675520178</v>
       </c>
       <c r="X44">
-        <v>9.496741001234337E-07</v>
+        <v>1.645821408571108E-06</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -3180,61 +3180,61 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>3.37998919719312E-06</v>
+        <v>4.748493906960106E-06</v>
       </c>
       <c r="C45">
-        <v>0.06211723697012346</v>
+        <v>0.06210492737428688</v>
       </c>
       <c r="D45">
-        <v>0.005062941843289474</v>
+        <v>0.005105120856653266</v>
       </c>
       <c r="E45">
-        <v>0.06574623523454992</v>
+        <v>0.06726316004155838</v>
       </c>
       <c r="F45">
-        <v>6.299271378374899</v>
+        <v>6.499271378374899</v>
       </c>
       <c r="K45">
-        <v>8.276314517274097</v>
+        <v>7.08629953290529</v>
       </c>
       <c r="L45">
-        <v>8.925765838983478</v>
+        <v>6.244570173076924</v>
       </c>
       <c r="M45">
-        <v>8.40262927788822</v>
+        <v>7.262960686107822</v>
       </c>
       <c r="N45">
-        <v>0.02846699580105822</v>
+        <v>0.02193049796126317</v>
       </c>
       <c r="O45">
-        <v>0.003746340997706963</v>
+        <v>0.001911716314378775</v>
       </c>
       <c r="P45">
-        <v>0.02569683721534234</v>
+        <v>0.02413611789547525</v>
       </c>
       <c r="Q45">
-        <v>0.002219621934767401</v>
+        <v>0.0041631674572475</v>
       </c>
       <c r="R45">
-        <v>0.0006035743995127796</v>
+        <v>0.0005994098201432573</v>
       </c>
       <c r="S45">
-        <v>9.197544528272055E-07</v>
+        <v>5.700162592524376E-06</v>
       </c>
       <c r="T45">
-        <v>0.01556169882781604</v>
+        <v>0.01586955231198551</v>
       </c>
       <c r="U45">
-        <v>0.004601831051732291</v>
+        <v>0.004399331621412715</v>
       </c>
       <c r="V45">
-        <v>52.30655365378841</v>
+        <v>46.65432439350418</v>
       </c>
       <c r="W45">
-        <v>0.0002941762706761443</v>
+        <v>0.0001971874977331584</v>
       </c>
       <c r="X45">
-        <v>9.493420162091868E-07</v>
+        <v>1.645685023354735E-06</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -3242,61 +3242,61 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>3.363871691919284E-06</v>
+        <v>4.725741826206601E-06</v>
       </c>
       <c r="C46">
-        <v>0.06313606366881692</v>
+        <v>0.06312278106210176</v>
       </c>
       <c r="D46">
-        <v>0.005171772883205827</v>
+        <v>0.005216162194043935</v>
       </c>
       <c r="E46">
-        <v>0.0668639019571486</v>
+        <v>0.06842189514961067</v>
       </c>
       <c r="F46">
-        <v>6.299251117763971</v>
+        <v>6.499251117763971</v>
       </c>
       <c r="K46">
-        <v>8.271494132551179</v>
+        <v>7.089049100923748</v>
       </c>
       <c r="L46">
-        <v>8.920087686411286</v>
+        <v>6.254327625225772</v>
       </c>
       <c r="M46">
-        <v>8.39991699163609</v>
+        <v>7.269698566100039</v>
       </c>
       <c r="N46">
-        <v>0.02890843606540378</v>
+        <v>0.02228797620495753</v>
       </c>
       <c r="O46">
-        <v>0.003800280368037979</v>
+        <v>0.00195381007938032</v>
       </c>
       <c r="P46">
-        <v>0.02611607320249547</v>
+        <v>0.02449277772472932</v>
       </c>
       <c r="Q46">
-        <v>0.002267141181908691</v>
+        <v>0.004201784910802692</v>
       </c>
       <c r="R46">
-        <v>0.0006143360896031358</v>
+        <v>0.0006100117783138061</v>
       </c>
       <c r="S46">
-        <v>9.382911001929897E-07</v>
+        <v>5.664701667627097E-06</v>
       </c>
       <c r="T46">
-        <v>0.01575741075238897</v>
+        <v>0.01607437768146002</v>
       </c>
       <c r="U46">
-        <v>0.004664201314935232</v>
+        <v>0.004476172209401281</v>
       </c>
       <c r="V46">
-        <v>52.59641078644994</v>
+        <v>47.01124271422456</v>
       </c>
       <c r="W46">
-        <v>0.0002995601689398838</v>
+        <v>0.0002038169726583362</v>
       </c>
       <c r="X46">
-        <v>9.490045892785825E-07</v>
+        <v>1.645547544953813E-06</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -3304,61 +3304,61 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>3.347214429179852E-06</v>
+        <v>4.702222956568427E-06</v>
       </c>
       <c r="C47">
-        <v>0.06418995986491895</v>
+        <v>0.06417562867788464</v>
       </c>
       <c r="D47">
-        <v>0.00528540001590012</v>
+        <v>0.005332126315919726</v>
       </c>
       <c r="E47">
-        <v>0.06802074468685153</v>
+        <v>0.06962147700833095</v>
       </c>
       <c r="F47">
-        <v>6.299230629648046</v>
+        <v>6.499230629648046</v>
       </c>
       <c r="K47">
-        <v>8.266591917111141</v>
+        <v>7.091820777440469</v>
       </c>
       <c r="L47">
-        <v>8.914295654641819</v>
+        <v>6.264310848376369</v>
       </c>
       <c r="M47">
-        <v>8.397187956283116</v>
+        <v>7.276552531621935</v>
       </c>
       <c r="N47">
-        <v>0.02936494798717406</v>
+        <v>0.02265768831633166</v>
       </c>
       <c r="O47">
-        <v>0.003856465332819621</v>
+        <v>0.001997764761353534</v>
       </c>
       <c r="P47">
-        <v>0.02654969014832432</v>
+        <v>0.02486170486680071</v>
       </c>
       <c r="Q47">
-        <v>0.002316710431101515</v>
+        <v>0.00424208875817208</v>
       </c>
       <c r="R47">
-        <v>0.0006254887768486439</v>
+        <v>0.0006209999069801003</v>
       </c>
       <c r="S47">
-        <v>9.575024193359408E-07</v>
+        <v>5.627312279305602E-06</v>
       </c>
       <c r="T47">
-        <v>0.01595910546943358</v>
+        <v>0.01628525414458836</v>
       </c>
       <c r="U47">
-        <v>0.004729019241463717</v>
+        <v>0.004556021047653399</v>
       </c>
       <c r="V47">
-        <v>52.89340813005207</v>
+        <v>47.37696376171255</v>
       </c>
       <c r="W47">
-        <v>0.0003051393107152108</v>
+        <v>0.0002106506578656817</v>
       </c>
       <c r="X47">
-        <v>9.486614341977799E-07</v>
+        <v>1.645408961127976E-06</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -3366,61 +3366,61 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>4.064224528350977E-06</v>
+        <v>5.651747787593914E-06</v>
       </c>
       <c r="C48">
-        <v>0.06528078504730818</v>
+        <v>0.06526532316606917</v>
       </c>
       <c r="D48">
-        <v>0.00440233666457927</v>
+        <v>0.004445169854594839</v>
       </c>
       <c r="E48">
-        <v>0.06784944536756471</v>
+        <v>0.06886306444737829</v>
       </c>
       <c r="F48">
-        <v>7.349230629648046</v>
+        <v>7.509230629648046</v>
       </c>
       <c r="K48">
-        <v>8.261606280168508</v>
+        <v>7.094613857721976</v>
       </c>
       <c r="L48">
-        <v>8.965070616936508</v>
+        <v>6.168627539882143</v>
       </c>
       <c r="M48">
-        <v>8.383321248583973</v>
+        <v>7.250899898200222</v>
       </c>
       <c r="N48">
-        <v>0.02983732729558803</v>
+        <v>0.0230402794932757</v>
       </c>
       <c r="O48">
-        <v>0.003455262079966589</v>
+        <v>0.001675634385647523</v>
       </c>
       <c r="P48">
-        <v>0.02699844903197659</v>
+        <v>0.0252435496095531</v>
       </c>
       <c r="Q48">
-        <v>0.001969464928165642</v>
+        <v>0.004038759053409766</v>
       </c>
       <c r="R48">
-        <v>0.000637054170819557</v>
+        <v>0.0006323956957708558</v>
       </c>
       <c r="S48">
-        <v>9.538870119339645E-07</v>
+        <v>7.513246031552449E-06</v>
       </c>
       <c r="T48">
-        <v>0.0161670700292108</v>
+        <v>0.01650246216490197</v>
       </c>
       <c r="U48">
-        <v>0.004197722104630876</v>
+        <v>0.003921579196996815</v>
       </c>
       <c r="V48">
-        <v>53.01938422107188</v>
+        <v>47.53799104612551</v>
       </c>
       <c r="W48">
-        <v>0.000310924975095238</v>
+        <v>0.0002177032358091008</v>
       </c>
       <c r="X48">
-        <v>9.483124396117956E-07</v>
+        <v>1.645269307113901E-06</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -3428,61 +3428,61 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>4.046242033628707E-06</v>
+        <v>5.626700762767737E-06</v>
       </c>
       <c r="C49">
-        <v>0.06642943501679363</v>
+        <v>0.06641287322854982</v>
       </c>
       <c r="D49">
-        <v>0.004500439251744684</v>
+        <v>0.004545003853617773</v>
       </c>
       <c r="E49">
-        <v>0.06907443382692863</v>
+        <v>0.07011776449447275</v>
       </c>
       <c r="F49">
-        <v>7.349230629648046</v>
+        <v>7.509230629648046</v>
       </c>
       <c r="K49">
-        <v>8.256581295264839</v>
+        <v>7.097797624537745</v>
       </c>
       <c r="L49">
-        <v>8.953697846954576</v>
+        <v>6.172670331826874</v>
       </c>
       <c r="M49">
-        <v>8.376310909431327</v>
+        <v>7.252918627570806</v>
       </c>
       <c r="N49">
-        <v>0.03033510211097712</v>
+        <v>0.02344338600474038</v>
       </c>
       <c r="O49">
-        <v>0.003492657164692406</v>
+        <v>0.001711967926305005</v>
       </c>
       <c r="P49">
-        <v>0.02747069401506736</v>
+        <v>0.02564363999740486</v>
       </c>
       <c r="Q49">
-        <v>0.002016710550999875</v>
+        <v>0.004101949976172877</v>
       </c>
       <c r="R49">
-        <v>0.0006490560629668706</v>
+        <v>0.0006441859306715973</v>
       </c>
       <c r="S49">
-        <v>1.028072040728172E-06</v>
+        <v>8.383736815445744E-06</v>
       </c>
       <c r="T49">
-        <v>0.01639290678250476</v>
+        <v>0.01673983731523981</v>
       </c>
       <c r="U49">
-        <v>0.004244988683298277</v>
+        <v>0.00399365204838936</v>
       </c>
       <c r="V49">
-        <v>53.15390822566815</v>
+        <v>47.71334662537254</v>
       </c>
       <c r="W49">
-        <v>0.0003169268583142831</v>
+        <v>0.0002250328240298284</v>
       </c>
       <c r="X49">
-        <v>9.479606906685387E-07</v>
+        <v>1.645110118773113E-06</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -3490,61 +3490,61 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>4.0276112096366E-06</v>
+        <v>5.600746062988528E-06</v>
       </c>
       <c r="C50">
-        <v>0.06762037724304458</v>
+        <v>0.06760263994729851</v>
       </c>
       <c r="D50">
-        <v>0.004603048197865402</v>
+        <v>0.004649443967855608</v>
       </c>
       <c r="E50">
-        <v>0.07034520607098683</v>
+        <v>0.07141958498850449</v>
       </c>
       <c r="F50">
-        <v>7.349230629648046</v>
+        <v>7.509230629648046</v>
       </c>
       <c r="K50">
-        <v>8.251536545818272</v>
+        <v>7.101081361538633</v>
       </c>
       <c r="L50">
-        <v>8.947422319070963</v>
+        <v>6.182525293877947</v>
       </c>
       <c r="M50">
-        <v>8.373255642138677</v>
+        <v>7.259763366476433</v>
       </c>
       <c r="N50">
-        <v>0.03085130297532875</v>
+        <v>0.02386129789086414</v>
       </c>
       <c r="O50">
-        <v>0.003545000028491222</v>
+        <v>0.001751743721827531</v>
       </c>
       <c r="P50">
-        <v>0.02796019369706866</v>
+        <v>0.02605790326704393</v>
       </c>
       <c r="Q50">
-        <v>0.002062641716563132</v>
+        <v>0.004140327080695265</v>
       </c>
       <c r="R50">
-        <v>0.0006615181397154504</v>
+        <v>0.0006564128959380617</v>
       </c>
       <c r="S50">
-        <v>1.052213066136599E-06</v>
+        <v>8.408655009554933E-06</v>
       </c>
       <c r="T50">
-        <v>0.01662652059210489</v>
+        <v>0.01698495626267924</v>
       </c>
       <c r="U50">
-        <v>0.004306426897396879</v>
+        <v>0.00406987337385898</v>
       </c>
       <c r="V50">
-        <v>53.30050902227549</v>
+        <v>47.90333946651062</v>
       </c>
       <c r="W50">
-        <v>0.0003231594637846591</v>
+        <v>0.0002326097103435445</v>
       </c>
       <c r="X50">
-        <v>9.476075582072791E-07</v>
+        <v>1.644945931923068E-06</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -3552,61 +3552,61 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>4.008296468859496E-06</v>
+        <v>5.573833802356442E-06</v>
       </c>
       <c r="C51">
-        <v>0.06885601114589122</v>
+        <v>0.06883701633905229</v>
       </c>
       <c r="D51">
-        <v>0.004710479512489235</v>
+        <v>0.004758813858986138</v>
       </c>
       <c r="E51">
-        <v>0.07166437453570057</v>
+        <v>0.07277121782395858</v>
       </c>
       <c r="F51">
-        <v>7.349230629648046</v>
+        <v>7.509230629648046</v>
       </c>
       <c r="K51">
-        <v>8.246407984368147</v>
+        <v>7.104402705047232</v>
       </c>
       <c r="L51">
-        <v>8.940997219696195</v>
+        <v>6.192655873109879</v>
       </c>
       <c r="M51">
-        <v>8.370152142354568</v>
+        <v>7.266733601121644</v>
       </c>
       <c r="N51">
-        <v>0.0313867206801687</v>
+        <v>0.02429481856084525</v>
       </c>
       <c r="O51">
-        <v>0.003599632355429907</v>
+        <v>0.001793468193780027</v>
       </c>
       <c r="P51">
-        <v>0.02846798883394132</v>
+        <v>0.02648765966285469</v>
       </c>
       <c r="Q51">
-        <v>0.002110711298413938</v>
+        <v>0.004180430417679034</v>
       </c>
       <c r="R51">
-        <v>0.0006744684520026919</v>
+        <v>0.0006691188614464638</v>
       </c>
       <c r="S51">
-        <v>1.077711117389904E-06</v>
+        <v>8.432317153293114E-06</v>
       </c>
       <c r="T51">
-        <v>0.01686809105670701</v>
+        <v>0.01723819318206787</v>
       </c>
       <c r="U51">
-        <v>0.004370388369401085</v>
+        <v>0.004149336663754069</v>
       </c>
       <c r="V51">
-        <v>53.45916907070355</v>
+        <v>48.10799979709757</v>
       </c>
       <c r="W51">
-        <v>0.000329636023201501</v>
+        <v>0.0002404378693991386</v>
       </c>
       <c r="X51">
-        <v>9.472485589057704E-07</v>
+        <v>1.644779864747638E-06</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -3614,61 +3614,61 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>3.988259596958134E-06</v>
+        <v>5.545910422196803E-06</v>
       </c>
       <c r="C52">
-        <v>0.07013892177855927</v>
+        <v>0.07011858038865361</v>
       </c>
       <c r="D52">
-        <v>0.004823079237819667</v>
+        <v>0.004873467954991862</v>
       </c>
       <c r="E52">
-        <v>0.07303475319925162</v>
+        <v>0.0741755621186624</v>
       </c>
       <c r="F52">
-        <v>7.349230629648046</v>
+        <v>7.509230629648046</v>
       </c>
       <c r="K52">
-        <v>8.241194676433366</v>
+        <v>7.107763652580269</v>
       </c>
       <c r="L52">
-        <v>8.934435900093133</v>
+        <v>6.203036099900471</v>
       </c>
       <c r="M52">
-        <v>8.367030225485687</v>
+        <v>7.273830920851879</v>
       </c>
       <c r="N52">
-        <v>0.03194246244666347</v>
+        <v>0.02474484556818655</v>
       </c>
       <c r="O52">
-        <v>0.003656757051123455</v>
+        <v>0.001837200417968564</v>
       </c>
       <c r="P52">
-        <v>0.02899513438465187</v>
+        <v>0.02693380424775821</v>
       </c>
       <c r="Q52">
-        <v>0.002161037175015076</v>
+        <v>0.004222413527731381</v>
       </c>
       <c r="R52">
-        <v>0.0006879362668203979</v>
+        <v>0.0006823325923323272</v>
       </c>
       <c r="S52">
-        <v>1.104306445135098E-06</v>
+        <v>8.455969468661031E-06</v>
       </c>
       <c r="T52">
-        <v>0.01711804511045313</v>
+        <v>0.01749997031243415</v>
       </c>
       <c r="U52">
-        <v>0.004437135186425821</v>
+        <v>0.004232255471541397</v>
       </c>
       <c r="V52">
-        <v>53.62994420847431</v>
+        <v>48.32741414248324</v>
       </c>
       <c r="W52">
-        <v>0.0003363710645868639</v>
+        <v>0.0002485318519783992</v>
       </c>
       <c r="X52">
-        <v>9.468836273503358E-07</v>
+        <v>1.644611817370987E-06</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -3676,61 +3676,61 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>3.96694671014142E-06</v>
+        <v>5.516224591794975E-06</v>
       </c>
       <c r="C53">
-        <v>0.07147189815694172</v>
+        <v>0.07145011329546304</v>
       </c>
       <c r="D53">
-        <v>0.004941795537555393</v>
+        <v>0.004994343637676234</v>
       </c>
       <c r="E53">
-        <v>0.07445895706201254</v>
+        <v>0.07563516721209783</v>
       </c>
       <c r="F53">
-        <v>7.348468024397664</v>
+        <v>7.508468024397664</v>
       </c>
       <c r="K53">
-        <v>8.23589070279761</v>
+        <v>7.111161584238664</v>
       </c>
       <c r="L53">
-        <v>8.927674785323733</v>
+        <v>6.213708238033548</v>
       </c>
       <c r="M53">
-        <v>8.363880275239879</v>
+        <v>7.281047451373109</v>
       </c>
       <c r="N53">
-        <v>0.03251972174045001</v>
+        <v>0.0252123485304359</v>
       </c>
       <c r="O53">
-        <v>0.003716737157838675</v>
+        <v>0.001883268888198966</v>
       </c>
       <c r="P53">
-        <v>0.02954276902158324</v>
+        <v>0.02739730201755467</v>
       </c>
       <c r="Q53">
-        <v>0.002214013431851399</v>
+        <v>0.004266653776025225</v>
       </c>
       <c r="R53">
-        <v>0.0007019532456035665</v>
+        <v>0.0006960851764724021</v>
       </c>
       <c r="S53">
-        <v>1.132261427316657E-06</v>
+        <v>8.48134035960619E-06</v>
       </c>
       <c r="T53">
-        <v>0.01737683919053532</v>
+        <v>0.01777074000306462</v>
       </c>
       <c r="U53">
-        <v>0.004507148707064876</v>
+        <v>0.004319268026171609</v>
       </c>
       <c r="V53">
-        <v>53.81301567628607</v>
+        <v>48.56183433810261</v>
       </c>
       <c r="W53">
-        <v>0.0003433803814321373</v>
+        <v>0.0002569063500591792</v>
       </c>
       <c r="X53">
-        <v>9.465123491958327E-07</v>
+        <v>1.644441920788067E-06</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -3738,61 +3738,61 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>3.945327126374968E-06</v>
+        <v>5.486085682188845E-06</v>
       </c>
       <c r="C54">
-        <v>0.07285794196151227</v>
+        <v>0.07283460849666692</v>
       </c>
       <c r="D54">
-        <v>0.005065938838950448</v>
+        <v>0.005120800239332575</v>
       </c>
       <c r="E54">
-        <v>0.07594106622146006</v>
+        <v>0.07715451530177272</v>
       </c>
       <c r="F54">
-        <v>7.34844903928657</v>
+        <v>7.50844903928657</v>
       </c>
       <c r="K54">
-        <v>8.230494976786423</v>
+        <v>7.114598489453649</v>
       </c>
       <c r="L54">
-        <v>8.920814100801508</v>
+        <v>6.22462099026531</v>
       </c>
       <c r="M54">
-        <v>8.360716766942895</v>
+        <v>7.288408679162787</v>
       </c>
       <c r="N54">
-        <v>0.03311978391925441</v>
+        <v>0.0256983710229825</v>
       </c>
       <c r="O54">
-        <v>0.003779378718709788</v>
+        <v>0.001931475492106821</v>
       </c>
       <c r="P54">
-        <v>0.03011211809636932</v>
+        <v>0.02787919052258653</v>
       </c>
       <c r="Q54">
-        <v>0.002269366575938666</v>
+        <v>0.004312849752987325</v>
       </c>
       <c r="R54">
-        <v>0.0007165536827739051</v>
+        <v>0.0007104102563914186</v>
       </c>
       <c r="S54">
-        <v>1.161267840705703E-06</v>
+        <v>8.504704382976956E-06</v>
       </c>
       <c r="T54">
-        <v>0.01764495774227429</v>
+        <v>0.01805097900258322</v>
       </c>
       <c r="U54">
-        <v>0.004580049882372613</v>
+        <v>0.004409838279472463</v>
       </c>
       <c r="V54">
-        <v>54.00845083148676</v>
+        <v>48.81135150405707</v>
       </c>
       <c r="W54">
-        <v>0.0003506812232315497</v>
+        <v>0.0002655781410243144</v>
       </c>
       <c r="X54">
-        <v>9.461346483750497E-07</v>
+        <v>1.644270075527317E-06</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -3800,61 +3800,61 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3.92285235344971E-06</v>
+        <v>5.454749271870149E-06</v>
       </c>
       <c r="C55">
-        <v>0.07430032500667316</v>
+        <v>0.07427532782129107</v>
       </c>
       <c r="D55">
-        <v>0.005196509782468208</v>
+        <v>0.005253830645789556</v>
       </c>
       <c r="E55">
-        <v>0.07748424251253859</v>
+        <v>0.07873672523463485</v>
       </c>
       <c r="F55">
-        <v>7.348429790283443</v>
+        <v>7.508429790283443</v>
       </c>
       <c r="K55">
-        <v>8.225005457963535</v>
+        <v>7.118075055883027</v>
       </c>
       <c r="L55">
-        <v>8.913791776581364</v>
+        <v>6.23581766963963</v>
       </c>
       <c r="M55">
-        <v>8.357530951101101</v>
+        <v>7.295907345044886</v>
       </c>
       <c r="N55">
-        <v>0.03374404785969153</v>
+        <v>0.02620404965129901</v>
       </c>
       <c r="O55">
-        <v>0.003845074101979764</v>
+        <v>0.001982171419217884</v>
       </c>
       <c r="P55">
-        <v>0.03070451706488912</v>
+        <v>0.02838060202832269</v>
       </c>
       <c r="Q55">
-        <v>0.002327513965055407</v>
+        <v>0.00436140059021589</v>
       </c>
       <c r="R55">
-        <v>0.0007317747979852498</v>
+        <v>0.0007253444170724493</v>
       </c>
       <c r="S55">
-        <v>1.191648682581458E-06</v>
+        <v>8.528635296567808E-06</v>
       </c>
       <c r="T55">
-        <v>0.01792293450525092</v>
+        <v>0.01834121603924516</v>
       </c>
       <c r="U55">
-        <v>0.004656347169197748</v>
+        <v>0.004504632930394179</v>
       </c>
       <c r="V55">
-        <v>54.21644396771163</v>
+        <v>49.07622299449589</v>
       </c>
       <c r="W55">
-        <v>0.0003582921224449811</v>
+        <v>0.0002745654581228955</v>
       </c>
       <c r="X55">
-        <v>9.457503820574476E-07</v>
+        <v>1.644096247205849E-06</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -3862,61 +3862,61 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>3.899470942769132E-06</v>
+        <v>5.422143329695877E-06</v>
       </c>
       <c r="C56">
-        <v>0.07580258185937327</v>
+        <v>0.07577579515119326</v>
       </c>
       <c r="D56">
-        <v>0.00533401683142487</v>
+        <v>0.005393955589030192</v>
       </c>
       <c r="E56">
-        <v>0.0790923276200162</v>
+        <v>0.08038575127553238</v>
       </c>
       <c r="F56">
-        <v>7.348410265831224</v>
+        <v>7.508410265831224</v>
       </c>
       <c r="K56">
-        <v>8.219416423436348</v>
+        <v>7.121589628425353</v>
       </c>
       <c r="L56">
-        <v>8.90660058563593</v>
+        <v>6.247312045064644</v>
       </c>
       <c r="M56">
-        <v>8.354324025217114</v>
+        <v>7.303547809982992</v>
       </c>
       <c r="N56">
-        <v>0.03439402555007658</v>
+        <v>0.02673061222156164</v>
       </c>
       <c r="O56">
-        <v>0.003914057485459867</v>
+        <v>0.002035549605684557</v>
       </c>
       <c r="P56">
-        <v>0.03132140843662463</v>
+        <v>0.02890275858132501</v>
       </c>
       <c r="Q56">
-        <v>0.002388670699570702</v>
+        <v>0.004412491935768465</v>
       </c>
       <c r="R56">
-        <v>0.0007476570403613948</v>
+        <v>0.0007409273688501859</v>
       </c>
       <c r="S56">
-        <v>1.223470203383769E-06</v>
+        <v>8.552745557439936E-06</v>
       </c>
       <c r="T56">
-        <v>0.01821133857777382</v>
+        <v>0.01864201132422018</v>
       </c>
       <c r="U56">
-        <v>0.004736291759001909</v>
+        <v>0.004603958858124675</v>
       </c>
       <c r="V56">
-        <v>54.4372392380328</v>
+        <v>49.35676562298114</v>
       </c>
       <c r="W56">
-        <v>0.0003662332613400578</v>
+        <v>0.0002838873473515794</v>
       </c>
       <c r="X56">
-        <v>9.453591496405443E-07</v>
+        <v>1.643920518578732E-06</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -3924,61 +3924,61 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>3.875127340210742E-06</v>
+        <v>5.388190103236667E-06</v>
       </c>
       <c r="C57">
-        <v>0.07736854997110545</v>
+        <v>0.07733983603035244</v>
       </c>
       <c r="D57">
-        <v>0.005479022972427491</v>
+        <v>0.005541751604525466</v>
       </c>
       <c r="E57">
-        <v>0.08076949005787605</v>
+        <v>0.08210588275862818</v>
       </c>
       <c r="F57">
-        <v>7.348390453577039</v>
+        <v>7.508390453577039</v>
       </c>
       <c r="K57">
-        <v>8.213723371824591</v>
+        <v>7.125143812253805</v>
       </c>
       <c r="L57">
-        <v>8.899231606691473</v>
+        <v>6.259121856435382</v>
       </c>
       <c r="M57">
-        <v>8.351095044327897</v>
+        <v>7.31133791694957</v>
       </c>
       <c r="N57">
-        <v>0.03507135817373472</v>
+        <v>0.02727939139080335</v>
       </c>
       <c r="O57">
-        <v>0.00398657939817347</v>
+        <v>0.002091826753230042</v>
       </c>
       <c r="P57">
-        <v>0.03196435816411472</v>
+        <v>0.02944698672900405</v>
       </c>
       <c r="Q57">
-        <v>0.002453074929269099</v>
+        <v>0.004466314924749734</v>
       </c>
       <c r="R57">
-        <v>0.0007642444530315728</v>
+        <v>0.0007572023604789135</v>
       </c>
       <c r="S57">
-        <v>1.256841166555687E-06</v>
+        <v>8.577050351798669E-06</v>
       </c>
       <c r="T57">
-        <v>0.01851078406263542</v>
+        <v>0.01895396804568896</v>
       </c>
       <c r="U57">
-        <v>0.004820154357085866</v>
+        <v>0.004708153461768147</v>
       </c>
       <c r="V57">
-        <v>54.67113108551668</v>
+        <v>49.65335798958564</v>
       </c>
       <c r="W57">
-        <v>0.0003745267248169553</v>
+        <v>0.0002935654050716257</v>
       </c>
       <c r="X57">
-        <v>9.449606360277215E-07</v>
+        <v>1.64374280938731E-06</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -3986,61 +3986,61 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>3.849761411167235E-06</v>
+        <v>5.352805463846946E-06</v>
       </c>
       <c r="C58">
-        <v>0.07900240285743905</v>
+        <v>0.07897161067639397</v>
       </c>
       <c r="D58">
-        <v>0.005632153237639152</v>
+        <v>0.005697858709502757</v>
       </c>
       <c r="E58">
-        <v>0.08252026031580872</v>
+        <v>0.08390177981835988</v>
       </c>
       <c r="F58">
-        <v>7.348370340298662</v>
+        <v>7.508370340298662</v>
       </c>
       <c r="K58">
-        <v>8.207923911835662</v>
+        <v>7.128737965658462</v>
       </c>
       <c r="L58">
-        <v>8.891681776434238</v>
+        <v>6.271266188544839</v>
       </c>
       <c r="M58">
-        <v>8.347849140478571</v>
+        <v>7.319284738076549</v>
       </c>
       <c r="N58">
-        <v>0.03577783041863385</v>
+        <v>0.02785183604165729</v>
       </c>
       <c r="O58">
-        <v>0.00406293969911356</v>
+        <v>0.002151241329042371</v>
       </c>
       <c r="P58">
-        <v>0.03263506914672485</v>
+        <v>0.03001472927000983</v>
       </c>
       <c r="Q58">
-        <v>0.002520986631053176</v>
+        <v>0.004523085385024744</v>
       </c>
       <c r="R58">
-        <v>0.0007815850805739595</v>
+        <v>0.0007742165720727116</v>
       </c>
       <c r="S58">
-        <v>1.291863824602557E-06</v>
+        <v>8.601587931747147E-06</v>
       </c>
       <c r="T58">
-        <v>0.01882193473776154</v>
+        <v>0.01927773655895989</v>
       </c>
       <c r="U58">
-        <v>0.004908252944065024</v>
+        <v>0.0048175885846702</v>
       </c>
       <c r="V58">
-        <v>54.91847145242507</v>
+        <v>49.96644352765983</v>
       </c>
       <c r="W58">
-        <v>0.0003831964147125121</v>
+        <v>0.0003036228318409986</v>
       </c>
       <c r="X58">
-        <v>9.445546738284963E-07</v>
+        <v>1.643563101717077E-06</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -4048,61 +4048,61 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>3.823308019003737E-06</v>
+        <v>5.315898326033384E-06</v>
       </c>
       <c r="C59">
-        <v>0.08070868773231812</v>
+        <v>0.08067565141981005</v>
       </c>
       <c r="D59">
-        <v>0.005794103347598656</v>
+        <v>0.005862989225705962</v>
       </c>
       <c r="E59">
-        <v>0.08434957069444381</v>
+        <v>0.08577851386796775</v>
       </c>
       <c r="F59">
-        <v>7.348349911820255</v>
+        <v>7.508349911820255</v>
       </c>
       <c r="K59">
-        <v>8.202013994264036</v>
+        <v>7.132368853382948</v>
       </c>
       <c r="L59">
-        <v>8.883933161089677</v>
+        <v>6.283757308574289</v>
       </c>
       <c r="M59">
-        <v>8.344581255080655</v>
+        <v>7.32738904635059</v>
       </c>
       <c r="N59">
-        <v>0.03651538601676223</v>
+        <v>0.02844952429078787</v>
       </c>
       <c r="O59">
-        <v>0.004143430053230609</v>
+        <v>0.002214054551486357</v>
       </c>
       <c r="P59">
-        <v>0.03333539664708931</v>
+        <v>0.03060755819756763</v>
       </c>
       <c r="Q59">
-        <v>0.002592703816059099</v>
+        <v>0.004583082233418176</v>
       </c>
       <c r="R59">
-        <v>0.0007997314344518516</v>
+        <v>0.0007920215717038969</v>
       </c>
       <c r="S59">
-        <v>1.328683157637979E-06</v>
+        <v>8.626505197686041E-06</v>
       </c>
       <c r="T59">
-        <v>0.01914550873296379</v>
+        <v>0.01961401906998989</v>
       </c>
       <c r="U59">
-        <v>0.005000903335029553</v>
+        <v>0.004932672949245482</v>
       </c>
       <c r="V59">
-        <v>55.17966430026427</v>
+        <v>50.29653382359463</v>
       </c>
       <c r="W59">
-        <v>0.0003922686237970697</v>
+        <v>0.0003140843836669631</v>
       </c>
       <c r="X59">
-        <v>9.441409795984824E-07</v>
+        <v>1.643381557330852E-06</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -4110,61 +4110,61 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>3.795696472867858E-06</v>
+        <v>5.277369888466509E-06</v>
       </c>
       <c r="C60">
-        <v>0.08249236831290667</v>
+        <v>0.08245690528157441</v>
       </c>
       <c r="D60">
-        <v>0.005965649937879034</v>
+        <v>0.006037938209051736</v>
       </c>
       <c r="E60">
-        <v>0.08626280039026131</v>
+        <v>0.08774161331897749</v>
       </c>
       <c r="F60">
-        <v>7.348329152919129</v>
+        <v>7.508329152919129</v>
       </c>
       <c r="K60">
-        <v>8.195987954691601</v>
+        <v>7.136040039333374</v>
       </c>
       <c r="L60">
-        <v>8.875979831894476</v>
+        <v>6.296620011868679</v>
       </c>
       <c r="M60">
-        <v>8.341294515922915</v>
+        <v>7.335661802375886</v>
       </c>
       <c r="N60">
-        <v>0.03728614687303677</v>
+        <v>0.02907417833219981</v>
       </c>
       <c r="O60">
-        <v>0.00422840959755836</v>
+        <v>0.002280564658783778</v>
       </c>
       <c r="P60">
-        <v>0.03406736552401859</v>
+        <v>0.03122718857766641</v>
       </c>
       <c r="Q60">
-        <v>0.002668550042957045</v>
+        <v>0.004646560443019492</v>
       </c>
       <c r="R60">
-        <v>0.0008187410237683803</v>
+        <v>0.0008106738351921398</v>
       </c>
       <c r="S60">
-        <v>1.367433582000636E-06</v>
+        <v>8.65182233031943E-06</v>
       </c>
       <c r="T60">
-        <v>0.01948228505196222</v>
+        <v>0.0199635749300076</v>
       </c>
       <c r="U60">
-        <v>0.00509848643245343</v>
+        <v>0.005053861362819367</v>
       </c>
       <c r="V60">
-        <v>55.45517665797344</v>
+        <v>50.64421378513477</v>
       </c>
       <c r="W60">
-        <v>0.0004017721116202724</v>
+        <v>0.000324978507619345</v>
       </c>
       <c r="X60">
-        <v>9.437191568284122E-07</v>
+        <v>1.643197998033331E-06</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -4172,61 +4172,61 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>3.766849959983025E-06</v>
+        <v>5.237112855406056E-06</v>
       </c>
       <c r="C61">
-        <v>0.08435887363912685</v>
+        <v>0.0843207825272457</v>
       </c>
       <c r="D61">
-        <v>0.006147662520520332</v>
+        <v>0.006223595643367872</v>
       </c>
       <c r="E61">
-        <v>0.08826582677375137</v>
+        <v>0.08979711551703715</v>
       </c>
       <c r="F61">
-        <v>7.348308047219623</v>
+        <v>7.508308047219623</v>
       </c>
       <c r="K61">
-        <v>8.189841976297361</v>
+        <v>7.139747920139462</v>
       </c>
       <c r="L61">
-        <v>8.867812338167628</v>
+        <v>6.309870680679768</v>
       </c>
       <c r="M61">
-        <v>8.337991872824311</v>
+        <v>7.344105466330683</v>
       </c>
       <c r="N61">
-        <v>0.03809243314804844</v>
+        <v>0.02972768110472215</v>
       </c>
       <c r="O61">
-        <v>0.00431827363528394</v>
+        <v>0.002351096857524203</v>
       </c>
       <c r="P61">
-        <v>0.03483319029184936</v>
+        <v>0.03187549658095049</v>
       </c>
       <c r="Q61">
-        <v>0.002748887554168772</v>
+        <v>0.0047138523416558</v>
       </c>
       <c r="R61">
-        <v>0.0008386769649924383</v>
+        <v>0.0008302353477009647</v>
       </c>
       <c r="S61">
-        <v>1.408266249450086E-06</v>
+        <v>8.677706495440985E-06</v>
       </c>
       <c r="T61">
-        <v>0.01983310940853561</v>
+        <v>0.02032722648042683</v>
       </c>
       <c r="U61">
-        <v>0.005201421480544653</v>
+        <v>0.005181656493314714</v>
       </c>
       <c r="V61">
-        <v>55.74554231973907</v>
+        <v>51.01014670751306</v>
       </c>
       <c r="W61">
-        <v>0.000411738423904803</v>
+        <v>0.0003363350415932116</v>
       </c>
       <c r="X61">
-        <v>9.432889383408154E-07</v>
+        <v>1.643012603993027E-06</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -4234,61 +4234,61 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>3.736684886251195E-06</v>
+        <v>5.195010534265528E-06</v>
       </c>
       <c r="C62">
-        <v>0.086314153917092</v>
+        <v>0.08627321219934266</v>
       </c>
       <c r="D62">
-        <v>0.0063411176421475</v>
+        <v>0.006420960862715085</v>
       </c>
       <c r="E62">
-        <v>0.0903650837958829</v>
+        <v>0.09195162579069341</v>
       </c>
       <c r="F62">
-        <v>7.348286577074539</v>
+        <v>7.508286577074539</v>
       </c>
       <c r="K62">
-        <v>8.183571717747393</v>
+        <v>7.143494407256719</v>
       </c>
       <c r="L62">
-        <v>8.859414836205463</v>
+        <v>6.323539516763389</v>
       </c>
       <c r="M62">
-        <v>8.334670990421994</v>
+        <v>7.352732740680985</v>
       </c>
       <c r="N62">
-        <v>0.03893678713586755</v>
+        <v>0.0304120957109021</v>
       </c>
       <c r="O62">
-        <v>0.004413446818339491</v>
+        <v>0.002426024479647056</v>
       </c>
       <c r="P62">
-        <v>0.03563529786029138</v>
+        <v>0.03255453768693285</v>
       </c>
       <c r="Q62">
-        <v>0.002834127505407943</v>
+        <v>0.004785278457085078</v>
       </c>
       <c r="R62">
-        <v>0.0008596086824610131</v>
+        <v>0.0008507742887311028</v>
       </c>
       <c r="S62">
-        <v>1.451367532744123E-06</v>
+        <v>8.704193650479324E-06</v>
       </c>
       <c r="T62">
-        <v>0.02019890160673538</v>
+        <v>0.02070586573010463</v>
       </c>
       <c r="U62">
-        <v>0.005310160579360772</v>
+        <v>0.005316620307447732</v>
       </c>
       <c r="V62">
-        <v>56.05136391904536</v>
+        <v>51.39508146849891</v>
       </c>
       <c r="W62">
-        <v>0.0004222022032243168</v>
+        <v>0.0003481879946374878</v>
       </c>
       <c r="X62">
-        <v>9.428500202423176E-07</v>
+        <v>1.642825279637164E-06</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -4296,61 +4296,61 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>3.705110141227271E-06</v>
+        <v>5.150935832471646E-06</v>
       </c>
       <c r="C63">
-        <v>0.08836474459080854</v>
+        <v>0.08832070582335874</v>
       </c>
       <c r="D63">
-        <v>0.006547115673413008</v>
+        <v>0.006631159641298182</v>
       </c>
       <c r="E63">
-        <v>0.09256762871366317</v>
+        <v>0.09421238478797164</v>
       </c>
       <c r="F63">
-        <v>7.348264723429449</v>
+        <v>7.508264723429449</v>
       </c>
       <c r="K63">
-        <v>8.177170528665377</v>
+        <v>7.147276729360542</v>
       </c>
       <c r="L63">
-        <v>8.850774505130811</v>
+        <v>6.337644386791956</v>
       </c>
       <c r="M63">
-        <v>8.331333217045641</v>
+        <v>7.361544919264532</v>
       </c>
       <c r="N63">
-        <v>0.03982200099016315</v>
+        <v>0.03112968728093428</v>
       </c>
       <c r="O63">
-        <v>0.004514417785380602</v>
+        <v>0.002505757875169985</v>
       </c>
       <c r="P63">
-        <v>0.03647635351041659</v>
+        <v>0.03326656997487767</v>
       </c>
       <c r="Q63">
-        <v>0.002924728926403749</v>
+        <v>0.004861266644378873</v>
       </c>
       <c r="R63">
-        <v>0.0008816127161771226</v>
+        <v>0.0008723658296306059</v>
       </c>
       <c r="S63">
-        <v>1.496934111986282E-06</v>
+        <v>8.73152660936699E-06</v>
       </c>
       <c r="T63">
-        <v>0.02058066419718088</v>
+        <v>0.02110046176658301</v>
       </c>
       <c r="U63">
-        <v>0.005425219488730328</v>
+        <v>0.005459376066157222</v>
       </c>
       <c r="V63">
-        <v>56.37332176319948</v>
+        <v>51.79985947808649</v>
       </c>
       <c r="W63">
-        <v>0.0004332017122896987</v>
+        <v>0.0003605738631648736</v>
       </c>
       <c r="X63">
-        <v>9.424019370065764E-07</v>
+        <v>1.642636163531973E-06</v>
       </c>
     </row>
     <row r="64" spans="1:24">
@@ -4358,61 +4358,61 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>3.672026268651933E-06</v>
+        <v>5.104750128394117E-06</v>
       </c>
       <c r="C64">
-        <v>0.09051784008863474</v>
+        <v>0.09047043072288666</v>
       </c>
       <c r="D64">
-        <v>0.006766900827031455</v>
+        <v>0.006855464553268427</v>
       </c>
       <c r="E64">
-        <v>0.09488121853703851</v>
+        <v>0.09658734547249494</v>
       </c>
       <c r="F64">
-        <v>7.348242465670467</v>
+        <v>7.508242465670468</v>
       </c>
       <c r="K64">
-        <v>8.170632632260624</v>
+        <v>7.151094093931428</v>
       </c>
       <c r="L64">
-        <v>8.841876292315822</v>
+        <v>6.352212034532981</v>
       </c>
       <c r="M64">
-        <v>8.327979957179934</v>
+        <v>7.370549626530417</v>
       </c>
       <c r="N64">
-        <v>0.04075114791660479</v>
+        <v>0.03188294858108597</v>
       </c>
       <c r="O64">
-        <v>0.004621736665126178</v>
+        <v>0.002590763121808341</v>
       </c>
       <c r="P64">
-        <v>0.03735929099946956</v>
+        <v>0.03401407795725921</v>
       </c>
       <c r="Q64">
-        <v>0.003021208504236898</v>
+        <v>0.004942260581497283</v>
       </c>
       <c r="R64">
-        <v>0.0009047736578104157</v>
+        <v>0.0008950930481311649</v>
       </c>
       <c r="S64">
-        <v>1.545187441372818E-06</v>
+        <v>8.759894659191905E-06</v>
       </c>
       <c r="T64">
-        <v>0.02097949168950853</v>
+        <v>0.02151206928501527</v>
       </c>
       <c r="U64">
-        <v>0.005547178154877664</v>
+        <v>0.00561062333973055</v>
       </c>
       <c r="V64">
-        <v>56.712181943593</v>
+        <v>52.22542430562424</v>
       </c>
       <c r="W64">
-        <v>0.000444779280416779</v>
+        <v>0.0003735336132522955</v>
       </c>
       <c r="X64">
-        <v>9.419442842582438E-07</v>
+        <v>1.642445295303429E-06</v>
       </c>
     </row>
     <row r="65" spans="1:24">
@@ -4420,61 +4420,61 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>3.637324501074092E-06</v>
+        <v>5.056301961019874E-06</v>
       </c>
       <c r="C65">
-        <v>0.09278137898759699</v>
+        <v>0.09273029467341688</v>
       </c>
       <c r="D65">
-        <v>0.007001885191304402</v>
+        <v>0.007095319392226638</v>
       </c>
       <c r="E65">
-        <v>0.09731439781555745</v>
+        <v>0.09908526133319562</v>
       </c>
       <c r="F65">
-        <v>7.34821978144911</v>
+        <v>7.50821978144911</v>
       </c>
       <c r="K65">
-        <v>8.163951444501235</v>
+        <v>7.154946391300311</v>
       </c>
       <c r="L65">
-        <v>8.832702892468388</v>
+        <v>6.367274764852463</v>
       </c>
       <c r="M65">
-        <v>8.32461099265816</v>
+        <v>7.379756717382519</v>
       </c>
       <c r="N65">
-        <v>0.04172761849096908</v>
+        <v>0.03267462926917456</v>
       </c>
       <c r="O65">
-        <v>0.004736019538851103</v>
+        <v>0.002681570850461742</v>
       </c>
       <c r="P65">
-        <v>0.0382873472831245</v>
+        <v>0.03479980275119873</v>
       </c>
       <c r="Q65">
-        <v>0.003124154322234138</v>
+        <v>0.005028757325517108</v>
       </c>
       <c r="R65">
-        <v>0.0009291852380906602</v>
+        <v>0.000919047998225002</v>
       </c>
       <c r="S65">
-        <v>1.596383703967551E-06</v>
+        <v>8.789488066598665E-06</v>
       </c>
       <c r="T65">
-        <v>0.02139658124449855</v>
+        <v>0.02194183809434729</v>
       </c>
       <c r="U65">
-        <v>0.005676683828206805</v>
+        <v>0.005771147934558751</v>
       </c>
       <c r="V65">
-        <v>57.06880436817757</v>
+        <v>52.67283257758483</v>
       </c>
       <c r="W65">
-        <v>0.0004569816218910872</v>
+        <v>0.0003871127044783938</v>
       </c>
       <c r="X65">
-        <v>9.414766011150865E-07</v>
+        <v>1.642252680434984E-06</v>
       </c>
     </row>
     <row r="66" spans="1:24">
@@ -4482,61 +4482,61 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>3.600885769430628E-06</v>
+        <v>5.005425692151957E-06</v>
       </c>
       <c r="C66">
-        <v>0.09516414270416068</v>
+        <v>0.09510904398678328</v>
       </c>
       <c r="D66">
-        <v>0.007253677510687911</v>
+        <v>0.007352368391040024</v>
       </c>
       <c r="E66">
-        <v>0.0998765999371953</v>
+        <v>0.1017157879876495</v>
       </c>
       <c r="F66">
-        <v>7.348196646482337</v>
+        <v>7.508196646482337</v>
       </c>
       <c r="K66">
-        <v>8.157121971199139</v>
+        <v>7.158830172184635</v>
       </c>
       <c r="L66">
-        <v>8.823241805726797</v>
+        <v>6.382858618746079</v>
       </c>
       <c r="M66">
-        <v>8.321232459906792</v>
+        <v>7.389170207617631</v>
       </c>
       <c r="N66">
-        <v>0.04275516290630569</v>
+        <v>0.03350776978080548</v>
       </c>
       <c r="O66">
-        <v>0.004857988377359509</v>
+        <v>0.002778777644277415</v>
       </c>
       <c r="P66">
-        <v>0.03926410264314923</v>
+        <v>0.03562677623524544</v>
       </c>
       <c r="Q66">
-        <v>0.003234228391546291</v>
+        <v>0.005121355980477331</v>
       </c>
       <c r="R66">
-        <v>0.0009549515951569572</v>
+        <v>0.0009443329568405132</v>
       </c>
       <c r="S66">
-        <v>1.65079008183577E-06</v>
+        <v>8.820645630383982E-06</v>
       </c>
       <c r="T66">
-        <v>0.02183324506161777</v>
+        <v>0.0223910239321192</v>
       </c>
       <c r="U66">
-        <v>0.005814488419553927</v>
+        <v>0.005941832730580491</v>
       </c>
       <c r="V66">
-        <v>57.44415810476514</v>
+        <v>53.14326620543989</v>
       </c>
       <c r="W66">
-        <v>0.0004698609545722573</v>
+        <v>0.000401361229843253</v>
       </c>
       <c r="X66">
-        <v>9.409985379839398E-07</v>
+        <v>1.642058491390768E-06</v>
       </c>
     </row>
     <row r="67" spans="1:24">
@@ -4544,61 +4544,61 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>3.562579417433674E-06</v>
+        <v>4.951939772233381E-06</v>
       </c>
       <c r="C67">
-        <v>0.09767587028111704</v>
+        <v>0.0976163775752331</v>
       </c>
       <c r="D67">
-        <v>0.007524118327133253</v>
+        <v>0.007628491850773161</v>
       </c>
       <c r="E67">
-        <v>0.1025782640242269</v>
+        <v>0.1044896000507779</v>
       </c>
       <c r="F67">
-        <v>7.348173034325443</v>
+        <v>7.508173034325443</v>
       </c>
       <c r="K67">
-        <v>8.1501359751566</v>
+        <v>7.162745562975534</v>
       </c>
       <c r="L67">
-        <v>8.813467458805716</v>
+        <v>6.399007714190873</v>
       </c>
       <c r="M67">
-        <v>8.31784126870118</v>
+        <v>7.398805703230621</v>
       </c>
       <c r="N67">
-        <v>0.04383793932141844</v>
+        <v>0.03438574098470628</v>
       </c>
       <c r="O67">
-        <v>0.004988427437274776</v>
+        <v>0.002883073874451368</v>
       </c>
       <c r="P67">
-        <v>0.04029352762176646</v>
+        <v>0.03649835967109596</v>
       </c>
       <c r="Q67">
-        <v>0.003352194763005478</v>
+        <v>0.005220676654868601</v>
       </c>
       <c r="R67">
-        <v>0.0009821887610162465</v>
+        <v>0.0009710618800179454</v>
       </c>
       <c r="S67">
-        <v>1.708748084326491E-06</v>
+        <v>8.853583235567674E-06</v>
       </c>
       <c r="T67">
-        <v>0.02229092382281959</v>
+        <v>0.02286100082359174</v>
       </c>
       <c r="U67">
-        <v>0.005961412855636733</v>
+        <v>0.006123680102958084</v>
       </c>
       <c r="V67">
-        <v>57.83932776257669</v>
+        <v>53.63804826175967</v>
       </c>
       <c r="W67">
-        <v>0.0004834751690948947</v>
+        <v>0.0004163355788027898</v>
       </c>
       <c r="X67">
-        <v>9.405095182609621E-07</v>
+        <v>1.641862721851223E-06</v>
       </c>
     </row>
     <row r="68" spans="1:24">
@@ -4606,61 +4606,61 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3.522261945854546E-06</v>
+        <v>4.895645059280209E-06</v>
       </c>
       <c r="C68">
-        <v>0.1003273923974107</v>
+        <v>0.1002630800965408</v>
       </c>
       <c r="D68">
-        <v>0.007815322441148532</v>
+        <v>0.007925849150698026</v>
       </c>
       <c r="E68">
-        <v>0.1054309707710795</v>
+        <v>0.1074185266768904</v>
       </c>
       <c r="F68">
-        <v>7.348148916106422</v>
+        <v>7.508148916106422</v>
       </c>
       <c r="K68">
-        <v>8.142985881442707</v>
+        <v>7.16668933484239</v>
       </c>
       <c r="L68">
-        <v>8.803358783471968</v>
+        <v>6.415749988982891</v>
       </c>
       <c r="M68">
-        <v>8.314439716252215</v>
+        <v>7.408664103467124</v>
       </c>
       <c r="N68">
-        <v>0.04498057202389325</v>
+        <v>0.03531229001736084</v>
       </c>
       <c r="O68">
-        <v>0.005128256299866344</v>
+        <v>0.002995236255503124</v>
       </c>
       <c r="P68">
-        <v>0.04138003741173002</v>
+        <v>0.03741829152451441</v>
       </c>
       <c r="Q68">
-        <v>0.003478925535960217</v>
+        <v>0.005327519709248458</v>
       </c>
       <c r="R68">
-        <v>0.001011026408455421</v>
+        <v>0.0009993621240409565</v>
       </c>
       <c r="S68">
-        <v>1.770626932833328E-06</v>
+        <v>8.888828495640101E-06</v>
       </c>
       <c r="T68">
-        <v>0.0227712035571485</v>
+        <v>0.0233532749624339</v>
       </c>
       <c r="U68">
-        <v>0.006118410427718504</v>
+        <v>0.006317820210939348</v>
       </c>
       <c r="V68">
-        <v>58.25553254974365</v>
+        <v>54.15865916793447</v>
       </c>
       <c r="W68">
-        <v>0.0004978888602989505</v>
+        <v>0.0004320984818991307</v>
       </c>
       <c r="X68">
-        <v>9.400090117009895E-07</v>
+        <v>1.64166553325788E-06</v>
       </c>
     </row>
     <row r="69" spans="1:24">
@@ -4668,61 +4668,61 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>3.479775415497079E-06</v>
+        <v>4.836322684385902E-06</v>
       </c>
       <c r="C69">
-        <v>0.1031307884566914</v>
+        <v>0.1030611780039905</v>
       </c>
       <c r="D69">
-        <v>0.008129731285838037</v>
+        <v>0.008246931719562057</v>
       </c>
       <c r="E69">
-        <v>0.1084476003037694</v>
+        <v>0.1105157085193047</v>
       </c>
       <c r="F69">
-        <v>7.348124260222574</v>
+        <v>7.508124260222574</v>
       </c>
       <c r="K69">
-        <v>8.135664330557537</v>
+        <v>7.170657811294456</v>
       </c>
       <c r="L69">
-        <v>8.792893825982706</v>
+        <v>6.433128664665615</v>
       </c>
       <c r="M69">
-        <v>8.311031603850875</v>
+        <v>7.418755806498538</v>
       </c>
       <c r="N69">
-        <v>0.04618821795492437</v>
+        <v>0.03629159467681107</v>
       </c>
       <c r="O69">
-        <v>0.005278537312235684</v>
+        <v>0.003116166299773232</v>
       </c>
       <c r="P69">
-        <v>0.04252855595342002</v>
+        <v>0.03839073915528005</v>
       </c>
       <c r="Q69">
-        <v>0.003615422934766905</v>
+        <v>0.005442750573018013</v>
       </c>
       <c r="R69">
-        <v>0.001041609916986408</v>
+        <v>0.001029376466330208</v>
       </c>
       <c r="S69">
-        <v>1.836845738478435E-06</v>
+        <v>8.926851464717127E-06</v>
       </c>
       <c r="T69">
-        <v>0.02327583365197971</v>
+        <v>0.02386950086399434</v>
       </c>
       <c r="U69">
-        <v>0.006286577258010189</v>
+        <v>0.006525544314509877</v>
       </c>
       <c r="V69">
-        <v>58.69414580580597</v>
+        <v>54.70675831826775</v>
       </c>
       <c r="W69">
-        <v>0.0005131753940900193</v>
+        <v>0.0004487200234824993</v>
       </c>
       <c r="X69">
-        <v>9.394965031390277E-07</v>
+        <v>1.641467109435277E-06</v>
       </c>
     </row>
     <row r="70" spans="1:24">
@@ -4730,61 +4730,61 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>3.434945790195783E-06</v>
+        <v>4.773731855181584E-06</v>
       </c>
       <c r="C70">
-        <v>0.1060995714932805</v>
+        <v>0.1060241232003789</v>
       </c>
       <c r="D70">
-        <v>0.008470177265980395</v>
+        <v>0.008594628023081925</v>
       </c>
       <c r="E70">
-        <v>0.1116425167765881</v>
+        <v>0.113795780785191</v>
       </c>
       <c r="F70">
-        <v>7.348099031986282</v>
+        <v>7.508099031986282</v>
       </c>
       <c r="K70">
-        <v>8.12816265120407</v>
+        <v>7.174650316031671</v>
       </c>
       <c r="L70">
-        <v>8.782047288812493</v>
+        <v>6.451196867996517</v>
       </c>
       <c r="M70">
-        <v>8.30762057369602</v>
+        <v>7.429095785590839</v>
       </c>
       <c r="N70">
-        <v>0.0474666454750084</v>
+        <v>0.0373283268135935</v>
       </c>
       <c r="O70">
-        <v>0.005440492613531232</v>
+        <v>0.003246911217939731</v>
       </c>
       <c r="P70">
-        <v>0.04374459136025293</v>
+        <v>0.03942036379847574</v>
       </c>
       <c r="Q70">
-        <v>0.003762845931966911</v>
+        <v>0.005567350910421986</v>
       </c>
       <c r="R70">
-        <v>0.001074102825462906</v>
+        <v>0.001061265516794755</v>
       </c>
       <c r="S70">
-        <v>1.907891389391816E-06</v>
+        <v>8.968155453813352E-06</v>
       </c>
       <c r="T70">
-        <v>0.02380674791429126</v>
+        <v>0.02441149950616573</v>
       </c>
       <c r="U70">
-        <v>0.006467170097763193</v>
+        <v>0.006748330486256304</v>
       </c>
       <c r="V70">
-        <v>59.15671644977631</v>
+        <v>55.28420904471223</v>
       </c>
       <c r="W70">
-        <v>0.0005294158680687525</v>
+        <v>0.0004662808169629591</v>
       </c>
       <c r="X70">
-        <v>9.389713855842849E-07</v>
+        <v>1.641267484198416E-06</v>
       </c>
     </row>
     <row r="71" spans="1:24">
@@ -4792,61 +4792,61 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3.38758095955611E-06</v>
+        <v>4.707607245529005E-06</v>
       </c>
       <c r="C71">
-        <v>0.1092489067909354</v>
+        <v>0.1091670101415821</v>
       </c>
       <c r="D71">
-        <v>0.008839963915128271</v>
+        <v>0.008972304394181537</v>
       </c>
       <c r="E71">
-        <v>0.1150317846316233</v>
+        <v>0.1172750868945424</v>
       </c>
       <c r="F71">
-        <v>7.348073193212652</v>
+        <v>7.508073193212653</v>
       </c>
       <c r="K71">
-        <v>8.12046758144726</v>
+        <v>7.178659496719869</v>
       </c>
       <c r="L71">
-        <v>8.770779458862409</v>
+        <v>6.469989273874161</v>
       </c>
       <c r="M71">
-        <v>8.30420327643384</v>
+        <v>7.439682092031307</v>
       </c>
       <c r="N71">
-        <v>0.04882232782537863</v>
+        <v>0.0384277273166791</v>
       </c>
       <c r="O71">
-        <v>0.005615511804730174</v>
+        <v>0.003388667740259691</v>
       </c>
       <c r="P71">
-        <v>0.04503432508374603</v>
+        <v>0.04051239647228392</v>
       </c>
       <c r="Q71">
-        <v>0.003922553515466146</v>
+        <v>0.005702561121174359</v>
       </c>
       <c r="R71">
-        <v>0.001108689758820116</v>
+        <v>0.001095210592967043</v>
       </c>
       <c r="S71">
-        <v>1.984364540511521E-06</v>
+        <v>9.01366285069984E-06</v>
       </c>
       <c r="T71">
-        <v>0.02436608913417927</v>
+        <v>0.02498127915196927</v>
       </c>
       <c r="U71">
-        <v>0.006661613308808436</v>
+        <v>0.006987867525209923</v>
       </c>
       <c r="V71">
-        <v>59.64498998720401</v>
+        <v>55.893106228298</v>
       </c>
       <c r="W71">
-        <v>0.0005467026888152156</v>
+        <v>0.0004848688269346326</v>
       </c>
       <c r="X71">
-        <v>9.384327307013083E-07</v>
+        <v>1.641067025164007E-06</v>
       </c>
     </row>
     <row r="72" spans="1:24">
@@ -4854,61 +4854,61 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3.337468610597267E-06</v>
+        <v>4.637656211426404E-06</v>
       </c>
       <c r="C72">
-        <v>0.1125958715534623</v>
+        <v>0.1125068336664954</v>
       </c>
       <c r="D72">
-        <v>0.009242966018070699</v>
+        <v>0.009383905826584918</v>
       </c>
       <c r="E72">
-        <v>0.1186334233022131</v>
+        <v>0.1209719292730003</v>
       </c>
       <c r="F72">
-        <v>7.348046701735183</v>
+        <v>7.508046701735183</v>
       </c>
       <c r="K72">
-        <v>8.112573662693629</v>
+        <v>7.182684282413542</v>
       </c>
       <c r="L72">
-        <v>8.759068913372838</v>
+        <v>6.489572104396854</v>
       </c>
       <c r="M72">
-        <v>8.300791257754863</v>
+        <v>7.45053315646671</v>
       </c>
       <c r="N72">
-        <v>0.05026255502606691</v>
+        <v>0.03959569596922642</v>
       </c>
       <c r="O72">
-        <v>0.005805278555395243</v>
+        <v>0.003542857019463585</v>
       </c>
       <c r="P72">
-        <v>0.04640471746935536</v>
+        <v>0.04167272431732091</v>
       </c>
       <c r="Q72">
-        <v>0.004096115759177192</v>
+        <v>0.005849715379202315</v>
       </c>
       <c r="R72">
-        <v>0.001145579938629436</v>
+        <v>0.001131417157304255</v>
       </c>
       <c r="S72">
-        <v>2.066896399524907E-06</v>
+        <v>9.06413866126251E-06</v>
       </c>
       <c r="T72">
-        <v>0.02495623832835829</v>
+        <v>0.02558105953952791</v>
       </c>
       <c r="U72">
-        <v>0.006871616554540097</v>
+        <v>0.00724611313067366</v>
       </c>
       <c r="V72">
-        <v>60.16095096690059</v>
+        <v>56.53581305710885</v>
       </c>
       <c r="W72">
-        <v>0.0005651404176965427</v>
+        <v>0.0005045866072850594</v>
       </c>
       <c r="X72">
-        <v>9.378801563885541E-07</v>
+        <v>1.640865785879323E-06</v>
       </c>
     </row>
     <row r="73" spans="1:24">
@@ -4916,61 +4916,61 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>3.651847768199507E-06</v>
+        <v>5.975321651520625E-06</v>
       </c>
       <c r="C73">
-        <v>0.1161597648477861</v>
+        <v>0.1160627966954578</v>
       </c>
       <c r="D73">
-        <v>0.008607904592744256</v>
+        <v>0.007512211129122111</v>
       </c>
       <c r="E73">
-        <v>0.1200786747200045</v>
+        <v>0.1226093337205005</v>
       </c>
       <c r="F73">
-        <v>7.848046701735183</v>
+        <v>9.008046701735182</v>
       </c>
       <c r="K73">
-        <v>8.104464871275393</v>
+        <v>7.186719671656368</v>
       </c>
       <c r="L73">
-        <v>8.764924883613253</v>
+        <v>6.380344467399631</v>
       </c>
       <c r="M73">
-        <v>8.284470551350443</v>
+        <v>7.433686651158666</v>
       </c>
       <c r="N73">
-        <v>0.05179556455953833</v>
+        <v>0.04083889731232168</v>
       </c>
       <c r="O73">
-        <v>0.005503889191406109</v>
+        <v>0.002886537734541963</v>
       </c>
       <c r="P73">
-        <v>0.04786363476970631</v>
+        <v>0.04290800048760085</v>
       </c>
       <c r="Q73">
-        <v>0.003864686084654437</v>
+        <v>0.005332416011413063</v>
       </c>
       <c r="R73">
-        <v>0.001185011422844261</v>
+        <v>0.001170118985533323</v>
       </c>
       <c r="S73">
-        <v>2.231538748219349E-06</v>
+        <v>9.10224775864772E-06</v>
       </c>
       <c r="T73">
-        <v>0.02557984597573133</v>
+        <v>0.02621329907086771</v>
       </c>
       <c r="U73">
-        <v>0.006511618464182111</v>
+        <v>0.006024395442929773</v>
       </c>
       <c r="V73">
-        <v>60.59252506877219</v>
+        <v>56.92292405007804</v>
       </c>
       <c r="W73">
-        <v>0.0005848481919449789</v>
+        <v>0.0005255555717171498</v>
       </c>
       <c r="X73">
-        <v>9.373125409892776E-07</v>
+        <v>1.640664016417182E-06</v>
       </c>
     </row>
     <row r="74" spans="1:24">
@@ -4978,61 +4978,61 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>3.59537969192595E-06</v>
+        <v>5.893353781118654E-06</v>
       </c>
       <c r="C74">
-        <v>0.1200009027140376</v>
+        <v>0.1199396033228269</v>
       </c>
       <c r="D74">
-        <v>0.009026269412494292</v>
+        <v>0.007871376670389982</v>
       </c>
       <c r="E74">
-        <v>0.1241073535952402</v>
+        <v>0.1268170368320617</v>
       </c>
       <c r="F74">
-        <v>7.848046701735183</v>
+        <v>9.008046701735182</v>
       </c>
       <c r="K74">
-        <v>8.096430377142447</v>
+        <v>7.19142804339836</v>
       </c>
       <c r="L74">
-        <v>8.748742860757089</v>
+        <v>6.387916431333375</v>
       </c>
       <c r="M74">
-        <v>8.278648824844167</v>
+        <v>7.435781240594427</v>
       </c>
       <c r="N74">
-        <v>0.05344883867982878</v>
+        <v>0.04219433872581381</v>
       </c>
       <c r="O74">
-        <v>0.005693551478734048</v>
+        <v>0.003017056171759968</v>
       </c>
       <c r="P74">
-        <v>0.04943502579417245</v>
+        <v>0.04424998564746471</v>
       </c>
       <c r="Q74">
-        <v>0.004050229762456197</v>
+        <v>0.00552408054741686</v>
       </c>
       <c r="R74">
-        <v>0.001227253561561976</v>
+        <v>0.001211583869025276</v>
       </c>
       <c r="S74">
-        <v>2.388570747841329E-06</v>
+        <v>1.038368645651483E-05</v>
       </c>
       <c r="T74">
-        <v>0.02626085410114379</v>
+        <v>0.02693433134329406</v>
       </c>
       <c r="U74">
-        <v>0.006724936331304152</v>
+        <v>0.006261109751068328</v>
       </c>
       <c r="V74">
-        <v>61.05321764232193</v>
+        <v>57.34486219627173</v>
       </c>
       <c r="W74">
-        <v>0.0006059630755282779</v>
+        <v>0.000547964315274095</v>
       </c>
       <c r="X74">
-        <v>9.367501263999713E-07</v>
+        <v>1.640428597830082E-06</v>
       </c>
     </row>
     <row r="75" spans="1:24">
@@ -5040,61 +5040,61 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>3.535247836403807E-06</v>
+        <v>5.805900029546092E-06</v>
       </c>
       <c r="C75">
-        <v>0.1241110743177984</v>
+        <v>0.1240902783840283</v>
       </c>
       <c r="D75">
-        <v>0.009486890042469482</v>
+        <v>0.008266107442142548</v>
       </c>
       <c r="E75">
-        <v>0.128417767690842</v>
+        <v>0.1313230137051339</v>
       </c>
       <c r="F75">
-        <v>7.848046701735183</v>
+        <v>9.008046701735182</v>
       </c>
       <c r="K75">
-        <v>8.088242880837955</v>
+        <v>7.196382462634713</v>
       </c>
       <c r="L75">
-        <v>8.735357063507369</v>
+        <v>6.408706601386456</v>
       </c>
       <c r="M75">
-        <v>8.274942313980789</v>
+        <v>7.447393587934217</v>
       </c>
       <c r="N75">
-        <v>0.05521755302061006</v>
+        <v>0.04364534919077877</v>
       </c>
       <c r="O75">
-        <v>0.005910256889722285</v>
+        <v>0.0031673042891375</v>
       </c>
       <c r="P75">
-        <v>0.0511159441657175</v>
+        <v>0.04568427842894796</v>
       </c>
       <c r="Q75">
-        <v>0.00425002396577124</v>
+        <v>0.005670027216438258</v>
       </c>
       <c r="R75">
-        <v>0.001272618931592129</v>
+        <v>0.001256072764675971</v>
       </c>
       <c r="S75">
-        <v>2.505197734770632E-06</v>
+        <v>1.051355568897063E-05</v>
       </c>
       <c r="T75">
-        <v>0.02698440661113786</v>
+        <v>0.0277000062170802</v>
       </c>
       <c r="U75">
-        <v>0.006965989769882764</v>
+        <v>0.006524436890481359</v>
       </c>
       <c r="V75">
-        <v>61.54709960209902</v>
+        <v>57.80525440000503</v>
       </c>
       <c r="W75">
-        <v>0.0006286394237249933</v>
+        <v>0.0005719139803934069</v>
       </c>
       <c r="X75">
-        <v>9.361770016586568E-07</v>
+        <v>1.640180876868264E-06</v>
       </c>
     </row>
     <row r="76" spans="1:24">
@@ -5102,61 +5102,61 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>3.471097786006316E-06</v>
+        <v>5.712409612975992E-06</v>
       </c>
       <c r="C76">
-        <v>0.1285196967899265</v>
+        <v>0.1285450541894854</v>
       </c>
       <c r="D76">
-        <v>0.009996368123156785</v>
+        <v>0.008701848673474191</v>
       </c>
       <c r="E76">
-        <v>0.1330402378408647</v>
+        <v>0.1361596025530034</v>
       </c>
       <c r="F76">
-        <v>7.848046701735183</v>
+        <v>9.008046701735182</v>
       </c>
       <c r="K76">
-        <v>8.07982634315754</v>
+        <v>7.201375901563626</v>
       </c>
       <c r="L76">
-        <v>8.721331333082095</v>
+        <v>6.43060203662636</v>
       </c>
       <c r="M76">
-        <v>8.271225287225692</v>
+        <v>7.459370637645082</v>
       </c>
       <c r="N76">
-        <v>0.05711398748718267</v>
+        <v>0.04520219707161113</v>
       </c>
       <c r="O76">
-        <v>0.00614845773386652</v>
+        <v>0.003332924414847899</v>
       </c>
       <c r="P76">
-        <v>0.05291847955802313</v>
+        <v>0.04722328809096757</v>
       </c>
       <c r="Q76">
-        <v>0.004470248502437017</v>
+        <v>0.005830423112883188</v>
       </c>
       <c r="R76">
-        <v>0.001321469459817412</v>
+        <v>0.001303978888098548</v>
       </c>
       <c r="S76">
-        <v>2.633517065777339E-06</v>
+        <v>1.065126977991077E-05</v>
       </c>
       <c r="T76">
-        <v>0.0277543457204169</v>
+        <v>0.02851445119118015</v>
       </c>
       <c r="U76">
-        <v>0.007229829311105901</v>
+        <v>0.006812136873738712</v>
       </c>
       <c r="V76">
-        <v>62.0771001204431</v>
+        <v>58.30711567117767</v>
       </c>
       <c r="W76">
-        <v>0.0006530577402627962</v>
+        <v>0.0005975655714999205</v>
       </c>
       <c r="X76">
-        <v>9.35587844021028E-07</v>
+        <v>1.639931204921819E-06</v>
       </c>
     </row>
     <row r="77" spans="1:24">
@@ -5164,61 +5164,61 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>3.401815145371273E-06</v>
+        <v>5.611282896858064E-06</v>
       </c>
       <c r="C77">
-        <v>0.1332606299365973</v>
+        <v>0.1333387824101259</v>
       </c>
       <c r="D77">
-        <v>0.01056469392129616</v>
+        <v>0.009186589398662166</v>
       </c>
       <c r="E77">
-        <v>0.1380084378492291</v>
+        <v>0.1413623636888433</v>
       </c>
       <c r="F77">
-        <v>7.846941449696422</v>
+        <v>9.00694144969642</v>
       </c>
       <c r="K77">
-        <v>8.071166164060415</v>
+        <v>7.206400911099057</v>
       </c>
       <c r="L77">
-        <v>8.706532215001777</v>
+        <v>6.453643384289658</v>
       </c>
       <c r="M77">
-        <v>8.267513440696975</v>
+        <v>7.471681527084324</v>
       </c>
       <c r="N77">
-        <v>0.05915260867731532</v>
+        <v>0.04687696797788166</v>
       </c>
       <c r="O77">
-        <v>0.006412288972377409</v>
+        <v>0.003516578322082185</v>
       </c>
       <c r="P77">
-        <v>0.05485640880024657</v>
+        <v>0.04887900269009095</v>
       </c>
       <c r="Q77">
-        <v>0.004714919844298711</v>
+        <v>0.006008365006213183</v>
       </c>
       <c r="R77">
-        <v>0.001374222897527478</v>
+        <v>0.001355711992831293</v>
       </c>
       <c r="S77">
-        <v>2.775647423932506E-06</v>
+        <v>1.080602792244024E-05</v>
       </c>
       <c r="T77">
-        <v>0.02857532637678934</v>
+        <v>0.02938254376387782</v>
       </c>
       <c r="U77">
-        <v>0.007520933561069566</v>
+        <v>0.007128631616505617</v>
       </c>
       <c r="V77">
-        <v>62.64681985733393</v>
+        <v>58.85411753838401</v>
       </c>
       <c r="W77">
-        <v>0.0006794275077095193</v>
+        <v>0.0006251224552693373</v>
       </c>
       <c r="X77">
-        <v>9.349816314842292E-07</v>
+        <v>1.639679954445047E-06</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -5226,61 +5226,61 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>3.328372387890698E-06</v>
+        <v>5.503750258544288E-06</v>
       </c>
       <c r="C78">
-        <v>0.1383729606039015</v>
+        <v>0.1385117904522702</v>
       </c>
       <c r="D78">
-        <v>0.0111979490491975</v>
+        <v>0.009725723255036003</v>
       </c>
       <c r="E78">
-        <v>0.143364418610743</v>
+        <v>0.146976881920253</v>
       </c>
       <c r="F78">
-        <v>7.846915147451131</v>
+        <v>9.00691514745113</v>
       </c>
       <c r="K78">
-        <v>8.062247178864798</v>
+        <v>7.211449028141472</v>
       </c>
       <c r="L78">
-        <v>8.691044116928492</v>
+        <v>6.477861970552939</v>
       </c>
       <c r="M78">
-        <v>8.263825848887144</v>
+        <v>7.484372142451326</v>
       </c>
       <c r="N78">
-        <v>0.0613501219983544</v>
+        <v>0.04868365088020664</v>
       </c>
       <c r="O78">
-        <v>0.00670444219750877</v>
+        <v>0.003720268454523792</v>
       </c>
       <c r="P78">
-        <v>0.0569456375067444</v>
+        <v>0.05066527926025252</v>
       </c>
       <c r="Q78">
-        <v>0.004986515441215229</v>
+        <v>0.006205632226120383</v>
       </c>
       <c r="R78">
-        <v>0.001431366532948459</v>
+        <v>0.001411749741369162</v>
       </c>
       <c r="S78">
-        <v>2.932405430790111E-06</v>
+        <v>1.097466389545643E-05</v>
       </c>
       <c r="T78">
-        <v>0.029452592744111</v>
+        <v>0.03030979010335166</v>
       </c>
       <c r="U78">
-        <v>0.007841613921909499</v>
+        <v>0.00747641532242484</v>
       </c>
       <c r="V78">
-        <v>63.26009301061367</v>
+        <v>59.45019464934648</v>
       </c>
       <c r="W78">
-        <v>0.0007079917560058198</v>
+        <v>0.0006548221242498737</v>
       </c>
       <c r="X78">
-        <v>9.343573025205359E-07</v>
+        <v>1.639427548592926E-06</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -5288,61 +5288,61 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>3.249561608579677E-06</v>
+        <v>5.388050801520147E-06</v>
       </c>
       <c r="C79">
-        <v>0.1439023089323669</v>
+        <v>0.1441111846782369</v>
       </c>
       <c r="D79">
-        <v>0.01191011784551321</v>
+        <v>0.01033047233283415</v>
       </c>
       <c r="E79">
-        <v>0.1491535990669296</v>
+        <v>0.1530512665200362</v>
       </c>
       <c r="F79">
-        <v>7.846887909706388</v>
+        <v>9.006887909706387</v>
       </c>
       <c r="K79">
-        <v>8.053052591324636</v>
+        <v>7.21651212840333</v>
       </c>
       <c r="L79">
-        <v>8.674694977687595</v>
+        <v>6.503407798442389</v>
       </c>
       <c r="M79">
-        <v>8.260159473076422</v>
+        <v>7.497438281741108</v>
       </c>
       <c r="N79">
-        <v>0.0637260211201303</v>
+        <v>0.0506385805508885</v>
       </c>
       <c r="O79">
-        <v>0.007030653980998954</v>
+        <v>0.003947945967526859</v>
       </c>
       <c r="P79">
-        <v>0.05920472977046306</v>
+        <v>0.05259830739217131</v>
       </c>
       <c r="Q79">
-        <v>0.005290687918996153</v>
+        <v>0.006426254755021831</v>
       </c>
       <c r="R79">
-        <v>0.001493472364579662</v>
+        <v>0.001472653005607149</v>
       </c>
       <c r="S79">
-        <v>3.107306959587287E-06</v>
+        <v>1.116482044014433E-05</v>
       </c>
       <c r="T79">
-        <v>0.03039220051898933</v>
+        <v>0.03130254552860935</v>
       </c>
       <c r="U79">
-        <v>0.008197852650641898</v>
+        <v>0.007861469453430749</v>
       </c>
       <c r="V79">
-        <v>63.92163173468457</v>
+        <v>60.10015431425253</v>
       </c>
       <c r="W79">
-        <v>0.0007390360158172874</v>
+        <v>0.0006869433262471621</v>
       </c>
       <c r="X79">
-        <v>9.337136813927245E-07</v>
+        <v>1.639174393579834E-06</v>
       </c>
     </row>
     <row r="80" spans="1:24">
@@ -5350,61 +5350,61 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>3.164815752400181E-06</v>
+        <v>5.263272844965919E-06</v>
       </c>
       <c r="C80">
-        <v>0.1499019539817694</v>
+        <v>0.1501921261484825</v>
       </c>
       <c r="D80">
-        <v>0.01271644178446772</v>
+        <v>0.01101322910050282</v>
       </c>
       <c r="E80">
-        <v>0.1554299002027773</v>
+        <v>0.159643048741695</v>
       </c>
       <c r="F80">
-        <v>7.846859647089223</v>
+        <v>9.006859647089222</v>
       </c>
       <c r="K80">
-        <v>8.043560166792561</v>
+        <v>7.221578520528221</v>
       </c>
       <c r="L80">
-        <v>8.657386065667488</v>
+        <v>6.530420525735243</v>
       </c>
       <c r="M80">
-        <v>8.256524993491054</v>
+        <v>7.510897750604212</v>
       </c>
       <c r="N80">
-        <v>0.0663030832628181</v>
+        <v>0.05276088212285949</v>
       </c>
       <c r="O80">
-        <v>0.007397234342138682</v>
+        <v>0.00420398893008817</v>
       </c>
       <c r="P80">
-        <v>0.06165536803643883</v>
+        <v>0.0546970370574963</v>
       </c>
       <c r="Q80">
-        <v>0.005633567824156209</v>
+        <v>0.006674551749333978</v>
       </c>
       <c r="R80">
-        <v>0.00156121623083512</v>
+        <v>0.001539084286751104</v>
       </c>
       <c r="S80">
-        <v>3.303639863024855E-06</v>
+        <v>1.138052968171954E-05</v>
       </c>
       <c r="T80">
-        <v>0.03140103451300512</v>
+        <v>0.03236804898657202</v>
       </c>
       <c r="U80">
-        <v>0.008595940986357383</v>
+        <v>0.008290069592912249</v>
       </c>
       <c r="V80">
-        <v>64.63702537297785</v>
+        <v>60.80967343769608</v>
       </c>
       <c r="W80">
-        <v>0.0007728992637917926</v>
+        <v>0.0007218160821724324</v>
       </c>
       <c r="X80">
-        <v>9.330492116754792E-07</v>
+        <v>1.638921073973589E-06</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -5412,61 +5412,61 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>3.073497697062676E-06</v>
+        <v>5.128378375386372E-06</v>
       </c>
       <c r="C81">
-        <v>0.1564345974197361</v>
+        <v>0.1568196926745768</v>
       </c>
       <c r="D81">
-        <v>0.01363621953585328</v>
+        <v>0.01178962439163162</v>
       </c>
       <c r="E81">
-        <v>0.1622563945006977</v>
+        <v>0.1668195084530967</v>
       </c>
       <c r="F81">
-        <v>7.84683025684644</v>
+        <v>9.00683025684644</v>
       </c>
       <c r="K81">
-        <v>8.03374974013815</v>
+        <v>7.226635650596503</v>
       </c>
       <c r="L81">
-        <v>8.639003226529345</v>
+        <v>6.5590618654894</v>
       </c>
       <c r="M81">
-        <v>8.252936054630059</v>
+        <v>7.524768753714367</v>
       </c>
       <c r="N81">
-        <v>0.06910812368761236</v>
+        <v>0.05507311513203907</v>
       </c>
       <c r="O81">
-        <v>0.007812137605254698</v>
+        <v>0.004493892679144814</v>
       </c>
       <c r="P81">
-        <v>0.06432307280845229</v>
+        <v>0.0569838220721707</v>
       </c>
       <c r="Q81">
-        <v>0.006022894141916103</v>
+        <v>0.00695595816333586</v>
       </c>
       <c r="R81">
-        <v>0.001635402544690934</v>
+        <v>0.001611832084706789</v>
       </c>
       <c r="S81">
-        <v>3.52566136743141E-06</v>
+        <v>1.162775848819611E-05</v>
       </c>
       <c r="T81">
-        <v>0.03248699134760739</v>
+        <v>0.03351461943388916</v>
       </c>
       <c r="U81">
-        <v>0.009043724283140785</v>
+        <v>0.00876995564856267</v>
       </c>
       <c r="V81">
-        <v>65.4129578174542</v>
+        <v>61.58550062712502</v>
       </c>
       <c r="W81">
-        <v>0.0008099835825062137</v>
+        <v>0.0007598336275544512</v>
       </c>
       <c r="X81">
-        <v>9.323624818096704E-07</v>
+        <v>1.638668217470175E-06</v>
       </c>
     </row>
     <row r="82" spans="1:24">
@@ -5474,61 +5474,61 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>2.974894001852936E-06</v>
+        <v>4.982185517830705E-06</v>
       </c>
       <c r="C82">
-        <v>0.1635745163139303</v>
+        <v>0.1640711960887241</v>
       </c>
       <c r="D82">
-        <v>0.01469420138683861</v>
+        <v>0.01267962756396363</v>
       </c>
       <c r="E82">
-        <v>0.169707292052531</v>
+        <v>0.1746597732579807</v>
       </c>
       <c r="F82">
-        <v>7.846799620065717</v>
+        <v>9.006799620065715</v>
       </c>
       <c r="K82">
-        <v>8.02359510914429</v>
+        <v>7.231664473596594</v>
       </c>
       <c r="L82">
-        <v>8.619398905990497</v>
+        <v>6.589505053539264</v>
       </c>
       <c r="M82">
-        <v>8.24940243852234</v>
+        <v>7.539060707355993</v>
       </c>
       <c r="N82">
-        <v>0.07217292299173025</v>
+        <v>0.05760207625468379</v>
       </c>
       <c r="O82">
-        <v>0.008285474582286078</v>
+        <v>0.004824619617954935</v>
       </c>
       <c r="P82">
-        <v>0.0672380817417791</v>
+        <v>0.05948521526761245</v>
       </c>
       <c r="Q82">
-        <v>0.006468572923535689</v>
+        <v>0.007277446483504216</v>
       </c>
       <c r="R82">
-        <v>0.00171699638885711</v>
+        <v>0.001691842301017719</v>
       </c>
       <c r="S82">
-        <v>3.778889588747221E-06</v>
+        <v>1.191452067724358E-05</v>
       </c>
       <c r="T82">
-        <v>0.03365915470083072</v>
+        <v>0.03475185262315548</v>
       </c>
       <c r="U82">
-        <v>0.009551058323283524</v>
+        <v>0.009310765548381204</v>
       </c>
       <c r="V82">
-        <v>66.25748769831927</v>
+        <v>62.43571834899224</v>
       </c>
       <c r="W82">
-        <v>0.0008507705403570858</v>
+        <v>0.000801466852914594</v>
       </c>
       <c r="X82">
-        <v>9.316516576401005E-07</v>
+        <v>1.63841677632017E-06</v>
       </c>
     </row>
     <row r="83" spans="1:24">
@@ -5536,61 +5536,61 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>2.868210756613147E-06</v>
+        <v>4.823350543737187E-06</v>
       </c>
       <c r="C83">
-        <v>0.1714103223627246</v>
+        <v>0.1720391733795009</v>
       </c>
       <c r="D83">
-        <v>0.01592257571475687</v>
+        <v>0.01370911347428609</v>
       </c>
       <c r="E83">
-        <v>0.1778704584738098</v>
+        <v>0.1832574722700621</v>
       </c>
       <c r="F83">
-        <v>7.846767598142974</v>
+        <v>9.006767598142973</v>
       </c>
       <c r="K83">
-        <v>8.01306767665776</v>
+        <v>7.236647226214742</v>
       </c>
       <c r="L83">
-        <v>8.598407482111966</v>
+        <v>6.621960370361315</v>
       </c>
       <c r="M83">
-        <v>8.245941044497718</v>
+        <v>7.553787785338392</v>
       </c>
       <c r="N83">
-        <v>0.07553542027643785</v>
+        <v>0.0603798371303011</v>
       </c>
       <c r="O83">
-        <v>0.008830346234020325</v>
+        <v>0.005205152147810378</v>
       </c>
       <c r="P83">
-        <v>0.07043647694273929</v>
+        <v>0.0622329925720392</v>
       </c>
       <c r="Q83">
-        <v>0.006983437460367531</v>
+        <v>0.00764798316901432</v>
       </c>
       <c r="R83">
-        <v>0.001807165730923866</v>
+        <v>0.001780259552614586</v>
       </c>
       <c r="S83">
-        <v>4.070480771804672E-06</v>
+        <v>1.225130203497075E-05</v>
       </c>
       <c r="T83">
-        <v>0.03492800187859637</v>
+        <v>0.03609085720603834</v>
       </c>
       <c r="U83">
-        <v>0.01013053291355676</v>
+        <v>0.009924650320479107</v>
       </c>
       <c r="V83">
-        <v>67.18043170994761</v>
+        <v>63.37009099888542</v>
       </c>
       <c r="W83">
-        <v>0.0008958457348724542</v>
+        <v>0.0008472877679900762</v>
       </c>
       <c r="X83">
-        <v>9.309147373660432E-07</v>
+        <v>1.638167638689263E-06</v>
       </c>
     </row>
     <row r="84" spans="1:24">
@@ -5598,61 +5598,61 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>2.752573912776244E-06</v>
+        <v>4.650351197583709E-06</v>
       </c>
       <c r="C84">
-        <v>0.1800485305098339</v>
+        <v>0.1808352878186796</v>
       </c>
       <c r="D84">
-        <v>0.01736384788009755</v>
+        <v>0.01491213700133319</v>
       </c>
       <c r="E84">
-        <v>0.1868506375970181</v>
+        <v>0.1927241220338515</v>
       </c>
       <c r="F84">
-        <v>7.846734028236001</v>
+        <v>9.006734028236</v>
       </c>
       <c r="K84">
-        <v>8.002136393755041</v>
+        <v>7.241558243231954</v>
       </c>
       <c r="L84">
-        <v>8.575828235218385</v>
+        <v>6.656658277727547</v>
       </c>
       <c r="M84">
-        <v>8.242571009005893</v>
+        <v>7.568952932427981</v>
       </c>
       <c r="N84">
-        <v>0.07924125772323883</v>
+        <v>0.06344509740710613</v>
       </c>
       <c r="O84">
-        <v>0.009463952943380026</v>
+        <v>0.005647219832707734</v>
       </c>
       <c r="P84">
-        <v>0.07396164580287105</v>
+        <v>0.06526549309442947</v>
       </c>
       <c r="Q84">
-        <v>0.007584387658758029</v>
+        <v>0.008079382042877259</v>
       </c>
       <c r="R84">
-        <v>0.001907337689265647</v>
+        <v>0.001878482233202343</v>
       </c>
       <c r="S84">
-        <v>4.40991167132955E-06</v>
+        <v>1.265247351934003E-05</v>
       </c>
       <c r="T84">
-        <v>0.0363056390433208</v>
+        <v>0.03754453536634719</v>
       </c>
       <c r="U84">
-        <v>0.01079840377029365</v>
+        <v>0.01062710252249724</v>
       </c>
       <c r="V84">
-        <v>68.19387753543721</v>
+        <v>64.4005276548351</v>
       </c>
       <c r="W84">
-        <v>0.0009459218672084512</v>
+        <v>0.0008979931417415717</v>
       </c>
       <c r="X84">
-        <v>9.30149547562853E-07</v>
+        <v>1.637922087838402E-06</v>
       </c>
     </row>
     <row r="85" spans="1:24">
@@ -5660,61 +5660,61 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>2.627038735242435E-06</v>
+        <v>4.461475536241631E-06</v>
       </c>
       <c r="C85">
-        <v>0.1896182177233479</v>
+        <v>0.1905954731608764</v>
       </c>
       <c r="D85">
-        <v>0.0190750851076768</v>
+        <v>0.01633430120193805</v>
       </c>
       <c r="E85">
-        <v>0.1967736221853827</v>
+        <v>0.2031934940584737</v>
       </c>
       <c r="F85">
-        <v>7.846698717342671</v>
+        <v>9.006698717342671</v>
       </c>
       <c r="K85">
-        <v>7.990764551205302</v>
+        <v>7.246367186924101</v>
       </c>
       <c r="L85">
-        <v>8.551420894364657</v>
+        <v>6.693867364015132</v>
       </c>
       <c r="M85">
-        <v>8.239315451340888</v>
+        <v>7.584556160599202</v>
       </c>
       <c r="N85">
-        <v>0.08334580506323053</v>
+        <v>0.06684497255854134</v>
       </c>
       <c r="O85">
-        <v>0.01020926099231101</v>
+        <v>0.006166436605086136</v>
       </c>
       <c r="P85">
-        <v>0.07786619039958359</v>
+        <v>0.0686293819798149</v>
       </c>
       <c r="Q85">
-        <v>0.00829404854928281</v>
+        <v>0.008587391262931215</v>
       </c>
       <c r="R85">
-        <v>0.002019274617359431</v>
+        <v>0.001988236924948401</v>
       </c>
       <c r="S85">
-        <v>4.8099770391976E-06</v>
+        <v>1.313776700065978E-05</v>
       </c>
       <c r="T85">
-        <v>0.03780606464761652</v>
+        <v>0.0391279137689266</v>
       </c>
       <c r="U85">
-        <v>0.01157594367801949</v>
+        <v>0.01143814573420701</v>
       </c>
       <c r="V85">
-        <v>69.31288550373833</v>
+        <v>65.54171018134868</v>
       </c>
       <c r="W85">
-        <v>0.001001880699437627</v>
+        <v>0.0009544464276315501</v>
       </c>
       <c r="X85">
-        <v>9.293535185843711E-07</v>
+        <v>1.637681640653795E-06</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -5722,61 +5722,61 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>2.490615853079518E-06</v>
+        <v>4.254823408439254E-06</v>
       </c>
       <c r="C86">
-        <v>0.2002771635118272</v>
+        <v>0.2014867964083099</v>
       </c>
       <c r="D86">
-        <v>0.02113428910407028</v>
+        <v>0.0180378557678968</v>
       </c>
       <c r="E86">
-        <v>0.2077917199060673</v>
+        <v>0.2148273197660977</v>
       </c>
       <c r="F86">
-        <v>7.846661434471267</v>
+        <v>9.006661434471265</v>
       </c>
       <c r="K86">
-        <v>7.978907742910625</v>
+        <v>7.251037877146554</v>
       </c>
       <c r="L86">
-        <v>8.524894030882761</v>
+        <v>6.733894527408252</v>
       </c>
       <c r="M86">
-        <v>8.236199301552068</v>
+        <v>7.60058883473437</v>
       </c>
       <c r="N86">
-        <v>0.08791683906766294</v>
+        <v>0.07063738105563225</v>
       </c>
       <c r="O86">
-        <v>0.01109748014818481</v>
+        <v>0.00678398269769418</v>
       </c>
       <c r="P86">
-        <v>0.08221444926522734</v>
+        <v>0.07238200639962009</v>
       </c>
       <c r="Q86">
-        <v>0.009143267415828151</v>
+        <v>0.009193439951276893</v>
       </c>
       <c r="R86">
-        <v>0.002145178657379444</v>
+        <v>0.002111680622320134</v>
       </c>
       <c r="S86">
-        <v>5.288293276817026E-06</v>
+        <v>1.373487872446826E-05</v>
       </c>
       <c r="T86">
-        <v>0.03944544720821631</v>
+        <v>0.04085852427109655</v>
       </c>
       <c r="U86">
-        <v>0.01249135934357235</v>
+        <v>0.01238401486523819</v>
       </c>
       <c r="V86">
-        <v>70.55645668325661</v>
+        <v>66.81195397070753</v>
       </c>
       <c r="W86">
-        <v>0.001064823582336417</v>
+        <v>0.001017724996873989</v>
       </c>
       <c r="X86">
-        <v>9.285235420037438E-07</v>
+        <v>1.637448106142672E-06</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -5784,61 +5784,61 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>2.342327244884639E-06</v>
+        <v>4.028334689327052E-06</v>
       </c>
       <c r="C87">
-        <v>0.2122200218056776</v>
+        <v>0.2137167257843375</v>
       </c>
       <c r="D87">
-        <v>0.02365012582109831</v>
+        <v>0.02010959380960256</v>
       </c>
       <c r="E87">
-        <v>0.2200910267278653</v>
+        <v>0.2278228613262656</v>
       </c>
       <c r="F87">
-        <v>7.846621900124714</v>
+        <v>9.006621900124713</v>
       </c>
       <c r="K87">
-        <v>7.966519120610903</v>
+        <v>7.255524324741533</v>
       </c>
       <c r="L87">
-        <v>8.495912834146733</v>
+        <v>6.777081322856472</v>
       </c>
       <c r="M87">
-        <v>8.233259770921251</v>
+        <v>7.617026295660707</v>
       </c>
       <c r="N87">
-        <v>0.09303812966229483</v>
+        <v>0.07489427427949479</v>
       </c>
       <c r="O87">
-        <v>0.01217190694869633</v>
+        <v>0.007529198725379426</v>
       </c>
       <c r="P87">
-        <v>0.08708586138852062</v>
+        <v>0.07659457749617631</v>
       </c>
       <c r="Q87">
-        <v>0.01017489289308492</v>
+        <v>0.009927328615491766</v>
       </c>
       <c r="R87">
-        <v>0.002287838014986285</v>
+        <v>0.002251543671893178</v>
       </c>
       <c r="S87">
-        <v>5.869511909784183E-06</v>
+        <v>1.448373672813659E-05</v>
       </c>
       <c r="T87">
-        <v>0.04124238639919257</v>
+        <v>0.04275682489815377</v>
       </c>
       <c r="U87">
-        <v>0.0135825952710588</v>
+        <v>0.01349957330233978</v>
       </c>
       <c r="V87">
-        <v>71.94889023743741</v>
+        <v>68.23440243080493</v>
       </c>
       <c r="W87">
-        <v>0.001136145122069736</v>
+        <v>0.001089193445594528</v>
       </c>
       <c r="X87">
-        <v>9.276563384427632E-07</v>
+        <v>1.637223783762923E-06</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -5846,61 +5846,61 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5.240385332872792E-06</v>
+        <v>8.315714173110384E-06</v>
       </c>
       <c r="C88">
-        <v>0.2256893000902905</v>
+        <v>0.2275458066396757</v>
       </c>
       <c r="D88">
-        <v>0.0121371120457765</v>
+        <v>0.01107183265381573</v>
       </c>
       <c r="E88">
-        <v>0.2376801756915952</v>
+        <v>0.2471492575811025</v>
       </c>
       <c r="F88">
-        <v>12.69662190012471</v>
+        <v>14.20662190012471</v>
       </c>
       <c r="K88">
-        <v>7.953533356441182</v>
+        <v>7.259786522194942</v>
       </c>
       <c r="L88">
-        <v>8.769908444600764</v>
+        <v>6.622518725459085</v>
       </c>
       <c r="M88">
-        <v>8.241705576404113</v>
+        <v>7.660549154462513</v>
       </c>
       <c r="N88">
-        <v>0.09881428842755187</v>
+        <v>0.07970606539050304</v>
       </c>
       <c r="O88">
-        <v>0.007810398862328099</v>
+        <v>0.004597109086204443</v>
       </c>
       <c r="P88">
-        <v>0.09257950199533746</v>
+        <v>0.08135652384479664</v>
       </c>
       <c r="Q88">
-        <v>0.005658535301868825</v>
+        <v>0.006775177548286592</v>
       </c>
       <c r="R88">
-        <v>0.002450835765206035</v>
+        <v>0.00241133366726211</v>
       </c>
       <c r="S88">
-        <v>2.655053832814834E-06</v>
+        <v>6.089660896428332E-06</v>
       </c>
       <c r="T88">
-        <v>0.04321808576548784</v>
+        <v>0.04484662858356906</v>
       </c>
       <c r="U88">
-        <v>0.008438073699971967</v>
+        <v>0.008288584482727466</v>
       </c>
       <c r="V88">
-        <v>72.48080932218305</v>
+        <v>68.78494214065194</v>
       </c>
       <c r="W88">
-        <v>0.001217640574539507</v>
+        <v>0.001170619627215484</v>
       </c>
       <c r="X88">
-        <v>9.267473349508827E-07</v>
+        <v>1.637010673890253E-06</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -5908,61 +5908,61 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>4.994087667483638E-06</v>
+        <v>7.956038581677259E-06</v>
       </c>
       <c r="C89">
-        <v>0.2421163914783301</v>
+        <v>0.2441976507924341</v>
       </c>
       <c r="D89">
-        <v>0.01363829249437513</v>
+        <v>0.0124131344829756</v>
       </c>
       <c r="E89">
-        <v>0.2551660526067633</v>
+        <v>0.26564230593452</v>
       </c>
       <c r="F89">
-        <v>12.69533535257901</v>
+        <v>14.20533535257901</v>
       </c>
       <c r="K89">
-        <v>7.937738942271667</v>
+        <v>7.263842021716294</v>
       </c>
       <c r="L89">
-        <v>8.698546487526791</v>
+        <v>6.590712345048602</v>
       </c>
       <c r="M89">
-        <v>8.215667126449693</v>
+        <v>7.636861413628331</v>
       </c>
       <c r="N89">
-        <v>0.1058145876248768</v>
+        <v>0.08548367741391062</v>
       </c>
       <c r="O89">
-        <v>0.008402949415749289</v>
+        <v>0.005045280511359654</v>
       </c>
       <c r="P89">
-        <v>0.09926573020252737</v>
+        <v>0.08709355048298972</v>
       </c>
       <c r="Q89">
-        <v>0.006379249822767463</v>
+        <v>0.007607489306487022</v>
       </c>
       <c r="R89">
-        <v>0.002639157358388591</v>
+        <v>0.002596352436982547</v>
       </c>
       <c r="S89">
-        <v>3.630904676188058E-06</v>
+        <v>9.61434332400324E-06</v>
       </c>
       <c r="T89">
-        <v>0.04589347130898908</v>
+        <v>0.04765878582209535</v>
       </c>
       <c r="U89">
-        <v>0.009057579466070083</v>
+        <v>0.009081207092779117</v>
       </c>
       <c r="V89">
-        <v>73.09927451055717</v>
+        <v>69.44916771379141</v>
       </c>
       <c r="W89">
-        <v>0.00131172106655817</v>
+        <v>0.001264492858967702</v>
       </c>
       <c r="X89">
-        <v>9.256417259590168E-07</v>
+        <v>1.636807898914185E-06</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -5970,61 +5970,61 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>4.714093610261459E-06</v>
+        <v>7.546085130041094E-06</v>
       </c>
       <c r="C90">
-        <v>0.2611562330603263</v>
+        <v>0.2635130271515557</v>
       </c>
       <c r="D90">
-        <v>0.01554255220616589</v>
+        <v>0.01410403962061187</v>
       </c>
       <c r="E90">
-        <v>0.2753618644126969</v>
+        <v>0.2870022028375598</v>
       </c>
       <c r="F90">
-        <v>12.69529405309104</v>
+        <v>14.20529405309104</v>
       </c>
       <c r="K90">
-        <v>7.922327616540098</v>
+        <v>7.269296802401043</v>
       </c>
       <c r="L90">
-        <v>8.666937086484436</v>
+        <v>6.644199910093189</v>
       </c>
       <c r="M90">
-        <v>8.211975956564357</v>
+        <v>7.657471697091306</v>
       </c>
       <c r="N90">
-        <v>0.1139322241423041</v>
+        <v>0.09218687715578988</v>
       </c>
       <c r="O90">
-        <v>0.009295008744799904</v>
+        <v>0.005699451983933821</v>
       </c>
       <c r="P90">
-        <v>0.107006270234174</v>
+        <v>0.09371738891436494</v>
       </c>
       <c r="Q90">
-        <v>0.007198283652903785</v>
+        <v>0.008236084182235851</v>
       </c>
       <c r="R90">
-        <v>0.002858784562864624</v>
+        <v>0.002811913944787426</v>
       </c>
       <c r="S90">
-        <v>4.065531616765153E-06</v>
+        <v>1.014630629092433E-05</v>
       </c>
       <c r="T90">
-        <v>0.04896312896256566</v>
+        <v>0.05087358404953837</v>
       </c>
       <c r="U90">
-        <v>0.009982251049297314</v>
+        <v>0.01014456811693604</v>
       </c>
       <c r="V90">
-        <v>73.84940984697455</v>
+        <v>70.26586856966331</v>
       </c>
       <c r="W90">
-        <v>0.001421469369349074</v>
+        <v>0.001373764022912072</v>
       </c>
       <c r="X90">
-        <v>9.24562933157807E-07</v>
+        <v>1.636535159879948E-06</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -6032,61 +6032,61 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>4.392714165359974E-06</v>
+        <v>7.074205760788554E-06</v>
       </c>
       <c r="C91">
-        <v>0.2834847495016137</v>
+        <v>0.2861865714725507</v>
       </c>
       <c r="D91">
-        <v>0.0180323877861077</v>
+        <v>0.01629708676774931</v>
       </c>
       <c r="E91">
-        <v>0.2989229029041909</v>
+        <v>0.3119097665023214</v>
       </c>
       <c r="F91">
-        <v>12.69524917646298</v>
+        <v>14.20524917646298</v>
       </c>
       <c r="K91">
-        <v>7.905935932494081</v>
+        <v>7.274387754572115</v>
       </c>
       <c r="L91">
-        <v>8.630833019091376</v>
+        <v>6.704972445306865</v>
       </c>
       <c r="M91">
-        <v>8.208422097389228</v>
+        <v>7.67932646301371</v>
       </c>
       <c r="N91">
-        <v>0.1234446982693499</v>
+        <v>0.1000493703532313</v>
       </c>
       <c r="O91">
-        <v>0.01043681646889452</v>
+        <v>0.006536302736910751</v>
       </c>
       <c r="P91">
-        <v>0.1160797235597441</v>
+        <v>0.1014884166172858</v>
       </c>
       <c r="Q91">
-        <v>0.008255772150610425</v>
+        <v>0.009037749306385902</v>
       </c>
       <c r="R91">
-        <v>0.003118304474796248</v>
+        <v>0.003066620093741653</v>
       </c>
       <c r="S91">
-        <v>4.631202837351352E-06</v>
+        <v>1.080522561944501E-05</v>
       </c>
       <c r="T91">
-        <v>0.05250684513649915</v>
+        <v>0.05457622186159312</v>
       </c>
       <c r="U91">
-        <v>0.01115864128701383</v>
+        <v>0.01148750553815286</v>
       </c>
       <c r="V91">
-        <v>74.76601332725652</v>
+        <v>71.27348603105661</v>
       </c>
       <c r="W91">
-        <v>0.001551156927645599</v>
+        <v>0.00150257259065937</v>
       </c>
       <c r="X91">
-        <v>9.234155152745858E-07</v>
+        <v>1.636280612271394E-06</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -6094,61 +6094,61 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>4.021749888481673E-06</v>
+        <v>6.5275126139347E-06</v>
       </c>
       <c r="C92">
-        <v>0.3100299856731643</v>
+        <v>0.3131755199430308</v>
       </c>
       <c r="D92">
-        <v>0.02140868980912639</v>
+        <v>0.01924046925935419</v>
       </c>
       <c r="E92">
-        <v>0.3267292424771859</v>
+        <v>0.3412722789733473</v>
       </c>
       <c r="F92">
-        <v>12.69519996287472</v>
+        <v>14.20519996287472</v>
       </c>
       <c r="K92">
-        <v>7.888381160258742</v>
+        <v>7.278946963190634</v>
       </c>
       <c r="L92">
-        <v>8.588936788566842</v>
+        <v>6.773340243957167</v>
       </c>
       <c r="M92">
-        <v>8.205214227990121</v>
+        <v>7.701888393870507</v>
       </c>
       <c r="N92">
-        <v>0.1347454864493955</v>
+        <v>0.1094006771148634</v>
       </c>
       <c r="O92">
-        <v>0.01195000073553965</v>
+        <v>0.007639265501837021</v>
       </c>
       <c r="P92">
-        <v>0.1268621187006574</v>
+        <v>0.1107334833483758</v>
       </c>
       <c r="Q92">
-        <v>0.009669688039374791</v>
+        <v>0.01010157486845066</v>
       </c>
       <c r="R92">
-        <v>0.003429671801992138</v>
+        <v>0.003372201580553874</v>
       </c>
       <c r="S92">
-        <v>5.387266538979762E-06</v>
+        <v>1.172067393970221E-05</v>
       </c>
       <c r="T92">
-        <v>0.05664166552144768</v>
+        <v>0.05888509349393716</v>
       </c>
       <c r="U92">
-        <v>0.0127071182689266</v>
+        <v>0.01323138696118798</v>
       </c>
       <c r="V92">
-        <v>75.90088608262656</v>
+        <v>72.52745830228901</v>
       </c>
       <c r="W92">
-        <v>0.001706761933147208</v>
+        <v>0.00165678131333509</v>
       </c>
       <c r="X92">
-        <v>9.221866812181119E-07</v>
+        <v>1.636052651840468E-06</v>
       </c>
     </row>
     <row r="93" spans="1:24">
@@ -6156,61 +6156,61 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>3.592047784776222E-06</v>
+        <v>5.890841886731272E-06</v>
       </c>
       <c r="C93">
-        <v>0.3420990185469464</v>
+        <v>0.3458349700189949</v>
       </c>
       <c r="D93">
-        <v>0.02620408874485197</v>
+        <v>0.02336689522951477</v>
       </c>
       <c r="E93">
-        <v>0.3599854324612528</v>
+        <v>0.3763173700523014</v>
       </c>
       <c r="F93">
-        <v>12.69514538901828</v>
+        <v>14.20514538901828</v>
       </c>
       <c r="K93">
-        <v>7.869447697297332</v>
+        <v>7.28279252326159</v>
       </c>
       <c r="L93">
-        <v>8.539189242040738</v>
+        <v>6.850857423135209</v>
       </c>
       <c r="M93">
-        <v>8.20247643926043</v>
+        <v>7.724980464298228</v>
       </c>
       <c r="N93">
-        <v>0.1483894293064906</v>
+        <v>0.1207075006274219</v>
       </c>
       <c r="O93">
-        <v>0.01404726527564049</v>
+        <v>0.009153853252551273</v>
       </c>
       <c r="P93">
-        <v>0.1398834998852444</v>
+        <v>0.1219148065128119</v>
       </c>
       <c r="Q93">
-        <v>0.01164856604108809</v>
+        <v>0.01157485580793011</v>
       </c>
       <c r="R93">
-        <v>0.003810147861486934</v>
+        <v>0.003745588347955449</v>
       </c>
       <c r="S93">
-        <v>6.447970190250719E-06</v>
+        <v>1.30590564489877E-05</v>
       </c>
       <c r="T93">
-        <v>0.06152328188283893</v>
+        <v>0.06395772755313152</v>
       </c>
       <c r="U93">
-        <v>0.0148332332025773</v>
+        <v>0.01557817780032884</v>
       </c>
       <c r="V93">
-        <v>77.33488112956879</v>
+        <v>74.111571246399</v>
       </c>
       <c r="W93">
-        <v>0.001896913629946111</v>
+        <v>0.0018448548996927</v>
       </c>
       <c r="X93">
-        <v>9.208613388108133E-07</v>
+        <v>1.63586037383692E-06</v>
       </c>
     </row>
     <row r="94" spans="1:24">
@@ -6218,61 +6218,61 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>3.095214143730398E-06</v>
+        <v>5.148075719362021E-06</v>
       </c>
       <c r="C94">
-        <v>0.3815858847722082</v>
+        <v>0.38614347936768</v>
       </c>
       <c r="D94">
-        <v>0.03343266117332513</v>
+        <v>0.02948894881026773</v>
       </c>
       <c r="E94">
-        <v>0.4003874332521269</v>
+        <v>0.418748798450393</v>
       </c>
       <c r="F94">
-        <v>12.69508403324604</v>
+        <v>14.20508403324604</v>
       </c>
       <c r="K94">
-        <v>7.848855131500177</v>
+        <v>7.285661213096148</v>
       </c>
       <c r="L94">
-        <v>8.478506199024876</v>
+        <v>6.939298983944126</v>
       </c>
       <c r="M94">
-        <v>8.20036086497724</v>
+        <v>7.748261335178407</v>
       </c>
       <c r="N94">
-        <v>0.1651821998103469</v>
+        <v>0.1346517065492808</v>
       </c>
       <c r="O94">
-        <v>0.01712884501447492</v>
+        <v>0.01134975472146425</v>
       </c>
       <c r="P94">
-        <v>0.155912866615764</v>
+        <v>0.1357073003509222</v>
       </c>
       <c r="Q94">
-        <v>0.01458740938354355</v>
+        <v>0.01373199103484064</v>
       </c>
       <c r="R94">
-        <v>0.00428561034789902</v>
+        <v>0.004212154509393757</v>
       </c>
       <c r="S94">
-        <v>8.032641207786723E-06</v>
+        <v>1.514497520397975E-05</v>
       </c>
       <c r="T94">
-        <v>0.06735953796787164</v>
+        <v>0.07000517127223187</v>
       </c>
       <c r="U94">
-        <v>0.01791283759766606</v>
+        <v>0.01888161315142728</v>
       </c>
       <c r="V94">
-        <v>79.20199818818523</v>
+        <v>76.15929931756297</v>
       </c>
       <c r="W94">
-        <v>0.002134551723723299</v>
+        <v>0.002079483893235889</v>
       </c>
       <c r="X94">
-        <v>9.194198592050124E-07</v>
+        <v>1.635716939345193E-06</v>
       </c>
     </row>
     <row r="95" spans="1:24">
@@ -6280,61 +6280,61 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>2.528011759624906E-06</v>
+        <v>4.28580893228843E-06</v>
       </c>
       <c r="C95">
-        <v>0.4313220595720488</v>
+        <v>0.4370941265901676</v>
       </c>
       <c r="D95">
-        <v>0.04520160106589314</v>
+        <v>0.03928627871364725</v>
       </c>
       <c r="E95">
-        <v>0.4504150019469269</v>
+        <v>0.471013161347807</v>
       </c>
       <c r="F95">
-        <v>12.69281584860141</v>
+        <v>14.20281584860141</v>
       </c>
       <c r="K95">
-        <v>7.826209841991928</v>
+        <v>7.287179211240028</v>
       </c>
       <c r="L95">
-        <v>8.402633203999779</v>
+        <v>7.040543843656154</v>
       </c>
       <c r="M95">
-        <v>8.199137252628798</v>
+        <v>7.771177817968518</v>
       </c>
       <c r="N95">
-        <v>0.1863326790669001</v>
+        <v>0.1522662710961117</v>
       </c>
       <c r="O95">
-        <v>0.02201868014966967</v>
+        <v>0.01477884031314201</v>
       </c>
       <c r="P95">
-        <v>0.1761022176489384</v>
+        <v>0.1531323445389338</v>
       </c>
       <c r="Q95">
-        <v>0.01930296973466778</v>
+        <v>0.0171350722747701</v>
       </c>
       <c r="R95">
-        <v>0.00489669287742634</v>
+        <v>0.004811727299992298</v>
       </c>
       <c r="S95">
-        <v>1.059966400970218E-05</v>
+        <v>1.867882388481961E-05</v>
       </c>
       <c r="T95">
-        <v>0.07442335230647247</v>
+        <v>0.07730853671806109</v>
       </c>
       <c r="U95">
-        <v>0.02268211777040622</v>
+        <v>0.02380485041781738</v>
       </c>
       <c r="V95">
-        <v>81.74026578279135</v>
+        <v>78.89728293337654</v>
       </c>
       <c r="W95">
-        <v>0.002439996310878859</v>
+        <v>0.002380586215590275</v>
       </c>
       <c r="X95">
-        <v>9.178346889394351E-07</v>
+        <v>1.635641039437999E-06</v>
       </c>
     </row>
     <row r="96" spans="1:24">
@@ -6342,61 +6342,61 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1.911497133009056E-06</v>
+        <v>3.315668440605226E-06</v>
       </c>
       <c r="C96">
-        <v>0.4956754693230749</v>
+        <v>0.5033954345695878</v>
       </c>
       <c r="D96">
-        <v>0.06607923645027063</v>
+        <v>0.0565112699067696</v>
       </c>
       <c r="E96">
-        <v>0.5139879989542416</v>
+        <v>0.5369539216206154</v>
       </c>
       <c r="F96">
-        <v>12.6926214492678</v>
+        <v>14.2026214492678</v>
       </c>
       <c r="K96">
-        <v>7.800935124784842</v>
+        <v>7.286742641246378</v>
       </c>
       <c r="L96">
-        <v>8.308315867447757</v>
+        <v>7.155870289113458</v>
       </c>
       <c r="M96">
-        <v>8.199432107257607</v>
+        <v>7.793200717130717</v>
       </c>
       <c r="N96">
-        <v>0.2137183455531052</v>
+        <v>0.1751808428932734</v>
       </c>
       <c r="O96">
-        <v>0.03049076612209001</v>
+        <v>0.02066633065105344</v>
       </c>
       <c r="P96">
-        <v>0.2022354256346502</v>
+        <v>0.1757985565829611</v>
       </c>
       <c r="Q96">
-        <v>0.02755759083315749</v>
+        <v>0.02302660159332398</v>
       </c>
       <c r="R96">
-        <v>0.005711041746329114</v>
+        <v>0.005610568712676878</v>
       </c>
       <c r="S96">
-        <v>1.512829017561131E-05</v>
+        <v>2.524508254176661E-05</v>
       </c>
       <c r="T96">
-        <v>0.08304689139581688</v>
+        <v>0.08622581776810175</v>
       </c>
       <c r="U96">
-        <v>0.03056548554834711</v>
+        <v>0.03160680425798834</v>
       </c>
       <c r="V96">
-        <v>85.38776843789766</v>
+        <v>82.72828979153758</v>
       </c>
       <c r="W96">
-        <v>0.002847077657660448</v>
+        <v>0.002781306628916246</v>
       </c>
       <c r="X96">
-        <v>9.16065458734939E-07</v>
+        <v>1.635662867937681E-06</v>
       </c>
     </row>
     <row r="97" spans="1:24">
@@ -6404,19 +6404,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1.309450783647057E-06</v>
+        <v>2.304769514784104E-06</v>
       </c>
       <c r="C97">
-        <v>0.5815947158976346</v>
+        <v>0.5927722675021504</v>
       </c>
       <c r="D97">
-        <v>0.1059298493221414</v>
+        <v>0.09020907606353415</v>
       </c>
       <c r="E97">
-        <v>0.5978090131749524</v>
+        <v>0.6233145336739804</v>
       </c>
       <c r="F97">
-        <v>12.69238689605692</v>
+        <v>14.20238689605692</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -6428,31 +6428,31 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>0.2503638614393078</v>
+        <v>0.206083745341717</v>
       </c>
       <c r="O97">
         <v>0</v>
       </c>
       <c r="P97">
-        <v>0.2371709925949483</v>
+        <v>0.2063529475808882</v>
       </c>
       <c r="Q97">
         <v>0</v>
       </c>
       <c r="R97">
-        <v>0.006850224437559802</v>
+        <v>0.006727633438703889</v>
       </c>
       <c r="S97">
         <v>0</v>
       </c>
       <c r="T97">
-        <v>0.09354317256531065</v>
+        <v>0.09714962047012424</v>
       </c>
       <c r="U97">
         <v>0</v>
       </c>
       <c r="V97">
-        <v>84.49831251666957</v>
+        <v>81.86653677287572</v>
       </c>
       <c r="W97">
         <v>0</v>

--- a/Wastewater_Effluent_Filtration/Water_Salt_Transport_1.xlsx
+++ b/Wastewater_Effluent_Filtration/Water_Salt_Transport_1.xlsx
@@ -85,7 +85,7 @@
     <t>SI_Armp_CaPhosphate</t>
   </si>
   <si>
-    <t>NH4+ Permeability</t>
+    <t>d_CaPhosphate</t>
   </si>
 </sst>
 </file>
@@ -502,73 +502,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.312586227732173E-06</v>
+        <v>5.576881554345103E-06</v>
       </c>
       <c r="C2">
-        <v>0.03694686318841234</v>
+        <v>0.03600526475692639</v>
       </c>
       <c r="D2">
-        <v>0.002669913739319391</v>
+        <v>0.002447455677947518</v>
       </c>
       <c r="E2">
-        <v>0.03903952133096326</v>
+        <v>0.03815957086743655</v>
       </c>
       <c r="F2">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="G2">
-        <v>18.22849573685846</v>
+        <v>19.20226432162751</v>
       </c>
       <c r="H2">
-        <v>18.83013772705667</v>
+        <v>19.46575936567211</v>
       </c>
       <c r="I2">
-        <v>18.59573787494297</v>
+        <v>19.25586086014</v>
       </c>
       <c r="J2">
-        <v>21.0112994711963</v>
+        <v>21.51007507088185</v>
       </c>
       <c r="K2">
-        <v>6.987858977128199</v>
+        <v>8.300088718471967</v>
       </c>
       <c r="L2">
-        <v>5.937170349917405</v>
+        <v>8.639066820689765</v>
       </c>
       <c r="M2">
-        <v>7.029903492653528</v>
+        <v>8.289945013750982</v>
       </c>
       <c r="N2">
-        <v>0.01307673784443165</v>
+        <v>0.009798182572597368</v>
       </c>
       <c r="O2">
-        <v>0.0009826921001400365</v>
+        <v>0.0008131907316339751</v>
       </c>
       <c r="P2">
-        <v>0.0153214278143169</v>
+        <v>0.008761162876919412</v>
       </c>
       <c r="Q2">
-        <v>0.003384438828631315</v>
+        <v>0.0006674572646465888</v>
       </c>
       <c r="R2">
-        <v>0.0003443183471323083</v>
+        <v>0.0007111792361365105</v>
       </c>
       <c r="S2">
-        <v>1.103675618709053E-05</v>
+        <v>1.989570546978397E-06</v>
       </c>
       <c r="T2">
-        <v>0.01046677909658883</v>
+        <v>0.002609220240579213</v>
       </c>
       <c r="U2">
-        <v>0.002597988032717151</v>
+        <v>0.0006630013619005088</v>
       </c>
       <c r="V2">
-        <v>36.4004103264</v>
+        <v>9.289312081588028</v>
       </c>
       <c r="W2">
-        <v>2.266471536709103E-05</v>
+        <v>2.933020135458392</v>
       </c>
       <c r="X2">
-        <v>1.65060705114359E-06</v>
+        <v>0.0001459742563678081</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -576,61 +576,61 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.30519744510516E-06</v>
+        <v>5.568837830571433E-06</v>
       </c>
       <c r="C3">
-        <v>0.03729309500102945</v>
+        <v>0.03634423252540093</v>
       </c>
       <c r="D3">
-        <v>0.002699518053503224</v>
+        <v>0.002474881572351231</v>
       </c>
       <c r="E3">
-        <v>0.0394212521059662</v>
+        <v>0.03853509645014728</v>
       </c>
       <c r="F3">
-        <v>6.499985244231278</v>
+        <v>6.899985237356524</v>
       </c>
       <c r="K3">
-        <v>6.989883604509671</v>
+        <v>8.298934718988592</v>
       </c>
       <c r="L3">
-        <v>5.960439604180961</v>
+        <v>8.686013822303568</v>
       </c>
       <c r="M3">
-        <v>7.051185683700241</v>
+        <v>8.315521655306577</v>
       </c>
       <c r="N3">
-        <v>0.01319889992265682</v>
+        <v>0.009888940065940433</v>
       </c>
       <c r="O3">
-        <v>0.001000397745605885</v>
+        <v>0.0008318316059501082</v>
       </c>
       <c r="P3">
-        <v>0.01544200346063695</v>
+        <v>0.008842917479063581</v>
       </c>
       <c r="Q3">
-        <v>0.003317635130712235</v>
+        <v>0.0006687708253270803</v>
       </c>
       <c r="R3">
-        <v>0.0003476848278489267</v>
+        <v>0.0007183427681121623</v>
       </c>
       <c r="S3">
-        <v>6.157542020116955E-06</v>
+        <v>1.808800758825987E-06</v>
       </c>
       <c r="T3">
-        <v>0.01054626183460774</v>
+        <v>0.002628879017131523</v>
       </c>
       <c r="U3">
-        <v>0.002622949387475345</v>
+        <v>0.0006794007372023735</v>
       </c>
       <c r="V3">
-        <v>36.57527709715853</v>
+        <v>9.404197905265242</v>
       </c>
       <c r="W3">
-        <v>2.528735698918498E-05</v>
+        <v>2.945614149584131</v>
       </c>
       <c r="X3">
-        <v>1.650505819774516E-06</v>
+        <v>0.000147732345747653</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -638,61 +638,61 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.29727916547406E-06</v>
+        <v>5.56117451887891E-06</v>
       </c>
       <c r="C4">
-        <v>0.03764609068416747</v>
+        <v>0.03668983814737082</v>
       </c>
       <c r="D4">
-        <v>0.002729969540666938</v>
+        <v>0.002502725510013694</v>
       </c>
       <c r="E4">
-        <v>0.03981050997695865</v>
+        <v>0.03891845898472949</v>
       </c>
       <c r="F4">
-        <v>6.499970413340205</v>
+        <v>6.899970399414826</v>
       </c>
       <c r="K4">
-        <v>6.991795470274954</v>
+        <v>8.297635809763404</v>
       </c>
       <c r="L4">
-        <v>5.965534442710731</v>
+        <v>8.683041699790067</v>
       </c>
       <c r="M4">
-        <v>7.055091627163093</v>
+        <v>8.314304191612441</v>
       </c>
       <c r="N4">
-        <v>0.01332337443466754</v>
+        <v>0.009981359540021965</v>
       </c>
       <c r="O4">
-        <v>0.001012147721372887</v>
+        <v>0.0008396983054734099</v>
       </c>
       <c r="P4">
-        <v>0.01556572150481986</v>
+        <v>0.008926327138795586</v>
       </c>
       <c r="Q4">
-        <v>0.003328444029804719</v>
+        <v>0.00067632911409199</v>
       </c>
       <c r="R4">
-        <v>0.0003511698001533023</v>
+        <v>0.0007256543392076044</v>
       </c>
       <c r="S4">
-        <v>6.158017715868232E-06</v>
+        <v>1.830710019157137E-06</v>
       </c>
       <c r="T4">
-        <v>0.01062711196161929</v>
+        <v>0.002648771652641004</v>
       </c>
       <c r="U4">
-        <v>0.002647091948120434</v>
+        <v>0.0006845734138118908</v>
       </c>
       <c r="V4">
-        <v>36.74631982647749</v>
+        <v>9.466651303816294</v>
       </c>
       <c r="W4">
-        <v>2.792739732508918E-05</v>
+        <v>2.958083675805725</v>
       </c>
       <c r="X4">
-        <v>1.650410226486252E-06</v>
+        <v>0.0001495186945483505</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -700,61 +700,61 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.289203816502851E-06</v>
+        <v>5.553357822704813E-06</v>
       </c>
       <c r="C5">
-        <v>0.03800605069595613</v>
+        <v>0.03704228260754976</v>
       </c>
       <c r="D5">
-        <v>0.002761126397460144</v>
+        <v>0.002531212161062323</v>
       </c>
       <c r="E5">
-        <v>0.04020769121616006</v>
+        <v>0.03930967070517799</v>
       </c>
       <c r="F5">
-        <v>6.499955505877827</v>
+        <v>6.899955484719818</v>
       </c>
       <c r="K5">
-        <v>6.993723523127549</v>
+        <v>8.296323910957122</v>
       </c>
       <c r="L5">
-        <v>5.970518278196326</v>
+        <v>8.679763405641907</v>
       </c>
       <c r="M5">
-        <v>7.059042738605015</v>
+        <v>8.313236289592396</v>
       </c>
       <c r="N5">
-        <v>0.0134502942976912</v>
+        <v>0.01007560347027504</v>
       </c>
       <c r="O5">
-        <v>0.001023905809937011</v>
+        <v>0.000847596207688893</v>
       </c>
       <c r="P5">
-        <v>0.01569187900456228</v>
+        <v>0.009011378664823459</v>
       </c>
       <c r="Q5">
-        <v>0.003339553447111499</v>
+        <v>0.0006839897718787825</v>
       </c>
       <c r="R5">
-        <v>0.0003547266226526573</v>
+        <v>0.0007331164384775885</v>
       </c>
       <c r="S5">
-        <v>6.160360546215602E-06</v>
+        <v>1.851904886682966E-06</v>
       </c>
       <c r="T5">
-        <v>0.01070938020918114</v>
+        <v>0.002669021119020686</v>
       </c>
       <c r="U5">
-        <v>0.002671738912620793</v>
+        <v>0.0006899193512437446</v>
       </c>
       <c r="V5">
-        <v>36.9181733460406</v>
+        <v>9.516603485431247</v>
       </c>
       <c r="W5">
-        <v>3.061161725451417E-05</v>
+        <v>2.970663837814385</v>
       </c>
       <c r="X5">
-        <v>1.650313823843623E-06</v>
+        <v>0.0001513425810300771</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -762,61 +762,61 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.280966673077416E-06</v>
+        <v>5.545383073556773E-06</v>
       </c>
       <c r="C6">
-        <v>0.03837318532406547</v>
+        <v>0.03740177292470067</v>
       </c>
       <c r="D6">
-        <v>0.002793013377107688</v>
+        <v>0.002560364006979639</v>
       </c>
       <c r="E6">
-        <v>0.04061304045906951</v>
+        <v>0.03970897527450681</v>
       </c>
       <c r="F6">
-        <v>6.499940520350005</v>
+        <v>6.899940491770957</v>
       </c>
       <c r="K6">
-        <v>6.99566939853886</v>
+        <v>8.295011314948924</v>
       </c>
       <c r="L6">
-        <v>5.975564840217291</v>
+        <v>8.676490011935373</v>
       </c>
       <c r="M6">
-        <v>7.06303576158973</v>
+        <v>8.312185061735763</v>
       </c>
       <c r="N6">
-        <v>0.01357973584443864</v>
+        <v>0.01017172854592698</v>
       </c>
       <c r="O6">
-        <v>0.001035943750943964</v>
+        <v>0.0008556827424637449</v>
       </c>
       <c r="P6">
-        <v>0.0158205490624524</v>
+        <v>0.009098122299124965</v>
       </c>
       <c r="Q6">
-        <v>0.003350915557619211</v>
+        <v>0.0006918212522120872</v>
       </c>
       <c r="R6">
-        <v>0.0003583575212162661</v>
+        <v>0.0007407337773691604</v>
       </c>
       <c r="S6">
-        <v>6.162312740183024E-06</v>
+        <v>1.873445649946324E-06</v>
       </c>
       <c r="T6">
-        <v>0.01079310563935364</v>
+        <v>0.00268963676243503</v>
       </c>
       <c r="U6">
-        <v>0.002696906061158849</v>
+        <v>0.000695384142090258</v>
       </c>
       <c r="V6">
-        <v>37.0918088414118</v>
+        <v>9.56188823131032</v>
       </c>
       <c r="W6">
-        <v>3.334181395235835E-05</v>
+        <v>2.983379070846986</v>
       </c>
       <c r="X6">
-        <v>1.650216530073057E-06</v>
+        <v>0.0001532059565134977</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -824,61 +824,61 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.272562804183258E-06</v>
+        <v>5.537245420049962E-06</v>
       </c>
       <c r="C7">
-        <v>0.03874771344982291</v>
+        <v>0.03776852459751879</v>
       </c>
       <c r="D7">
-        <v>0.002825656406647452</v>
+        <v>0.002590204582600483</v>
       </c>
       <c r="E7">
-        <v>0.04102681247611279</v>
+        <v>0.04011662651351872</v>
       </c>
       <c r="F7">
-        <v>6.499925455215497</v>
+        <v>6.899925419020274</v>
       </c>
       <c r="K7">
-        <v>6.99763018515777</v>
+        <v>8.293681807018841</v>
       </c>
       <c r="L7">
-        <v>5.980672320485476</v>
+        <v>8.673148892700297</v>
       </c>
       <c r="M7">
-        <v>7.06706839100475</v>
+        <v>8.311116643995677</v>
       </c>
       <c r="N7">
-        <v>0.01371177576121227</v>
+        <v>0.01026979218596344</v>
       </c>
       <c r="O7">
-        <v>0.00104826828358553</v>
+        <v>0.0008639455774033752</v>
       </c>
       <c r="P7">
-        <v>0.01595180836250327</v>
+        <v>0.009186609678566153</v>
       </c>
       <c r="Q7">
-        <v>0.00336254735282872</v>
+        <v>0.0006998369280627043</v>
       </c>
       <c r="R7">
-        <v>0.0003620648392002249</v>
+        <v>0.0007485112545451521</v>
       </c>
       <c r="S7">
-        <v>6.16388484519626E-06</v>
+        <v>1.895510427780768E-06</v>
       </c>
       <c r="T7">
-        <v>0.01087832879280832</v>
+        <v>0.002710628895280764</v>
       </c>
       <c r="U7">
-        <v>0.002722610437381</v>
+        <v>0.0007009564979954257</v>
       </c>
       <c r="V7">
-        <v>37.26758984086737</v>
+        <v>9.605090441660918</v>
       </c>
       <c r="W7">
-        <v>3.611827519180218E-05</v>
+        <v>2.99620285766661</v>
       </c>
       <c r="X7">
-        <v>1.650118490742111E-06</v>
+        <v>0.0001551090371520992</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -886,61 +886,61 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.263987084614076E-06</v>
+        <v>5.528939800352153E-06</v>
       </c>
       <c r="C8">
-        <v>0.03912986299283542</v>
+        <v>0.038142762044486</v>
       </c>
       <c r="D8">
-        <v>0.002859082646499555</v>
+        <v>0.002620758545903358</v>
       </c>
       <c r="E8">
-        <v>0.041449272710648</v>
+        <v>0.04053288892674616</v>
       </c>
       <c r="F8">
-        <v>6.499910308883918</v>
+        <v>6.899910264870382</v>
       </c>
       <c r="K8">
-        <v>6.999606062451316</v>
+        <v>8.292345617605125</v>
       </c>
       <c r="L8">
-        <v>5.985842194898645</v>
+        <v>8.66976855114865</v>
       </c>
       <c r="M8">
-        <v>7.071141305264862</v>
+        <v>8.310046357692851</v>
       </c>
       <c r="N8">
-        <v>0.01384649392586787</v>
+        <v>0.01036985438392684</v>
       </c>
       <c r="O8">
-        <v>0.00106089019926583</v>
+        <v>0.0008723986897515998</v>
       </c>
       <c r="P8">
-        <v>0.01608573667111683</v>
+        <v>0.009276894495060872</v>
       </c>
       <c r="Q8">
-        <v>0.003374460575603102</v>
+        <v>0.000708039765644397</v>
       </c>
       <c r="R8">
-        <v>0.0003658510195657039</v>
+        <v>0.0007564539752272518</v>
       </c>
       <c r="S8">
-        <v>6.165068836924693E-06</v>
+        <v>1.918048616441551E-06</v>
       </c>
       <c r="T8">
-        <v>0.01096509175403627</v>
+        <v>0.002732008388868906</v>
       </c>
       <c r="U8">
-        <v>0.002748869952920253</v>
+        <v>0.0007066468273643864</v>
       </c>
       <c r="V8">
-        <v>37.44570799365285</v>
+        <v>9.647338764023988</v>
       </c>
       <c r="W8">
-        <v>3.894237599263361E-05</v>
+        <v>3.009156475000349</v>
       </c>
       <c r="X8">
-        <v>1.650019696877434E-06</v>
+        <v>0.0001570537982723365</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -948,61 +948,61 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.255234165654864E-06</v>
+        <v>5.520460947412798E-06</v>
       </c>
       <c r="C9">
-        <v>0.03951987138365624</v>
+        <v>0.03852471907135249</v>
       </c>
       <c r="D9">
-        <v>0.002893320573604455</v>
+        <v>0.00265205173861088</v>
       </c>
       <c r="E9">
-        <v>0.04188069783154873</v>
+        <v>0.04095803827319901</v>
       </c>
       <c r="F9">
-        <v>6.499895079713601</v>
+        <v>6.899895027672259</v>
       </c>
       <c r="K9">
-        <v>7.001600436244268</v>
+        <v>8.291005976858049</v>
       </c>
       <c r="L9">
-        <v>5.991082123582361</v>
+        <v>8.66636182017937</v>
       </c>
       <c r="M9">
-        <v>7.075260574399484</v>
+        <v>8.308980139625538</v>
       </c>
       <c r="N9">
-        <v>0.01398397353583133</v>
+        <v>0.0104719775634341</v>
       </c>
       <c r="O9">
-        <v>0.001073821679204729</v>
+        <v>0.0008810519316467777</v>
       </c>
       <c r="P9">
-        <v>0.01622241705924064</v>
+        <v>0.009369032717957823</v>
       </c>
       <c r="Q9">
-        <v>0.003386639118981198</v>
+        <v>0.0007164349008980951</v>
       </c>
       <c r="R9">
-        <v>0.0003697186104337552</v>
+        <v>0.0007645672647607014</v>
       </c>
       <c r="S9">
-        <v>6.16580035316437E-06</v>
+        <v>1.941050126353977E-06</v>
       </c>
       <c r="T9">
-        <v>0.01105343822501602</v>
+        <v>0.002753786470175406</v>
       </c>
       <c r="U9">
-        <v>0.002775703465142334</v>
+        <v>0.0007124617824166065</v>
       </c>
       <c r="V9">
-        <v>37.62629215070989</v>
+        <v>9.689209172700874</v>
       </c>
       <c r="W9">
-        <v>4.1816305304982E-05</v>
+        <v>3.022248657517999</v>
       </c>
       <c r="X9">
-        <v>1.649919978187786E-06</v>
+        <v>0.0001590418307620403</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1010,61 +1010,61 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.246298500965814E-06</v>
+        <v>5.511803367785278E-06</v>
       </c>
       <c r="C10">
-        <v>0.03991798606637419</v>
+        <v>0.0389146393684475</v>
       </c>
       <c r="D10">
-        <v>0.002928400043578431</v>
+        <v>0.002684111262289223</v>
       </c>
       <c r="E10">
-        <v>0.04232137634833165</v>
+        <v>0.04139236216494787</v>
       </c>
       <c r="F10">
-        <v>6.499879766009324</v>
+        <v>6.899879705723037</v>
       </c>
       <c r="K10">
-        <v>7.003611888744547</v>
+        <v>8.289652618888338</v>
       </c>
       <c r="L10">
-        <v>5.99638868899371</v>
+        <v>8.662904257178967</v>
       </c>
       <c r="M10">
-        <v>7.079423224442695</v>
+        <v>8.307906830750786</v>
       </c>
       <c r="N10">
-        <v>0.01412430127340336</v>
+        <v>0.01057622675508397</v>
       </c>
       <c r="O10">
-        <v>0.00108707362352205</v>
+        <v>0.0008899061997135706</v>
       </c>
       <c r="P10">
-        <v>0.01636193638467824</v>
+        <v>0.009463082694230211</v>
       </c>
       <c r="Q10">
-        <v>0.003399114232039719</v>
+        <v>0.0007250317006985102</v>
       </c>
       <c r="R10">
-        <v>0.000373670271412892</v>
+        <v>0.0007728566801371617</v>
       </c>
       <c r="S10">
-        <v>6.166098499315412E-06</v>
+        <v>1.964580274231873E-06</v>
       </c>
       <c r="T10">
-        <v>0.01114341360284073</v>
+        <v>0.002775974781998871</v>
       </c>
       <c r="U10">
-        <v>0.00280313035651169</v>
+        <v>0.0007184002271651614</v>
       </c>
       <c r="V10">
-        <v>37.80944407008494</v>
+        <v>9.731019884935339</v>
       </c>
       <c r="W10">
-        <v>4.474123890346178E-05</v>
+        <v>3.035463558466617</v>
       </c>
       <c r="X10">
-        <v>1.649819405562773E-06</v>
+        <v>0.0001610738518009023</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1072,61 +1072,61 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.237174288266795E-06</v>
+        <v>5.502961345798811E-06</v>
       </c>
       <c r="C11">
-        <v>0.04032446503365766</v>
+        <v>0.03931277703994374</v>
       </c>
       <c r="D11">
-        <v>0.002964352398379981</v>
+        <v>0.002716965548568772</v>
       </c>
       <c r="E11">
-        <v>0.04277160922442523</v>
+        <v>0.04183616071246468</v>
       </c>
       <c r="F11">
-        <v>6.499864366019944</v>
+        <v>6.899864297263433</v>
       </c>
       <c r="K11">
-        <v>7.005641994430925</v>
+        <v>8.288287169590363</v>
       </c>
       <c r="L11">
-        <v>6.001769440801398</v>
+        <v>8.659392065687294</v>
       </c>
       <c r="M11">
-        <v>7.083635599922228</v>
+        <v>8.306825355248758</v>
       </c>
       <c r="N11">
-        <v>0.01426756751131415</v>
+        <v>0.01068266983811001</v>
       </c>
       <c r="O11">
-        <v>0.001100660239538175</v>
+        <v>0.00089896908751295</v>
       </c>
       <c r="P11">
-        <v>0.01650438497976218</v>
+        <v>0.009559105232620669</v>
       </c>
       <c r="Q11">
-        <v>0.003411871991841456</v>
+        <v>0.0007338385655797759</v>
       </c>
       <c r="R11">
-        <v>0.0003777087788075467</v>
+        <v>0.0007813280218938971</v>
       </c>
       <c r="S11">
-        <v>6.165896487706017E-06</v>
+        <v>1.988661805697847E-06</v>
       </c>
       <c r="T11">
-        <v>0.0112350650670861</v>
+        <v>0.002798585491392648</v>
       </c>
       <c r="U11">
-        <v>0.002831171535931036</v>
+        <v>0.0007244660697673272</v>
       </c>
       <c r="V11">
-        <v>37.99525410206942</v>
+        <v>9.772967306792808</v>
       </c>
       <c r="W11">
-        <v>4.77189542217427E-05</v>
+        <v>3.048807573382501</v>
       </c>
       <c r="X11">
-        <v>1.649717900278454E-06</v>
+        <v>0.0001631514753586961</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1134,61 +1134,61 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.227855472179249E-06</v>
+        <v>5.493928905408944E-06</v>
       </c>
       <c r="C12">
-        <v>0.04073957739627185</v>
+        <v>0.03971939716762569</v>
       </c>
       <c r="D12">
-        <v>0.003001210551266684</v>
+        <v>0.002750644453096384</v>
       </c>
       <c r="E12">
-        <v>0.04323171056050166</v>
+        <v>0.04228974719869817</v>
       </c>
       <c r="F12">
-        <v>6.499848877935857</v>
+        <v>6.899848800475452</v>
       </c>
       <c r="K12">
-        <v>7.007686959502672</v>
+        <v>8.286915152477567</v>
       </c>
       <c r="L12">
-        <v>6.007213678299281</v>
+        <v>8.655825291717308</v>
       </c>
       <c r="M12">
-        <v>7.0878861779858</v>
+        <v>8.30573606680108</v>
       </c>
       <c r="N12">
-        <v>0.01441386648100055</v>
+        <v>0.01079137762422776</v>
       </c>
       <c r="O12">
-        <v>0.001114587554741734</v>
+        <v>0.0009082474294709132</v>
       </c>
       <c r="P12">
-        <v>0.01664985734629463</v>
+        <v>0.009657163751143345</v>
       </c>
       <c r="Q12">
-        <v>0.003424977171596913</v>
+        <v>0.0007428621094736215</v>
       </c>
       <c r="R12">
-        <v>0.000381837033055545</v>
+        <v>0.0007899873481170994</v>
       </c>
       <c r="S12">
-        <v>6.165283498526018E-06</v>
+        <v>2.013312154267969E-06</v>
       </c>
       <c r="T12">
-        <v>0.01132844166187671</v>
+        <v>0.00282163126274404</v>
       </c>
       <c r="U12">
-        <v>0.00285984734796457</v>
+        <v>0.0007306638131855459</v>
       </c>
       <c r="V12">
-        <v>38.18380565572961</v>
+        <v>9.815182159497343</v>
       </c>
       <c r="W12">
-        <v>5.074967839294562E-05</v>
+        <v>3.062293551025469</v>
       </c>
       <c r="X12">
-        <v>1.649615652024866E-06</v>
+        <v>0.0001652766262018662</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1196,61 +1196,61 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.218335778306087E-06</v>
+        <v>5.484699826407685E-06</v>
       </c>
       <c r="C13">
-        <v>0.04116360399003596</v>
+        <v>0.04013477641160917</v>
       </c>
       <c r="D13">
-        <v>0.003039009061931639</v>
+        <v>0.002785179331682106</v>
       </c>
       <c r="E13">
-        <v>0.04370200834007085</v>
+        <v>0.04275344881622194</v>
       </c>
       <c r="F13">
-        <v>6.499833299886311</v>
+        <v>6.899833213479416</v>
       </c>
       <c r="K13">
-        <v>7.009750829952037</v>
+        <v>8.285527464375235</v>
       </c>
       <c r="L13">
-        <v>6.012734608507815</v>
+        <v>8.652219188476034</v>
       </c>
       <c r="M13">
-        <v>7.092187452945121</v>
+        <v>8.304646709379483</v>
       </c>
       <c r="N13">
-        <v>0.01456329658129559</v>
+        <v>0.01090242403091042</v>
       </c>
       <c r="O13">
-        <v>0.001128874660355548</v>
+        <v>0.0009177536109089388</v>
       </c>
       <c r="P13">
-        <v>0.0167984515055609</v>
+        <v>0.009757324443746376</v>
       </c>
       <c r="Q13">
-        <v>0.003438392088602762</v>
+        <v>0.0007521086743160311</v>
       </c>
       <c r="R13">
-        <v>0.000386058063949444</v>
+        <v>0.0007988409889706145</v>
       </c>
       <c r="S13">
-        <v>6.164146753126983E-06</v>
+        <v>2.038515288828963E-06</v>
       </c>
       <c r="T13">
-        <v>0.01142359440697685</v>
+        <v>0.002845125279031214</v>
       </c>
       <c r="U13">
-        <v>0.002889181223686955</v>
+        <v>0.0007370016140094641</v>
       </c>
       <c r="V13">
-        <v>38.37518169484197</v>
+        <v>9.857761114029781</v>
       </c>
       <c r="W13">
-        <v>5.383654453874586E-05</v>
+        <v>3.075908431596531</v>
       </c>
       <c r="X13">
-        <v>1.649512458502398E-06</v>
+        <v>0.0001674502948792302</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1258,61 +1258,61 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.208608608229668E-06</v>
+        <v>5.475267594417666E-06</v>
       </c>
       <c r="C14">
-        <v>0.04159683802330988</v>
+        <v>0.04055920365115379</v>
       </c>
       <c r="D14">
-        <v>0.003077784288035288</v>
+        <v>0.002820603152018983</v>
       </c>
       <c r="E14">
-        <v>0.04418284515197023</v>
+        <v>0.0432276074297842</v>
       </c>
       <c r="F14">
-        <v>6.499817629936645</v>
+        <v>6.899817534331491</v>
       </c>
       <c r="K14">
-        <v>7.011831285496882</v>
+        <v>8.2841399570269</v>
       </c>
       <c r="L14">
-        <v>6.018327395525473</v>
+        <v>8.648572449719062</v>
       </c>
       <c r="M14">
-        <v>7.096534182205069</v>
+        <v>8.30355731549524</v>
       </c>
       <c r="N14">
-        <v>0.01471596046676082</v>
+        <v>0.01101588619477407</v>
       </c>
       <c r="O14">
-        <v>0.001143532359076631</v>
+        <v>0.000927496564252661</v>
       </c>
       <c r="P14">
-        <v>0.01695027036257179</v>
+        <v>0.009859656441126267</v>
       </c>
       <c r="Q14">
-        <v>0.003452157337109034</v>
+        <v>0.0007615872685732951</v>
       </c>
       <c r="R14">
-        <v>0.0003903750402812204</v>
+        <v>0.0008078955625351802</v>
       </c>
       <c r="S14">
-        <v>6.162515838923417E-06</v>
+        <v>2.064291074555881E-06</v>
       </c>
       <c r="T14">
-        <v>0.01152057637496878</v>
+        <v>0.002869081229770098</v>
       </c>
       <c r="U14">
-        <v>0.002919196120861473</v>
+        <v>0.000743484367957507</v>
       </c>
       <c r="V14">
-        <v>38.56946439903798</v>
+        <v>9.900776372908462</v>
       </c>
       <c r="W14">
-        <v>5.698014639705954E-05</v>
+        <v>3.089683804003663</v>
       </c>
       <c r="X14">
-        <v>1.649408435725156E-06</v>
+        <v>0.0001696752215241385</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1320,61 +1320,61 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.198667105761856E-06</v>
+        <v>5.4656254318005E-06</v>
       </c>
       <c r="C15">
-        <v>0.04203958576739349</v>
+        <v>0.04099298066838522</v>
       </c>
       <c r="D15">
-        <v>0.003117574459237684</v>
+        <v>0.002856950576179579</v>
       </c>
       <c r="E15">
-        <v>0.04467457905155117</v>
+        <v>0.0437125804206699</v>
       </c>
       <c r="F15">
-        <v>6.499801866085219</v>
+        <v>6.899801761020132</v>
       </c>
       <c r="K15">
-        <v>7.013931435000549</v>
+        <v>8.282729400966936</v>
       </c>
       <c r="L15">
-        <v>6.02400087120493</v>
+        <v>8.644853987051675</v>
       </c>
       <c r="M15">
-        <v>7.100932646124169</v>
+        <v>8.302453810081259</v>
       </c>
       <c r="N15">
-        <v>0.0148719653875388</v>
+        <v>0.01113184469627432</v>
       </c>
       <c r="O15">
-        <v>0.001158577575675351</v>
+        <v>0.000937477316350691</v>
       </c>
       <c r="P15">
-        <v>0.01710542108700239</v>
+        <v>0.009964231948856761</v>
       </c>
       <c r="Q15">
-        <v>0.003466262061333695</v>
+        <v>0.0007713098237205533</v>
       </c>
       <c r="R15">
-        <v>0.0003947912761943502</v>
+        <v>0.0008171579909427736</v>
       </c>
       <c r="S15">
-        <v>6.160329508285298E-06</v>
+        <v>2.090726521425561E-06</v>
       </c>
       <c r="T15">
-        <v>0.01161944281467116</v>
+        <v>0.002893513377607025</v>
       </c>
       <c r="U15">
-        <v>0.00294991708851586</v>
+        <v>0.0007501105948983124</v>
       </c>
       <c r="V15">
-        <v>38.76673753676353</v>
+        <v>9.944278028066448</v>
       </c>
       <c r="W15">
-        <v>6.018328004687093E-05</v>
+        <v>3.103581742967261</v>
       </c>
       <c r="X15">
-        <v>1.649303428249973E-06</v>
+        <v>0.0001719516780164299</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1382,61 +1382,61 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.188504112894771E-06</v>
+        <v>5.455766233953048E-06</v>
       </c>
       <c r="C16">
-        <v>0.04249216729423252</v>
+        <v>0.0414364228787597</v>
       </c>
       <c r="D16">
-        <v>0.003158419814414478</v>
+        <v>0.002894258093425196</v>
       </c>
       <c r="E16">
-        <v>0.0451775844229731</v>
+        <v>0.04420874155353642</v>
       </c>
       <c r="F16">
-        <v>6.499786006260305</v>
+        <v>6.899785891463513</v>
       </c>
       <c r="K16">
-        <v>7.016046989022652</v>
+        <v>8.281313047325421</v>
       </c>
       <c r="L16">
-        <v>6.029748476427755</v>
+        <v>8.641091621211093</v>
       </c>
       <c r="M16">
-        <v>7.105377644850707</v>
+        <v>8.301350016574105</v>
       </c>
       <c r="N16">
-        <v>0.01503142338535116</v>
+        <v>0.01125038385185483</v>
       </c>
       <c r="O16">
-        <v>0.001174022415586028</v>
+        <v>0.0009477126420452507</v>
       </c>
       <c r="P16">
-        <v>0.01726401595939389</v>
+        <v>0.0100711263921723</v>
       </c>
       <c r="Q16">
-        <v>0.003480748239858527</v>
+        <v>0.0007812823580161403</v>
       </c>
       <c r="R16">
-        <v>0.0003993102406906998</v>
+        <v>0.0008266355172732544</v>
       </c>
       <c r="S16">
-        <v>6.157618370954206E-06</v>
+        <v>2.117778624794262E-06</v>
       </c>
       <c r="T16">
-        <v>0.01172025125334739</v>
+        <v>0.002918436665778056</v>
       </c>
       <c r="U16">
-        <v>0.002981369566528374</v>
+        <v>0.000756892095719097</v>
       </c>
       <c r="V16">
-        <v>38.96708630075457</v>
+        <v>9.988313836403369</v>
       </c>
       <c r="W16">
-        <v>6.344650315398677E-05</v>
+        <v>3.117636618420072</v>
       </c>
       <c r="X16">
-        <v>1.649197650548867E-06</v>
+        <v>0.0001742826459683621</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -1444,61 +1444,61 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.178112126911051E-06</v>
+        <v>5.445682594520634E-06</v>
       </c>
       <c r="C17">
-        <v>0.04295491726458332</v>
+        <v>0.04188986011152835</v>
       </c>
       <c r="D17">
-        <v>0.003200362748583407</v>
+        <v>0.002932564120667594</v>
       </c>
       <c r="E17">
-        <v>0.04569225289974784</v>
+        <v>0.04471648193656301</v>
       </c>
       <c r="F17">
-        <v>6.49977004831674</v>
+        <v>6.899769923505541</v>
       </c>
       <c r="K17">
-        <v>7.01818403087824</v>
+        <v>8.279891279971515</v>
       </c>
       <c r="L17">
-        <v>6.035581931111322</v>
+        <v>8.637282765367299</v>
       </c>
       <c r="M17">
-        <v>7.10987762865105</v>
+        <v>8.300244908011795</v>
       </c>
       <c r="N17">
-        <v>0.01519445163205428</v>
+        <v>0.01137159174844082</v>
       </c>
       <c r="O17">
-        <v>0.0011898870639591</v>
+        <v>0.000958211632382497</v>
       </c>
       <c r="P17">
-        <v>0.01742617205021195</v>
+        <v>0.01018041867492708</v>
       </c>
       <c r="Q17">
-        <v>0.003495598683112908</v>
+        <v>0.0007915146698611627</v>
       </c>
       <c r="R17">
-        <v>0.0004039355656591674</v>
+        <v>0.0008363357259632363</v>
       </c>
       <c r="S17">
-        <v>6.154298209371506E-06</v>
+        <v>2.145476032957361E-06</v>
       </c>
       <c r="T17">
-        <v>0.0118230616261335</v>
+        <v>0.002943866601896397</v>
       </c>
       <c r="U17">
-        <v>0.003013581175172438</v>
+        <v>0.0007638339766735359</v>
       </c>
       <c r="V17">
-        <v>39.17059877229122</v>
+        <v>10.03292408707647</v>
       </c>
       <c r="W17">
-        <v>6.677337402780773E-05</v>
+        <v>3.131852766761</v>
       </c>
       <c r="X17">
-        <v>1.649090798456088E-06</v>
+        <v>0.0001766700644380604</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -1506,61 +1506,61 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.167483328654924E-06</v>
+        <v>5.435366752651641E-06</v>
       </c>
       <c r="C18">
-        <v>0.04342818577072617</v>
+        <v>0.04235363744475289</v>
       </c>
       <c r="D18">
-        <v>0.003243447932491619</v>
+        <v>0.002971909147998717</v>
       </c>
       <c r="E18">
-        <v>0.04621899439021143</v>
+        <v>0.04523621101857302</v>
       </c>
       <c r="F18">
-        <v>6.499753990032311</v>
+        <v>6.899753854912747</v>
       </c>
       <c r="K18">
-        <v>7.020338533393238</v>
+        <v>8.278458094121321</v>
       </c>
       <c r="L18">
-        <v>6.041497936888906</v>
+        <v>8.633422724898931</v>
       </c>
       <c r="M18">
-        <v>7.114429263470725</v>
+        <v>8.299137313491576</v>
       </c>
       <c r="N18">
-        <v>0.01536117263881732</v>
+        <v>0.01149556055934628</v>
       </c>
       <c r="O18">
-        <v>0.00120618607471647</v>
+        <v>0.0009689847358735743</v>
       </c>
       <c r="P18">
-        <v>0.01759201220934408</v>
+        <v>0.01029219134165405</v>
       </c>
       <c r="Q18">
-        <v>0.003510848390880621</v>
+        <v>0.000802018261065446</v>
       </c>
       <c r="R18">
-        <v>0.0004086710569383316</v>
+        <v>0.0008462665622719301</v>
       </c>
       <c r="S18">
-        <v>6.15038598276267E-06</v>
+        <v>2.173848116092851E-06</v>
       </c>
       <c r="T18">
-        <v>0.01192793639340684</v>
+        <v>0.002969819371244288</v>
       </c>
       <c r="U18">
-        <v>0.003046580231229629</v>
+        <v>0.0007709415025657657</v>
       </c>
       <c r="V18">
-        <v>39.37736564567164</v>
+        <v>10.07814392856896</v>
       </c>
       <c r="W18">
-        <v>7.016470590919006E-05</v>
+        <v>3.1462232987977</v>
       </c>
       <c r="X18">
-        <v>1.648983073330338E-06</v>
+        <v>0.0001791155952808205</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -1568,61 +1568,61 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.1566095254785E-06</v>
+        <v>5.42481059283835E-06</v>
       </c>
       <c r="C19">
-        <v>0.04391233923865671</v>
+        <v>0.04282811609893065</v>
       </c>
       <c r="D19">
-        <v>0.003287722488047637</v>
+        <v>0.003012335869728642</v>
       </c>
       <c r="E19">
-        <v>0.04675823812649974</v>
+        <v>0.04576835767844363</v>
       </c>
       <c r="F19">
-        <v>6.499737829104028</v>
+        <v>6.899737683370265</v>
       </c>
       <c r="K19">
-        <v>7.022512132930597</v>
+        <v>8.27701314103529</v>
       </c>
       <c r="L19">
-        <v>6.047497984018827</v>
+        <v>8.629508319925073</v>
       </c>
       <c r="M19">
-        <v>7.119033229523496</v>
+        <v>8.298025856790876</v>
       </c>
       <c r="N19">
-        <v>0.01553171464561371</v>
+        <v>0.01162238677408691</v>
       </c>
       <c r="O19">
-        <v>0.001222937203491425</v>
+        <v>0.0009800407442199053</v>
       </c>
       <c r="P19">
-        <v>0.01776166478547015</v>
+        <v>0.01040653077635994</v>
       </c>
       <c r="Q19">
-        <v>0.003526516231797483</v>
+        <v>0.0008128027344057366</v>
       </c>
       <c r="R19">
-        <v>0.0004135207035763505</v>
+        <v>0.0008564363540087475</v>
       </c>
       <c r="S19">
-        <v>6.14586046444808E-06</v>
+        <v>2.202927299149845E-06</v>
       </c>
       <c r="T19">
-        <v>0.01203494068451741</v>
+        <v>0.002996311875686197</v>
       </c>
       <c r="U19">
-        <v>0.003080396531278633</v>
+        <v>0.0007782202672784204</v>
       </c>
       <c r="V19">
-        <v>39.58748065423126</v>
+        <v>10.12400505280613</v>
       </c>
       <c r="W19">
-        <v>7.362296812901824E-05</v>
+        <v>3.160751365244671</v>
       </c>
       <c r="X19">
-        <v>1.64887439335347E-06</v>
+        <v>0.0001816213340608324</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -1630,61 +1630,61 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.145482150923474E-06</v>
+        <v>5.414005623568694E-06</v>
       </c>
       <c r="C20">
-        <v>0.04440776139415193</v>
+        <v>0.04331367439440872</v>
       </c>
       <c r="D20">
-        <v>0.003333236145885714</v>
+        <v>0.003053889335861902</v>
       </c>
       <c r="E20">
-        <v>0.04731043382144443</v>
+        <v>0.04631337138220623</v>
       </c>
       <c r="F20">
-        <v>6.499721563144092</v>
+        <v>6.899721406477664</v>
       </c>
       <c r="K20">
-        <v>7.024705181368305</v>
+        <v>8.275548744078938</v>
       </c>
       <c r="L20">
-        <v>6.053590339763127</v>
+        <v>8.625503068249307</v>
       </c>
       <c r="M20">
-        <v>7.123695600593295</v>
+        <v>8.296895285372887</v>
       </c>
       <c r="N20">
-        <v>0.01570621193149325</v>
+        <v>0.01175217148176822</v>
       </c>
       <c r="O20">
-        <v>0.001240160767728504</v>
+        <v>0.0009913840402468546</v>
       </c>
       <c r="P20">
-        <v>0.01793526415807591</v>
+        <v>0.0105235274597984</v>
       </c>
       <c r="Q20">
-        <v>0.003542594839589601</v>
+        <v>0.0008238852599005929</v>
       </c>
       <c r="R20">
-        <v>0.000418488689467959</v>
+        <v>0.000866853834822279</v>
       </c>
       <c r="S20">
-        <v>6.140656177347923E-06</v>
+        <v>2.232818026683208E-06</v>
       </c>
       <c r="T20">
-        <v>0.01214414244248374</v>
+        <v>0.003023361773349706</v>
       </c>
       <c r="U20">
-        <v>0.003115062184632166</v>
+        <v>0.00078566944341334</v>
       </c>
       <c r="V20">
-        <v>39.80104147605495</v>
+        <v>10.17053186958814</v>
       </c>
       <c r="W20">
-        <v>7.715039225052357E-05</v>
+        <v>3.175427633683167</v>
       </c>
       <c r="X20">
-        <v>1.648764740931585E-06</v>
+        <v>0.0001841890451407593</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -1692,61 +1692,61 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.134092250488961E-06</v>
+        <v>5.402942946633876E-06</v>
       </c>
       <c r="C21">
-        <v>0.04491485429845151</v>
+        <v>0.04381070877784756</v>
       </c>
       <c r="D21">
-        <v>0.003380041423047964</v>
+        <v>0.003096617120273344</v>
       </c>
       <c r="E21">
-        <v>0.04787605290100241</v>
+        <v>0.04687172342170341</v>
       </c>
       <c r="F21">
-        <v>6.499705189675626</v>
+        <v>6.899705021744861</v>
       </c>
       <c r="K21">
-        <v>7.026917861871285</v>
+        <v>8.274078084854125</v>
       </c>
       <c r="L21">
-        <v>6.059768098712198</v>
+        <v>8.621461900738501</v>
       </c>
       <c r="M21">
-        <v>7.128409939767805</v>
+        <v>8.295770174976775</v>
       </c>
       <c r="N21">
-        <v>0.01588480515573726</v>
+        <v>0.01188502070944132</v>
       </c>
       <c r="O21">
-        <v>0.001257874483695623</v>
+        <v>0.001003039513414968</v>
       </c>
       <c r="P21">
-        <v>0.01811295143361278</v>
+        <v>0.01064327612893294</v>
       </c>
       <c r="Q21">
-        <v>0.003559141822020519</v>
+        <v>0.0008352706062782489</v>
       </c>
       <c r="R21">
-        <v>0.0004235794059283369</v>
+        <v>0.0008775281683629654</v>
       </c>
       <c r="S21">
-        <v>6.13481471798868E-06</v>
+        <v>2.263425014219109E-06</v>
       </c>
       <c r="T21">
-        <v>0.01225561256912388</v>
+        <v>0.003050987604583489</v>
       </c>
       <c r="U21">
-        <v>0.003150609396243942</v>
+        <v>0.0007933075720227971</v>
       </c>
       <c r="V21">
-        <v>40.01814881479089</v>
+        <v>10.2177568956893</v>
       </c>
       <c r="W21">
-        <v>8.074937804653087E-05</v>
+        <v>3.190279731103665</v>
       </c>
       <c r="X21">
-        <v>1.648654106906436E-06</v>
+        <v>0.0001868219086995645</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -1754,61 +1754,61 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.12243042703317E-06</v>
+        <v>5.391613237633038E-06</v>
       </c>
       <c r="C22">
-        <v>0.04543403945939406</v>
+        <v>0.04431963492356724</v>
       </c>
       <c r="D22">
-        <v>0.00342819383802575</v>
+        <v>0.003140569496469283</v>
       </c>
       <c r="E22">
-        <v>0.04845558980128405</v>
+        <v>0.0474439082480923</v>
       </c>
       <c r="F22">
-        <v>6.499688706128157</v>
+        <v>6.899688526587492</v>
       </c>
       <c r="K22">
-        <v>7.029148731811267</v>
+        <v>8.272599735109532</v>
       </c>
       <c r="L22">
-        <v>6.066044417823742</v>
+        <v>8.617358001248011</v>
       </c>
       <c r="M22">
-        <v>7.133186042823154</v>
+        <v>8.294640885122037</v>
       </c>
       <c r="N22">
-        <v>0.01606764178913778</v>
+        <v>0.01202104547439165</v>
       </c>
       <c r="O22">
-        <v>0.001276102465725142</v>
+        <v>0.001015014748736654</v>
       </c>
       <c r="P22">
-        <v>0.01829487405375768</v>
+        <v>0.01076587619796613</v>
       </c>
       <c r="Q22">
-        <v>0.003576134460106541</v>
+        <v>0.000846974229611795</v>
       </c>
       <c r="R22">
-        <v>0.0004287974633184662</v>
+        <v>0.0008884689776548247</v>
       </c>
       <c r="S22">
-        <v>6.128236285242735E-06</v>
+        <v>2.294827910603081E-06</v>
       </c>
       <c r="T22">
-        <v>0.01236942510878488</v>
+        <v>0.003079208604990497</v>
       </c>
       <c r="U22">
-        <v>0.003187074432890936</v>
+        <v>0.0008011371957431705</v>
       </c>
       <c r="V22">
-        <v>40.23890838928823</v>
+        <v>10.26570815063541</v>
       </c>
       <c r="W22">
-        <v>8.442184365351261E-05</v>
+        <v>3.205309562865139</v>
       </c>
       <c r="X22">
-        <v>1.648542563409437E-06</v>
+        <v>0.0001895223272029629</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -1816,61 +1816,61 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.1104868382839E-06</v>
+        <v>5.380006725739019E-06</v>
       </c>
       <c r="C23">
-        <v>0.04596575902422151</v>
+        <v>0.04484088891631532</v>
       </c>
       <c r="D23">
-        <v>0.003477752112864412</v>
+        <v>0.003185799627745469</v>
       </c>
       <c r="E23">
-        <v>0.04904956339390957</v>
+        <v>0.04803044490280432</v>
       </c>
       <c r="F23">
-        <v>6.499672109832753</v>
+        <v>6.899671918321796</v>
       </c>
       <c r="K23">
-        <v>7.0313999954519</v>
+        <v>8.271104773766485</v>
       </c>
       <c r="L23">
-        <v>6.072412289030773</v>
+        <v>8.613200471914331</v>
       </c>
       <c r="M23">
-        <v>7.138017160387764</v>
+        <v>8.29351080316885</v>
       </c>
       <c r="N23">
-        <v>0.01625487646411768</v>
+        <v>0.01216036231902019</v>
       </c>
       <c r="O23">
-        <v>0.001294863444414583</v>
+        <v>0.001027325508213643</v>
       </c>
       <c r="P23">
-        <v>0.01848118721317099</v>
+        <v>0.01089143191908454</v>
       </c>
       <c r="Q23">
-        <v>0.003593631358811428</v>
+        <v>0.000859009155319301</v>
       </c>
       <c r="R23">
-        <v>0.0004341477066986336</v>
+        <v>0.0008996863719553844</v>
       </c>
       <c r="S23">
-        <v>6.12096477982412E-06</v>
+        <v>2.327039963374439E-06</v>
       </c>
       <c r="T23">
-        <v>0.01248565739582151</v>
+        <v>0.003108044951942995</v>
       </c>
       <c r="U23">
-        <v>0.003224492816327063</v>
+        <v>0.0008091674420768391</v>
       </c>
       <c r="V23">
-        <v>40.46342931930052</v>
+        <v>10.31441437246737</v>
       </c>
       <c r="W23">
-        <v>8.817078291842553E-05</v>
+        <v>3.220505718652511</v>
       </c>
       <c r="X23">
-        <v>1.648430000227405E-06</v>
+        <v>0.0001922922650646564</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -1878,61 +1878,61 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.098251167839948E-06</v>
+        <v>5.368113154559891E-06</v>
       </c>
       <c r="C24">
-        <v>0.0465104770615466</v>
+        <v>0.04537492852257904</v>
       </c>
       <c r="D24">
-        <v>0.00352877840744263</v>
+        <v>0.003232363782987541</v>
       </c>
       <c r="E24">
-        <v>0.0496585185017831</v>
+        <v>0.04863187854954534</v>
       </c>
       <c r="F24">
-        <v>6.499655398016912</v>
+        <v>6.899655194159815</v>
       </c>
       <c r="K24">
-        <v>7.033671358643832</v>
+        <v>8.269597851721072</v>
       </c>
       <c r="L24">
-        <v>6.078882777578173</v>
+        <v>8.608963209889138</v>
       </c>
       <c r="M24">
-        <v>7.142911700252812</v>
+        <v>8.292369883352881</v>
       </c>
       <c r="N24">
-        <v>0.01644667150283183</v>
+        <v>0.01230309356018438</v>
       </c>
       <c r="O24">
-        <v>0.001314184732200305</v>
+        <v>0.001039979783075747</v>
       </c>
       <c r="P24">
-        <v>0.0186720533138679</v>
+        <v>0.01102005272374819</v>
       </c>
       <c r="Q24">
-        <v>0.003611622783929168</v>
+        <v>0.0008713916981674438</v>
       </c>
       <c r="R24">
-        <v>0.0004396352290309261</v>
+        <v>0.0009111909787757949</v>
       </c>
       <c r="S24">
-        <v>6.112905433176678E-06</v>
+        <v>2.360148200052322E-06</v>
       </c>
       <c r="T24">
-        <v>0.0126043902750458</v>
+        <v>0.003137517740531022</v>
       </c>
       <c r="U24">
-        <v>0.003262904417224077</v>
+        <v>0.0008174015100049644</v>
       </c>
       <c r="V24">
-        <v>40.691826035406</v>
+        <v>10.36390125004182</v>
       </c>
       <c r="W24">
-        <v>9.199875532780647E-05</v>
+        <v>3.23588118255077</v>
       </c>
       <c r="X24">
-        <v>1.648316432067808E-06</v>
+        <v>0.0001951347734028494</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -1940,61 +1940,61 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.085712593035033E-06</v>
+        <v>5.355921758585397E-06</v>
       </c>
       <c r="C25">
-        <v>0.04706868094017132</v>
+        <v>0.04592223455815815</v>
       </c>
       <c r="D25">
-        <v>0.003581338575063112</v>
+        <v>0.003280321561807067</v>
       </c>
       <c r="E25">
-        <v>0.05028302752665444</v>
+        <v>0.04924878212705904</v>
       </c>
       <c r="F25">
-        <v>6.499638567799045</v>
+        <v>6.89963835120361</v>
       </c>
       <c r="K25">
-        <v>7.035963511396756</v>
+        <v>8.268083087777093</v>
       </c>
       <c r="L25">
-        <v>6.08545484974213</v>
+        <v>8.604678334933864</v>
       </c>
       <c r="M25">
-        <v>7.147868272855142</v>
+        <v>8.291233132652641</v>
       </c>
       <c r="N25">
-        <v>0.01664319730504782</v>
+        <v>0.01244936776508189</v>
       </c>
       <c r="O25">
-        <v>0.001334089316209318</v>
+        <v>0.001053001383755694</v>
       </c>
       <c r="P25">
-        <v>0.01886764332075022</v>
+        <v>0.0111518535162882</v>
       </c>
       <c r="Q25">
-        <v>0.003630142836730769</v>
+        <v>0.0008841330342253957</v>
       </c>
       <c r="R25">
-        <v>0.0004452653890776501</v>
+        <v>0.0009229939765754799</v>
       </c>
       <c r="S25">
-        <v>6.104057248404687E-06</v>
+        <v>2.39410748546801E-06</v>
       </c>
       <c r="T25">
-        <v>0.01272570827319933</v>
+        <v>0.003167649120148244</v>
       </c>
       <c r="U25">
-        <v>0.003302349793662653</v>
+        <v>0.0008258551184116917</v>
       </c>
       <c r="V25">
-        <v>40.92421757388939</v>
+        <v>10.41419936729283</v>
       </c>
       <c r="W25">
-        <v>9.590866444718083E-05</v>
+        <v>3.25144791916</v>
       </c>
       <c r="X25">
-        <v>1.648201824430162E-06</v>
+        <v>0.0001980529829182991</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -2002,61 +2002,61 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5.072859771342221E-06</v>
+        <v>5.343421237575881E-06</v>
       </c>
       <c r="C26">
-        <v>0.04764088281339644</v>
+        <v>0.04648331236074172</v>
       </c>
       <c r="D26">
-        <v>0.003635502428218168</v>
+        <v>0.00332973613978412</v>
       </c>
       <c r="E26">
-        <v>0.05092369221469231</v>
+        <v>0.04988175813048638</v>
       </c>
       <c r="F26">
-        <v>6.499621616182615</v>
+        <v>6.899621386439326</v>
       </c>
       <c r="K26">
-        <v>7.038273725901015</v>
+        <v>8.266543690633544</v>
       </c>
       <c r="L26">
-        <v>6.092127775753267</v>
+        <v>8.60028099984223</v>
       </c>
       <c r="M26">
-        <v>7.1528840898771</v>
+        <v>8.290070936438337</v>
       </c>
       <c r="N26">
-        <v>0.01684463293647991</v>
+        <v>0.01259931995430987</v>
       </c>
       <c r="O26">
-        <v>0.001354602029616411</v>
+        <v>0.001066389516665918</v>
       </c>
       <c r="P26">
-        <v>0.01906813674817153</v>
+        <v>0.0112869551015785</v>
       </c>
       <c r="Q26">
-        <v>0.003649237168591621</v>
+        <v>0.0008972580581391472</v>
       </c>
       <c r="R26">
-        <v>0.0004510438276543507</v>
+        <v>0.0009351071327477168</v>
       </c>
       <c r="S26">
-        <v>6.09442722667646E-06</v>
+        <v>2.429117306790677E-06</v>
       </c>
       <c r="T26">
-        <v>0.0128496998321406</v>
+        <v>0.003198462199118462</v>
       </c>
       <c r="U26">
-        <v>0.003342871885752264</v>
+        <v>0.0008345223519122507</v>
       </c>
       <c r="V26">
-        <v>41.16072799058481</v>
+        <v>10.46533109950682</v>
       </c>
       <c r="W26">
-        <v>9.990271464514431E-05</v>
+        <v>3.267181480546192</v>
       </c>
       <c r="X26">
-        <v>1.648086313704949E-06</v>
+        <v>0.0002010488000283536</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -2064,61 +2064,61 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5.059680756913396E-06</v>
+        <v>5.3305997142409E-06</v>
       </c>
       <c r="C27">
-        <v>0.04822762121853214</v>
+        <v>0.04705869337702115</v>
       </c>
       <c r="D27">
-        <v>0.003691344070568396</v>
+        <v>0.003380674543621187</v>
       </c>
       <c r="E27">
-        <v>0.05158114550903321</v>
+        <v>0.05053144051999112</v>
       </c>
       <c r="F27">
-        <v>6.499604540049923</v>
+        <v>6.899604296730844</v>
       </c>
       <c r="K27">
-        <v>7.040607875086913</v>
+        <v>8.265003049288001</v>
       </c>
       <c r="L27">
-        <v>6.098915734116257</v>
+        <v>8.595849075537224</v>
       </c>
       <c r="M27">
-        <v>7.157971063620591</v>
+        <v>8.288921913584547</v>
       </c>
       <c r="N27">
-        <v>0.01705116668190475</v>
+        <v>0.01275309236014512</v>
       </c>
       <c r="O27">
-        <v>0.001375756103886646</v>
+        <v>0.001080183322460526</v>
       </c>
       <c r="P27">
-        <v>0.01927372207589926</v>
+        <v>0.01142548439549103</v>
       </c>
       <c r="Q27">
-        <v>0.003668883001001783</v>
+        <v>0.0009107726268140302</v>
       </c>
       <c r="R27">
-        <v>0.0004569764863267197</v>
+        <v>0.0009475428396202625</v>
       </c>
       <c r="S27">
-        <v>6.083889438841697E-06</v>
+        <v>2.465005080876972E-06</v>
       </c>
       <c r="T27">
-        <v>0.01297645753809244</v>
+        <v>0.003229981397081211</v>
       </c>
       <c r="U27">
-        <v>0.003384517502833559</v>
+        <v>0.000843431844553247</v>
       </c>
       <c r="V27">
-        <v>41.40148748064697</v>
+        <v>10.51733081006562</v>
       </c>
       <c r="W27">
-        <v>0.0001039853998271807</v>
+        <v>3.283128744055691</v>
       </c>
       <c r="X27">
-        <v>1.647969606245654E-06</v>
+        <v>0.0002041269343521704</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -2126,61 +2126,61 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5.046163031214796E-06</v>
+        <v>5.317444705718054E-06</v>
       </c>
       <c r="C28">
-        <v>0.04882946280161273</v>
+        <v>0.0476489368747698</v>
       </c>
       <c r="D28">
-        <v>0.003748942185628981</v>
+        <v>0.003433207942546985</v>
       </c>
       <c r="E28">
-        <v>0.05225605362994325</v>
+        <v>0.05119849679059942</v>
       </c>
       <c r="F28">
-        <v>6.499587336155377</v>
+        <v>6.899587078813087</v>
       </c>
       <c r="K28">
-        <v>7.042960747831184</v>
+        <v>8.263436620050109</v>
       </c>
       <c r="L28">
-        <v>6.105813247767547</v>
+        <v>8.59130445673682</v>
       </c>
       <c r="M28">
-        <v>7.163122406222107</v>
+        <v>8.287749452651244</v>
       </c>
       <c r="N28">
-        <v>0.01726299655458067</v>
+        <v>0.01291083437416789</v>
       </c>
       <c r="O28">
-        <v>0.001397576615185533</v>
+        <v>0.001094378890980753</v>
       </c>
       <c r="P28">
-        <v>0.01948459827961409</v>
+        <v>0.01156757509506774</v>
       </c>
       <c r="Q28">
-        <v>0.003689145409906659</v>
+        <v>0.0009247046902403641</v>
       </c>
       <c r="R28">
-        <v>0.0004630696295279072</v>
+        <v>0.0009603141617086326</v>
       </c>
       <c r="S28">
-        <v>6.072481400333857E-06</v>
+        <v>2.50201835222478E-06</v>
       </c>
       <c r="T28">
-        <v>0.01310607834937973</v>
+        <v>0.003262232066709968</v>
       </c>
       <c r="U28">
-        <v>0.003427334276339067</v>
+        <v>0.0008525750734935507</v>
       </c>
       <c r="V28">
-        <v>41.64663166824474</v>
+        <v>10.57022334875645</v>
       </c>
       <c r="W28">
-        <v>0.0001081585209524633</v>
+        <v>3.299251425596267</v>
       </c>
       <c r="X28">
-        <v>1.647851962608441E-06</v>
+        <v>0.0002072891343020581</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -2188,61 +2188,61 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5.032293410563385E-06</v>
+        <v>5.303943066917131E-06</v>
       </c>
       <c r="C29">
-        <v>0.04944700417991389</v>
+        <v>0.04825463179164956</v>
       </c>
       <c r="D29">
-        <v>0.003808380429832637</v>
+        <v>0.00348741198115869</v>
       </c>
       <c r="E29">
-        <v>0.05294911822974376</v>
+        <v>0.05188363018877348</v>
       </c>
       <c r="F29">
-        <v>6.499570001118336</v>
+        <v>6.899569729285128</v>
       </c>
       <c r="K29">
-        <v>7.045335181873988</v>
+        <v>8.261866439508896</v>
       </c>
       <c r="L29">
-        <v>6.112828270956335</v>
+        <v>8.586723245672426</v>
       </c>
       <c r="M29">
-        <v>7.168344477832386</v>
+        <v>8.286590059819458</v>
       </c>
       <c r="N29">
-        <v>0.01748033107429842</v>
+        <v>0.01307270362736223</v>
       </c>
       <c r="O29">
-        <v>0.001420097703191817</v>
+        <v>0.001109017325981896</v>
       </c>
       <c r="P29">
-        <v>0.01970097434632242</v>
+        <v>0.01171336784033935</v>
       </c>
       <c r="Q29">
-        <v>0.003710031656650759</v>
+        <v>0.000939063530036737</v>
       </c>
       <c r="R29">
-        <v>0.0004693298644337644</v>
+        <v>0.0009734348760011861</v>
       </c>
       <c r="S29">
-        <v>6.060132533764776E-06</v>
+        <v>2.539994477896297E-06</v>
       </c>
       <c r="T29">
-        <v>0.01323866388462686</v>
+        <v>0.003295241066617042</v>
       </c>
       <c r="U29">
-        <v>0.00347137395893604</v>
+        <v>0.0008619809199601171</v>
       </c>
       <c r="V29">
-        <v>41.89630269933074</v>
+        <v>10.62404446735662</v>
       </c>
       <c r="W29">
-        <v>0.0001124261914548113</v>
+        <v>3.31559451559928</v>
       </c>
       <c r="X29">
-        <v>1.6477332409063E-06</v>
+        <v>0.0002105403847512328</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -2250,61 +2250,61 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5.018058036464441E-06</v>
+        <v>5.290080974707844E-06</v>
       </c>
       <c r="C30">
-        <v>0.05008087395422057</v>
+        <v>0.04887639873346194</v>
       </c>
       <c r="D30">
-        <v>0.003869747806786397</v>
+        <v>0.003543367118050207</v>
       </c>
       <c r="E30">
-        <v>0.05366107878354315</v>
+        <v>0.05258758213009303</v>
       </c>
       <c r="F30">
-        <v>6.499552531415468</v>
+        <v>6.899552244601558</v>
       </c>
       <c r="K30">
-        <v>7.047730455495691</v>
+        <v>8.260286794518215</v>
       </c>
       <c r="L30">
-        <v>6.119959869011308</v>
+        <v>8.582077203612831</v>
       </c>
       <c r="M30">
-        <v>7.173634632878251</v>
+        <v>8.285430067839561</v>
       </c>
       <c r="N30">
-        <v>0.01770338987111934</v>
+        <v>0.01323886593710362</v>
       </c>
       <c r="O30">
-        <v>0.001443351458360712</v>
+        <v>0.001124109987179757</v>
       </c>
       <c r="P30">
-        <v>0.01992307077256786</v>
+        <v>0.01186301095576022</v>
       </c>
       <c r="Q30">
-        <v>0.003731594861574395</v>
+        <v>0.0009538721352435704</v>
       </c>
       <c r="R30">
-        <v>0.0004757641662657089</v>
+        <v>0.000986919527133454</v>
       </c>
       <c r="S30">
-        <v>6.046841477412099E-06</v>
+        <v>2.579058459861355E-06</v>
       </c>
       <c r="T30">
-        <v>0.01337432068915034</v>
+        <v>0.003329036346431721</v>
       </c>
       <c r="U30">
-        <v>0.003516690221001717</v>
+        <v>0.0008716536470990755</v>
       </c>
       <c r="V30">
-        <v>42.15064904371434</v>
+        <v>10.6788270460514</v>
       </c>
       <c r="W30">
-        <v>0.0001167916356373735</v>
+        <v>3.332153550294809</v>
       </c>
       <c r="X30">
-        <v>1.647613477225215E-06</v>
+        <v>0.0002138840411731552</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -2312,61 +2312,61 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5.003442340087973E-06</v>
+        <v>5.275843860407985E-06</v>
       </c>
       <c r="C31">
-        <v>0.05073173488587457</v>
+        <v>0.0495148921364959</v>
       </c>
       <c r="D31">
-        <v>0.003933139092432723</v>
+        <v>0.003601159025897566</v>
       </c>
       <c r="E31">
-        <v>0.05439271515533805</v>
+        <v>0.05331113479024733</v>
       </c>
       <c r="F31">
-        <v>6.499534923372488</v>
+        <v>6.899534621065172</v>
       </c>
       <c r="K31">
-        <v>7.050146527912578</v>
+        <v>8.258685498995268</v>
       </c>
       <c r="L31">
-        <v>6.127215867574251</v>
+        <v>8.577329130117311</v>
       </c>
       <c r="M31">
-        <v>7.178997234888245</v>
+        <v>8.284256628881282</v>
       </c>
       <c r="N31">
-        <v>0.01793240449665115</v>
+        <v>0.01340949630259551</v>
       </c>
       <c r="O31">
-        <v>0.001467374642922025</v>
+        <v>0.001139672161750024</v>
       </c>
       <c r="P31">
-        <v>0.02015111972906072</v>
+        <v>0.01201666079830271</v>
       </c>
       <c r="Q31">
-        <v>0.003753854450810869</v>
+        <v>0.0009691577820930949</v>
       </c>
       <c r="R31">
-        <v>0.0004823799032345581</v>
+        <v>0.001000783477396462</v>
       </c>
       <c r="S31">
-        <v>6.032546030685235E-06</v>
+        <v>2.619332563831142E-06</v>
       </c>
       <c r="T31">
-        <v>0.01351316055489892</v>
+        <v>0.003363647370365984</v>
       </c>
       <c r="U31">
-        <v>0.003563341157917712</v>
+        <v>0.0008815983846791689</v>
       </c>
       <c r="V31">
-        <v>42.40982650771004</v>
+        <v>10.73460197677434</v>
       </c>
       <c r="W31">
-        <v>0.0001212587801106604</v>
+        <v>3.34891307563197</v>
       </c>
       <c r="X31">
-        <v>1.647492673604371E-06</v>
+        <v>0.0002173232065609235</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -2374,61 +2374,61 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4.988430930684873E-06</v>
+        <v>5.261216370201604E-06</v>
       </c>
       <c r="C32">
-        <v>0.05140028625435231</v>
+        <v>0.05017080260950445</v>
       </c>
       <c r="D32">
-        <v>0.003998655351307403</v>
+        <v>0.003660879011056396</v>
       </c>
       <c r="E32">
-        <v>0.0551448503144111</v>
+        <v>0.05405511392025936</v>
       </c>
       <c r="F32">
-        <v>6.499517173155443</v>
+        <v>6.899516854817403</v>
       </c>
       <c r="K32">
-        <v>7.052585354920016</v>
+        <v>8.257068075236132</v>
       </c>
       <c r="L32">
-        <v>6.134599627260611</v>
+        <v>8.572500501654664</v>
       </c>
       <c r="M32">
-        <v>7.184435105196819</v>
+        <v>8.283078911707499</v>
       </c>
       <c r="N32">
-        <v>0.01816761920884728</v>
+        <v>0.01358477950460759</v>
       </c>
       <c r="O32">
-        <v>0.001492206192047519</v>
+        <v>0.001155730237163034</v>
       </c>
       <c r="P32">
-        <v>0.02038536637589286</v>
+        <v>0.01217448226996284</v>
       </c>
       <c r="Q32">
-        <v>0.003776841934829164</v>
+        <v>0.0009849386848661923</v>
       </c>
       <c r="R32">
-        <v>0.0004891848654803277</v>
+        <v>0.001015042965179786</v>
       </c>
       <c r="S32">
-        <v>6.017198728733256E-06</v>
+        <v>2.660820193671071E-06</v>
       </c>
       <c r="T32">
-        <v>0.01365530083199865</v>
+        <v>0.003399105213018653</v>
       </c>
       <c r="U32">
-        <v>0.003611387738652419</v>
+        <v>0.0008918321685562826</v>
       </c>
       <c r="V32">
-        <v>42.67399834959871</v>
+        <v>10.7914038650604</v>
       </c>
       <c r="W32">
-        <v>0.0001258318206867934</v>
+        <v>3.365889985361186</v>
       </c>
       <c r="X32">
-        <v>1.647370732253999E-06</v>
+        <v>0.0002208624303159846</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -2436,61 +2436,61 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4.973007636885228E-06</v>
+        <v>5.246182311165913E-06</v>
       </c>
       <c r="C33">
-        <v>0.05208726641236746</v>
+        <v>0.05084485947325008</v>
       </c>
       <c r="D33">
-        <v>0.004066404395416548</v>
+        <v>0.003722624481329773</v>
       </c>
       <c r="E33">
-        <v>0.05591835340328875</v>
+        <v>0.05482039189385056</v>
       </c>
       <c r="F33">
-        <v>6.499499276761065</v>
+        <v>6.899498941828893</v>
       </c>
       <c r="K33">
-        <v>7.05504554537532</v>
+        <v>8.255434602847005</v>
       </c>
       <c r="L33">
-        <v>6.142117682462731</v>
+        <v>8.567580690621366</v>
       </c>
       <c r="M33">
-        <v>7.189950732277733</v>
+        <v>8.281893776522171</v>
       </c>
       <c r="N33">
-        <v>0.01840929186126467</v>
+        <v>0.01376491065341113</v>
       </c>
       <c r="O33">
-        <v>0.00151788664666501</v>
+        <v>0.001172308211239877</v>
       </c>
       <c r="P33">
-        <v>0.0206260696286619</v>
+        <v>0.01233664956829758</v>
       </c>
       <c r="Q33">
-        <v>0.003800590211472214</v>
+        <v>0.001001241994528033</v>
       </c>
       <c r="R33">
-        <v>0.0004961872954332494</v>
+        <v>0.001029715170179584</v>
       </c>
       <c r="S33">
-        <v>6.000748241335617E-06</v>
+        <v>2.703596905264791E-06</v>
       </c>
       <c r="T33">
-        <v>0.01380086478987323</v>
+        <v>0.003435442503518108</v>
       </c>
       <c r="U33">
-        <v>0.003660895268589814</v>
+        <v>0.0009023666359642903</v>
       </c>
       <c r="V33">
-        <v>42.94333601393037</v>
+        <v>10.84926808604276</v>
       </c>
       <c r="W33">
-        <v>0.0001305147073686514</v>
+        <v>3.383090145547655</v>
       </c>
       <c r="X33">
-        <v>1.647247722731234E-06</v>
+        <v>0.0002245061076444226</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -2498,61 +2498,61 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4.957155369617058E-06</v>
+        <v>5.23072459785519E-06</v>
       </c>
       <c r="C34">
-        <v>0.05279345555967557</v>
+        <v>0.05153783351724892</v>
       </c>
       <c r="D34">
-        <v>0.004136501412282717</v>
+        <v>0.003786499457652708</v>
       </c>
       <c r="E34">
-        <v>0.05671414291824636</v>
+        <v>0.05560789101419211</v>
       </c>
       <c r="F34">
-        <v>6.499481230006747</v>
+        <v>6.899480877889199</v>
       </c>
       <c r="K34">
-        <v>7.057527598853206</v>
+        <v>8.253789156889361</v>
       </c>
       <c r="L34">
-        <v>6.149772236811376</v>
+        <v>8.562569061196022</v>
       </c>
       <c r="M34">
-        <v>7.195545191691952</v>
+        <v>8.280702733424798</v>
       </c>
       <c r="N34">
-        <v>0.01865769487912643</v>
+        <v>0.01395009598344306</v>
       </c>
       <c r="O34">
-        <v>0.001544459700843457</v>
+        <v>0.001189432271797478</v>
       </c>
       <c r="P34">
-        <v>0.02087350314950293</v>
+        <v>0.01250334673850007</v>
       </c>
       <c r="Q34">
-        <v>0.003825145512621636</v>
+        <v>0.001018092652175888</v>
       </c>
       <c r="R34">
-        <v>0.0005033959211272482</v>
+        <v>0.001044818281551266</v>
       </c>
       <c r="S34">
-        <v>5.983168086961959E-06</v>
+        <v>2.747716467814777E-06</v>
       </c>
       <c r="T34">
-        <v>0.01394998198871564</v>
+        <v>0.003472693619217429</v>
       </c>
       <c r="U34">
-        <v>0.00371193254049003</v>
+        <v>0.0009132166034712173</v>
       </c>
       <c r="V34">
-        <v>43.21801937183569</v>
+        <v>10.90823201771525</v>
       </c>
       <c r="W34">
-        <v>0.000135311806209647</v>
+        <v>3.400528312228328</v>
       </c>
       <c r="X34">
-        <v>1.64712362005734E-06</v>
+        <v>0.0002282592032258487</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -2560,61 +2560,61 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4.940856129722579E-06</v>
+        <v>5.214825178184341E-06</v>
       </c>
       <c r="C35">
-        <v>0.0535196787559053</v>
+        <v>0.05225053999575036</v>
       </c>
       <c r="D35">
-        <v>0.004209069550090055</v>
+        <v>0.003852615148109756</v>
       </c>
       <c r="E35">
-        <v>0.05753319028596472</v>
+        <v>0.05641858709006986</v>
       </c>
       <c r="F35">
-        <v>6.499463028519529</v>
+        <v>6.899462658595879</v>
       </c>
       <c r="K35">
-        <v>7.060031965375215</v>
+        <v>8.252122626333872</v>
       </c>
       <c r="L35">
-        <v>6.157565156749881</v>
+        <v>8.557460497611341</v>
       </c>
       <c r="M35">
-        <v>7.201217653785787</v>
+        <v>8.279502361370628</v>
       </c>
       <c r="N35">
-        <v>0.01891311629969782</v>
+        <v>0.01414055365078106</v>
       </c>
       <c r="O35">
-        <v>0.001571970287886578</v>
+        <v>0.001207128551416341</v>
       </c>
       <c r="P35">
-        <v>0.02112795624856086</v>
+        <v>0.01267476844128103</v>
       </c>
       <c r="Q35">
-        <v>0.003850564449867771</v>
+        <v>0.001035520267692743</v>
       </c>
       <c r="R35">
-        <v>0.0005108199920681479</v>
+        <v>0.001060371573567437</v>
       </c>
       <c r="S35">
-        <v>5.964429872528156E-06</v>
+        <v>2.793258994800501E-06</v>
       </c>
       <c r="T35">
-        <v>0.01410278869689811</v>
+        <v>0.003510894768706179</v>
       </c>
       <c r="U35">
-        <v>0.003764572383416969</v>
+        <v>0.0009243951586339394</v>
       </c>
       <c r="V35">
-        <v>43.49823714513626</v>
+        <v>10.96833403388893</v>
       </c>
       <c r="W35">
-        <v>0.0001402280636108958</v>
+        <v>3.418196130189358</v>
       </c>
       <c r="X35">
-        <v>1.646998401731239E-06</v>
+        <v>0.0002321260404840433</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -2622,61 +2622,61 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4.924090870967893E-06</v>
+        <v>5.198464976102401E-06</v>
       </c>
       <c r="C36">
-        <v>0.05426680919841766</v>
+        <v>0.05298384188738128</v>
       </c>
       <c r="D36">
-        <v>0.004284240666117529</v>
+        <v>0.003921090567362831</v>
       </c>
       <c r="E36">
-        <v>0.05837652362267839</v>
+        <v>0.05725351333701528</v>
       </c>
       <c r="F36">
-        <v>6.499444667724195</v>
+        <v>6.899444279342281</v>
       </c>
       <c r="K36">
-        <v>7.062558544408486</v>
+        <v>8.250445235049574</v>
       </c>
       <c r="L36">
-        <v>6.165510377914321</v>
+        <v>8.55226455482244</v>
       </c>
       <c r="M36">
-        <v>7.206977892902503</v>
+        <v>8.278301926007524</v>
       </c>
       <c r="N36">
-        <v>0.01917586093624041</v>
+        <v>0.01433651463713507</v>
       </c>
       <c r="O36">
-        <v>0.001600471730385678</v>
+        <v>0.001225431859405437</v>
       </c>
       <c r="P36">
-        <v>0.02138973491217742</v>
+        <v>0.0128511206863354</v>
       </c>
       <c r="Q36">
-        <v>0.00387685512254511</v>
+        <v>0.001053551162252644</v>
       </c>
       <c r="R36">
-        <v>0.0005184693187680816</v>
+        <v>0.001076395487424598</v>
       </c>
       <c r="S36">
-        <v>5.94442208523535E-06</v>
+        <v>2.840244134973933E-06</v>
       </c>
       <c r="T36">
-        <v>0.01425942833801146</v>
+        <v>0.003550084156737576</v>
       </c>
       <c r="U36">
-        <v>0.003818894520809178</v>
+        <v>0.0009359230378038854</v>
       </c>
       <c r="V36">
-        <v>43.78418840187686</v>
+        <v>11.02961642385411</v>
       </c>
       <c r="W36">
-        <v>0.0001452681747086663</v>
+        <v>3.436117590617137</v>
       </c>
       <c r="X36">
-        <v>1.646872072779576E-06</v>
+        <v>0.0002361124855652607</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -2684,61 +2684,61 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>4.906839511581049E-06</v>
+        <v>5.181623818044478E-06</v>
       </c>
       <c r="C37">
-        <v>0.05503577179122227</v>
+        <v>0.05373865344615079</v>
       </c>
       <c r="D37">
-        <v>0.004362156039429237</v>
+        <v>0.003992053228481215</v>
       </c>
       <c r="E37">
-        <v>0.0592452319623864</v>
+        <v>0.05811376461414217</v>
       </c>
       <c r="F37">
-        <v>6.499426142830664</v>
+        <v>6.899425735304816</v>
       </c>
       <c r="K37">
-        <v>7.065106666337635</v>
+        <v>8.248750618587909</v>
       </c>
       <c r="L37">
-        <v>6.173602795083575</v>
+        <v>8.5469840332572</v>
       </c>
       <c r="M37">
-        <v>7.212819707887476</v>
+        <v>8.277101599601771</v>
       </c>
       <c r="N37">
-        <v>0.01944625153940741</v>
+        <v>0.0145382236029463</v>
       </c>
       <c r="O37">
-        <v>0.001630013112472169</v>
+        <v>0.001244374129303558</v>
       </c>
       <c r="P37">
-        <v>0.02165916383201792</v>
+        <v>0.01303262175593667</v>
       </c>
       <c r="Q37">
-        <v>0.003904107406921408</v>
+        <v>0.001072217037598962</v>
       </c>
       <c r="R37">
-        <v>0.0005263543171785869</v>
+        <v>0.001092911721936746</v>
       </c>
       <c r="S37">
-        <v>5.923169883101726E-06</v>
+        <v>2.888734703079733E-06</v>
       </c>
       <c r="T37">
-        <v>0.01442005193519919</v>
+        <v>0.003590302020105787</v>
       </c>
       <c r="U37">
-        <v>0.003874980950953595</v>
+        <v>0.0009478173389817947</v>
       </c>
       <c r="V37">
-        <v>44.07608200470836</v>
+        <v>11.09212343253799</v>
       </c>
       <c r="W37">
-        <v>0.0001504373912254707</v>
+        <v>3.454291688562712</v>
       </c>
       <c r="X37">
-        <v>1.646744666683118E-06</v>
+        <v>0.000240223806843978</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -2746,61 +2746,61 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4.88908077362861E-06</v>
+        <v>5.164280352279016E-06</v>
       </c>
       <c r="C38">
-        <v>0.05582754703734403</v>
+        <v>0.05451594407455187</v>
       </c>
       <c r="D38">
-        <v>0.004442967287072489</v>
+        <v>0.004065639909456821</v>
       </c>
       <c r="E38">
-        <v>0.06014046970011603</v>
+        <v>0.05900050203360465</v>
       </c>
       <c r="F38">
-        <v>6.499407448820142</v>
+        <v>6.899407021428821</v>
       </c>
       <c r="K38">
-        <v>7.067676660833456</v>
+        <v>8.24704125388727</v>
       </c>
       <c r="L38">
-        <v>6.181852721021066</v>
+        <v>8.541608670270088</v>
       </c>
       <c r="M38">
-        <v>7.21874936482465</v>
+        <v>8.275897662786202</v>
       </c>
       <c r="N38">
-        <v>0.01972463026482827</v>
+        <v>0.01474594000097196</v>
       </c>
       <c r="O38">
-        <v>0.001660653246131083</v>
+        <v>0.001263986627964963</v>
       </c>
       <c r="P38">
-        <v>0.02193658658866005</v>
+        <v>0.0132195030796607</v>
       </c>
       <c r="Q38">
-        <v>0.003932354239040356</v>
+        <v>0.001091552792700944</v>
       </c>
       <c r="R38">
-        <v>0.0005344860538550788</v>
+        <v>0.001109943331112272</v>
       </c>
       <c r="S38">
-        <v>5.900588828721452E-06</v>
+        <v>2.938839701294138E-06</v>
       </c>
       <c r="T38">
-        <v>0.01458481866932803</v>
+        <v>0.003631590843248349</v>
       </c>
       <c r="U38">
-        <v>0.00393292141731369</v>
+        <v>0.0009600942330273371</v>
       </c>
       <c r="V38">
-        <v>44.37413822020224</v>
+        <v>11.15590064514362</v>
       </c>
       <c r="W38">
-        <v>0.0001557411605537924</v>
+        <v>3.472729008241583</v>
       </c>
       <c r="X38">
-        <v>1.646616166958327E-06</v>
+        <v>0.0002444659483000193</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -2808,61 +2808,61 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4.870792173273655E-06</v>
+        <v>5.146411969914714E-06</v>
       </c>
       <c r="C39">
-        <v>0.05664317528734834</v>
+        <v>0.0553167425533629</v>
       </c>
       <c r="D39">
-        <v>0.004526837258208044</v>
+        <v>0.004141997497729921</v>
       </c>
       <c r="E39">
-        <v>0.06106346158375504</v>
+        <v>0.05991495799399907</v>
       </c>
       <c r="F39">
-        <v>6.49938858043023</v>
+        <v>6.899388132413373</v>
       </c>
       <c r="K39">
-        <v>7.070269975365543</v>
+        <v>8.245309447447076</v>
       </c>
       <c r="L39">
-        <v>6.19026846012193</v>
+        <v>8.536112693839412</v>
       </c>
       <c r="M39">
-        <v>7.224771547421052</v>
+        <v>8.274682406765708</v>
       </c>
       <c r="N39">
-        <v>0.02001136005877585</v>
+        <v>0.01495993926086096</v>
       </c>
       <c r="O39">
-        <v>0.001692455276978551</v>
+        <v>0.001284301863712055</v>
       </c>
       <c r="P39">
-        <v>0.02222236805452702</v>
+        <v>0.01341201022707276</v>
       </c>
       <c r="Q39">
-        <v>0.003961642641535493</v>
+        <v>0.001111599050410963</v>
       </c>
       <c r="R39">
-        <v>0.0005428762993316877</v>
+        <v>0.001127514830975938</v>
       </c>
       <c r="S39">
-        <v>5.876602377902401E-06</v>
+        <v>2.99069007649337E-06</v>
       </c>
       <c r="T39">
-        <v>0.01475389640348698</v>
+        <v>0.003673995551347094</v>
       </c>
       <c r="U39">
-        <v>0.003992811382961745</v>
+        <v>0.0009727687558219033</v>
       </c>
       <c r="V39">
-        <v>44.67858932721474</v>
+        <v>11.22099439231933</v>
       </c>
       <c r="W39">
-        <v>0.0001611857789945977</v>
+        <v>3.49142618585552</v>
       </c>
       <c r="X39">
-        <v>1.646486501231723E-06</v>
+        <v>0.0002488447693532379</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -2870,61 +2870,61 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4.851949885899847E-06</v>
+        <v>5.127994695044551E-06</v>
       </c>
       <c r="C40">
-        <v>0.05748376138459255</v>
+        <v>0.05614214166716343</v>
       </c>
       <c r="D40">
-        <v>0.004613941121728127</v>
+        <v>0.004221283945151985</v>
       </c>
       <c r="E40">
-        <v>0.06201550804254201</v>
+        <v>0.06085844165581688</v>
       </c>
       <c r="F40">
-        <v>6.499369532138875</v>
+        <v>6.899369062695767</v>
       </c>
       <c r="K40">
-        <v>7.072885791634612</v>
+        <v>8.243560821307041</v>
       </c>
       <c r="L40">
-        <v>6.198852760833343</v>
+        <v>8.530506046418724</v>
       </c>
       <c r="M40">
-        <v>7.23088557963974</v>
+        <v>8.273461283852415</v>
       </c>
       <c r="N40">
-        <v>0.02030682626493387</v>
+        <v>0.01518051405758917</v>
       </c>
       <c r="O40">
-        <v>0.001725483721521793</v>
+        <v>0.001305362074253528</v>
       </c>
       <c r="P40">
-        <v>0.02251689588376882</v>
+        <v>0.01361040395572859</v>
       </c>
       <c r="Q40">
-        <v>0.003992049725908716</v>
+        <v>0.001132393212072406</v>
       </c>
       <c r="R40">
-        <v>0.0005515375847664262</v>
+        <v>0.001145652317119478</v>
       </c>
       <c r="S40">
-        <v>5.851182213593199E-06</v>
+        <v>3.044344648166882E-06</v>
       </c>
       <c r="T40">
-        <v>0.01492746229091481</v>
+        <v>0.003717563725468469</v>
       </c>
       <c r="U40">
-        <v>0.00405475210175851</v>
+        <v>0.000985864412122826</v>
       </c>
       <c r="V40">
-        <v>44.98968015722816</v>
+        <v>11.28745469708686</v>
       </c>
       <c r="W40">
-        <v>0.0001667772986040332</v>
+        <v>3.510401201599354</v>
       </c>
       <c r="X40">
-        <v>1.646355710418269E-06</v>
+        <v>0.000253367287880973</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -2932,61 +2932,61 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>4.832528682271278E-06</v>
+        <v>5.109003105468509E-06</v>
       </c>
       <c r="C41">
-        <v>0.05835047974955753</v>
+        <v>0.05699330326916361</v>
       </c>
       <c r="D41">
-        <v>0.004704467513210604</v>
+        <v>0.004303669302653671</v>
       </c>
       <c r="E41">
-        <v>0.06299799108347645</v>
+        <v>0.06183234494934938</v>
       </c>
       <c r="F41">
-        <v>6.499350298146768</v>
+        <v>6.899349806432604</v>
       </c>
       <c r="K41">
-        <v>7.075524190560214</v>
+        <v>8.241796951223428</v>
       </c>
       <c r="L41">
-        <v>6.207615129004489</v>
+        <v>8.524783105348934</v>
       </c>
       <c r="M41">
-        <v>7.23709750758154</v>
+        <v>8.272233876559778</v>
       </c>
       <c r="N41">
-        <v>0.02061143843777669</v>
+        <v>0.01540797556551271</v>
       </c>
       <c r="O41">
-        <v>0.001759810475028671</v>
+        <v>0.001327208357017901</v>
       </c>
       <c r="P41">
-        <v>0.0228205818863567</v>
+        <v>0.01381496150890328</v>
       </c>
       <c r="Q41">
-        <v>0.004023622013391821</v>
+        <v>0.001153976907938832</v>
       </c>
       <c r="R41">
-        <v>0.0005604832634968005</v>
+        <v>0.001164383595356712</v>
       </c>
       <c r="S41">
-        <v>5.824238125024109E-06</v>
+        <v>3.099902662689873E-06</v>
       </c>
       <c r="T41">
-        <v>0.01510570344155672</v>
+        <v>0.003762345681424955</v>
       </c>
       <c r="U41">
-        <v>0.004118853308980978</v>
+        <v>0.0009994031633974755</v>
       </c>
       <c r="V41">
-        <v>45.30766949610078</v>
+        <v>11.35533427271873</v>
       </c>
       <c r="W41">
-        <v>0.0001725224705558156</v>
+        <v>3.529667569682083</v>
       </c>
       <c r="X41">
-        <v>1.646223790471989E-06</v>
+        <v>0.0002580408414235336</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -2994,61 +2994,61 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>4.812501782072999E-06</v>
+        <v>5.089410203171752E-06</v>
       </c>
       <c r="C42">
-        <v>0.05924457995349665</v>
+        <v>0.05787146383527211</v>
       </c>
       <c r="D42">
-        <v>0.004798619876224209</v>
+        <v>0.004389336904829344</v>
       </c>
       <c r="E42">
-        <v>0.06401238066037788</v>
+        <v>0.06283814911989158</v>
       </c>
       <c r="F42">
-        <v>6.499330872358538</v>
+        <v>6.899330357481678</v>
       </c>
       <c r="K42">
-        <v>7.078184425421798</v>
+        <v>8.240009703496268</v>
       </c>
       <c r="L42">
-        <v>6.216563368596296</v>
+        <v>8.518951249695156</v>
       </c>
       <c r="M42">
-        <v>7.243410083828204</v>
+        <v>8.2710029098485</v>
       </c>
       <c r="N42">
-        <v>0.02092563223715583</v>
+        <v>0.01564265501898762</v>
       </c>
       <c r="O42">
-        <v>0.001795512211188884</v>
+        <v>0.001349888096610639</v>
       </c>
       <c r="P42">
-        <v>0.02313386455090611</v>
+        <v>0.01402597791891936</v>
       </c>
       <c r="Q42">
-        <v>0.004056430141378523</v>
+        <v>0.001176395291998628</v>
       </c>
       <c r="R42">
-        <v>0.0005697275805863301</v>
+        <v>0.001183738323568279</v>
       </c>
       <c r="S42">
-        <v>5.795709795831502E-06</v>
+        <v>3.157451250734358E-06</v>
       </c>
       <c r="T42">
-        <v>0.01528881761043298</v>
+        <v>0.00380839472339208</v>
       </c>
       <c r="U42">
-        <v>0.004185232139378431</v>
+        <v>0.001013410060222191</v>
       </c>
       <c r="V42">
-        <v>45.63283091094786</v>
+        <v>11.42468925030543</v>
       </c>
       <c r="W42">
-        <v>0.0001784281018005074</v>
+        <v>3.549219095891878</v>
       </c>
       <c r="X42">
-        <v>1.64609077872891E-06</v>
+        <v>0.0002628723241745621</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -3056,61 +3056,61 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4.791840790104986E-06</v>
+        <v>5.069187311868923E-06</v>
       </c>
       <c r="C43">
-        <v>0.06016739283616229</v>
+        <v>0.05877794056290674</v>
       </c>
       <c r="D43">
-        <v>0.004896617883003828</v>
+        <v>0.004478484665235434</v>
       </c>
       <c r="E43">
-        <v>0.06506024174283787</v>
+        <v>0.06387743192167447</v>
       </c>
       <c r="F43">
-        <v>6.499311248361992</v>
+        <v>6.899310709380117</v>
       </c>
       <c r="K43">
-        <v>7.080866898980186</v>
+        <v>8.238203726199508</v>
       </c>
       <c r="L43">
-        <v>6.225696069707027</v>
+        <v>8.512994260229668</v>
       </c>
       <c r="M43">
-        <v>7.249819205488928</v>
+        <v>8.269765044963163</v>
       </c>
       <c r="N43">
-        <v>0.02124987155962985</v>
+        <v>0.01588490530580757</v>
       </c>
       <c r="O43">
-        <v>0.001832667795666446</v>
+        <v>0.001373447587241063</v>
       </c>
       <c r="P43">
-        <v>0.02345721089683031</v>
+        <v>0.01424376745496887</v>
       </c>
       <c r="Q43">
-        <v>0.004090585401473905</v>
+        <v>0.001199698318823462</v>
       </c>
       <c r="R43">
-        <v>0.000579285747887864</v>
+        <v>0.001203748168861797</v>
       </c>
       <c r="S43">
-        <v>5.765598178162338E-06</v>
+        <v>3.217125711138787E-06</v>
       </c>
       <c r="T43">
-        <v>0.01547701397434916</v>
+        <v>0.003855767344801739</v>
       </c>
       <c r="U43">
-        <v>0.004254012343753139</v>
+        <v>0.001027908782912891</v>
       </c>
       <c r="V43">
-        <v>45.96545319755209</v>
+        <v>11.49557831475988</v>
       </c>
       <c r="W43">
-        <v>0.0001845019704486252</v>
+        <v>3.569076398473889</v>
       </c>
       <c r="X43">
-        <v>1.645956655050991E-06</v>
+        <v>0.0002678703372527158</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -3118,61 +3118,61 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>4.770515518118569E-06</v>
+        <v>5.048303930340047E-06</v>
       </c>
       <c r="C44">
-        <v>0.06112033723190639</v>
+        <v>0.05971413807838382</v>
       </c>
       <c r="D44">
-        <v>0.004998699116217871</v>
+        <v>0.004571326552391814</v>
       </c>
       <c r="E44">
-        <v>0.06614324194781515</v>
+        <v>0.06495187548307581</v>
       </c>
       <c r="F44">
-        <v>6.499291419405774</v>
+        <v>6.899290855322541</v>
       </c>
       <c r="K44">
-        <v>7.08357182857783</v>
+        <v>8.236372655586381</v>
       </c>
       <c r="L44">
-        <v>6.235028245717586</v>
+        <v>8.506904200199049</v>
       </c>
       <c r="M44">
-        <v>7.256334649081011</v>
+        <v>8.268520147432012</v>
       </c>
       <c r="N44">
-        <v>0.02158465093487059</v>
+        <v>0.01613510285267941</v>
       </c>
       <c r="O44">
-        <v>0.001871370430494084</v>
+        <v>0.001397939711734387</v>
       </c>
       <c r="P44">
-        <v>0.02379111823295714</v>
+        <v>0.01446866519869551</v>
       </c>
       <c r="Q44">
-        <v>0.004126137469424706</v>
+        <v>0.001223939876515011</v>
       </c>
       <c r="R44">
-        <v>0.0005891740263311346</v>
+        <v>0.001224446979950601</v>
       </c>
       <c r="S44">
-        <v>5.733779040136097E-06</v>
+        <v>3.279049737380948E-06</v>
       </c>
       <c r="T44">
-        <v>0.01567051400246288</v>
+        <v>0.00390452352690327</v>
       </c>
       <c r="U44">
-        <v>0.004325330359673299</v>
+        <v>0.001042926307919817</v>
       </c>
       <c r="V44">
-        <v>46.30584274340861</v>
+        <v>11.56806348186464</v>
       </c>
       <c r="W44">
-        <v>0.0001907521675520178</v>
+        <v>3.589238513400478</v>
       </c>
       <c r="X44">
-        <v>1.645821408571108E-06</v>
+        <v>0.0002730430600776517</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -3180,61 +3180,61 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>4.748493906960106E-06</v>
+        <v>5.026727604295556E-06</v>
       </c>
       <c r="C45">
-        <v>0.06210492737428688</v>
+        <v>0.06068155582445386</v>
       </c>
       <c r="D45">
-        <v>0.005105120856653266</v>
+        <v>0.004668094221085928</v>
       </c>
       <c r="E45">
-        <v>0.06726316004155838</v>
+        <v>0.06606327496568352</v>
       </c>
       <c r="F45">
-        <v>6.499271378374899</v>
+        <v>6.899270788135353</v>
       </c>
       <c r="K45">
-        <v>7.08629953290529</v>
+        <v>8.234530040743312</v>
       </c>
       <c r="L45">
-        <v>6.244570173076924</v>
+        <v>8.500701867406347</v>
       </c>
       <c r="M45">
-        <v>7.262960686107822</v>
+        <v>8.267276037408175</v>
       </c>
       <c r="N45">
-        <v>0.02193049796126317</v>
+        <v>0.01639364957445038</v>
       </c>
       <c r="O45">
-        <v>0.001911716314378775</v>
+        <v>0.00142342692271018</v>
       </c>
       <c r="P45">
-        <v>0.02413611789547525</v>
+        <v>0.01470102880083902</v>
       </c>
       <c r="Q45">
-        <v>0.0041631674572475</v>
+        <v>0.001249174497347226</v>
       </c>
       <c r="R45">
-        <v>0.0005994098201432573</v>
+        <v>0.001245870978726271</v>
       </c>
       <c r="S45">
-        <v>5.700162592524376E-06</v>
+        <v>3.343295168554974E-06</v>
       </c>
       <c r="T45">
-        <v>0.01586955231198551</v>
+        <v>0.003954726986885436</v>
       </c>
       <c r="U45">
-        <v>0.004399331621412715</v>
+        <v>0.001058496697229514</v>
       </c>
       <c r="V45">
-        <v>46.65432439350418</v>
+        <v>11.64221197602414</v>
       </c>
       <c r="W45">
-        <v>0.0001971874977331584</v>
+        <v>3.609740879797357</v>
       </c>
       <c r="X45">
-        <v>1.645685023354735E-06</v>
+        <v>0.000278400765577299</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -3242,61 +3242,61 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>4.725741826206601E-06</v>
+        <v>5.004423756988457E-06</v>
       </c>
       <c r="C46">
-        <v>0.06312278106210176</v>
+        <v>0.06168179621022828</v>
       </c>
       <c r="D46">
-        <v>0.005216162194043935</v>
+        <v>0.004769038869121054</v>
       </c>
       <c r="E46">
-        <v>0.06842189514961067</v>
+        <v>0.06721354806491062</v>
       </c>
       <c r="F46">
-        <v>6.499251117763971</v>
+        <v>6.899250500250584</v>
       </c>
       <c r="K46">
-        <v>7.089049100923748</v>
+        <v>8.232660393251793</v>
       </c>
       <c r="L46">
-        <v>6.254327625225772</v>
+        <v>8.494357299934512</v>
       </c>
       <c r="M46">
-        <v>7.269698566100039</v>
+        <v>8.266023712944548</v>
       </c>
       <c r="N46">
-        <v>0.02228797620495753</v>
+        <v>0.01666097497894574</v>
       </c>
       <c r="O46">
-        <v>0.00195381007938032</v>
+        <v>0.001449963542760417</v>
       </c>
       <c r="P46">
-        <v>0.02449277772472932</v>
+        <v>0.01494124048482995</v>
       </c>
       <c r="Q46">
-        <v>0.004201784910802692</v>
+        <v>0.001275466499116556</v>
       </c>
       <c r="R46">
-        <v>0.0006100117783138061</v>
+        <v>0.001268058973075516</v>
       </c>
       <c r="S46">
-        <v>5.664701667627097E-06</v>
+        <v>3.41007334754532E-06</v>
       </c>
       <c r="T46">
-        <v>0.01607437768146002</v>
+        <v>0.004006445384915006</v>
       </c>
       <c r="U46">
-        <v>0.004476172209401281</v>
+        <v>0.001074646271590475</v>
       </c>
       <c r="V46">
-        <v>47.01124271422456</v>
+        <v>11.71809324125148</v>
       </c>
       <c r="W46">
-        <v>0.0002038169726583362</v>
+        <v>3.630568381644679</v>
       </c>
       <c r="X46">
-        <v>1.645547544953813E-06</v>
+        <v>0.0002839522785280993</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -3304,61 +3304,61 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4.702222956568427E-06</v>
+        <v>4.981355531239543E-06</v>
       </c>
       <c r="C47">
-        <v>0.06417562867788464</v>
+        <v>0.06271657361643024</v>
       </c>
       <c r="D47">
-        <v>0.005332126315919726</v>
+        <v>0.004874433307167328</v>
       </c>
       <c r="E47">
-        <v>0.06962147700833095</v>
+        <v>0.06840474549009835</v>
       </c>
       <c r="F47">
-        <v>6.499230629648046</v>
+        <v>6.899229983675407</v>
       </c>
       <c r="K47">
-        <v>7.091820777440469</v>
+        <v>8.230772912633078</v>
       </c>
       <c r="L47">
-        <v>6.264310848376369</v>
+        <v>8.487873069802335</v>
       </c>
       <c r="M47">
-        <v>7.276552531621935</v>
+        <v>8.264767379196796</v>
       </c>
       <c r="N47">
-        <v>0.02265768831633166</v>
+        <v>0.01693753882324002</v>
       </c>
       <c r="O47">
-        <v>0.001997764761353534</v>
+        <v>0.001477620548059301</v>
       </c>
       <c r="P47">
-        <v>0.02486170486680071</v>
+        <v>0.01518970910275202</v>
       </c>
       <c r="Q47">
-        <v>0.00424208875817208</v>
+        <v>0.001302883310510193</v>
       </c>
       <c r="R47">
-        <v>0.0006209999069801003</v>
+        <v>0.001291052589434207</v>
       </c>
       <c r="S47">
-        <v>5.627312279305602E-06</v>
+        <v>3.479503872999862E-06</v>
       </c>
       <c r="T47">
-        <v>0.01628525414458836</v>
+        <v>0.004059750823339089</v>
       </c>
       <c r="U47">
-        <v>0.004556021047653399</v>
+        <v>0.001091411626702843</v>
       </c>
       <c r="V47">
-        <v>47.37696376171255</v>
+        <v>11.79578182952283</v>
       </c>
       <c r="W47">
-        <v>0.0002106506578656817</v>
+        <v>3.651750167955065</v>
       </c>
       <c r="X47">
-        <v>1.645408961127976E-06</v>
+        <v>0.0002897090040979264</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -3366,61 +3366,61 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5.651747787593914E-06</v>
+        <v>5.816504915223801E-06</v>
       </c>
       <c r="C48">
-        <v>0.06526532316606917</v>
+        <v>0.06378772436289808</v>
       </c>
       <c r="D48">
-        <v>0.004445169854594839</v>
+        <v>0.004157128707149112</v>
       </c>
       <c r="E48">
-        <v>0.06886306444737829</v>
+        <v>0.0674223290168058</v>
       </c>
       <c r="F48">
-        <v>7.509230629648046</v>
+        <v>7.799229983675407</v>
       </c>
       <c r="K48">
-        <v>7.094613857721976</v>
+        <v>8.228859821739579</v>
       </c>
       <c r="L48">
-        <v>6.168627539882143</v>
+        <v>8.492239959966126</v>
       </c>
       <c r="M48">
-        <v>7.250899898200222</v>
+        <v>8.249965981523566</v>
       </c>
       <c r="N48">
-        <v>0.0230402794932757</v>
+        <v>0.01722383360611373</v>
       </c>
       <c r="O48">
-        <v>0.001675634385647523</v>
+        <v>0.001297634401716649</v>
       </c>
       <c r="P48">
-        <v>0.0252435496095531</v>
+        <v>0.01544687254334909</v>
       </c>
       <c r="Q48">
-        <v>0.004038759053409766</v>
+        <v>0.001138537564928505</v>
       </c>
       <c r="R48">
-        <v>0.0006323956957708558</v>
+        <v>0.001314896535463118</v>
       </c>
       <c r="S48">
-        <v>7.513246031552449E-06</v>
+        <v>3.152728830942291E-06</v>
       </c>
       <c r="T48">
-        <v>0.01650246216490197</v>
+        <v>0.004114720067721241</v>
       </c>
       <c r="U48">
-        <v>0.003921579196996815</v>
+        <v>0.0009836236868067216</v>
       </c>
       <c r="V48">
-        <v>47.53799104612551</v>
+        <v>11.83803224752976</v>
       </c>
       <c r="W48">
-        <v>0.0002177032358091008</v>
+        <v>3.673285838464494</v>
       </c>
       <c r="X48">
-        <v>1.645269307113901E-06</v>
+        <v>0.000295683034594211</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -3428,61 +3428,61 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5.626700762767737E-06</v>
+        <v>5.792265260424394E-06</v>
       </c>
       <c r="C49">
-        <v>0.06641287322854982</v>
+        <v>0.06491282994130844</v>
       </c>
       <c r="D49">
-        <v>0.004545003853617773</v>
+        <v>0.004249880413996101</v>
       </c>
       <c r="E49">
-        <v>0.07011776449447275</v>
+        <v>0.06865708785237304</v>
       </c>
       <c r="F49">
-        <v>7.509230629648046</v>
+        <v>7.799229983675407</v>
       </c>
       <c r="K49">
-        <v>7.097797624537745</v>
+        <v>8.226964268598069</v>
       </c>
       <c r="L49">
-        <v>6.172670331826874</v>
+        <v>8.476140453485932</v>
       </c>
       <c r="M49">
-        <v>7.252918627570806</v>
+        <v>8.245319811643524</v>
       </c>
       <c r="N49">
-        <v>0.02344338600474038</v>
+        <v>0.017524327930725</v>
       </c>
       <c r="O49">
-        <v>0.001711967926305005</v>
+        <v>0.001321268654173331</v>
       </c>
       <c r="P49">
-        <v>0.02564363999740486</v>
+        <v>0.01571684112784759</v>
       </c>
       <c r="Q49">
-        <v>0.004101949976172877</v>
+        <v>0.001165449772738923</v>
       </c>
       <c r="R49">
-        <v>0.0006441859306715973</v>
+        <v>0.001339646418607121</v>
       </c>
       <c r="S49">
-        <v>8.383736815445744E-06</v>
+        <v>3.258310675695108E-06</v>
       </c>
       <c r="T49">
-        <v>0.01673983731523981</v>
+        <v>0.004173797357927176</v>
       </c>
       <c r="U49">
-        <v>0.00399365204838936</v>
+        <v>0.0009974465705948519</v>
       </c>
       <c r="V49">
-        <v>47.71334662537254</v>
+        <v>11.88255707363549</v>
       </c>
       <c r="W49">
-        <v>0.0002250328240298284</v>
+        <v>3.695129336265147</v>
       </c>
       <c r="X49">
-        <v>1.645110118773113E-06</v>
+        <v>0.0003018894350790889</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -3490,61 +3490,61 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5.600746062988528E-06</v>
+        <v>5.767138621551166E-06</v>
       </c>
       <c r="C50">
-        <v>0.06760263994729851</v>
+        <v>0.066079425124526</v>
       </c>
       <c r="D50">
-        <v>0.004649443967855608</v>
+        <v>0.004346885145617192</v>
       </c>
       <c r="E50">
-        <v>0.07141958498850449</v>
+        <v>0.06993843199735968</v>
       </c>
       <c r="F50">
-        <v>7.509230629648046</v>
+        <v>7.799229983675407</v>
       </c>
       <c r="K50">
-        <v>7.101081361538633</v>
+        <v>8.225071388403251</v>
       </c>
       <c r="L50">
-        <v>6.182525293877947</v>
+        <v>8.468542643785524</v>
       </c>
       <c r="M50">
-        <v>7.259763366476433</v>
+        <v>8.243872920673654</v>
       </c>
       <c r="N50">
-        <v>0.02386129789086414</v>
+        <v>0.01783592522450484</v>
       </c>
       <c r="O50">
-        <v>0.001751743721827531</v>
+        <v>0.001347075176748009</v>
       </c>
       <c r="P50">
-        <v>0.02605790326704393</v>
+        <v>0.01599667557698429</v>
       </c>
       <c r="Q50">
-        <v>0.004140327080695265</v>
+        <v>0.001191345931644148</v>
       </c>
       <c r="R50">
-        <v>0.0006564128959380617</v>
+        <v>0.001365346189913495</v>
       </c>
       <c r="S50">
-        <v>8.408655009554933E-06</v>
+        <v>3.327520620933622E-06</v>
       </c>
       <c r="T50">
-        <v>0.01698495626267924</v>
+        <v>0.004234881026914336</v>
       </c>
       <c r="U50">
-        <v>0.00406987337385898</v>
+        <v>0.001013771493195966</v>
       </c>
       <c r="V50">
-        <v>47.90333946651062</v>
+        <v>11.92993248827902</v>
       </c>
       <c r="W50">
-        <v>0.0002326097103435445</v>
+        <v>3.717401425117558</v>
       </c>
       <c r="X50">
-        <v>1.644945931923068E-06</v>
+        <v>0.0003083398680634249</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -3552,61 +3552,61 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5.573833802356442E-06</v>
+        <v>5.741075704930737E-06</v>
       </c>
       <c r="C51">
-        <v>0.06883701633905229</v>
+        <v>0.06728986708489676</v>
       </c>
       <c r="D51">
-        <v>0.004758813858986138</v>
+        <v>0.004448440115727168</v>
       </c>
       <c r="E51">
-        <v>0.07277121782395858</v>
+        <v>0.07126903528380808</v>
       </c>
       <c r="F51">
-        <v>7.509230629648046</v>
+        <v>7.799229983675407</v>
       </c>
       <c r="K51">
-        <v>7.104402705047232</v>
+        <v>8.223156893857457</v>
       </c>
       <c r="L51">
-        <v>6.192655873109879</v>
+        <v>8.460800532063139</v>
       </c>
       <c r="M51">
-        <v>7.266733601121644</v>
+        <v>8.242398309101576</v>
       </c>
       <c r="N51">
-        <v>0.02429481856084525</v>
+        <v>0.01815923600975497</v>
       </c>
       <c r="O51">
-        <v>0.001793468193780027</v>
+        <v>0.00137406859639752</v>
       </c>
       <c r="P51">
-        <v>0.02648765966285469</v>
+        <v>0.01628697615826547</v>
       </c>
       <c r="Q51">
-        <v>0.004180430417679034</v>
+        <v>0.001218435856167594</v>
       </c>
       <c r="R51">
-        <v>0.0006691188614464638</v>
+        <v>0.001392052438330996</v>
       </c>
       <c r="S51">
-        <v>8.432317153293114E-06</v>
+        <v>3.399940377195831E-06</v>
       </c>
       <c r="T51">
-        <v>0.01723819318206787</v>
+        <v>0.004298040037379402</v>
       </c>
       <c r="U51">
-        <v>0.004149336663754069</v>
+        <v>0.001030753962573651</v>
       </c>
       <c r="V51">
-        <v>48.10799979709757</v>
+        <v>11.98017171390583</v>
       </c>
       <c r="W51">
-        <v>0.0002404378693991386</v>
+        <v>3.740074038156429</v>
       </c>
       <c r="X51">
-        <v>1.644779864747638E-06</v>
+        <v>0.0003150467380786918</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -3614,61 +3614,61 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5.545910422196803E-06</v>
+        <v>5.71402352673391E-06</v>
       </c>
       <c r="C52">
-        <v>0.07011858038865361</v>
+        <v>0.06854669562428015</v>
       </c>
       <c r="D52">
-        <v>0.004873467954991862</v>
+        <v>0.004554870663031917</v>
       </c>
       <c r="E52">
-        <v>0.0741755621186624</v>
+        <v>0.07265177838096615</v>
       </c>
       <c r="F52">
-        <v>7.509230629648046</v>
+        <v>7.799229983675407</v>
       </c>
       <c r="K52">
-        <v>7.107763652580269</v>
+        <v>8.221217123073346</v>
       </c>
       <c r="L52">
-        <v>6.203036099900471</v>
+        <v>8.452848349568491</v>
       </c>
       <c r="M52">
-        <v>7.273830920851879</v>
+        <v>8.240910799213149</v>
       </c>
       <c r="N52">
-        <v>0.02474484556818655</v>
+        <v>0.01849493935802212</v>
       </c>
       <c r="O52">
-        <v>0.001837200417968564</v>
+        <v>0.001402296280716749</v>
       </c>
       <c r="P52">
-        <v>0.02693380424775821</v>
+        <v>0.01658834696430743</v>
       </c>
       <c r="Q52">
-        <v>0.004222413527731381</v>
+        <v>0.001246785732105337</v>
       </c>
       <c r="R52">
-        <v>0.0006823325923323272</v>
+        <v>0.001419825488290072</v>
       </c>
       <c r="S52">
-        <v>8.455969468661031E-06</v>
+        <v>3.475545231788653E-06</v>
       </c>
       <c r="T52">
-        <v>0.01749997031243415</v>
+        <v>0.004363385758875517</v>
       </c>
       <c r="U52">
-        <v>0.004232255471541397</v>
+        <v>0.001048445947001522</v>
       </c>
       <c r="V52">
-        <v>48.32741414248324</v>
+        <v>12.03330121291627</v>
       </c>
       <c r="W52">
-        <v>0.0002485318519783992</v>
+        <v>3.763156897413829</v>
       </c>
       <c r="X52">
-        <v>1.644611817370987E-06</v>
+        <v>0.0003220250540750886</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -3676,61 +3676,61 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5.516224591794975E-06</v>
+        <v>5.685244628052163E-06</v>
       </c>
       <c r="C53">
-        <v>0.07145011329546304</v>
+        <v>0.0698526512357342</v>
       </c>
       <c r="D53">
-        <v>0.004994343637676234</v>
+        <v>0.004667022007669613</v>
       </c>
       <c r="E53">
-        <v>0.07563516721209783</v>
+        <v>0.07408921404876039</v>
       </c>
       <c r="F53">
-        <v>7.508468024397664</v>
+        <v>7.798466659496716</v>
       </c>
       <c r="K53">
-        <v>7.111161584238664</v>
+        <v>8.219254913431298</v>
       </c>
       <c r="L53">
-        <v>6.213708238033548</v>
+        <v>8.444653273948111</v>
       </c>
       <c r="M53">
-        <v>7.281047451373109</v>
+        <v>8.239409295174562</v>
       </c>
       <c r="N53">
-        <v>0.0252123485304359</v>
+        <v>0.01884376880857938</v>
       </c>
       <c r="O53">
-        <v>0.001883268888198966</v>
+        <v>0.001431959605069576</v>
       </c>
       <c r="P53">
-        <v>0.02739730201755467</v>
+        <v>0.0169014400506789</v>
       </c>
       <c r="Q53">
-        <v>0.004266653776025225</v>
+        <v>0.001276599848917514</v>
       </c>
       <c r="R53">
-        <v>0.0006960851764724021</v>
+        <v>0.001448730589168812</v>
       </c>
       <c r="S53">
-        <v>8.48134035960619E-06</v>
+        <v>3.554953138937565E-06</v>
       </c>
       <c r="T53">
-        <v>0.01777074000306462</v>
+        <v>0.004431037591770904</v>
       </c>
       <c r="U53">
-        <v>0.004319268026171609</v>
+        <v>0.00106696456011299</v>
       </c>
       <c r="V53">
-        <v>48.56183433810261</v>
+        <v>12.08937696750909</v>
       </c>
       <c r="W53">
-        <v>0.0002569063500591792</v>
+        <v>3.786674211617253</v>
       </c>
       <c r="X53">
-        <v>1.644441920788067E-06</v>
+        <v>0.000329292185169336</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -3738,61 +3738,61 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5.486085682188845E-06</v>
+        <v>5.65602261126328E-06</v>
       </c>
       <c r="C54">
-        <v>0.07283460849666692</v>
+        <v>0.07121068517798554</v>
       </c>
       <c r="D54">
-        <v>0.005120800239332575</v>
+        <v>0.004784334855343083</v>
       </c>
       <c r="E54">
-        <v>0.07715451530177272</v>
+        <v>0.07558576374512727</v>
       </c>
       <c r="F54">
-        <v>7.50844903928657</v>
+        <v>7.798447641090766</v>
       </c>
       <c r="K54">
-        <v>7.114598489453649</v>
+        <v>8.217262188993777</v>
       </c>
       <c r="L54">
-        <v>6.22462099026531</v>
+        <v>8.43627785454048</v>
       </c>
       <c r="M54">
-        <v>7.288408679162787</v>
+        <v>8.23790059045227</v>
       </c>
       <c r="N54">
-        <v>0.0256983710229825</v>
+        <v>0.0192065148336525</v>
       </c>
       <c r="O54">
-        <v>0.001931475492106821</v>
+        <v>0.001462936142373146</v>
       </c>
       <c r="P54">
-        <v>0.02787919052258653</v>
+        <v>0.01722695755488227</v>
       </c>
       <c r="Q54">
-        <v>0.004312849752987325</v>
+        <v>0.001307749912649783</v>
       </c>
       <c r="R54">
-        <v>0.0007104102563914186</v>
+        <v>0.001478838414919435</v>
       </c>
       <c r="S54">
-        <v>8.504704382976956E-06</v>
+        <v>3.637565037619983E-06</v>
       </c>
       <c r="T54">
-        <v>0.01805097900258322</v>
+        <v>0.004501122446597111</v>
       </c>
       <c r="U54">
-        <v>0.004409838279472463</v>
+        <v>0.001086227694188201</v>
       </c>
       <c r="V54">
-        <v>48.81135150405707</v>
+        <v>12.14842902893856</v>
       </c>
       <c r="W54">
-        <v>0.0002655781410243144</v>
+        <v>3.810629446710156</v>
       </c>
       <c r="X54">
-        <v>1.644270075527317E-06</v>
+        <v>0.0003368656409072213</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -3800,61 +3800,61 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5.454749271870149E-06</v>
+        <v>5.625626626164007E-06</v>
       </c>
       <c r="C55">
-        <v>0.07427532782129107</v>
+        <v>0.07262401178059497</v>
       </c>
       <c r="D55">
-        <v>0.005253830645789556</v>
+        <v>0.004907705849734485</v>
       </c>
       <c r="E55">
-        <v>0.07873672523463485</v>
+        <v>0.0771445470366711</v>
       </c>
       <c r="F55">
-        <v>7.508429790283443</v>
+        <v>7.798428357112254</v>
       </c>
       <c r="K55">
-        <v>7.118075055883027</v>
+        <v>8.21525209929019</v>
       </c>
       <c r="L55">
-        <v>6.23581766963963</v>
+        <v>8.427686705003627</v>
       </c>
       <c r="M55">
-        <v>7.295907345044886</v>
+        <v>8.236383779558656</v>
       </c>
       <c r="N55">
-        <v>0.02620404965129901</v>
+        <v>0.01958403778453078</v>
       </c>
       <c r="O55">
-        <v>0.001982171419217884</v>
+        <v>0.001495442159912121</v>
       </c>
       <c r="P55">
-        <v>0.02838060202832269</v>
+        <v>0.01756566410046168</v>
       </c>
       <c r="Q55">
-        <v>0.00436140059021589</v>
+        <v>0.001340454806056655</v>
       </c>
       <c r="R55">
-        <v>0.0007253444170724493</v>
+        <v>0.00151022566704458</v>
       </c>
       <c r="S55">
-        <v>8.528635296567808E-06</v>
+        <v>3.724047734505793E-06</v>
       </c>
       <c r="T55">
-        <v>0.01834121603924516</v>
+        <v>0.004573779781754748</v>
       </c>
       <c r="U55">
-        <v>0.004504632930394179</v>
+        <v>0.001106358893257358</v>
       </c>
       <c r="V55">
-        <v>49.07622299449589</v>
+        <v>12.21051727754023</v>
       </c>
       <c r="W55">
-        <v>0.0002745654581228955</v>
+        <v>3.835066196885009</v>
       </c>
       <c r="X55">
-        <v>1.644096247205849E-06</v>
+        <v>0.0003447660370671349</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -3862,61 +3862,61 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5.422143329695877E-06</v>
+        <v>5.593985169315607E-06</v>
       </c>
       <c r="C56">
-        <v>0.07577579515119326</v>
+        <v>0.07409610538778758</v>
       </c>
       <c r="D56">
-        <v>0.005393955589030192</v>
+        <v>0.005037612077813026</v>
       </c>
       <c r="E56">
-        <v>0.08038575127553238</v>
+        <v>0.07876949918417425</v>
       </c>
       <c r="F56">
-        <v>7.508410265831224</v>
+        <v>7.798408795882336</v>
       </c>
       <c r="K56">
-        <v>7.121589628425353</v>
+        <v>8.21320473543873</v>
       </c>
       <c r="L56">
-        <v>6.247312045064644</v>
+        <v>8.41882031860102</v>
       </c>
       <c r="M56">
-        <v>7.303547809982992</v>
+        <v>8.234843990306794</v>
       </c>
       <c r="N56">
-        <v>0.02673061222156164</v>
+        <v>0.01997726812419641</v>
       </c>
       <c r="O56">
-        <v>0.002035549605684557</v>
+        <v>0.001529582453666241</v>
       </c>
       <c r="P56">
-        <v>0.02890275858132501</v>
+        <v>0.0179183860416444</v>
       </c>
       <c r="Q56">
-        <v>0.004412491935768465</v>
+        <v>0.00137483972035529</v>
       </c>
       <c r="R56">
-        <v>0.0007409273688501859</v>
+        <v>0.001542975702246973</v>
       </c>
       <c r="S56">
-        <v>8.552745557439936E-06</v>
+        <v>3.814802608629022E-06</v>
       </c>
       <c r="T56">
-        <v>0.01864201132422018</v>
+        <v>0.004649158496722082</v>
       </c>
       <c r="U56">
-        <v>0.004603958858124675</v>
+        <v>0.001127410615451188</v>
       </c>
       <c r="V56">
-        <v>49.35676562298114</v>
+        <v>12.27571060218653</v>
       </c>
       <c r="W56">
-        <v>0.0002838873473515794</v>
+        <v>3.85996988489304</v>
       </c>
       <c r="X56">
-        <v>1.643920518578732E-06</v>
+        <v>0.0003530133096386809</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -3924,61 +3924,61 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5.388190103236667E-06</v>
+        <v>5.561020918220697E-06</v>
       </c>
       <c r="C57">
-        <v>0.07733983603035244</v>
+        <v>0.07563073857245368</v>
       </c>
       <c r="D57">
-        <v>0.005541751604525466</v>
+        <v>0.005174581535494271</v>
       </c>
       <c r="E57">
-        <v>0.08210588275862818</v>
+        <v>0.08046489069803278</v>
       </c>
       <c r="F57">
-        <v>7.508390453577039</v>
+        <v>7.7983889449153</v>
       </c>
       <c r="K57">
-        <v>7.125143812253805</v>
+        <v>8.21113521656361</v>
       </c>
       <c r="L57">
-        <v>6.259121856435382</v>
+        <v>8.409739063904908</v>
       </c>
       <c r="M57">
-        <v>7.31133791694957</v>
+        <v>8.233302285316526</v>
       </c>
       <c r="N57">
-        <v>0.02727939139080335</v>
+        <v>0.02038721669465263</v>
       </c>
       <c r="O57">
-        <v>0.002091826753230042</v>
+        <v>0.001565501390084239</v>
       </c>
       <c r="P57">
-        <v>0.02944698672900405</v>
+        <v>0.01828602040433971</v>
       </c>
       <c r="Q57">
-        <v>0.004466314924749734</v>
+        <v>0.001411026400644683</v>
       </c>
       <c r="R57">
-        <v>0.0007572023604789135</v>
+        <v>0.001577179277794492</v>
       </c>
       <c r="S57">
-        <v>8.577050351798669E-06</v>
+        <v>3.909964343652816E-06</v>
       </c>
       <c r="T57">
-        <v>0.01895396804568896</v>
+        <v>0.004727419560750325</v>
       </c>
       <c r="U57">
-        <v>0.004708153461768147</v>
+        <v>0.001149464149839863</v>
       </c>
       <c r="V57">
-        <v>49.65335798958564</v>
+        <v>12.34409330935117</v>
       </c>
       <c r="W57">
-        <v>0.0002935654050716257</v>
+        <v>3.885390131412585</v>
       </c>
       <c r="X57">
-        <v>1.64374280938731E-06</v>
+        <v>0.0003616320638552154</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -3986,61 +3986,61 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5.352805463846946E-06</v>
+        <v>5.526650126888077E-06</v>
       </c>
       <c r="C58">
-        <v>0.07897161067639397</v>
+        <v>0.07723201486874821</v>
       </c>
       <c r="D58">
-        <v>0.005697858709502757</v>
+        <v>0.005319200047074868</v>
       </c>
       <c r="E58">
-        <v>0.08390177981835988</v>
+        <v>0.08223536335191368</v>
       </c>
       <c r="F58">
-        <v>7.508370340298662</v>
+        <v>7.798368790842609</v>
       </c>
       <c r="K58">
-        <v>7.128737965658462</v>
+        <v>8.20903167008896</v>
       </c>
       <c r="L58">
-        <v>6.271266188544839</v>
+        <v>8.400383088283874</v>
       </c>
       <c r="M58">
-        <v>7.319284738076549</v>
+        <v>8.231744797783445</v>
       </c>
       <c r="N58">
-        <v>0.02785183604165729</v>
+        <v>0.02081498295157464</v>
       </c>
       <c r="O58">
-        <v>0.002151241329042371</v>
+        <v>0.001603331704749461</v>
       </c>
       <c r="P58">
-        <v>0.03001472927000983</v>
+        <v>0.01866954299533278</v>
       </c>
       <c r="Q58">
-        <v>0.004523085385024744</v>
+        <v>0.001449167094651531</v>
       </c>
       <c r="R58">
-        <v>0.0007742165720727116</v>
+        <v>0.001612935398554738</v>
       </c>
       <c r="S58">
-        <v>8.601587931747147E-06</v>
+        <v>4.010005754588508E-06</v>
       </c>
       <c r="T58">
-        <v>0.01927773655895989</v>
+        <v>0.004808736729180108</v>
       </c>
       <c r="U58">
-        <v>0.0048175885846702</v>
+        <v>0.001172585556097343</v>
       </c>
       <c r="V58">
-        <v>49.96644352765983</v>
+        <v>12.41576002719554</v>
       </c>
       <c r="W58">
-        <v>0.0003036228318409986</v>
+        <v>3.911328551288797</v>
       </c>
       <c r="X58">
-        <v>1.643563101717077E-06</v>
+        <v>0.0003706463141309243</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -4048,61 +4048,61 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5.315898326033384E-06</v>
+        <v>5.490782010541496E-06</v>
       </c>
       <c r="C59">
-        <v>0.08067565141981005</v>
+        <v>0.07890440591111272</v>
       </c>
       <c r="D59">
-        <v>0.005862989225705962</v>
+        <v>0.005472119280190615</v>
       </c>
       <c r="E59">
-        <v>0.08577851386796775</v>
+        <v>0.08408597093693555</v>
       </c>
       <c r="F59">
-        <v>7.508349911820255</v>
+        <v>7.798348319327251</v>
       </c>
       <c r="K59">
-        <v>7.132368853382948</v>
+        <v>8.206899153234058</v>
       </c>
       <c r="L59">
-        <v>6.283757308574289</v>
+        <v>8.390734237349216</v>
       </c>
       <c r="M59">
-        <v>7.32738904635059</v>
+        <v>8.230169585926399</v>
       </c>
       <c r="N59">
-        <v>0.02844952429078787</v>
+        <v>0.02126176553871011</v>
       </c>
       <c r="O59">
-        <v>0.002214054551486357</v>
+        <v>0.001643230682527186</v>
       </c>
       <c r="P59">
-        <v>0.03060755819756763</v>
+        <v>0.01907001685348816</v>
       </c>
       <c r="Q59">
-        <v>0.004583082233418176</v>
+        <v>0.001489425340615727</v>
       </c>
       <c r="R59">
-        <v>0.0007920215717038969</v>
+        <v>0.001650352268154742</v>
       </c>
       <c r="S59">
-        <v>8.626505197686041E-06</v>
+        <v>4.115334714338672E-06</v>
       </c>
       <c r="T59">
-        <v>0.01961401906998989</v>
+        <v>0.00489329838436808</v>
       </c>
       <c r="U59">
-        <v>0.004932672949245482</v>
+        <v>0.001196856079634492</v>
       </c>
       <c r="V59">
-        <v>50.29653382359463</v>
+        <v>12.49081848417076</v>
       </c>
       <c r="W59">
-        <v>0.0003140843836669631</v>
+        <v>3.937821218728942</v>
       </c>
       <c r="X59">
-        <v>1.643381557330852E-06</v>
+        <v>0.0003800848225468185</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -4110,61 +4110,61 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5.277369888466509E-06</v>
+        <v>5.453317950516596E-06</v>
       </c>
       <c r="C60">
-        <v>0.08245690528157441</v>
+        <v>0.08065279368803942</v>
       </c>
       <c r="D60">
-        <v>0.006037938209051736</v>
+        <v>0.005634066213062576</v>
       </c>
       <c r="E60">
-        <v>0.08774161331897749</v>
+        <v>0.08602222532895273</v>
       </c>
       <c r="F60">
-        <v>7.508329152919129</v>
+        <v>7.798327514968859</v>
       </c>
       <c r="K60">
-        <v>7.136040039333374</v>
+        <v>8.20473309495655</v>
       </c>
       <c r="L60">
-        <v>6.296620011868679</v>
+        <v>8.380801725585945</v>
       </c>
       <c r="M60">
-        <v>7.335661802375886</v>
+        <v>8.228583999126027</v>
       </c>
       <c r="N60">
-        <v>0.02907417833219981</v>
+        <v>0.02172887351147636</v>
       </c>
       <c r="O60">
-        <v>0.002280564658783778</v>
+        <v>0.001685378987231306</v>
       </c>
       <c r="P60">
-        <v>0.03122718857766641</v>
+        <v>0.01948860236569941</v>
       </c>
       <c r="Q60">
-        <v>0.004646560443019492</v>
+        <v>0.001531975965849028</v>
       </c>
       <c r="R60">
-        <v>0.0008106738351921398</v>
+        <v>0.001689548385617608</v>
       </c>
       <c r="S60">
-        <v>8.65182233031943E-06</v>
+        <v>4.226319621149578E-06</v>
       </c>
       <c r="T60">
-        <v>0.0199635749300076</v>
+        <v>0.004981308915433164</v>
       </c>
       <c r="U60">
-        <v>0.005053861362819367</v>
+        <v>0.001222371826923399</v>
       </c>
       <c r="V60">
-        <v>50.64421378513477</v>
+        <v>12.56939192794793</v>
       </c>
       <c r="W60">
-        <v>0.000324978507619345</v>
+        <v>3.964887569104491</v>
       </c>
       <c r="X60">
-        <v>1.643197998033331E-06</v>
+        <v>0.0003899776649123471</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -4172,61 +4172,61 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5.237112855406056E-06</v>
+        <v>5.414150679889848E-06</v>
       </c>
       <c r="C61">
-        <v>0.0843207825272457</v>
+        <v>0.0824825187484047</v>
       </c>
       <c r="D61">
-        <v>0.006223595643367872</v>
+        <v>0.005805854192441261</v>
       </c>
       <c r="E61">
-        <v>0.08979711551703715</v>
+        <v>0.08805014886367929</v>
       </c>
       <c r="F61">
-        <v>7.508308047219623</v>
+        <v>7.79830636119623</v>
       </c>
       <c r="K61">
-        <v>7.139747920139462</v>
+        <v>8.202534633094242</v>
       </c>
       <c r="L61">
-        <v>6.309870680679768</v>
+        <v>8.37057016644547</v>
       </c>
       <c r="M61">
-        <v>7.344105466330683</v>
+        <v>8.226985874938705</v>
       </c>
       <c r="N61">
-        <v>0.02972768110472215</v>
+        <v>0.0222177392315799</v>
       </c>
       <c r="O61">
-        <v>0.002351096857524203</v>
+        <v>0.001729972655085885</v>
       </c>
       <c r="P61">
-        <v>0.03187549658095049</v>
+        <v>0.01992656886325673</v>
       </c>
       <c r="Q61">
-        <v>0.0047138523416558</v>
+        <v>0.001577021728689908</v>
       </c>
       <c r="R61">
-        <v>0.0008302353477009647</v>
+        <v>0.001730653801861424</v>
       </c>
       <c r="S61">
-        <v>8.677706495440985E-06</v>
+        <v>4.343457768375303E-06</v>
       </c>
       <c r="T61">
-        <v>0.02032722648042683</v>
+        <v>0.005072990307835841</v>
       </c>
       <c r="U61">
-        <v>0.005181656493314714</v>
+        <v>0.001249232901485812</v>
       </c>
       <c r="V61">
-        <v>51.01014670751306</v>
+        <v>12.65161876552743</v>
       </c>
       <c r="W61">
-        <v>0.0003363350415932116</v>
+        <v>3.992558795509183</v>
       </c>
       <c r="X61">
-        <v>1.643012603993027E-06</v>
+        <v>0.0004003583792286488</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -4234,61 +4234,61 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5.195010534265528E-06</v>
+        <v>5.373163361070322E-06</v>
       </c>
       <c r="C62">
-        <v>0.08627321219934266</v>
+        <v>0.08439943536230379</v>
       </c>
       <c r="D62">
-        <v>0.006420960862715085</v>
+        <v>0.005988395983011468</v>
       </c>
       <c r="E62">
-        <v>0.09195162579069341</v>
+        <v>0.09017633394088147</v>
       </c>
       <c r="F62">
-        <v>7.508286577074539</v>
+        <v>7.798284840144077</v>
       </c>
       <c r="K62">
-        <v>7.143494407256719</v>
+        <v>8.200299075561714</v>
       </c>
       <c r="L62">
-        <v>6.323539516763389</v>
+        <v>8.359998425130652</v>
       </c>
       <c r="M62">
-        <v>7.352732740680985</v>
+        <v>8.225368352267271</v>
       </c>
       <c r="N62">
-        <v>0.0304120957109021</v>
+        <v>0.02272993339599225</v>
       </c>
       <c r="O62">
-        <v>0.002426024479647056</v>
+        <v>0.001777227710302148</v>
       </c>
       <c r="P62">
-        <v>0.03255453768693285</v>
+        <v>0.02038530754162091</v>
       </c>
       <c r="Q62">
-        <v>0.004785278457085078</v>
+        <v>0.00162479258851432</v>
       </c>
       <c r="R62">
-        <v>0.0008507742887311028</v>
+        <v>0.00177381156046375</v>
       </c>
       <c r="S62">
-        <v>8.704193650479324E-06</v>
+        <v>4.467363960682038E-06</v>
       </c>
       <c r="T62">
-        <v>0.02070586573010463</v>
+        <v>0.005168584242994592</v>
       </c>
       <c r="U62">
-        <v>0.005316620307447732</v>
+        <v>0.001277547454118929</v>
       </c>
       <c r="V62">
-        <v>51.39508146849891</v>
+        <v>12.7376531690378</v>
       </c>
       <c r="W62">
-        <v>0.0003481879946374878</v>
+        <v>4.020857099838334</v>
       </c>
       <c r="X62">
-        <v>1.642825279637164E-06</v>
+        <v>0.0004112630171882714</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -4296,61 +4296,61 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5.150935832471646E-06</v>
+        <v>5.330228518864476E-06</v>
       </c>
       <c r="C63">
-        <v>0.08832070582335874</v>
+        <v>0.0864099748335677</v>
       </c>
       <c r="D63">
-        <v>0.006631159641298182</v>
+        <v>0.006182719258692259</v>
       </c>
       <c r="E63">
-        <v>0.09421238478797164</v>
+        <v>0.09240801103476269</v>
       </c>
       <c r="F63">
-        <v>7.508264723429449</v>
+        <v>7.798262932517425</v>
       </c>
       <c r="K63">
-        <v>7.147276729360542</v>
+        <v>8.198029834550951</v>
       </c>
       <c r="L63">
-        <v>6.337644386791956</v>
+        <v>8.349104663356261</v>
       </c>
       <c r="M63">
-        <v>7.361544919264532</v>
+        <v>8.223740623979253</v>
       </c>
       <c r="N63">
-        <v>0.03112968728093428</v>
+        <v>0.0232671822597279</v>
       </c>
       <c r="O63">
-        <v>0.002505757875169985</v>
+        <v>0.001827397801432347</v>
       </c>
       <c r="P63">
-        <v>0.03326656997487767</v>
+        <v>0.02086634638657235</v>
       </c>
       <c r="Q63">
-        <v>0.004861266644378873</v>
+        <v>0.001675534962913187</v>
       </c>
       <c r="R63">
-        <v>0.0008723658296306059</v>
+        <v>0.001819179360374085</v>
       </c>
       <c r="S63">
-        <v>8.73152660936699E-06</v>
+        <v>4.59855134927608E-06</v>
       </c>
       <c r="T63">
-        <v>0.02110046176658301</v>
+        <v>0.005268354417068326</v>
       </c>
       <c r="U63">
-        <v>0.005459376066157222</v>
+        <v>0.001307447567842391</v>
       </c>
       <c r="V63">
-        <v>51.79985947808649</v>
+        <v>12.82766921265074</v>
       </c>
       <c r="W63">
-        <v>0.0003605738631648736</v>
+        <v>4.04982308092422</v>
       </c>
       <c r="X63">
-        <v>1.642636163531973E-06</v>
+        <v>0.0004227328068312915</v>
       </c>
     </row>
     <row r="64" spans="1:24">
@@ -4358,61 +4358,61 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5.104750128394117E-06</v>
+        <v>5.28520684924818E-06</v>
       </c>
       <c r="C64">
-        <v>0.09047043072288666</v>
+        <v>0.08852121840132757</v>
       </c>
       <c r="D64">
-        <v>0.006855464553268427</v>
+        <v>0.006389985034242751</v>
       </c>
       <c r="E64">
-        <v>0.09658734547249494</v>
+        <v>0.09475312650356028</v>
       </c>
       <c r="F64">
-        <v>7.508242465670468</v>
+        <v>7.798240617433134</v>
       </c>
       <c r="K64">
-        <v>7.151094093931428</v>
+        <v>8.195724896785249</v>
       </c>
       <c r="L64">
-        <v>6.352212034532981</v>
+        <v>8.33786782578769</v>
       </c>
       <c r="M64">
-        <v>7.370549626530417</v>
+        <v>8.222101522436459</v>
       </c>
       <c r="N64">
-        <v>0.03188294858108597</v>
+        <v>0.02383138711389357</v>
       </c>
       <c r="O64">
-        <v>0.002590763121808341</v>
+        <v>0.001880761575991013</v>
       </c>
       <c r="P64">
-        <v>0.03401407795725921</v>
+        <v>0.02137136773982655</v>
       </c>
       <c r="Q64">
-        <v>0.004942260581497283</v>
+        <v>0.001729534506083401</v>
       </c>
       <c r="R64">
-        <v>0.0008950930481311649</v>
+        <v>0.00186693148692737</v>
       </c>
       <c r="S64">
-        <v>8.759894659191905E-06</v>
+        <v>4.737715540272145E-06</v>
       </c>
       <c r="T64">
-        <v>0.02151206928501527</v>
+        <v>0.005372588807837431</v>
       </c>
       <c r="U64">
-        <v>0.00561062333973055</v>
+        <v>0.001339073459741997</v>
       </c>
       <c r="V64">
-        <v>52.22542430562424</v>
+        <v>12.9218611020443</v>
       </c>
       <c r="W64">
-        <v>0.0003735336132522955</v>
+        <v>4.079490087304457</v>
       </c>
       <c r="X64">
-        <v>1.642445295303429E-06</v>
+        <v>0.0004348123422717586</v>
       </c>
     </row>
     <row r="65" spans="1:24">
@@ -4420,61 +4420,61 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5.056301961019874E-06</v>
+        <v>5.237945874472237E-06</v>
       </c>
       <c r="C65">
-        <v>0.09273029467341688</v>
+        <v>0.09074098146530284</v>
       </c>
       <c r="D65">
-        <v>0.007095319392226638</v>
+        <v>0.006611509718273421</v>
       </c>
       <c r="E65">
-        <v>0.09908526133319562</v>
+        <v>0.09722043188693741</v>
       </c>
       <c r="F65">
-        <v>7.50821978144911</v>
+        <v>7.798217872242413</v>
       </c>
       <c r="K65">
-        <v>7.154946391300311</v>
+        <v>8.193377834846254</v>
       </c>
       <c r="L65">
-        <v>6.367274764852463</v>
+        <v>8.326238882759116</v>
       </c>
       <c r="M65">
-        <v>7.379756717382519</v>
+        <v>8.220441523394831</v>
       </c>
       <c r="N65">
-        <v>0.03267462926917456</v>
+        <v>0.02442464726356661</v>
       </c>
       <c r="O65">
-        <v>0.002681570850461742</v>
+        <v>0.001937627987218835</v>
       </c>
       <c r="P65">
-        <v>0.03479980275119873</v>
+        <v>0.02190222809749528</v>
       </c>
       <c r="Q65">
-        <v>0.005028757325517108</v>
+        <v>0.00178712017907591</v>
       </c>
       <c r="R65">
-        <v>0.000919047998225002</v>
+        <v>0.00191726104831621</v>
       </c>
       <c r="S65">
-        <v>8.789488066598665E-06</v>
+        <v>4.885733598668897E-06</v>
       </c>
       <c r="T65">
-        <v>0.02194183809434729</v>
+        <v>0.005481602736164334</v>
       </c>
       <c r="U65">
-        <v>0.005771147934558751</v>
+        <v>0.001372576728761641</v>
       </c>
       <c r="V65">
-        <v>52.67283257758483</v>
+        <v>13.02044409336672</v>
       </c>
       <c r="W65">
-        <v>0.0003871127044783938</v>
+        <v>4.109885384056835</v>
       </c>
       <c r="X65">
-        <v>1.642252680434984E-06</v>
+        <v>0.0004475504680560366</v>
       </c>
     </row>
     <row r="66" spans="1:24">
@@ -4482,61 +4482,61 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5.005425692151957E-06</v>
+        <v>5.188278445456289E-06</v>
       </c>
       <c r="C66">
-        <v>0.09510904398678328</v>
+        <v>0.09307791123605366</v>
       </c>
       <c r="D66">
-        <v>0.007352368391040024</v>
+        <v>0.006848791608708394</v>
       </c>
       <c r="E66">
-        <v>0.1017157879876495</v>
+        <v>0.09981958669212983</v>
       </c>
       <c r="F66">
-        <v>7.508196646482337</v>
+        <v>7.798194672327008</v>
       </c>
       <c r="K66">
-        <v>7.158830172184635</v>
+        <v>8.190990648897838</v>
       </c>
       <c r="L66">
-        <v>6.382858618746079</v>
+        <v>8.314214538878783</v>
       </c>
       <c r="M66">
-        <v>7.389170207617631</v>
+        <v>8.218765093767471</v>
       </c>
       <c r="N66">
-        <v>0.03350776978080548</v>
+        <v>0.02504928668790961</v>
       </c>
       <c r="O66">
-        <v>0.002778777644277415</v>
+        <v>0.001998358925391598</v>
       </c>
       <c r="P66">
-        <v>0.03562677623524544</v>
+        <v>0.02246098109522915</v>
       </c>
       <c r="Q66">
-        <v>0.005121355980477331</v>
+        <v>0.001848655147583115</v>
       </c>
       <c r="R66">
-        <v>0.0009443329568405132</v>
+        <v>0.001970382584836142</v>
       </c>
       <c r="S66">
-        <v>8.820645630383982E-06</v>
+        <v>5.04343697402159E-06</v>
       </c>
       <c r="T66">
-        <v>0.0223910239321192</v>
+        <v>0.005595742347481076</v>
       </c>
       <c r="U66">
-        <v>0.005941832730580491</v>
+        <v>0.00140813886144509</v>
       </c>
       <c r="V66">
-        <v>53.14326620543989</v>
+        <v>13.12365931635658</v>
       </c>
       <c r="W66">
-        <v>0.000401361229843253</v>
+        <v>4.14105682772572</v>
       </c>
       <c r="X66">
-        <v>1.642058491390768E-06</v>
+        <v>0.0004610032010405114</v>
       </c>
     </row>
     <row r="67" spans="1:24">
@@ -4544,61 +4544,61 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>4.951939772233381E-06</v>
+        <v>5.136020973419115E-06</v>
       </c>
       <c r="C67">
-        <v>0.0976163775752331</v>
+        <v>0.09554160036826352</v>
       </c>
       <c r="D67">
-        <v>0.007628491850773161</v>
+        <v>0.007103543012795185</v>
       </c>
       <c r="E67">
-        <v>0.1044896000507779</v>
+        <v>0.1025612769199142</v>
       </c>
       <c r="F67">
-        <v>7.508173034325443</v>
+        <v>7.79817099086406</v>
       </c>
       <c r="K67">
-        <v>7.162745562975534</v>
+        <v>8.188557795932271</v>
       </c>
       <c r="L67">
-        <v>6.399007714190873</v>
+        <v>8.301782019315304</v>
       </c>
       <c r="M67">
-        <v>7.398805703230621</v>
+        <v>8.217074071516096</v>
       </c>
       <c r="N67">
-        <v>0.03438574098470628</v>
+        <v>0.02570788462398155</v>
       </c>
       <c r="O67">
-        <v>0.002883073874451368</v>
+        <v>0.002063364462559357</v>
       </c>
       <c r="P67">
-        <v>0.03649835967109596</v>
+        <v>0.02304990469373332</v>
       </c>
       <c r="Q67">
-        <v>0.005220676654868601</v>
+        <v>0.001914554926836408</v>
       </c>
       <c r="R67">
-        <v>0.0009710618800179454</v>
+        <v>0.002026535131917917</v>
       </c>
       <c r="S67">
-        <v>8.853583235567674E-06</v>
+        <v>5.211809963000629E-06</v>
       </c>
       <c r="T67">
-        <v>0.02286100082359174</v>
+        <v>0.005715388161367818</v>
       </c>
       <c r="U67">
-        <v>0.006123680102958084</v>
+        <v>0.001445962953207068</v>
       </c>
       <c r="V67">
-        <v>53.63804826175967</v>
+        <v>13.23177640152366</v>
       </c>
       <c r="W67">
-        <v>0.0004163355788027898</v>
+        <v>4.173039881075923</v>
       </c>
       <c r="X67">
-        <v>1.641862721851223E-06</v>
+        <v>0.0004752313439023896</v>
       </c>
     </row>
     <row r="68" spans="1:24">
@@ -4606,61 +4606,61 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>4.895645059280209E-06</v>
+        <v>5.08097154091063E-06</v>
       </c>
       <c r="C68">
-        <v>0.1002630800965408</v>
+        <v>0.09814271970224789</v>
       </c>
       <c r="D68">
-        <v>0.007925849150698026</v>
+        <v>0.007377729182700945</v>
       </c>
       <c r="E68">
-        <v>0.1074185266768904</v>
+        <v>0.1054573524528458</v>
       </c>
       <c r="F68">
-        <v>7.508148916106422</v>
+        <v>7.798146798556155</v>
       </c>
       <c r="K68">
-        <v>7.16668933484239</v>
+        <v>8.186081162117192</v>
       </c>
       <c r="L68">
-        <v>6.415749988982891</v>
+        <v>8.288911354886078</v>
       </c>
       <c r="M68">
-        <v>7.408664103467124</v>
+        <v>8.215364381524306</v>
       </c>
       <c r="N68">
-        <v>0.03531229001736084</v>
+        <v>0.02640331168755279</v>
       </c>
       <c r="O68">
-        <v>0.002995236255503124</v>
+        <v>0.00213311040194546</v>
       </c>
       <c r="P68">
-        <v>0.03741829152451441</v>
+        <v>0.02367153262805382</v>
       </c>
       <c r="Q68">
-        <v>0.005327519709248458</v>
+        <v>0.001985301140296209</v>
       </c>
       <c r="R68">
-        <v>0.0009993621240409565</v>
+        <v>0.002085985817857768</v>
       </c>
       <c r="S68">
-        <v>8.888828495640101E-06</v>
+        <v>5.392048162555233E-06</v>
       </c>
       <c r="T68">
-        <v>0.0233532749624339</v>
+        <v>0.005840959491019606</v>
       </c>
       <c r="U68">
-        <v>0.006317820210939348</v>
+        <v>0.001486275125534217</v>
       </c>
       <c r="V68">
-        <v>54.15865916793447</v>
+        <v>13.3450961684242</v>
       </c>
       <c r="W68">
-        <v>0.0004320984818991307</v>
+        <v>4.205888949121864</v>
       </c>
       <c r="X68">
-        <v>1.64166553325788E-06</v>
+        <v>0.0004903039583640413</v>
       </c>
     </row>
     <row r="69" spans="1:24">
@@ -4668,61 +4668,61 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>4.836322684385902E-06</v>
+        <v>5.022907622846076E-06</v>
       </c>
       <c r="C69">
-        <v>0.1030611780039905</v>
+        <v>0.100893173960416</v>
       </c>
       <c r="D69">
-        <v>0.008246931719562057</v>
+        <v>0.00767361612562296</v>
       </c>
       <c r="E69">
-        <v>0.1105157085193047</v>
+        <v>0.1085209864348489</v>
       </c>
       <c r="F69">
-        <v>7.508124260222574</v>
+        <v>7.798122063320034</v>
       </c>
       <c r="K69">
-        <v>7.170657811294456</v>
+        <v>8.183556278835734</v>
       </c>
       <c r="L69">
-        <v>6.433128664665615</v>
+        <v>8.27556797100214</v>
       </c>
       <c r="M69">
-        <v>7.418755806498538</v>
+        <v>8.213632932199536</v>
       </c>
       <c r="N69">
-        <v>0.03629159467681107</v>
+        <v>0.0271387723325712</v>
       </c>
       <c r="O69">
-        <v>0.003116166299773232</v>
+        <v>0.002208132143552245</v>
       </c>
       <c r="P69">
-        <v>0.03839073915528005</v>
+        <v>0.02432869115798587</v>
       </c>
       <c r="Q69">
-        <v>0.005442750573018013</v>
+        <v>0.002061444856151213</v>
       </c>
       <c r="R69">
-        <v>0.001029376466330208</v>
+        <v>0.002149034113909138</v>
       </c>
       <c r="S69">
-        <v>8.926851464717127E-06</v>
+        <v>5.585518782047991E-06</v>
       </c>
       <c r="T69">
-        <v>0.02386950086399434</v>
+        <v>0.005972919623307042</v>
       </c>
       <c r="U69">
-        <v>0.006525544314509877</v>
+        <v>0.001529334344035695</v>
       </c>
       <c r="V69">
-        <v>54.70675831826775</v>
+        <v>13.46395509968685</v>
       </c>
       <c r="W69">
-        <v>0.0004487200234824993</v>
+        <v>4.239650086955919</v>
       </c>
       <c r="X69">
-        <v>1.641467109435277E-06</v>
+        <v>0.0005062974957291102</v>
       </c>
     </row>
     <row r="70" spans="1:24">
@@ -4730,61 +4730,61 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>4.773731855181584E-06</v>
+        <v>4.96158366255853E-06</v>
       </c>
       <c r="C70">
-        <v>0.1060241232003789</v>
+        <v>0.1038062851427533</v>
       </c>
       <c r="D70">
-        <v>0.008594628023081925</v>
+        <v>0.007993829290507275</v>
       </c>
       <c r="E70">
-        <v>0.113795780785191</v>
+        <v>0.1117668612346798</v>
       </c>
       <c r="F70">
-        <v>7.508099031986282</v>
+        <v>7.79809674992162</v>
       </c>
       <c r="K70">
-        <v>7.174650316031671</v>
+        <v>8.180981859956486</v>
       </c>
       <c r="L70">
-        <v>6.451196867996517</v>
+        <v>8.261757159034586</v>
       </c>
       <c r="M70">
-        <v>7.429095785590839</v>
+        <v>8.21188573365716</v>
       </c>
       <c r="N70">
-        <v>0.0373283268135935</v>
+        <v>0.02791785483847804</v>
       </c>
       <c r="O70">
-        <v>0.003246911217939731</v>
+        <v>0.002289057730364926</v>
       </c>
       <c r="P70">
-        <v>0.03942036379847574</v>
+        <v>0.0250245426049182</v>
       </c>
       <c r="Q70">
-        <v>0.005567350910421986</v>
+        <v>0.002143617263096272</v>
       </c>
       <c r="R70">
-        <v>0.001061265516794755</v>
+        <v>0.00221601688250686</v>
       </c>
       <c r="S70">
-        <v>8.968155453813352E-06</v>
+        <v>5.793676064026283E-06</v>
       </c>
       <c r="T70">
-        <v>0.02441149950616573</v>
+        <v>0.006111781663284271</v>
       </c>
       <c r="U70">
-        <v>0.006748330486256304</v>
+        <v>0.001575444386417963</v>
       </c>
       <c r="V70">
-        <v>55.28420904471223</v>
+        <v>13.58873185618562</v>
       </c>
       <c r="W70">
-        <v>0.0004662808169629591</v>
+        <v>4.274382248548264</v>
       </c>
       <c r="X70">
-        <v>1.641267484198416E-06</v>
+        <v>0.0005232989457700395</v>
       </c>
     </row>
     <row r="71" spans="1:24">
@@ -4792,61 +4792,61 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>4.707607245529005E-06</v>
+        <v>4.896728199549464E-06</v>
       </c>
       <c r="C71">
-        <v>0.1091670101415821</v>
+        <v>0.1068970095250838</v>
       </c>
       <c r="D71">
-        <v>0.008972304394181537</v>
+        <v>0.008341426511685115</v>
       </c>
       <c r="E71">
-        <v>0.1172750868945424</v>
+        <v>0.1152113857587757</v>
       </c>
       <c r="F71">
-        <v>7.508073193212653</v>
+        <v>7.798070819554776</v>
       </c>
       <c r="K71">
-        <v>7.178659496719869</v>
+        <v>8.178355332392742</v>
       </c>
       <c r="L71">
-        <v>6.469989273874161</v>
+        <v>8.247425633893871</v>
       </c>
       <c r="M71">
-        <v>7.439682092031307</v>
+        <v>8.210115519303024</v>
       </c>
       <c r="N71">
-        <v>0.0384277273166791</v>
+        <v>0.02874459022906234</v>
       </c>
       <c r="O71">
-        <v>0.003388667740259691</v>
+        <v>0.002376605086809305</v>
       </c>
       <c r="P71">
-        <v>0.04051239647228392</v>
+        <v>0.02576263697078343</v>
       </c>
       <c r="Q71">
-        <v>0.005702561121174359</v>
+        <v>0.002232562269853926</v>
       </c>
       <c r="R71">
-        <v>0.001095210592967043</v>
+        <v>0.002287314405295338</v>
       </c>
       <c r="S71">
-        <v>9.01366285069984E-06</v>
+        <v>6.018400292149564E-06</v>
       </c>
       <c r="T71">
-        <v>0.02498127915196927</v>
+        <v>0.006258115123828347</v>
       </c>
       <c r="U71">
-        <v>0.006987867525209923</v>
+        <v>0.001624944032174892</v>
       </c>
       <c r="V71">
-        <v>55.893106228298</v>
+        <v>13.71985127016586</v>
       </c>
       <c r="W71">
-        <v>0.0004848688269346326</v>
+        <v>4.310146289675686</v>
       </c>
       <c r="X71">
-        <v>1.641067025164007E-06</v>
+        <v>0.0005414061001866788</v>
       </c>
     </row>
     <row r="72" spans="1:24">
@@ -4854,61 +4854,61 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4.637656211426404E-06</v>
+        <v>4.828040685723036E-06</v>
       </c>
       <c r="C72">
-        <v>0.1125068336664954</v>
+        <v>0.1101821956255304</v>
       </c>
       <c r="D72">
-        <v>0.009383905826584918</v>
+        <v>0.00871998904771522</v>
       </c>
       <c r="E72">
-        <v>0.1209719292730003</v>
+        <v>0.118872950589914</v>
       </c>
       <c r="F72">
-        <v>7.508046701735183</v>
+        <v>7.798044229341643</v>
       </c>
       <c r="K72">
-        <v>7.182684282413542</v>
+        <v>8.175674661423852</v>
       </c>
       <c r="L72">
-        <v>6.489572104396854</v>
+        <v>8.232576098625479</v>
       </c>
       <c r="M72">
-        <v>7.45053315646671</v>
+        <v>8.208327508070433</v>
       </c>
       <c r="N72">
-        <v>0.03959569596922642</v>
+        <v>0.02962352306713744</v>
       </c>
       <c r="O72">
-        <v>0.003542857019463585</v>
+        <v>0.002471624262873834</v>
       </c>
       <c r="P72">
-        <v>0.04167272431732091</v>
+        <v>0.02654697279414775</v>
       </c>
       <c r="Q72">
-        <v>0.005849715379202315</v>
+        <v>0.002329137927191307</v>
       </c>
       <c r="R72">
-        <v>0.001131417157304255</v>
+        <v>0.002363357605462111</v>
       </c>
       <c r="S72">
-        <v>9.06413866126251E-06</v>
+        <v>6.261699846074127E-06</v>
       </c>
       <c r="T72">
-        <v>0.02558105953952791</v>
+        <v>0.006412554160216795</v>
       </c>
       <c r="U72">
-        <v>0.00724611313067366</v>
+        <v>0.001678235584176396</v>
       </c>
       <c r="V72">
-        <v>56.53581305710885</v>
+        <v>13.85779362931698</v>
       </c>
       <c r="W72">
-        <v>0.0005045866072850594</v>
+        <v>4.347010940132435</v>
       </c>
       <c r="X72">
-        <v>1.640865785879323E-06</v>
+        <v>0.0005607295049093334</v>
       </c>
     </row>
     <row r="73" spans="1:24">
@@ -4916,61 +4916,61 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5.975321651520625E-06</v>
+        <v>6.143790873951908E-06</v>
       </c>
       <c r="C73">
-        <v>0.1160627966954578</v>
+        <v>0.1136808924040757</v>
       </c>
       <c r="D73">
-        <v>0.007512211129122111</v>
+        <v>0.007045661231484475</v>
       </c>
       <c r="E73">
-        <v>0.1226093337205005</v>
+        <v>0.1203032990518693</v>
       </c>
       <c r="F73">
-        <v>9.008046701735182</v>
+        <v>9.298044229341643</v>
       </c>
       <c r="K73">
-        <v>7.186719671656368</v>
+        <v>8.17293687984265</v>
       </c>
       <c r="L73">
-        <v>6.380344467399631</v>
+        <v>8.240195497340217</v>
       </c>
       <c r="M73">
-        <v>7.433686651158666</v>
+        <v>8.197839501912457</v>
       </c>
       <c r="N73">
-        <v>0.04083889731232168</v>
+        <v>0.03055979543969825</v>
       </c>
       <c r="O73">
-        <v>0.002886537734541963</v>
+        <v>0.002076369407528443</v>
       </c>
       <c r="P73">
-        <v>0.04290800048760085</v>
+        <v>0.02738207054818072</v>
       </c>
       <c r="Q73">
-        <v>0.005332416011413063</v>
+        <v>0.001949618821666005</v>
       </c>
       <c r="R73">
-        <v>0.001170118985533323</v>
+        <v>0.002444636774621284</v>
       </c>
       <c r="S73">
-        <v>9.10224775864772E-06</v>
+        <v>5.230360395376743E-06</v>
       </c>
       <c r="T73">
-        <v>0.02621329907086771</v>
+        <v>0.006575806524907841</v>
       </c>
       <c r="U73">
-        <v>0.006024395442929773</v>
+        <v>0.00145848578062719</v>
       </c>
       <c r="V73">
-        <v>56.92292405007804</v>
+        <v>13.94914155491491</v>
       </c>
       <c r="W73">
-        <v>0.0005255555717171498</v>
+        <v>4.38505176298084</v>
       </c>
       <c r="X73">
-        <v>1.640664016417182E-06</v>
+        <v>0.0005813990775184759</v>
       </c>
     </row>
     <row r="74" spans="1:24">
@@ -4978,61 +4978,61 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5.893353781118654E-06</v>
+        <v>6.063918537364562E-06</v>
       </c>
       <c r="C74">
-        <v>0.1199396033228269</v>
+        <v>0.1174892935173825</v>
       </c>
       <c r="D74">
-        <v>0.007871376670389982</v>
+        <v>0.007379013558726668</v>
       </c>
       <c r="E74">
-        <v>0.1268170368320617</v>
+        <v>0.124453155647233</v>
       </c>
       <c r="F74">
-        <v>9.008046701735182</v>
+        <v>9.298044229341643</v>
       </c>
       <c r="K74">
-        <v>7.19142804339836</v>
+        <v>8.170023292544645</v>
       </c>
       <c r="L74">
-        <v>6.387916431333375</v>
+        <v>8.203969447814419</v>
       </c>
       <c r="M74">
-        <v>7.435781240594427</v>
+        <v>8.191298578081181</v>
       </c>
       <c r="N74">
-        <v>0.04219433872581381</v>
+        <v>0.03157706065513288</v>
       </c>
       <c r="O74">
-        <v>0.003017056171759968</v>
+        <v>0.002160419053735605</v>
       </c>
       <c r="P74">
-        <v>0.04424998564746471</v>
+        <v>0.02829037239555625</v>
       </c>
       <c r="Q74">
-        <v>0.00552408054741686</v>
+        <v>0.002042874272252151</v>
       </c>
       <c r="R74">
-        <v>0.001211583869025276</v>
+        <v>0.00253175843227221</v>
       </c>
       <c r="S74">
-        <v>1.038368645651483E-05</v>
+        <v>5.539217723419806E-06</v>
       </c>
       <c r="T74">
-        <v>0.02693433134329406</v>
+        <v>0.006758567980060721</v>
       </c>
       <c r="U74">
-        <v>0.006261109751068328</v>
+        <v>0.001505271833968628</v>
       </c>
       <c r="V74">
-        <v>57.34486219627173</v>
+        <v>14.04696651533709</v>
       </c>
       <c r="W74">
-        <v>0.000547964315274095</v>
+        <v>4.423750478205122</v>
       </c>
       <c r="X74">
-        <v>1.640428597830082E-06</v>
+        <v>0.0006035465347379338</v>
       </c>
     </row>
     <row r="75" spans="1:24">
@@ -5040,61 +5040,61 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5.805900029546092E-06</v>
+        <v>5.978620035388037E-06</v>
       </c>
       <c r="C75">
-        <v>0.1240902783840283</v>
+        <v>0.1215674520343698</v>
       </c>
       <c r="D75">
-        <v>0.008266107442142548</v>
+        <v>0.007745084752149869</v>
       </c>
       <c r="E75">
-        <v>0.1313230137051339</v>
+        <v>0.1288987186479678</v>
       </c>
       <c r="F75">
-        <v>9.008046701735182</v>
+        <v>9.298044229341643</v>
       </c>
       <c r="K75">
-        <v>7.196382462634713</v>
+        <v>8.167108451275794</v>
       </c>
       <c r="L75">
-        <v>6.408706601386456</v>
+        <v>8.184902967243302</v>
       </c>
       <c r="M75">
-        <v>7.447393587934217</v>
+        <v>8.189112346133403</v>
       </c>
       <c r="N75">
-        <v>0.04364534919077877</v>
+        <v>0.03266656589962908</v>
       </c>
       <c r="O75">
-        <v>0.0031673042891375</v>
+        <v>0.002253725452017744</v>
       </c>
       <c r="P75">
-        <v>0.04568427842894796</v>
+        <v>0.02926250195567862</v>
       </c>
       <c r="Q75">
-        <v>0.005670027216438258</v>
+        <v>0.002139016085690541</v>
       </c>
       <c r="R75">
-        <v>0.001256072764675971</v>
+        <v>0.002625322106885128</v>
       </c>
       <c r="S75">
-        <v>1.051355568897063E-05</v>
+        <v>5.782110253892155E-06</v>
       </c>
       <c r="T75">
-        <v>0.0277000062170802</v>
+        <v>0.006953134503990058</v>
       </c>
       <c r="U75">
-        <v>0.006524436890481359</v>
+        <v>0.001559932193566384</v>
       </c>
       <c r="V75">
-        <v>57.80525440000503</v>
+        <v>14.15249683221171</v>
       </c>
       <c r="W75">
-        <v>0.0005719139803934069</v>
+        <v>4.463877877945414</v>
       </c>
       <c r="X75">
-        <v>1.640180876868264E-06</v>
+        <v>0.0006273518491041728</v>
       </c>
     </row>
     <row r="76" spans="1:24">
@@ -5102,61 +5102,61 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5.712409612975992E-06</v>
+        <v>5.887339707267676E-06</v>
       </c>
       <c r="C76">
-        <v>0.1285450541894854</v>
+        <v>0.1259452353913783</v>
       </c>
       <c r="D76">
-        <v>0.008701848673474191</v>
+        <v>0.008148847852431333</v>
       </c>
       <c r="E76">
-        <v>0.1361596025530034</v>
+        <v>0.1336722270520701</v>
       </c>
       <c r="F76">
-        <v>9.008046701735182</v>
+        <v>9.298044229341643</v>
       </c>
       <c r="K76">
-        <v>7.201375901563626</v>
+        <v>8.164117961206014</v>
       </c>
       <c r="L76">
-        <v>6.43060203662636</v>
+        <v>8.165085625538042</v>
       </c>
       <c r="M76">
-        <v>7.459370637645082</v>
+        <v>8.186858919153376</v>
       </c>
       <c r="N76">
-        <v>0.04520219707161113</v>
+        <v>0.03383629053222952</v>
       </c>
       <c r="O76">
-        <v>0.003332924414847899</v>
+        <v>0.002356249724124202</v>
       </c>
       <c r="P76">
-        <v>0.04722328809096757</v>
+        <v>0.03030571295067816</v>
       </c>
       <c r="Q76">
-        <v>0.005830423112883188</v>
+        <v>0.002244678921220353</v>
       </c>
       <c r="R76">
-        <v>0.001303978888098548</v>
+        <v>0.002726073645217098</v>
       </c>
       <c r="S76">
-        <v>1.065126977991077E-05</v>
+        <v>6.048699476248267E-06</v>
       </c>
       <c r="T76">
-        <v>0.02851445119118015</v>
+        <v>0.007160565362083276</v>
       </c>
       <c r="U76">
-        <v>0.006812136873738712</v>
+        <v>0.001619447596586041</v>
       </c>
       <c r="V76">
-        <v>58.30711567117767</v>
+        <v>14.26633127812578</v>
       </c>
       <c r="W76">
-        <v>0.0005975655714999205</v>
+        <v>4.505411550471834</v>
       </c>
       <c r="X76">
-        <v>1.639931204921819E-06</v>
+        <v>0.0006530000318329063</v>
       </c>
     </row>
     <row r="77" spans="1:24">
@@ -5164,61 +5164,61 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5.611282896858064E-06</v>
+        <v>5.788486268882635E-06</v>
       </c>
       <c r="C77">
-        <v>0.1333387824101259</v>
+        <v>0.1306570908929361</v>
       </c>
       <c r="D77">
-        <v>0.009186589398662166</v>
+        <v>0.008597565342737635</v>
       </c>
       <c r="E77">
-        <v>0.1413623636888433</v>
+        <v>0.1388092056678502</v>
       </c>
       <c r="F77">
-        <v>9.00694144969642</v>
+        <v>9.29693692926744</v>
       </c>
       <c r="K77">
-        <v>7.206400911099057</v>
+        <v>8.161049940616982</v>
       </c>
       <c r="L77">
-        <v>6.453643384289658</v>
+        <v>8.144388439809459</v>
       </c>
       <c r="M77">
-        <v>7.471681527084324</v>
+        <v>8.184557097759637</v>
       </c>
       <c r="N77">
-        <v>0.04687696797788166</v>
+        <v>0.03509549216455372</v>
       </c>
       <c r="O77">
-        <v>0.003516578322082185</v>
+        <v>0.002469636245686657</v>
       </c>
       <c r="P77">
-        <v>0.04887900269009095</v>
+        <v>0.03142815431185648</v>
       </c>
       <c r="Q77">
-        <v>0.006008365006213183</v>
+        <v>0.002361575604830961</v>
       </c>
       <c r="R77">
-        <v>0.001355711992831293</v>
+        <v>0.002834874643046732</v>
       </c>
       <c r="S77">
-        <v>1.080602792244024E-05</v>
+        <v>6.343109299155086E-06</v>
       </c>
       <c r="T77">
-        <v>0.02938254376387782</v>
+        <v>0.007382210072703166</v>
       </c>
       <c r="U77">
-        <v>0.007128631616505617</v>
+        <v>0.001684702160922085</v>
       </c>
       <c r="V77">
-        <v>58.85411753838401</v>
+        <v>14.38920010310675</v>
       </c>
       <c r="W77">
-        <v>0.0006251224552693373</v>
+        <v>4.548466578662019</v>
       </c>
       <c r="X77">
-        <v>1.639679954445047E-06</v>
+        <v>0.0006807129401769042</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -5226,61 +5226,61 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5.503750258544288E-06</v>
+        <v>5.68324648979932E-06</v>
       </c>
       <c r="C78">
-        <v>0.1385117904522702</v>
+        <v>0.1357429044575278</v>
       </c>
       <c r="D78">
-        <v>0.009725723255036003</v>
+        <v>0.009096199742042288</v>
       </c>
       <c r="E78">
-        <v>0.146976881920253</v>
+        <v>0.1443550831917423</v>
       </c>
       <c r="F78">
-        <v>9.00691514745113</v>
+        <v>9.296910490391729</v>
       </c>
       <c r="K78">
-        <v>7.211449028141472</v>
+        <v>8.157897568696155</v>
       </c>
       <c r="L78">
-        <v>6.477861970552939</v>
+        <v>8.122891944986266</v>
       </c>
       <c r="M78">
-        <v>7.484372142451326</v>
+        <v>8.182211860255455</v>
       </c>
       <c r="N78">
-        <v>0.04868365088020664</v>
+        <v>0.03645490282783986</v>
       </c>
       <c r="O78">
-        <v>0.003720268454523792</v>
+        <v>0.002595070644784318</v>
       </c>
       <c r="P78">
-        <v>0.05066527926025252</v>
+        <v>0.03263926175798254</v>
       </c>
       <c r="Q78">
-        <v>0.006205632226120383</v>
+        <v>0.002490930829174015</v>
       </c>
       <c r="R78">
-        <v>0.001411749741369162</v>
+        <v>0.002952730123619548</v>
       </c>
       <c r="S78">
-        <v>1.097466389545643E-05</v>
+        <v>6.667689270673843E-06</v>
       </c>
       <c r="T78">
-        <v>0.03030979010335166</v>
+        <v>0.007619606235694044</v>
       </c>
       <c r="U78">
-        <v>0.00747641532242484</v>
+        <v>0.001756235474471658</v>
       </c>
       <c r="V78">
-        <v>59.45019464934648</v>
+        <v>14.52189380609007</v>
       </c>
       <c r="W78">
-        <v>0.0006548221242498737</v>
+        <v>4.593166396387041</v>
       </c>
       <c r="X78">
-        <v>1.639427548592926E-06</v>
+        <v>0.000710749800395216</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -5288,61 +5288,61 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5.388050801520147E-06</v>
+        <v>5.56985901850579E-06</v>
       </c>
       <c r="C79">
-        <v>0.1441111846782369</v>
+        <v>0.1412492829234184</v>
       </c>
       <c r="D79">
-        <v>0.01033047233283415</v>
+        <v>0.009654947729952831</v>
       </c>
       <c r="E79">
-        <v>0.1530512665200362</v>
+        <v>0.1503579767380109</v>
       </c>
       <c r="F79">
-        <v>9.006887909706387</v>
+        <v>9.296883102176325</v>
       </c>
       <c r="K79">
-        <v>7.21651212840333</v>
+        <v>8.154656078704749</v>
       </c>
       <c r="L79">
-        <v>6.503407798442389</v>
+        <v>8.100517641961314</v>
       </c>
       <c r="M79">
-        <v>7.497438281741108</v>
+        <v>8.179811820158626</v>
       </c>
       <c r="N79">
-        <v>0.0506385805508885</v>
+        <v>0.03792706944449444</v>
       </c>
       <c r="O79">
-        <v>0.003947945967526859</v>
+        <v>0.002734939409715709</v>
       </c>
       <c r="P79">
-        <v>0.05259830739217131</v>
+        <v>0.03395005875488726</v>
       </c>
       <c r="Q79">
-        <v>0.006426254755021831</v>
+        <v>0.002635206588973777</v>
       </c>
       <c r="R79">
-        <v>0.001472653005607149</v>
+        <v>0.003080819794678195</v>
       </c>
       <c r="S79">
-        <v>1.116482044014433E-05</v>
+        <v>7.028869261517497E-06</v>
       </c>
       <c r="T79">
-        <v>0.03130254552860935</v>
+        <v>0.007874535399225453</v>
       </c>
       <c r="U79">
-        <v>0.007861469453430749</v>
+        <v>0.0018352203656378</v>
       </c>
       <c r="V79">
-        <v>60.10015431425253</v>
+        <v>14.66537302066521</v>
       </c>
       <c r="W79">
-        <v>0.0006869433262471621</v>
+        <v>4.639652232313253</v>
       </c>
       <c r="X79">
-        <v>1.639174393579834E-06</v>
+        <v>0.0007434136051184816</v>
       </c>
     </row>
     <row r="80" spans="1:24">
@@ -5350,61 +5350,61 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5.263272844965919E-06</v>
+        <v>5.447388510303091E-06</v>
       </c>
       <c r="C80">
-        <v>0.1501921261484825</v>
+        <v>0.1472308436140305</v>
       </c>
       <c r="D80">
-        <v>0.01101322910050282</v>
+        <v>0.01028508079936992</v>
       </c>
       <c r="E80">
-        <v>0.159643048741695</v>
+        <v>0.1568754287167604</v>
       </c>
       <c r="F80">
-        <v>9.006859647089222</v>
+        <v>9.296854673159917</v>
       </c>
       <c r="K80">
-        <v>7.221578520528221</v>
+        <v>8.151318210913121</v>
       </c>
       <c r="L80">
-        <v>6.530420525735243</v>
+        <v>8.077307413843672</v>
       </c>
       <c r="M80">
-        <v>7.510897750604212</v>
+        <v>8.177358103943574</v>
       </c>
       <c r="N80">
-        <v>0.05276088212285949</v>
+        <v>0.03952671171880257</v>
       </c>
       <c r="O80">
-        <v>0.00420398893008817</v>
+        <v>0.002891883716511581</v>
       </c>
       <c r="P80">
-        <v>0.0546970370574963</v>
+        <v>0.03537346112606515</v>
       </c>
       <c r="Q80">
-        <v>0.006674551749333978</v>
+        <v>0.002797108884380546</v>
       </c>
       <c r="R80">
-        <v>0.001539084286751104</v>
+        <v>0.003220537564015317</v>
       </c>
       <c r="S80">
-        <v>1.138052968171954E-05</v>
+        <v>7.433218872289925E-06</v>
       </c>
       <c r="T80">
-        <v>0.03236804898657202</v>
+        <v>0.008149049718933984</v>
       </c>
       <c r="U80">
-        <v>0.008290069592912249</v>
+        <v>0.001922921243401544</v>
       </c>
       <c r="V80">
-        <v>60.80967343769608</v>
+        <v>14.82077398928083</v>
       </c>
       <c r="W80">
-        <v>0.0007218160821724324</v>
+        <v>4.688084517069498</v>
       </c>
       <c r="X80">
-        <v>1.638921073973589E-06</v>
+        <v>0.000779064048427003</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -5412,61 +5412,61 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5.128378375386372E-06</v>
+        <v>5.314763593243104E-06</v>
       </c>
       <c r="C81">
-        <v>0.1568196926745768</v>
+        <v>0.1537520704147286</v>
       </c>
       <c r="D81">
-        <v>0.01178962439163162</v>
+        <v>0.01100080159162106</v>
       </c>
       <c r="E81">
-        <v>0.1668195084530967</v>
+        <v>0.1639747937309157</v>
       </c>
       <c r="F81">
-        <v>9.00683025684644</v>
+        <v>9.296825098071769</v>
       </c>
       <c r="K81">
-        <v>7.226635650596503</v>
+        <v>8.147876602117167</v>
       </c>
       <c r="L81">
-        <v>6.5590618654894</v>
+        <v>8.053244677370282</v>
       </c>
       <c r="M81">
-        <v>7.524768753714367</v>
+        <v>8.174838938014567</v>
       </c>
       <c r="N81">
-        <v>0.05507311513203907</v>
+        <v>0.04127122733795929</v>
       </c>
       <c r="O81">
-        <v>0.004493892679144814</v>
+        <v>0.003069211991430811</v>
       </c>
       <c r="P81">
-        <v>0.0569838220721707</v>
+        <v>0.0369247159947168</v>
       </c>
       <c r="Q81">
-        <v>0.00695595816333586</v>
+        <v>0.002980051193222146</v>
       </c>
       <c r="R81">
-        <v>0.001611832084706789</v>
+        <v>0.003373542532831651</v>
       </c>
       <c r="S81">
-        <v>1.162775848819611E-05</v>
+        <v>7.889253602399472E-06</v>
       </c>
       <c r="T81">
-        <v>0.03351461943388916</v>
+        <v>0.008445532027292672</v>
       </c>
       <c r="U81">
-        <v>0.00876995564856267</v>
+        <v>0.002020891920547233</v>
       </c>
       <c r="V81">
-        <v>61.58550062712502</v>
+        <v>14.98944827314966</v>
       </c>
       <c r="W81">
-        <v>0.0007598336275544512</v>
+        <v>4.73864653716004</v>
       </c>
       <c r="X81">
-        <v>1.638668217470175E-06</v>
+        <v>0.0008181285870449439</v>
       </c>
     </row>
     <row r="82" spans="1:24">
@@ -5474,61 +5474,61 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>4.982185517830705E-06</v>
+        <v>5.170755562117268E-06</v>
       </c>
       <c r="C82">
-        <v>0.1640711960887241</v>
+        <v>0.160889633855884</v>
       </c>
       <c r="D82">
-        <v>0.01267962756396363</v>
+        <v>0.01182023781585817</v>
       </c>
       <c r="E82">
-        <v>0.1746597732579807</v>
+        <v>0.1717353619181541</v>
       </c>
       <c r="F82">
-        <v>9.006799620065715</v>
+        <v>9.29679425493695</v>
       </c>
       <c r="K82">
-        <v>7.231664473596594</v>
+        <v>8.144324382656315</v>
       </c>
       <c r="L82">
-        <v>6.589505053539264</v>
+        <v>8.028428875188339</v>
       </c>
       <c r="M82">
-        <v>7.539060707355993</v>
+        <v>8.172257670772614</v>
       </c>
       <c r="N82">
-        <v>0.05760207625468379</v>
+        <v>0.04318132810528571</v>
       </c>
       <c r="O82">
-        <v>0.004824619617954935</v>
+        <v>0.003271150766633624</v>
       </c>
       <c r="P82">
-        <v>0.05948521526761245</v>
+        <v>0.03862194923479153</v>
       </c>
       <c r="Q82">
-        <v>0.007277446483504216</v>
+        <v>0.003188350683592743</v>
       </c>
       <c r="R82">
-        <v>0.001691842301017719</v>
+        <v>0.003541825196793114</v>
       </c>
       <c r="S82">
-        <v>1.191452067724358E-05</v>
+        <v>8.407528875270941E-06</v>
       </c>
       <c r="T82">
-        <v>0.03475185262315548</v>
+        <v>0.008766764032629944</v>
       </c>
       <c r="U82">
-        <v>0.009310765548381204</v>
+        <v>0.002131095853181277</v>
       </c>
       <c r="V82">
-        <v>62.43571834899224</v>
+        <v>15.17302031914686</v>
       </c>
       <c r="W82">
-        <v>0.000801466852914594</v>
+        <v>4.79155276748228</v>
       </c>
       <c r="X82">
-        <v>1.63841677632017E-06</v>
+        <v>0.00086112066937113</v>
       </c>
     </row>
     <row r="83" spans="1:24">
@@ -5536,61 +5536,61 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>4.823350543737187E-06</v>
+        <v>5.013955083295101E-06</v>
       </c>
       <c r="C83">
-        <v>0.1720391733795009</v>
+        <v>0.1687353915422012</v>
       </c>
       <c r="D83">
-        <v>0.01370911347428609</v>
+        <v>0.01276685861715401</v>
       </c>
       <c r="E83">
-        <v>0.1832574722700621</v>
+        <v>0.1802510440205795</v>
       </c>
       <c r="F83">
-        <v>9.006767598142973</v>
+        <v>9.29676200139154</v>
       </c>
       <c r="K83">
-        <v>7.236647226214742</v>
+        <v>8.140649229322349</v>
       </c>
       <c r="L83">
-        <v>6.621960370361315</v>
+        <v>8.002898219667225</v>
       </c>
       <c r="M83">
-        <v>7.553787785338392</v>
+        <v>8.169598273722976</v>
       </c>
       <c r="N83">
-        <v>0.0603798371303011</v>
+        <v>0.04528186375468846</v>
       </c>
       <c r="O83">
-        <v>0.005205152147810378</v>
+        <v>0.003503135315694334</v>
       </c>
       <c r="P83">
-        <v>0.0622329925720392</v>
+        <v>0.04048687547432831</v>
       </c>
       <c r="Q83">
-        <v>0.00764798316901432</v>
+        <v>0.003427597979840627</v>
       </c>
       <c r="R83">
-        <v>0.001780259552614586</v>
+        <v>0.003727794547736159</v>
       </c>
       <c r="S83">
-        <v>1.225130203497075E-05</v>
+        <v>9.00207929223644E-06</v>
       </c>
       <c r="T83">
-        <v>0.03609085720603834</v>
+        <v>0.009116009726285136</v>
       </c>
       <c r="U83">
-        <v>0.009924650320479107</v>
+        <v>0.002256005156514731</v>
       </c>
       <c r="V83">
-        <v>63.37009099888542</v>
+        <v>15.37345773291248</v>
       </c>
       <c r="W83">
-        <v>0.0008472877679900762</v>
+        <v>4.847044233323658</v>
       </c>
       <c r="X83">
-        <v>1.638167638689263E-06</v>
+        <v>0.0009086612235717245</v>
       </c>
     </row>
     <row r="84" spans="1:24">
@@ -5598,61 +5598,61 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>4.650351197583709E-06</v>
+        <v>4.842748076825146E-06</v>
       </c>
       <c r="C84">
-        <v>0.1808352878186796</v>
+        <v>0.1774003100380372</v>
       </c>
       <c r="D84">
-        <v>0.01491213700133319</v>
+        <v>0.01387153251301723</v>
       </c>
       <c r="E84">
-        <v>0.1927241220338515</v>
+        <v>0.1896337967726502</v>
       </c>
       <c r="F84">
-        <v>9.006734028236</v>
+        <v>9.296728169928635</v>
       </c>
       <c r="K84">
-        <v>7.241558243231954</v>
+        <v>8.136848058678456</v>
       </c>
       <c r="L84">
-        <v>6.656658277727547</v>
+        <v>7.976825460117873</v>
       </c>
       <c r="M84">
-        <v>7.568952932427981</v>
+        <v>8.166861869372086</v>
       </c>
       <c r="N84">
-        <v>0.06344509740710613</v>
+        <v>0.04760290422352147</v>
       </c>
       <c r="O84">
-        <v>0.005647219832707734</v>
+        <v>0.003772316913436794</v>
       </c>
       <c r="P84">
-        <v>0.06526549309442947</v>
+        <v>0.04254572422402208</v>
       </c>
       <c r="Q84">
-        <v>0.008079382042877259</v>
+        <v>0.003705090499480245</v>
       </c>
       <c r="R84">
-        <v>0.001878482233202343</v>
+        <v>0.003934394129316377</v>
       </c>
       <c r="S84">
-        <v>1.265247351934003E-05</v>
+        <v>9.690950723194481E-06</v>
       </c>
       <c r="T84">
-        <v>0.03754453536634719</v>
+        <v>0.009497121091272381</v>
       </c>
       <c r="U84">
-        <v>0.01062710252249724</v>
+        <v>0.002398821459290733</v>
       </c>
       <c r="V84">
-        <v>64.4005276548351</v>
+        <v>15.59317375379453</v>
       </c>
       <c r="W84">
-        <v>0.0008979931417415717</v>
+        <v>4.905422371135991</v>
       </c>
       <c r="X84">
-        <v>1.637922087838402E-06</v>
+        <v>0.0009615110246842339</v>
       </c>
     </row>
     <row r="85" spans="1:24">
@@ -5660,61 +5660,61 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>4.461475536241631E-06</v>
+        <v>4.655293604248643E-06</v>
       </c>
       <c r="C85">
-        <v>0.1905954731608764</v>
+        <v>0.1870196498924502</v>
       </c>
       <c r="D85">
-        <v>0.01633430120193805</v>
+        <v>0.01517558128547174</v>
       </c>
       <c r="E85">
-        <v>0.2031934940584737</v>
+        <v>0.2000180368035566</v>
       </c>
       <c r="F85">
-        <v>9.006698717342671</v>
+        <v>9.296692561691167</v>
       </c>
       <c r="K85">
-        <v>7.246367186924101</v>
+        <v>8.132903609826139</v>
       </c>
       <c r="L85">
-        <v>6.693867364015132</v>
+        <v>7.950342580546925</v>
       </c>
       <c r="M85">
-        <v>7.584556160599202</v>
+        <v>8.164031721280411</v>
       </c>
       <c r="N85">
-        <v>0.06684497255854134</v>
+        <v>0.05018117406529116</v>
       </c>
       <c r="O85">
-        <v>0.006166436605086136</v>
+        <v>0.004088220093880022</v>
       </c>
       <c r="P85">
-        <v>0.0686293819798149</v>
+        <v>0.04483046738428925</v>
       </c>
       <c r="Q85">
-        <v>0.008587391262931215</v>
+        <v>0.004030578220752925</v>
       </c>
       <c r="R85">
-        <v>0.001988236924948401</v>
+        <v>0.0041652590221748</v>
       </c>
       <c r="S85">
-        <v>1.313776700065978E-05</v>
+        <v>1.049869430951424E-05</v>
       </c>
       <c r="T85">
-        <v>0.0391279137689266</v>
+        <v>0.009914668128447773</v>
       </c>
       <c r="U85">
-        <v>0.01143814573420701</v>
+        <v>0.002563708863258487</v>
       </c>
       <c r="V85">
-        <v>65.54171018134868</v>
+        <v>15.83516126723882</v>
       </c>
       <c r="W85">
-        <v>0.0009544464276315501</v>
+        <v>4.967019599512213</v>
       </c>
       <c r="X85">
-        <v>1.637681640653795E-06</v>
+        <v>0.001020608348820648</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -5722,61 +5722,61 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>4.254823408439254E-06</v>
+        <v>4.449509657960925E-06</v>
       </c>
       <c r="C86">
-        <v>0.2014867964083099</v>
+        <v>0.1977599041803862</v>
       </c>
       <c r="D86">
-        <v>0.0180378557678968</v>
+        <v>0.01673541708513392</v>
       </c>
       <c r="E86">
-        <v>0.2148273197660977</v>
+        <v>0.2115663955003816</v>
       </c>
       <c r="F86">
-        <v>9.006661434471265</v>
+        <v>9.296654938248409</v>
       </c>
       <c r="K86">
-        <v>7.251037877146554</v>
+        <v>8.128809546152548</v>
       </c>
       <c r="L86">
-        <v>6.733894527408252</v>
+        <v>7.923710351825116</v>
       </c>
       <c r="M86">
-        <v>7.60058883473437</v>
+        <v>8.161101739085234</v>
       </c>
       <c r="N86">
-        <v>0.07063738105563225</v>
+        <v>0.05306198368850434</v>
       </c>
       <c r="O86">
-        <v>0.00678398269769418</v>
+        <v>0.004463833543636209</v>
       </c>
       <c r="P86">
-        <v>0.07238200639962009</v>
+        <v>0.04738046045701023</v>
       </c>
       <c r="Q86">
-        <v>0.009193439951276893</v>
+        <v>0.00441730145657125</v>
       </c>
       <c r="R86">
-        <v>0.002111680622320134</v>
+        <v>0.004424931542666378</v>
       </c>
       <c r="S86">
-        <v>1.373487872446826E-05</v>
+        <v>1.145852696806043E-05</v>
       </c>
       <c r="T86">
-        <v>0.04085852427109655</v>
+        <v>0.0103741030825221</v>
       </c>
       <c r="U86">
-        <v>0.01238401486523819</v>
+        <v>0.002756214290132604</v>
       </c>
       <c r="V86">
-        <v>66.81195397070753</v>
+        <v>16.10318664549539</v>
       </c>
       <c r="W86">
-        <v>0.001017724996873989</v>
+        <v>5.032256378162188</v>
       </c>
       <c r="X86">
-        <v>1.637448106142672E-06</v>
+        <v>0.001087127632164043</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -5784,61 +5784,61 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>4.028334689327052E-06</v>
+        <v>4.223078564763473E-06</v>
       </c>
       <c r="C87">
-        <v>0.2137167257843375</v>
+        <v>0.2098282033200697</v>
       </c>
       <c r="D87">
-        <v>0.02010959380960256</v>
+        <v>0.01862976028715741</v>
       </c>
       <c r="E87">
-        <v>0.2278228613262656</v>
+        <v>0.2244773305000728</v>
       </c>
       <c r="F87">
-        <v>9.006621900124713</v>
+        <v>9.296615010508713</v>
       </c>
       <c r="K87">
-        <v>7.255524324741533</v>
+        <v>8.124552425354878</v>
       </c>
       <c r="L87">
-        <v>6.777081322856472</v>
+        <v>7.897237856654559</v>
       </c>
       <c r="M87">
-        <v>7.617026295660707</v>
+        <v>8.15806181379839</v>
       </c>
       <c r="N87">
-        <v>0.07489427427949479</v>
+        <v>0.05630186036482888</v>
       </c>
       <c r="O87">
-        <v>0.007529198725379426</v>
+        <v>0.00491723249678168</v>
       </c>
       <c r="P87">
-        <v>0.07659457749617631</v>
+        <v>0.0502446710570395</v>
       </c>
       <c r="Q87">
-        <v>0.009927328615491766</v>
+        <v>0.004883661411273825</v>
       </c>
       <c r="R87">
-        <v>0.002251543671893178</v>
+        <v>0.004719163077046265</v>
       </c>
       <c r="S87">
-        <v>1.448373672813659E-05</v>
+        <v>1.261688296259859E-05</v>
       </c>
       <c r="T87">
-        <v>0.04275682489815377</v>
+        <v>0.01088196233534806</v>
       </c>
       <c r="U87">
-        <v>0.01349957330233978</v>
+        <v>0.002983839144225585</v>
       </c>
       <c r="V87">
-        <v>68.23440243080493</v>
+        <v>16.40206319903318</v>
       </c>
       <c r="W87">
-        <v>0.001089193445594528</v>
+        <v>5.101630509006874</v>
       </c>
       <c r="X87">
-        <v>1.637223783762923E-06</v>
+        <v>0.001162556958670324</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -5846,61 +5846,61 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>8.315714173110384E-06</v>
+        <v>8.445591172577486E-06</v>
       </c>
       <c r="C88">
-        <v>0.2275458066396757</v>
+        <v>0.2234852349652777</v>
       </c>
       <c r="D88">
-        <v>0.01107183265381573</v>
+        <v>0.01052326938739984</v>
       </c>
       <c r="E88">
-        <v>0.2471492575811025</v>
+        <v>0.2430591957214632</v>
       </c>
       <c r="F88">
-        <v>14.20662190012471</v>
+        <v>14.49661501050871</v>
       </c>
       <c r="K88">
-        <v>7.259786522194942</v>
+        <v>8.120119733151387</v>
       </c>
       <c r="L88">
-        <v>6.622518725459085</v>
+        <v>7.905515497522489</v>
       </c>
       <c r="M88">
-        <v>7.660549154462513</v>
+        <v>8.15924810962087</v>
       </c>
       <c r="N88">
-        <v>0.07970606539050304</v>
+        <v>0.05997219092683225</v>
       </c>
       <c r="O88">
-        <v>0.004597109086204443</v>
+        <v>0.003074826757703594</v>
       </c>
       <c r="P88">
-        <v>0.08135652384479664</v>
+        <v>0.05348474317459419</v>
       </c>
       <c r="Q88">
-        <v>0.006775177548286592</v>
+        <v>0.003046172620858188</v>
       </c>
       <c r="R88">
-        <v>0.00241133366726211</v>
+        <v>0.005055344948052242</v>
       </c>
       <c r="S88">
-        <v>6.089660896428332E-06</v>
+        <v>6.856735513610222E-06</v>
       </c>
       <c r="T88">
-        <v>0.04484662858356906</v>
+        <v>0.01144611399185681</v>
       </c>
       <c r="U88">
-        <v>0.008288584482727466</v>
+        <v>0.002036763679040154</v>
       </c>
       <c r="V88">
-        <v>68.78494214065194</v>
+        <v>16.54154633360788</v>
       </c>
       <c r="W88">
-        <v>0.001170619627215484</v>
+        <v>5.175756738134847</v>
       </c>
       <c r="X88">
-        <v>1.637010673890253E-06</v>
+        <v>0.001248824302802314</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -5908,61 +5908,61 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7.956038581677259E-06</v>
+        <v>8.092697006789565E-06</v>
       </c>
       <c r="C89">
-        <v>0.2441976507924341</v>
+        <v>0.2398669246251144</v>
       </c>
       <c r="D89">
-        <v>0.0124131344829756</v>
+        <v>0.01178482977686365</v>
       </c>
       <c r="E89">
-        <v>0.26564230593452</v>
+        <v>0.2613166368431876</v>
       </c>
       <c r="F89">
-        <v>14.20533535257901</v>
+        <v>14.49532551245201</v>
       </c>
       <c r="K89">
-        <v>7.263842021716294</v>
+        <v>8.114184364185459</v>
       </c>
       <c r="L89">
-        <v>6.590712345048602</v>
+        <v>7.767444053510388</v>
       </c>
       <c r="M89">
-        <v>7.636861413628331</v>
+        <v>8.141037193209183</v>
       </c>
       <c r="N89">
-        <v>0.08548367741391062</v>
+        <v>0.06434891124753446</v>
       </c>
       <c r="O89">
-        <v>0.005045280511359654</v>
+        <v>0.003384905814625157</v>
       </c>
       <c r="P89">
-        <v>0.08709355048298972</v>
+        <v>0.05736463321718927</v>
       </c>
       <c r="Q89">
-        <v>0.007607489306487022</v>
+        <v>0.00341507339879787</v>
       </c>
       <c r="R89">
-        <v>0.002596352436982547</v>
+        <v>0.005443690195170599</v>
       </c>
       <c r="S89">
-        <v>9.61434332400324E-06</v>
+        <v>7.947460367391907E-06</v>
       </c>
       <c r="T89">
-        <v>0.04765878582209535</v>
+        <v>0.01216991016976579</v>
       </c>
       <c r="U89">
-        <v>0.009081207092779117</v>
+        <v>0.002195537889987383</v>
       </c>
       <c r="V89">
-        <v>69.44916771379141</v>
+        <v>16.70313877727839</v>
       </c>
       <c r="W89">
-        <v>0.001264492858967702</v>
+        <v>5.250834770933704</v>
       </c>
       <c r="X89">
-        <v>1.636807898914185E-06</v>
+        <v>0.001348280809131157</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -5970,61 +5970,61 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7.546085130041094E-06</v>
+        <v>7.689493709461421E-06</v>
       </c>
       <c r="C90">
-        <v>0.2635130271515557</v>
+        <v>0.2588737658624687</v>
       </c>
       <c r="D90">
-        <v>0.01410403962061187</v>
+        <v>0.0133726151893502</v>
       </c>
       <c r="E90">
-        <v>0.2870022028375598</v>
+        <v>0.2824166768784047</v>
       </c>
       <c r="F90">
-        <v>14.20529405309104</v>
+        <v>14.49528387942554</v>
       </c>
       <c r="K90">
-        <v>7.269296802401043</v>
+        <v>8.108297879682979</v>
       </c>
       <c r="L90">
-        <v>6.644199910093189</v>
+        <v>7.725489637989144</v>
       </c>
       <c r="M90">
-        <v>7.657471697091306</v>
+        <v>8.136204675128193</v>
       </c>
       <c r="N90">
-        <v>0.09218687715578988</v>
+        <v>0.06942924503361024</v>
       </c>
       <c r="O90">
-        <v>0.005699451983933821</v>
+        <v>0.003777830316120646</v>
       </c>
       <c r="P90">
-        <v>0.09371738891436494</v>
+        <v>0.06186042986872189</v>
       </c>
       <c r="Q90">
-        <v>0.008236084182235851</v>
+        <v>0.003833164388721131</v>
       </c>
       <c r="R90">
-        <v>0.002811913944787426</v>
+        <v>0.0058966687564042</v>
       </c>
       <c r="S90">
-        <v>1.014630629092433E-05</v>
+        <v>8.867283237352753E-06</v>
       </c>
       <c r="T90">
-        <v>0.05087358404953837</v>
+        <v>0.01300110785974732</v>
       </c>
       <c r="U90">
-        <v>0.01014456811693604</v>
+        <v>0.002411698866381624</v>
       </c>
       <c r="V90">
-        <v>70.26586856966331</v>
+        <v>16.89512949682439</v>
       </c>
       <c r="W90">
-        <v>0.001373764022912072</v>
+        <v>5.332388019096051</v>
       </c>
       <c r="X90">
-        <v>1.636535159879948E-06</v>
+        <v>0.001464421662038227</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -6032,61 +6032,61 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7.074205760788554E-06</v>
+        <v>7.224008195537711E-06</v>
       </c>
       <c r="C91">
-        <v>0.2861865714725507</v>
+        <v>0.2811920522872977</v>
       </c>
       <c r="D91">
-        <v>0.01629708676774931</v>
+        <v>0.01542813859975733</v>
       </c>
       <c r="E91">
-        <v>0.3119097665023214</v>
+        <v>0.3070372429601411</v>
       </c>
       <c r="F91">
-        <v>14.20524917646298</v>
+        <v>14.49523860009287</v>
       </c>
       <c r="K91">
-        <v>7.274387754572115</v>
+        <v>8.102007304483767</v>
       </c>
       <c r="L91">
-        <v>6.704972445306865</v>
+        <v>7.686613405410076</v>
       </c>
       <c r="M91">
-        <v>7.67932646301371</v>
+        <v>8.131033735437759</v>
       </c>
       <c r="N91">
-        <v>0.1000493703532313</v>
+        <v>0.07539755546247293</v>
       </c>
       <c r="O91">
-        <v>0.006536302736910751</v>
+        <v>0.004280826497784015</v>
       </c>
       <c r="P91">
-        <v>0.1014884166172858</v>
+        <v>0.06713563582144923</v>
       </c>
       <c r="Q91">
-        <v>0.009037749306385902</v>
+        <v>0.004366567640588793</v>
       </c>
       <c r="R91">
-        <v>0.003066620093741653</v>
+        <v>0.006431923435783005</v>
       </c>
       <c r="S91">
-        <v>1.080522561944501E-05</v>
+        <v>1.004386230215272E-05</v>
       </c>
       <c r="T91">
-        <v>0.05457622186159312</v>
+        <v>0.01396378140459875</v>
       </c>
       <c r="U91">
-        <v>0.01148750553815286</v>
+        <v>0.002683030670273554</v>
       </c>
       <c r="V91">
-        <v>71.27348603105661</v>
+        <v>17.12509408820637</v>
       </c>
       <c r="W91">
-        <v>0.00150257259065937</v>
+        <v>5.420788095417443</v>
       </c>
       <c r="X91">
-        <v>1.636280612271394E-06</v>
+        <v>0.001601756259556926</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -6094,61 +6094,61 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6.5275126139347E-06</v>
+        <v>6.682731203413368E-06</v>
       </c>
       <c r="C92">
-        <v>0.3131755199430308</v>
+        <v>0.3077684436560517</v>
       </c>
       <c r="D92">
-        <v>0.01924046925935419</v>
+        <v>0.01818142553981083</v>
       </c>
       <c r="E92">
-        <v>0.3412722789733473</v>
+        <v>0.3360819482437109</v>
       </c>
       <c r="F92">
-        <v>14.20519996287472</v>
+        <v>14.49518889171514</v>
       </c>
       <c r="K92">
-        <v>7.278946963190634</v>
+        <v>8.095242873649006</v>
       </c>
       <c r="L92">
-        <v>6.773340243957167</v>
+        <v>7.651765193419423</v>
       </c>
       <c r="M92">
-        <v>7.701888393870507</v>
+        <v>8.125434754989138</v>
       </c>
       <c r="N92">
-        <v>0.1094006771148634</v>
+        <v>0.08250922835894182</v>
       </c>
       <c r="O92">
-        <v>0.007639265501837021</v>
+        <v>0.004946416585846138</v>
       </c>
       <c r="P92">
-        <v>0.1107334833483758</v>
+        <v>0.07341254263953527</v>
       </c>
       <c r="Q92">
-        <v>0.01010157486845066</v>
+        <v>0.005069614962242116</v>
       </c>
       <c r="R92">
-        <v>0.003372201580553874</v>
+        <v>0.007074111393131091</v>
       </c>
       <c r="S92">
-        <v>1.172067393970221E-05</v>
+        <v>1.160282280795534E-05</v>
       </c>
       <c r="T92">
-        <v>0.05888509349393716</v>
+        <v>0.01509185647803127</v>
       </c>
       <c r="U92">
-        <v>0.01323138696118798</v>
+        <v>0.003034138434303623</v>
       </c>
       <c r="V92">
-        <v>72.52745830228901</v>
+        <v>17.40406353342419</v>
       </c>
       <c r="W92">
-        <v>0.00165678131333509</v>
+        <v>5.517402114758994</v>
       </c>
       <c r="X92">
-        <v>1.636052651840468E-06</v>
+        <v>0.001766654559334592</v>
       </c>
     </row>
     <row r="93" spans="1:24">
@@ -6156,61 +6156,61 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5.890841886731272E-06</v>
+        <v>6.049372098529232E-06</v>
       </c>
       <c r="C93">
-        <v>0.3458349700189949</v>
+        <v>0.3399447790023007</v>
       </c>
       <c r="D93">
-        <v>0.02336689522951477</v>
+        <v>0.02203339920751088</v>
       </c>
       <c r="E93">
-        <v>0.3763173700523014</v>
+        <v>0.3707728822050839</v>
       </c>
       <c r="F93">
-        <v>14.20514538901828</v>
+        <v>14.4951336970287</v>
       </c>
       <c r="K93">
-        <v>7.28279252326159</v>
+        <v>8.087915673257866</v>
       </c>
       <c r="L93">
-        <v>6.850857423135209</v>
+        <v>7.622509670100965</v>
       </c>
       <c r="M93">
-        <v>7.724980464298228</v>
+        <v>8.119301329113693</v>
       </c>
       <c r="N93">
-        <v>0.1207075006274219</v>
+        <v>0.09112731855595248</v>
       </c>
       <c r="O93">
-        <v>0.009153853252551273</v>
+        <v>0.005866080857988307</v>
       </c>
       <c r="P93">
-        <v>0.1219148065128119</v>
+        <v>0.08100620127034562</v>
       </c>
       <c r="Q93">
-        <v>0.01157485580793011</v>
+        <v>0.006036195910752554</v>
       </c>
       <c r="R93">
-        <v>0.003745588347955449</v>
+        <v>0.007858834567611439</v>
       </c>
       <c r="S93">
-        <v>1.30590564489877E-05</v>
+        <v>1.376259180921818E-05</v>
       </c>
       <c r="T93">
-        <v>0.06395772755313152</v>
+        <v>0.01643160292733434</v>
       </c>
       <c r="U93">
-        <v>0.01557817780032884</v>
+        <v>0.003506462859567448</v>
       </c>
       <c r="V93">
-        <v>74.111571246399</v>
+        <v>17.7489003550761</v>
       </c>
       <c r="W93">
-        <v>0.0018448548996927</v>
+        <v>5.624064809785548</v>
       </c>
       <c r="X93">
-        <v>1.63586037383692E-06</v>
+        <v>0.001968321536084366</v>
       </c>
     </row>
     <row r="94" spans="1:24">
@@ -6218,61 +6218,61 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5.148075719362021E-06</v>
+        <v>5.305746724073513E-06</v>
       </c>
       <c r="C94">
-        <v>0.38614347936768</v>
+        <v>0.3796837014766495</v>
       </c>
       <c r="D94">
-        <v>0.02948894881026773</v>
+        <v>0.02773814678282814</v>
       </c>
       <c r="E94">
-        <v>0.418748798450393</v>
+        <v>0.4128024623894757</v>
       </c>
       <c r="F94">
-        <v>14.20508403324604</v>
+        <v>14.49507154193406</v>
       </c>
       <c r="K94">
-        <v>7.285661213096148</v>
+        <v>8.079920435820814</v>
       </c>
       <c r="L94">
-        <v>6.939298983944126</v>
+        <v>7.601035303577051</v>
       </c>
       <c r="M94">
-        <v>7.748261335178407</v>
+        <v>8.112502442167539</v>
       </c>
       <c r="N94">
-        <v>0.1346517065492808</v>
+        <v>0.101784973268198</v>
       </c>
       <c r="O94">
-        <v>0.01134975472146425</v>
+        <v>0.007211256507308802</v>
       </c>
       <c r="P94">
-        <v>0.1357073003509222</v>
+        <v>0.09037745194029477</v>
       </c>
       <c r="Q94">
-        <v>0.01373199103484064</v>
+        <v>0.007441260528073567</v>
       </c>
       <c r="R94">
-        <v>0.004212154509393757</v>
+        <v>0.008839468564586717</v>
       </c>
       <c r="S94">
-        <v>1.514497520397975E-05</v>
+        <v>1.693406389252117E-05</v>
       </c>
       <c r="T94">
-        <v>0.07000517127223187</v>
+        <v>0.01804724543580521</v>
       </c>
       <c r="U94">
-        <v>0.01888161315142728</v>
+        <v>0.004174604311727187</v>
       </c>
       <c r="V94">
-        <v>76.15929931756297</v>
+        <v>18.18698079224313</v>
       </c>
       <c r="W94">
-        <v>0.002079483893235889</v>
+        <v>5.74333982404552</v>
       </c>
       <c r="X94">
-        <v>1.635716939345193E-06</v>
+        <v>0.002220571354751536</v>
       </c>
     </row>
     <row r="95" spans="1:24">
@@ -6280,61 +6280,61 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>4.28580893228843E-06</v>
+        <v>4.434649901807478E-06</v>
       </c>
       <c r="C95">
-        <v>0.4370941265901676</v>
+        <v>0.4299616378614813</v>
       </c>
       <c r="D95">
-        <v>0.03928627871364725</v>
+        <v>0.0368634079268266</v>
       </c>
       <c r="E95">
-        <v>0.471013161347807</v>
+        <v>0.4645879195516058</v>
       </c>
       <c r="F95">
-        <v>14.20281584860141</v>
+        <v>14.49279318463729</v>
       </c>
       <c r="K95">
-        <v>7.287179211240028</v>
+        <v>8.071119018215498</v>
       </c>
       <c r="L95">
-        <v>7.040543843656154</v>
+        <v>7.590297514730787</v>
       </c>
       <c r="M95">
-        <v>7.771177817968518</v>
+        <v>8.104826850306662</v>
       </c>
       <c r="N95">
-        <v>0.1522662710961117</v>
+        <v>0.1152955042340393</v>
       </c>
       <c r="O95">
-        <v>0.01477884031314201</v>
+        <v>0.009337269783164858</v>
       </c>
       <c r="P95">
-        <v>0.1531323445389338</v>
+        <v>0.1022254792848978</v>
       </c>
       <c r="Q95">
-        <v>0.0171350722747701</v>
+        <v>0.00964573984174651</v>
       </c>
       <c r="R95">
-        <v>0.004811727299992298</v>
+        <v>0.01009983063611446</v>
       </c>
       <c r="S95">
-        <v>1.867882388481961E-05</v>
+        <v>2.197477989827448E-05</v>
       </c>
       <c r="T95">
-        <v>0.07730853671806109</v>
+        <v>0.0200290513106735</v>
       </c>
       <c r="U95">
-        <v>0.02380485041781738</v>
+        <v>0.005184461187929849</v>
       </c>
       <c r="V95">
-        <v>78.89728293337654</v>
+        <v>18.76626275939038</v>
       </c>
       <c r="W95">
-        <v>0.002380586215590275</v>
+        <v>5.878941532162237</v>
       </c>
       <c r="X95">
-        <v>1.635641039437999E-06</v>
+        <v>0.002545122155874837</v>
       </c>
     </row>
     <row r="96" spans="1:24">
@@ -6342,61 +6342,61 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>3.315668440605226E-06</v>
+        <v>3.44111149451585E-06</v>
       </c>
       <c r="C96">
-        <v>0.5033954345695878</v>
+        <v>0.4954780095172572</v>
       </c>
       <c r="D96">
-        <v>0.0565112699067696</v>
+        <v>0.05297072826070467</v>
       </c>
       <c r="E96">
-        <v>0.5369539216206154</v>
+        <v>0.5298890482261324</v>
       </c>
       <c r="F96">
-        <v>14.2026214492678</v>
+        <v>14.49259529656788</v>
       </c>
       <c r="K96">
-        <v>7.286742641246378</v>
+        <v>8.061396538850683</v>
       </c>
       <c r="L96">
-        <v>7.155870289113458</v>
+        <v>7.594296563184189</v>
       </c>
       <c r="M96">
-        <v>7.793200717130717</v>
+        <v>8.096111829361226</v>
       </c>
       <c r="N96">
-        <v>0.1751808428932734</v>
+        <v>0.1329552099758518</v>
       </c>
       <c r="O96">
-        <v>0.02066633065105344</v>
+        <v>0.01304978655030379</v>
       </c>
       <c r="P96">
-        <v>0.1757985565829611</v>
+        <v>0.1176554358587564</v>
       </c>
       <c r="Q96">
-        <v>0.02302660159332398</v>
+        <v>0.01346404268453428</v>
       </c>
       <c r="R96">
-        <v>0.005610568712676878</v>
+        <v>0.01177947327881716</v>
       </c>
       <c r="S96">
-        <v>2.524508254176661E-05</v>
+        <v>3.081888048847835E-05</v>
       </c>
       <c r="T96">
-        <v>0.08622581776810175</v>
+        <v>0.02250314966446411</v>
       </c>
       <c r="U96">
-        <v>0.03160680425798834</v>
+        <v>0.006836196569543304</v>
       </c>
       <c r="V96">
-        <v>82.72828979153758</v>
+        <v>19.5769542054586</v>
       </c>
       <c r="W96">
-        <v>0.002781306628916246</v>
+        <v>6.036679184352657</v>
       </c>
       <c r="X96">
-        <v>1.635662867937681E-06</v>
+        <v>0.002978196585414305</v>
       </c>
     </row>
     <row r="97" spans="1:24">
@@ -6404,19 +6404,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>2.304769514784104E-06</v>
+        <v>2.384807023521726E-06</v>
       </c>
       <c r="C97">
-        <v>0.5927722675021504</v>
+        <v>0.5839794657685666</v>
       </c>
       <c r="D97">
-        <v>0.09020907606353415</v>
+        <v>0.0849835061442514</v>
       </c>
       <c r="E97">
-        <v>0.6233145336739804</v>
+        <v>0.6152536849415109</v>
       </c>
       <c r="F97">
-        <v>14.20238689605692</v>
+        <v>14.49235562527688</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -6428,31 +6428,31 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>0.206083745341717</v>
+        <v>0.1569362946609611</v>
       </c>
       <c r="O97">
         <v>0</v>
       </c>
       <c r="P97">
-        <v>0.2063529475808882</v>
+        <v>0.1384937144936006</v>
       </c>
       <c r="Q97">
         <v>0</v>
       </c>
       <c r="R97">
-        <v>0.006727633438703889</v>
+        <v>0.01412920415848287</v>
       </c>
       <c r="S97">
         <v>0</v>
       </c>
       <c r="T97">
-        <v>0.09714962047012424</v>
+        <v>0.02563654028344823</v>
       </c>
       <c r="U97">
         <v>0</v>
       </c>
       <c r="V97">
-        <v>81.86653677287572</v>
+        <v>19.37302759915174</v>
       </c>
       <c r="W97">
         <v>0</v>

--- a/Wastewater_Effluent_Filtration/Water_Salt_Transport_1.xlsx
+++ b/Wastewater_Effluent_Filtration/Water_Salt_Transport_1.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mangu\Desktop\Nir Water Lab\High-Recovery-Effluent-RO\Wastewater_Effluent_Filtration\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60025808-D8A1-4CCE-A332-2BA6A9455334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Recovery</t>
   </si>
@@ -87,12 +93,30 @@
   <si>
     <t>d_CaPhosphate</t>
   </si>
+  <si>
+    <t>cp_nh4</t>
+  </si>
+  <si>
+    <t>NH4_Cpsd</t>
+  </si>
+  <si>
+    <t>NH4_p</t>
+  </si>
+  <si>
+    <t>NH3_p</t>
+  </si>
+  <si>
+    <t>NH4_Psd</t>
+  </si>
+  <si>
+    <t>Pnh4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,13 +153,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -173,7 +205,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -207,6 +239,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -241,9 +274,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -416,14 +450,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="I92" sqref="I92"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,5969 +532,7635 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.576881554345103E-06</v>
+        <v>5.8387380152954756E-6</v>
       </c>
       <c r="C2">
-        <v>0.03600526475692639</v>
+        <v>3.099546813926336E-2</v>
       </c>
       <c r="D2">
-        <v>0.002447455677947518</v>
+        <v>1.863801813346408E-3</v>
       </c>
       <c r="E2">
-        <v>0.03815957086743655</v>
+        <v>3.2955946100667342E-2</v>
       </c>
       <c r="F2">
         <v>6.9</v>
       </c>
       <c r="G2">
-        <v>19.20226432162751</v>
+        <v>20.222914672493289</v>
       </c>
       <c r="H2">
-        <v>19.46575936567211</v>
+        <v>20.80429653464223</v>
       </c>
       <c r="I2">
-        <v>19.25586086014</v>
+        <v>21.128730412463678</v>
       </c>
       <c r="J2">
-        <v>21.51007507088185</v>
+        <v>24.6708772018358</v>
       </c>
       <c r="K2">
-        <v>8.300088718471967</v>
+        <v>6.0000179439736252</v>
       </c>
       <c r="L2">
-        <v>8.639066820689765</v>
+        <v>4.8625615291991524</v>
       </c>
       <c r="M2">
-        <v>8.289945013750982</v>
+        <v>6.0246263121900379</v>
       </c>
       <c r="N2">
-        <v>0.009798182572597368</v>
+        <v>2.984473230526895E-3</v>
       </c>
       <c r="O2">
-        <v>0.0008131907316339751</v>
+        <v>1.8300615414558751E-4</v>
       </c>
       <c r="P2">
-        <v>0.008761162876919412</v>
+        <v>8.7589043797014488E-3</v>
       </c>
       <c r="Q2">
-        <v>0.0006674572646465888</v>
+        <v>5.9911987795076413E-3</v>
       </c>
       <c r="R2">
-        <v>0.0007111792361365105</v>
+        <v>3.1930180505398108E-4</v>
       </c>
       <c r="S2">
-        <v>1.989570546978397E-06</v>
+        <v>1.712188288935357E-5</v>
       </c>
       <c r="T2">
-        <v>0.002609220240579213</v>
+        <v>1.0831547333188829E-2</v>
       </c>
       <c r="U2">
-        <v>0.0006630013619005088</v>
+        <v>2.0054278514204799E-3</v>
       </c>
       <c r="V2">
-        <v>9.289312081588028</v>
+        <v>28.09804962625234</v>
       </c>
       <c r="W2">
-        <v>2.933020135458392</v>
+        <v>-3.1774749158183369</v>
       </c>
       <c r="X2">
-        <v>0.0001459742563678081</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>1.126206541669854E-2</v>
+      </c>
+      <c r="Z2">
+        <v>1.141864304120708E-2</v>
+      </c>
+      <c r="AA2">
+        <v>1.9994665416650909E-3</v>
+      </c>
+      <c r="AB2">
+        <v>5.9613097553889541E-6</v>
+      </c>
+      <c r="AC2">
+        <v>2.021470868405653E-3</v>
+      </c>
+      <c r="AD2">
+        <v>1.255998995137477E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.568837830571433E-06</v>
+        <v>5.8323451832504856E-6</v>
       </c>
       <c r="C3">
-        <v>0.03634423252540093</v>
+        <v>3.1289727395080701E-2</v>
       </c>
       <c r="D3">
-        <v>0.002474881572351231</v>
+        <v>1.884325548812442E-3</v>
       </c>
       <c r="E3">
-        <v>0.03853509645014728</v>
+        <v>3.3284431372504093E-2</v>
       </c>
       <c r="F3">
-        <v>6.899985237356524</v>
+        <v>6.899985244131857</v>
       </c>
       <c r="K3">
-        <v>8.298934718988592</v>
+        <v>6.0037874159299314</v>
       </c>
       <c r="L3">
-        <v>8.686013822303568</v>
+        <v>4.8690801413845177</v>
       </c>
       <c r="M3">
-        <v>8.315521655306577</v>
+        <v>6.0315629162875917</v>
       </c>
       <c r="N3">
-        <v>0.009888940065940433</v>
+        <v>3.0127708777630689E-3</v>
       </c>
       <c r="O3">
-        <v>0.0008318316059501082</v>
+        <v>1.8573816365512969E-4</v>
       </c>
       <c r="P3">
-        <v>0.008842917479063581</v>
+        <v>8.7868610019256298E-3</v>
       </c>
       <c r="Q3">
-        <v>0.0006687708253270803</v>
+        <v>5.9797716794167044E-3</v>
       </c>
       <c r="R3">
-        <v>0.0007183427681121623</v>
+        <v>3.2235412750008851E-4</v>
       </c>
       <c r="S3">
-        <v>1.808800758825987E-06</v>
+        <v>1.0484516282531211E-5</v>
       </c>
       <c r="T3">
-        <v>0.002628879017131523</v>
+        <v>1.09207000552269E-2</v>
       </c>
       <c r="U3">
-        <v>0.0006794007372023735</v>
+        <v>2.0240046687838298E-3</v>
       </c>
       <c r="V3">
-        <v>9.404197905265242</v>
+        <v>28.228189520291291</v>
       </c>
       <c r="W3">
-        <v>2.945614149584131</v>
+        <v>-3.1454270186559512</v>
       </c>
       <c r="X3">
-        <v>0.000147732345747653</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>1.135818065779823E-2</v>
+      </c>
+      <c r="Z3">
+        <v>1.1655605657085691E-2</v>
+      </c>
+      <c r="AA3">
+        <v>2.0178974672765541E-3</v>
+      </c>
+      <c r="AB3">
+        <v>6.1072015072755824E-6</v>
+      </c>
+      <c r="AC3">
+        <v>2.0649963008001781E-3</v>
+      </c>
+      <c r="AD3">
+        <v>1.2557879047079239E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.56117451887891E-06</v>
+        <v>5.8253700825247427E-6</v>
       </c>
       <c r="C4">
-        <v>0.03668983814737082</v>
+        <v>3.1589782515960993E-2</v>
       </c>
       <c r="D4">
-        <v>0.002502725510013694</v>
+        <v>1.9054427545362341E-3</v>
       </c>
       <c r="E4">
-        <v>0.03891845898472949</v>
+        <v>3.3619469086647438E-2</v>
       </c>
       <c r="F4">
-        <v>6.899970399414826</v>
+        <v>6.8999704131388189</v>
       </c>
       <c r="K4">
-        <v>8.297635809763404</v>
+        <v>6.0075792677711508</v>
       </c>
       <c r="L4">
-        <v>8.683041699790067</v>
+        <v>4.8732870714621628</v>
       </c>
       <c r="M4">
-        <v>8.314304191612441</v>
+        <v>6.0355981884906669</v>
       </c>
       <c r="N4">
-        <v>0.009981359540021965</v>
+        <v>3.041618150356007E-3</v>
       </c>
       <c r="O4">
-        <v>0.0008396983054734099</v>
+        <v>1.8787565737356029E-4</v>
       </c>
       <c r="P4">
-        <v>0.008926327138795586</v>
+        <v>8.8155047705226579E-3</v>
       </c>
       <c r="Q4">
-        <v>0.00067632911409199</v>
+        <v>5.9820091445600332E-3</v>
       </c>
       <c r="R4">
-        <v>0.0007256543392076044</v>
+        <v>3.2553647047169618E-4</v>
       </c>
       <c r="S4">
-        <v>1.830710019157137E-06</v>
+        <v>1.0543810401239159E-5</v>
       </c>
       <c r="T4">
-        <v>0.002648771652641004</v>
+        <v>1.1011482661211011E-2</v>
       </c>
       <c r="U4">
-        <v>0.0006845734138118908</v>
+        <v>2.0430537104716789E-3</v>
       </c>
       <c r="V4">
-        <v>9.466651303816294</v>
+        <v>28.360534859333761</v>
       </c>
       <c r="W4">
-        <v>2.958083675805725</v>
+        <v>-3.1129541396424121</v>
       </c>
       <c r="X4">
-        <v>0.0001495186945483505</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>1.1456069391544071E-2</v>
+      </c>
+      <c r="Z4">
+        <v>1.175840331896701E-2</v>
+      </c>
+      <c r="AA4">
+        <v>2.0368398151608398E-3</v>
+      </c>
+      <c r="AB4">
+        <v>6.2138953108393733E-6</v>
+      </c>
+      <c r="AC4">
+        <v>2.0849706503853148E-3</v>
+      </c>
+      <c r="AD4">
+        <v>1.2555755610048161E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.553357822704813E-06</v>
+        <v>5.8182538406428752E-6</v>
       </c>
       <c r="C5">
-        <v>0.03704228260754976</v>
+        <v>3.1895806637212802E-2</v>
       </c>
       <c r="D5">
-        <v>0.002531212161062323</v>
+        <v>1.9270445733148729E-3</v>
       </c>
       <c r="E5">
-        <v>0.03930967070517799</v>
+        <v>3.3961428829827077E-2</v>
       </c>
       <c r="F5">
-        <v>6.899955484719818</v>
+        <v>6.8999555055718398</v>
       </c>
       <c r="K5">
-        <v>8.296323910957122</v>
+        <v>6.0114072890156374</v>
       </c>
       <c r="L5">
-        <v>8.679763405641907</v>
+        <v>4.8774839780274242</v>
       </c>
       <c r="M5">
-        <v>8.313236289592396</v>
+        <v>6.039680350188978</v>
       </c>
       <c r="N5">
-        <v>0.01007560347027504</v>
+        <v>3.0710381760568569E-3</v>
       </c>
       <c r="O5">
-        <v>0.000847596207688893</v>
+        <v>1.900289120904396E-4</v>
       </c>
       <c r="P5">
-        <v>0.009011378664823459</v>
+        <v>8.8447160656356764E-3</v>
       </c>
       <c r="Q5">
-        <v>0.0006839897718787825</v>
+        <v>5.9842968733816353E-3</v>
       </c>
       <c r="R5">
-        <v>0.0007331164384775885</v>
+        <v>3.2878381748273182E-4</v>
       </c>
       <c r="S5">
-        <v>1.851904886682966E-06</v>
+        <v>1.060325078693831E-5</v>
       </c>
       <c r="T5">
-        <v>0.002669021119020686</v>
+        <v>1.1103940691631E-2</v>
       </c>
       <c r="U5">
-        <v>0.0006899193512437446</v>
+        <v>2.06250246658505E-3</v>
       </c>
       <c r="V5">
-        <v>9.516603485431247</v>
+        <v>28.494831659331108</v>
       </c>
       <c r="W5">
-        <v>2.970663837814385</v>
+        <v>-3.0801814389108562</v>
       </c>
       <c r="X5">
-        <v>0.0001513425810300771</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>1.155581708386934E-2</v>
+      </c>
+      <c r="Z5">
+        <v>1.186318858753635E-2</v>
+      </c>
+      <c r="AA5">
+        <v>2.0561788257604939E-3</v>
+      </c>
+      <c r="AB5">
+        <v>6.3236408245562294E-6</v>
+      </c>
+      <c r="AC5">
+        <v>2.105371368902756E-3</v>
+      </c>
+      <c r="AD5">
+        <v>1.255361191815124E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.545383073556773E-06</v>
+        <v>5.810992117134453E-6</v>
       </c>
       <c r="C6">
-        <v>0.03740177292470067</v>
+        <v>3.2207981242045068E-2</v>
       </c>
       <c r="D6">
-        <v>0.002560364006979639</v>
+        <v>1.9491478543037649E-3</v>
       </c>
       <c r="E6">
-        <v>0.03970897527450681</v>
+        <v>3.4310527329985817E-2</v>
       </c>
       <c r="F6">
-        <v>6.899940491770957</v>
+        <v>6.8999405199366954</v>
       </c>
       <c r="K6">
-        <v>8.295011314948924</v>
+        <v>6.0152722410907016</v>
       </c>
       <c r="L6">
-        <v>8.676490011935373</v>
+        <v>4.8817413522160322</v>
       </c>
       <c r="M6">
-        <v>8.312185061735763</v>
+        <v>6.0438043894081943</v>
       </c>
       <c r="N6">
-        <v>0.01017172854592698</v>
+        <v>3.1010486892231741E-3</v>
       </c>
       <c r="O6">
-        <v>0.0008556827424637449</v>
+        <v>1.9223257316412261E-4</v>
       </c>
       <c r="P6">
-        <v>0.009098122299124965</v>
+        <v>8.8745120988883222E-3</v>
       </c>
       <c r="Q6">
-        <v>0.0006918212522120872</v>
+        <v>5.9866377809695464E-3</v>
       </c>
       <c r="R6">
-        <v>0.0007407337773691604</v>
+        <v>3.32098198385813E-4</v>
       </c>
       <c r="S6">
-        <v>1.873445649946324E-06</v>
+        <v>1.06631377953833E-5</v>
       </c>
       <c r="T6">
-        <v>0.00268963676243503</v>
+        <v>1.119812233980857E-2</v>
       </c>
       <c r="U6">
-        <v>0.000695384142090258</v>
+        <v>2.0823639445728581E-3</v>
       </c>
       <c r="V6">
-        <v>9.56188823131032</v>
+        <v>28.631065572946952</v>
       </c>
       <c r="W6">
-        <v>2.983379070846986</v>
+        <v>-3.0471022870126059</v>
       </c>
       <c r="X6">
-        <v>0.0001532059565134977</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>1.165747843293006E-2</v>
+      </c>
+      <c r="Z6">
+        <v>1.197002078019984E-2</v>
+      </c>
+      <c r="AA6">
+        <v>2.0759274716337212E-3</v>
+      </c>
+      <c r="AB6">
+        <v>6.4364729391364226E-6</v>
+      </c>
+      <c r="AC6">
+        <v>2.1262125354271559E-3</v>
+      </c>
+      <c r="AD6">
+        <v>1.255144754498921E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.537245420049962E-06</v>
+        <v>5.8035803896141867E-6</v>
       </c>
       <c r="C7">
-        <v>0.03776852459751879</v>
+        <v>3.2526495277705507E-2</v>
       </c>
       <c r="D7">
-        <v>0.002590204582600483</v>
+        <v>1.971770234622857E-3</v>
       </c>
       <c r="E7">
-        <v>0.04011662651351872</v>
+        <v>3.4666990424571942E-2</v>
       </c>
       <c r="F7">
-        <v>6.899925419020274</v>
+        <v>6.8999254546920383</v>
       </c>
       <c r="K7">
-        <v>8.293681807018841</v>
+        <v>6.0191745878375871</v>
       </c>
       <c r="L7">
-        <v>8.673148892700297</v>
+        <v>4.8860600452235232</v>
       </c>
       <c r="M7">
-        <v>8.311116643995677</v>
+        <v>6.0479710069629817</v>
       </c>
       <c r="N7">
-        <v>0.01026979218596344</v>
+        <v>3.1316678062343218E-3</v>
       </c>
       <c r="O7">
-        <v>0.0008639455774033752</v>
+        <v>1.9448831098672919E-4</v>
       </c>
       <c r="P7">
-        <v>0.009186609678566153</v>
+        <v>8.9049107759190463E-3</v>
       </c>
       <c r="Q7">
-        <v>0.0006998369280627043</v>
+        <v>5.9890328249663323E-3</v>
       </c>
       <c r="R7">
-        <v>0.0007485112545451521</v>
+        <v>3.3548172533939651E-4</v>
       </c>
       <c r="S7">
-        <v>1.895510427780768E-06</v>
+        <v>1.072345898856601E-5</v>
       </c>
       <c r="T7">
-        <v>0.002710628895280764</v>
+        <v>1.129407769133736E-2</v>
       </c>
       <c r="U7">
-        <v>0.0007009564979954257</v>
+        <v>2.1026518329946261E-3</v>
       </c>
       <c r="V7">
-        <v>9.605090441660918</v>
+        <v>28.769263782803741</v>
       </c>
       <c r="W7">
-        <v>2.99620285766661</v>
+        <v>-3.0137125803414229</v>
       </c>
       <c r="X7">
-        <v>0.0001551090371520992</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>1.176111031634032E-2</v>
+      </c>
+      <c r="Z7">
+        <v>1.207896160399073E-2</v>
+      </c>
+      <c r="AA7">
+        <v>2.096099328108527E-3</v>
+      </c>
+      <c r="AB7">
+        <v>6.5525048860990686E-6</v>
+      </c>
+      <c r="AC7">
+        <v>2.1475088848361239E-3</v>
+      </c>
+      <c r="AD7">
+        <v>1.2549262230810949E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.528939800352153E-06</v>
+        <v>5.796013951042358E-6</v>
       </c>
       <c r="C8">
-        <v>0.038142762044486</v>
+        <v>3.2851545544121279E-2</v>
       </c>
       <c r="D8">
-        <v>0.002620758545903358</v>
+        <v>1.9949301837627761E-3</v>
       </c>
       <c r="E8">
-        <v>0.04053288892674616</v>
+        <v>3.5031053545032921E-2</v>
       </c>
       <c r="F8">
-        <v>6.899910264870382</v>
+        <v>6.8999103082473887</v>
       </c>
       <c r="K8">
-        <v>8.292345617605125</v>
+        <v>6.023115143508539</v>
       </c>
       <c r="L8">
-        <v>8.66976855114865</v>
+        <v>4.8904420099105366</v>
       </c>
       <c r="M8">
-        <v>8.310046357692851</v>
+        <v>6.0521813265123976</v>
       </c>
       <c r="N8">
-        <v>0.01036985438392684</v>
+        <v>3.1629143966092959E-3</v>
       </c>
       <c r="O8">
-        <v>0.0008723986897515998</v>
+        <v>1.9679807831545561E-4</v>
       </c>
       <c r="P8">
-        <v>0.009276894495060872</v>
+        <v>8.9359307541206703E-3</v>
       </c>
       <c r="Q8">
-        <v>0.000708039765644397</v>
+        <v>5.9914832864288361E-3</v>
       </c>
       <c r="R8">
-        <v>0.0007564539752272518</v>
+        <v>3.389366005133415E-4</v>
       </c>
       <c r="S8">
-        <v>1.918048616441551E-06</v>
+        <v>1.078421101226919E-5</v>
       </c>
       <c r="T8">
-        <v>0.002732008388868906</v>
+        <v>1.139185881748995E-2</v>
       </c>
       <c r="U8">
-        <v>0.0007066468273643864</v>
+        <v>2.1233804107375358E-3</v>
       </c>
       <c r="V8">
-        <v>9.647338764023988</v>
+        <v>28.909466518809442</v>
       </c>
       <c r="W8">
-        <v>3.009156475000349</v>
+        <v>-2.9800051486185382</v>
       </c>
       <c r="X8">
-        <v>0.0001570537982723365</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>1.18667719133237E-2</v>
+      </c>
+      <c r="Z8">
+        <v>1.2190075290049431E-2</v>
+      </c>
+      <c r="AA8">
+        <v>2.116708539392559E-3</v>
+      </c>
+      <c r="AB8">
+        <v>6.6718713449765619E-6</v>
+      </c>
+      <c r="AC8">
+        <v>2.169275793592097E-3</v>
+      </c>
+      <c r="AD8">
+        <v>1.2547055519635219E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.520460947412798E-06</v>
+        <v>5.7882878935601617E-6</v>
       </c>
       <c r="C9">
-        <v>0.03852471907135249</v>
+        <v>3.3183337107135891E-2</v>
       </c>
       <c r="D9">
-        <v>0.00265205173861088</v>
+        <v>2.0186470550239799E-3</v>
       </c>
       <c r="E9">
-        <v>0.04095803827319901</v>
+        <v>3.5402962226355923E-2</v>
       </c>
       <c r="F9">
-        <v>6.899895027672259</v>
+        <v>6.8998950789609683</v>
       </c>
       <c r="K9">
-        <v>8.291005976858049</v>
+        <v>6.0270949689123468</v>
       </c>
       <c r="L9">
-        <v>8.66636182017937</v>
+        <v>4.8948886549104706</v>
       </c>
       <c r="M9">
-        <v>8.308980139625538</v>
+        <v>6.0564366687445181</v>
       </c>
       <c r="N9">
-        <v>0.0104719775634341</v>
+        <v>3.1948081204619182E-3</v>
       </c>
       <c r="O9">
-        <v>0.0008810519316467777</v>
+        <v>1.9916390538219511E-4</v>
       </c>
       <c r="P9">
-        <v>0.009369032717957823</v>
+        <v>8.9675914795797219E-3</v>
       </c>
       <c r="Q9">
-        <v>0.0007164349008980951</v>
+        <v>5.9939885340857266E-3</v>
       </c>
       <c r="R9">
-        <v>0.0007645672647607014</v>
+        <v>3.4246512083055728E-4</v>
       </c>
       <c r="S9">
-        <v>1.941050126353977E-06</v>
+        <v>1.084538493112672E-5</v>
       </c>
       <c r="T9">
-        <v>0.002753786470175406</v>
+        <v>1.149151987562707E-2</v>
       </c>
       <c r="U9">
-        <v>0.0007124617824166065</v>
+        <v>2.1445645693140359E-3</v>
       </c>
       <c r="V9">
-        <v>9.689209172700874</v>
+        <v>29.051719976540632</v>
       </c>
       <c r="W9">
-        <v>3.022248657517999</v>
+        <v>-2.9459729051105299</v>
       </c>
       <c r="X9">
-        <v>0.0001590418307620403</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>1.1974524801544239E-2</v>
+      </c>
+      <c r="Z9">
+        <v>1.230342870187582E-2</v>
+      </c>
+      <c r="AA9">
+        <v>2.1377698709198201E-3</v>
+      </c>
+      <c r="AB9">
+        <v>6.7946983942165256E-6</v>
+      </c>
+      <c r="AC9">
+        <v>2.1915293232276619E-3</v>
+      </c>
+      <c r="AD9">
+        <v>1.254482681740909E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.511803367785278E-06</v>
+        <v>5.7803971060343252E-6</v>
       </c>
       <c r="C10">
-        <v>0.0389146393684475</v>
+        <v>3.3522083738137101E-2</v>
       </c>
       <c r="D10">
-        <v>0.002684111262289223</v>
+        <v>2.0429411362558499E-3</v>
       </c>
       <c r="E10">
-        <v>0.04139236216494787</v>
+        <v>3.5782972655718129E-2</v>
       </c>
       <c r="F10">
-        <v>6.899879705723037</v>
+        <v>6.8998797651374471</v>
       </c>
       <c r="K10">
-        <v>8.289652618888338</v>
+        <v>6.0311143888793532</v>
       </c>
       <c r="L10">
-        <v>8.662904257178967</v>
+        <v>4.8994007288235286</v>
       </c>
       <c r="M10">
-        <v>8.307906830750786</v>
+        <v>6.0607367907323919</v>
       </c>
       <c r="N10">
-        <v>0.01057622675508397</v>
+        <v>3.2273694706258281E-3</v>
       </c>
       <c r="O10">
-        <v>0.0008899061997135706</v>
+        <v>2.0158752406147909E-4</v>
       </c>
       <c r="P10">
-        <v>0.009463082694230211</v>
+        <v>8.9999132507263945E-3</v>
       </c>
       <c r="Q10">
-        <v>0.0007250317006985102</v>
+        <v>5.9965565449965194E-3</v>
       </c>
       <c r="R10">
-        <v>0.0007728566801371617</v>
+        <v>3.4606968317729019E-4</v>
       </c>
       <c r="S10">
-        <v>1.964580274231873E-06</v>
+        <v>1.090696597340501E-5</v>
       </c>
       <c r="T10">
-        <v>0.002775974781998871</v>
+        <v>1.1593117215913081E-2</v>
       </c>
       <c r="U10">
-        <v>0.0007184002271651614</v>
+        <v>2.1662199800774242E-3</v>
       </c>
       <c r="V10">
-        <v>9.731019884935339</v>
+        <v>29.196074217021089</v>
       </c>
       <c r="W10">
-        <v>3.035463558466617</v>
+        <v>-2.911610407139321</v>
       </c>
       <c r="X10">
-        <v>0.0001610738518009023</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>1.2084433107482461E-2</v>
+      </c>
+      <c r="Z10">
+        <v>1.241909150003276E-2</v>
+      </c>
+      <c r="AA10">
+        <v>2.1592988600728962E-3</v>
+      </c>
+      <c r="AB10">
+        <v>6.9211200045286653E-6</v>
+      </c>
+      <c r="AC10">
+        <v>2.2142863425399012E-3</v>
+      </c>
+      <c r="AD10">
+        <v>1.254257594222756E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.502961345798811E-06</v>
+        <v>5.7723362335886297E-6</v>
       </c>
       <c r="C11">
-        <v>0.03931277703994374</v>
+        <v>3.3868008382113818E-2</v>
       </c>
       <c r="D11">
-        <v>0.002716965548568772</v>
+        <v>2.067833715980954E-3</v>
       </c>
       <c r="E11">
-        <v>0.04183616071246468</v>
+        <v>3.6171352241104057E-2</v>
       </c>
       <c r="F11">
-        <v>6.899864297263433</v>
+        <v>6.8998643650255698</v>
       </c>
       <c r="K11">
-        <v>8.288287169590363</v>
+        <v>6.0351746447266663</v>
       </c>
       <c r="L11">
-        <v>8.659392065687294</v>
+        <v>4.9039809169154296</v>
       </c>
       <c r="M11">
-        <v>8.306825355248758</v>
+        <v>6.0650838512716954</v>
       </c>
       <c r="N11">
-        <v>0.01068266983811001</v>
+        <v>3.2606198216869752E-3</v>
       </c>
       <c r="O11">
-        <v>0.00089896908751295</v>
+        <v>2.0407139294911929E-4</v>
       </c>
       <c r="P11">
-        <v>0.009559105232620669</v>
+        <v>9.032917170569579E-3</v>
       </c>
       <c r="Q11">
-        <v>0.0007338385655797759</v>
+        <v>5.9991832109503526E-3</v>
       </c>
       <c r="R11">
-        <v>0.0007813280218938971</v>
+        <v>3.4975278995975049E-4</v>
       </c>
       <c r="S11">
-        <v>1.988661805697847E-06</v>
+        <v>1.0968952762133341E-5</v>
       </c>
       <c r="T11">
-        <v>0.002798585491392648</v>
+        <v>1.169670949322995E-2</v>
       </c>
       <c r="U11">
-        <v>0.0007244660697673272</v>
+        <v>2.1883629545987448E-3</v>
       </c>
       <c r="V11">
-        <v>9.772967306792808</v>
+        <v>29.342582131007291</v>
       </c>
       <c r="W11">
-        <v>3.048807573382501</v>
+        <v>-2.876911846445243</v>
       </c>
       <c r="X11">
-        <v>0.0001631514753586961</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>1.2196563616473571E-2</v>
+      </c>
+      <c r="Z11">
+        <v>1.253713626392966E-2</v>
+      </c>
+      <c r="AA11">
+        <v>2.1813116639255951E-3</v>
+      </c>
+      <c r="AB11">
+        <v>7.0512906731507144E-6</v>
+      </c>
+      <c r="AC11">
+        <v>2.2375644438695059E-3</v>
+      </c>
+      <c r="AD11">
+        <v>1.2540302198953071E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.493928905408944E-06</v>
+        <v>5.7640997230627342E-6</v>
       </c>
       <c r="C12">
-        <v>0.03971939716762569</v>
+        <v>3.4221343656181971E-2</v>
       </c>
       <c r="D12">
-        <v>0.002750644453096384</v>
+        <v>2.093347126904815E-3</v>
       </c>
       <c r="E12">
-        <v>0.04228974719869817</v>
+        <v>3.6568380253951163E-2</v>
       </c>
       <c r="F12">
-        <v>6.899848800475452</v>
+        <v>6.8998488768155912</v>
       </c>
       <c r="K12">
-        <v>8.286915152477567</v>
+        <v>6.0392760656761677</v>
       </c>
       <c r="L12">
-        <v>8.655825291717308</v>
+        <v>4.9086299234940514</v>
       </c>
       <c r="M12">
-        <v>8.30573606680108</v>
+        <v>6.0694781984084836</v>
       </c>
       <c r="N12">
-        <v>0.01079137762422776</v>
+        <v>3.2945814708951731E-3</v>
       </c>
       <c r="O12">
-        <v>0.0009082474294709132</v>
+        <v>2.0661760857073789E-4</v>
       </c>
       <c r="P12">
-        <v>0.009657163751143345</v>
+        <v>9.0666253256764598E-3</v>
       </c>
       <c r="Q12">
-        <v>0.0007428621094736215</v>
+        <v>6.0018749122033492E-3</v>
       </c>
       <c r="R12">
-        <v>0.0007899873481170994</v>
+        <v>3.5351705481750169E-4</v>
       </c>
       <c r="S12">
-        <v>2.013312154267969E-06</v>
+        <v>1.1031324102932329E-5</v>
       </c>
       <c r="T12">
-        <v>0.00282163126274404</v>
+        <v>1.1802357788103641E-2</v>
       </c>
       <c r="U12">
-        <v>0.0007306638131855459</v>
+        <v>2.211010671143562E-3</v>
       </c>
       <c r="V12">
-        <v>9.815182159497343</v>
+        <v>29.491299256678669</v>
       </c>
       <c r="W12">
-        <v>3.062293551025469</v>
+        <v>-2.8418700366824869</v>
       </c>
       <c r="X12">
-        <v>0.0001652766262018662</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>1.231098593000619E-2</v>
+      </c>
+      <c r="Z12">
+        <v>1.265763866778946E-2</v>
+      </c>
+      <c r="AA12">
+        <v>2.2038253125490292E-3</v>
+      </c>
+      <c r="AB12">
+        <v>7.1853585945324163E-6</v>
+      </c>
+      <c r="AC12">
+        <v>2.2613821236071949E-3</v>
+      </c>
+      <c r="AD12">
+        <v>1.2538005403221349E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.484699826407685E-06</v>
+        <v>5.7556817552729722E-6</v>
       </c>
       <c r="C13">
-        <v>0.04013477641160917</v>
+        <v>3.4582332381230027E-2</v>
       </c>
       <c r="D13">
-        <v>0.002785179331682106</v>
+        <v>2.1195048287896271E-3</v>
       </c>
       <c r="E13">
-        <v>0.04275344881622194</v>
+        <v>3.6974348466725128E-2</v>
       </c>
       <c r="F13">
-        <v>6.899833213479416</v>
+        <v>6.8998332986366604</v>
       </c>
       <c r="K13">
-        <v>8.285527464375235</v>
+        <v>6.0434199915820859</v>
       </c>
       <c r="L13">
-        <v>8.652219188476034</v>
+        <v>4.9133496616271248</v>
       </c>
       <c r="M13">
-        <v>8.304646709379483</v>
+        <v>6.0739209400812264</v>
       </c>
       <c r="N13">
-        <v>0.01090242403091042</v>
+        <v>3.3292776940673581E-3</v>
       </c>
       <c r="O13">
-        <v>0.0009177536109089388</v>
+        <v>2.0922853600567799E-4</v>
       </c>
       <c r="P13">
-        <v>0.009757324443746376</v>
+        <v>9.1010607235806531E-3</v>
       </c>
       <c r="Q13">
-        <v>0.0007521086743160311</v>
+        <v>6.004633378481011E-3</v>
       </c>
       <c r="R13">
-        <v>0.0007988409889706145</v>
+        <v>3.5736520909519358E-4</v>
       </c>
       <c r="S13">
-        <v>2.038515288828963E-06</v>
+        <v>1.109406655291614E-5</v>
       </c>
       <c r="T13">
-        <v>0.002845125279031214</v>
+        <v>1.1910125733238019E-2</v>
       </c>
       <c r="U13">
-        <v>0.0007370016140094641</v>
+        <v>2.2341810108977051E-3</v>
       </c>
       <c r="V13">
-        <v>9.857761114029781</v>
+        <v>29.64228349726276</v>
       </c>
       <c r="W13">
-        <v>3.075908431596531</v>
+        <v>-2.8064772149121069</v>
       </c>
       <c r="X13">
-        <v>0.0001674502948792302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>1.242777259671995E-2</v>
+      </c>
+      <c r="Z13">
+        <v>1.2780677623964251E-2</v>
+      </c>
+      <c r="AA13">
+        <v>2.2268575325849632E-3</v>
+      </c>
+      <c r="AB13">
+        <v>7.3234783127428118E-6</v>
+      </c>
+      <c r="AC13">
+        <v>2.2857586888201972E-3</v>
+      </c>
+      <c r="AD13">
+        <v>1.253568480471403E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.475267594417666E-06</v>
+        <v>5.7470762482861911E-6</v>
       </c>
       <c r="C14">
-        <v>0.04055920365115379</v>
+        <v>3.4951228148871402E-2</v>
       </c>
       <c r="D14">
-        <v>0.002820603152018983</v>
+        <v>2.1463314741972041E-3</v>
       </c>
       <c r="E14">
-        <v>0.0432276074297842</v>
+        <v>3.7389561863648182E-2</v>
       </c>
       <c r="F14">
-        <v>6.899817534331491</v>
+        <v>6.8998176285539552</v>
       </c>
       <c r="K14">
-        <v>8.2841399570269</v>
+        <v>6.0476069832487909</v>
       </c>
       <c r="L14">
-        <v>8.648572449719062</v>
+        <v>4.918142617751891</v>
       </c>
       <c r="M14">
-        <v>8.30355731549524</v>
+        <v>6.0784139309006067</v>
       </c>
       <c r="N14">
-        <v>0.01101588619477407</v>
+        <v>3.3647327981362412E-3</v>
       </c>
       <c r="O14">
-        <v>0.000927496564252661</v>
+        <v>2.1190689849784691E-4</v>
       </c>
       <c r="P14">
-        <v>0.009859656441126267</v>
+        <v>9.1362473979567857E-3</v>
       </c>
       <c r="Q14">
-        <v>0.0007615872685732951</v>
+        <v>6.0074567606911884E-3</v>
       </c>
       <c r="R14">
-        <v>0.0008078955625351802</v>
+        <v>3.6130010844226488E-4</v>
       </c>
       <c r="S14">
-        <v>2.064291074555881E-06</v>
+        <v>1.1157164045038119E-5</v>
       </c>
       <c r="T14">
-        <v>0.002869081229770098</v>
+        <v>1.202007965053734E-2</v>
       </c>
       <c r="U14">
-        <v>0.000743484367957507</v>
+        <v>2.2578928490361249E-3</v>
       </c>
       <c r="V14">
-        <v>9.900776372908462</v>
+        <v>29.795595282692169</v>
       </c>
       <c r="W14">
-        <v>3.089683804003663</v>
+        <v>-2.770728035534141</v>
       </c>
       <c r="X14">
-        <v>0.0001696752215241385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>1.254699929606979E-2</v>
+      </c>
+      <c r="Z14">
+        <v>1.2906335485174281E-2</v>
+      </c>
+      <c r="AA14">
+        <v>2.2504270085923102E-3</v>
+      </c>
+      <c r="AB14">
+        <v>7.465840443814866E-6</v>
+      </c>
+      <c r="AC14">
+        <v>2.3107144581476381E-3</v>
+      </c>
+      <c r="AD14">
+        <v>1.2533340089380681E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.4656254318005E-06</v>
+        <v>5.7382768802799018E-6</v>
       </c>
       <c r="C15">
-        <v>0.04099298066838522</v>
+        <v>3.5328295926741207E-2</v>
       </c>
       <c r="D15">
-        <v>0.002856950576179579</v>
+        <v>2.17385297250832E-3</v>
       </c>
       <c r="E15">
-        <v>0.0437125804206699</v>
+        <v>3.7814339410429013E-2</v>
       </c>
       <c r="F15">
-        <v>6.899801761020132</v>
+        <v>6.8998018645657018</v>
       </c>
       <c r="K15">
-        <v>8.282729400966936</v>
+        <v>6.0518378243670092</v>
       </c>
       <c r="L15">
-        <v>8.644853987051675</v>
+        <v>4.9230091623118222</v>
       </c>
       <c r="M15">
-        <v>8.302453810081259</v>
+        <v>6.0829567811027019</v>
       </c>
       <c r="N15">
-        <v>0.01113184469627432</v>
+        <v>3.400972176293004E-3</v>
       </c>
       <c r="O15">
-        <v>0.000937477316350691</v>
+        <v>2.1465485633647349E-4</v>
       </c>
       <c r="P15">
-        <v>0.009964231948856761</v>
+        <v>9.1722105087299541E-3</v>
       </c>
       <c r="Q15">
-        <v>0.0007713098237205533</v>
+        <v>6.0103555036793918E-3</v>
       </c>
       <c r="R15">
-        <v>0.0008171579909427736</v>
+        <v>3.6532473998706071E-4</v>
       </c>
       <c r="S15">
-        <v>2.090726521425561E-06</v>
+        <v>1.1220603134171651E-5</v>
       </c>
       <c r="T15">
-        <v>0.002893513377607025</v>
+        <v>1.213228869423276E-2</v>
       </c>
       <c r="U15">
-        <v>0.0007501105948983124</v>
+        <v>2.2821659077332849E-3</v>
       </c>
       <c r="V15">
-        <v>9.944278028066448</v>
+        <v>29.951297514874948</v>
       </c>
       <c r="W15">
-        <v>3.103581742967261</v>
+        <v>-2.7346129064549061</v>
       </c>
       <c r="X15">
-        <v>0.0001719516780164299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>1.266874498356607E-2</v>
+      </c>
+      <c r="Z15">
+        <v>1.30346982096151E-2</v>
+      </c>
+      <c r="AA15">
+        <v>2.2745533151282641E-3</v>
+      </c>
+      <c r="AB15">
+        <v>7.6125926050213977E-6</v>
+      </c>
+      <c r="AC15">
+        <v>2.3362707212606871E-3</v>
+      </c>
+      <c r="AD15">
+        <v>1.2530970818354481E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.455766233953048E-06</v>
+        <v>5.7292769914403373E-6</v>
       </c>
       <c r="C16">
-        <v>0.0414364228787597</v>
+        <v>3.5713812705278812E-2</v>
       </c>
       <c r="D16">
-        <v>0.002894258093425196</v>
+        <v>2.2020965989956271E-3</v>
       </c>
       <c r="E16">
-        <v>0.04420874155353642</v>
+        <v>3.8249014820580407E-2</v>
       </c>
       <c r="F16">
-        <v>6.899785891463513</v>
+        <v>6.8997860046000437</v>
       </c>
       <c r="K16">
-        <v>8.281313047325421</v>
+        <v>6.0561137934157996</v>
       </c>
       <c r="L16">
-        <v>8.641091621211093</v>
+        <v>4.9279524224940197</v>
       </c>
       <c r="M16">
-        <v>8.301350016574105</v>
+        <v>6.0875522366028516</v>
       </c>
       <c r="N16">
-        <v>0.01125038385185483</v>
+        <v>3.4380223776878469E-3</v>
       </c>
       <c r="O16">
-        <v>0.0009477126420452507</v>
+        <v>2.1747564569992269E-4</v>
       </c>
       <c r="P16">
-        <v>0.0100711263921723</v>
+        <v>9.2089762646026356E-3</v>
       </c>
       <c r="Q16">
-        <v>0.0007812823580161403</v>
+        <v>6.0133243254738896E-3</v>
       </c>
       <c r="R16">
-        <v>0.0008266355172732544</v>
+        <v>3.6944222995046637E-4</v>
       </c>
       <c r="S16">
-        <v>2.117778624794262E-06</v>
+        <v>1.128435505058022E-5</v>
       </c>
       <c r="T16">
-        <v>0.002918436665778056</v>
+        <v>1.224682500570368E-2</v>
       </c>
       <c r="U16">
-        <v>0.000756892095719097</v>
+        <v>2.307020891253338E-3</v>
       </c>
       <c r="V16">
-        <v>9.988313836403369</v>
+        <v>30.109455661039981</v>
       </c>
       <c r="W16">
-        <v>3.117636618420072</v>
+        <v>-2.6981258915961881</v>
       </c>
       <c r="X16">
-        <v>0.0001742826459683621</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>1.2793092076140549E-2</v>
+      </c>
+      <c r="Z16">
+        <v>1.3165855560698681E-2</v>
+      </c>
+      <c r="AA16">
+        <v>2.299256942457853E-3</v>
+      </c>
+      <c r="AB16">
+        <v>7.763948795484521E-6</v>
+      </c>
+      <c r="AC16">
+        <v>2.3624498040730108E-3</v>
+      </c>
+      <c r="AD16">
+        <v>1.2528576275687151E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.445682594520634E-06</v>
+        <v>5.7200696512924438E-6</v>
       </c>
       <c r="C17">
-        <v>0.04188986011152835</v>
+        <v>3.6108068188882139E-2</v>
       </c>
       <c r="D17">
-        <v>0.002932564120667594</v>
+        <v>2.231091056060158E-3</v>
       </c>
       <c r="E17">
-        <v>0.04471648193656301</v>
+        <v>3.8693937453316507E-2</v>
       </c>
       <c r="F17">
-        <v>6.899769923505541</v>
+        <v>6.8997700465116374</v>
       </c>
       <c r="K17">
-        <v>8.279891279971515</v>
+        <v>6.060435706625932</v>
       </c>
       <c r="L17">
-        <v>8.637282765367299</v>
+        <v>4.9329739623002018</v>
       </c>
       <c r="M17">
-        <v>8.300244908011795</v>
+        <v>6.092200692317129</v>
       </c>
       <c r="N17">
-        <v>0.01137159174844082</v>
+        <v>3.4759111627700582E-3</v>
       </c>
       <c r="O17">
-        <v>0.000958211632382497</v>
+        <v>2.203719072327932E-4</v>
       </c>
       <c r="P17">
-        <v>0.01018041867492708</v>
+        <v>9.246572169768855E-3</v>
       </c>
       <c r="Q17">
-        <v>0.0007915146698611627</v>
+        <v>6.0163692345468868E-3</v>
       </c>
       <c r="R17">
-        <v>0.0008363357259632363</v>
+        <v>3.7365585200811209E-4</v>
       </c>
       <c r="S17">
-        <v>2.145476032957361E-06</v>
+        <v>1.134840353523907E-5</v>
       </c>
       <c r="T17">
-        <v>0.002943866601896397</v>
+        <v>1.2363763877638391E-2</v>
       </c>
       <c r="U17">
-        <v>0.0007638339766735359</v>
+        <v>2.3324795735876012E-3</v>
       </c>
       <c r="V17">
-        <v>10.03292408707647</v>
+        <v>30.27013788882098</v>
       </c>
       <c r="W17">
-        <v>3.131852766761</v>
+        <v>-2.661258681643432</v>
       </c>
       <c r="X17">
-        <v>0.0001766700644380604</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>1.292012666890383E-2</v>
+      </c>
+      <c r="Z17">
+        <v>1.3299901350494209E-2</v>
+      </c>
+      <c r="AA17">
+        <v>2.3245594718701609E-3</v>
+      </c>
+      <c r="AB17">
+        <v>7.9201017174400387E-6</v>
+      </c>
+      <c r="AC17">
+        <v>2.3892751951885682E-3</v>
+      </c>
+      <c r="AD17">
+        <v>1.252615600428948E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.435366752651641E-06</v>
+        <v>5.7106476092737774E-6</v>
       </c>
       <c r="C18">
-        <v>0.04235363744475289</v>
+        <v>3.6511365535701452E-2</v>
       </c>
       <c r="D18">
-        <v>0.002971909147998717</v>
+        <v>2.2608665790085892E-3</v>
       </c>
       <c r="E18">
-        <v>0.04523621101857302</v>
+        <v>3.9149473219872548E-2</v>
       </c>
       <c r="F18">
-        <v>6.899753854912747</v>
+        <v>6.8997539880781096</v>
       </c>
       <c r="K18">
-        <v>8.278458094121321</v>
+        <v>6.0648045755302302</v>
       </c>
       <c r="L18">
-        <v>8.633422724898931</v>
+        <v>4.9380756918672812</v>
       </c>
       <c r="M18">
-        <v>8.299137313491576</v>
+        <v>6.0969035894891581</v>
       </c>
       <c r="N18">
-        <v>0.01149556055934628</v>
+        <v>3.514667582478836E-3</v>
       </c>
       <c r="O18">
-        <v>0.0009689847358735743</v>
+        <v>2.233468066396689E-4</v>
       </c>
       <c r="P18">
-        <v>0.01029219134165405</v>
+        <v>9.2850269666167363E-3</v>
       </c>
       <c r="Q18">
-        <v>0.000802018261065446</v>
+        <v>6.0194938265536457E-3</v>
       </c>
       <c r="R18">
-        <v>0.0008462665622719301</v>
+        <v>3.779690359185035E-4</v>
       </c>
       <c r="S18">
-        <v>2.173848116092851E-06</v>
+        <v>1.141272418139902E-5</v>
       </c>
       <c r="T18">
-        <v>0.002969819371244288</v>
+        <v>1.248318392887709E-2</v>
       </c>
       <c r="U18">
-        <v>0.0007709415025657657</v>
+        <v>2.3585648187672442E-3</v>
       </c>
       <c r="V18">
-        <v>10.07814392856896</v>
+        <v>30.43341517040491</v>
       </c>
       <c r="W18">
-        <v>3.1462232987977</v>
+        <v>-2.6240023973836522</v>
       </c>
       <c r="X18">
-        <v>0.0001791155952808205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>1.3049938697462869E-2</v>
+      </c>
+      <c r="Z18">
+        <v>1.3436933621069531E-2</v>
+      </c>
+      <c r="AA18">
+        <v>2.3504835602333931E-3</v>
+      </c>
+      <c r="AB18">
+        <v>8.0812585338504485E-6</v>
+      </c>
+      <c r="AC18">
+        <v>2.4167715642579978E-3</v>
+      </c>
+      <c r="AD18">
+        <v>1.252370943770307E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.42481059283835E-06</v>
+        <v>5.701003252231254E-6</v>
       </c>
       <c r="C19">
-        <v>0.04282811609893065</v>
+        <v>3.6924022149637512E-2</v>
       </c>
       <c r="D19">
-        <v>0.003012335869728642</v>
+        <v>2.291455047542041E-3</v>
       </c>
       <c r="E19">
-        <v>0.04576835767844363</v>
+        <v>3.9616005557196063E-2</v>
       </c>
       <c r="F19">
-        <v>6.899737683370265</v>
+        <v>6.8997378269963141</v>
       </c>
       <c r="K19">
-        <v>8.27701314103529</v>
+        <v>6.0692211479582578</v>
       </c>
       <c r="L19">
-        <v>8.629508319925073</v>
+        <v>4.9432592903162824</v>
       </c>
       <c r="M19">
-        <v>8.298025856790876</v>
+        <v>6.1016616700727466</v>
       </c>
       <c r="N19">
-        <v>0.01162238677408691</v>
+        <v>3.55432204965762E-3</v>
       </c>
       <c r="O19">
-        <v>0.0009800407442199053</v>
+        <v>2.264033414842825E-4</v>
       </c>
       <c r="P19">
-        <v>0.01040653077635994</v>
+        <v>9.3243707393885801E-3</v>
       </c>
       <c r="Q19">
-        <v>0.0008128027344057366</v>
+        <v>6.0227024924262877E-3</v>
       </c>
       <c r="R19">
-        <v>0.0008564363540087475</v>
+        <v>3.8238537702376979E-4</v>
       </c>
       <c r="S19">
-        <v>2.202927299149845E-06</v>
+        <v>1.147728976210436E-5</v>
       </c>
       <c r="T19">
-        <v>0.002996311875686197</v>
+        <v>1.26051672916495E-2</v>
       </c>
       <c r="U19">
-        <v>0.0007782202672784204</v>
+        <v>2.3853007105197892E-3</v>
       </c>
       <c r="V19">
-        <v>10.12400505280613</v>
+        <v>30.59936145288756</v>
       </c>
       <c r="W19">
-        <v>3.160751365244671</v>
+        <v>-2.586350402920615</v>
       </c>
       <c r="X19">
-        <v>0.0001816213340608324</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>1.318262219790161E-2</v>
+      </c>
+      <c r="Z19">
+        <v>1.3577054927799259E-2</v>
+      </c>
+      <c r="AA19">
+        <v>2.3770530828796741E-3</v>
+      </c>
+      <c r="AB19">
+        <v>8.2476276401152963E-6</v>
+      </c>
+      <c r="AC19">
+        <v>2.444964895624166E-3</v>
+      </c>
+      <c r="AD19">
+        <v>1.2521236157143381E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.414005623568694E-06</v>
+        <v>5.6911286275200014E-6</v>
       </c>
       <c r="C20">
-        <v>0.04331367439440872</v>
+        <v>3.7346370528931347E-2</v>
       </c>
       <c r="D20">
-        <v>0.003053889335861902</v>
+        <v>2.3228900826500181E-3</v>
       </c>
       <c r="E20">
-        <v>0.04631337138220623</v>
+        <v>4.0093936505369507E-2</v>
       </c>
       <c r="F20">
-        <v>6.899721406477664</v>
+        <v>6.8997215608782483</v>
       </c>
       <c r="K20">
-        <v>8.275548744078938</v>
+        <v>6.0736867461160937</v>
       </c>
       <c r="L20">
-        <v>8.625503068249307</v>
+        <v>4.9485278252466482</v>
       </c>
       <c r="M20">
-        <v>8.296895285372887</v>
+        <v>6.1064772270498411</v>
       </c>
       <c r="N20">
-        <v>0.01175217148176822</v>
+        <v>3.5949064241475388E-3</v>
       </c>
       <c r="O20">
-        <v>0.0009913840402468546</v>
+        <v>2.295452499935654E-4</v>
       </c>
       <c r="P20">
-        <v>0.0105235274597984</v>
+        <v>9.3646349863027532E-3</v>
       </c>
       <c r="Q20">
-        <v>0.0008238852599005929</v>
+        <v>6.0259944561692584E-3</v>
       </c>
       <c r="R20">
-        <v>0.000866853834822279</v>
+        <v>3.8690864638061937E-4</v>
       </c>
       <c r="S20">
-        <v>2.232818026683208E-06</v>
+        <v>1.1542063248361879E-5</v>
       </c>
       <c r="T20">
-        <v>0.003023361773349706</v>
+        <v>1.272979981093156E-2</v>
       </c>
       <c r="U20">
-        <v>0.00078566944341334</v>
+        <v>2.4127125427211762E-3</v>
       </c>
       <c r="V20">
-        <v>10.17053186958814</v>
+        <v>30.768053767791709</v>
       </c>
       <c r="W20">
-        <v>3.175427633683167</v>
+        <v>-2.5482922486751818</v>
       </c>
       <c r="X20">
-        <v>0.0001841890451407593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>1.331827552525728E-2</v>
+      </c>
+      <c r="Z20">
+        <v>1.3720372585696991E-2</v>
+      </c>
+      <c r="AA20">
+        <v>2.4042930748403271E-3</v>
+      </c>
+      <c r="AB20">
+        <v>8.4194678808490955E-6</v>
+      </c>
+      <c r="AC20">
+        <v>2.4738824804442991E-3</v>
+      </c>
+      <c r="AD20">
+        <v>1.251873542217499E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.402942946633876E-06</v>
+        <v>5.6810153782765427E-6</v>
       </c>
       <c r="C21">
-        <v>0.04381070877784756</v>
+        <v>3.7778759176416307E-2</v>
       </c>
       <c r="D21">
-        <v>0.003096617120273344</v>
+        <v>2.3552071825073172E-3</v>
       </c>
       <c r="E21">
-        <v>0.04687172342170341</v>
+        <v>4.0583687819225722E-2</v>
       </c>
       <c r="F21">
-        <v>6.899705021744861</v>
+        <v>6.8997051872468527</v>
       </c>
       <c r="K21">
-        <v>8.274078084854125</v>
+        <v>6.0782024952924916</v>
       </c>
       <c r="L21">
-        <v>8.621461900738501</v>
+        <v>4.9538828400958286</v>
       </c>
       <c r="M21">
-        <v>8.295770174976775</v>
+        <v>6.1113508728307684</v>
       </c>
       <c r="N21">
-        <v>0.01188502070944132</v>
+        <v>3.6364540929642538E-3</v>
       </c>
       <c r="O21">
-        <v>0.001003039513414968</v>
+        <v>2.327758488092336E-4</v>
       </c>
       <c r="P21">
-        <v>0.01064327612893294</v>
+        <v>9.4058527706253874E-3</v>
       </c>
       <c r="Q21">
-        <v>0.0008352706062782489</v>
+        <v>6.0293764540939633E-3</v>
       </c>
       <c r="R21">
-        <v>0.0008775281683629654</v>
+        <v>3.9154280172793121E-4</v>
       </c>
       <c r="S21">
-        <v>2.263425014219109E-06</v>
+        <v>1.160701790174637E-5</v>
       </c>
       <c r="T21">
-        <v>0.003050987604583489</v>
+        <v>1.2857171258687249E-2</v>
       </c>
       <c r="U21">
-        <v>0.0007933075720227971</v>
+        <v>2.44082694989567E-3</v>
       </c>
       <c r="V21">
-        <v>10.2177568956893</v>
+        <v>30.93957239915154</v>
       </c>
       <c r="W21">
-        <v>3.190279731103665</v>
+        <v>-2.5098199612898782</v>
       </c>
       <c r="X21">
-        <v>0.0001868219086995645</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>1.3457001589954731E-2</v>
+      </c>
+      <c r="Z21">
+        <v>1.3866998929747231E-2</v>
+      </c>
+      <c r="AA21">
+        <v>2.432229946174415E-3</v>
+      </c>
+      <c r="AB21">
+        <v>8.597003721255213E-6</v>
+      </c>
+      <c r="AC21">
+        <v>2.503553087142871E-3</v>
+      </c>
+      <c r="AD21">
+        <v>1.251620660263621E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.391613237633038E-06</v>
+        <v>5.6706547515920723E-6</v>
       </c>
       <c r="C22">
-        <v>0.04431963492356724</v>
+        <v>3.8221553576340168E-2</v>
       </c>
       <c r="D22">
-        <v>0.003140569496469283</v>
+        <v>2.388443842663257E-3</v>
       </c>
       <c r="E22">
-        <v>0.0474439082480923</v>
+        <v>4.1085702200689647E-2</v>
       </c>
       <c r="F22">
-        <v>6.899688526587492</v>
+        <v>6.8996887035314716</v>
       </c>
       <c r="K22">
-        <v>8.272599735109532</v>
+        <v>6.0827693658223314</v>
       </c>
       <c r="L22">
-        <v>8.617358001248011</v>
+        <v>4.9593269232123847</v>
       </c>
       <c r="M22">
-        <v>8.294640885122037</v>
+        <v>6.1162843079349356</v>
       </c>
       <c r="N22">
-        <v>0.01202104547439165</v>
+        <v>3.679000071016192E-3</v>
       </c>
       <c r="O22">
-        <v>0.001015014748736654</v>
+        <v>2.360990338146294E-4</v>
       </c>
       <c r="P22">
-        <v>0.01076587619796613</v>
+        <v>9.4480587245820303E-3</v>
       </c>
       <c r="Q22">
-        <v>0.000846974229611795</v>
+        <v>6.0328508729636469E-3</v>
       </c>
       <c r="R22">
-        <v>0.0008884689776548247</v>
+        <v>3.962919990257585E-4</v>
       </c>
       <c r="S22">
-        <v>2.294827910603081E-06</v>
+        <v>1.1672118439637969E-5</v>
       </c>
       <c r="T22">
-        <v>0.003079208604990497</v>
+        <v>1.298737556254714E-2</v>
       </c>
       <c r="U22">
-        <v>0.0008011371957431705</v>
+        <v>2.4696720521343888E-3</v>
       </c>
       <c r="V22">
-        <v>10.26570815063541</v>
+        <v>31.11400110026122</v>
       </c>
       <c r="W22">
-        <v>3.205309562865139</v>
+        <v>-2.4709252725675839</v>
       </c>
       <c r="X22">
-        <v>0.0001895223272029629</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>1.359890814693882E-2</v>
+      </c>
+      <c r="Z22">
+        <v>1.4017051636064211E-2</v>
+      </c>
+      <c r="AA22">
+        <v>2.460891542971644E-3</v>
+      </c>
+      <c r="AB22">
+        <v>8.7805091627445039E-6</v>
+      </c>
+      <c r="AC22">
+        <v>2.534007049946958E-3</v>
+      </c>
+      <c r="AD22">
+        <v>1.25136491551395E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.380006725739019E-06</v>
+        <v>5.6600375861559241E-6</v>
       </c>
       <c r="C23">
-        <v>0.04484088891631532</v>
+        <v>3.8675137243855073E-2</v>
       </c>
       <c r="D23">
-        <v>0.003185799627745469</v>
+        <v>2.4226396932935921E-3</v>
       </c>
       <c r="E23">
-        <v>0.04803044490280432</v>
+        <v>4.1600444612593587E-2</v>
       </c>
       <c r="F23">
-        <v>6.899671918321796</v>
+        <v>6.8996721070629334</v>
       </c>
       <c r="K23">
-        <v>8.271104773766485</v>
+        <v>6.0873885842284876</v>
       </c>
       <c r="L23">
-        <v>8.613200471914331</v>
+        <v>4.9648628685499059</v>
       </c>
       <c r="M23">
-        <v>8.29351080316885</v>
+        <v>6.1212792940447081</v>
       </c>
       <c r="N23">
-        <v>0.01216036231902019</v>
+        <v>3.722581096803553E-3</v>
       </c>
       <c r="O23">
-        <v>0.001027325508213643</v>
+        <v>2.3951890354670469E-4</v>
       </c>
       <c r="P23">
-        <v>0.01089143191908454</v>
+        <v>9.4912892037164395E-3</v>
       </c>
       <c r="Q23">
-        <v>0.000859009155319301</v>
+        <v>6.0364203012600159E-3</v>
       </c>
       <c r="R23">
-        <v>0.0008996863719553844</v>
+        <v>4.0116060510912721E-4</v>
       </c>
       <c r="S23">
-        <v>2.327039963374439E-06</v>
+        <v>1.173732491578439E-5</v>
       </c>
       <c r="T23">
-        <v>0.003108044951942995</v>
+        <v>1.312051105002073E-2</v>
       </c>
       <c r="U23">
-        <v>0.0008091674420768391</v>
+        <v>2.4992774556193849E-3</v>
       </c>
       <c r="V23">
-        <v>10.31441437246737</v>
+        <v>31.291427251644041</v>
       </c>
       <c r="W23">
-        <v>3.220505718652511</v>
+        <v>-2.431595792852391</v>
       </c>
       <c r="X23">
-        <v>0.0001922922650646564</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>1.3744108089110739E-2</v>
+      </c>
+      <c r="Z23">
+        <v>1.4170654047799391E-2</v>
+      </c>
+      <c r="AA23">
+        <v>2.4903071905953578E-3</v>
+      </c>
+      <c r="AB23">
+        <v>8.970265024027679E-6</v>
+      </c>
+      <c r="AC23">
+        <v>2.5652763336608949E-3</v>
+      </c>
+      <c r="AD23">
+        <v>1.2511062392832051E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.368113154559891E-06</v>
+        <v>5.6491542233499912E-6</v>
       </c>
       <c r="C24">
-        <v>0.04537492852257904</v>
+        <v>3.9139912853477649E-2</v>
       </c>
       <c r="D24">
-        <v>0.003232363782987541</v>
+        <v>2.45783667641454E-3</v>
       </c>
       <c r="E24">
-        <v>0.04863187854954534</v>
+        <v>4.2128403650333719E-2</v>
       </c>
       <c r="F24">
-        <v>6.899655194159815</v>
+        <v>6.899655395068514</v>
       </c>
       <c r="K24">
-        <v>8.269597851721072</v>
+        <v>6.0920613700689197</v>
       </c>
       <c r="L24">
-        <v>8.608963209889138</v>
+        <v>4.9704930007003556</v>
       </c>
       <c r="M24">
-        <v>8.292369883352881</v>
+        <v>6.1263372108910152</v>
       </c>
       <c r="N24">
-        <v>0.01230309356018438</v>
+        <v>3.7672357403068461E-3</v>
       </c>
       <c r="O24">
-        <v>0.001039979783075747</v>
+        <v>2.4303965569666329E-4</v>
       </c>
       <c r="P24">
-        <v>0.01102005272374819</v>
+        <v>9.535582394773574E-3</v>
       </c>
       <c r="Q24">
-        <v>0.0008713916981674438</v>
+        <v>6.0400894095798911E-3</v>
       </c>
       <c r="R24">
-        <v>0.0009111909787757949</v>
+        <v>4.061532112654521E-4</v>
       </c>
       <c r="S24">
-        <v>2.360148200052322E-06</v>
+        <v>1.1802587955376421E-5</v>
       </c>
       <c r="T24">
-        <v>0.003137517740531022</v>
+        <v>1.3256680711487411E-2</v>
       </c>
       <c r="U24">
-        <v>0.0008174015100049644</v>
+        <v>2.5296744177912738E-3</v>
       </c>
       <c r="V24">
-        <v>10.36390125004182</v>
+        <v>31.471942078427929</v>
       </c>
       <c r="W24">
-        <v>3.23588118255077</v>
+        <v>-2.391824207454242</v>
       </c>
       <c r="X24">
-        <v>0.0001951347734028494</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>1.389271971702997E-2</v>
+      </c>
+      <c r="Z24">
+        <v>1.4327935472772431E-2</v>
+      </c>
+      <c r="AA24">
+        <v>2.5205078553583379E-3</v>
+      </c>
+      <c r="AB24">
+        <v>9.1665624329362041E-6</v>
+      </c>
+      <c r="AC24">
+        <v>2.597394687057913E-3</v>
+      </c>
+      <c r="AD24">
+        <v>1.2508445632761409E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.355921758585397E-06</v>
+        <v>5.6379945462848787E-6</v>
       </c>
       <c r="C25">
-        <v>0.04592223455815815</v>
+        <v>3.961630345317977E-2</v>
       </c>
       <c r="D25">
-        <v>0.003280321561807067</v>
+        <v>2.4940791890161098E-3</v>
       </c>
       <c r="E25">
-        <v>0.04924878212705904</v>
+        <v>4.2670093090945951E-2</v>
       </c>
       <c r="F25">
-        <v>6.89963835120361</v>
+        <v>6.8996385646663967</v>
       </c>
       <c r="K25">
-        <v>8.268083087777093</v>
+        <v>6.0967888680997904</v>
       </c>
       <c r="L25">
-        <v>8.604678334933864</v>
+        <v>4.9762193400098891</v>
       </c>
       <c r="M25">
-        <v>8.291233132652641</v>
+        <v>6.1314593188875257</v>
       </c>
       <c r="N25">
-        <v>0.01244936776508189</v>
+        <v>3.8130045206264591E-3</v>
       </c>
       <c r="O25">
-        <v>0.001053001383755694</v>
+        <v>2.4666564184898208E-4</v>
       </c>
       <c r="P25">
-        <v>0.0111518535162882</v>
+        <v>9.5809784075682972E-3</v>
       </c>
       <c r="Q25">
-        <v>0.0008841330342253957</v>
+        <v>6.0438640284875529E-3</v>
       </c>
       <c r="R25">
-        <v>0.0009229939765754799</v>
+        <v>4.112746479318167E-4</v>
       </c>
       <c r="S25">
-        <v>2.39410748546801E-06</v>
+        <v>1.1867864746352611E-5</v>
       </c>
       <c r="T25">
-        <v>0.003167649120148244</v>
+        <v>1.3395992481535409E-2</v>
       </c>
       <c r="U25">
-        <v>0.0008258551184116917</v>
+        <v>2.5608959441757221E-3</v>
       </c>
       <c r="V25">
-        <v>10.41419936729283</v>
+        <v>31.655640869903689</v>
       </c>
       <c r="W25">
-        <v>3.25144791916</v>
+        <v>-2.351599756628687</v>
       </c>
       <c r="X25">
-        <v>0.0001980529829182991</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>1.404486711552788E-2</v>
+      </c>
+      <c r="Z25">
+        <v>1.4489031602651029E-2</v>
+      </c>
+      <c r="AA25">
+        <v>2.5515262480676109E-3</v>
+      </c>
+      <c r="AB25">
+        <v>9.3696961081102779E-6</v>
+      </c>
+      <c r="AC25">
+        <v>2.6303977587089781E-3</v>
+      </c>
+      <c r="AD25">
+        <v>1.2505798233864121E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5.343421237575881E-06</v>
+        <v>5.6265479134475374E-6</v>
       </c>
       <c r="C26">
-        <v>0.04648331236074172</v>
+        <v>4.010475377244508E-2</v>
       </c>
       <c r="D26">
-        <v>0.00332973613978412</v>
+        <v>2.5314142787577119E-3</v>
       </c>
       <c r="E26">
-        <v>0.04988175813048638</v>
+        <v>4.3226053502230612E-2</v>
       </c>
       <c r="F26">
-        <v>6.899621386439326</v>
+        <v>6.8996216128598027</v>
       </c>
       <c r="K26">
-        <v>8.266543690633544</v>
+        <v>6.1015722501310004</v>
       </c>
       <c r="L26">
-        <v>8.60028099984223</v>
+        <v>4.9820453423569866</v>
       </c>
       <c r="M26">
-        <v>8.290070936438337</v>
+        <v>6.1366473143269973</v>
       </c>
       <c r="N26">
-        <v>0.01259931995430987</v>
+        <v>3.8599300321893199E-3</v>
       </c>
       <c r="O26">
-        <v>0.001066389516665918</v>
+        <v>2.5040165215540881E-4</v>
       </c>
       <c r="P26">
-        <v>0.0112869551015785</v>
+        <v>9.6275193862404122E-3</v>
       </c>
       <c r="Q26">
-        <v>0.0008972580581391472</v>
+        <v>6.047748442664912E-3</v>
       </c>
       <c r="R26">
-        <v>0.0009351071327477168</v>
+        <v>4.1653000034215168E-4</v>
       </c>
       <c r="S26">
-        <v>2.429117306790677E-06</v>
+        <v>1.1933095491196921E-5</v>
       </c>
       <c r="T26">
-        <v>0.003198462199118462</v>
+        <v>1.353855954123751E-2</v>
       </c>
       <c r="U26">
-        <v>0.0008345223519122507</v>
+        <v>2.592976946555278E-3</v>
       </c>
       <c r="V26">
-        <v>10.46533109950682</v>
+        <v>31.842623235034981</v>
       </c>
       <c r="W26">
-        <v>3.267181480546192</v>
+        <v>-2.3109120502425431</v>
       </c>
       <c r="X26">
-        <v>0.0002010488000283536</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>1.4200680478138911E-2</v>
+      </c>
+      <c r="Z26">
+        <v>1.465408487260344E-2</v>
+      </c>
+      <c r="AA26">
+        <v>2.5833969375206019E-3</v>
+      </c>
+      <c r="AB26">
+        <v>9.5800090346757105E-6</v>
+      </c>
+      <c r="AC26">
+        <v>2.6643232295293631E-3</v>
+      </c>
+      <c r="AD26">
+        <v>1.2503119539926639E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5.3305997142409E-06</v>
+        <v>5.6148031391490766E-6</v>
       </c>
       <c r="C27">
-        <v>0.04705869337702115</v>
+        <v>4.0605731632360913E-2</v>
       </c>
       <c r="D27">
-        <v>0.003380674543621187</v>
+        <v>2.569891837960539E-3</v>
       </c>
       <c r="E27">
-        <v>0.05053144051999112</v>
+        <v>4.3796854006687487E-2</v>
       </c>
       <c r="F27">
-        <v>6.899604296730844</v>
+        <v>6.8996045365307426</v>
       </c>
       <c r="K27">
-        <v>8.265003049288001</v>
+        <v>6.1064130194355126</v>
       </c>
       <c r="L27">
-        <v>8.595849075537224</v>
+        <v>4.9879734448657107</v>
       </c>
       <c r="M27">
-        <v>8.288921913584547</v>
+        <v>6.141903163083934</v>
       </c>
       <c r="N27">
-        <v>0.01275309236014512</v>
+        <v>3.9080570772564386E-3</v>
       </c>
       <c r="O27">
-        <v>0.001080183322460526</v>
+        <v>2.5425282460000032E-4</v>
       </c>
       <c r="P27">
-        <v>0.01142548439549103</v>
+        <v>9.6752496654880869E-3</v>
       </c>
       <c r="Q27">
-        <v>0.0009107726268140302</v>
+        <v>6.0517463540804423E-3</v>
       </c>
       <c r="R27">
-        <v>0.0009475428396202625</v>
+        <v>4.219246257401645E-4</v>
       </c>
       <c r="S27">
-        <v>2.465005080876972E-06</v>
+        <v>1.199822948071922E-5</v>
       </c>
       <c r="T27">
-        <v>0.003229981397081211</v>
+        <v>1.3684500642499939E-2</v>
       </c>
       <c r="U27">
-        <v>0.000843431844553247</v>
+        <v>2.6259542941921401E-3</v>
       </c>
       <c r="V27">
-        <v>10.51733081006562</v>
+        <v>32.032993326607723</v>
       </c>
       <c r="W27">
-        <v>3.283128744055691</v>
+        <v>-2.269749575572376</v>
       </c>
       <c r="X27">
-        <v>0.0002041269343521704</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>1.4360296502431541E-2</v>
+      </c>
+      <c r="Z27">
+        <v>1.4823244899917451E-2</v>
+      </c>
+      <c r="AA27">
+        <v>2.616156442036117E-3</v>
+      </c>
+      <c r="AB27">
+        <v>9.7978521560231201E-6</v>
+      </c>
+      <c r="AC27">
+        <v>2.6992109270469931E-3</v>
+      </c>
+      <c r="AD27">
+        <v>1.2500408709116111E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5.317444705718054E-06</v>
+        <v>5.6027484402564504E-6</v>
       </c>
       <c r="C28">
-        <v>0.0476489368747698</v>
+        <v>4.1119729467420367E-2</v>
       </c>
       <c r="D28">
-        <v>0.003433207942546985</v>
+        <v>2.6095648277171079E-3</v>
       </c>
       <c r="E28">
-        <v>0.05119849679059942</v>
+        <v>4.4383094165546033E-2</v>
       </c>
       <c r="F28">
-        <v>6.899587078813087</v>
+        <v>6.8995873324333656</v>
       </c>
       <c r="K28">
-        <v>8.263436620050109</v>
+        <v>6.1113126338377741</v>
       </c>
       <c r="L28">
-        <v>8.59130445673682</v>
+        <v>4.9940075772103976</v>
       </c>
       <c r="M28">
-        <v>8.287749452651244</v>
+        <v>6.1472291176028584</v>
       </c>
       <c r="N28">
-        <v>0.01291083437416789</v>
+        <v>3.9574328104004458E-3</v>
       </c>
       <c r="O28">
-        <v>0.001094378890980753</v>
+        <v>2.5822456499419578E-4</v>
       </c>
       <c r="P28">
-        <v>0.01156757509506774</v>
+        <v>9.7242159264530562E-3</v>
       </c>
       <c r="Q28">
-        <v>0.0009247046902403641</v>
+        <v>6.0558577191839299E-3</v>
       </c>
       <c r="R28">
-        <v>0.0009603141617086326</v>
+        <v>4.2746417163556238E-4</v>
       </c>
       <c r="S28">
-        <v>2.50201835222478E-06</v>
+        <v>1.20632006476818E-5</v>
       </c>
       <c r="T28">
-        <v>0.003262232066709968</v>
+        <v>1.3833940458017609E-2</v>
       </c>
       <c r="U28">
-        <v>0.0008525750734935507</v>
+        <v>2.6598670391462399E-3</v>
       </c>
       <c r="V28">
-        <v>10.57022334875645</v>
+        <v>32.226860132491801</v>
       </c>
       <c r="W28">
-        <v>3.299251425596267</v>
+        <v>-2.2281010855823382</v>
       </c>
       <c r="X28">
-        <v>0.0002072891343020581</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>1.452385878717073E-2</v>
+      </c>
+      <c r="Z28">
+        <v>1.4996668924254509E-2</v>
+      </c>
+      <c r="AA28">
+        <v>2.649843433300241E-3</v>
+      </c>
+      <c r="AB28">
+        <v>1.002360584599941E-5</v>
+      </c>
+      <c r="AC28">
+        <v>2.7351030248937338E-3</v>
+      </c>
+      <c r="AD28">
+        <v>1.249766492505085E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5.303943066917131E-06</v>
+        <v>5.5903714230856563E-6</v>
       </c>
       <c r="C29">
-        <v>0.04825463179164956</v>
+        <v>4.1647265969334123E-2</v>
       </c>
       <c r="D29">
-        <v>0.00348741198115869</v>
+        <v>2.6504895052356509E-3</v>
       </c>
       <c r="E29">
-        <v>0.05188363018877348</v>
+        <v>4.4985406040258018E-2</v>
       </c>
       <c r="F29">
-        <v>6.899569729285128</v>
+        <v>6.8995699971867293</v>
       </c>
       <c r="K29">
-        <v>8.261866439508896</v>
+        <v>6.1162723284564171</v>
       </c>
       <c r="L29">
-        <v>8.586723245672426</v>
+        <v>5.0001499231022093</v>
       </c>
       <c r="M29">
-        <v>8.286590059819458</v>
+        <v>6.1526263483908288</v>
       </c>
       <c r="N29">
-        <v>0.01307270362736223</v>
+        <v>4.008106895953956E-3</v>
       </c>
       <c r="O29">
-        <v>0.001109017325981896</v>
+        <v>2.6232258906130202E-4</v>
       </c>
       <c r="P29">
-        <v>0.01171336784033935</v>
+        <v>9.7744674087444135E-3</v>
       </c>
       <c r="Q29">
-        <v>0.000939063530036737</v>
+        <v>6.0600977312977571E-3</v>
       </c>
       <c r="R29">
-        <v>0.0009734348760011861</v>
+        <v>4.3315459589567042E-4</v>
       </c>
       <c r="S29">
-        <v>2.539994477896297E-06</v>
+        <v>1.2127936685130521E-5</v>
       </c>
       <c r="T29">
-        <v>0.003295241066617042</v>
+        <v>1.3987009956906261E-2</v>
       </c>
       <c r="U29">
-        <v>0.0008619809199601171</v>
+        <v>2.6947565704063931E-3</v>
       </c>
       <c r="V29">
-        <v>10.62404446735662</v>
+        <v>32.424337781615797</v>
       </c>
       <c r="W29">
-        <v>3.31559451559928</v>
+        <v>-2.185955520350007</v>
       </c>
       <c r="X29">
-        <v>0.0002105403847512328</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>1.4691518293578079E-2</v>
+      </c>
+      <c r="Z29">
+        <v>1.517452231997588E-2</v>
+      </c>
+      <c r="AA29">
+        <v>2.6844989211490082E-3</v>
+      </c>
+      <c r="AB29">
+        <v>1.025764925738527E-5</v>
+      </c>
+      <c r="AC29">
+        <v>2.7720442290853249E-3</v>
+      </c>
+      <c r="AD29">
+        <v>1.2494887496064411E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5.290080974707844E-06</v>
+        <v>5.5776590292808671E-6</v>
       </c>
       <c r="C30">
-        <v>0.04887639873346194</v>
+        <v>4.2188887864668817E-2</v>
       </c>
       <c r="D30">
-        <v>0.003543367118050207</v>
+        <v>2.6927256882040992E-3</v>
       </c>
       <c r="E30">
-        <v>0.05258758213009303</v>
+        <v>4.5604456397313052E-2</v>
       </c>
       <c r="F30">
-        <v>6.899552244601558</v>
+        <v>6.8995525272671694</v>
       </c>
       <c r="K30">
-        <v>8.260286794518215</v>
+        <v>6.1212935949462359</v>
       </c>
       <c r="L30">
-        <v>8.582077203612831</v>
+        <v>5.0064037868980247</v>
       </c>
       <c r="M30">
-        <v>8.285430067839561</v>
+        <v>6.1580967254269101</v>
       </c>
       <c r="N30">
-        <v>0.01323886593710362</v>
+        <v>4.060131677994132E-3</v>
       </c>
       <c r="O30">
-        <v>0.001124109987179757</v>
+        <v>2.6655273096724651E-4</v>
       </c>
       <c r="P30">
-        <v>0.01186301095576022</v>
+        <v>9.8260558764867272E-3</v>
       </c>
       <c r="Q30">
-        <v>0.0009538721352435704</v>
+        <v>6.0644677717836843E-3</v>
       </c>
       <c r="R30">
-        <v>0.000986919527133454</v>
+        <v>4.3900218838470559E-4</v>
       </c>
       <c r="S30">
-        <v>2.579058459861355E-06</v>
+        <v>1.219236865530875E-5</v>
       </c>
       <c r="T30">
-        <v>0.003329036346431721</v>
+        <v>1.4143846809496541E-2</v>
       </c>
       <c r="U30">
-        <v>0.0008716536470990755</v>
+        <v>2.7306667537868811E-3</v>
       </c>
       <c r="V30">
-        <v>10.6788270460514</v>
+        <v>32.625545854225876</v>
       </c>
       <c r="W30">
-        <v>3.332153550294809</v>
+        <v>-2.1433001807822412</v>
       </c>
       <c r="X30">
-        <v>0.0002138840411731552</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>1.486343380276252E-2</v>
+      </c>
+      <c r="Z30">
+        <v>1.5356979104116609E-2</v>
+      </c>
+      <c r="AA30">
+        <v>2.720166351496757E-3</v>
+      </c>
+      <c r="AB30">
+        <v>1.050040229012297E-5</v>
+      </c>
+      <c r="AC30">
+        <v>2.8100819209243089E-3</v>
+      </c>
+      <c r="AD30">
+        <v>1.2492075586830111E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5.275843860407985E-06</v>
+        <v>5.5645974871272184E-6</v>
       </c>
       <c r="C31">
-        <v>0.0495148921364959</v>
+        <v>4.2745171838985227E-2</v>
       </c>
       <c r="D31">
-        <v>0.003601159025897566</v>
+        <v>2.7363370406906849E-3</v>
       </c>
       <c r="E31">
-        <v>0.05331113479024733</v>
+        <v>4.624094909943504E-2</v>
       </c>
       <c r="F31">
-        <v>6.899534621065172</v>
+        <v>6.8995349190000983</v>
       </c>
       <c r="K31">
-        <v>8.258685498995268</v>
+        <v>6.1263778634847306</v>
       </c>
       <c r="L31">
-        <v>8.577329130117311</v>
+        <v>5.0127729252155886</v>
       </c>
       <c r="M31">
-        <v>8.284256628881282</v>
+        <v>6.1636424552649238</v>
       </c>
       <c r="N31">
-        <v>0.01340949630259551</v>
+        <v>4.1135623673888774E-3</v>
       </c>
       <c r="O31">
-        <v>0.001139672161750024</v>
+        <v>2.7092160937262617E-4</v>
       </c>
       <c r="P31">
-        <v>0.01201666079830271</v>
+        <v>9.8790359906374744E-3</v>
       </c>
       <c r="Q31">
-        <v>0.0009691577820930949</v>
+        <v>6.0689750013127918E-3</v>
       </c>
       <c r="R31">
-        <v>0.001000783477396462</v>
+        <v>4.4501359429638718E-4</v>
       </c>
       <c r="S31">
-        <v>2.619332563831142E-06</v>
+        <v>1.2256406081555669E-5</v>
       </c>
       <c r="T31">
-        <v>0.003363647370365984</v>
+        <v>1.430459582436569E-2</v>
       </c>
       <c r="U31">
-        <v>0.0008815983846791689</v>
+        <v>2.7676441729096121E-3</v>
       </c>
       <c r="V31">
-        <v>10.73460197677434</v>
+        <v>32.830609742639567</v>
       </c>
       <c r="W31">
-        <v>3.34891307563197</v>
+        <v>-2.100122623373188</v>
       </c>
       <c r="X31">
-        <v>0.0002173232065609235</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>1.503977244170126E-2</v>
+      </c>
+      <c r="Z31">
+        <v>1.554422251864348E-2</v>
+      </c>
+      <c r="AA31">
+        <v>2.7568918465735001E-3</v>
+      </c>
+      <c r="AB31">
+        <v>1.075232633611236E-5</v>
+      </c>
+      <c r="AC31">
+        <v>2.8492663993053549E-3</v>
+      </c>
+      <c r="AD31">
+        <v>1.248922839644855E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5.261216370201604E-06</v>
+        <v>5.5511722606923911E-6</v>
       </c>
       <c r="C32">
-        <v>0.05017080260950445</v>
+        <v>4.3316726621818007E-2</v>
       </c>
       <c r="D32">
-        <v>0.003660879011056396</v>
+        <v>2.7813913860621851E-3</v>
       </c>
       <c r="E32">
-        <v>0.05405511392025936</v>
+        <v>4.6895627695882673E-2</v>
       </c>
       <c r="F32">
-        <v>6.899516854817403</v>
+        <v>6.8995171685511671</v>
       </c>
       <c r="K32">
-        <v>8.257068075236132</v>
+        <v>6.1315270010389584</v>
       </c>
       <c r="L32">
-        <v>8.572500501654664</v>
+        <v>5.0192617943101494</v>
       </c>
       <c r="M32">
-        <v>8.283078911707499</v>
+        <v>6.1692666985974913</v>
       </c>
       <c r="N32">
-        <v>0.01358477950460759</v>
+        <v>4.1684572353605388E-3</v>
       </c>
       <c r="O32">
-        <v>0.001155730237163034</v>
+        <v>2.7543621573936349E-4</v>
       </c>
       <c r="P32">
-        <v>0.01217448226996284</v>
+        <v>9.9334654333421129E-3</v>
       </c>
       <c r="Q32">
-        <v>0.0009849386848661923</v>
+        <v>6.0736140648055296E-3</v>
       </c>
       <c r="R32">
-        <v>0.001015042965179786</v>
+        <v>4.5119583984231342E-4</v>
       </c>
       <c r="S32">
-        <v>2.660820193671071E-06</v>
+        <v>1.2319959664112771E-5</v>
       </c>
       <c r="T32">
-        <v>0.003399105213018653</v>
+        <v>1.446940941938649E-2</v>
       </c>
       <c r="U32">
-        <v>0.0008918321685562826</v>
+        <v>2.8057382504708939E-3</v>
       </c>
       <c r="V32">
-        <v>10.7914038650604</v>
+        <v>33.039660996984992</v>
       </c>
       <c r="W32">
-        <v>3.365889985361186</v>
+        <v>-2.056409692647279</v>
       </c>
       <c r="X32">
-        <v>0.0002208624303159846</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>1.5220710218076011E-2</v>
+      </c>
+      <c r="Z32">
+        <v>1.5736445624939331E-2</v>
+      </c>
+      <c r="AA32">
+        <v>2.7947243356333728E-3</v>
+      </c>
+      <c r="AB32">
+        <v>1.101391483752056E-5</v>
+      </c>
+      <c r="AC32">
+        <v>2.8896510520489498E-3</v>
+      </c>
+      <c r="AD32">
+        <v>1.248634487941819E-6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5.246182311165913E-06</v>
+        <v>5.5373680172927168E-6</v>
       </c>
       <c r="C33">
-        <v>0.05084485947325008</v>
+        <v>4.3904195248423171E-2</v>
       </c>
       <c r="D33">
-        <v>0.003722624481329773</v>
+        <v>2.8279610409303328E-3</v>
       </c>
       <c r="E33">
-        <v>0.05482039189385056</v>
+        <v>4.7569278247208767E-2</v>
       </c>
       <c r="F33">
-        <v>6.899498941828893</v>
+        <v>6.8994992719167723</v>
       </c>
       <c r="K33">
-        <v>8.255434602847005</v>
+        <v>6.1367424491420826</v>
       </c>
       <c r="L33">
-        <v>8.567580690621366</v>
+        <v>5.0258724120944942</v>
       </c>
       <c r="M33">
-        <v>8.281893776522171</v>
+        <v>6.174969773947617</v>
       </c>
       <c r="N33">
-        <v>0.01376491065341113</v>
+        <v>4.2248778298478026E-3</v>
       </c>
       <c r="O33">
-        <v>0.001172308211239877</v>
+        <v>2.8010360672735089E-4</v>
       </c>
       <c r="P33">
-        <v>0.01233664956829758</v>
+        <v>9.9894053082484405E-3</v>
       </c>
       <c r="Q33">
-        <v>0.001001241994528033</v>
+        <v>6.0784113975387057E-3</v>
       </c>
       <c r="R33">
-        <v>0.001029715170179584</v>
+        <v>4.5755635984489598E-4</v>
       </c>
       <c r="S33">
-        <v>2.703596905264791E-06</v>
+        <v>1.238293349802014E-5</v>
       </c>
       <c r="T33">
-        <v>0.003435442503518108</v>
+        <v>1.4638448131979471E-2</v>
       </c>
       <c r="U33">
-        <v>0.0009023666359642903</v>
+        <v>2.8450015634746478E-3</v>
       </c>
       <c r="V33">
-        <v>10.84926808604276</v>
+        <v>33.252837744136819</v>
       </c>
       <c r="W33">
-        <v>3.383090145547655</v>
+        <v>-2.0121476084407992</v>
       </c>
       <c r="X33">
-        <v>0.0002245061076444226</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>1.5406432634257001E-2</v>
+      </c>
+      <c r="Z33">
+        <v>1.5933851985514721E-2</v>
+      </c>
+      <c r="AA33">
+        <v>2.8337159222992401E-3</v>
+      </c>
+      <c r="AB33">
+        <v>1.1285641175408449E-5</v>
+      </c>
+      <c r="AC33">
+        <v>2.931292687532794E-3</v>
+      </c>
+      <c r="AD33">
+        <v>1.2483424228480429E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5.23072459785519E-06</v>
+        <v>5.5231685580488124E-6</v>
       </c>
       <c r="C34">
-        <v>0.05153783351724892</v>
+        <v>4.450825751618042E-2</v>
       </c>
       <c r="D34">
-        <v>0.003786499457652708</v>
+        <v>2.876123196851136E-3</v>
       </c>
       <c r="E34">
-        <v>0.05560789101419211</v>
+        <v>4.8262732368059807E-2</v>
       </c>
       <c r="F34">
-        <v>6.899480877889199</v>
+        <v>6.899481224913889</v>
       </c>
       <c r="K34">
-        <v>8.253789156889361</v>
+        <v>6.1420257579141948</v>
       </c>
       <c r="L34">
-        <v>8.562569061196022</v>
+        <v>5.032610389394284</v>
       </c>
       <c r="M34">
-        <v>8.280702733424798</v>
+        <v>6.1807557389412597</v>
       </c>
       <c r="N34">
-        <v>0.01395009598344306</v>
+        <v>4.2828892154819264E-3</v>
       </c>
       <c r="O34">
-        <v>0.001189432271797478</v>
+        <v>2.8493177653856201E-4</v>
       </c>
       <c r="P34">
-        <v>0.01250334673850007</v>
+        <v>1.004691992458241E-2</v>
       </c>
       <c r="Q34">
-        <v>0.001018092652175888</v>
+        <v>6.0833536816502047E-3</v>
       </c>
       <c r="R34">
-        <v>0.001044818281551266</v>
+        <v>4.6410302787940901E-4</v>
       </c>
       <c r="S34">
-        <v>2.747716467814777E-06</v>
+        <v>1.244521012710597E-5</v>
       </c>
       <c r="T34">
-        <v>0.003472693619217429</v>
+        <v>1.4811881169751601E-2</v>
       </c>
       <c r="U34">
-        <v>0.0009132166034712173</v>
+        <v>2.8854901161116261E-3</v>
       </c>
       <c r="V34">
-        <v>10.90823201771525</v>
+        <v>33.47028514633994</v>
       </c>
       <c r="W34">
-        <v>3.400528312228328</v>
+        <v>-1.967322918386422</v>
       </c>
       <c r="X34">
-        <v>0.0002282592032258487</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>1.5597135340359249E-2</v>
+      </c>
+      <c r="Z34">
+        <v>1.6136656386763329E-2</v>
+      </c>
+      <c r="AA34">
+        <v>2.8739220319737831E-3</v>
+      </c>
+      <c r="AB34">
+        <v>1.156808413784251E-5</v>
+      </c>
+      <c r="AC34">
+        <v>2.9742517569057831E-3</v>
+      </c>
+      <c r="AD34">
+        <v>1.2480465575568049E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5.214825178184341E-06</v>
+        <v>5.5085567508852681E-6</v>
       </c>
       <c r="C35">
-        <v>0.05225053999575036</v>
+        <v>4.5129632655274893E-2</v>
       </c>
       <c r="D35">
-        <v>0.003852615148109756</v>
+        <v>2.9259603375244958E-3</v>
       </c>
       <c r="E35">
-        <v>0.05641858709006986</v>
+        <v>4.8976870537790519E-2</v>
       </c>
       <c r="F35">
-        <v>6.899462658595879</v>
+        <v>6.8994630231690968</v>
       </c>
       <c r="K35">
-        <v>8.252122626333872</v>
+        <v>6.1473787433408136</v>
       </c>
       <c r="L35">
-        <v>8.557460497611341</v>
+        <v>5.0394777816985519</v>
       </c>
       <c r="M35">
-        <v>8.279502361370628</v>
+        <v>6.1866248717084087</v>
       </c>
       <c r="N35">
-        <v>0.01414055365078106</v>
+        <v>4.3425602220333193E-3</v>
       </c>
       <c r="O35">
-        <v>0.001207128551416341</v>
+        <v>2.8992874355633001E-4</v>
       </c>
       <c r="P35">
-        <v>0.01267476844128103</v>
+        <v>1.01060776297008E-2</v>
       </c>
       <c r="Q35">
-        <v>0.001035520267692743</v>
+        <v>6.0884703085692929E-3</v>
       </c>
       <c r="R35">
-        <v>0.001060371573567437</v>
+        <v>4.7084418933839858E-4</v>
       </c>
       <c r="S35">
-        <v>2.793258994800501E-06</v>
+        <v>1.25066855343738E-5</v>
       </c>
       <c r="T35">
-        <v>0.003510894768706179</v>
+        <v>1.49898870063731E-2</v>
       </c>
       <c r="U35">
-        <v>0.0009243951586339394</v>
+        <v>2.927263467126219E-3</v>
       </c>
       <c r="V35">
-        <v>10.96833403388893</v>
+        <v>33.692155831385982</v>
       </c>
       <c r="W35">
-        <v>3.418196130189358</v>
+        <v>-1.9219205019139309</v>
       </c>
       <c r="X35">
-        <v>0.0002321260404840433</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>1.5793024800590149E-2</v>
+      </c>
+      <c r="Z35">
+        <v>1.6345085579823278E-2</v>
+      </c>
+      <c r="AA35">
+        <v>2.9154016874410908E-3</v>
+      </c>
+      <c r="AB35">
+        <v>1.186177968512752E-5</v>
+      </c>
+      <c r="AC35">
+        <v>3.0185926292466679E-3</v>
+      </c>
+      <c r="AD35">
+        <v>1.247746790372915E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5.198464976102401E-06</v>
+        <v>5.4935144652240913E-6</v>
       </c>
       <c r="C36">
-        <v>0.05298384188738128</v>
+        <v>4.5769082235846859E-2</v>
       </c>
       <c r="D36">
-        <v>0.003921090567362831</v>
+        <v>2.97756069584973E-3</v>
       </c>
       <c r="E36">
-        <v>0.05725351333701528</v>
+        <v>4.971262570651605E-2</v>
       </c>
       <c r="F36">
-        <v>6.899444279342281</v>
+        <v>6.8994446621067818</v>
       </c>
       <c r="K36">
-        <v>8.250445235049574</v>
+        <v>6.152803786947711</v>
       </c>
       <c r="L36">
-        <v>8.55226455482244</v>
+        <v>5.0464823114299469</v>
       </c>
       <c r="M36">
-        <v>8.278301926007524</v>
+        <v>6.1925830143975551</v>
       </c>
       <c r="N36">
-        <v>0.01433651463713507</v>
+        <v>4.4039637292829711E-3</v>
       </c>
       <c r="O36">
-        <v>0.001225431859405437</v>
+        <v>2.9510452283356211E-4</v>
       </c>
       <c r="P36">
-        <v>0.0128511206863354</v>
+        <v>1.016695046789976E-2</v>
       </c>
       <c r="Q36">
-        <v>0.001053551162252644</v>
+        <v>6.0937460741810117E-3</v>
       </c>
       <c r="R36">
-        <v>0.001076395487424598</v>
+        <v>4.7778869697179282E-4</v>
       </c>
       <c r="S36">
-        <v>2.840244134973933E-06</v>
+        <v>1.256720504316551E-5</v>
       </c>
       <c r="T36">
-        <v>0.003550084156737576</v>
+        <v>1.517265402969502E-2</v>
       </c>
       <c r="U36">
-        <v>0.0009359230378038854</v>
+        <v>2.97038515181556E-3</v>
       </c>
       <c r="V36">
-        <v>11.02961642385411</v>
+        <v>33.918610417977469</v>
       </c>
       <c r="W36">
-        <v>3.436117590617137</v>
+        <v>-1.875923802329488</v>
       </c>
       <c r="X36">
-        <v>0.0002361124855652607</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>1.599431907936423E-2</v>
+      </c>
+      <c r="Z36">
+        <v>1.6559379150101951E-2</v>
+      </c>
+      <c r="AA36">
+        <v>2.9582177162955081E-3</v>
+      </c>
+      <c r="AB36">
+        <v>1.216743552005256E-5</v>
+      </c>
+      <c r="AC36">
+        <v>3.064383887427758E-3</v>
+      </c>
+      <c r="AD36">
+        <v>1.2474429879309281E-6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5.181623818044478E-06</v>
+        <v>5.4780225163519276E-6</v>
       </c>
       <c r="C37">
-        <v>0.05373865344615079</v>
+        <v>4.6427413336462199E-2</v>
       </c>
       <c r="D37">
-        <v>0.003992053228481215</v>
+        <v>3.0310187516166529E-3</v>
       </c>
       <c r="E37">
-        <v>0.05811376461414217</v>
+        <v>5.0470987234019347E-2</v>
       </c>
       <c r="F37">
-        <v>6.899425735304816</v>
+        <v>6.8994261369363556</v>
       </c>
       <c r="K37">
-        <v>8.248750618587909</v>
+        <v>6.158301580517052</v>
       </c>
       <c r="L37">
-        <v>8.5469840332572</v>
+        <v>5.0536239007203516</v>
       </c>
       <c r="M37">
-        <v>8.277101599601771</v>
+        <v>6.1986280064988444</v>
       </c>
       <c r="N37">
-        <v>0.0145382236029463</v>
+        <v>4.4671769478437312E-3</v>
       </c>
       <c r="O37">
-        <v>0.001244374129303558</v>
+        <v>3.0046676591358141E-4</v>
       </c>
       <c r="P37">
-        <v>0.01303262175593667</v>
+        <v>1.0229615150880051E-2</v>
       </c>
       <c r="Q37">
-        <v>0.001072217037598962</v>
+        <v>6.099214726001707E-3</v>
       </c>
       <c r="R37">
-        <v>0.001092911721936746</v>
+        <v>4.8494595069377173E-4</v>
       </c>
       <c r="S37">
-        <v>2.888734703079733E-06</v>
+        <v>1.262664800059291E-5</v>
       </c>
       <c r="T37">
-        <v>0.003590302020105787</v>
+        <v>1.536038124320086E-2</v>
       </c>
       <c r="U37">
-        <v>0.0009478173389817947</v>
+        <v>3.0149231128295821E-3</v>
       </c>
       <c r="V37">
-        <v>11.09212343253799</v>
+        <v>34.149818121196297</v>
       </c>
       <c r="W37">
-        <v>3.454291688562712</v>
+        <v>-1.829320851931993</v>
       </c>
       <c r="X37">
-        <v>0.000240223806843978</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>1.6201248673660702E-2</v>
+      </c>
+      <c r="Z37">
+        <v>1.6779790440791781E-2</v>
+      </c>
+      <c r="AA37">
+        <v>3.0024375267488218E-3</v>
+      </c>
+      <c r="AB37">
+        <v>1.2485586080759649E-5</v>
+      </c>
+      <c r="AC37">
+        <v>3.1116989340940178E-3</v>
+      </c>
+      <c r="AD37">
+        <v>1.247135111491045E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5.164280352279016E-06</v>
+        <v>5.4620605697053211E-6</v>
       </c>
       <c r="C38">
-        <v>0.05451594407455187</v>
+        <v>4.7105482001850413E-2</v>
       </c>
       <c r="D38">
-        <v>0.004065639909456821</v>
+        <v>3.0864357984072359E-3</v>
       </c>
       <c r="E38">
-        <v>0.05900050203360465</v>
+        <v>5.1253005156713341E-2</v>
       </c>
       <c r="F38">
-        <v>6.899407021428821</v>
+        <v>6.8994074426384833</v>
       </c>
       <c r="K38">
-        <v>8.24704125388727</v>
+        <v>6.1638758157916032</v>
       </c>
       <c r="L38">
-        <v>8.541608670270088</v>
+        <v>5.0609146878843534</v>
       </c>
       <c r="M38">
-        <v>8.275897662786202</v>
+        <v>6.2047702027943634</v>
       </c>
       <c r="N38">
-        <v>0.01474594000097196</v>
+        <v>4.5322817944363891E-3</v>
       </c>
       <c r="O38">
-        <v>0.001263986627964963</v>
+        <v>3.060287809335037E-4</v>
       </c>
       <c r="P38">
-        <v>0.0132195030796607</v>
+        <v>1.0294152657518769E-2</v>
       </c>
       <c r="Q38">
-        <v>0.001091552792700944</v>
+        <v>6.1048427511894276E-3</v>
       </c>
       <c r="R38">
-        <v>0.001109943331112272</v>
+        <v>4.9232593979835258E-4</v>
       </c>
       <c r="S38">
-        <v>2.938839701294138E-06</v>
+        <v>1.268482887037338E-5</v>
       </c>
       <c r="T38">
-        <v>0.003631590843248349</v>
+        <v>1.5553279026487911E-2</v>
       </c>
       <c r="U38">
-        <v>0.0009600942330273371</v>
+        <v>3.0609497381636438E-3</v>
       </c>
       <c r="V38">
-        <v>11.15590064514362</v>
+        <v>34.385957274175063</v>
       </c>
       <c r="W38">
-        <v>3.472729008241583</v>
+        <v>-1.7820892763124829</v>
       </c>
       <c r="X38">
-        <v>0.0002444659483000193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>1.641405732943322E-2</v>
+      </c>
+      <c r="Z38">
+        <v>1.7006587461204668E-2</v>
+      </c>
+      <c r="AA38">
+        <v>3.0481325616066161E-3</v>
+      </c>
+      <c r="AB38">
+        <v>1.281717655702802E-5</v>
+      </c>
+      <c r="AC38">
+        <v>3.16061585288907E-3</v>
+      </c>
+      <c r="AD38">
+        <v>1.24682295431567E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5.146411969914714E-06</v>
+        <v>5.4456070613660844E-6</v>
       </c>
       <c r="C39">
-        <v>0.0553167425533629</v>
+        <v>4.7804197020952677E-2</v>
       </c>
       <c r="D39">
-        <v>0.004141997497729921</v>
+        <v>3.1439205607542101E-3</v>
       </c>
       <c r="E39">
-        <v>0.05991495799399907</v>
+        <v>5.2059794863660372E-2</v>
       </c>
       <c r="F39">
-        <v>6.899388132413373</v>
+        <v>6.8993885739502607</v>
       </c>
       <c r="K39">
-        <v>8.245309447447076</v>
+        <v>6.1695266571110716</v>
       </c>
       <c r="L39">
-        <v>8.536112693839412</v>
+        <v>5.0683510793025679</v>
       </c>
       <c r="M39">
-        <v>8.274682406765708</v>
+        <v>6.2110034672443817</v>
       </c>
       <c r="N39">
-        <v>0.01495993926086096</v>
+        <v>4.5993651756031017E-3</v>
       </c>
       <c r="O39">
-        <v>0.001284301863712055</v>
+        <v>3.1179816993093121E-4</v>
       </c>
       <c r="P39">
-        <v>0.01341201022707276</v>
+        <v>1.036064964015892E-2</v>
       </c>
       <c r="Q39">
-        <v>0.001111599050410963</v>
+        <v>6.11069436995382E-3</v>
       </c>
       <c r="R39">
-        <v>0.001127514830975938</v>
+        <v>4.9993929076546338E-4</v>
       </c>
       <c r="S39">
-        <v>2.99069007649337E-06</v>
+        <v>1.274160995520561E-5</v>
       </c>
       <c r="T39">
-        <v>0.003673995551347094</v>
+        <v>1.5751569967572421E-2</v>
       </c>
       <c r="U39">
-        <v>0.0009727687558219033</v>
+        <v>3.1085426986561999E-3</v>
       </c>
       <c r="V39">
-        <v>11.22099439231933</v>
+        <v>34.627216076193413</v>
       </c>
       <c r="W39">
-        <v>3.49142618585552</v>
+        <v>-1.7342184676647501</v>
       </c>
       <c r="X39">
-        <v>0.0002488447693532379</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>1.6633003157828959E-2</v>
+      </c>
+      <c r="Z39">
+        <v>1.7240054113165568E-2</v>
+      </c>
+      <c r="AA39">
+        <v>3.0953799978847671E-3</v>
+      </c>
+      <c r="AB39">
+        <v>1.3162700771433111E-5</v>
+      </c>
+      <c r="AC39">
+        <v>3.211218610740133E-3</v>
+      </c>
+      <c r="AD39">
+        <v>1.24650650720178E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5.127994695044551E-06</v>
+        <v>5.4286391141006049E-6</v>
       </c>
       <c r="C40">
-        <v>0.05614214166716343</v>
+        <v>4.8524524060633303E-2</v>
       </c>
       <c r="D40">
-        <v>0.004221283945151985</v>
+        <v>3.2035898777087769E-3</v>
       </c>
       <c r="E40">
-        <v>0.06085844165581688</v>
+        <v>5.2892542208184928E-2</v>
       </c>
       <c r="F40">
-        <v>6.899369062695767</v>
+        <v>6.8993695253489689</v>
       </c>
       <c r="K40">
-        <v>8.243560821307041</v>
+        <v>6.1752571655052284</v>
       </c>
       <c r="L40">
-        <v>8.530506046418724</v>
+        <v>5.0759427395862282</v>
       </c>
       <c r="M40">
-        <v>8.273461283852415</v>
+        <v>6.2173353595287359</v>
       </c>
       <c r="N40">
-        <v>0.01518051405758917</v>
+        <v>4.6685194821462009E-3</v>
       </c>
       <c r="O40">
-        <v>0.001305362074253528</v>
+        <v>3.1778856411690678E-4</v>
       </c>
       <c r="P40">
-        <v>0.01361040395572859</v>
+        <v>1.0429197305807389E-2</v>
       </c>
       <c r="Q40">
-        <v>0.001132393212072406</v>
+        <v>6.1167530516060154E-3</v>
       </c>
       <c r="R40">
-        <v>0.001145652317119478</v>
+        <v>5.0779731787530631E-4</v>
       </c>
       <c r="S40">
-        <v>3.044344648166882E-06</v>
+        <v>1.279678650664174E-5</v>
       </c>
       <c r="T40">
-        <v>0.003717563725468469</v>
+        <v>1.595548976223236E-2</v>
       </c>
       <c r="U40">
-        <v>0.000985864412122826</v>
+        <v>3.1577850160885461E-3</v>
       </c>
       <c r="V40">
-        <v>11.28745469708686</v>
+        <v>34.873793250147841</v>
       </c>
       <c r="W40">
-        <v>3.510401201599354</v>
+        <v>-1.6856869826491381</v>
       </c>
       <c r="X40">
-        <v>0.000253367287880973</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>1.6858359517500761E-2</v>
+      </c>
+      <c r="Z40">
+        <v>1.748049118100688E-2</v>
+      </c>
+      <c r="AA40">
+        <v>3.1442618886983191E-3</v>
+      </c>
+      <c r="AB40">
+        <v>1.3523127390227071E-5</v>
+      </c>
+      <c r="AC40">
+        <v>3.2635967693125929E-3</v>
+      </c>
+      <c r="AD40">
+        <v>1.246185598731707E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5.109003105468509E-06</v>
+        <v>5.4111324242868507E-6</v>
       </c>
       <c r="C41">
-        <v>0.05699330326916361</v>
+        <v>4.9267490194779613E-2</v>
       </c>
       <c r="D41">
-        <v>0.004303669302653671</v>
+        <v>3.2655694737978849E-3</v>
       </c>
       <c r="E41">
-        <v>0.06183234494934938</v>
+        <v>5.3752509083595287E-2</v>
       </c>
       <c r="F41">
-        <v>6.899349806432604</v>
+        <v>6.8993502910347324</v>
       </c>
       <c r="K41">
-        <v>8.241796951223428</v>
+        <v>6.1810701988622583</v>
       </c>
       <c r="L41">
-        <v>8.524783105348934</v>
+        <v>5.0836975876468067</v>
       </c>
       <c r="M41">
-        <v>8.272233876559778</v>
+        <v>6.2237713348100376</v>
       </c>
       <c r="N41">
-        <v>0.01540797556551271</v>
+        <v>4.7398429398188124E-3</v>
       </c>
       <c r="O41">
-        <v>0.001327208357017901</v>
+        <v>3.2401371148442612E-4</v>
       </c>
       <c r="P41">
-        <v>0.01381496150890328</v>
+        <v>1.049989311325332E-2</v>
       </c>
       <c r="Q41">
-        <v>0.001153976907938832</v>
+        <v>6.1230171270067251E-3</v>
       </c>
       <c r="R41">
-        <v>0.001164383595356712</v>
+        <v>5.1591208068462867E-4</v>
       </c>
       <c r="S41">
-        <v>3.099902662689873E-06</v>
+        <v>1.2850139980345329E-5</v>
       </c>
       <c r="T41">
-        <v>0.003762345681424955</v>
+        <v>1.6165288200693729E-2</v>
       </c>
       <c r="U41">
-        <v>0.0009994031633974755</v>
+        <v>3.2087657016980449E-3</v>
       </c>
       <c r="V41">
-        <v>11.35533427271873</v>
+        <v>35.125898825056431</v>
       </c>
       <c r="W41">
-        <v>3.529667569682083</v>
+        <v>-1.6364733249605481</v>
       </c>
       <c r="X41">
-        <v>0.0002580408414235336</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>1.7090416251529829E-2</v>
+      </c>
+      <c r="Z41">
+        <v>1.7728217692768909E-2</v>
+      </c>
+      <c r="AA41">
+        <v>3.1948662914686541E-3</v>
+      </c>
+      <c r="AB41">
+        <v>1.389941022939131E-5</v>
+      </c>
+      <c r="AC41">
+        <v>3.3178463905839391E-3</v>
+      </c>
+      <c r="AD41">
+        <v>1.245860068863714E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5.089410203171752E-06</v>
+        <v>5.393061142089057E-6</v>
       </c>
       <c r="C42">
-        <v>0.05787146383527211</v>
+        <v>5.0034188873462643E-2</v>
       </c>
       <c r="D42">
-        <v>0.004389336904829344</v>
+        <v>3.3299948168188831E-3</v>
       </c>
       <c r="E42">
-        <v>0.06283814911989158</v>
+        <v>5.4641039530944298E-2</v>
       </c>
       <c r="F42">
-        <v>6.899330357481678</v>
+        <v>6.899330864911474</v>
       </c>
       <c r="K42">
-        <v>8.240009703496268</v>
+        <v>6.186966642603557</v>
       </c>
       <c r="L42">
-        <v>8.518951249695156</v>
+        <v>5.0916164934453114</v>
       </c>
       <c r="M42">
-        <v>8.2710029098485</v>
+        <v>6.2303094437743907</v>
       </c>
       <c r="N42">
-        <v>0.01564265501898762</v>
+        <v>4.8134400936243856E-3</v>
       </c>
       <c r="O42">
-        <v>0.001349888096610639</v>
+        <v>3.3048502637112478E-4</v>
       </c>
       <c r="P42">
-        <v>0.01402597791891936</v>
+        <v>1.057284104635743E-2</v>
       </c>
       <c r="Q42">
-        <v>0.001176395291998628</v>
+        <v>6.129525827618422E-3</v>
       </c>
       <c r="R42">
-        <v>0.001183738323568279</v>
+        <v>5.2429644636303339E-4</v>
       </c>
       <c r="S42">
-        <v>3.157451250734358E-06</v>
+        <v>1.290147278425805E-5</v>
       </c>
       <c r="T42">
-        <v>0.00380839472339208</v>
+        <v>1.6381230242343659E-2</v>
       </c>
       <c r="U42">
-        <v>0.001013410060222191</v>
+        <v>3.2615805216199669E-3</v>
       </c>
       <c r="V42">
-        <v>11.42468925030543</v>
+        <v>35.383755065626218</v>
       </c>
       <c r="W42">
-        <v>3.549219095891878</v>
+        <v>-1.5865643511715779</v>
       </c>
       <c r="X42">
-        <v>0.0002628723241745621</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>1.7329480992030379E-2</v>
+      </c>
+      <c r="Z42">
+        <v>1.7983572358040611E-2</v>
+      </c>
+      <c r="AA42">
+        <v>3.2472881885466068E-3</v>
+      </c>
+      <c r="AB42">
+        <v>1.4292333073359871E-5</v>
+      </c>
+      <c r="AC42">
+        <v>3.374070864050074E-3</v>
+      </c>
+      <c r="AD42">
+        <v>1.245529868014201E-6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5.069187311868923E-06</v>
+        <v>5.3743977834729229E-6</v>
       </c>
       <c r="C43">
-        <v>0.05877794056290674</v>
+        <v>5.0825785382897268E-2</v>
       </c>
       <c r="D43">
-        <v>0.004478484665235434</v>
+        <v>3.3970120531658351E-3</v>
       </c>
       <c r="E43">
-        <v>0.06387743192167447</v>
+        <v>5.5559566478780902E-2</v>
       </c>
       <c r="F43">
-        <v>6.899310709380117</v>
+        <v>6.8993112405662789</v>
       </c>
       <c r="K43">
-        <v>8.238203726199508</v>
+        <v>6.1929497210484588</v>
       </c>
       <c r="L43">
-        <v>8.512994260229668</v>
+        <v>5.0997098712522826</v>
       </c>
       <c r="M43">
-        <v>8.269765044963163</v>
+        <v>6.2369572633945678</v>
       </c>
       <c r="N43">
-        <v>0.01588490530580757</v>
+        <v>4.8894223828998646E-3</v>
       </c>
       <c r="O43">
-        <v>0.001373447587241063</v>
+        <v>3.3721893195174188E-4</v>
       </c>
       <c r="P43">
-        <v>0.01424376745496887</v>
+        <v>1.0648151473793679E-2</v>
       </c>
       <c r="Q43">
-        <v>0.001199698318823462</v>
+        <v>6.1362651729661554E-3</v>
       </c>
       <c r="R43">
-        <v>0.001203748168861797</v>
+        <v>5.3296415777962284E-4</v>
       </c>
       <c r="S43">
-        <v>3.217125711138787E-06</v>
+        <v>1.295050850749447E-5</v>
       </c>
       <c r="T43">
-        <v>0.003855767344801739</v>
+        <v>1.6603597186762711E-2</v>
       </c>
       <c r="U43">
-        <v>0.001027908782912891</v>
+        <v>3.3163322536601111E-3</v>
       </c>
       <c r="V43">
-        <v>11.49557831475988</v>
+        <v>35.647597354683491</v>
       </c>
       <c r="W43">
-        <v>3.569076398473889</v>
+        <v>-1.5359354793596509</v>
       </c>
       <c r="X43">
-        <v>0.0002678703372527158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>1.7575880389974902E-2</v>
+      </c>
+      <c r="Z43">
+        <v>1.8246914940201621E-2</v>
+      </c>
+      <c r="AA43">
+        <v>3.3016291781311309E-3</v>
+      </c>
+      <c r="AB43">
+        <v>1.470307552897915E-5</v>
+      </c>
+      <c r="AC43">
+        <v>3.4323810029835782E-3</v>
+      </c>
+      <c r="AD43">
+        <v>1.2451948156212861E-6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5.048303930340047E-06</v>
+        <v>5.3551130636141991E-6</v>
       </c>
       <c r="C44">
-        <v>0.05971413807838382</v>
+        <v>5.1643522854099531E-2</v>
       </c>
       <c r="D44">
-        <v>0.004571326552391814</v>
+        <v>3.4667790906032412E-3</v>
       </c>
       <c r="E44">
-        <v>0.06495187548307581</v>
+        <v>5.6509619081328899E-2</v>
       </c>
       <c r="F44">
-        <v>6.899290855322541</v>
+        <v>6.8992914112470212</v>
       </c>
       <c r="K44">
-        <v>8.236372655586381</v>
+        <v>6.1990219718341493</v>
       </c>
       <c r="L44">
-        <v>8.506904200199049</v>
+        <v>5.1079825735499282</v>
       </c>
       <c r="M44">
-        <v>8.268520147432012</v>
+        <v>6.2437167451244129</v>
       </c>
       <c r="N44">
-        <v>0.01613510285267941</v>
+        <v>4.967908649295521E-3</v>
       </c>
       <c r="O44">
-        <v>0.001397939711734387</v>
+        <v>3.4423122402877098E-4</v>
       </c>
       <c r="P44">
-        <v>0.01446866519869551</v>
+        <v>1.0725942616911399E-2</v>
       </c>
       <c r="Q44">
-        <v>0.001223939876515011</v>
+        <v>6.1432679791877378E-3</v>
       </c>
       <c r="R44">
-        <v>0.001224446979950601</v>
+        <v>5.4192991035328019E-4</v>
       </c>
       <c r="S44">
-        <v>3.279049737380948E-06</v>
+        <v>1.299699295280626E-5</v>
       </c>
       <c r="T44">
-        <v>0.00390452352690327</v>
+        <v>1.683268796147137E-2</v>
       </c>
       <c r="U44">
-        <v>0.001042926307919817</v>
+        <v>3.373131506521659E-3</v>
       </c>
       <c r="V44">
-        <v>11.56806348186464</v>
+        <v>35.917675219408871</v>
       </c>
       <c r="W44">
-        <v>3.589238513400478</v>
+        <v>-1.484566442015119</v>
       </c>
       <c r="X44">
-        <v>0.0002730430600776517</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>1.7829961715086461E-2</v>
+      </c>
+      <c r="Z44">
+        <v>1.8518628011785589E-2</v>
+      </c>
+      <c r="AA44">
+        <v>3.3579988269188772E-3</v>
+      </c>
+      <c r="AB44">
+        <v>1.513267960278205E-5</v>
+      </c>
+      <c r="AC44">
+        <v>3.492896176033532E-3</v>
+      </c>
+      <c r="AD44">
+        <v>1.244854769577288E-6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5.026727604295556E-06</v>
+        <v>5.3351757813816852E-6</v>
       </c>
       <c r="C45">
-        <v>0.06068155582445386</v>
+        <v>5.2488728885038062E-2</v>
       </c>
       <c r="D45">
-        <v>0.004668094221085928</v>
+        <v>3.5394667766705801E-3</v>
       </c>
       <c r="E45">
-        <v>0.06606327496568352</v>
+        <v>5.7492830850664818E-2</v>
       </c>
       <c r="F45">
-        <v>6.899270788135353</v>
+        <v>6.8992713698378401</v>
       </c>
       <c r="K45">
-        <v>8.234530040743312</v>
+        <v>6.2051853840148974</v>
       </c>
       <c r="L45">
-        <v>8.500701867406347</v>
+        <v>5.1164411084341763</v>
       </c>
       <c r="M45">
-        <v>8.267276037408175</v>
+        <v>6.2505910475409294</v>
       </c>
       <c r="N45">
-        <v>0.01639364957445038</v>
+        <v>5.0490257971072192E-3</v>
       </c>
       <c r="O45">
-        <v>0.00142342692271018</v>
+        <v>3.5153857600776252E-4</v>
       </c>
       <c r="P45">
-        <v>0.01470102880083902</v>
+        <v>1.080634041757321E-2</v>
       </c>
       <c r="Q45">
-        <v>0.001249174497347226</v>
+        <v>6.1505458296039319E-3</v>
       </c>
       <c r="R45">
-        <v>0.001245870978726271</v>
+        <v>5.5120943521995522E-4</v>
       </c>
       <c r="S45">
-        <v>3.343295168554974E-06</v>
+        <v>1.304061877352955E-5</v>
       </c>
       <c r="T45">
-        <v>0.003954726986885436</v>
+        <v>1.7068820530856451E-2</v>
       </c>
       <c r="U45">
-        <v>0.001058496697229514</v>
+        <v>3.432097677161983E-3</v>
       </c>
       <c r="V45">
-        <v>11.64221197602414</v>
+        <v>36.194253522484047</v>
       </c>
       <c r="W45">
-        <v>3.609740879797357</v>
+        <v>-1.4324362592464721</v>
       </c>
       <c r="X45">
-        <v>0.000278400765577299</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>1.809209447144515E-2</v>
+      </c>
+      <c r="Z45">
+        <v>1.8799118741717209E-2</v>
+      </c>
+      <c r="AA45">
+        <v>3.416515347248867E-3</v>
+      </c>
+      <c r="AB45">
+        <v>1.5582329913115819E-5</v>
+      </c>
+      <c r="AC45">
+        <v>3.5557450959186718E-3</v>
+      </c>
+      <c r="AD45">
+        <v>1.244509618495166E-6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5.004423756988457E-06</v>
+        <v>5.3145526448112759E-6</v>
       </c>
       <c r="C46">
-        <v>0.06168179621022828</v>
+        <v>5.3362822851258901E-2</v>
       </c>
       <c r="D46">
-        <v>0.004769038869121054</v>
+        <v>3.6152602478278042E-3</v>
       </c>
       <c r="E46">
-        <v>0.06721354806491062</v>
+        <v>5.8510948567183037E-2</v>
       </c>
       <c r="F46">
-        <v>6.899250500250584</v>
+        <v>6.8992511088323232</v>
       </c>
       <c r="K46">
-        <v>8.232660393251793</v>
+        <v>6.2114430441031194</v>
       </c>
       <c r="L46">
-        <v>8.494357299934512</v>
+        <v>5.1250931372367079</v>
       </c>
       <c r="M46">
-        <v>8.266023712944548</v>
+        <v>6.2575845921920088</v>
       </c>
       <c r="N46">
-        <v>0.01666097497894574</v>
+        <v>5.1329094974839956E-3</v>
       </c>
       <c r="O46">
-        <v>0.001449963542760417</v>
+        <v>3.5916042674046661E-4</v>
       </c>
       <c r="P46">
-        <v>0.01494124048482995</v>
+        <v>1.088947960664409E-2</v>
       </c>
       <c r="Q46">
-        <v>0.001275466499116556</v>
+        <v>6.158121135527812E-3</v>
       </c>
       <c r="R46">
-        <v>0.001268058973075516</v>
+        <v>5.6081959265649847E-4</v>
       </c>
       <c r="S46">
-        <v>3.41007334754532E-06</v>
+        <v>1.3081064006032641E-5</v>
       </c>
       <c r="T46">
-        <v>0.004006445384915006</v>
+        <v>1.731233343895814E-2</v>
       </c>
       <c r="U46">
-        <v>0.001074646271590475</v>
+        <v>3.4933594674503E-3</v>
       </c>
       <c r="V46">
-        <v>11.71809324125148</v>
+        <v>36.477613655283207</v>
       </c>
       <c r="W46">
-        <v>3.630568381644679</v>
+        <v>-1.3795200126583289</v>
       </c>
       <c r="X46">
-        <v>0.0002839522785280993</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>1.83626721375269E-2</v>
+      </c>
+      <c r="Z46">
+        <v>1.9088820814215E-2</v>
+      </c>
+      <c r="AA46">
+        <v>3.4773061341410198E-3</v>
+      </c>
+      <c r="AB46">
+        <v>1.6053333309280289E-5</v>
+      </c>
+      <c r="AC46">
+        <v>3.6210665193351799E-3</v>
+      </c>
+      <c r="AD46">
+        <v>1.244159189530225E-6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4.981355531239543E-06</v>
+        <v>5.2932080814043426E-6</v>
       </c>
       <c r="C47">
-        <v>0.06271657361643024</v>
+        <v>5.4267323989503111E-2</v>
       </c>
       <c r="D47">
-        <v>0.004874433307167328</v>
+        <v>3.694360448424046E-3</v>
       </c>
       <c r="E47">
-        <v>0.06840474549009835</v>
+        <v>5.9565842109049028E-2</v>
       </c>
       <c r="F47">
-        <v>6.899229983675407</v>
+        <v>6.8992306203048104</v>
       </c>
       <c r="K47">
-        <v>8.230772912633078</v>
+        <v>6.2177983501982679</v>
       </c>
       <c r="L47">
-        <v>8.487873069802335</v>
+        <v>5.1339505552306974</v>
       </c>
       <c r="M47">
-        <v>8.264767379196796</v>
+        <v>6.2647053301639612</v>
       </c>
       <c r="N47">
-        <v>0.01693753882324002</v>
+        <v>5.2197049351338778E-3</v>
       </c>
       <c r="O47">
-        <v>0.001477620548059301</v>
+        <v>3.6711807617255691E-4</v>
       </c>
       <c r="P47">
-        <v>0.01518970910275202</v>
+        <v>1.097550430611894E-2</v>
       </c>
       <c r="Q47">
-        <v>0.001302883310510193</v>
+        <v>6.1659743447255912E-3</v>
       </c>
       <c r="R47">
-        <v>0.001291052589434207</v>
+        <v>5.7077847499559784E-4</v>
       </c>
       <c r="S47">
-        <v>3.479503872999862E-06</v>
+        <v>1.311794830658902E-5</v>
       </c>
       <c r="T47">
-        <v>0.004059750823339089</v>
+        <v>1.7563587511167371E-2</v>
       </c>
       <c r="U47">
-        <v>0.001091411626702843</v>
+        <v>3.5570560828782991E-3</v>
       </c>
       <c r="V47">
-        <v>11.79578182952283</v>
+        <v>36.768054940542441</v>
       </c>
       <c r="W47">
-        <v>3.651750167955065</v>
+        <v>-1.3257925706921481</v>
       </c>
       <c r="X47">
-        <v>0.0002897090040979264</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>1.8642114144301981E-2</v>
+      </c>
+      <c r="Z47">
+        <v>1.938819660367614E-2</v>
+      </c>
+      <c r="AA47">
+        <v>3.5405088473972001E-3</v>
+      </c>
+      <c r="AB47">
+        <v>1.6547235481098409E-5</v>
+      </c>
+      <c r="AC47">
+        <v>3.6890103734273168E-3</v>
+      </c>
+      <c r="AD47">
+        <v>1.2438032923888969E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5.816504915223801E-06</v>
+        <v>6.156684222665931E-6</v>
       </c>
       <c r="C48">
-        <v>0.06378772436289808</v>
+        <v>5.5203860351374943E-2</v>
       </c>
       <c r="D48">
-        <v>0.004157128707149112</v>
+        <v>3.1503586231922342E-3</v>
       </c>
       <c r="E48">
-        <v>0.0674223290168058</v>
+        <v>5.8566824997898517E-2</v>
       </c>
       <c r="F48">
-        <v>7.799229983675407</v>
+        <v>7.7992306203048107</v>
       </c>
       <c r="K48">
-        <v>8.228859821739579</v>
+        <v>6.224252886971513</v>
       </c>
       <c r="L48">
-        <v>8.492239959966126</v>
+        <v>5.0686292224312348</v>
       </c>
       <c r="M48">
-        <v>8.249965981523566</v>
+        <v>6.2538179135132212</v>
       </c>
       <c r="N48">
-        <v>0.01722383360611373</v>
+        <v>5.3095676547442721E-3</v>
       </c>
       <c r="O48">
-        <v>0.001297634401716649</v>
+        <v>3.135124242856195E-4</v>
       </c>
       <c r="P48">
-        <v>0.01544687254334909</v>
+        <v>1.106456967577437E-2</v>
       </c>
       <c r="Q48">
-        <v>0.001138537564928505</v>
+        <v>6.1384448625477067E-3</v>
       </c>
       <c r="R48">
-        <v>0.001314896535463118</v>
+        <v>5.8110552178613497E-4</v>
       </c>
       <c r="S48">
-        <v>3.152728830942291E-06</v>
+        <v>1.6821865547678408E-5</v>
       </c>
       <c r="T48">
-        <v>0.004114720067721241</v>
+        <v>1.7822967722802351E-2</v>
       </c>
       <c r="U48">
-        <v>0.0009836236868067216</v>
+        <v>3.1153442967894671E-3</v>
       </c>
       <c r="V48">
-        <v>11.83803224752976</v>
+        <v>36.91445991930361</v>
       </c>
       <c r="W48">
-        <v>3.673285838464494</v>
+        <v>-1.271232368388056</v>
       </c>
       <c r="X48">
-        <v>0.000295683034594211</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>1.8497301516221969E-2</v>
+      </c>
+      <c r="Z48">
+        <v>1.8959046949758421E-2</v>
+      </c>
+      <c r="AA48">
+        <v>3.099318504510261E-3</v>
+      </c>
+      <c r="AB48">
+        <v>1.6025792279205569E-5</v>
+      </c>
+      <c r="AC48">
+        <v>3.1856852164236361E-3</v>
+      </c>
+      <c r="AD48">
+        <v>1.2434418383295951E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5.792265260424394E-06</v>
+        <v>6.1344698236753248E-6</v>
       </c>
       <c r="C49">
-        <v>0.06491282994130844</v>
+        <v>5.6186001893416132E-2</v>
       </c>
       <c r="D49">
-        <v>0.004249880413996101</v>
+        <v>3.219790330157778E-3</v>
       </c>
       <c r="E49">
-        <v>0.06865708785237304</v>
+        <v>5.9653237812770661E-2</v>
       </c>
       <c r="F49">
-        <v>7.799229983675407</v>
+        <v>7.7992306203048107</v>
       </c>
       <c r="K49">
-        <v>8.226964268598069</v>
+        <v>6.2309321252733536</v>
       </c>
       <c r="L49">
-        <v>8.476140453485932</v>
+        <v>5.0766659839078079</v>
       </c>
       <c r="M49">
-        <v>8.245319811643524</v>
+        <v>6.26033973250457</v>
       </c>
       <c r="N49">
-        <v>0.017524327930725</v>
+        <v>5.4038328477717954E-3</v>
       </c>
       <c r="O49">
-        <v>0.001321268654173331</v>
+        <v>3.2032620435342427E-4</v>
       </c>
       <c r="P49">
-        <v>0.01571684112784759</v>
+        <v>1.1157515426967329E-2</v>
       </c>
       <c r="Q49">
-        <v>0.001165449772738923</v>
+        <v>6.1524641087501086E-3</v>
       </c>
       <c r="R49">
-        <v>0.001339646418607121</v>
+        <v>5.9175238322459645E-4</v>
       </c>
       <c r="S49">
-        <v>3.258310675695108E-06</v>
+        <v>1.844172244558219E-5</v>
       </c>
       <c r="T49">
-        <v>0.004173797357927176</v>
+        <v>1.8100470051595059E-2</v>
       </c>
       <c r="U49">
-        <v>0.0009974465705948519</v>
+        <v>3.1736814914574631E-3</v>
       </c>
       <c r="V49">
-        <v>11.88255707363549</v>
+        <v>37.071793074668328</v>
       </c>
       <c r="W49">
-        <v>3.695129336265147</v>
+        <v>-1.2155826449674829</v>
       </c>
       <c r="X49">
-        <v>0.0003018894350790889</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>1.8794232660992859E-2</v>
+      </c>
+      <c r="Z49">
+        <v>1.9269484388882579E-2</v>
+      </c>
+      <c r="AA49">
+        <v>3.1571734126909158E-3</v>
+      </c>
+      <c r="AB49">
+        <v>1.6508078766547279E-5</v>
+      </c>
+      <c r="AC49">
+        <v>3.2467846053853191E-3</v>
+      </c>
+      <c r="AD49">
+        <v>1.243067800984692E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5.767138621551166E-06</v>
+        <v>6.1114306724283072E-6</v>
       </c>
       <c r="C50">
-        <v>0.066079425124526</v>
+        <v>5.7204582885017251E-2</v>
       </c>
       <c r="D50">
-        <v>0.004346885145617192</v>
+        <v>3.292364152767849E-3</v>
       </c>
       <c r="E50">
-        <v>0.06993843199735968</v>
+        <v>6.0781093489993207E-2</v>
       </c>
       <c r="F50">
-        <v>7.799229983675407</v>
+        <v>7.7992306203048107</v>
       </c>
       <c r="K50">
-        <v>8.225071388403251</v>
+        <v>6.2377329146640879</v>
       </c>
       <c r="L50">
-        <v>8.468542643785524</v>
+        <v>5.0855841736462848</v>
       </c>
       <c r="M50">
-        <v>8.243872920673654</v>
+        <v>6.2676537068099032</v>
       </c>
       <c r="N50">
-        <v>0.01783592522450484</v>
+        <v>5.5015925909144558E-3</v>
       </c>
       <c r="O50">
-        <v>0.001347075176748009</v>
+        <v>3.2760500343814313E-4</v>
       </c>
       <c r="P50">
-        <v>0.01599667557698429</v>
+        <v>1.125376641385612E-2</v>
       </c>
       <c r="Q50">
-        <v>0.001191345931644148</v>
+        <v>6.1606615846146436E-3</v>
       </c>
       <c r="R50">
-        <v>0.001365346189913495</v>
+        <v>6.0277758823957758E-4</v>
       </c>
       <c r="S50">
-        <v>3.327520620933622E-06</v>
+        <v>1.8668652482336639E-5</v>
       </c>
       <c r="T50">
-        <v>0.004234881026914336</v>
+        <v>1.8387523677751549E-2</v>
       </c>
       <c r="U50">
-        <v>0.001013771493195966</v>
+        <v>3.2344724941210609E-3</v>
       </c>
       <c r="V50">
-        <v>11.92993248827902</v>
+        <v>37.240086973453259</v>
       </c>
       <c r="W50">
-        <v>3.717401425117558</v>
+        <v>-1.15903619692557</v>
       </c>
       <c r="X50">
-        <v>0.0003083398680634249</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>1.910159791039898E-2</v>
+      </c>
+      <c r="Z50">
+        <v>1.9590978313797299E-2</v>
+      </c>
+      <c r="AA50">
+        <v>3.2174312453199941E-3</v>
+      </c>
+      <c r="AB50">
+        <v>1.7041248801067759E-5</v>
+      </c>
+      <c r="AC50">
+        <v>3.3104519737899882E-3</v>
+      </c>
+      <c r="AD50">
+        <v>1.2426869567788111E-6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5.741075704930737E-06</v>
+        <v>6.0875201507059607E-6</v>
       </c>
       <c r="C51">
-        <v>0.06728986708489676</v>
+        <v>5.8261685213100572E-2</v>
       </c>
       <c r="D51">
-        <v>0.004448440115727168</v>
+        <v>3.368296898587292E-3</v>
       </c>
       <c r="E51">
-        <v>0.07126903528380808</v>
+        <v>6.1952797594903117E-2</v>
       </c>
       <c r="F51">
-        <v>7.799229983675407</v>
+        <v>7.7992306203048107</v>
       </c>
       <c r="K51">
-        <v>8.223156893857457</v>
+        <v>6.2446494062529982</v>
       </c>
       <c r="L51">
-        <v>8.460800532063139</v>
+        <v>5.0947409191984327</v>
       </c>
       <c r="M51">
-        <v>8.242398309101576</v>
+        <v>6.2751039434661378</v>
       </c>
       <c r="N51">
-        <v>0.01815923600975497</v>
+        <v>5.6030433279237951E-3</v>
       </c>
       <c r="O51">
-        <v>0.00137406859639752</v>
+        <v>3.3523394209704528E-4</v>
       </c>
       <c r="P51">
-        <v>0.01628697615826547</v>
+        <v>1.1353631214429481E-2</v>
       </c>
       <c r="Q51">
-        <v>0.001218435856167594</v>
+        <v>6.1692110643252491E-3</v>
       </c>
       <c r="R51">
-        <v>0.001392052438330996</v>
+        <v>6.142307046269744E-4</v>
       </c>
       <c r="S51">
-        <v>3.399940377195831E-06</v>
+        <v>1.8900938903317681E-5</v>
       </c>
       <c r="T51">
-        <v>0.004298040037379402</v>
+        <v>1.868464232841097E-2</v>
       </c>
       <c r="U51">
-        <v>0.001030753962573651</v>
+        <v>3.2978572718291312E-3</v>
       </c>
       <c r="V51">
-        <v>11.98017171390583</v>
+        <v>37.419410798696163</v>
       </c>
       <c r="W51">
-        <v>3.740074038156429</v>
+        <v>-1.101560755092351</v>
       </c>
       <c r="X51">
-        <v>0.0003150467380786918</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>1.9419965784623749E-2</v>
+      </c>
+      <c r="Z51">
+        <v>1.9924136127132789E-2</v>
+      </c>
+      <c r="AA51">
+        <v>3.2802552651065831E-3</v>
+      </c>
+      <c r="AB51">
+        <v>1.7602006722548E-5</v>
+      </c>
+      <c r="AC51">
+        <v>3.3768561483238338E-3</v>
+      </c>
+      <c r="AD51">
+        <v>1.2422996332498319E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5.71402352673391E-06</v>
+        <v>6.0626881195100174E-6</v>
       </c>
       <c r="C52">
-        <v>0.06854669562428015</v>
+        <v>5.9359552979390842E-2</v>
       </c>
       <c r="D52">
-        <v>0.004554870663031917</v>
+        <v>3.4478256238841222E-3</v>
       </c>
       <c r="E52">
-        <v>0.07265177838096615</v>
+        <v>6.3170944046925526E-2</v>
       </c>
       <c r="F52">
-        <v>7.799229983675407</v>
+        <v>7.7992306203048107</v>
       </c>
       <c r="K52">
-        <v>8.221217123073346</v>
+        <v>6.2516850915409012</v>
       </c>
       <c r="L52">
-        <v>8.452848349568491</v>
+        <v>5.1041269691988287</v>
       </c>
       <c r="M52">
-        <v>8.240910799213149</v>
+        <v>6.2826930398679419</v>
       </c>
       <c r="N52">
-        <v>0.01849493935802212</v>
+        <v>5.7083995156403302E-3</v>
       </c>
       <c r="O52">
-        <v>0.001402296280716749</v>
+        <v>3.4322418507685141E-4</v>
       </c>
       <c r="P52">
-        <v>0.01658834696430743</v>
+        <v>1.145731961743157E-2</v>
       </c>
       <c r="Q52">
-        <v>0.001246785732105337</v>
+        <v>6.1781636071224881E-3</v>
       </c>
       <c r="R52">
-        <v>0.001419825488290072</v>
+        <v>6.2613729994144757E-4</v>
       </c>
       <c r="S52">
-        <v>3.475545231788653E-06</v>
+        <v>1.913884516124561E-5</v>
       </c>
       <c r="T52">
-        <v>0.004363385758875517</v>
+        <v>1.8992378029542609E-2</v>
       </c>
       <c r="U52">
-        <v>0.001048445947001522</v>
+        <v>3.364008915014908E-3</v>
       </c>
       <c r="V52">
-        <v>12.03330121291627</v>
+        <v>37.609875859668257</v>
       </c>
       <c r="W52">
-        <v>3.763156897413829</v>
+        <v>-1.043126114297166</v>
       </c>
       <c r="X52">
-        <v>0.0003220250540750886</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>1.974994700684448E-2</v>
+      </c>
+      <c r="Z52">
+        <v>2.02696104680361E-2</v>
+      </c>
+      <c r="AA52">
+        <v>3.345816699197611E-3</v>
+      </c>
+      <c r="AB52">
+        <v>1.8192215817297432E-5</v>
+      </c>
+      <c r="AC52">
+        <v>3.446179801832519E-3</v>
+      </c>
+      <c r="AD52">
+        <v>1.2419056348737101E-6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5.685244628052163E-06</v>
+        <v>6.0361770866653232E-6</v>
       </c>
       <c r="C53">
-        <v>0.0698526512357342</v>
+        <v>6.0500608639707312E-2</v>
       </c>
       <c r="D53">
-        <v>0.004667022007669613</v>
+        <v>3.5315716629989642E-3</v>
       </c>
       <c r="E53">
-        <v>0.07408921404876039</v>
+        <v>6.4437834383315837E-2</v>
       </c>
       <c r="F53">
-        <v>7.798466659496716</v>
+        <v>7.7984680046560984</v>
       </c>
       <c r="K53">
-        <v>8.219254913431298</v>
+        <v>6.2588441113474094</v>
       </c>
       <c r="L53">
-        <v>8.444653273948111</v>
+        <v>5.1137919291105698</v>
       </c>
       <c r="M53">
-        <v>8.239409295174562</v>
+        <v>6.2904238694368724</v>
       </c>
       <c r="N53">
-        <v>0.01884376880857938</v>
+        <v>5.817892889733463E-3</v>
       </c>
       <c r="O53">
-        <v>0.001431959605069576</v>
+        <v>3.5163615647944518E-4</v>
       </c>
       <c r="P53">
-        <v>0.0169014400506789</v>
+        <v>1.156505749519298E-2</v>
       </c>
       <c r="Q53">
-        <v>0.001276599848917514</v>
+        <v>6.1875803077901239E-3</v>
       </c>
       <c r="R53">
-        <v>0.001448730589168812</v>
+        <v>6.3852502350839047E-4</v>
       </c>
       <c r="S53">
-        <v>3.554953138937565E-06</v>
+        <v>1.9385699125289478E-5</v>
       </c>
       <c r="T53">
-        <v>0.004431037591770904</v>
+        <v>1.931132433800236E-2</v>
       </c>
       <c r="U53">
-        <v>0.00106696456011299</v>
+        <v>3.4334332437435718E-3</v>
       </c>
       <c r="V53">
-        <v>12.08937696750909</v>
+        <v>37.811721192714863</v>
       </c>
       <c r="W53">
-        <v>3.786674211617253</v>
+        <v>-0.98369774610938876</v>
       </c>
       <c r="X53">
-        <v>0.000329292185169336</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>2.0092103545897001E-2</v>
+      </c>
+      <c r="Z53">
+        <v>2.062794272543475E-2</v>
+      </c>
+      <c r="AA53">
+        <v>3.4146193919879098E-3</v>
+      </c>
+      <c r="AB53">
+        <v>1.8813851755662181E-5</v>
+      </c>
+      <c r="AC53">
+        <v>3.5189348895583411E-3</v>
+      </c>
+      <c r="AD53">
+        <v>1.2415047297645451E-6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5.65602261126328E-06</v>
+        <v>6.009319038728356E-6</v>
       </c>
       <c r="C54">
-        <v>0.07121068517798554</v>
+        <v>6.1687463576722057E-2</v>
       </c>
       <c r="D54">
-        <v>0.004784334855343083</v>
+        <v>3.6191154338519539E-3</v>
       </c>
       <c r="E54">
-        <v>0.07558576374512727</v>
+        <v>6.5757456233858216E-2</v>
       </c>
       <c r="F54">
-        <v>7.798447641090766</v>
+        <v>7.7984490190634217</v>
       </c>
       <c r="K54">
-        <v>8.217262188993777</v>
+        <v>6.2661311711043659</v>
       </c>
       <c r="L54">
-        <v>8.43627785454048</v>
+        <v>5.1236740582421536</v>
       </c>
       <c r="M54">
-        <v>8.23790059045227</v>
+        <v>6.2983119772634728</v>
       </c>
       <c r="N54">
-        <v>0.0192065148336525</v>
+        <v>5.9317732383429213E-3</v>
       </c>
       <c r="O54">
-        <v>0.001462936142373146</v>
+        <v>3.6043333574739572E-4</v>
       </c>
       <c r="P54">
-        <v>0.01722695755488227</v>
+        <v>1.167708826993054E-2</v>
       </c>
       <c r="Q54">
-        <v>0.001307749912649783</v>
+        <v>6.1973888444400793E-3</v>
       </c>
       <c r="R54">
-        <v>0.001478838414919435</v>
+        <v>6.5142375943303831E-4</v>
       </c>
       <c r="S54">
-        <v>3.637565037619983E-06</v>
+        <v>1.9634569263563119E-5</v>
       </c>
       <c r="T54">
-        <v>0.004501122446597111</v>
+        <v>1.964211373579941E-2</v>
       </c>
       <c r="U54">
-        <v>0.001086227694188201</v>
+        <v>3.5057174479273061E-3</v>
       </c>
       <c r="V54">
-        <v>12.14842902893856</v>
+        <v>38.025058663850601</v>
       </c>
       <c r="W54">
-        <v>3.810629446710156</v>
+        <v>-0.9232402895376417</v>
       </c>
       <c r="X54">
-        <v>0.0003368656409072213</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>2.044731977245616E-2</v>
+      </c>
+      <c r="Z54">
+        <v>2.1000193466174769E-2</v>
+      </c>
+      <c r="AA54">
+        <v>3.4862476174729118E-3</v>
+      </c>
+      <c r="AB54">
+        <v>1.946983045439387E-5</v>
+      </c>
+      <c r="AC54">
+        <v>3.5947276619794281E-3</v>
+      </c>
+      <c r="AD54">
+        <v>1.241096654418156E-6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5.625626626164007E-06</v>
+        <v>5.9813640810012016E-6</v>
       </c>
       <c r="C55">
-        <v>0.07262401178059497</v>
+        <v>6.29229603457193E-2</v>
       </c>
       <c r="D55">
-        <v>0.004907705849734485</v>
+        <v>3.7111148778898469E-3</v>
       </c>
       <c r="E55">
-        <v>0.0771445470366711</v>
+        <v>6.7132626966688452E-2</v>
       </c>
       <c r="F55">
-        <v>7.798428357112254</v>
+        <v>7.7984297695546454</v>
       </c>
       <c r="K55">
-        <v>8.21525209929019</v>
+        <v>6.2735505197448571</v>
       </c>
       <c r="L55">
-        <v>8.427686705003627</v>
+        <v>5.1338197164844024</v>
       </c>
       <c r="M55">
-        <v>8.236383779558656</v>
+        <v>6.3063568575392486</v>
       </c>
       <c r="N55">
-        <v>0.01958403778453078</v>
+        <v>6.050312385206656E-3</v>
       </c>
       <c r="O55">
-        <v>0.001495442159912121</v>
+        <v>3.69678649320941E-4</v>
       </c>
       <c r="P55">
-        <v>0.01756566410046168</v>
+        <v>1.1793677619409059E-2</v>
       </c>
       <c r="Q55">
-        <v>0.001340454806056655</v>
+        <v>6.2076872981641452E-3</v>
       </c>
       <c r="R55">
-        <v>0.00151022566704458</v>
+        <v>6.6486608262813357E-4</v>
       </c>
       <c r="S55">
-        <v>3.724047734505793E-06</v>
+        <v>1.9890547681068639E-5</v>
       </c>
       <c r="T55">
-        <v>0.004573779781754748</v>
+        <v>1.998544131639244E-2</v>
       </c>
       <c r="U55">
-        <v>0.001106358893257358</v>
+        <v>3.5813911772387881E-3</v>
       </c>
       <c r="V55">
-        <v>12.21051727754023</v>
+        <v>38.25012927719213</v>
       </c>
       <c r="W55">
-        <v>3.835066196885009</v>
+        <v>-0.86171669171599063</v>
       </c>
       <c r="X55">
-        <v>0.0003447660370671349</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>2.0816275252941881E-2</v>
+      </c>
+      <c r="Z55">
+        <v>2.1387033182566999E-2</v>
+      </c>
+      <c r="AA55">
+        <v>3.5612287788417758E-3</v>
+      </c>
+      <c r="AB55">
+        <v>2.0162398397012179E-5</v>
+      </c>
+      <c r="AC55">
+        <v>3.6740962491114272E-3</v>
+      </c>
+      <c r="AD55">
+        <v>1.240681170894288E-6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5.593985169315607E-06</v>
+        <v>5.9522440811366176E-6</v>
       </c>
       <c r="C56">
-        <v>0.07409610538778758</v>
+        <v>6.4210174377628632E-2</v>
       </c>
       <c r="D56">
-        <v>0.005037612077813026</v>
+        <v>3.8079160425068992E-3</v>
       </c>
       <c r="E56">
-        <v>0.07876949918417425</v>
+        <v>6.8566903829583678E-2</v>
       </c>
       <c r="F56">
-        <v>7.798408795882336</v>
+        <v>7.7984102445704391</v>
       </c>
       <c r="K56">
-        <v>8.21320473543873</v>
+        <v>6.2811074210403222</v>
       </c>
       <c r="L56">
-        <v>8.41882031860102</v>
+        <v>5.1442435810624128</v>
       </c>
       <c r="M56">
-        <v>8.234843990306794</v>
+        <v>6.3145671186143746</v>
       </c>
       <c r="N56">
-        <v>0.01997726812419641</v>
+        <v>6.1738044229433017E-3</v>
       </c>
       <c r="O56">
-        <v>0.001529582453666241</v>
+        <v>3.7940770051905369E-4</v>
       </c>
       <c r="P56">
-        <v>0.0179183860416444</v>
+        <v>1.1915112191610041E-2</v>
       </c>
       <c r="Q56">
-        <v>0.00137483972035529</v>
+        <v>6.2184968766546868E-3</v>
       </c>
       <c r="R56">
-        <v>0.001542975702246973</v>
+        <v>6.7888728990959143E-4</v>
       </c>
       <c r="S56">
-        <v>3.814802608629022E-06</v>
+        <v>2.0152932658002829E-5</v>
       </c>
       <c r="T56">
-        <v>0.004649158496722082</v>
+        <v>2.034205110202621E-2</v>
       </c>
       <c r="U56">
-        <v>0.001127410615451188</v>
+        <v>3.660703068048052E-3</v>
       </c>
       <c r="V56">
-        <v>12.27571060218653</v>
+        <v>38.487219848269021</v>
       </c>
       <c r="W56">
-        <v>3.85996988489304</v>
+        <v>-0.79908705582873552</v>
       </c>
       <c r="X56">
-        <v>0.0003530133096386809</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>2.1199793606149521E-2</v>
+      </c>
+      <c r="Z56">
+        <v>2.1789342569118131E-2</v>
+      </c>
+      <c r="AA56">
+        <v>3.639808575968172E-3</v>
+      </c>
+      <c r="AB56">
+        <v>2.0894492079879729E-5</v>
+      </c>
+      <c r="AC56">
+        <v>3.757302514525088E-3</v>
+      </c>
+      <c r="AD56">
+        <v>1.240257984421742E-6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5.561020918220697E-06</v>
+        <v>5.9218852665970868E-6</v>
       </c>
       <c r="C57">
-        <v>0.07563073857245368</v>
+        <v>6.5552446785075782E-2</v>
       </c>
       <c r="D57">
-        <v>0.005174581535494271</v>
+        <v>3.9099013962607043E-3</v>
       </c>
       <c r="E57">
-        <v>0.08046489069803278</v>
+        <v>7.0064151317299705E-2</v>
       </c>
       <c r="F57">
-        <v>7.7983889449153</v>
+        <v>7.7983904317564026</v>
       </c>
       <c r="K57">
-        <v>8.21113521656361</v>
+        <v>6.2888063476086131</v>
       </c>
       <c r="L57">
-        <v>8.409739063904908</v>
+        <v>5.1549586118612876</v>
       </c>
       <c r="M57">
-        <v>8.233302285316526</v>
+        <v>6.3229488267220111</v>
       </c>
       <c r="N57">
-        <v>0.02038721669465263</v>
+        <v>6.3025687945527297E-3</v>
       </c>
       <c r="O57">
-        <v>0.001565501390084239</v>
+        <v>3.8965802406574568E-4</v>
       </c>
       <c r="P57">
-        <v>0.01828602040433971</v>
+        <v>1.204170364305349E-2</v>
       </c>
       <c r="Q57">
-        <v>0.001411026400644683</v>
+        <v>6.2298523522397236E-3</v>
       </c>
       <c r="R57">
-        <v>0.001577179277794492</v>
+        <v>6.93525831181849E-4</v>
       </c>
       <c r="S57">
-        <v>3.909964343652816E-06</v>
+        <v>2.0421953056186342E-5</v>
       </c>
       <c r="T57">
-        <v>0.004727419560750325</v>
+        <v>2.0712747725003509E-2</v>
       </c>
       <c r="U57">
-        <v>0.001149464149839863</v>
+        <v>3.7439269059000449E-3</v>
       </c>
       <c r="V57">
-        <v>12.34409330935117</v>
+        <v>38.736665205952889</v>
       </c>
       <c r="W57">
-        <v>3.885390131412585</v>
+        <v>-0.73531115898343202</v>
       </c>
       <c r="X57">
-        <v>0.0003616320638552154</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>2.1598765612302558E-2</v>
+      </c>
+      <c r="Z57">
+        <v>2.2208074211188929E-2</v>
+      </c>
+      <c r="AA57">
+        <v>3.7222576936176638E-3</v>
+      </c>
+      <c r="AB57">
+        <v>2.1669212282380729E-5</v>
+      </c>
+      <c r="AC57">
+        <v>3.8446346551181251E-3</v>
+      </c>
+      <c r="AD57">
+        <v>1.2398268445339181E-6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5.526650126888077E-06</v>
+        <v>5.8902075596533182E-6</v>
       </c>
       <c r="C58">
-        <v>0.07723201486874821</v>
+        <v>6.6953413725730673E-2</v>
       </c>
       <c r="D58">
-        <v>0.005319200047074868</v>
+        <v>4.0174947515828948E-3</v>
       </c>
       <c r="E58">
-        <v>0.08223536335191368</v>
+        <v>7.162857462770035E-2</v>
       </c>
       <c r="F58">
-        <v>7.798368790842609</v>
+        <v>7.7983703178880592</v>
       </c>
       <c r="K58">
-        <v>8.20903167008896</v>
+        <v>6.2966523256123121</v>
       </c>
       <c r="L58">
-        <v>8.400383088283874</v>
+        <v>5.1659783641404449</v>
       </c>
       <c r="M58">
-        <v>8.231744797783445</v>
+        <v>6.331508055447534</v>
       </c>
       <c r="N58">
-        <v>0.02081498295157464</v>
+        <v>6.436953130245616E-3</v>
       </c>
       <c r="O58">
-        <v>0.001603331704749461</v>
+        <v>4.0047187791837792E-4</v>
       </c>
       <c r="P58">
-        <v>0.01866954299533278</v>
+        <v>1.2173791172390159E-2</v>
       </c>
       <c r="Q58">
-        <v>0.001449167094651531</v>
+        <v>6.2418100916972622E-3</v>
       </c>
       <c r="R58">
-        <v>0.001612935398554738</v>
+        <v>7.0882364659379589E-4</v>
       </c>
       <c r="S58">
-        <v>4.010005754588508E-06</v>
+        <v>2.0697867977315441E-5</v>
       </c>
       <c r="T58">
-        <v>0.004808736729180108</v>
+        <v>2.1098402743619491E-2</v>
       </c>
       <c r="U58">
-        <v>0.001172585556097343</v>
+        <v>3.8313646386746699E-3</v>
       </c>
       <c r="V58">
-        <v>12.41576002719554</v>
+        <v>38.998850903260227</v>
       </c>
       <c r="W58">
-        <v>3.911328551288797</v>
+        <v>-0.67034659785899109</v>
       </c>
       <c r="X58">
-        <v>0.0003706463141309243</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>2.201415609353178E-2</v>
+      </c>
+      <c r="Z58">
+        <v>2.2644259904882141E-2</v>
+      </c>
+      <c r="AA58">
+        <v>3.8088746903046388E-3</v>
+      </c>
+      <c r="AB58">
+        <v>2.248994837003066E-5</v>
+      </c>
+      <c r="AC58">
+        <v>3.9364103953203004E-3</v>
+      </c>
+      <c r="AD58">
+        <v>1.2393874697657109E-6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5.490782010541496E-06</v>
+        <v>5.8571239551474718E-6</v>
       </c>
       <c r="C59">
-        <v>0.07890440591111272</v>
+        <v>6.8417039748385269E-2</v>
       </c>
       <c r="D59">
-        <v>0.005472119280190615</v>
+        <v>4.1311669235979624E-3</v>
       </c>
       <c r="E59">
-        <v>0.08408597093693555</v>
+        <v>7.3264757640508035E-2</v>
       </c>
       <c r="F59">
-        <v>7.798348319327251</v>
+        <v>7.798349888787393</v>
       </c>
       <c r="K59">
-        <v>8.206899153234058</v>
+        <v>6.3046517302024254</v>
       </c>
       <c r="L59">
-        <v>8.390734237349216</v>
+        <v>5.1773210974767636</v>
       </c>
       <c r="M59">
-        <v>8.230169585926399</v>
+        <v>6.3402550279604917</v>
       </c>
       <c r="N59">
-        <v>0.02126176553871011</v>
+        <v>6.5773364151834593E-3</v>
       </c>
       <c r="O59">
-        <v>0.001643230682527186</v>
+        <v>4.1189773543757601E-4</v>
       </c>
       <c r="P59">
-        <v>0.01907001685348816</v>
+        <v>1.2311744220778371E-2</v>
       </c>
       <c r="Q59">
-        <v>0.001489425340615727</v>
+        <v>6.2544033422443626E-3</v>
       </c>
       <c r="R59">
-        <v>0.001650352268154742</v>
+        <v>7.2482657167790003E-4</v>
       </c>
       <c r="S59">
-        <v>4.115334714338672E-06</v>
+        <v>2.098089599480057E-5</v>
       </c>
       <c r="T59">
-        <v>0.00489329838436808</v>
+        <v>2.149996176931589E-2</v>
       </c>
       <c r="U59">
-        <v>0.001196856079634492</v>
+        <v>3.9233500431733711E-3</v>
       </c>
       <c r="V59">
-        <v>12.49081848417076</v>
+        <v>39.274216533460937</v>
       </c>
       <c r="W59">
-        <v>3.937821218728942</v>
+        <v>-0.60414415209849182</v>
       </c>
       <c r="X59">
-        <v>0.0003800848225468185</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>2.2447011637726961E-2</v>
+      </c>
+      <c r="Z59">
+        <v>2.3099018875508311E-2</v>
+      </c>
+      <c r="AA59">
+        <v>3.8999894188075758E-3</v>
+      </c>
+      <c r="AB59">
+        <v>2.3360624365795061E-5</v>
+      </c>
+      <c r="AC59">
+        <v>4.0329806992668712E-3</v>
+      </c>
+      <c r="AD59">
+        <v>1.2389395031086639E-6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5.453317950516596E-06</v>
+        <v>5.8225397693711176E-6</v>
       </c>
       <c r="C60">
-        <v>0.08065279368803942</v>
+        <v>6.9947655768023045E-2</v>
       </c>
       <c r="D60">
-        <v>0.005634066213062576</v>
+        <v>4.2514423681131366E-3</v>
       </c>
       <c r="E60">
-        <v>0.08602222532895273</v>
+        <v>7.4977705983907628E-2</v>
       </c>
       <c r="F60">
-        <v>7.798327514968859</v>
+        <v>7.7983291292288808</v>
       </c>
       <c r="K60">
-        <v>8.20473309495655</v>
+        <v>6.3128094516559319</v>
       </c>
       <c r="L60">
-        <v>8.380801725585945</v>
+        <v>5.1889999025152838</v>
       </c>
       <c r="M60">
-        <v>8.228583999126027</v>
+        <v>6.3491937849264541</v>
       </c>
       <c r="N60">
-        <v>0.02172887351147636</v>
+        <v>6.7241325742250259E-3</v>
       </c>
       <c r="O60">
-        <v>0.001685378987231306</v>
+        <v>4.2398608183500861E-4</v>
       </c>
       <c r="P60">
-        <v>0.01948860236569941</v>
+        <v>1.245596662264823E-2</v>
       </c>
       <c r="Q60">
-        <v>0.001531975965849028</v>
+        <v>6.2677120218283854E-3</v>
       </c>
       <c r="R60">
-        <v>0.001689548385617608</v>
+        <v>7.4158480205130698E-4</v>
       </c>
       <c r="S60">
-        <v>4.226319621149578E-06</v>
+        <v>2.127135114834705E-5</v>
       </c>
       <c r="T60">
-        <v>0.004981308915433164</v>
+        <v>2.1918452524700229E-2</v>
       </c>
       <c r="U60">
-        <v>0.001222371826923399</v>
+        <v>4.020253371041867E-3</v>
       </c>
       <c r="V60">
-        <v>12.56939192794793</v>
+        <v>39.563259812244112</v>
       </c>
       <c r="W60">
-        <v>3.964887569104491</v>
+        <v>-0.53665762430226138</v>
       </c>
       <c r="X60">
-        <v>0.0003899776649123471</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>2.2898469570942329E-2</v>
+      </c>
+      <c r="Z60">
+        <v>2.3573567295547149E-2</v>
+      </c>
+      <c r="AA60">
+        <v>3.9959681338768887E-3</v>
+      </c>
+      <c r="AB60">
+        <v>2.4285237164978491E-5</v>
+      </c>
+      <c r="AC60">
+        <v>4.1347347115869857E-3</v>
+      </c>
+      <c r="AD60">
+        <v>1.238482670707268E-6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5.414150679889848E-06</v>
+        <v>5.7863517400851972E-6</v>
       </c>
       <c r="C61">
-        <v>0.0824825187484047</v>
+        <v>7.1550002436313528E-2</v>
       </c>
       <c r="D61">
-        <v>0.005805854192441261</v>
+        <v>4.3789070010686656E-3</v>
       </c>
       <c r="E61">
-        <v>0.08805014886367929</v>
+        <v>7.6772895987654202E-2</v>
       </c>
       <c r="F61">
-        <v>7.79830636119623</v>
+        <v>7.7983080228342629</v>
       </c>
       <c r="K61">
-        <v>8.202534633094242</v>
+        <v>6.3211329484583709</v>
       </c>
       <c r="L61">
-        <v>8.37057016644547</v>
+        <v>5.2010399155110703</v>
       </c>
       <c r="M61">
-        <v>8.226985874938705</v>
+        <v>6.3583397441034926</v>
       </c>
       <c r="N61">
-        <v>0.0222177392315799</v>
+        <v>6.8777946837955137E-3</v>
       </c>
       <c r="O61">
-        <v>0.001729972655085885</v>
+        <v>4.3679845705158832E-4</v>
       </c>
       <c r="P61">
-        <v>0.01992656886325673</v>
+        <v>1.260689966169261E-2</v>
       </c>
       <c r="Q61">
-        <v>0.001577021728689908</v>
+        <v>6.28174558271087E-3</v>
       </c>
       <c r="R61">
-        <v>0.001730653801861424</v>
+        <v>7.5915342280503766E-4</v>
       </c>
       <c r="S61">
-        <v>4.343457768375303E-06</v>
+        <v>2.156943413692765E-5</v>
       </c>
       <c r="T61">
-        <v>0.005072990307835841</v>
+        <v>2.235499396747238E-2</v>
       </c>
       <c r="U61">
-        <v>0.001249232901485812</v>
+        <v>4.122486121042033E-3</v>
       </c>
       <c r="V61">
-        <v>12.65161876552743</v>
+        <v>39.866541366072042</v>
       </c>
       <c r="W61">
-        <v>3.992558795509183</v>
+        <v>-0.46783107807500102</v>
       </c>
       <c r="X61">
-        <v>0.0004003583792286488</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>2.3369767645836981E-2</v>
+      </c>
+      <c r="Z61">
+        <v>2.4069228551670499E-2</v>
+      </c>
+      <c r="AA61">
+        <v>4.0972173084330423E-3</v>
+      </c>
+      <c r="AB61">
+        <v>2.526881260899036E-5</v>
+      </c>
+      <c r="AC61">
+        <v>4.2421043656896713E-3</v>
+      </c>
+      <c r="AD61">
+        <v>1.238016554886331E-6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5.373163361070322E-06</v>
+        <v>5.7484471266536214E-6</v>
       </c>
       <c r="C62">
-        <v>0.08439943536230379</v>
+        <v>7.3229279822194654E-2</v>
       </c>
       <c r="D62">
-        <v>0.005988395983011468</v>
+        <v>4.5142173326023771E-3</v>
       </c>
       <c r="E62">
-        <v>0.09017633394088147</v>
+        <v>7.8656330631711305E-2</v>
       </c>
       <c r="F62">
-        <v>7.798284840144077</v>
+        <v>7.7982865519531011</v>
       </c>
       <c r="K62">
-        <v>8.200299075561714</v>
+        <v>6.3296278482172834</v>
       </c>
       <c r="L62">
-        <v>8.359998425130652</v>
+        <v>5.2134568612107914</v>
       </c>
       <c r="M62">
-        <v>8.225368352267271</v>
+        <v>6.3676979631469068</v>
       </c>
       <c r="N62">
-        <v>0.02272993339599225</v>
+        <v>7.038819589464112E-3</v>
       </c>
       <c r="O62">
-        <v>0.001777227710302148</v>
+        <v>4.5039864690815608E-4</v>
       </c>
       <c r="P62">
-        <v>0.02038530754162091</v>
+        <v>1.276502851366716E-2</v>
       </c>
       <c r="Q62">
-        <v>0.00162479258851432</v>
+        <v>6.2966015985345784E-3</v>
       </c>
       <c r="R62">
-        <v>0.00177381156046375</v>
+        <v>7.7759302252174047E-4</v>
       </c>
       <c r="S62">
-        <v>4.467363960682038E-06</v>
+        <v>2.1875489014582649E-5</v>
       </c>
       <c r="T62">
-        <v>0.005168584242994592</v>
+        <v>2.2810806663633141E-2</v>
       </c>
       <c r="U62">
-        <v>0.001277547454118929</v>
+        <v>4.2305071402949984E-3</v>
       </c>
       <c r="V62">
-        <v>12.7376531690378</v>
+        <v>40.184690450934347</v>
       </c>
       <c r="W62">
-        <v>4.020857099838334</v>
+        <v>-0.39761176362498668</v>
       </c>
       <c r="X62">
-        <v>0.0004112630171882714</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>2.386225552012065E-2</v>
+      </c>
+      <c r="Z62">
+        <v>2.4587445382107921E-2</v>
+      </c>
+      <c r="AA62">
+        <v>4.2041908267999289E-3</v>
+      </c>
+      <c r="AB62">
+        <v>2.6316313495068731E-5</v>
+      </c>
+      <c r="AC62">
+        <v>4.3555711757568187E-3</v>
+      </c>
+      <c r="AD62">
+        <v>1.237540840499832E-6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5.330228518864476E-06</v>
+        <v>5.7087025810298986E-6</v>
       </c>
       <c r="C63">
-        <v>0.0864099748335677</v>
+        <v>7.4991204501414957E-2</v>
       </c>
       <c r="D63">
-        <v>0.006182719258692259</v>
+        <v>4.6581113410847624E-3</v>
       </c>
       <c r="E63">
-        <v>0.09240801103476269</v>
+        <v>8.0634603442728311E-2</v>
       </c>
       <c r="F63">
-        <v>7.798262932517425</v>
+        <v>7.7982646975275358</v>
       </c>
       <c r="K63">
-        <v>8.198029834550951</v>
+        <v>6.3383011423004891</v>
       </c>
       <c r="L63">
-        <v>8.349104663356261</v>
+        <v>5.2262727625130294</v>
       </c>
       <c r="M63">
-        <v>8.223740623979253</v>
+        <v>6.3772783578830978</v>
       </c>
       <c r="N63">
-        <v>0.0232671822597279</v>
+        <v>7.2077534597860598E-3</v>
       </c>
       <c r="O63">
-        <v>0.001827397801432347</v>
+        <v>4.6486066067247662E-4</v>
       </c>
       <c r="P63">
-        <v>0.02086634638657235</v>
+        <v>1.2930885614055169E-2</v>
       </c>
       <c r="Q63">
-        <v>0.001675534962913187</v>
+        <v>6.3123591557516746E-3</v>
       </c>
       <c r="R63">
-        <v>0.001819179360374085</v>
+        <v>7.9697039517577007E-4</v>
       </c>
       <c r="S63">
-        <v>4.59855134927608E-06</v>
+        <v>2.218984051095221E-5</v>
       </c>
       <c r="T63">
-        <v>0.005268354417068326</v>
+        <v>2.328722460012899E-2</v>
       </c>
       <c r="U63">
-        <v>0.001307447567842391</v>
+        <v>4.3448294225526124E-3</v>
       </c>
       <c r="V63">
-        <v>12.82766921265074</v>
+        <v>40.518411653973871</v>
       </c>
       <c r="W63">
-        <v>4.04982308092422</v>
+        <v>-0.32594006420005073</v>
       </c>
       <c r="X63">
-        <v>0.0004227328068312915</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>2.437740739134656E-2</v>
+      </c>
+      <c r="Z63">
+        <v>2.5129793204601011E-2</v>
+      </c>
+      <c r="AA63">
+        <v>4.3173959091591871E-3</v>
+      </c>
+      <c r="AB63">
+        <v>2.7433513393424239E-5</v>
+      </c>
+      <c r="AC63">
+        <v>4.4756729240343594E-3</v>
+      </c>
+      <c r="AD63">
+        <v>1.237055136031173E-6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5.28520684924818E-06</v>
+        <v>5.6669829063414353E-6</v>
       </c>
       <c r="C64">
-        <v>0.08852121840132757</v>
+        <v>7.6842075374055227E-2</v>
       </c>
       <c r="D64">
-        <v>0.006389985034242751</v>
+        <v>4.8114213700650912E-3</v>
       </c>
       <c r="E64">
-        <v>0.09475312650356028</v>
+        <v>8.271497182539303E-2</v>
       </c>
       <c r="F64">
-        <v>7.798240617433134</v>
+        <v>7.7982424389397664</v>
       </c>
       <c r="K64">
-        <v>8.195724896785249</v>
+        <v>6.3471609140173939</v>
       </c>
       <c r="L64">
-        <v>8.33786782578769</v>
+        <v>5.2395150341542074</v>
       </c>
       <c r="M64">
-        <v>8.222101522436459</v>
+        <v>6.3870955027423753</v>
       </c>
       <c r="N64">
-        <v>0.02383138711389357</v>
+        <v>7.3851980071311541E-3</v>
       </c>
       <c r="O64">
-        <v>0.001880761575991013</v>
+        <v>4.8026886285363409E-4</v>
       </c>
       <c r="P64">
-        <v>0.02137136773982655</v>
+        <v>1.31050573629579E-2</v>
       </c>
       <c r="Q64">
-        <v>0.001729534506083401</v>
+        <v>6.3290631504201514E-3</v>
       </c>
       <c r="R64">
-        <v>0.00186693148692737</v>
+        <v>8.1735935714063372E-4</v>
       </c>
       <c r="S64">
-        <v>4.737715540272145E-06</v>
+        <v>2.2512778458367101E-5</v>
       </c>
       <c r="T64">
-        <v>0.005372588807837431</v>
+        <v>2.3785708683749421E-2</v>
       </c>
       <c r="U64">
-        <v>0.001339073459741997</v>
+        <v>4.4660284023376236E-3</v>
       </c>
       <c r="V64">
-        <v>12.9218611020443</v>
+        <v>40.868492801452888</v>
       </c>
       <c r="W64">
-        <v>4.079490087304457</v>
+        <v>-0.25275081397337468</v>
       </c>
       <c r="X64">
-        <v>0.0004348123422717586</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>2.4916836436987059E-2</v>
+      </c>
+      <c r="Z64">
+        <v>2.5697995312420039E-2</v>
+      </c>
+      <c r="AA64">
+        <v>4.4374012940295174E-3</v>
+      </c>
+      <c r="AB64">
+        <v>2.8627108308106369E-5</v>
+      </c>
+      <c r="AC64">
+        <v>4.6030121321338343E-3</v>
+      </c>
+      <c r="AD64">
+        <v>1.2365589888150259E-6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5.237945874472237E-06</v>
+        <v>5.6231396636261403E-6</v>
       </c>
       <c r="C65">
-        <v>0.09074098146530284</v>
+        <v>7.8788849806595507E-2</v>
       </c>
       <c r="D65">
-        <v>0.006611509718273421</v>
+        <v>4.9750895133609573E-3</v>
       </c>
       <c r="E65">
-        <v>0.09722043188693741</v>
+        <v>8.4905441435276646E-2</v>
       </c>
       <c r="F65">
-        <v>7.798217872242413</v>
+        <v>7.7982197538367473</v>
       </c>
       <c r="K65">
-        <v>8.193377834846254</v>
+        <v>6.3562146193328077</v>
       </c>
       <c r="L65">
-        <v>8.326238882759116</v>
+        <v>5.2532088694721111</v>
       </c>
       <c r="M65">
-        <v>8.220441523394831</v>
+        <v>6.3971600686179002</v>
       </c>
       <c r="N65">
-        <v>0.02442464726356661</v>
+        <v>7.5718177137332494E-3</v>
       </c>
       <c r="O65">
-        <v>0.001937627987218835</v>
+        <v>4.9671722402825377E-4</v>
       </c>
       <c r="P65">
-        <v>0.02190222809749528</v>
+        <v>1.328819234167513E-2</v>
       </c>
       <c r="Q65">
-        <v>0.00178712017907591</v>
+        <v>6.3468166282856517E-3</v>
       </c>
       <c r="R65">
-        <v>0.00191726104831621</v>
+        <v>8.3884169710501933E-4</v>
       </c>
       <c r="S65">
-        <v>4.885733598668897E-06</v>
+        <v>2.284467640737442E-5</v>
       </c>
       <c r="T65">
-        <v>0.005481602736164334</v>
+        <v>2.430786220486866E-2</v>
       </c>
       <c r="U65">
-        <v>0.001372576728761641</v>
+        <v>4.5947517642021419E-3</v>
       </c>
       <c r="V65">
-        <v>13.02044409336672</v>
+        <v>41.235814272808888</v>
       </c>
       <c r="W65">
-        <v>4.109885384056835</v>
+        <v>-0.17797758209271561</v>
       </c>
       <c r="X65">
-        <v>0.0004475504680560366</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>2.548231158469505E-2</v>
+      </c>
+      <c r="Z65">
+        <v>2.6293940467359771E-2</v>
+      </c>
+      <c r="AA65">
+        <v>4.5648474627942599E-3</v>
+      </c>
+      <c r="AB65">
+        <v>2.9904301407881611E-5</v>
+      </c>
+      <c r="AC65">
+        <v>4.7382663867220941E-3</v>
+      </c>
+      <c r="AD65">
+        <v>1.236051981317363E-6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5.188278445456289E-06</v>
+        <v>5.5770095699063553E-6</v>
       </c>
       <c r="C66">
-        <v>0.09307791123605366</v>
+        <v>8.0839232036963124E-2</v>
       </c>
       <c r="D66">
-        <v>0.006848791608708394</v>
+        <v>5.1501860887674909E-3</v>
       </c>
       <c r="E66">
-        <v>0.09981958669212983</v>
+        <v>8.7214863528352907E-2</v>
       </c>
       <c r="F66">
-        <v>7.798194672327008</v>
+        <v>7.7981966179311932</v>
       </c>
       <c r="K66">
-        <v>8.190990648897838</v>
+        <v>6.3654695241483434</v>
       </c>
       <c r="L66">
-        <v>8.314214538878783</v>
+        <v>5.2673794158594101</v>
       </c>
       <c r="M66">
-        <v>8.218765093767471</v>
+        <v>6.4074810002575848</v>
       </c>
       <c r="N66">
-        <v>0.02504928668790961</v>
+        <v>7.7683482828917209E-3</v>
       </c>
       <c r="O66">
-        <v>0.001998358925391598</v>
+        <v>5.1431072158947364E-4</v>
       </c>
       <c r="P66">
-        <v>0.02246098109522915</v>
+        <v>1.3481008333713729E-2</v>
       </c>
       <c r="Q66">
-        <v>0.001848655147583115</v>
+        <v>6.3657506952421554E-3</v>
       </c>
       <c r="R66">
-        <v>0.001970382584836142</v>
+        <v>8.6150828101328738E-4</v>
       </c>
       <c r="S66">
-        <v>5.04343697402159E-06</v>
+        <v>2.318598625179995E-5</v>
       </c>
       <c r="T66">
-        <v>0.005595742347481076</v>
+        <v>2.4855448605998288E-2</v>
       </c>
       <c r="U66">
-        <v>0.00140813886144509</v>
+        <v>4.7317310136448061E-3</v>
       </c>
       <c r="V66">
-        <v>13.12365931635658</v>
+        <v>41.621359949106868</v>
       </c>
       <c r="W66">
-        <v>4.14105682772572</v>
+        <v>-0.1015505679093494</v>
       </c>
       <c r="X66">
-        <v>0.0004610032010405114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>2.6075776334833569E-2</v>
+      </c>
+      <c r="Z66">
+        <v>2.691970258681228E-2</v>
+      </c>
+      <c r="AA66">
+        <v>4.7004580287782344E-3</v>
+      </c>
+      <c r="AB66">
+        <v>3.1272984866572201E-5</v>
+      </c>
+      <c r="AC66">
+        <v>4.8822001664790143E-3</v>
+      </c>
+      <c r="AD66">
+        <v>1.235533706647693E-6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5.136020973419115E-06</v>
+        <v>5.5284126063107608E-6</v>
       </c>
       <c r="C67">
-        <v>0.09554160036826352</v>
+        <v>8.3001776206911571E-2</v>
       </c>
       <c r="D67">
-        <v>0.007103543012795185</v>
+        <v>5.3379319802362626E-3</v>
       </c>
       <c r="E67">
-        <v>0.1025612769199142</v>
+        <v>8.9653047555000656E-2</v>
       </c>
       <c r="F67">
-        <v>7.79817099086406</v>
+        <v>7.7981730047722833</v>
       </c>
       <c r="K67">
-        <v>8.188557795932271</v>
+        <v>6.3749356708476403</v>
       </c>
       <c r="L67">
-        <v>8.301782019315304</v>
+        <v>5.2820626384619027</v>
       </c>
       <c r="M67">
-        <v>8.217074071516096</v>
+        <v>6.4180762299125096</v>
       </c>
       <c r="N67">
-        <v>0.02570788462398155</v>
+        <v>7.9756064989289291E-3</v>
       </c>
       <c r="O67">
-        <v>0.002063364462559357</v>
+        <v>5.3317355558079823E-4</v>
       </c>
       <c r="P67">
-        <v>0.02304990469373332</v>
+        <v>1.3684301409098629E-2</v>
       </c>
       <c r="Q67">
-        <v>0.001914554926836408</v>
+        <v>6.3859518768799453E-3</v>
       </c>
       <c r="R67">
-        <v>0.002026535131917917</v>
+        <v>8.8546034657790128E-4</v>
       </c>
       <c r="S67">
-        <v>5.211809963000629E-06</v>
+        <v>2.35370940270921E-5</v>
       </c>
       <c r="T67">
-        <v>0.005715388161367818</v>
+        <v>2.5430411965779821E-2</v>
       </c>
       <c r="U67">
-        <v>0.001445962953207068</v>
+        <v>4.8777951426388277E-3</v>
       </c>
       <c r="V67">
-        <v>13.23177640152366</v>
+        <v>42.026230067203933</v>
       </c>
       <c r="W67">
-        <v>4.173039881075923</v>
+        <v>-2.338856847180892E-2</v>
       </c>
       <c r="X67">
-        <v>0.0004752313439023896</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>2.6699370331835118E-2</v>
+      </c>
+      <c r="Z67">
+        <v>2.7577563211364099E-2</v>
+      </c>
+      <c r="AA67">
+        <v>4.8450525105515089E-3</v>
+      </c>
+      <c r="AB67">
+        <v>3.2742632087318622E-5</v>
+      </c>
+      <c r="AC67">
+        <v>5.0356785478198312E-3</v>
+      </c>
+      <c r="AD67">
+        <v>1.2350036024325321E-6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5.08097154091063E-06</v>
+        <v>5.4771499626627476E-6</v>
       </c>
       <c r="C68">
-        <v>0.09814271970224789</v>
+        <v>8.5286006919460852E-2</v>
       </c>
       <c r="D68">
-        <v>0.007377729182700945</v>
+        <v>5.5397256671093874E-3</v>
       </c>
       <c r="E68">
-        <v>0.1054573524528458</v>
+        <v>9.2230892040738144E-2</v>
       </c>
       <c r="F68">
-        <v>7.798146798556155</v>
+        <v>7.7981488854823988</v>
       </c>
       <c r="K68">
-        <v>8.186081162117192</v>
+        <v>6.3846214831613466</v>
       </c>
       <c r="L68">
-        <v>8.288911354886078</v>
+        <v>5.2972910821657546</v>
       </c>
       <c r="M68">
-        <v>8.215364381524306</v>
+        <v>6.428958478713735</v>
       </c>
       <c r="N68">
-        <v>0.02640331168755279</v>
+        <v>8.194501585497992E-3</v>
       </c>
       <c r="O68">
-        <v>0.00213311040194546</v>
+        <v>5.5344342642869436E-4</v>
       </c>
       <c r="P68">
-        <v>0.02367153262805382</v>
+        <v>1.389895874828154E-2</v>
       </c>
       <c r="Q68">
-        <v>0.001985301140296209</v>
+        <v>6.4075605906260703E-3</v>
       </c>
       <c r="R68">
-        <v>0.002085985817857768</v>
+        <v>9.1081103047645456E-4</v>
       </c>
       <c r="S68">
-        <v>5.392048162555233E-06</v>
+        <v>2.3898513192329599E-5</v>
       </c>
       <c r="T68">
-        <v>0.005840959491019606</v>
+        <v>2.60349006958722E-2</v>
       </c>
       <c r="U68">
-        <v>0.001486275125534217</v>
+        <v>5.0338878597801246E-3</v>
       </c>
       <c r="V68">
-        <v>13.3450961684242</v>
+        <v>42.451656525952806</v>
       </c>
       <c r="W68">
-        <v>4.205888949121864</v>
+        <v>5.6588929945124988E-2</v>
       </c>
       <c r="X68">
-        <v>0.0004903039583640413</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24">
+        <v>1.278290642006347E-5</v>
+      </c>
+      <c r="Y68">
+        <v>2.7355454540313989E-2</v>
+      </c>
+      <c r="Z68">
+        <v>2.827003763104927E-2</v>
+      </c>
+      <c r="AA68">
+        <v>4.9995644066813463E-3</v>
+      </c>
+      <c r="AB68">
+        <v>3.4323453098778098E-5</v>
+      </c>
+      <c r="AC68">
+        <v>5.1996850922600103E-3</v>
+      </c>
+      <c r="AD68">
+        <v>1.234461196942965E-6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5.022907622846076E-06</v>
+        <v>5.4230015985391217E-6</v>
       </c>
       <c r="C69">
-        <v>0.100893173960416</v>
+        <v>8.7702560896804851E-2</v>
       </c>
       <c r="D69">
-        <v>0.00767361612562296</v>
+        <v>5.7571762929082646E-3</v>
       </c>
       <c r="E69">
-        <v>0.1085209864348489</v>
+        <v>9.4960536977231308E-2</v>
       </c>
       <c r="F69">
-        <v>7.798122063320034</v>
+        <v>7.7981242284516119</v>
       </c>
       <c r="K69">
-        <v>8.183556278835734</v>
+        <v>6.3945372153223916</v>
       </c>
       <c r="L69">
-        <v>8.27556797100214</v>
+        <v>5.3131047307303083</v>
       </c>
       <c r="M69">
-        <v>8.213632932199536</v>
+        <v>6.440144844455661</v>
       </c>
       <c r="N69">
-        <v>0.0271387723325712</v>
+        <v>8.4260488024394849E-3</v>
       </c>
       <c r="O69">
-        <v>0.002208132143552245</v>
+        <v>5.7528185896185409E-4</v>
       </c>
       <c r="P69">
-        <v>0.02432869115798587</v>
+        <v>1.4125970813665029E-2</v>
       </c>
       <c r="Q69">
-        <v>0.002061444856151213</v>
+        <v>6.4307284596188397E-3</v>
       </c>
       <c r="R69">
-        <v>0.002149034113909138</v>
+        <v>9.3768716736385225E-4</v>
       </c>
       <c r="S69">
-        <v>5.585518782047991E-06</v>
+        <v>2.4270779767565909E-5</v>
       </c>
       <c r="T69">
-        <v>0.005972919623307042</v>
+        <v>2.667129502423863E-2</v>
       </c>
       <c r="U69">
-        <v>0.001529334344035695</v>
+        <v>5.2010874054271277E-3</v>
       </c>
       <c r="V69">
-        <v>13.46395509968685</v>
+        <v>42.899020924651147</v>
       </c>
       <c r="W69">
-        <v>4.239650086955919</v>
+        <v>0.13847311338611229</v>
       </c>
       <c r="X69">
-        <v>0.0005062974957291102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24">
+        <v>3.1630111793968797E-5</v>
+      </c>
+      <c r="Y69">
+        <v>2.8046639780182021E-2</v>
+      </c>
+      <c r="Z69">
+        <v>2.8999904345318319E-2</v>
+      </c>
+      <c r="AA69">
+        <v>5.1650601296665006E-3</v>
+      </c>
+      <c r="AB69">
+        <v>3.60272757606262E-5</v>
+      </c>
+      <c r="AC69">
+        <v>5.3753418468858293E-3</v>
+      </c>
+      <c r="AD69">
+        <v>1.2339059159419461E-6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>4.96158366255853E-06</v>
+        <v>5.3657234744198738E-6</v>
       </c>
       <c r="C70">
-        <v>0.1038062851427533</v>
+        <v>9.0263354165676615E-2</v>
       </c>
       <c r="D70">
-        <v>0.007993829290507275</v>
+        <v>5.9921442790351904E-3</v>
       </c>
       <c r="E70">
-        <v>0.1117668612346798</v>
+        <v>9.7855542050834854E-2</v>
       </c>
       <c r="F70">
-        <v>7.79809674992162</v>
+        <v>7.7980989989843987</v>
       </c>
       <c r="K70">
-        <v>8.180981859956486</v>
+        <v>6.4046926812592764</v>
       </c>
       <c r="L70">
-        <v>8.261757159034586</v>
+        <v>5.32954399337972</v>
       </c>
       <c r="M70">
-        <v>8.21188573365716</v>
+        <v>6.4516508089858471</v>
       </c>
       <c r="N70">
-        <v>0.02791785483847804</v>
+        <v>8.6713852694231628E-3</v>
       </c>
       <c r="O70">
-        <v>0.002289057730364926</v>
+        <v>5.988724074943091E-4</v>
       </c>
       <c r="P70">
-        <v>0.0250245426049182</v>
+        <v>1.4366447137228981E-2</v>
       </c>
       <c r="Q70">
-        <v>0.002143617263096272</v>
+        <v>6.4556389566221839E-3</v>
       </c>
       <c r="R70">
-        <v>0.00221601688250686</v>
+        <v>9.6623142947623616E-4</v>
       </c>
       <c r="S70">
-        <v>5.793676064026283E-06</v>
+        <v>2.465456066902568E-5</v>
       </c>
       <c r="T70">
-        <v>0.006111781663284271</v>
+        <v>2.7342239012326491E-2</v>
       </c>
       <c r="U70">
-        <v>0.001575444386417963</v>
+        <v>5.3806315946574286E-3</v>
       </c>
       <c r="V70">
-        <v>13.58873185618562</v>
+        <v>43.369876118101793</v>
       </c>
       <c r="W70">
-        <v>4.274382248548264</v>
+        <v>0.22235859456832691</v>
       </c>
       <c r="X70">
-        <v>0.0005232989457700395</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24">
+        <v>5.154697147411024E-5</v>
+      </c>
+      <c r="Y70">
+        <v>2.8775820088869069E-2</v>
+      </c>
+      <c r="Z70">
+        <v>2.977023932697433E-2</v>
+      </c>
+      <c r="AA70">
+        <v>5.3427642941505076E-3</v>
+      </c>
+      <c r="AB70">
+        <v>3.7867300506920043E-5</v>
+      </c>
+      <c r="AC70">
+        <v>5.5639348787329826E-3</v>
+      </c>
+      <c r="AD70">
+        <v>1.233337209849481E-6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>4.896728199549464E-06</v>
+        <v>5.3050443443120859E-6</v>
       </c>
       <c r="C71">
-        <v>0.1068970095250838</v>
+        <v>9.2981780291052155E-2</v>
       </c>
       <c r="D71">
-        <v>0.008341426511685115</v>
+        <v>6.2467916014850343E-3</v>
       </c>
       <c r="E71">
-        <v>0.1152113857587757</v>
+        <v>0.100931095760212</v>
       </c>
       <c r="F71">
-        <v>7.798070819554776</v>
+        <v>7.7980731588870524</v>
       </c>
       <c r="K71">
-        <v>8.178355332392742</v>
+        <v>6.4151002000433381</v>
       </c>
       <c r="L71">
-        <v>8.247425633893871</v>
+        <v>5.3466614240583956</v>
       </c>
       <c r="M71">
-        <v>8.210115519303024</v>
+        <v>6.463499783134008</v>
       </c>
       <c r="N71">
-        <v>0.02874459022906234</v>
+        <v>8.9317889101305451E-3</v>
       </c>
       <c r="O71">
-        <v>0.002376605086809305</v>
+        <v>6.2443247398804257E-4</v>
       </c>
       <c r="P71">
-        <v>0.02576263697078343</v>
+        <v>1.4621634497893721E-2</v>
       </c>
       <c r="Q71">
-        <v>0.002232562269853926</v>
+        <v>6.4824573019736931E-3</v>
       </c>
       <c r="R71">
-        <v>0.002287314405295338</v>
+        <v>9.9660487685711394E-4</v>
       </c>
       <c r="S71">
-        <v>6.018400292149564E-06</v>
+        <v>2.5050504564545099E-5</v>
       </c>
       <c r="T71">
-        <v>0.006258115123828347</v>
+        <v>2.8050677961283559E-2</v>
       </c>
       <c r="U71">
-        <v>0.001624944032174892</v>
+        <v>5.5739477531703873E-3</v>
       </c>
       <c r="V71">
-        <v>13.71985127016586</v>
+        <v>43.865971915981333</v>
       </c>
       <c r="W71">
-        <v>4.310146289675686</v>
+        <v>0.30835391180639959</v>
       </c>
       <c r="X71">
-        <v>0.0005414061001866788</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24">
+        <v>7.2629491907405676E-5</v>
+      </c>
+      <c r="Y71">
+        <v>2.954621088296366E-2</v>
+      </c>
+      <c r="Z71">
+        <v>3.0584454963587651E-2</v>
+      </c>
+      <c r="AA71">
+        <v>5.5340886273333306E-3</v>
+      </c>
+      <c r="AB71">
+        <v>3.9859125837056628E-5</v>
+      </c>
+      <c r="AC71">
+        <v>5.7669442918765346E-3</v>
+      </c>
+      <c r="AD71">
+        <v>1.232754388797573E-6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4.828040685723036E-06</v>
+        <v>5.2406620893977519E-6</v>
       </c>
       <c r="C72">
-        <v>0.1101821956255304</v>
+        <v>9.5872946580704388E-2</v>
       </c>
       <c r="D72">
-        <v>0.00871998904771522</v>
+        <v>6.5236444344086847E-3</v>
       </c>
       <c r="E72">
-        <v>0.118872950589914</v>
+        <v>0.1042042617833123</v>
       </c>
       <c r="F72">
-        <v>7.798044229341643</v>
+        <v>7.7980466659825396</v>
       </c>
       <c r="K72">
-        <v>8.175674661423852</v>
+        <v>6.4257697947381853</v>
       </c>
       <c r="L72">
-        <v>8.232576098625479</v>
+        <v>5.3645033893848293</v>
       </c>
       <c r="M72">
-        <v>8.208327508070433</v>
+        <v>6.4757060682336478</v>
       </c>
       <c r="N72">
-        <v>0.02962352306713744</v>
+        <v>9.2087007913352961E-3</v>
       </c>
       <c r="O72">
-        <v>0.002471624262873834</v>
+        <v>6.5220917377280707E-4</v>
       </c>
       <c r="P72">
-        <v>0.02654697279414775</v>
+        <v>1.489294040442438E-2</v>
       </c>
       <c r="Q72">
-        <v>0.002329137927191307</v>
+        <v>6.51146867194944E-3</v>
       </c>
       <c r="R72">
-        <v>0.002363357605462111</v>
+        <v>1.0289900226001999E-3</v>
       </c>
       <c r="S72">
-        <v>6.261699846074127E-06</v>
+        <v>2.5459613450651758E-5</v>
       </c>
       <c r="T72">
-        <v>0.006412554160216795</v>
+        <v>2.8799902301553999E-2</v>
       </c>
       <c r="U72">
-        <v>0.001678235584176396</v>
+        <v>5.7826905502017462E-3</v>
       </c>
       <c r="V72">
-        <v>13.85779362931698</v>
+        <v>44.389286076303797</v>
       </c>
       <c r="W72">
-        <v>4.347010940132435</v>
+        <v>0.39656643171579731</v>
       </c>
       <c r="X72">
-        <v>0.0005607295049093334</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24">
+        <v>9.4983250061279689E-5</v>
+      </c>
+      <c r="Y72">
+        <v>3.0361394052169591E-2</v>
+      </c>
+      <c r="Z72">
+        <v>3.1446345764814011E-2</v>
+      </c>
+      <c r="AA72">
+        <v>5.7406709112464791E-3</v>
+      </c>
+      <c r="AB72">
+        <v>4.2019638955266991E-5</v>
+      </c>
+      <c r="AC72">
+        <v>5.9860829973492468E-3</v>
+      </c>
+      <c r="AD72">
+        <v>1.232156891494662E-6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6.143790873951908E-06</v>
+        <v>6.613370192943385E-6</v>
       </c>
       <c r="C73">
-        <v>0.1136808924040757</v>
+        <v>9.8953956999542139E-2</v>
       </c>
       <c r="D73">
-        <v>0.007045661231484475</v>
+        <v>5.2889622210176204E-3</v>
       </c>
       <c r="E73">
-        <v>0.1203032990518693</v>
+        <v>0.1052257196612507</v>
       </c>
       <c r="F73">
-        <v>9.298044229341643</v>
+        <v>9.2980466659825396</v>
       </c>
       <c r="K73">
-        <v>8.17293687984265</v>
+        <v>6.4367146956336274</v>
       </c>
       <c r="L73">
-        <v>8.240195497340217</v>
+        <v>5.2790623043849223</v>
       </c>
       <c r="M73">
-        <v>8.197839501912457</v>
+        <v>6.4736668890645186</v>
       </c>
       <c r="N73">
-        <v>0.03055979543969825</v>
+        <v>9.5037522264236549E-3</v>
       </c>
       <c r="O73">
-        <v>0.002076369407528443</v>
+        <v>5.3417496575085982E-4</v>
       </c>
       <c r="P73">
-        <v>0.02738207054818072</v>
+        <v>1.5181956671061441E-2</v>
       </c>
       <c r="Q73">
-        <v>0.001949618821666005</v>
+        <v>6.4408343744847994E-3</v>
       </c>
       <c r="R73">
-        <v>0.002444636774621284</v>
+        <v>1.063594519467425E-3</v>
       </c>
       <c r="S73">
-        <v>5.230360395376743E-06</v>
+        <v>2.526772643056969E-5</v>
       </c>
       <c r="T73">
-        <v>0.006575806524907841</v>
+        <v>2.959359925849717E-2</v>
       </c>
       <c r="U73">
-        <v>0.00145848578062719</v>
+        <v>4.8147264188249956E-3</v>
       </c>
       <c r="V73">
-        <v>13.94914155491491</v>
+        <v>44.709700600996207</v>
       </c>
       <c r="W73">
-        <v>4.38505176298084</v>
+        <v>0.48712187664860812</v>
       </c>
       <c r="X73">
-        <v>0.0005813990775184759</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24">
+        <v>1.187503268710241E-4</v>
+      </c>
+      <c r="Y73">
+        <v>3.0740398239919139E-2</v>
+      </c>
+      <c r="Z73">
+        <v>3.1535181480176047E-2</v>
+      </c>
+      <c r="AA73">
+        <v>4.772421992008999E-3</v>
+      </c>
+      <c r="AB73">
+        <v>4.2304426815996453E-5</v>
+      </c>
+      <c r="AC73">
+        <v>4.9505911696898159E-3</v>
+      </c>
+      <c r="AD73">
+        <v>1.231543977044517E-6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6.063918537364562E-06</v>
+        <v>6.5394854316367223E-6</v>
       </c>
       <c r="C74">
-        <v>0.1174892935173825</v>
+        <v>0.1022991353844895</v>
       </c>
       <c r="D74">
-        <v>0.007379013558726668</v>
+        <v>5.5328692835359093E-3</v>
       </c>
       <c r="E74">
-        <v>0.124453155647233</v>
+        <v>0.1089103494973456</v>
       </c>
       <c r="F74">
-        <v>9.298044229341643</v>
+        <v>9.2980466659825396</v>
       </c>
       <c r="K74">
-        <v>8.170023292544645</v>
+        <v>6.4482588927747768</v>
       </c>
       <c r="L74">
-        <v>8.203969447814419</v>
+        <v>5.2947978911708864</v>
       </c>
       <c r="M74">
-        <v>8.191298578081181</v>
+        <v>6.4839966015782462</v>
       </c>
       <c r="N74">
-        <v>0.03157706065513288</v>
+        <v>9.8240942714476823E-3</v>
       </c>
       <c r="O74">
-        <v>0.002160419053735605</v>
+        <v>5.5801764654649024E-4</v>
       </c>
       <c r="P74">
-        <v>0.02829037239555625</v>
+        <v>1.5494139610224901E-2</v>
       </c>
       <c r="Q74">
-        <v>0.002042874272252151</v>
+        <v>6.4941188935842449E-3</v>
       </c>
       <c r="R74">
-        <v>0.00253175843227221</v>
+        <v>1.1006776192187409E-3</v>
       </c>
       <c r="S74">
-        <v>5.539217723419806E-06</v>
+        <v>2.8598125618313751E-5</v>
       </c>
       <c r="T74">
-        <v>0.006758567980060721</v>
+        <v>3.0478559002771171E-2</v>
       </c>
       <c r="U74">
-        <v>0.001505271833968628</v>
+        <v>5.0067279642990129E-3</v>
       </c>
       <c r="V74">
-        <v>14.04696651533709</v>
+        <v>45.058187791500274</v>
       </c>
       <c r="W74">
-        <v>4.423750478205122</v>
+        <v>0.58088123196905173</v>
       </c>
       <c r="X74">
-        <v>0.0006035465347379338</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24">
+        <v>1.442015160274125E-4</v>
+      </c>
+      <c r="Y74">
+        <v>3.168317202471152E-2</v>
+      </c>
+      <c r="Z74">
+        <v>3.2518664109033341E-2</v>
+      </c>
+      <c r="AA74">
+        <v>4.9622042897281542E-3</v>
+      </c>
+      <c r="AB74">
+        <v>4.4523674570858408E-5</v>
+      </c>
+      <c r="AC74">
+        <v>5.1512445090757947E-3</v>
+      </c>
+      <c r="AD74">
+        <v>1.2308975020046121E-6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5.978620035388037E-06</v>
+        <v>6.4604670459753991E-6</v>
       </c>
       <c r="C75">
-        <v>0.1215674520343698</v>
+        <v>0.1058830711660063</v>
       </c>
       <c r="D75">
-        <v>0.007745084752149869</v>
+        <v>5.8001185179047633E-3</v>
       </c>
       <c r="E75">
-        <v>0.1288987186479678</v>
+        <v>0.11286147436840591</v>
       </c>
       <c r="F75">
-        <v>9.298044229341643</v>
+        <v>9.2980466659825396</v>
       </c>
       <c r="K75">
-        <v>8.167108451275794</v>
+        <v>6.4601980241600314</v>
       </c>
       <c r="L75">
-        <v>8.184902967243302</v>
+        <v>5.313854151222249</v>
       </c>
       <c r="M75">
-        <v>8.189112346133403</v>
+        <v>6.4971796234019994</v>
       </c>
       <c r="N75">
-        <v>0.03266656589962908</v>
+        <v>1.016728229459217E-2</v>
       </c>
       <c r="O75">
-        <v>0.002253725452017744</v>
+        <v>5.8501551027663576E-4</v>
       </c>
       <c r="P75">
-        <v>0.02926250195567862</v>
+        <v>1.5827473710841221E-2</v>
       </c>
       <c r="Q75">
-        <v>0.002139016085690541</v>
+        <v>6.5260897408435103E-3</v>
       </c>
       <c r="R75">
-        <v>0.002625322106885128</v>
+        <v>1.1403842671298681E-3</v>
       </c>
       <c r="S75">
-        <v>5.782110253892155E-06</v>
+        <v>2.9319342910096021E-5</v>
       </c>
       <c r="T75">
-        <v>0.006953134503990058</v>
+        <v>3.1421960152344219E-2</v>
       </c>
       <c r="U75">
-        <v>0.001559932193566384</v>
+        <v>5.2159993638492171E-3</v>
       </c>
       <c r="V75">
-        <v>14.15249683221171</v>
+        <v>45.436879403600173</v>
       </c>
       <c r="W75">
-        <v>4.463877877945414</v>
+        <v>0.67745680358423499</v>
       </c>
       <c r="X75">
-        <v>0.0006273518491041728</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24">
+        <v>1.713756294112337E-4</v>
+      </c>
+      <c r="Y75">
+        <v>3.2688827294909018E-2</v>
+      </c>
+      <c r="Z75">
+        <v>3.3568206304775187E-2</v>
+      </c>
+      <c r="AA75">
+        <v>5.1687847419660321E-3</v>
+      </c>
+      <c r="AB75">
+        <v>4.721462188318486E-5</v>
+      </c>
+      <c r="AC75">
+        <v>5.369680209388366E-3</v>
+      </c>
+      <c r="AD75">
+        <v>1.230228910647038E-6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5.887339707267676E-06</v>
+        <v>6.3757724556932064E-6</v>
       </c>
       <c r="C76">
-        <v>0.1259452353913783</v>
+        <v>0.1097324154986256</v>
       </c>
       <c r="D76">
-        <v>0.008148847852431333</v>
+        <v>6.0941732734347189E-3</v>
       </c>
       <c r="E76">
-        <v>0.1336722270520701</v>
+        <v>0.1171086364076827</v>
       </c>
       <c r="F76">
-        <v>9.298044229341643</v>
+        <v>9.2980466659825396</v>
       </c>
       <c r="K76">
-        <v>8.164117961206014</v>
+        <v>6.4724895652447918</v>
       </c>
       <c r="L76">
-        <v>8.165085625538042</v>
+        <v>5.3338578331228117</v>
       </c>
       <c r="M76">
-        <v>8.186858919153376</v>
+        <v>6.5108066930526682</v>
       </c>
       <c r="N76">
-        <v>0.03383629053222952</v>
+        <v>1.0535831017065849E-2</v>
       </c>
       <c r="O76">
-        <v>0.002356249724124202</v>
+        <v>6.1473293437883602E-4</v>
       </c>
       <c r="P76">
-        <v>0.03030571295067816</v>
+        <v>1.6185219248148822E-2</v>
       </c>
       <c r="Q76">
-        <v>0.002244678921220353</v>
+        <v>6.5610293448239787E-3</v>
       </c>
       <c r="R76">
-        <v>0.002726073645217098</v>
+        <v>1.1831175334460139E-3</v>
       </c>
       <c r="S76">
-        <v>6.048699476248267E-06</v>
+        <v>3.008464590115535E-5</v>
       </c>
       <c r="T76">
-        <v>0.007160565362083276</v>
+        <v>3.2429881721132488E-2</v>
       </c>
       <c r="U76">
-        <v>0.001619447596586041</v>
+        <v>5.4447609994694654E-3</v>
       </c>
       <c r="V76">
-        <v>14.26633127812578</v>
+        <v>45.848208296399719</v>
       </c>
       <c r="W76">
-        <v>4.505411550471834</v>
+        <v>0.77688375615660732</v>
       </c>
       <c r="X76">
-        <v>0.0006530000318329063</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24">
+        <v>2.0042750212585981E-4</v>
+      </c>
+      <c r="Y76">
+        <v>3.3763880383582252E-2</v>
+      </c>
+      <c r="Z76">
+        <v>3.4690638389032059E-2</v>
+      </c>
+      <c r="AA76">
+        <v>5.3945925923909472E-3</v>
+      </c>
+      <c r="AB76">
+        <v>5.0168407078517289E-5</v>
+      </c>
+      <c r="AC76">
+        <v>5.6083881848964434E-3</v>
+      </c>
+      <c r="AD76">
+        <v>1.2295405843462919E-6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5.788486268882635E-06</v>
+        <v>6.2837849586411689E-6</v>
       </c>
       <c r="C77">
-        <v>0.1306570908929361</v>
+        <v>0.11387794518763319</v>
       </c>
       <c r="D77">
-        <v>0.008597565342737635</v>
+        <v>6.4201008473645906E-3</v>
       </c>
       <c r="E77">
-        <v>0.1388092056678502</v>
+        <v>0.1216844812405905</v>
       </c>
       <c r="F77">
-        <v>9.29693692926744</v>
+        <v>9.2969413843367708</v>
       </c>
       <c r="K77">
-        <v>8.161049940616982</v>
+        <v>6.4851537391667362</v>
       </c>
       <c r="L77">
-        <v>8.144388439809459</v>
+        <v>5.3549181554286376</v>
       </c>
       <c r="M77">
-        <v>8.184557097759637</v>
+        <v>6.5249070326509733</v>
       </c>
       <c r="N77">
-        <v>0.03509549216455372</v>
+        <v>1.0932674940373329E-2</v>
       </c>
       <c r="O77">
-        <v>0.002469636245686657</v>
+        <v>6.4763028975408005E-4</v>
       </c>
       <c r="P77">
-        <v>0.03142815431185648</v>
+        <v>1.6570186844281819E-2</v>
       </c>
       <c r="Q77">
-        <v>0.002361575604830961</v>
+        <v>6.5994575703144029E-3</v>
       </c>
       <c r="R77">
-        <v>0.002834874643046732</v>
+        <v>1.229238848947808E-3</v>
       </c>
       <c r="S77">
-        <v>6.343109299155086E-06</v>
+        <v>3.0906341695301697E-5</v>
       </c>
       <c r="T77">
-        <v>0.007382210072703166</v>
+        <v>3.3509286549999011E-2</v>
       </c>
       <c r="U77">
-        <v>0.001684702160922085</v>
+        <v>5.6966124861220213E-3</v>
       </c>
       <c r="V77">
-        <v>14.38920010310675</v>
+        <v>46.295142891750451</v>
       </c>
       <c r="W77">
-        <v>4.548466578662019</v>
+        <v>0.87934517789465616</v>
       </c>
       <c r="X77">
-        <v>0.0006807129401769042</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24">
+        <v>2.3156120297278149E-4</v>
+      </c>
+      <c r="Y77">
+        <v>3.4915533701058939E-2</v>
+      </c>
+      <c r="Z77">
+        <v>3.5893344986459533E-2</v>
+      </c>
+      <c r="AA77">
+        <v>5.6431919457093499E-3</v>
+      </c>
+      <c r="AB77">
+        <v>5.3420540412671278E-5</v>
+      </c>
+      <c r="AC77">
+        <v>5.8710397260804846E-3</v>
+      </c>
+      <c r="AD77">
+        <v>1.2288313906066629E-6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5.68324648979932E-06</v>
+        <v>6.1857711156528096E-6</v>
       </c>
       <c r="C78">
-        <v>0.1357429044575278</v>
+        <v>0.1183553553684777</v>
       </c>
       <c r="D78">
-        <v>0.009096199742042288</v>
+        <v>6.7812642255760149E-3</v>
       </c>
       <c r="E78">
-        <v>0.1443550831917423</v>
+        <v>0.12663083100894129</v>
       </c>
       <c r="F78">
-        <v>9.296910490391729</v>
+        <v>9.2969150801186569</v>
       </c>
       <c r="K78">
-        <v>8.157897568696155</v>
+        <v>6.4982147488993984</v>
       </c>
       <c r="L78">
-        <v>8.122891944986266</v>
+        <v>5.3770405640313479</v>
       </c>
       <c r="M78">
-        <v>8.182211860255455</v>
+        <v>6.5395315279572532</v>
       </c>
       <c r="N78">
-        <v>0.03645490282783986</v>
+        <v>1.136121846748246E-2</v>
       </c>
       <c r="O78">
-        <v>0.002595070644784318</v>
+        <v>6.8405435310752458E-4</v>
       </c>
       <c r="P78">
-        <v>0.03263926175798254</v>
+        <v>1.6985633897363791E-2</v>
       </c>
       <c r="Q78">
-        <v>0.002490930829174015</v>
+        <v>6.6416558239020306E-3</v>
       </c>
       <c r="R78">
-        <v>0.002952730123619548</v>
+        <v>1.2791693700833289E-3</v>
       </c>
       <c r="S78">
-        <v>6.667689270673843E-06</v>
+        <v>3.1776522122512497E-5</v>
       </c>
       <c r="T78">
-        <v>0.007619606235694044</v>
+        <v>3.4668147969327219E-2</v>
       </c>
       <c r="U78">
-        <v>0.001756235474471658</v>
+        <v>5.9736124027056749E-3</v>
       </c>
       <c r="V78">
-        <v>14.52189380609007</v>
+        <v>46.780871988926542</v>
       </c>
       <c r="W78">
-        <v>4.593166396387041</v>
+        <v>0.98505248985610194</v>
       </c>
       <c r="X78">
-        <v>0.000710749800395216</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24">
+        <v>2.6501439256155162E-4</v>
+      </c>
+      <c r="Y78">
+        <v>3.615272789874048E-2</v>
+      </c>
+      <c r="Z78">
+        <v>3.7185957857467013E-2</v>
+      </c>
+      <c r="AA78">
+        <v>5.9165961762599178E-3</v>
+      </c>
+      <c r="AB78">
+        <v>5.7016226445757291E-5</v>
+      </c>
+      <c r="AC78">
+        <v>6.1598149371074667E-3</v>
+      </c>
+      <c r="AD78">
+        <v>1.228099974061634E-6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5.56985901850579E-06</v>
+        <v>6.0799374664204589E-6</v>
       </c>
       <c r="C79">
-        <v>0.1412492829234184</v>
+        <v>0.12320640280947349</v>
       </c>
       <c r="D79">
-        <v>0.009654947729952831</v>
+        <v>7.1847122917383759E-3</v>
       </c>
       <c r="E79">
-        <v>0.1503579767380109</v>
+        <v>0.1319921450002863</v>
       </c>
       <c r="F79">
-        <v>9.296883102176325</v>
+        <v>9.2968878402016575</v>
       </c>
       <c r="K79">
-        <v>8.154656078704749</v>
+        <v>6.5116930851195871</v>
       </c>
       <c r="L79">
-        <v>8.100517641961314</v>
+        <v>5.4003794216345771</v>
       </c>
       <c r="M79">
-        <v>8.179811820158626</v>
+        <v>6.5547046329591048</v>
       </c>
       <c r="N79">
-        <v>0.03792706944449444</v>
+        <v>1.1825442994194409E-2</v>
       </c>
       <c r="O79">
-        <v>0.002734939409715709</v>
+        <v>7.246866297743312E-4</v>
       </c>
       <c r="P79">
-        <v>0.03395005875488726</v>
+        <v>1.743537207447083E-2</v>
       </c>
       <c r="Q79">
-        <v>0.002635206588973777</v>
+        <v>6.6884124877304423E-3</v>
       </c>
       <c r="R79">
-        <v>0.003080819794678195</v>
+        <v>1.3334038417337989E-3</v>
       </c>
       <c r="S79">
-        <v>7.028869261517497E-06</v>
+        <v>3.2713021879660352E-5</v>
       </c>
       <c r="T79">
-        <v>0.007874535399225453</v>
+        <v>3.5915736472223812E-2</v>
       </c>
       <c r="U79">
-        <v>0.0018352203656378</v>
+        <v>6.2806480499407449E-3</v>
       </c>
       <c r="V79">
-        <v>14.66537302066521</v>
+        <v>47.309298756090548</v>
       </c>
       <c r="W79">
-        <v>4.639652232313253</v>
+        <v>1.0942232273862229</v>
       </c>
       <c r="X79">
-        <v>0.0007434136051184816</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24">
+        <v>3.010590185724203E-4</v>
+      </c>
+      <c r="Y79">
+        <v>3.7485082372786187E-2</v>
+      </c>
+      <c r="Z79">
+        <v>3.8578360026657307E-2</v>
+      </c>
+      <c r="AA79">
+        <v>6.2196439722100672E-3</v>
+      </c>
+      <c r="AB79">
+        <v>6.1004077730677778E-5</v>
+      </c>
+      <c r="AC79">
+        <v>6.4796952238321088E-3</v>
+      </c>
+      <c r="AD79">
+        <v>1.2273451872333029E-6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5.447388510303091E-06</v>
+        <v>5.9653436312289817E-6</v>
       </c>
       <c r="C80">
-        <v>0.1472308436140305</v>
+        <v>0.12848011601482509</v>
       </c>
       <c r="D80">
-        <v>0.01028508079936992</v>
+        <v>7.6381609916126598E-3</v>
       </c>
       <c r="E80">
-        <v>0.1568754287167604</v>
+        <v>0.1378217467790934</v>
       </c>
       <c r="F80">
-        <v>9.296854673159917</v>
+        <v>9.2968595751820455</v>
       </c>
       <c r="K80">
-        <v>8.151318210913121</v>
+        <v>6.5256171377471208</v>
       </c>
       <c r="L80">
-        <v>8.077307413843672</v>
+        <v>5.4250730564737166</v>
       </c>
       <c r="M80">
-        <v>8.177358103943574</v>
+        <v>6.5704742387970176</v>
       </c>
       <c r="N80">
-        <v>0.03952671171880257</v>
+        <v>1.233002282894078E-2</v>
       </c>
       <c r="O80">
-        <v>0.002891883716511581</v>
+        <v>7.7028645821661343E-4</v>
       </c>
       <c r="P80">
-        <v>0.03537346112606515</v>
+        <v>1.7923870237504479E-2</v>
       </c>
       <c r="Q80">
-        <v>0.002797108884380546</v>
+        <v>6.7404621533462394E-3</v>
       </c>
       <c r="R80">
-        <v>0.003220537564015317</v>
+        <v>1.3925261517271691E-3</v>
       </c>
       <c r="S80">
-        <v>7.433218872289925E-06</v>
+        <v>3.37240771177783E-5</v>
       </c>
       <c r="T80">
-        <v>0.008149049718933984</v>
+        <v>3.7262785945963953E-2</v>
       </c>
       <c r="U80">
-        <v>0.001922921243401544</v>
+        <v>6.6228835050670936E-3</v>
       </c>
       <c r="V80">
-        <v>14.82077398928083</v>
+        <v>47.885044604614663</v>
       </c>
       <c r="W80">
-        <v>4.688084517069498</v>
+        <v>1.207117577741702</v>
       </c>
       <c r="X80">
-        <v>0.000779064048427003</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24">
+        <v>3.400161718209082E-4</v>
+      </c>
+      <c r="Y80">
+        <v>3.8923934200231151E-2</v>
+      </c>
+      <c r="Z80">
+        <v>4.0082332690590042E-2</v>
+      </c>
+      <c r="AA80">
+        <v>6.5574384000733309E-3</v>
+      </c>
+      <c r="AB80">
+        <v>6.5445104993762512E-5</v>
+      </c>
+      <c r="AC80">
+        <v>6.8359601818453629E-3</v>
+      </c>
+      <c r="AD80">
+        <v>1.226565440286161E-6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5.314763593243104E-06</v>
+        <v>5.8409009904469012E-6</v>
       </c>
       <c r="C81">
-        <v>0.1537520704147286</v>
+        <v>0.13423449482545419</v>
       </c>
       <c r="D81">
-        <v>0.01100080159162106</v>
+        <v>8.1512842160426906E-3</v>
       </c>
       <c r="E81">
-        <v>0.1639747937309157</v>
+        <v>0.1441822672186083</v>
       </c>
       <c r="F81">
-        <v>9.296825098071769</v>
+        <v>9.296830182271087</v>
       </c>
       <c r="K81">
-        <v>8.147876602117167</v>
+        <v>6.5400155267273599</v>
       </c>
       <c r="L81">
-        <v>8.053244677370282</v>
+        <v>5.4512782488639804</v>
       </c>
       <c r="M81">
-        <v>8.174838938014567</v>
+        <v>6.5868890376332132</v>
       </c>
       <c r="N81">
-        <v>0.04127122733795929</v>
+        <v>1.288048646564193E-2</v>
       </c>
       <c r="O81">
-        <v>0.003069211991430811</v>
+        <v>8.217971291600482E-4</v>
       </c>
       <c r="P81">
-        <v>0.0369247159947168</v>
+        <v>1.8456413479607262E-2</v>
       </c>
       <c r="Q81">
-        <v>0.002980051193222146</v>
+        <v>6.7987386561179008E-3</v>
       </c>
       <c r="R81">
-        <v>0.003373542532831651</v>
+        <v>1.457231012422854E-3</v>
       </c>
       <c r="S81">
-        <v>7.889253602399472E-06</v>
+        <v>3.4822370456161332E-5</v>
       </c>
       <c r="T81">
-        <v>0.008445532027292672</v>
+        <v>3.8721828919339993E-2</v>
       </c>
       <c r="U81">
-        <v>0.002020891920547233</v>
+        <v>7.0067242097880244E-3</v>
       </c>
       <c r="V81">
-        <v>14.98944827314966</v>
+        <v>48.513621708348722</v>
       </c>
       <c r="W81">
-        <v>4.73864653716004</v>
+        <v>1.3240230314457899</v>
       </c>
       <c r="X81">
-        <v>0.0008181285870449439</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24">
+        <v>3.8226282010417562E-4</v>
+      </c>
+      <c r="Y81">
+        <v>4.0482450010059207E-2</v>
+      </c>
+      <c r="Z81">
+        <v>4.1711511649843117E-2</v>
+      </c>
+      <c r="AA81">
+        <v>6.9363122912074471E-3</v>
+      </c>
+      <c r="AB81">
+        <v>7.041191858057761E-5</v>
+      </c>
+      <c r="AC81">
+        <v>7.2351387185455897E-3</v>
+      </c>
+      <c r="AD81">
+        <v>1.225759130503268E-6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5.170755562117268E-06</v>
+        <v>5.7053449863843477E-6</v>
       </c>
       <c r="C82">
-        <v>0.160889633855884</v>
+        <v>0.1405386553559248</v>
       </c>
       <c r="D82">
-        <v>0.01182023781585817</v>
+        <v>8.7363641355537262E-3</v>
       </c>
       <c r="E82">
-        <v>0.1717353619181541</v>
+        <v>0.15114771076415229</v>
       </c>
       <c r="F82">
-        <v>9.29679425493695</v>
+        <v>9.296799542513309</v>
       </c>
       <c r="K82">
-        <v>8.144324382656315</v>
+        <v>6.5549162952005959</v>
       </c>
       <c r="L82">
-        <v>8.028428875188339</v>
+        <v>5.4791726591527201</v>
       </c>
       <c r="M82">
-        <v>8.172257670772614</v>
+        <v>6.6039965308142756</v>
       </c>
       <c r="N82">
-        <v>0.04318132810528571</v>
+        <v>1.3483420932466029E-2</v>
       </c>
       <c r="O82">
-        <v>0.003271150766633624</v>
+        <v>8.8040912092965612E-4</v>
       </c>
       <c r="P82">
-        <v>0.03862194923479153</v>
+        <v>1.903929722078173E-2</v>
       </c>
       <c r="Q82">
-        <v>0.003188350683592743</v>
+        <v>6.8645081977478936E-3</v>
       </c>
       <c r="R82">
-        <v>0.003541825196793114</v>
+        <v>1.528351444521189E-3</v>
       </c>
       <c r="S82">
-        <v>8.407528875270941E-06</v>
+        <v>3.6024283807380042E-5</v>
       </c>
       <c r="T82">
-        <v>0.008766764032629944</v>
+        <v>4.030758415481759E-2</v>
       </c>
       <c r="U82">
-        <v>0.002131095853181277</v>
+        <v>7.4402072065364502E-3</v>
       </c>
       <c r="V82">
-        <v>15.17302031914686</v>
+        <v>49.201660244921968</v>
       </c>
       <c r="W82">
-        <v>4.79155276748228</v>
+        <v>1.445252577532443</v>
       </c>
       <c r="X82">
-        <v>0.00086112066937113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24">
+        <v>4.2824281570742268E-4</v>
+      </c>
+      <c r="Y82">
+        <v>4.217599528827648E-2</v>
+      </c>
+      <c r="Z82">
+        <v>4.3481744107482588E-2</v>
+      </c>
+      <c r="AA82">
+        <v>7.3642161603702664E-3</v>
+      </c>
+      <c r="AB82">
+        <v>7.5991046166184168E-5</v>
+      </c>
+      <c r="AC82">
+        <v>7.6853952758006152E-3</v>
+      </c>
+      <c r="AD82">
+        <v>1.2249246874687671E-6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5.013955083295101E-06</v>
+        <v>5.5572023982626204E-6</v>
       </c>
       <c r="C83">
-        <v>0.1687353915422012</v>
+        <v>0.14747561805173379</v>
       </c>
       <c r="D83">
-        <v>0.01276685861715401</v>
+        <v>9.409213543688762E-3</v>
       </c>
       <c r="E83">
-        <v>0.1802510440205795</v>
+        <v>0.15880608231726689</v>
       </c>
       <c r="F83">
-        <v>9.29676200139154</v>
+        <v>9.296767517249295</v>
       </c>
       <c r="K83">
-        <v>8.140649229322349</v>
+        <v>6.5703553905659184</v>
       </c>
       <c r="L83">
-        <v>8.002898219667225</v>
+        <v>5.5089788248005327</v>
       </c>
       <c r="M83">
-        <v>8.169598273722976</v>
+        <v>6.6218602007147984</v>
       </c>
       <c r="N83">
-        <v>0.04528186375468846</v>
+        <v>1.414673734359952E-2</v>
       </c>
       <c r="O83">
-        <v>0.003503135315694334</v>
+        <v>9.4765516695199058E-4</v>
       </c>
       <c r="P83">
-        <v>0.04048687547432831</v>
+        <v>1.968007559041509E-2</v>
       </c>
       <c r="Q83">
-        <v>0.003427597979840627</v>
+        <v>6.9392752671791113E-3</v>
       </c>
       <c r="R83">
-        <v>0.003727794547736159</v>
+        <v>1.606894979295601E-3</v>
       </c>
       <c r="S83">
-        <v>9.00207929223644E-06</v>
+        <v>3.7351033712367359E-5</v>
       </c>
       <c r="T83">
-        <v>0.009116009726285136</v>
+        <v>4.2037446099463957E-2</v>
       </c>
       <c r="U83">
-        <v>0.002256005156514731</v>
+        <v>7.9335431269419963E-3</v>
       </c>
       <c r="V83">
-        <v>15.37345773291248</v>
+        <v>49.957211616954439</v>
       </c>
       <c r="W83">
-        <v>4.847044233323658</v>
+        <v>1.571180852740842</v>
       </c>
       <c r="X83">
-        <v>0.0009086612235717245</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24">
+        <v>4.7849158916085378E-4</v>
+      </c>
+      <c r="Y83">
+        <v>4.402258954945458E-2</v>
+      </c>
+      <c r="Z83">
+        <v>4.541152110362015E-2</v>
+      </c>
+      <c r="AA83">
+        <v>7.8512536982518009E-3</v>
+      </c>
+      <c r="AB83">
+        <v>8.2289428690194709E-5</v>
+      </c>
+      <c r="AC83">
+        <v>8.1970622738519322E-3</v>
+      </c>
+      <c r="AD83">
+        <v>1.2240600981283089E-6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>4.842748076825146E-06</v>
+        <v>5.394752896102008E-6</v>
       </c>
       <c r="C84">
-        <v>0.1774003100380372</v>
+        <v>0.15514597385773629</v>
       </c>
       <c r="D84">
-        <v>0.01387153251301723</v>
+        <v>1.019051045445178E-2</v>
       </c>
       <c r="E84">
-        <v>0.1896337967726502</v>
+        <v>0.16726275555991341</v>
       </c>
       <c r="F84">
-        <v>9.296728169928635</v>
+        <v>9.2967339435698175</v>
       </c>
       <c r="K84">
-        <v>8.136848058678456</v>
+        <v>6.5863674154031919</v>
       </c>
       <c r="L84">
-        <v>7.976825460117873</v>
+        <v>5.5409563860451456</v>
       </c>
       <c r="M84">
-        <v>8.166861869372086</v>
+        <v>6.6405442717347247</v>
       </c>
       <c r="N84">
-        <v>0.04760290422352147</v>
+        <v>1.4880019686746611E-2</v>
       </c>
       <c r="O84">
-        <v>0.003772316913436794</v>
+        <v>1.025523846853466E-3</v>
       </c>
       <c r="P84">
-        <v>0.04254572422402208</v>
+        <v>2.0387897830594869E-2</v>
       </c>
       <c r="Q84">
-        <v>0.003705090499480245</v>
+        <v>7.0250566933907554E-3</v>
       </c>
       <c r="R84">
-        <v>0.003934394129316377</v>
+        <v>1.694091865161336E-3</v>
       </c>
       <c r="S84">
-        <v>9.690950723194481E-06</v>
+        <v>3.8831055756959442E-5</v>
       </c>
       <c r="T84">
-        <v>0.009497121091272381</v>
+        <v>4.3932107375715193E-2</v>
       </c>
       <c r="U84">
-        <v>0.002398821459290733</v>
+        <v>8.4998903428800659E-3</v>
       </c>
       <c r="V84">
-        <v>15.59317375379453</v>
+        <v>50.790160435956103</v>
       </c>
       <c r="W84">
-        <v>4.905422371135991</v>
+        <v>1.70222134760181</v>
       </c>
       <c r="X84">
-        <v>0.0009615110246842339</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24">
+        <v>5.3365159672758944E-4</v>
+      </c>
+      <c r="Y84">
+        <v>4.6043474027765922E-2</v>
+      </c>
+      <c r="Z84">
+        <v>4.7522506215810972E-2</v>
+      </c>
+      <c r="AA84">
+        <v>8.4104535074122043E-3</v>
+      </c>
+      <c r="AB84">
+        <v>8.9436835467860789E-5</v>
+      </c>
+      <c r="AC84">
+        <v>8.7833977700799461E-3</v>
+      </c>
+      <c r="AD84">
+        <v>1.223163424737421E-6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>4.655293604248643E-06</v>
+        <v>5.215985172846754E-6</v>
       </c>
       <c r="C85">
-        <v>0.1870196498924502</v>
+        <v>0.1636727658226354</v>
       </c>
       <c r="D85">
-        <v>0.01517558128547174</v>
+        <v>1.1107771549222529E-2</v>
       </c>
       <c r="E85">
-        <v>0.2000180368035566</v>
+        <v>0.17664483356097621</v>
       </c>
       <c r="F85">
-        <v>9.296692561691167</v>
+        <v>9.2966986283897608</v>
       </c>
       <c r="K85">
-        <v>8.132903609826139</v>
+        <v>6.6029914395150309</v>
       </c>
       <c r="L85">
-        <v>7.950342580546925</v>
+        <v>5.5754186521585574</v>
       </c>
       <c r="M85">
-        <v>8.164031721280411</v>
+        <v>6.6601189664560039</v>
       </c>
       <c r="N85">
-        <v>0.05018117406529116</v>
+        <v>1.569499003026973E-2</v>
       </c>
       <c r="O85">
-        <v>0.004088220093880022</v>
+        <v>1.1166486026154361E-3</v>
       </c>
       <c r="P85">
-        <v>0.04483046738428925</v>
+        <v>2.117394730925393E-2</v>
       </c>
       <c r="Q85">
-        <v>0.004030578220752925</v>
+        <v>7.1245500747044296E-3</v>
       </c>
       <c r="R85">
-        <v>0.0041652590221748</v>
+        <v>1.791460148067476E-3</v>
       </c>
       <c r="S85">
-        <v>1.049869430951424E-05</v>
+        <v>4.0503269693693981E-5</v>
       </c>
       <c r="T85">
-        <v>0.009914668128447773</v>
+        <v>4.6016355436470209E-2</v>
       </c>
       <c r="U85">
-        <v>0.002563708863258487</v>
+        <v>9.1564683926063026E-3</v>
       </c>
       <c r="V85">
-        <v>15.83516126723882</v>
+        <v>51.7127927956329</v>
       </c>
       <c r="W85">
-        <v>4.967019599512213</v>
+        <v>1.8388555604272201</v>
       </c>
       <c r="X85">
-        <v>0.001020608348820648</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24">
+        <v>5.9450823379405865E-4</v>
+      </c>
+      <c r="Y85">
+        <v>4.8263814211593953E-2</v>
+      </c>
+      <c r="Z85">
+        <v>4.9840173106547113E-2</v>
+      </c>
+      <c r="AA85">
+        <v>9.0588755070650055E-3</v>
+      </c>
+      <c r="AB85">
+        <v>9.7592885541296985E-5</v>
+      </c>
+      <c r="AC85">
+        <v>9.4616680639809866E-3</v>
+      </c>
+      <c r="AD85">
+        <v>1.2222324793871579E-6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>4.449509657960925E-06</v>
+        <v>5.0185491204586469E-6</v>
       </c>
       <c r="C86">
-        <v>0.1977599041803862</v>
+        <v>0.17320807796472359</v>
       </c>
       <c r="D86">
-        <v>0.01673541708513392</v>
+        <v>1.2198342110968411E-2</v>
       </c>
       <c r="E86">
-        <v>0.2115663955003816</v>
+        <v>0.187106853745409</v>
       </c>
       <c r="F86">
-        <v>9.296654938248409</v>
+        <v>9.2966613406099032</v>
       </c>
       <c r="K86">
-        <v>8.128809546152548</v>
+        <v>6.6202699480911296</v>
       </c>
       <c r="L86">
-        <v>7.923710351825116</v>
+        <v>5.6127490529105311</v>
       </c>
       <c r="M86">
-        <v>8.161101739085234</v>
+        <v>6.6806622857008442</v>
       </c>
       <c r="N86">
-        <v>0.05306198368850434</v>
+        <v>1.660613636949812E-2</v>
       </c>
       <c r="O86">
-        <v>0.004463833543636209</v>
+        <v>1.2245828676579361E-3</v>
       </c>
       <c r="P86">
-        <v>0.04738046045701023</v>
+        <v>2.2052034636413261E-2</v>
       </c>
       <c r="Q86">
-        <v>0.00441730145657125</v>
+        <v>7.2413911453156343E-3</v>
       </c>
       <c r="R86">
-        <v>0.004424931542666378</v>
+        <v>1.900894952965836E-3</v>
       </c>
       <c r="S86">
-        <v>1.145852696806043E-05</v>
+        <v>4.2422115002560461E-5</v>
       </c>
       <c r="T86">
-        <v>0.0103741030825221</v>
+        <v>4.8320098376711668E-2</v>
       </c>
       <c r="U86">
-        <v>0.002756214290132604</v>
+        <v>9.9262054105730742E-3</v>
       </c>
       <c r="V86">
-        <v>16.10318664549539</v>
+        <v>52.740595986361207</v>
       </c>
       <c r="W86">
-        <v>5.032256378162188</v>
+        <v>1.981646147067625</v>
       </c>
       <c r="X86">
-        <v>0.001087127632164043</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24">
+        <v>6.620326163604308E-4</v>
+      </c>
+      <c r="Y86">
+        <v>5.071357436478189E-2</v>
+      </c>
+      <c r="Z86">
+        <v>5.2394574112400283E-2</v>
+      </c>
+      <c r="AA86">
+        <v>9.8192498250932632E-3</v>
+      </c>
+      <c r="AB86">
+        <v>1.0695558547981119E-4</v>
+      </c>
+      <c r="AC86">
+        <v>1.0254737302077351E-2</v>
+      </c>
+      <c r="AD86">
+        <v>1.2212648829068969E-6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>4.223078564763473E-06</v>
+        <v>4.7997088559052508E-6</v>
       </c>
       <c r="C87">
-        <v>0.2098282033200697</v>
+        <v>0.18394206035497401</v>
       </c>
       <c r="D87">
-        <v>0.01862976028715741</v>
+        <v>1.351404946497233E-2</v>
       </c>
       <c r="E87">
-        <v>0.2244773305000728</v>
+        <v>0.19883834345402759</v>
       </c>
       <c r="F87">
-        <v>9.296615010508713</v>
+        <v>9.2966218005966272</v>
       </c>
       <c r="K87">
-        <v>8.124552425354878</v>
+        <v>6.6382451283095474</v>
       </c>
       <c r="L87">
-        <v>7.897237856654559</v>
+        <v>5.6534159646834974</v>
       </c>
       <c r="M87">
-        <v>8.15806181379839</v>
+        <v>6.7022532070630714</v>
       </c>
       <c r="N87">
-        <v>0.05630186036482888</v>
+        <v>1.7631573269620799E-2</v>
       </c>
       <c r="O87">
-        <v>0.00491723249678168</v>
+        <v>1.354219353036412E-3</v>
       </c>
       <c r="P87">
-        <v>0.0502446710570395</v>
+        <v>2.303941086915311E-2</v>
       </c>
       <c r="Q87">
-        <v>0.004883661411273825</v>
+        <v>7.3806579953694454E-3</v>
       </c>
       <c r="R87">
-        <v>0.004719163077046265</v>
+        <v>2.0247931421633878E-3</v>
       </c>
       <c r="S87">
-        <v>1.261688296259859E-05</v>
+        <v>4.4666133598683307E-5</v>
       </c>
       <c r="T87">
-        <v>0.01088196233534806</v>
+        <v>5.0879691241120913E-2</v>
       </c>
       <c r="U87">
-        <v>0.002983839144225585</v>
+        <v>1.0840223958001889E-2</v>
       </c>
       <c r="V87">
-        <v>16.40206319903318</v>
+        <v>53.893407403677529</v>
       </c>
       <c r="W87">
-        <v>5.101630509006874</v>
+        <v>2.1312423710921169</v>
       </c>
       <c r="X87">
-        <v>0.001162556958670324</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24">
+        <v>7.3743836487645846E-4</v>
+      </c>
+      <c r="Y87">
+        <v>5.3428601274870237E-2</v>
+      </c>
+      <c r="Z87">
+        <v>5.5221253821384257E-2</v>
+      </c>
+      <c r="AA87">
+        <v>1.0722453399639179E-2</v>
+      </c>
+      <c r="AB87">
+        <v>1.177705583627047E-4</v>
+      </c>
+      <c r="AC87">
+        <v>1.119344846407345E-2</v>
+      </c>
+      <c r="AD87">
+        <v>1.2202582728146659E-6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>8.445591172577486E-06</v>
+        <v>9.2508273750513271E-6</v>
       </c>
       <c r="C88">
-        <v>0.2234852349652777</v>
+        <v>0.19611548970425979</v>
       </c>
       <c r="D88">
-        <v>0.01052326938739984</v>
+        <v>7.8442732059875713E-3</v>
       </c>
       <c r="E88">
-        <v>0.2430591957214632</v>
+        <v>0.2151757512383633</v>
       </c>
       <c r="F88">
-        <v>14.49661501050871</v>
+        <v>14.49662180059663</v>
       </c>
       <c r="K88">
-        <v>8.120119733151387</v>
+        <v>6.6569668027439741</v>
       </c>
       <c r="L88">
-        <v>7.905515497522489</v>
+        <v>5.4667905132243257</v>
       </c>
       <c r="M88">
-        <v>8.15924810962087</v>
+        <v>6.7345819346608407</v>
       </c>
       <c r="N88">
-        <v>0.05997219092683225</v>
+        <v>1.8794241406519679E-2</v>
       </c>
       <c r="O88">
-        <v>0.003074826757703594</v>
+        <v>8.4944045412222195E-4</v>
       </c>
       <c r="P88">
-        <v>0.05348474317459419</v>
+        <v>2.4157893217280509E-2</v>
       </c>
       <c r="Q88">
-        <v>0.003046172620858188</v>
+        <v>6.8226800430624627E-3</v>
       </c>
       <c r="R88">
-        <v>0.005055344948052242</v>
+        <v>2.1662307856322948E-3</v>
       </c>
       <c r="S88">
-        <v>6.856735513610222E-06</v>
+        <v>2.1913039282144711E-5</v>
       </c>
       <c r="T88">
-        <v>0.01144611399185681</v>
+        <v>5.3739653189915138E-2</v>
       </c>
       <c r="U88">
-        <v>0.002036763679040154</v>
+        <v>6.5720068939295597E-3</v>
       </c>
       <c r="V88">
-        <v>16.54154633360788</v>
+        <v>54.332338221920857</v>
       </c>
       <c r="W88">
-        <v>5.175756738134847</v>
+        <v>2.288432690244687</v>
       </c>
       <c r="X88">
-        <v>0.001248824302802314</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24">
+        <v>8.2235259357072799E-4</v>
+      </c>
+      <c r="Y88">
+        <v>5.6861782313429789E-2</v>
+      </c>
+      <c r="Z88">
+        <v>5.9062944583176229E-2</v>
+      </c>
+      <c r="AA88">
+        <v>6.4379214433621891E-3</v>
+      </c>
+      <c r="AB88">
+        <v>1.340854505673707E-4</v>
+      </c>
+      <c r="AC88">
+        <v>6.8777333575855198E-3</v>
+      </c>
+      <c r="AD88">
+        <v>1.219209859046338E-6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>8.092697006789565E-06</v>
+        <v>8.9211326132183664E-6</v>
       </c>
       <c r="C89">
-        <v>0.2398669246251144</v>
+        <v>0.21059789097335771</v>
       </c>
       <c r="D89">
-        <v>0.01178482977686365</v>
+        <v>8.7452487233760385E-3</v>
       </c>
       <c r="E89">
-        <v>0.2613166368431876</v>
+        <v>0.23165245899999401</v>
       </c>
       <c r="F89">
-        <v>14.49532551245201</v>
+        <v>14.495335201500909</v>
       </c>
       <c r="K89">
-        <v>8.114184364185459</v>
+        <v>6.6769806995028151</v>
       </c>
       <c r="L89">
-        <v>7.767444053510388</v>
+        <v>5.4860522880421572</v>
       </c>
       <c r="M89">
-        <v>8.141037193209183</v>
+        <v>6.7385197615774119</v>
       </c>
       <c r="N89">
-        <v>0.06434891124753446</v>
+        <v>2.017461071055026E-2</v>
       </c>
       <c r="O89">
-        <v>0.003384905814625157</v>
+        <v>9.3385321385759939E-4</v>
       </c>
       <c r="P89">
-        <v>0.05736463321718927</v>
+        <v>2.5491371153758831E-2</v>
       </c>
       <c r="Q89">
-        <v>0.00341507339879787</v>
+        <v>7.1829074718447383E-3</v>
       </c>
       <c r="R89">
-        <v>0.005443690195170599</v>
+        <v>2.331178304582307E-3</v>
       </c>
       <c r="S89">
-        <v>7.947460367391907E-06</v>
+        <v>3.2677418982084879E-5</v>
       </c>
       <c r="T89">
-        <v>0.01216991016976579</v>
+        <v>5.7367933674221723E-2</v>
       </c>
       <c r="U89">
-        <v>0.002195537889987383</v>
+        <v>7.2453652891405198E-3</v>
       </c>
       <c r="V89">
-        <v>16.70313877727839</v>
+        <v>54.868502708787076</v>
       </c>
       <c r="W89">
-        <v>5.250834770933704</v>
+        <v>2.454564589479475</v>
       </c>
       <c r="X89">
-        <v>0.001348280809131157</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24">
+        <v>9.1950200436468244E-4</v>
+      </c>
+      <c r="Y89">
+        <v>6.0798469941908212E-2</v>
+      </c>
+      <c r="Z89">
+        <v>6.3221264898183305E-2</v>
+      </c>
+      <c r="AA89">
+        <v>7.1017213640023431E-3</v>
+      </c>
+      <c r="AB89">
+        <v>1.4364392513817681E-4</v>
+      </c>
+      <c r="AC89">
+        <v>7.5951719739811687E-3</v>
+      </c>
+      <c r="AD89">
+        <v>1.218089080827842E-6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7.689493709461421E-06</v>
+        <v>8.5428629375569476E-6</v>
       </c>
       <c r="C90">
-        <v>0.2588737658624687</v>
+        <v>0.22741894449418951</v>
       </c>
       <c r="D90">
-        <v>0.0133726151893502</v>
+        <v>9.8690182178951414E-3</v>
       </c>
       <c r="E90">
-        <v>0.2824166768784047</v>
+        <v>0.25075378954284022</v>
       </c>
       <c r="F90">
-        <v>14.49528387942554</v>
+        <v>14.49529389604912</v>
       </c>
       <c r="K90">
-        <v>8.108297879682979</v>
+        <v>6.6991766372935224</v>
       </c>
       <c r="L90">
-        <v>7.725489637989144</v>
+        <v>5.5336817879004263</v>
       </c>
       <c r="M90">
-        <v>8.136204675128193</v>
+        <v>6.7651380869465703</v>
       </c>
       <c r="N90">
-        <v>0.06942924503361024</v>
+        <v>2.177800716860798E-2</v>
       </c>
       <c r="O90">
-        <v>0.003777830316120646</v>
+        <v>1.0523657735862441E-3</v>
       </c>
       <c r="P90">
-        <v>0.06186042986872189</v>
+        <v>2.7017076460585002E-2</v>
       </c>
       <c r="Q90">
-        <v>0.003833164388721131</v>
+        <v>7.3249789358301749E-3</v>
       </c>
       <c r="R90">
-        <v>0.0058966687564042</v>
+        <v>2.5227200450489919E-3</v>
       </c>
       <c r="S90">
-        <v>8.867283237352753E-06</v>
+        <v>3.4584794648624212E-5</v>
       </c>
       <c r="T90">
-        <v>0.01300110785974732</v>
+        <v>6.1544814372978499E-2</v>
       </c>
       <c r="U90">
-        <v>0.002411698866381624</v>
+        <v>8.0823283318938854E-3</v>
       </c>
       <c r="V90">
-        <v>16.89512949682439</v>
+        <v>55.524379108218291</v>
       </c>
       <c r="W90">
-        <v>5.332388019096051</v>
+        <v>2.6337409661850941</v>
       </c>
       <c r="X90">
-        <v>0.001464421662038227</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24">
+        <v>1.0313364795548651E-3</v>
+      </c>
+      <c r="Y90">
+        <v>6.5324831538621786E-2</v>
+      </c>
+      <c r="Z90">
+        <v>6.7999539594327973E-2</v>
+      </c>
+      <c r="AA90">
+        <v>7.9194622625311309E-3</v>
+      </c>
+      <c r="AB90">
+        <v>1.62866069362755E-4</v>
+      </c>
+      <c r="AC90">
+        <v>8.4782215057285677E-3</v>
+      </c>
+      <c r="AD90">
+        <v>1.216846108311563E-6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7.224008195537711E-06</v>
+        <v>8.1036335041128936E-6</v>
       </c>
       <c r="C91">
-        <v>0.2811920522872977</v>
+        <v>0.24719621051930721</v>
       </c>
       <c r="D91">
-        <v>0.01542813859975733</v>
+        <v>1.1307940258044189E-2</v>
       </c>
       <c r="E91">
-        <v>0.3070372429601411</v>
+        <v>0.27312337893688399</v>
       </c>
       <c r="F91">
-        <v>14.49523860009287</v>
+        <v>14.495249012211771</v>
       </c>
       <c r="K91">
-        <v>8.102007304483767</v>
+        <v>6.7225612230784852</v>
       </c>
       <c r="L91">
-        <v>7.686613405410076</v>
+        <v>5.5870437475303278</v>
       </c>
       <c r="M91">
-        <v>8.131033735437759</v>
+        <v>6.7935756798977174</v>
       </c>
       <c r="N91">
-        <v>0.07539755546247293</v>
+        <v>2.366215638633723E-2</v>
       </c>
       <c r="O91">
-        <v>0.004280826497784015</v>
+        <v>1.203008400644346E-3</v>
       </c>
       <c r="P91">
-        <v>0.06713563582144923</v>
+        <v>2.880726714465362E-2</v>
       </c>
       <c r="Q91">
-        <v>0.004366567640588793</v>
+        <v>7.5007482738042204E-3</v>
       </c>
       <c r="R91">
-        <v>0.006431923435783005</v>
+        <v>2.7489141587217531E-3</v>
       </c>
       <c r="S91">
-        <v>1.004386230215272E-05</v>
+        <v>3.6894335499841792E-5</v>
       </c>
       <c r="T91">
-        <v>0.01396378140459875</v>
+        <v>6.6405040376713464E-2</v>
       </c>
       <c r="U91">
-        <v>0.002683030670273554</v>
+        <v>9.1407255776675828E-3</v>
       </c>
       <c r="V91">
-        <v>17.12509408820637</v>
+        <v>56.330449407779213</v>
       </c>
       <c r="W91">
-        <v>5.420788095417443</v>
+        <v>2.824419323637017</v>
       </c>
       <c r="X91">
-        <v>0.001601756259556926</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24">
+        <v>1.161136536574837E-3</v>
+      </c>
+      <c r="Y91">
+        <v>7.057864264266564E-2</v>
+      </c>
+      <c r="Z91">
+        <v>7.3537689668766684E-2</v>
+      </c>
+      <c r="AA91">
+        <v>8.9543707949044545E-3</v>
+      </c>
+      <c r="AB91">
+        <v>1.8635478276312861E-4</v>
+      </c>
+      <c r="AC91">
+        <v>9.5918145555049517E-3</v>
+      </c>
+      <c r="AD91">
+        <v>1.2155365715076051E-6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6.682731203413368E-06</v>
+        <v>7.5889707778122401E-6</v>
       </c>
       <c r="C92">
-        <v>0.3077684436560517</v>
+        <v>0.27078503754543348</v>
       </c>
       <c r="D92">
-        <v>0.01818142553981083</v>
+        <v>1.320939025337786E-2</v>
       </c>
       <c r="E92">
-        <v>0.3360819482437109</v>
+        <v>0.29962560918367059</v>
       </c>
       <c r="F92">
-        <v>14.49518889171514</v>
+        <v>14.49519978975608</v>
       </c>
       <c r="K92">
-        <v>8.095242873649006</v>
+        <v>6.7472411598635293</v>
       </c>
       <c r="L92">
-        <v>7.651765193419423</v>
+        <v>5.6474275660263187</v>
       </c>
       <c r="M92">
-        <v>8.125434754989138</v>
+        <v>6.8240243025502023</v>
       </c>
       <c r="N92">
-        <v>0.08250922835894182</v>
+        <v>2.5908071184906529E-2</v>
       </c>
       <c r="O92">
-        <v>0.004946416585846138</v>
+        <v>1.399891775091394E-3</v>
       </c>
       <c r="P92">
-        <v>0.07341254263953527</v>
+        <v>3.0937919031738571E-2</v>
       </c>
       <c r="Q92">
-        <v>0.005069614962242116</v>
+        <v>7.7254839330656109E-3</v>
       </c>
       <c r="R92">
-        <v>0.007074111393131091</v>
+        <v>3.0201161410439441E-3</v>
       </c>
       <c r="S92">
-        <v>1.160282280795534E-05</v>
+        <v>3.9816147222847072E-5</v>
       </c>
       <c r="T92">
-        <v>0.01509185647803127</v>
+        <v>7.2131471856618057E-2</v>
       </c>
       <c r="U92">
-        <v>0.003034138434303623</v>
+        <v>1.05190015478215E-2</v>
       </c>
       <c r="V92">
-        <v>17.40406353342419</v>
+        <v>57.331012938314899</v>
       </c>
       <c r="W92">
-        <v>5.517402114758994</v>
+        <v>3.028460718774046</v>
       </c>
       <c r="X92">
-        <v>0.001766654559334592</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24">
+        <v>1.3140068129876511E-3</v>
+      </c>
+      <c r="Y92">
+        <v>7.6742481716642885E-2</v>
+      </c>
+      <c r="Z92">
+        <v>8.0018264734200151E-2</v>
+      </c>
+      <c r="AA92">
+        <v>1.0303552762225171E-2</v>
+      </c>
+      <c r="AB92">
+        <v>2.154487855963243E-4</v>
+      </c>
+      <c r="AC92">
+        <v>1.103636865335425E-2</v>
+      </c>
+      <c r="AD92">
+        <v>1.214154495047642E-6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6.049372098529232E-06</v>
+        <v>6.9803759822361913E-6</v>
       </c>
       <c r="C93">
-        <v>0.3399447790023007</v>
+        <v>0.29940455391121751</v>
       </c>
       <c r="D93">
-        <v>0.02203339920751088</v>
+        <v>1.582502298169056E-2</v>
       </c>
       <c r="E93">
-        <v>0.3707728822050839</v>
+        <v>0.33143819538091501</v>
       </c>
       <c r="F93">
-        <v>14.4951336970287</v>
+        <v>14.495145204762929</v>
       </c>
       <c r="K93">
-        <v>8.087915673257866</v>
+        <v>6.7733323831288166</v>
       </c>
       <c r="L93">
-        <v>7.622509670100965</v>
+        <v>5.7167622288167994</v>
       </c>
       <c r="M93">
-        <v>8.119301329113693</v>
+        <v>6.8566429462858274</v>
       </c>
       <c r="N93">
-        <v>0.09112731855595248</v>
+        <v>2.8631202230441549E-2</v>
       </c>
       <c r="O93">
-        <v>0.005866080857988307</v>
+        <v>1.6668954836271939E-3</v>
       </c>
       <c r="P93">
-        <v>0.08100620127034562</v>
+        <v>3.3517078487146683E-2</v>
       </c>
       <c r="Q93">
-        <v>0.006036195910752554</v>
+        <v>8.024739335223725E-3</v>
       </c>
       <c r="R93">
-        <v>0.007858834567611439</v>
+        <v>3.3512605848018441E-3</v>
       </c>
       <c r="S93">
-        <v>1.376259180921818E-05</v>
+        <v>4.3713213907025752E-5</v>
       </c>
       <c r="T93">
-        <v>0.01643160292733434</v>
+        <v>7.8977301890928803E-2</v>
       </c>
       <c r="U93">
-        <v>0.003506462859567448</v>
+        <v>1.238152845170578E-2</v>
       </c>
       <c r="V93">
-        <v>17.7489003550761</v>
+        <v>58.593475788298967</v>
       </c>
       <c r="W93">
-        <v>5.624064809785548</v>
+        <v>3.248288945836773</v>
       </c>
       <c r="X93">
-        <v>0.001968321536084366</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24">
+        <v>1.4973111347720901E-3</v>
+      </c>
+      <c r="Y93">
+        <v>8.4061006966022644E-2</v>
+      </c>
+      <c r="Z93">
+        <v>8.7679984713485953E-2</v>
+      </c>
+      <c r="AA93">
+        <v>1.212952172981273E-2</v>
+      </c>
+      <c r="AB93">
+        <v>2.5200672189305492E-4</v>
+      </c>
+      <c r="AC93">
+        <v>1.297791252684252E-2</v>
+      </c>
+      <c r="AD93">
+        <v>1.212693386544786E-6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5.305746724073513E-06</v>
+        <v>6.25476508763092E-6</v>
       </c>
       <c r="C94">
-        <v>0.3796837014766495</v>
+        <v>0.33485199527740839</v>
       </c>
       <c r="D94">
-        <v>0.02773814678282814</v>
+        <v>1.9617665536269618E-2</v>
       </c>
       <c r="E94">
-        <v>0.4128024623894757</v>
+        <v>0.37020020695649702</v>
       </c>
       <c r="F94">
-        <v>14.49507154193406</v>
+        <v>14.49508383464147</v>
       </c>
       <c r="K94">
-        <v>8.079920435820814</v>
+        <v>6.8009521719049761</v>
       </c>
       <c r="L94">
-        <v>7.601035303577051</v>
+        <v>5.7978241166121292</v>
       </c>
       <c r="M94">
-        <v>8.112502442167539</v>
+        <v>6.8914726528962298</v>
       </c>
       <c r="N94">
-        <v>0.101784973268198</v>
+        <v>3.2001740573793347E-2</v>
       </c>
       <c r="O94">
-        <v>0.007211256507308802</v>
+        <v>2.047003310724022E-3</v>
       </c>
       <c r="P94">
-        <v>0.09037745194029477</v>
+        <v>3.6703620881137052E-2</v>
       </c>
       <c r="Q94">
-        <v>0.007441260528073567</v>
+        <v>8.4455266344284109E-3</v>
       </c>
       <c r="R94">
-        <v>0.008839468564586717</v>
+        <v>3.764704006163697E-3</v>
       </c>
       <c r="S94">
-        <v>1.693406389252117E-05</v>
+        <v>4.9292720198854813E-5</v>
       </c>
       <c r="T94">
-        <v>0.01804724543580521</v>
+        <v>8.7301773570831701E-2</v>
       </c>
       <c r="U94">
-        <v>0.004174604311727187</v>
+        <v>1.5021689966114591E-2</v>
       </c>
       <c r="V94">
-        <v>18.18698079224313</v>
+        <v>60.226544845577813</v>
       </c>
       <c r="W94">
-        <v>5.74333982404552</v>
+        <v>3.4871466683388661</v>
       </c>
       <c r="X94">
-        <v>0.002220571354751536</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24">
+        <v>1.7220902381673881E-3</v>
+      </c>
+      <c r="Y94">
+        <v>9.2866654571446161E-2</v>
+      </c>
+      <c r="Z94">
+        <v>9.683632176206651E-2</v>
+      </c>
+      <c r="AA94">
+        <v>1.4723086121970191E-2</v>
+      </c>
+      <c r="AB94">
+        <v>2.9860384414439662E-4</v>
+      </c>
+      <c r="AC94">
+        <v>1.5709131466308091E-2</v>
+      </c>
+      <c r="AD94">
+        <v>1.2111466783733209E-6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>4.434649901807478E-06</v>
+        <v>5.3838379473961443E-6</v>
       </c>
       <c r="C95">
-        <v>0.4299616378614813</v>
+        <v>0.37988547095471398</v>
       </c>
       <c r="D95">
-        <v>0.0368634079268266</v>
+        <v>2.5530105304340849E-2</v>
       </c>
       <c r="E95">
-        <v>0.4645879195516058</v>
+        <v>0.41824424741442628</v>
       </c>
       <c r="F95">
-        <v>14.49279318463729</v>
+        <v>14.492815469377881</v>
       </c>
       <c r="K95">
-        <v>8.071119018215498</v>
+        <v>6.8302109599188201</v>
       </c>
       <c r="L95">
-        <v>7.590297514730787</v>
+        <v>5.894798097571778</v>
       </c>
       <c r="M95">
-        <v>8.104826850306662</v>
+        <v>6.9281915286127562</v>
       </c>
       <c r="N95">
-        <v>0.1152955042340393</v>
+        <v>3.6280988754231823E-2</v>
       </c>
       <c r="O95">
-        <v>0.009337269783164858</v>
+        <v>2.6256998045844021E-3</v>
       </c>
       <c r="P95">
-        <v>0.1022254792848978</v>
+        <v>4.074049148780972E-2</v>
       </c>
       <c r="Q95">
-        <v>0.00964573984174651</v>
+        <v>9.083745486067895E-3</v>
       </c>
       <c r="R95">
-        <v>0.01009983063611446</v>
+        <v>4.2954770470158181E-3</v>
       </c>
       <c r="S95">
-        <v>2.197477989827448E-05</v>
+        <v>5.8108876234769469E-5</v>
       </c>
       <c r="T95">
-        <v>0.0200290513106735</v>
+        <v>9.7627499800077025E-2</v>
       </c>
       <c r="U95">
-        <v>0.005184461187929849</v>
+        <v>1.9012609275544282E-2</v>
       </c>
       <c r="V95">
-        <v>18.76626275939038</v>
+        <v>62.419727012748801</v>
       </c>
       <c r="W95">
-        <v>5.878941532162237</v>
+        <v>3.749556081858358</v>
       </c>
       <c r="X95">
-        <v>0.002545122155874837</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24">
+        <v>2.0056949416288319E-3</v>
+      </c>
+      <c r="Y95">
+        <v>0.1036147513852629</v>
+      </c>
+      <c r="Z95">
+        <v>0.10789510166472251</v>
+      </c>
+      <c r="AA95">
+        <v>1.865393707324578E-2</v>
+      </c>
+      <c r="AB95">
+        <v>3.5867220229849689E-4</v>
+      </c>
+      <c r="AC95">
+        <v>1.9792682815987749E-2</v>
+      </c>
+      <c r="AD95">
+        <v>1.2095081862445459E-6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>3.44111149451585E-06</v>
+        <v>4.3480227925960878E-6</v>
       </c>
       <c r="C96">
-        <v>0.4954780095172572</v>
+        <v>0.43894469856310958</v>
       </c>
       <c r="D96">
-        <v>0.05297072826070467</v>
+        <v>3.5693327135045159E-2</v>
       </c>
       <c r="E96">
-        <v>0.5298890482261324</v>
+        <v>0.47910875549723048</v>
       </c>
       <c r="F96">
-        <v>14.49259529656788</v>
+        <v>14.492621007356551</v>
       </c>
       <c r="K96">
-        <v>8.061396538850683</v>
+        <v>6.8612074078144243</v>
       </c>
       <c r="L96">
-        <v>7.594296563184189</v>
+        <v>6.0139460605483199</v>
       </c>
       <c r="M96">
-        <v>8.096111829361226</v>
+        <v>6.965817149422846</v>
       </c>
       <c r="N96">
-        <v>0.1329552099758518</v>
+        <v>4.1890203579173071E-2</v>
       </c>
       <c r="O96">
-        <v>0.01304978655030379</v>
+        <v>3.591992794666367E-3</v>
       </c>
       <c r="P96">
-        <v>0.1176554358587564</v>
+        <v>4.601661582143337E-2</v>
       </c>
       <c r="Q96">
-        <v>0.01346404268453428</v>
+        <v>1.015274119461192E-2</v>
       </c>
       <c r="R96">
-        <v>0.01177947327881716</v>
+        <v>5.0017050754793263E-3</v>
       </c>
       <c r="S96">
-        <v>3.081888048847835E-05</v>
+        <v>7.3848452663009224E-5</v>
       </c>
       <c r="T96">
-        <v>0.02250314966446411</v>
+        <v>0.1107299815541658</v>
       </c>
       <c r="U96">
-        <v>0.006836196569543304</v>
+        <v>2.5563235108814801E-2</v>
       </c>
       <c r="V96">
-        <v>19.5769542054586</v>
+        <v>65.532850803242013</v>
       </c>
       <c r="W96">
-        <v>6.036679184352657</v>
+        <v>4.0421803332484068</v>
       </c>
       <c r="X96">
-        <v>0.002978196585414305</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24">
-      <c r="A97">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>2.384807023521726E-06</v>
-      </c>
-      <c r="C97">
-        <v>0.5839794657685666</v>
-      </c>
-      <c r="D97">
-        <v>0.0849835061442514</v>
-      </c>
-      <c r="E97">
-        <v>0.6152536849415109</v>
-      </c>
-      <c r="F97">
-        <v>14.49235562527688</v>
-      </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="M97">
-        <v>0</v>
-      </c>
-      <c r="N97">
-        <v>0.1569362946609611</v>
-      </c>
-      <c r="O97">
-        <v>0</v>
-      </c>
-      <c r="P97">
-        <v>0.1384937144936006</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97">
-        <v>0.01412920415848287</v>
-      </c>
-      <c r="S97">
-        <v>0</v>
-      </c>
-      <c r="T97">
-        <v>0.02563654028344823</v>
-      </c>
-      <c r="U97">
-        <v>0</v>
-      </c>
-      <c r="V97">
-        <v>19.37302759915174</v>
-      </c>
-      <c r="W97">
-        <v>0</v>
-      </c>
-      <c r="X97">
-        <v>0</v>
+        <v>2.3770090292751689E-3</v>
+      </c>
+      <c r="Y96">
+        <v>0.1169438408482148</v>
+      </c>
+      <c r="Z96">
+        <v>0.1213996439744621</v>
+      </c>
+      <c r="AA96">
+        <v>2.512667784531674E-2</v>
+      </c>
+      <c r="AB96">
+        <v>4.3655726349806182E-4</v>
+      </c>
+      <c r="AC96">
+        <v>2.639102646330049E-2</v>
+      </c>
+      <c r="AD96">
+        <v>1.2077723851623921E-6</v>
       </c>
     </row>
   </sheetData>

--- a/Wastewater_Effluent_Filtration/Water_Salt_Transport_1.xlsx
+++ b/Wastewater_Effluent_Filtration/Water_Salt_Transport_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Recovery</t>
   </si>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>SI_Calcite</t>
+  </si>
+  <si>
+    <t>Pnh4</t>
+  </si>
+  <si>
+    <t>osmotic_pressure</t>
+  </si>
+  <si>
+    <t>NH3_p</t>
+  </si>
+  <si>
+    <t>NH4_p</t>
   </si>
 </sst>
 </file>
@@ -423,13 +435,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z97"/>
+  <dimension ref="A1:AD97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,76 +520,88 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.534732375732904E-06</v>
+        <v>5.705743224700154E-06</v>
       </c>
       <c r="C2">
-        <v>0.03668171535821034</v>
+        <v>0.03067934583229552</v>
       </c>
       <c r="D2">
-        <v>0.002535704496452969</v>
+        <v>0.001872425751463587</v>
       </c>
       <c r="E2">
-        <v>0.03885673392660242</v>
+        <v>0.03257236984677236</v>
       </c>
       <c r="F2">
         <v>6.7</v>
       </c>
       <c r="G2">
-        <v>19.0209619183396</v>
+        <v>19.75024708658654</v>
       </c>
       <c r="H2">
-        <v>19.10798355231376</v>
+        <v>20.03731715298034</v>
       </c>
       <c r="I2">
-        <v>19.1485023928231</v>
+        <v>20.48762557221342</v>
       </c>
       <c r="J2">
-        <v>19.48637276106538</v>
+        <v>23.48143833374453</v>
       </c>
       <c r="K2">
-        <v>6.50004121086048</v>
+        <v>4.500011163923704</v>
       </c>
       <c r="L2">
-        <v>5.186887985084635</v>
+        <v>4.233150234105726</v>
       </c>
       <c r="M2">
-        <v>6.521565897723999</v>
+        <v>4.519252155555144</v>
       </c>
       <c r="N2">
-        <v>0.005680021619262197</v>
+        <v>0.0001021921036086155</v>
       </c>
       <c r="O2">
-        <v>0.0002318283604299532</v>
+        <v>6.986770417111833E-06</v>
       </c>
       <c r="P2">
-        <v>0.008761386286703468</v>
+        <v>0.008758818374888974</v>
       </c>
       <c r="Q2">
-        <v>0.003569905484230828</v>
+        <v>0.008629510434683664</v>
       </c>
       <c r="R2">
-        <v>0.0008728331328645815</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>2.598159485517872E-05</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.002609286775726215</v>
+        <v>0.01083429963116154</v>
       </c>
       <c r="U2">
-        <v>0.000496501964289943</v>
+        <v>0.002090063999341715</v>
       </c>
       <c r="V2">
-        <v>6.956489021666392</v>
+        <v>29.28388669477677</v>
       </c>
       <c r="W2">
-        <v>-0.4995814423797675</v>
+        <v>-999.999</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -586,66 +610,78 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-0.9254070582685241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+        <v>-4.488027041296293</v>
+      </c>
+      <c r="AA2">
+        <v>1.339999374820273E-06</v>
+      </c>
+      <c r="AB2">
+        <v>0.7316493465446241</v>
+      </c>
+      <c r="AC2">
+        <v>1.873779723015176E-07</v>
+      </c>
+      <c r="AD2">
+        <v>0.002089876621369413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.527008932763763E-06</v>
+        <v>5.699410527762645E-06</v>
       </c>
       <c r="C3">
-        <v>0.03702662455883415</v>
+        <v>0.030970324823011</v>
       </c>
       <c r="D3">
-        <v>0.002563970787480316</v>
+        <v>0.001893029205233181</v>
       </c>
       <c r="E3">
-        <v>0.03923863291416005</v>
+        <v>0.03289633547439452</v>
       </c>
       <c r="F3">
-        <v>6.699985236939199</v>
+        <v>6.699985244204893</v>
       </c>
       <c r="K3">
-        <v>6.503557249862271</v>
+        <v>4.502244463092191</v>
       </c>
       <c r="L3">
-        <v>5.192152924371344</v>
+        <v>4.232796105881881</v>
       </c>
       <c r="M3">
-        <v>6.526848730187298</v>
+        <v>4.511784765532834</v>
       </c>
       <c r="N3">
-        <v>0.005735053874401918</v>
+        <v>0.000103153773640853</v>
       </c>
       <c r="O3">
-        <v>0.0002344525492821432</v>
+        <v>6.879784922942497E-06</v>
       </c>
       <c r="P3">
-        <v>0.008813825486728445</v>
+        <v>0.008760124515699129</v>
       </c>
       <c r="Q3">
-        <v>0.003566714159566933</v>
+        <v>0.008629140746364046</v>
       </c>
       <c r="R3">
-        <v>0.0008813871888040704</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>2.532426057311353E-05</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.002630628036447793</v>
+        <v>0.01092262524360416</v>
       </c>
       <c r="U3">
-        <v>0.0005011972028101284</v>
+        <v>0.002109647893328247</v>
       </c>
       <c r="V3">
-        <v>6.989381515119551</v>
+        <v>29.42108166409942</v>
       </c>
       <c r="W3">
-        <v>-0.4708606452890649</v>
+        <v>-999.999</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -654,66 +690,78 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-0.915008733432618</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
+        <v>-4.479955614469684</v>
+      </c>
+      <c r="AA3">
+        <v>1.339874310066837E-06</v>
+      </c>
+      <c r="AB3">
+        <v>0.7382587507314937</v>
+      </c>
+      <c r="AC3">
+        <v>1.856453320493525E-07</v>
+      </c>
+      <c r="AD3">
+        <v>0.002109462247996198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.519055081225148E-06</v>
+        <v>5.692482605084761E-06</v>
       </c>
       <c r="C4">
-        <v>0.03737828429119491</v>
+        <v>0.03126703192115159</v>
       </c>
       <c r="D4">
-        <v>0.002592915470160422</v>
+        <v>0.00191423579546939</v>
       </c>
       <c r="E4">
-        <v>0.03962822421958115</v>
+        <v>0.03322674719702139</v>
       </c>
       <c r="F4">
-        <v>6.699970398569491</v>
+        <v>6.699970413286761</v>
       </c>
       <c r="K4">
-        <v>6.507093584631143</v>
+        <v>4.504517115167501</v>
       </c>
       <c r="L4">
-        <v>5.19644438695616</v>
+        <v>4.232951986154085</v>
       </c>
       <c r="M4">
-        <v>6.530555302099886</v>
+        <v>4.514236414850095</v>
       </c>
       <c r="N4">
-        <v>0.005791182459352119</v>
+        <v>0.0001041361612808316</v>
       </c>
       <c r="O4">
-        <v>0.0002371198549611217</v>
+        <v>6.932343525817835E-06</v>
       </c>
       <c r="P4">
-        <v>0.00886736743904642</v>
+        <v>0.008761461084773978</v>
       </c>
       <c r="Q4">
-        <v>0.00357132755623005</v>
+        <v>0.008629727003491841</v>
       </c>
       <c r="R4">
-        <v>0.0008901225248064272</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>2.553021536367856E-05</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.002652356922505321</v>
+        <v>0.0110125535839131</v>
       </c>
       <c r="U4">
-        <v>0.0005059829852663469</v>
+        <v>0.002129759526427625</v>
       </c>
       <c r="V4">
-        <v>7.022696878935297</v>
+        <v>29.5607413509921</v>
       </c>
       <c r="W4">
-        <v>-0.4419291103467202</v>
+        <v>-999.999</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -722,66 +770,78 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-0.9045262832643921</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+        <v>-4.471770995063494</v>
+      </c>
+      <c r="AA4">
+        <v>1.33974704155062E-06</v>
+      </c>
+      <c r="AB4">
+        <v>0.7454907008524327</v>
+      </c>
+      <c r="AC4">
+        <v>1.881909548566384E-07</v>
+      </c>
+      <c r="AD4">
+        <v>0.002129571335472769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.510942580621164E-06</v>
+        <v>5.685414775118402E-06</v>
       </c>
       <c r="C5">
-        <v>0.0377368963408963</v>
+        <v>0.03156963806677719</v>
       </c>
       <c r="D5">
-        <v>0.002622530427806336</v>
+        <v>0.001935929066709024</v>
       </c>
       <c r="E5">
-        <v>0.04002577733146206</v>
+        <v>0.03356397423753852</v>
       </c>
       <c r="F5">
-        <v>6.699955483435412</v>
+        <v>6.699955505796621</v>
       </c>
       <c r="K5">
-        <v>6.510660722658629</v>
+        <v>4.506826256048678</v>
       </c>
       <c r="L5">
-        <v>5.20077055177416</v>
+        <v>4.233111011510689</v>
       </c>
       <c r="M5">
-        <v>6.534295421975359</v>
+        <v>4.516711671468665</v>
       </c>
       <c r="N5">
-        <v>0.005848440836716975</v>
+        <v>0.0001051382624948009</v>
       </c>
       <c r="O5">
-        <v>0.0002398398624928683</v>
+        <v>6.985933396543377E-06</v>
       </c>
       <c r="P5">
-        <v>0.008921965788353805</v>
+        <v>0.008762819168086163</v>
       </c>
       <c r="Q5">
-        <v>0.003576048814280398</v>
+        <v>0.008630317520015696</v>
       </c>
       <c r="R5">
-        <v>0.0008990358475841875</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>2.573974636291641E-05</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.002674484488868609</v>
+        <v>0.01110412878038202</v>
       </c>
       <c r="U5">
-        <v>0.0005108705428054983</v>
+        <v>0.002150292359661651</v>
       </c>
       <c r="V5">
-        <v>7.056474453013432</v>
+        <v>29.70249257604893</v>
       </c>
       <c r="W5">
-        <v>-0.4127578359402868</v>
+        <v>-999.999</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -790,66 +850,78 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-0.8939483097394252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+        <v>-4.463478671726204</v>
+      </c>
+      <c r="AA5">
+        <v>1.339617729661274E-06</v>
+      </c>
+      <c r="AB5">
+        <v>0.752868920943086</v>
+      </c>
+      <c r="AC5">
+        <v>1.907968425070005E-07</v>
+      </c>
+      <c r="AD5">
+        <v>0.002150101562819144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.502666613646892E-06</v>
+        <v>5.678202743045195E-06</v>
       </c>
       <c r="C6">
-        <v>0.03810267098582431</v>
+        <v>0.03187832253552789</v>
       </c>
       <c r="D6">
-        <v>0.002652839178173546</v>
+        <v>0.001958125943118905</v>
       </c>
       <c r="E6">
-        <v>0.04043153891189515</v>
+        <v>0.03390822968290547</v>
       </c>
       <c r="F6">
-        <v>6.699940490036032</v>
+        <v>6.699940520240316</v>
       </c>
       <c r="K6">
-        <v>6.514259114390666</v>
+        <v>4.509172783887969</v>
       </c>
       <c r="L6">
-        <v>5.205149072187217</v>
+        <v>4.233274320746284</v>
       </c>
       <c r="M6">
-        <v>6.538069742952063</v>
+        <v>4.519228921227916</v>
       </c>
       <c r="N6">
-        <v>0.00590686376353181</v>
+        <v>0.0001061606825895744</v>
       </c>
       <c r="O6">
-        <v>0.0002426236212618438</v>
+        <v>7.040878068775832E-06</v>
       </c>
       <c r="P6">
-        <v>0.008977652423500404</v>
+        <v>0.008764199393586898</v>
       </c>
       <c r="Q6">
-        <v>0.003580882031788631</v>
+        <v>0.00863091224214974</v>
       </c>
       <c r="R6">
-        <v>0.000908132681971909</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>2.595294439079547E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0026970221341401</v>
+        <v>0.01119739790976453</v>
       </c>
       <c r="U6">
-        <v>0.0005158632484314547</v>
+        <v>0.002171260073610233</v>
       </c>
       <c r="V6">
-        <v>7.090731557165368</v>
+        <v>29.84629903910973</v>
       </c>
       <c r="W6">
-        <v>-0.3833441569426732</v>
+        <v>-999.999</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -858,66 +930,78 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-0.8832736498902101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+        <v>-4.455076073554084</v>
+      </c>
+      <c r="AA6">
+        <v>1.339486324102274E-06</v>
+      </c>
+      <c r="AB6">
+        <v>0.7603979019869844</v>
+      </c>
+      <c r="AC6">
+        <v>1.934732921546371E-07</v>
+      </c>
+      <c r="AD6">
+        <v>0.002171066600318079</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.494222194916854E-06</v>
+        <v>5.670842034371336E-06</v>
       </c>
       <c r="C7">
-        <v>0.03847582711011537</v>
+        <v>0.03219327197334273</v>
       </c>
       <c r="D7">
-        <v>0.002683866335516014</v>
+        <v>0.001980844140553182</v>
       </c>
       <c r="E7">
-        <v>0.04084576589240589</v>
+        <v>0.03425973556522888</v>
       </c>
       <c r="F7">
-        <v>6.699925416822969</v>
+        <v>6.699925455076573</v>
       </c>
       <c r="K7">
-        <v>6.517888967160658</v>
+        <v>4.511557517640375</v>
       </c>
       <c r="L7">
-        <v>5.209580707744635</v>
+        <v>4.233441835957004</v>
       </c>
       <c r="M7">
-        <v>6.541878298853102</v>
+        <v>4.521787284594376</v>
       </c>
       <c r="N7">
-        <v>0.005966487343976756</v>
+        <v>0.0001072040489529512</v>
       </c>
       <c r="O7">
-        <v>0.0002454732094677651</v>
+        <v>7.097198301814709E-06</v>
       </c>
       <c r="P7">
-        <v>0.009034460532886843</v>
+        <v>0.008765602416233604</v>
       </c>
       <c r="Q7">
-        <v>0.003585833118650254</v>
+        <v>0.008631514073264915</v>
       </c>
       <c r="R7">
-        <v>0.0009174187844727628</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>2.616991750556261E-05</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.002719981701358086</v>
+        <v>0.0112924098869872</v>
       </c>
       <c r="U7">
-        <v>0.0005209646302079181</v>
+        <v>0.002192676935086141</v>
       </c>
       <c r="V7">
-        <v>7.125482203278329</v>
+        <v>29.99218195550677</v>
       </c>
       <c r="W7">
-        <v>-0.3536820353593377</v>
+        <v>-999.999</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -926,66 +1010,78 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-0.8724997341407672</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+        <v>-4.446560974362574</v>
+      </c>
+      <c r="AA7">
+        <v>1.339352779012139E-06</v>
+      </c>
+      <c r="AB7">
+        <v>0.7680823228852136</v>
+      </c>
+      <c r="AC7">
+        <v>1.962219186437537E-07</v>
+      </c>
+      <c r="AD7">
+        <v>0.002192480713167497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.485604093790756E-06</v>
+        <v>5.663327992199347E-06</v>
       </c>
       <c r="C8">
-        <v>0.03885659265027069</v>
+        <v>0.03251468078007453</v>
       </c>
       <c r="D8">
-        <v>0.002715637704704578</v>
+        <v>0.002004102211172629</v>
       </c>
       <c r="E8">
-        <v>0.04126872598156785</v>
+        <v>0.03461872333692711</v>
       </c>
       <c r="F8">
-        <v>6.699910262198417</v>
+        <v>6.699910308714984</v>
       </c>
       <c r="K8">
-        <v>6.521551422957572</v>
+        <v>4.513981731641319</v>
       </c>
       <c r="L8">
-        <v>5.214067109240776</v>
+        <v>4.233613715126486</v>
       </c>
       <c r="M8">
-        <v>6.545722300593185</v>
+        <v>4.524386312150785</v>
       </c>
       <c r="N8">
-        <v>0.006027349196471533</v>
+        <v>0.0001082690154492399</v>
       </c>
       <c r="O8">
-        <v>0.0002483911753432523</v>
+        <v>7.154919362367619E-06</v>
       </c>
       <c r="P8">
-        <v>0.009092424654314892</v>
+        <v>0.008767028887967312</v>
       </c>
       <c r="Q8">
-        <v>0.003590904311106927</v>
+        <v>0.008632120854849771</v>
       </c>
       <c r="R8">
-        <v>0.0009269001553979458</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>2.639076703101678E-05</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0.002743375499987343</v>
+        <v>0.01138921555668828</v>
       </c>
       <c r="U8">
-        <v>0.0005261783567778834</v>
+        <v>0.002214557890969699</v>
       </c>
       <c r="V8">
-        <v>7.160739739497842</v>
+        <v>30.14018033477387</v>
       </c>
       <c r="W8">
-        <v>-0.3237682381109792</v>
+        <v>-999.999</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -994,66 +1090,78 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-0.8616250730942721</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+        <v>-4.437929943014653</v>
+      </c>
+      <c r="AA8">
+        <v>1.339217023028086E-06</v>
+      </c>
+      <c r="AB8">
+        <v>0.7759270532736848</v>
+      </c>
+      <c r="AC8">
+        <v>1.990450576903851E-07</v>
+      </c>
+      <c r="AD8">
+        <v>0.002214358845912009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.476806894655576E-06</v>
+        <v>5.655655761313541E-06</v>
       </c>
       <c r="C9">
-        <v>0.03924520506904022</v>
+        <v>0.03284275151737455</v>
       </c>
       <c r="D9">
-        <v>0.002748180321653598</v>
+        <v>0.002027919595154692</v>
       </c>
       <c r="E9">
-        <v>0.04170069826520743</v>
+        <v>0.03498543437049164</v>
       </c>
       <c r="F9">
-        <v>6.699895024512902</v>
+        <v>6.699895079513851</v>
       </c>
       <c r="K9">
-        <v>6.525246902679869</v>
+        <v>4.516446215740003</v>
       </c>
       <c r="L9">
-        <v>5.218609318358165</v>
+        <v>4.233790290540926</v>
       </c>
       <c r="M9">
-        <v>6.549602571162894</v>
+        <v>4.527030425972475</v>
       </c>
       <c r="N9">
-        <v>0.006089488530032053</v>
+        <v>0.00010935626379426</v>
       </c>
       <c r="O9">
-        <v>0.0002513799498192891</v>
+        <v>7.214150684117197E-06</v>
       </c>
       <c r="P9">
-        <v>0.009151580787037558</v>
+        <v>0.008768479511979328</v>
       </c>
       <c r="Q9">
-        <v>0.003596097792263551</v>
+        <v>0.008632733791977766</v>
       </c>
       <c r="R9">
-        <v>0.0009365830520470527</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>2.661560279397577E-05</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>0.002767216329484219</v>
+        <v>0.011487867789653</v>
       </c>
       <c r="U9">
-        <v>0.0005315082862801193</v>
+        <v>0.002236918511609117</v>
       </c>
       <c r="V9">
-        <v>7.196517596944457</v>
+        <v>30.29034095119655</v>
       </c>
       <c r="W9">
-        <v>-0.293596654738252</v>
+        <v>-999.999</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -1062,66 +1170,78 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-0.8506471227657819</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+        <v>-4.429180592984558</v>
+      </c>
+      <c r="AA9">
+        <v>1.33907901191856E-06</v>
+      </c>
+      <c r="AB9">
+        <v>0.7839371701871954</v>
+      </c>
+      <c r="AC9">
+        <v>2.019468631556619E-07</v>
+      </c>
+      <c r="AD9">
+        <v>0.002236716564745962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.467824938916982E-06</v>
+        <v>5.647820285804178E-06</v>
       </c>
       <c r="C10">
-        <v>0.03964191185977267</v>
+        <v>0.03317769534261607</v>
       </c>
       <c r="D10">
-        <v>0.002781522548828568</v>
+        <v>0.002052316671653601</v>
       </c>
       <c r="E10">
-        <v>0.04214197379273325</v>
+        <v>0.03536012049653672</v>
       </c>
       <c r="F10">
-        <v>6.699879702063087</v>
+        <v>6.699879765777924</v>
       </c>
       <c r="K10">
-        <v>6.528975722338217</v>
+        <v>4.518951712314725</v>
       </c>
       <c r="L10">
-        <v>5.223208724662342</v>
+        <v>4.23397198771887</v>
       </c>
       <c r="M10">
-        <v>6.553519406221093</v>
+        <v>4.529724303486013</v>
       </c>
       <c r="N10">
-        <v>0.006152946231990887</v>
+        <v>0.0001104665041541529</v>
       </c>
       <c r="O10">
-        <v>0.0002544421332971134</v>
+        <v>7.27500826047404E-06</v>
       </c>
       <c r="P10">
-        <v>0.009211966471763363</v>
+        <v>0.008769955008935867</v>
       </c>
       <c r="Q10">
-        <v>0.00360142089503852</v>
+        <v>0.008633351006131154</v>
       </c>
       <c r="R10">
-        <v>0.000946474002582412</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>2.684455086058319E-05</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0.002791517503866872</v>
+        <v>0.01158842158615347</v>
       </c>
       <c r="U10">
-        <v>0.0005369584591244153</v>
+        <v>0.002259775070175461</v>
       </c>
       <c r="V10">
-        <v>7.232829527371982</v>
+        <v>30.44271512420009</v>
       </c>
       <c r="W10">
-        <v>-0.2631641090454195</v>
+        <v>-999.999</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -1130,66 +1250,78 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-0.8395644221567409</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+        <v>-4.420310518918924</v>
+      </c>
+      <c r="AA10">
+        <v>1.338938704110375E-06</v>
+      </c>
+      <c r="AB10">
+        <v>0.7921179605470885</v>
+      </c>
+      <c r="AC10">
+        <v>2.049326191233041E-07</v>
+      </c>
+      <c r="AD10">
+        <v>0.002259570137556338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.458652339060975E-06</v>
+        <v>5.639816268837743E-06</v>
       </c>
       <c r="C11">
-        <v>0.04004697108296985</v>
+        <v>0.0335197324708684</v>
       </c>
       <c r="D11">
-        <v>0.002815694144933053</v>
+        <v>0.002077314825452698</v>
       </c>
       <c r="E11">
-        <v>0.04259285623168021</v>
+        <v>0.0357430445613319</v>
       </c>
       <c r="F11">
-        <v>6.699864293089199</v>
+        <v>6.699864365756033</v>
       </c>
       <c r="K11">
-        <v>6.532738733199293</v>
+        <v>4.521499596675565</v>
       </c>
       <c r="L11">
-        <v>5.227865910427804</v>
+        <v>4.234158621421784</v>
       </c>
       <c r="M11">
-        <v>6.557473049729277</v>
+        <v>4.532463136239736</v>
       </c>
       <c r="N11">
-        <v>0.006217764958350159</v>
+        <v>0.000111600476636501</v>
       </c>
       <c r="O11">
-        <v>0.0002575803320145082</v>
+        <v>7.337453721764776E-06</v>
       </c>
       <c r="P11">
-        <v>0.009273620818760339</v>
+        <v>0.00877145615182383</v>
       </c>
       <c r="Q11">
-        <v>0.003606880123250351</v>
+        <v>0.008633973630229686</v>
       </c>
       <c r="R11">
-        <v>0.0009565798207332015</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>2.707773848943951E-05</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.002816292877984921</v>
+        <v>0.01169093418523015</v>
       </c>
       <c r="U11">
-        <v>0.00054253308583391</v>
+        <v>0.002283144657009055</v>
       </c>
       <c r="V11">
-        <v>7.269689681196676</v>
+        <v>30.59735759071547</v>
       </c>
       <c r="W11">
-        <v>-0.2324645357130919</v>
+        <v>-999.999</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -1198,66 +1330,78 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-0.8283743404358486</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+        <v>-4.411316864175051</v>
+      </c>
+      <c r="AA11">
+        <v>1.338796022586168E-06</v>
+      </c>
+      <c r="AB11">
+        <v>0.8004749632063403</v>
+      </c>
+      <c r="AC11">
+        <v>2.080024411761442E-07</v>
+      </c>
+      <c r="AD11">
+        <v>0.002282936654567879</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.449282936287054E-06</v>
+        <v>5.63163821814984E-06</v>
       </c>
       <c r="C12">
-        <v>0.04046065193783693</v>
+        <v>0.03386909266692858</v>
       </c>
       <c r="D12">
-        <v>0.002850726365498305</v>
+        <v>0.002102936490320992</v>
       </c>
       <c r="E12">
-        <v>0.0430536625444153</v>
+        <v>0.03613448105708418</v>
       </c>
       <c r="F12">
-        <v>6.699848795772734</v>
+        <v>6.699848877638525</v>
       </c>
       <c r="K12">
-        <v>6.536536497915322</v>
+        <v>4.524090722186894</v>
       </c>
       <c r="L12">
-        <v>5.23258293215843</v>
+        <v>4.234350291335302</v>
       </c>
       <c r="M12">
-        <v>6.561464931960018</v>
+        <v>4.535246824762902</v>
       </c>
       <c r="N12">
-        <v>0.00628398923197611</v>
+        <v>0.0001127589546688869</v>
       </c>
       <c r="O12">
-        <v>0.0002607975416328417</v>
+        <v>7.401530076591357E-06</v>
       </c>
       <c r="P12">
-        <v>0.009336584604266004</v>
+        <v>0.008772983735397099</v>
       </c>
       <c r="Q12">
-        <v>0.003612476409537315</v>
+        <v>0.008634604243555492</v>
       </c>
       <c r="R12">
-        <v>0.000966907621647021</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>2.731528018780624E-05</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>0.002841556875675487</v>
+        <v>0.01179546517998816</v>
       </c>
       <c r="U12">
-        <v>0.0005482365994641413</v>
+        <v>0.002307045095971768</v>
       </c>
       <c r="V12">
-        <v>7.307112709732622</v>
+        <v>30.7543258860741</v>
       </c>
       <c r="W12">
-        <v>-0.2014946907061805</v>
+        <v>-999.999</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -1266,66 +1410,78 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-0.8170753714957684</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+        <v>-4.402196380333013</v>
+      </c>
+      <c r="AA12">
+        <v>1.338650919557534E-06</v>
+      </c>
+      <c r="AB12">
+        <v>0.8090139214171729</v>
+      </c>
+      <c r="AC12">
+        <v>2.111595050576538E-07</v>
+      </c>
+      <c r="AD12">
+        <v>0.00230683393646671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.439710328449642E-06</v>
+        <v>5.623280378624296E-06</v>
       </c>
       <c r="C13">
-        <v>0.040883235371234</v>
+        <v>0.03422601577003653</v>
       </c>
       <c r="D13">
-        <v>0.002886652037744619</v>
+        <v>0.002129205232674947</v>
       </c>
       <c r="E13">
-        <v>0.04352472373639786</v>
+        <v>0.03653471674694279</v>
       </c>
       <c r="F13">
-        <v>6.699833208233476</v>
+        <v>6.69983329955464</v>
       </c>
       <c r="K13">
-        <v>6.540370022099648</v>
+        <v>4.526725968117058</v>
       </c>
       <c r="L13">
-        <v>5.237361494357805</v>
+        <v>4.234547457285051</v>
       </c>
       <c r="M13">
-        <v>6.565496160235817</v>
+        <v>4.538080654652606</v>
       </c>
       <c r="N13">
-        <v>0.006351665543103563</v>
+        <v>0.0001139427459564408</v>
       </c>
       <c r="O13">
-        <v>0.0002640969033855139</v>
+        <v>7.467368812785498E-06</v>
       </c>
       <c r="P13">
-        <v>0.009400900426678686</v>
+        <v>0.008774538561148128</v>
       </c>
       <c r="Q13">
-        <v>0.00361821373738814</v>
+        <v>0.008635239724171351</v>
       </c>
       <c r="R13">
-        <v>0.0009774648389667875</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>2.755729414030047E-05</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>0.002867324519228423</v>
+        <v>0.01190207664160633</v>
       </c>
       <c r="U13">
-        <v>0.0005540736289570393</v>
+        <v>0.002331495061793927</v>
       </c>
       <c r="V13">
-        <v>7.345113785197993</v>
+        <v>30.91368017146748</v>
       </c>
       <c r="W13">
-        <v>-0.1702479619370578</v>
+        <v>-999.999</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -1334,66 +1490,78 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-0.8056647078338166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+        <v>-4.392946645524802</v>
+      </c>
+      <c r="AA13">
+        <v>1.338503345785445E-06</v>
+      </c>
+      <c r="AB13">
+        <v>0.8177408532948981</v>
+      </c>
+      <c r="AC13">
+        <v>2.144090510380935E-07</v>
+      </c>
+      <c r="AD13">
+        <v>0.002331280652742889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.429927818528992E-06</v>
+        <v>5.614736735726147E-06</v>
       </c>
       <c r="C14">
-        <v>0.04131501472729638</v>
+        <v>0.03459075225341565</v>
       </c>
       <c r="D14">
-        <v>0.002923505678402852</v>
+        <v>0.002156145817556155</v>
       </c>
       <c r="E14">
-        <v>0.04400638562350409</v>
+        <v>0.03694405136185164</v>
       </c>
       <c r="F14">
-        <v>6.699817528527015</v>
+        <v>6.699817629569657</v>
       </c>
       <c r="K14">
-        <v>6.544239237777567</v>
+        <v>4.529407085989948</v>
       </c>
       <c r="L14">
-        <v>5.24220181047547</v>
+        <v>4.234750354624394</v>
       </c>
       <c r="M14">
-        <v>6.569566106914455</v>
+        <v>4.540965613495566</v>
       </c>
       <c r="N14">
-        <v>0.006420842459463996</v>
+        <v>0.0001151526934239824</v>
       </c>
       <c r="O14">
-        <v>0.0002674812516985664</v>
+        <v>7.535036560693581E-06</v>
       </c>
       <c r="P14">
-        <v>0.009466612775420625</v>
+        <v>0.00877612150247741</v>
       </c>
       <c r="Q14">
-        <v>0.003624103685797599</v>
+        <v>0.008635881249643819</v>
       </c>
       <c r="R14">
-        <v>0.0009882592428852703</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>2.780397085579667E-05</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>0.002893611461163325</v>
+        <v>0.01201083325046783</v>
       </c>
       <c r="U14">
-        <v>0.0005600490558681175</v>
+        <v>0.002356514212807614</v>
       </c>
       <c r="V14">
-        <v>7.38370867262647</v>
+        <v>31.07548328409672</v>
       </c>
       <c r="W14">
-        <v>-0.1387201558114377</v>
+        <v>-999.999</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -1402,66 +1570,78 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-0.7941404544822284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+        <v>-4.383563662358135</v>
+      </c>
+      <c r="AA14">
+        <v>1.338353203184563E-06</v>
+      </c>
+      <c r="AB14">
+        <v>0.8266620482619621</v>
+      </c>
+      <c r="AC14">
+        <v>2.177550803838911E-07</v>
+      </c>
+      <c r="AD14">
+        <v>0.00235629645772723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.419928426032844E-06</v>
+        <v>5.606001038452718E-06</v>
       </c>
       <c r="C15">
-        <v>0.04175629644050205</v>
+        <v>0.03496356382164392</v>
       </c>
       <c r="D15">
-        <v>0.002961323589644645</v>
+        <v>0.002183784272734809</v>
       </c>
       <c r="E15">
-        <v>0.04449900967193406</v>
+        <v>0.03736279835522922</v>
       </c>
       <c r="F15">
-        <v>6.699801754641221</v>
+        <v>6.699801865681906</v>
       </c>
       <c r="K15">
-        <v>6.548145686787996</v>
+        <v>4.532134820235484</v>
       </c>
       <c r="L15">
-        <v>5.247106778936012</v>
+        <v>4.234959424615335</v>
       </c>
       <c r="M15">
-        <v>6.573677165466212</v>
+        <v>4.543907159021548</v>
       </c>
       <c r="N15">
-        <v>0.006491570749208427</v>
+        <v>0.0001163896779856294</v>
       </c>
       <c r="O15">
-        <v>0.0002709542733926434</v>
+        <v>7.60467801309999E-06</v>
       </c>
       <c r="P15">
-        <v>0.009533768052312843</v>
+        <v>0.008777733459406531</v>
       </c>
       <c r="Q15">
-        <v>0.003630144044701634</v>
+        <v>0.008636527509346936</v>
       </c>
       <c r="R15">
-        <v>0.0009992989586557241</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>2.805540428324215E-05</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>0.002920434017546029</v>
+        <v>0.01212180243480875</v>
       </c>
       <c r="U15">
-        <v>0.000566167969844244</v>
+        <v>0.002382123040021722</v>
       </c>
       <c r="V15">
-        <v>7.422913726402272</v>
+        <v>31.23980061478583</v>
       </c>
       <c r="W15">
-        <v>-0.1069039232601554</v>
+        <v>-999.999</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -1470,66 +1650,78 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-0.7824995078354018</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+        <v>-4.374044076388884</v>
+      </c>
+      <c r="AA15">
+        <v>1.338200450066813E-06</v>
+      </c>
+      <c r="AB15">
+        <v>0.8357840430286431</v>
+      </c>
+      <c r="AC15">
+        <v>2.21203485047516E-07</v>
+      </c>
+      <c r="AD15">
+        <v>0.002381901836536675</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.409704843492812E-06</v>
+        <v>5.597066701709127E-06</v>
       </c>
       <c r="C16">
-        <v>0.04220740077597714</v>
+        <v>0.03534472404895681</v>
       </c>
       <c r="D16">
-        <v>0.003000143989310052</v>
+        <v>0.002212147998912613</v>
       </c>
       <c r="E16">
-        <v>0.04500297388099337</v>
+        <v>0.03779128565398809</v>
       </c>
       <c r="F16">
-        <v>6.69978588449364</v>
+        <v>6.699786005819637</v>
       </c>
       <c r="K16">
-        <v>6.552089422136386</v>
+        <v>4.534910266228895</v>
       </c>
       <c r="L16">
-        <v>5.252077486657207</v>
+        <v>4.235174295313528</v>
       </c>
       <c r="M16">
-        <v>6.577829692460704</v>
+        <v>4.546896273221699</v>
       </c>
       <c r="N16">
-        <v>0.006563903498927215</v>
+        <v>0.0001176546198457751</v>
       </c>
       <c r="O16">
-        <v>0.0002745192917715618</v>
+        <v>7.676193187048604E-06</v>
       </c>
       <c r="P16">
-        <v>0.00960241484309902</v>
+        <v>0.008779375389058387</v>
       </c>
       <c r="Q16">
-        <v>0.003636341704681811</v>
+        <v>0.008637181958418668</v>
       </c>
       <c r="R16">
-        <v>0.00101059248835773</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>2.831175040241009E-05</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>0.002947809204147213</v>
+        <v>0.01223505452079465</v>
       </c>
       <c r="U16">
-        <v>0.0005724357553006594</v>
+        <v>0.002408343084302678</v>
       </c>
       <c r="V16">
-        <v>7.46274596914329</v>
+        <v>31.4067002374111</v>
       </c>
       <c r="W16">
-        <v>-0.07479619246290525</v>
+        <v>-999.999</v>
       </c>
       <c r="X16">
         <v>0</v>
@@ -1538,66 +1730,78 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-0.7707401335030895</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+        <v>-4.364385692477784</v>
+      </c>
+      <c r="AA16">
+        <v>1.338045025091182E-06</v>
+      </c>
+      <c r="AB16">
+        <v>0.8451137236939131</v>
+      </c>
+      <c r="AC16">
+        <v>2.247536246329864E-07</v>
+      </c>
+      <c r="AD16">
+        <v>0.002408118330678045</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.399249453231531E-06</v>
+        <v>5.587926873649645E-06</v>
       </c>
       <c r="C17">
-        <v>0.04266866262052615</v>
+        <v>0.03573451906131028</v>
       </c>
       <c r="D17">
-        <v>0.003040007120597639</v>
+        <v>0.002241265830712941</v>
       </c>
       <c r="E17">
-        <v>0.04551867374509753</v>
+        <v>0.03822985653885529</v>
       </c>
       <c r="F17">
-        <v>6.69976991592752</v>
+        <v>6.699770047837622</v>
       </c>
       <c r="K17">
-        <v>6.556071606937667</v>
+        <v>4.53773503245965</v>
       </c>
       <c r="L17">
-        <v>5.257114797667559</v>
+        <v>4.235395530371824</v>
       </c>
       <c r="M17">
-        <v>6.582023519546042</v>
+        <v>4.549939738301338</v>
       </c>
       <c r="N17">
-        <v>0.006637896254305517</v>
+        <v>0.0001189484836888189</v>
       </c>
       <c r="O17">
-        <v>0.0002781799786995479</v>
+        <v>7.749754620437852E-06</v>
       </c>
       <c r="P17">
-        <v>0.009672603938845104</v>
+        <v>0.008781048252948266</v>
       </c>
       <c r="Q17">
-        <v>0.003642710240860745</v>
+        <v>0.008637842811203809</v>
       </c>
       <c r="R17">
-        <v>0.001022148732333675</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>2.857319764479488E-05</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>0.002975754774133642</v>
+        <v>0.01235066289063573</v>
       </c>
       <c r="U17">
-        <v>0.0005788580240677301</v>
+        <v>0.002435197004969724</v>
       </c>
       <c r="V17">
-        <v>7.503223082022645</v>
+        <v>31.57625304986233</v>
       </c>
       <c r="W17">
-        <v>-0.04238780273036724</v>
+        <v>-999.999</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -1606,66 +1810,78 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-0.75885912502787</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
+        <v>-4.354584106784573</v>
+      </c>
+      <c r="AA17">
+        <v>1.33788683818226E-06</v>
+      </c>
+      <c r="AB17">
+        <v>0.854658255312534</v>
+      </c>
+      <c r="AC17">
+        <v>2.284124646560711E-07</v>
+      </c>
+      <c r="AD17">
+        <v>0.002434968592505068</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.388554262340275E-06</v>
+        <v>5.578574386547144E-06</v>
       </c>
       <c r="C18">
-        <v>0.04314043232885863</v>
+        <v>0.03613324826643644</v>
       </c>
       <c r="D18">
-        <v>0.003080955411148681</v>
+        <v>0.002271168143252119</v>
       </c>
       <c r="E18">
-        <v>0.04604652324972414</v>
+        <v>0.03867887053258576</v>
       </c>
       <c r="F18">
-        <v>6.699753846708718</v>
+        <v>6.699753989513611</v>
       </c>
       <c r="K18">
-        <v>6.560092951733523</v>
+        <v>4.540610151413577</v>
       </c>
       <c r="L18">
-        <v>5.262220605075036</v>
+        <v>4.235623411429284</v>
       </c>
       <c r="M18">
-        <v>6.586260097050443</v>
+        <v>4.553038789516251</v>
       </c>
       <c r="N18">
-        <v>0.006713607162348444</v>
+        <v>0.0001202722780824901</v>
       </c>
       <c r="O18">
-        <v>0.0002819404194945332</v>
+        <v>7.825444656896961E-06</v>
       </c>
       <c r="P18">
-        <v>0.009744388387630632</v>
+        <v>0.008782753079635702</v>
       </c>
       <c r="Q18">
-        <v>0.00364925402912418</v>
+        <v>0.00863851006934655</v>
       </c>
       <c r="R18">
-        <v>0.001033977012508542</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>2.883992583578444E-05</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>0.003004289259253475</v>
+        <v>0.01246870415117938</v>
       </c>
       <c r="U18">
-        <v>0.0005854407095320668</v>
+        <v>0.002462708531993896</v>
       </c>
       <c r="V18">
-        <v>7.544363476095065</v>
+        <v>31.74853282585669</v>
       </c>
       <c r="W18">
-        <v>-0.009676974119685156</v>
+        <v>-999.999</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -1674,5331 +1890,6279 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-0.7468546018922453</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
+        <v>-4.344635740849961</v>
+      </c>
+      <c r="AA18">
+        <v>1.33772583152084E-06</v>
+      </c>
+      <c r="AB18">
+        <v>0.8644251332970978</v>
+      </c>
+      <c r="AC18">
+        <v>2.32184857036877E-07</v>
+      </c>
+      <c r="AD18">
+        <v>0.002462476347136859</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.377610940805718E-06</v>
+        <v>5.569001714733177E-06</v>
       </c>
       <c r="C19">
-        <v>0.04362307662907201</v>
+        <v>0.03654122513539047</v>
       </c>
       <c r="D19">
-        <v>0.003123033592249241</v>
+        <v>0.00230188696436467</v>
       </c>
       <c r="E19">
-        <v>0.04658695598920397</v>
+        <v>0.03913870435421752</v>
       </c>
       <c r="F19">
-        <v>6.699737674521625</v>
+        <v>6.69973782854458</v>
       </c>
       <c r="K19">
-        <v>6.56415402682273</v>
+        <v>4.543537072826427</v>
       </c>
       <c r="L19">
-        <v>5.26739781794624</v>
+        <v>4.235858219139373</v>
       </c>
       <c r="M19">
-        <v>6.590541151289634</v>
+        <v>4.556195251482063</v>
       </c>
       <c r="N19">
-        <v>0.00679109712310572</v>
+        <v>0.0001216270592080997</v>
       </c>
       <c r="O19">
-        <v>0.0002858044879152862</v>
+        <v>7.903359796306798E-06</v>
       </c>
       <c r="P19">
-        <v>0.009817823741347577</v>
+        <v>0.008784490947229547</v>
       </c>
       <c r="Q19">
-        <v>0.003655970045153884</v>
+        <v>0.008639184490416422</v>
       </c>
       <c r="R19">
-        <v>0.001046087097890142</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>2.911204759241473E-05</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>0.003033432012864577</v>
+        <v>0.01258925831526595</v>
       </c>
       <c r="U19">
-        <v>0.0005921900664716374</v>
+        <v>0.002490902653758285</v>
       </c>
       <c r="V19">
-        <v>7.586186339719455</v>
+        <v>31.92361639563173</v>
       </c>
       <c r="W19">
-        <v>0.02334519746107588</v>
+        <v>-999.999</v>
       </c>
       <c r="X19">
-        <v>3.793108704117844E-06</v>
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-0.7347232385737819</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
+        <v>-4.334537156531445</v>
+      </c>
+      <c r="AA19">
+        <v>1.33756192392172E-06</v>
+      </c>
+      <c r="AB19">
+        <v>0.8744222273611912</v>
+      </c>
+      <c r="AC19">
+        <v>2.360756167720839E-07</v>
+      </c>
+      <c r="AD19">
+        <v>0.002490666578141513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.36641075008763E-06</v>
+        <v>5.559200997810514E-06</v>
       </c>
       <c r="C20">
-        <v>0.0441169795929357</v>
+        <v>0.03695877803991517</v>
       </c>
       <c r="D20">
-        <v>0.003166288882830647</v>
+        <v>0.002333456071735458</v>
       </c>
       <c r="E20">
-        <v>0.04714042630184031</v>
+        <v>0.03960975297500776</v>
       </c>
       <c r="F20">
-        <v>6.699721396965056</v>
+        <v>6.699721562542663</v>
       </c>
       <c r="K20">
-        <v>6.5682559596636</v>
+        <v>4.546516938624075</v>
       </c>
       <c r="L20">
-        <v>5.272646614323254</v>
+        <v>4.236100255813025</v>
       </c>
       <c r="M20">
-        <v>6.594866240597079</v>
+        <v>4.559411121524422</v>
       </c>
       <c r="N20">
-        <v>0.006870429960120238</v>
+        <v>0.0001230139335911703</v>
       </c>
       <c r="O20">
-        <v>0.0002897767925260742</v>
+        <v>7.98360404853541E-06</v>
       </c>
       <c r="P20">
-        <v>0.009892968298618231</v>
+        <v>0.008786262977190682</v>
       </c>
       <c r="Q20">
-        <v>0.003662879742632854</v>
+        <v>0.008639865746096181</v>
       </c>
       <c r="R20">
-        <v>0.00105848923264987</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>2.938977339658563E-05</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>0.00306320325611327</v>
+        <v>0.01271240899406482</v>
       </c>
       <c r="U20">
-        <v>0.0005991126329183014</v>
+        <v>0.002519805605184812</v>
       </c>
       <c r="V20">
-        <v>7.628711642882554</v>
+        <v>32.10158376082187</v>
       </c>
       <c r="W20">
-        <v>0.05668468430122431</v>
+        <v>-999.999</v>
       </c>
       <c r="X20">
-        <v>9.20776454423711E-06</v>
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-0.7224623042558882</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+        <v>-4.324284510060068</v>
+      </c>
+      <c r="AA20">
+        <v>1.337395051437052E-06</v>
+      </c>
+      <c r="AB20">
+        <v>0.8846577573013583</v>
+      </c>
+      <c r="AC20">
+        <v>2.400907226018451E-07</v>
+      </c>
+      <c r="AD20">
+        <v>0.00251956551446221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.354944551962831E-06</v>
+        <v>5.549163976403767E-06</v>
       </c>
       <c r="C21">
-        <v>0.0446225436757765</v>
+        <v>0.03738625115063344</v>
       </c>
       <c r="D21">
-        <v>0.003210771146918484</v>
+        <v>0.002365911129836941</v>
       </c>
       <c r="E21">
-        <v>0.04770741053819846</v>
+        <v>0.04009243070760674</v>
       </c>
       <c r="F21">
-        <v>6.699705011548112</v>
+        <v>6.69970518903094</v>
       </c>
       <c r="K21">
-        <v>6.572399340422686</v>
+        <v>4.549551764469551</v>
       </c>
       <c r="L21">
-        <v>5.277970644409999</v>
+        <v>4.236350023713445</v>
       </c>
       <c r="M21">
-        <v>6.599237799171359</v>
+        <v>4.56268967397699</v>
       </c>
       <c r="N21">
-        <v>0.006951672591818931</v>
+        <v>0.000124434061116388</v>
       </c>
       <c r="O21">
-        <v>0.0002938616514701492</v>
+        <v>8.06630864109912E-06</v>
       </c>
       <c r="P21">
-        <v>0.009969882972148915</v>
+        <v>0.008788070350414071</v>
       </c>
       <c r="Q21">
-        <v>0.003669975230726862</v>
+        <v>0.008640553024166386</v>
       </c>
       <c r="R21">
-        <v>0.00107119416424559</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>2.967332456542003E-05</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>0.003093624128004566</v>
+        <v>0.01283824360380408</v>
       </c>
       <c r="U21">
-        <v>0.0006062153549902005</v>
+        <v>0.002549445093983334</v>
       </c>
       <c r="V21">
-        <v>7.671960227676812</v>
+        <v>32.2825183333708</v>
       </c>
       <c r="W21">
-        <v>0.09034828278762674</v>
+        <v>-999.999</v>
       </c>
       <c r="X21">
-        <v>1.475177924426669E-05</v>
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-0.7100688209292727</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
+        <v>-4.31387318019657</v>
+      </c>
+      <c r="AA21">
+        <v>1.337225101189705E-06</v>
+      </c>
+      <c r="AB21">
+        <v>0.8951403601575393</v>
+      </c>
+      <c r="AC21">
+        <v>2.442365614605476E-07</v>
+      </c>
+      <c r="AD21">
+        <v>0.002549200857421873</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.343202755325078E-06</v>
+        <v>5.538882000616833E-06</v>
       </c>
       <c r="C22">
-        <v>0.04514019083238723</v>
+        <v>0.0378240054008934</v>
       </c>
       <c r="D22">
-        <v>0.003256533095816962</v>
+        <v>0.002399289810542011</v>
       </c>
       <c r="E22">
-        <v>0.04828840838147043</v>
+        <v>0.04058717241362971</v>
       </c>
       <c r="F22">
-        <v>6.699688515685598</v>
+        <v>6.699688705438904</v>
       </c>
       <c r="K22">
-        <v>6.576585218585688</v>
+        <v>4.552642496931196</v>
       </c>
       <c r="L22">
-        <v>5.283371365505839</v>
+        <v>4.236607465818127</v>
       </c>
       <c r="M22">
-        <v>6.603656655124858</v>
+        <v>4.566027877845682</v>
       </c>
       <c r="N22">
-        <v>0.007034895228573291</v>
+        <v>0.0001258886580223291</v>
       </c>
       <c r="O22">
-        <v>0.000298064265116339</v>
+        <v>8.151495570362823E-06</v>
       </c>
       <c r="P22">
-        <v>0.01004863181891669</v>
+        <v>0.008789914316992166</v>
       </c>
       <c r="Q22">
-        <v>0.003677270217046663</v>
+        <v>0.008641248645081784</v>
       </c>
       <c r="R22">
-        <v>0.001084213174741592</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>2.996281925445018E-05</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>0.003124716737667245</v>
+        <v>0.01296685358517684</v>
       </c>
       <c r="U22">
-        <v>0.0006135055179303795</v>
+        <v>0.002579850166486846</v>
       </c>
       <c r="V22">
-        <v>7.715953826917085</v>
+        <v>32.46650701666967</v>
       </c>
       <c r="W22">
-        <v>0.1243419142790891</v>
+        <v>-999.999</v>
       </c>
       <c r="X22">
-        <v>2.042978768134825E-05</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-0.6975400771786422</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
+        <v>-4.303300074895379</v>
+      </c>
+      <c r="AA22">
+        <v>1.337052020171853E-06</v>
+      </c>
+      <c r="AB22">
+        <v>0.9058790813570983</v>
+      </c>
+      <c r="AC22">
+        <v>2.485163637214642E-07</v>
+      </c>
+      <c r="AD22">
+        <v>0.002579601650123125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.33117532571106E-06</v>
+        <v>5.528346017971945E-06</v>
       </c>
       <c r="C23">
-        <v>0.04567036371512863</v>
+        <v>0.03827241952229025</v>
       </c>
       <c r="D23">
-        <v>0.003303630473218059</v>
+        <v>0.002433631931049129</v>
       </c>
       <c r="E23">
-        <v>0.04888394430367165</v>
+        <v>0.04109443479089059</v>
       </c>
       <c r="F23">
-        <v>6.699671906692848</v>
+        <v>6.699672109097536</v>
       </c>
       <c r="K23">
-        <v>6.580814405759519</v>
+        <v>4.555790737228445</v>
       </c>
       <c r="L23">
-        <v>5.28884920736816</v>
+        <v>4.236873111194194</v>
       </c>
       <c r="M23">
-        <v>6.608122157917612</v>
+        <v>4.56942951859032</v>
       </c>
       <c r="N23">
-        <v>0.007120171569882872</v>
+        <v>0.000127379001850835</v>
       </c>
       <c r="O23">
-        <v>0.0003023893980214681</v>
+        <v>8.239314441543016E-06</v>
       </c>
       <c r="P23">
-        <v>0.01012928196577581</v>
+        <v>0.008791796160940399</v>
       </c>
       <c r="Q23">
-        <v>0.00368478153166981</v>
+        <v>0.008641951545937891</v>
       </c>
       <c r="R23">
-        <v>0.00109755811595029</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>3.025856454409931E-05</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>0.003156504221461383</v>
+        <v>0.01309833464110962</v>
       </c>
       <c r="U23">
-        <v>0.000620990802435249</v>
+        <v>0.002611051497188877</v>
       </c>
       <c r="V23">
-        <v>7.760715113553593</v>
+        <v>32.65364044896257</v>
       </c>
       <c r="W23">
-        <v>0.1586727495741975</v>
+        <v>-999.999</v>
       </c>
       <c r="X23">
-        <v>2.624684129299011E-05</v>
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-0.684872757384106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
+        <v>-4.29255997588203</v>
+      </c>
+      <c r="AA23">
+        <v>1.336875718715207E-06</v>
+      </c>
+      <c r="AB23">
+        <v>0.9168833873699025</v>
+      </c>
+      <c r="AC23">
+        <v>2.529375444019631E-07</v>
+      </c>
+      <c r="AD23">
+        <v>0.002610798559644475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.318851734805753E-06</v>
+        <v>5.517546485174757E-06</v>
       </c>
       <c r="C24">
-        <v>0.0462135269618198</v>
+        <v>0.03873189115807539</v>
       </c>
       <c r="D24">
-        <v>0.003352122288132789</v>
+        <v>0.002468979632524675</v>
       </c>
       <c r="E24">
-        <v>0.0494945690984747</v>
+        <v>0.04161469771702059</v>
       </c>
       <c r="F24">
-        <v>6.699655181780953</v>
+        <v>6.699655397234281</v>
       </c>
       <c r="K24">
-        <v>6.585087860232251</v>
+        <v>4.558998250098806</v>
       </c>
       <c r="L24">
-        <v>5.29440832368534</v>
+        <v>4.237147443821907</v>
       </c>
       <c r="M24">
-        <v>6.612637131649298</v>
+        <v>4.572897948911504</v>
       </c>
       <c r="N24">
-        <v>0.007207579033624685</v>
+        <v>0.0001289064337406977</v>
       </c>
       <c r="O24">
-        <v>0.0003068427914344488</v>
+        <v>8.329915198331271E-06</v>
       </c>
       <c r="P24">
-        <v>0.01021190376621306</v>
+        <v>0.008793717245748123</v>
       </c>
       <c r="Q24">
-        <v>0.003692507687349216</v>
+        <v>0.008642661724662527</v>
       </c>
       <c r="R24">
-        <v>0.001111241443532421</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>3.056072730356329E-05</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>0.00318901080375659</v>
+        <v>0.01323278698910861</v>
       </c>
       <c r="U24">
-        <v>0.0006286793538128568</v>
+        <v>0.002643081459018004</v>
       </c>
       <c r="V24">
-        <v>7.806267779323956</v>
+        <v>32.84401322606425</v>
       </c>
       <c r="W24">
-        <v>0.1933489994296131</v>
+        <v>-999.999</v>
       </c>
       <c r="X24">
-        <v>3.220837762912378E-05</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-0.6720633219252132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
+        <v>-4.281648973561897</v>
+      </c>
+      <c r="AA24">
+        <v>1.336696097994467E-06</v>
+      </c>
+      <c r="AB24">
+        <v>0.9281632579253722</v>
+      </c>
+      <c r="AC24">
+        <v>2.575079481415566E-07</v>
+      </c>
+      <c r="AD24">
+        <v>0.002642823951069862</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.306220923156881E-06</v>
+        <v>5.506473407343754E-06</v>
       </c>
       <c r="C25">
-        <v>0.04677016858095859</v>
+        <v>0.03920283806100462</v>
       </c>
       <c r="D25">
-        <v>0.003402071059627608</v>
+        <v>0.002505377523544292</v>
       </c>
       <c r="E25">
-        <v>0.05012086153235667</v>
+        <v>0.04214846576708853</v>
       </c>
       <c r="F25">
-        <v>6.699638338050985</v>
+        <v>6.699638566967496</v>
       </c>
       <c r="K25">
-        <v>6.589406058183825</v>
+        <v>4.562266883140357</v>
       </c>
       <c r="L25">
-        <v>5.300048093553007</v>
+        <v>4.23743065249437</v>
       </c>
       <c r="M25">
-        <v>6.61720006482753</v>
+        <v>4.576432611961577</v>
       </c>
       <c r="N25">
-        <v>0.00729719898482196</v>
+        <v>0.0001304723625529362</v>
       </c>
       <c r="O25">
-        <v>0.0003114296471073401</v>
+        <v>8.423379067025221E-06</v>
       </c>
       <c r="P25">
-        <v>0.01029657124775675</v>
+        <v>0.008795679005762221</v>
       </c>
       <c r="Q25">
-        <v>0.003700472059888273</v>
+        <v>0.008643380531653188</v>
       </c>
       <c r="R25">
-        <v>0.001125276258028899</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>3.086962946291781E-05</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>0.003222261861548067</v>
+        <v>0.01337031563235654</v>
       </c>
       <c r="U25">
-        <v>0.0006365797472941491</v>
+        <v>0.002675974206516771</v>
       </c>
       <c r="V25">
-        <v>7.852636573491221</v>
+        <v>33.03772411695768</v>
       </c>
       <c r="W25">
-        <v>0.2283760600134777</v>
+        <v>-999.999</v>
       </c>
       <c r="X25">
-        <v>3.831961029863531E-05</v>
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-0.6591091799042701</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26">
+        <v>-4.270561695499543</v>
+      </c>
+      <c r="AA25">
+        <v>1.33651305454414E-06</v>
+      </c>
+      <c r="AB25">
+        <v>0.9397291450601811</v>
+      </c>
+      <c r="AC25">
+        <v>2.622328518936481E-07</v>
+      </c>
+      <c r="AD25">
+        <v>0.002675711973664877</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5.293271291160442E-06</v>
+        <v>5.49511627229447E-06</v>
       </c>
       <c r="C26">
-        <v>0.04734080144308137</v>
+        <v>0.03968569938386594</v>
       </c>
       <c r="D26">
-        <v>0.003453543066533583</v>
+        <v>0.002542872877142242</v>
       </c>
       <c r="E26">
-        <v>0.05076343014435039</v>
+        <v>0.04269626978967268</v>
       </c>
       <c r="F26">
-        <v>6.699621372488031</v>
+        <v>6.699621615300585</v>
       </c>
       <c r="K26">
-        <v>6.593770860536794</v>
+        <v>4.565597966171661</v>
       </c>
       <c r="L26">
-        <v>5.305775525493053</v>
+        <v>4.23772333156731</v>
       </c>
       <c r="M26">
-        <v>6.621816578509861</v>
+        <v>4.58003732493802</v>
       </c>
       <c r="N26">
-        <v>0.007389117002423468</v>
+        <v>0.0001320782702303824</v>
       </c>
       <c r="O26">
-        <v>0.0003161567886562929</v>
+        <v>8.519876261720376E-06</v>
       </c>
       <c r="P26">
-        <v>0.01038336202654449</v>
+        <v>0.008797682933053131</v>
       </c>
       <c r="Q26">
-        <v>0.003708656937845802</v>
+        <v>0.008644106708277394</v>
       </c>
       <c r="R26">
-        <v>0.001139676345246873</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>3.118534922897214E-05</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>0.003256283994630356</v>
+        <v>0.01351103065111759</v>
       </c>
       <c r="U26">
-        <v>0.0006447010851960646</v>
+        <v>0.002709765749089084</v>
       </c>
       <c r="V26">
-        <v>7.899847386738855</v>
+        <v>33.23487626869886</v>
       </c>
       <c r="W26">
-        <v>0.2637644083553674</v>
+        <v>-999.999</v>
       </c>
       <c r="X26">
-        <v>4.458680879627406E-05</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-0.6460058802958848</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26">
+        <v>-4.259294120607825</v>
+      </c>
+      <c r="AA26">
+        <v>1.336326513894387E-06</v>
+      </c>
+      <c r="AB26">
+        <v>0.9515920417687106</v>
+      </c>
+      <c r="AC26">
+        <v>2.67121115560295E-07</v>
+      </c>
+      <c r="AD26">
+        <v>0.002709498627973524</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5.279990650418963E-06</v>
+        <v>5.483464031476101E-06</v>
       </c>
       <c r="C27">
-        <v>0.047925964888102</v>
+        <v>0.04018093707062226</v>
       </c>
       <c r="D27">
-        <v>0.003506608640848662</v>
+        <v>0.002581515825796421</v>
       </c>
       <c r="E27">
-        <v>0.05142291515834162</v>
+        <v>0.04325866863453493</v>
       </c>
       <c r="F27">
-        <v>6.699604281954855</v>
+        <v>6.699604539115756</v>
       </c>
       <c r="K27">
-        <v>6.598182286229133</v>
+        <v>4.568993361785394</v>
       </c>
       <c r="L27">
-        <v>5.311588117402023</v>
+        <v>4.238025772249583</v>
       </c>
       <c r="M27">
-        <v>6.626483124904339</v>
+        <v>4.583712368540447</v>
       </c>
       <c r="N27">
-        <v>0.007483423138607031</v>
+        <v>0.0001337257154832979</v>
       </c>
       <c r="O27">
-        <v>0.0003210299293600569</v>
+        <v>8.619517541436769E-06</v>
       </c>
       <c r="P27">
-        <v>0.01047235809439381</v>
+        <v>0.008799730616050142</v>
       </c>
       <c r="Q27">
-        <v>0.00371710144045905</v>
+        <v>0.008644842185360286</v>
       </c>
       <c r="R27">
-        <v>0.001154456225193778</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>3.150830263450549E-05</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>0.00329110510008948</v>
+        <v>0.01365504751647797</v>
       </c>
       <c r="U27">
-        <v>0.0006530529596581801</v>
+        <v>0.002744494197087647</v>
       </c>
       <c r="V27">
-        <v>7.947927295624697</v>
+        <v>33.43557749664871</v>
       </c>
       <c r="W27">
-        <v>0.2995190602280076</v>
+        <v>-999.999</v>
       </c>
       <c r="X27">
-        <v>5.101564801145016E-05</v>
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-0.6327507904888705</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26">
+        <v>-4.247841062579553</v>
+      </c>
+      <c r="AA27">
+        <v>1.336136371740018E-06</v>
+      </c>
+      <c r="AB27">
+        <v>0.9637635020067455</v>
+      </c>
+      <c r="AC27">
+        <v>2.721795978909619E-07</v>
+      </c>
+      <c r="AD27">
+        <v>0.002744222017489756</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5.266366187172123E-06</v>
+        <v>5.471505047328403E-06</v>
       </c>
       <c r="C28">
-        <v>0.04852622645901083</v>
+        <v>0.0406890373577145</v>
       </c>
       <c r="D28">
-        <v>0.003561342479743684</v>
+        <v>0.002621359586961523</v>
       </c>
       <c r="E28">
-        <v>0.05209999055495553</v>
+        <v>0.04383625099765887</v>
       </c>
       <c r="F28">
-        <v>6.699587063185209</v>
+        <v>6.69958733516736</v>
       </c>
       <c r="K28">
-        <v>6.602642153979973</v>
+        <v>4.572455102044978</v>
       </c>
       <c r="L28">
-        <v>5.317490058984795</v>
+        <v>4.238338661115235</v>
       </c>
       <c r="M28">
-        <v>6.631202517091427</v>
+        <v>4.587462801632526</v>
       </c>
       <c r="N28">
-        <v>0.007580212236029287</v>
+        <v>0.0001354163397798096</v>
       </c>
       <c r="O28">
-        <v>0.0003260565575211294</v>
+        <v>8.722512216267192E-06</v>
       </c>
       <c r="P28">
-        <v>0.01056364534647401</v>
+        <v>0.008801823702951357</v>
       </c>
       <c r="Q28">
-        <v>0.003725810705513432</v>
+        <v>0.008645585117082669</v>
       </c>
       <c r="R28">
-        <v>0.001169631197120255</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>3.183870631117068E-05</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>0.003326754453338552</v>
+        <v>0.01380248742619946</v>
       </c>
       <c r="U28">
-        <v>0.000661645538286441</v>
+        <v>0.002780199879957371</v>
       </c>
       <c r="V28">
-        <v>7.996904641599016</v>
+        <v>33.63994057151664</v>
       </c>
       <c r="W28">
-        <v>0.3356500116811887</v>
+        <v>-999.999</v>
       </c>
       <c r="X28">
-        <v>5.761285551279922E-05</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-0.6193396135244775</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
+        <v>-4.236197224132793</v>
+      </c>
+      <c r="AA28">
+        <v>1.335942514285481E-06</v>
+      </c>
+      <c r="AB28">
+        <v>0.9762556956967097</v>
+      </c>
+      <c r="AC28">
+        <v>2.774186352697427E-07</v>
+      </c>
+      <c r="AD28">
+        <v>0.002779922461322101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5.252384433946082E-06</v>
+        <v>5.45922708070918E-06</v>
       </c>
       <c r="C29">
-        <v>0.04914218377379531</v>
+        <v>0.04121051239567002</v>
       </c>
       <c r="D29">
-        <v>0.003617823980261723</v>
+        <v>0.002662460691522751</v>
       </c>
       <c r="E29">
-        <v>0.05279536631639924</v>
+        <v>0.04442963744004198</v>
       </c>
       <c r="F29">
-        <v>6.699569712776888</v>
+        <v>6.699570000074677</v>
       </c>
       <c r="K29">
-        <v>6.607152789346698</v>
+        <v>4.5759852659947</v>
       </c>
       <c r="L29">
-        <v>5.323489495909445</v>
+        <v>4.238662475753762</v>
       </c>
       <c r="M29">
-        <v>6.635981521806954</v>
+        <v>4.591290172808657</v>
       </c>
       <c r="N29">
-        <v>0.007679584231625289</v>
+        <v>0.0001371518716642417</v>
       </c>
       <c r="O29">
-        <v>0.0003312448202807815</v>
+        <v>8.82901078625658E-06</v>
       </c>
       <c r="P29">
-        <v>0.0106573143141584</v>
+        <v>0.008803963957552298</v>
       </c>
       <c r="Q29">
-        <v>0.003734761404363073</v>
+        <v>0.008646335849683029</v>
       </c>
       <c r="R29">
-        <v>0.001185217395624489</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>3.217671451731414E-05</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>0.003363262794640636</v>
+        <v>0.01395347766655894</v>
       </c>
       <c r="U29">
-        <v>0.0006704896301796638</v>
+        <v>0.002816925480749583</v>
       </c>
       <c r="V29">
-        <v>8.046809126129311</v>
+        <v>33.8480835122047</v>
       </c>
       <c r="W29">
-        <v>0.3721717539195879</v>
+        <v>-999.999</v>
       </c>
       <c r="X29">
-        <v>6.438625072751028E-05</v>
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-0.6057666069966388</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
+        <v>-4.224356799824026</v>
+      </c>
+      <c r="AA29">
+        <v>1.335744825104297E-06</v>
+      </c>
+      <c r="AB29">
+        <v>0.989081421921823</v>
+      </c>
+      <c r="AC29">
+        <v>2.828467790714279E-07</v>
+      </c>
+      <c r="AD29">
+        <v>0.002816642633970512</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5.238031201666482E-06</v>
+        <v>5.446617237557755E-06</v>
       </c>
       <c r="C30">
-        <v>0.04977446654870549</v>
+        <v>0.04174590200267207</v>
       </c>
       <c r="D30">
-        <v>0.003676137626934859</v>
+        <v>0.00270487924976579</v>
       </c>
       <c r="E30">
-        <v>0.05350979081405952</v>
+        <v>0.04503948254656648</v>
       </c>
       <c r="F30">
-        <v>6.699552227183181</v>
+        <v>6.69955253031427</v>
       </c>
       <c r="K30">
-        <v>6.611712589287152</v>
+        <v>4.57958535958239</v>
       </c>
       <c r="L30">
-        <v>5.329580042927852</v>
+        <v>4.238997623491999</v>
       </c>
       <c r="M30">
-        <v>6.640812249959107</v>
+        <v>4.595195197386928</v>
       </c>
       <c r="N30">
-        <v>0.007781644501227297</v>
+        <v>0.0001389341336208804</v>
       </c>
       <c r="O30">
-        <v>0.0003366004545697264</v>
+        <v>8.939156469082413E-06</v>
       </c>
       <c r="P30">
-        <v>0.01075346088235</v>
+        <v>0.008806153236828259</v>
       </c>
       <c r="Q30">
-        <v>0.003744015950810127</v>
+        <v>0.008647095961437376</v>
       </c>
       <c r="R30">
-        <v>0.001201231849528755</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>3.252289526115449E-05</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>0.003400662421924815</v>
+        <v>0.01410815200247296</v>
       </c>
       <c r="U30">
-        <v>0.0006795966868500038</v>
+        <v>0.002854716144624563</v>
       </c>
       <c r="V30">
-        <v>8.097671886588833</v>
+        <v>34.06012987048505</v>
       </c>
       <c r="W30">
-        <v>0.4090830934408807</v>
+        <v>-999.999</v>
       </c>
       <c r="X30">
-        <v>7.134139236047093E-05</v>
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-0.592030937037336</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
+        <v>-4.212315072175491</v>
+      </c>
+      <c r="AA30">
+        <v>1.335543219863386E-06</v>
+      </c>
+      <c r="AB30">
+        <v>1.002254164666831</v>
+      </c>
+      <c r="AC30">
+        <v>2.884729499396246E-07</v>
+      </c>
+      <c r="AD30">
+        <v>0.002854427671674624</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5.223291561618164E-06</v>
+        <v>5.433661920901194E-06</v>
       </c>
       <c r="C31">
-        <v>0.0504237387870403</v>
+        <v>0.04229577556257216</v>
       </c>
       <c r="D31">
-        <v>0.003736373385272222</v>
+        <v>0.002748679239008891</v>
       </c>
       <c r="E31">
-        <v>0.05424405344310631</v>
+        <v>0.04566647726709591</v>
       </c>
       <c r="F31">
-        <v>6.699534602705469</v>
+        <v>6.699534922211803</v>
       </c>
       <c r="K31">
-        <v>6.616323647460755</v>
+        <v>4.583257863135834</v>
       </c>
       <c r="L31">
-        <v>5.335768225222798</v>
+        <v>4.239344696954737</v>
       </c>
       <c r="M31">
-        <v>6.645699741287001</v>
+        <v>4.599180425016547</v>
       </c>
       <c r="N31">
-        <v>0.007886504276532333</v>
+        <v>0.0001407650487920325</v>
       </c>
       <c r="O31">
-        <v>0.0003421326527892201</v>
+        <v>9.053136266266699E-06</v>
       </c>
       <c r="P31">
-        <v>0.01085218545885056</v>
+        <v>0.008808393480143624</v>
       </c>
       <c r="Q31">
-        <v>0.003753568035165775</v>
+        <v>0.008647865295134487</v>
       </c>
       <c r="R31">
-        <v>0.001217692539025482</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>3.287743338177669E-05</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>0.003438987291432911</v>
+        <v>0.01426665109906238</v>
       </c>
       <c r="U31">
-        <v>0.0006889788726385631</v>
+        <v>0.002893619853149388</v>
       </c>
       <c r="V31">
-        <v>8.149525589853834</v>
+        <v>34.27620913355141</v>
       </c>
       <c r="W31">
-        <v>0.4463963166854654</v>
+        <v>-999.999</v>
       </c>
       <c r="X31">
-        <v>7.848637015965868E-05</v>
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-0.5781273773916773</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26">
+        <v>-4.200065393247518</v>
+      </c>
+      <c r="AA31">
+        <v>1.335337559664393E-06</v>
+      </c>
+      <c r="AB31">
+        <v>1.01578814302437</v>
+      </c>
+      <c r="AC31">
+        <v>2.943070730380814E-07</v>
+      </c>
+      <c r="AD31">
+        <v>0.00289332554607635</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5.208149776864752E-06</v>
+        <v>5.420346780905291E-06</v>
       </c>
       <c r="C32">
-        <v>0.0510907011499227</v>
+        <v>0.04286073408148021</v>
       </c>
       <c r="D32">
-        <v>0.00379862716181497</v>
+        <v>0.002793928818353714</v>
       </c>
       <c r="E32">
-        <v>0.05499898742371719</v>
+        <v>0.04631135145238269</v>
       </c>
       <c r="F32">
-        <v>6.699516835483696</v>
+        <v>6.699517171933183</v>
       </c>
       <c r="K32">
-        <v>6.620989522167116</v>
+        <v>4.587004854324945</v>
       </c>
       <c r="L32">
-        <v>5.342063879233709</v>
+        <v>4.239703939140004</v>
       </c>
       <c r="M32">
-        <v>6.650652209973332</v>
+        <v>4.603243771010943</v>
       </c>
       <c r="N32">
-        <v>0.007994281014014377</v>
+        <v>0.0001426466475424005</v>
       </c>
       <c r="O32">
-        <v>0.0003478517711806311</v>
+        <v>9.171052222473254E-06</v>
       </c>
       <c r="P32">
-        <v>0.01095359427918892</v>
+        <v>0.00881068673992947</v>
       </c>
       <c r="Q32">
-        <v>0.003763392991403842</v>
+        <v>0.008648645395095475</v>
       </c>
       <c r="R32">
-        <v>0.001234618469106106</v>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>3.32405123162253E-05</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>0.003478273125987116</v>
+        <v>0.01442912297400399</v>
       </c>
       <c r="U32">
-        <v>0.0006986491018453094</v>
+        <v>0.002933687471471953</v>
       </c>
       <c r="V32">
-        <v>8.202404524566763</v>
+        <v>34.49645706997858</v>
       </c>
       <c r="W32">
-        <v>0.4841274631518608</v>
+        <v>-999.999</v>
       </c>
       <c r="X32">
-        <v>8.583022087127985E-05</v>
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-0.5640493166535592</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26">
+        <v>-4.18760212611242</v>
+      </c>
+      <c r="AA32">
+        <v>1.335127728157803E-06</v>
+      </c>
+      <c r="AB32">
+        <v>1.029698363451196</v>
+      </c>
+      <c r="AC32">
+        <v>3.003572840666248E-07</v>
+      </c>
+      <c r="AD32">
+        <v>0.002933387114187887</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5.192589269578322E-06</v>
+        <v>5.406656683079558E-06</v>
       </c>
       <c r="C33">
-        <v>0.05177609352656195</v>
+        <v>0.04344141241862697</v>
       </c>
       <c r="D33">
-        <v>0.003863001285090173</v>
+        <v>0.002840700664481235</v>
       </c>
       <c r="E33">
-        <v>0.05577547287237408</v>
+        <v>0.04697487661921115</v>
       </c>
       <c r="F33">
-        <v>6.699498921486892</v>
+        <v>6.699499275475085</v>
       </c>
       <c r="K33">
-        <v>6.625707977132908</v>
+        <v>4.590828804512878</v>
       </c>
       <c r="L33">
-        <v>5.348458047998085</v>
+        <v>4.240076783076173</v>
       </c>
       <c r="M33">
-        <v>6.655658955005772</v>
+        <v>4.607398004058003</v>
       </c>
       <c r="N33">
-        <v>0.00810509882912791</v>
+        <v>0.0001445810764600806</v>
       </c>
       <c r="O33">
-        <v>0.000353764696305698</v>
+        <v>9.29332431704871E-06</v>
       </c>
       <c r="P33">
-        <v>0.01105780009495392</v>
+        <v>0.008813035165216919</v>
       </c>
       <c r="Q33">
-        <v>0.00377357525088421</v>
+        <v>0.008649433001595685</v>
       </c>
       <c r="R33">
-        <v>0.001252029743842191</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>3.36127983661791E-05</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>0.003518557532134099</v>
+        <v>0.01459572348853344</v>
       </c>
       <c r="U33">
-        <v>0.0007086211153846531</v>
+        <v>0.002974973073672363</v>
       </c>
       <c r="V33">
-        <v>8.256344709663251</v>
+        <v>34.72101615326748</v>
       </c>
       <c r="W33">
-        <v>0.522278816554909</v>
+        <v>-999.999</v>
       </c>
       <c r="X33">
-        <v>9.338034343662069E-05</v>
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-0.54979508622948</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26">
+        <v>-4.174918423143923</v>
+      </c>
+      <c r="AA33">
+        <v>1.334913586947279E-06</v>
+      </c>
+      <c r="AB33">
+        <v>1.044000653000886</v>
+      </c>
+      <c r="AC33">
+        <v>3.066420475657149E-07</v>
+      </c>
+      <c r="AD33">
+        <v>0.002974666431624797</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5.176592532849971E-06</v>
+        <v>5.392575639946877E-06</v>
       </c>
       <c r="C34">
-        <v>0.05248069782423066</v>
+        <v>0.04403848170912911</v>
       </c>
       <c r="D34">
-        <v>0.003929605067874712</v>
+        <v>0.002889072355702353</v>
       </c>
       <c r="E34">
-        <v>0.0565744400870508</v>
+        <v>0.04765786892870364</v>
       </c>
       <c r="F34">
-        <v>6.699480856502943</v>
+        <v>6.699481228654779</v>
       </c>
       <c r="K34">
-        <v>6.630482540629935</v>
+        <v>4.594731631276</v>
       </c>
       <c r="L34">
-        <v>5.35496242340533</v>
+        <v>4.240463288836935</v>
       </c>
       <c r="M34">
-        <v>6.660729781299835</v>
+        <v>4.611637604931849</v>
       </c>
       <c r="N34">
-        <v>0.008219089036963532</v>
+        <v>0.0001465706022268899</v>
       </c>
       <c r="O34">
-        <v>0.0003598832663484285</v>
+        <v>9.420007588240144E-06</v>
       </c>
       <c r="P34">
-        <v>0.01116492104854318</v>
+        <v>0.008815441079387819</v>
       </c>
       <c r="Q34">
-        <v>0.003784082337699927</v>
+        <v>0.008650231771915734</v>
       </c>
       <c r="R34">
-        <v>0.001269947640099191</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>3.399448525281404E-05</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>0.003559880126498061</v>
+        <v>0.01476661687698728</v>
       </c>
       <c r="U34">
-        <v>0.0007189095679404358</v>
+        <v>0.003017534066368838</v>
       </c>
       <c r="V34">
-        <v>8.311384020170832</v>
+        <v>34.95003596086222</v>
       </c>
       <c r="W34">
-        <v>0.5608651900276698</v>
+        <v>-999.999</v>
       </c>
       <c r="X34">
-        <v>0.0001011463536458044</v>
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-0.5353581902086049</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26">
+        <v>-4.162008388912035</v>
+      </c>
+      <c r="AA34">
+        <v>1.334695028648544E-06</v>
+      </c>
+      <c r="AB34">
+        <v>1.058711730796775</v>
+      </c>
+      <c r="AC34">
+        <v>3.131681500950155E-07</v>
+      </c>
+      <c r="AD34">
+        <v>0.003017220898218743</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5.160141086265452E-06</v>
+        <v>5.378086745066283E-06</v>
       </c>
       <c r="C35">
-        <v>0.05320534099969865</v>
+        <v>0.04465265199798623</v>
       </c>
       <c r="D35">
-        <v>0.00399855539539614</v>
+        <v>0.002939126791761185</v>
       </c>
       <c r="E35">
-        <v>0.05739687315288067</v>
+        <v>0.04836119242635895</v>
       </c>
       <c r="F35">
-        <v>6.699462636127612</v>
+        <v>6.699463027099159</v>
       </c>
       <c r="K35">
-        <v>6.635314201857926</v>
+        <v>4.598716037244872</v>
       </c>
       <c r="L35">
-        <v>5.36157851387407</v>
+        <v>4.240864394276696</v>
       </c>
       <c r="M35">
-        <v>6.665864498208609</v>
+        <v>4.615967501555398</v>
       </c>
       <c r="N35">
-        <v>0.008336390615629428</v>
+        <v>0.0001486176260274667</v>
       </c>
       <c r="O35">
-        <v>0.0003662178465309201</v>
+        <v>9.551384910834922E-06</v>
       </c>
       <c r="P35">
-        <v>0.01127508282034681</v>
+        <v>0.008817906889947106</v>
       </c>
       <c r="Q35">
-        <v>0.003794940184952337</v>
+        <v>0.008651040275402797</v>
       </c>
       <c r="R35">
-        <v>0.001288394702111824</v>
+        <v>0</v>
       </c>
       <c r="S35">
-        <v>3.438599561114284E-05</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>0.003602282672148175</v>
+        <v>0.01494197632192188</v>
       </c>
       <c r="U35">
-        <v>0.0007295300668862297</v>
+        <v>0.003061431642632224</v>
       </c>
       <c r="V35">
-        <v>8.367562306846482</v>
+        <v>35.1836736898051</v>
       </c>
       <c r="W35">
-        <v>0.5998962053519747</v>
+        <v>-999.999</v>
       </c>
       <c r="X35">
-        <v>0.000109137604542252</v>
+        <v>0</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>-0.5207340776746641</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26">
+        <v>-4.148864698038336</v>
+      </c>
+      <c r="AA35">
+        <v>1.334471901914287E-06</v>
+      </c>
+      <c r="AB35">
+        <v>1.073849277024409</v>
+      </c>
+      <c r="AC35">
+        <v>3.19950555193766E-07</v>
+      </c>
+      <c r="AD35">
+        <v>0.00306111169207703</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5.143215414997847E-06</v>
+        <v>5.363172108942715E-06</v>
       </c>
       <c r="C36">
-        <v>0.05395089835733961</v>
+        <v>0.04528467510717146</v>
       </c>
       <c r="D36">
-        <v>0.00406997738201305</v>
+        <v>0.002990952653651818</v>
       </c>
       <c r="E36">
-        <v>0.05824381384645948</v>
+        <v>0.04908576257098984</v>
       </c>
       <c r="F36">
-        <v>6.699444255752316</v>
+        <v>6.699444666232945</v>
       </c>
       <c r="K36">
-        <v>6.640203390725586</v>
+        <v>4.602784740125949</v>
       </c>
       <c r="L36">
-        <v>5.368307730987429</v>
+        <v>4.241281000320434</v>
       </c>
       <c r="M36">
-        <v>6.671062129275777</v>
+        <v>4.620393010323685</v>
       </c>
       <c r="N36">
-        <v>0.008457150809100618</v>
+        <v>0.0001507246902868096</v>
       </c>
       <c r="O36">
-        <v>0.0003727793686170327</v>
+        <v>9.687767035661295E-06</v>
       </c>
       <c r="P36">
-        <v>0.01138841831482248</v>
+        <v>0.008820435171985656</v>
       </c>
       <c r="Q36">
-        <v>0.00380618091951324</v>
+        <v>0.008651859722147551</v>
       </c>
       <c r="R36">
-        <v>0.001307394834028501</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>3.47878755721841E-05</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>0.003645809226773356</v>
+        <v>0.01512198457463839</v>
       </c>
       <c r="U36">
-        <v>0.000740499276373865</v>
+        <v>0.00310673098564748</v>
       </c>
       <c r="V36">
-        <v>8.424921536972988</v>
+        <v>35.42209466552229</v>
       </c>
       <c r="W36">
-        <v>0.639381033955214</v>
+        <v>-999.999</v>
       </c>
       <c r="X36">
-        <v>0.0001173639191145402</v>
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>-0.5059182354654155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26">
+        <v>-4.135480089197255</v>
+      </c>
+      <c r="AA36">
+        <v>1.334244054552947E-06</v>
+      </c>
+      <c r="AB36">
+        <v>1.089431999975018</v>
+      </c>
+      <c r="AC36">
+        <v>3.270050751431798E-07</v>
+      </c>
+      <c r="AD36">
+        <v>0.003106403980572337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5.125794877343951E-06</v>
+        <v>5.347812804610579E-06</v>
       </c>
       <c r="C37">
-        <v>0.0547182971415754</v>
+        <v>0.04593534776030253</v>
       </c>
       <c r="D37">
-        <v>0.004144005115308463</v>
+        <v>0.003044644904226305</v>
       </c>
       <c r="E37">
-        <v>0.0591163658599649</v>
+        <v>0.04983255008903604</v>
       </c>
       <c r="F37">
-        <v>6.699425710551438</v>
+        <v>6.699426141265906</v>
       </c>
       <c r="K37">
-        <v>6.64515295676902</v>
+        <v>4.606940147572506</v>
       </c>
       <c r="L37">
-        <v>5.375157421763212</v>
+        <v>4.24171354468272</v>
       </c>
       <c r="M37">
-        <v>6.676328117219203</v>
+        <v>4.624911140925964</v>
       </c>
       <c r="N37">
-        <v>0.008581525754338829</v>
+        <v>0.0001528944891060581</v>
       </c>
       <c r="O37">
-        <v>0.0003795812577597432</v>
+        <v>9.829294973644403E-06</v>
       </c>
       <c r="P37">
-        <v>0.01150506812090417</v>
+        <v>0.008823028640444704</v>
       </c>
       <c r="Q37">
-        <v>0.003817803555863806</v>
+        <v>0.008652690615046003</v>
       </c>
       <c r="R37">
-        <v>0.001326973402620137</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>3.520043275894369E-05</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>0.003690506302933349</v>
+        <v>0.01530683462985364</v>
       </c>
       <c r="U37">
-        <v>0.0007518349812277247</v>
+        <v>0.003153501548544913</v>
       </c>
       <c r="V37">
-        <v>8.483505936556563</v>
+        <v>35.66547287472064</v>
       </c>
       <c r="W37">
-        <v>0.6793348503020411</v>
+        <v>-999.999</v>
       </c>
       <c r="X37">
-        <v>0.0001258365458980014</v>
+        <v>0</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>-0.4909041570090764</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26">
+        <v>-4.121847414508913</v>
+      </c>
+      <c r="AA37">
+        <v>1.33401135173594E-06</v>
+      </c>
+      <c r="AB37">
+        <v>1.10547969292673</v>
+      </c>
+      <c r="AC37">
+        <v>3.343423651117119E-07</v>
+      </c>
+      <c r="AD37">
+        <v>0.003153167206179802</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5.107857647522767E-06</v>
+        <v>5.331988773430881E-06</v>
       </c>
       <c r="C38">
-        <v>0.05550852045448581</v>
+        <v>0.04660551499242872</v>
       </c>
       <c r="D38">
-        <v>0.00422078245126351</v>
+        <v>0.003100305358762147</v>
       </c>
       <c r="E38">
-        <v>0.06001569943422471</v>
+        <v>0.05060258514935805</v>
       </c>
       <c r="F38">
-        <v>6.69940699546811</v>
+        <v>6.699407447179087</v>
       </c>
       <c r="K38">
-        <v>6.65016418978879</v>
+        <v>4.611185227133121</v>
       </c>
       <c r="L38">
-        <v>5.382131873427713</v>
+        <v>4.242163643125895</v>
       </c>
       <c r="M38">
-        <v>6.681664226297682</v>
+        <v>4.629533783919787</v>
       </c>
       <c r="N38">
-        <v>0.008709681137097877</v>
+        <v>0.000155129882764377</v>
       </c>
       <c r="O38">
-        <v>0.0003866365714866327</v>
+        <v>9.976458932089026E-06</v>
       </c>
       <c r="P38">
-        <v>0.01162518162973292</v>
+        <v>0.008825690172091557</v>
       </c>
       <c r="Q38">
-        <v>0.003829825436907398</v>
+        <v>0.008653531241627639</v>
       </c>
       <c r="R38">
-        <v>0.001347157355274217</v>
+        <v>0</v>
       </c>
       <c r="S38">
-        <v>3.562418166170208E-05</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>0.003736423042334998</v>
+        <v>0.01549673045924909</v>
       </c>
       <c r="U38">
-        <v>0.0007635562226322364</v>
+        <v>0.003201817547943732</v>
       </c>
       <c r="V38">
-        <v>8.543362160846934</v>
+        <v>35.91399159876169</v>
       </c>
       <c r="W38">
-        <v>0.7197707054238833</v>
+        <v>-999.999</v>
       </c>
       <c r="X38">
-        <v>0.0001345671053457057</v>
+        <v>0</v>
       </c>
       <c r="Y38">
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>-0.4756861820468217</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26">
+        <v>-4.107958656963747</v>
+      </c>
+      <c r="AA38">
+        <v>1.333773627280545E-06</v>
+      </c>
+      <c r="AB38">
+        <v>1.122013332712657</v>
+      </c>
+      <c r="AC38">
+        <v>3.419857223440728E-07</v>
+      </c>
+      <c r="AD38">
+        <v>0.003201475562221388</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5.089380614004172E-06</v>
+        <v>5.315678747064392E-06</v>
       </c>
       <c r="C39">
-        <v>0.05632261153390204</v>
+        <v>0.04729607387550279</v>
       </c>
       <c r="D39">
-        <v>0.004300463923288048</v>
+        <v>0.003158043305973527</v>
       </c>
       <c r="E39">
-        <v>0.06094305637258028</v>
+        <v>0.05139696193779091</v>
       </c>
       <c r="F39">
-        <v>6.699388105199086</v>
+        <v>6.69938857870999</v>
       </c>
       <c r="K39">
-        <v>6.655237593477321</v>
+        <v>4.61552274087897</v>
       </c>
       <c r="L39">
-        <v>5.389230454219863</v>
+        <v>4.242631494888493</v>
       </c>
       <c r="M39">
-        <v>6.687067725686211</v>
+        <v>4.63425553125552</v>
       </c>
       <c r="N39">
-        <v>0.008841792955599642</v>
+        <v>0.0001574339053648895</v>
       </c>
       <c r="O39">
-        <v>0.0003939587386382764</v>
+        <v>1.012938141323414E-05</v>
       </c>
       <c r="P39">
-        <v>0.01174891744231745</v>
+        <v>0.008828422853527492</v>
       </c>
       <c r="Q39">
-        <v>0.003842296180614586</v>
+        <v>0.008654384822043127</v>
       </c>
       <c r="R39">
-        <v>0.001367975342156956</v>
+        <v>0</v>
       </c>
       <c r="S39">
-        <v>3.605979715158524E-05</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>0.003783611404552502</v>
+        <v>0.01569188780704758</v>
       </c>
       <c r="U39">
-        <v>0.0007756833595689058</v>
+        <v>0.003251758250079248</v>
       </c>
       <c r="V39">
-        <v>8.604539460585697</v>
+        <v>36.16784405252744</v>
       </c>
       <c r="W39">
-        <v>0.7606971976245838</v>
+        <v>-999.999</v>
       </c>
       <c r="X39">
-        <v>0.000143567038421844</v>
+        <v>0</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>-0.4602594555381501</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26">
+        <v>-4.09380589983161</v>
+      </c>
+      <c r="AA39">
+        <v>1.333530726510778E-06</v>
+      </c>
+      <c r="AB39">
+        <v>1.139055161272837</v>
+      </c>
+      <c r="AC39">
+        <v>3.499459519340569E-07</v>
+      </c>
+      <c r="AD39">
+        <v>0.003251408304127314</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5.070339280133819E-06</v>
+        <v>5.298860165307013E-06</v>
       </c>
       <c r="C40">
-        <v>0.05716167843084743</v>
+        <v>0.04800797759436617</v>
       </c>
       <c r="D40">
-        <v>0.004383215746013635</v>
+        <v>0.003217976195771563</v>
       </c>
       <c r="E40">
-        <v>0.06189975552425896</v>
+        <v>0.05221684365749608</v>
       </c>
       <c r="F40">
-        <v>6.699369034179169</v>
+        <v>6.699369530336333</v>
       </c>
       <c r="K40">
-        <v>6.660376675681901</v>
+        <v>4.619955942033758</v>
       </c>
       <c r="L40">
-        <v>5.396464965011267</v>
+        <v>4.24311863765589</v>
       </c>
       <c r="M40">
-        <v>6.692547416637177</v>
+        <v>4.639084997059006</v>
       </c>
       <c r="N40">
-        <v>0.008978048346195793</v>
+        <v>0.0001598097847834646</v>
       </c>
       <c r="O40">
-        <v>0.0004015646355668078</v>
+        <v>1.028851941195888E-05</v>
       </c>
       <c r="P40">
-        <v>0.01187644359169976</v>
+        <v>0.008831229918551434</v>
       </c>
       <c r="Q40">
-        <v>0.00385519740319522</v>
+        <v>0.008655249683224769</v>
       </c>
       <c r="R40">
-        <v>0.001389457850947365</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>3.650759023830171E-05</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>0.003832126373019979</v>
+        <v>0.01589253505796643</v>
       </c>
       <c r="U40">
-        <v>0.0007882382479176376</v>
+        <v>0.003303408519412668</v>
       </c>
       <c r="V40">
-        <v>8.667089887021294</v>
+        <v>36.42723412209061</v>
       </c>
       <c r="W40">
-        <v>0.8021335213021068</v>
+        <v>-999.999</v>
       </c>
       <c r="X40">
-        <v>0.0001528501929344122</v>
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>-0.444616252440337</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26">
+        <v>-4.079380075135406</v>
+      </c>
+      <c r="AA40">
+        <v>1.33328246724611E-06</v>
+      </c>
+      <c r="AB40">
+        <v>1.15662877164308</v>
+      </c>
+      <c r="AC40">
+        <v>3.582456562616416E-07</v>
+      </c>
+      <c r="AD40">
+        <v>0.003303050273756407</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5.050707688357074E-06</v>
+        <v>5.2815090648697E-06</v>
       </c>
       <c r="C41">
-        <v>0.0580268991305988</v>
+        <v>0.04874223991237592</v>
       </c>
       <c r="D41">
-        <v>0.004469216908382726</v>
+        <v>0.003280230415317812</v>
       </c>
       <c r="E41">
-        <v>0.06288719879271003</v>
+        <v>0.05306346798245094</v>
       </c>
       <c r="F41">
-        <v>6.699349776562279</v>
+        <v>6.699350296258705</v>
       </c>
       <c r="K41">
-        <v>6.665581090654881</v>
+        <v>4.624487930390806</v>
       </c>
       <c r="L41">
-        <v>5.403833131758474</v>
+        <v>4.24362602763541</v>
       </c>
       <c r="M41">
-        <v>6.698098460847878</v>
+        <v>4.644023782697692</v>
       </c>
       <c r="N41">
-        <v>0.009118646439812661</v>
+        <v>0.0001622609530682434</v>
       </c>
       <c r="O41">
-        <v>0.0004094691985741206</v>
+        <v>1.045419517437524E-05</v>
       </c>
       <c r="P41">
-        <v>0.01200793943085557</v>
+        <v>0.008834114840442036</v>
       </c>
       <c r="Q41">
-        <v>0.003868593069211638</v>
+        <v>0.008656126869018982</v>
       </c>
       <c r="R41">
-        <v>0.001411637363418005</v>
+        <v>0</v>
       </c>
       <c r="S41">
-        <v>3.696844182257674E-05</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>0.003882026178349526</v>
+        <v>0.01609891418154928</v>
       </c>
       <c r="U41">
-        <v>0.0008012443202026254</v>
+        <v>0.003356859222762815</v>
       </c>
       <c r="V41">
-        <v>8.731068494104738</v>
+        <v>36.69237713329159</v>
       </c>
       <c r="W41">
-        <v>0.8440869247230296</v>
+        <v>-999.999</v>
       </c>
       <c r="X41">
-        <v>0.0001624292476576332</v>
+        <v>0</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>-0.4287517128946643</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26">
+        <v>-4.064672280379751</v>
+      </c>
+      <c r="AA41">
+        <v>1.333028675898115E-06</v>
+      </c>
+      <c r="AB41">
+        <v>1.174759224218944</v>
+      </c>
+      <c r="AC41">
+        <v>3.669037000534817E-07</v>
+      </c>
+      <c r="AD41">
+        <v>0.003356492319062762</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5.030458284126737E-06</v>
+        <v>5.263599961781189E-06</v>
       </c>
       <c r="C42">
-        <v>0.05891952716763574</v>
+        <v>0.04949994007066022</v>
       </c>
       <c r="D42">
-        <v>0.004558660432942655</v>
+        <v>0.003344942152430436</v>
       </c>
       <c r="E42">
-        <v>0.0639068776674591</v>
+        <v>0.05393815303085898</v>
       </c>
       <c r="F42">
-        <v>6.699330326203335</v>
+        <v>6.69933087038153</v>
       </c>
       <c r="K42">
-        <v>6.670853637100641</v>
+        <v>4.629121957363229</v>
       </c>
       <c r="L42">
-        <v>5.411341896548686</v>
+        <v>4.244155039277417</v>
       </c>
       <c r="M42">
-        <v>6.70372479060734</v>
+        <v>4.649078174986828</v>
       </c>
       <c r="N42">
-        <v>0.009263799393833304</v>
+        <v>0.0001647910656998079</v>
       </c>
       <c r="O42">
-        <v>0.000417690879225776</v>
+        <v>1.062686654675653E-05</v>
       </c>
       <c r="P42">
-        <v>0.01214359520354963</v>
+        <v>0.008837081306632421</v>
       </c>
       <c r="Q42">
-        <v>0.003882500061031526</v>
+        <v>0.008657017235996014</v>
       </c>
       <c r="R42">
-        <v>0.001434548512111263</v>
+        <v>0</v>
       </c>
       <c r="S42">
-        <v>3.744287898914251E-05</v>
+        <v>0</v>
       </c>
       <c r="T42">
-        <v>0.003933372542651975</v>
+        <v>0.01631128176419572</v>
       </c>
       <c r="U42">
-        <v>0.0008147267400916838</v>
+        <v>0.003412207825113831</v>
       </c>
       <c r="V42">
-        <v>8.796533563893027</v>
+        <v>36.96350071144715</v>
       </c>
       <c r="W42">
-        <v>0.8865762943633548</v>
+        <v>-999.999</v>
       </c>
       <c r="X42">
-        <v>0.0001723196642573456</v>
+        <v>0</v>
       </c>
       <c r="Y42">
         <v>0</v>
       </c>
       <c r="Z42">
-        <v>-0.4126582866625235</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26">
+        <v>-4.049673722596282</v>
+      </c>
+      <c r="AA42">
+        <v>1.332769170387659E-06</v>
+      </c>
+      <c r="AB42">
+        <v>1.193473169778027</v>
+      </c>
+      <c r="AC42">
+        <v>3.759439031292013E-07</v>
+      </c>
+      <c r="AD42">
+        <v>0.003411831881210702</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5.009561802591338E-06</v>
+        <v>5.245105765506174E-06</v>
       </c>
       <c r="C43">
-        <v>0.05984089779025765</v>
+        <v>0.0502822281709692</v>
       </c>
       <c r="D43">
-        <v>0.004651754757176943</v>
+        <v>0.003412258336750192</v>
       </c>
       <c r="E43">
-        <v>0.06496038039531399</v>
+        <v>0.05484230395595979</v>
       </c>
       <c r="F43">
-        <v>6.69931067663642</v>
+        <v>6.699311246292429</v>
       </c>
       <c r="K43">
-        <v>6.676197798296034</v>
+        <v>4.633861479529473</v>
       </c>
       <c r="L43">
-        <v>5.419004798430369</v>
+        <v>4.244706582653452</v>
       </c>
       <c r="M43">
-        <v>6.709436707945788</v>
+        <v>4.654247357187402</v>
       </c>
       <c r="N43">
-        <v>0.009413733436453771</v>
+        <v>0.0001674040182278257</v>
       </c>
       <c r="O43">
-        <v>0.0004262508567042382</v>
+        <v>1.080684687933908E-05</v>
       </c>
       <c r="P43">
-        <v>0.01228361376528723</v>
+        <v>0.008840133240033039</v>
       </c>
       <c r="Q43">
-        <v>0.003896897007261734</v>
+        <v>0.008657921557133351</v>
       </c>
       <c r="R43">
-        <v>0.001458228268604858</v>
+        <v>0</v>
       </c>
       <c r="S43">
-        <v>3.793134914519803E-05</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>0.0039862309460852</v>
+        <v>0.01652991013604457</v>
       </c>
       <c r="U43">
-        <v>0.000828712659694571</v>
+        <v>0.003469558982637158</v>
       </c>
       <c r="V43">
-        <v>8.86354688558559</v>
+        <v>37.24084571607293</v>
       </c>
       <c r="W43">
-        <v>0.9296197225317826</v>
+        <v>-999.999</v>
       </c>
       <c r="X43">
-        <v>0.0001825374014294244</v>
+        <v>0</v>
       </c>
       <c r="Y43">
         <v>0</v>
       </c>
       <c r="Z43">
-        <v>-0.3963274567068567</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26">
+        <v>-4.034374288420562</v>
+      </c>
+      <c r="AA43">
+        <v>1.33250375714635E-06</v>
+      </c>
+      <c r="AB43">
+        <v>1.212798939272695</v>
+      </c>
+      <c r="AC43">
+        <v>3.853860125557774E-07</v>
+      </c>
+      <c r="AD43">
+        <v>0.003469173596624603</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>4.987987148099148E-06</v>
+        <v>5.225997615229913E-06</v>
       </c>
       <c r="C44">
-        <v>0.06079243473910386</v>
+        <v>0.05109033109914538</v>
       </c>
       <c r="D44">
-        <v>0.004748725278221394</v>
+        <v>0.003482337729949084</v>
       </c>
       <c r="E44">
-        <v>0.06604939985798813</v>
+        <v>0.05577742012115329</v>
       </c>
       <c r="F44">
-        <v>6.699290821052834</v>
+        <v>6.699291417239852</v>
       </c>
       <c r="K44">
-        <v>6.681612908464365</v>
+        <v>4.63871045399854</v>
       </c>
       <c r="L44">
-        <v>5.426816183046417</v>
+        <v>4.2452822282496</v>
       </c>
       <c r="M44">
-        <v>6.715225339521544</v>
+        <v>4.659536656871547</v>
       </c>
       <c r="N44">
-        <v>0.009568690032656348</v>
+        <v>0.000170103969457972</v>
       </c>
       <c r="O44">
-        <v>0.0004351669956440249</v>
+        <v>1.099462614689624E-05</v>
       </c>
       <c r="P44">
-        <v>0.01242821233008077</v>
+        <v>0.008843274820772688</v>
       </c>
       <c r="Q44">
-        <v>0.003911877160458448</v>
+        <v>0.008658839744122836</v>
       </c>
       <c r="R44">
-        <v>0.001482716146526576</v>
+        <v>0</v>
       </c>
       <c r="S44">
-        <v>3.84349384339992E-05</v>
+        <v>0</v>
       </c>
       <c r="T44">
-        <v>0.004040670916540211</v>
+        <v>0.01675508860420676</v>
       </c>
       <c r="U44">
-        <v>0.000843231221878828</v>
+        <v>0.003529025280678216</v>
       </c>
       <c r="V44">
-        <v>8.932173996379978</v>
+        <v>37.52466728564291</v>
       </c>
       <c r="W44">
-        <v>0.9732266961015483</v>
+        <v>-999.999</v>
       </c>
       <c r="X44">
-        <v>0.0001930982963135369</v>
+        <v>0</v>
       </c>
       <c r="Y44">
         <v>0</v>
       </c>
       <c r="Z44">
-        <v>-0.3797541762312591</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26">
+        <v>-4.01876333802943</v>
+      </c>
+      <c r="AA44">
+        <v>1.332232214576082E-06</v>
+      </c>
+      <c r="AB44">
+        <v>1.232766715117069</v>
+      </c>
+      <c r="AC44">
+        <v>3.952562091658698E-07</v>
+      </c>
+      <c r="AD44">
+        <v>0.003528630024469051</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>4.965701244874068E-06</v>
+        <v>5.206244766932997E-06</v>
       </c>
       <c r="C45">
-        <v>0.06177565771210181</v>
+        <v>0.05192555905299093</v>
       </c>
       <c r="D45">
-        <v>0.00484981609909359</v>
+        <v>0.003555352111808147</v>
       </c>
       <c r="E45">
-        <v>0.06717574218780824</v>
+        <v>0.0567451030506166</v>
       </c>
       <c r="F45">
-        <v>6.699270752275423</v>
+        <v>6.699271376108558</v>
       </c>
       <c r="K45">
-        <v>6.687102183944285</v>
+        <v>4.643672455153172</v>
       </c>
       <c r="L45">
-        <v>5.434786440215622</v>
+        <v>4.245883592206466</v>
       </c>
       <c r="M45">
-        <v>6.72109741164935</v>
+        <v>4.664951964253894</v>
       </c>
       <c r="N45">
-        <v>0.009728927278919721</v>
+        <v>0.0001728953614458856</v>
       </c>
       <c r="O45">
-        <v>0.0004444636098365809</v>
+        <v>1.119074519397857E-05</v>
       </c>
       <c r="P45">
-        <v>0.01257762171902151</v>
+        <v>0.008846510523871807</v>
       </c>
       <c r="Q45">
-        <v>0.003927452697832998</v>
+        <v>0.008659773178544085</v>
       </c>
       <c r="R45">
-        <v>0.001508054413335218</v>
+        <v>0</v>
       </c>
       <c r="S45">
-        <v>3.895435209970258E-05</v>
+        <v>0</v>
       </c>
       <c r="T45">
-        <v>0.004096766349779884</v>
+        <v>0.01698712480286516</v>
       </c>
       <c r="U45">
-        <v>0.0008583139318532673</v>
+        <v>0.003590727854548311</v>
       </c>
       <c r="V45">
-        <v>9.002484507807615</v>
+        <v>37.81523593756186</v>
       </c>
       <c r="W45">
-        <v>1.017417036063797</v>
+        <v>-999.999</v>
       </c>
       <c r="X45">
-        <v>0.0002040207142721615</v>
+        <v>0</v>
       </c>
       <c r="Y45">
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>-0.3629295001057571</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26">
+        <v>-4.002830361529121</v>
+      </c>
+      <c r="AA45">
+        <v>1.331954342511422E-06</v>
+      </c>
+      <c r="AB45">
+        <v>1.253408649193942</v>
+      </c>
+      <c r="AC45">
+        <v>4.055831430456594E-07</v>
+      </c>
+      <c r="AD45">
+        <v>0.003590322271405265</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>4.942668884201707E-06</v>
+        <v>5.185814422230208E-06</v>
       </c>
       <c r="C46">
-        <v>0.06279219059804839</v>
+        <v>0.0527893127483692</v>
       </c>
       <c r="D46">
-        <v>0.00495529198523483</v>
+        <v>0.003631487638608152</v>
       </c>
       <c r="E46">
-        <v>0.06834133625944366</v>
+        <v>0.05774706513988653</v>
       </c>
       <c r="F46">
-        <v>6.699250462732361</v>
+        <v>6.699251115392802</v>
       </c>
       <c r="K46">
-        <v>6.692667559731587</v>
+        <v>4.648751440365819</v>
       </c>
       <c r="L46">
-        <v>5.442922132142292</v>
+        <v>4.24651261810471</v>
       </c>
       <c r="M46">
-        <v>6.727055493373808</v>
+        <v>4.670500761984944</v>
       </c>
       <c r="N46">
-        <v>0.009894721273010491</v>
+        <v>0.0001757829438789554</v>
       </c>
       <c r="O46">
-        <v>0.0004541648266936017</v>
+        <v>1.139582275948277E-05</v>
       </c>
       <c r="P46">
-        <v>0.01273208902297131</v>
+        <v>0.008849845119324087</v>
       </c>
       <c r="Q46">
-        <v>0.003943653758772201</v>
+        <v>0.008660719293282156</v>
       </c>
       <c r="R46">
-        <v>0.001534288343000137</v>
+        <v>0</v>
       </c>
       <c r="S46">
-        <v>3.949043200136535E-05</v>
+        <v>0</v>
       </c>
       <c r="T46">
-        <v>0.004154595857242859</v>
+        <v>0.01722634617694225</v>
       </c>
       <c r="U46">
-        <v>0.0008739948350754579</v>
+        <v>0.003654797338729665</v>
       </c>
       <c r="V46">
-        <v>9.074552443950608</v>
+        <v>38.11283881701473</v>
       </c>
       <c r="W46">
-        <v>1.062208683308661</v>
+        <v>-999.999</v>
       </c>
       <c r="X46">
-        <v>0.0002153240236836392</v>
+        <v>0</v>
       </c>
       <c r="Y46">
         <v>0</v>
       </c>
       <c r="Z46">
-        <v>-0.3458451707059922</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26">
+        <v>-3.986564144815656</v>
+      </c>
+      <c r="AA46">
+        <v>1.331669919339514E-06</v>
+      </c>
+      <c r="AB46">
+        <v>1.274759041932798</v>
+      </c>
+      <c r="AC46">
+        <v>4.163995324843718E-07</v>
+      </c>
+      <c r="AD46">
+        <v>0.00365438093919718</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4.918852538774596E-06</v>
+        <v>5.164671542283776E-06</v>
       </c>
       <c r="C47">
-        <v>0.06384377057282681</v>
+        <v>0.0536830913867285</v>
       </c>
       <c r="D47">
-        <v>0.005065440584431778</v>
+        <v>0.003710946372697373</v>
       </c>
       <c r="E47">
-        <v>0.06954824410085031</v>
+        <v>0.0587851392635345</v>
       </c>
       <c r="F47">
-        <v>6.699229944426719</v>
+        <v>6.699230627167643</v>
       </c>
       <c r="K47">
-        <v>6.698312168308061</v>
+        <v>4.653951993137425</v>
       </c>
       <c r="L47">
-        <v>5.451231916703621</v>
+        <v>4.247170392421648</v>
       </c>
       <c r="M47">
-        <v>6.733104069339591</v>
+        <v>4.676180320032618</v>
       </c>
       <c r="N47">
-        <v>0.01006636775385262</v>
+        <v>0.0001787718006265822</v>
       </c>
       <c r="O47">
-        <v>0.0004642980606049114</v>
+        <v>1.161026099801411E-05</v>
       </c>
       <c r="P47">
-        <v>0.01289187875504766</v>
+        <v>0.008853283770706669</v>
       </c>
       <c r="Q47">
-        <v>0.003960508651242447</v>
+        <v>0.008661683807214561</v>
       </c>
       <c r="R47">
-        <v>0.001561466486836479</v>
+        <v>0</v>
       </c>
       <c r="S47">
-        <v>4.004400703009307E-05</v>
+        <v>0</v>
       </c>
       <c r="T47">
-        <v>0.004214243148554994</v>
+        <v>0.01747310161036429</v>
       </c>
       <c r="U47">
-        <v>0.0008903107329111058</v>
+        <v>0.00372137484054523</v>
       </c>
       <c r="V47">
-        <v>9.148456601230322</v>
+        <v>38.41778107949005</v>
       </c>
       <c r="W47">
-        <v>1.1076218478984</v>
+        <v>-999.999</v>
       </c>
       <c r="X47">
-        <v>0.0002270290210652933</v>
+        <v>0</v>
       </c>
       <c r="Y47">
         <v>0</v>
       </c>
       <c r="Z47">
-        <v>-0.3284918283573894</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26">
+        <v>-3.969952259317079</v>
+      </c>
+      <c r="AA47">
+        <v>1.331378688384304E-06</v>
+      </c>
+      <c r="AB47">
+        <v>1.296854536908285</v>
+      </c>
+      <c r="AC47">
+        <v>4.277300698848802E-07</v>
+      </c>
+      <c r="AD47">
+        <v>0.003720947110475345</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5.729878654338334E-06</v>
+        <v>5.939123732332486E-06</v>
       </c>
       <c r="C48">
-        <v>0.0649322581652045</v>
+        <v>0.05460850147958093</v>
       </c>
       <c r="D48">
-        <v>0.004331921049383704</v>
+        <v>0.003199787714455389</v>
       </c>
       <c r="E48">
-        <v>0.06856945198401775</v>
+        <v>0.05780879677580001</v>
       </c>
       <c r="F48">
-        <v>7.549229944426719</v>
+        <v>7.498230627167644</v>
       </c>
       <c r="K48">
-        <v>6.704037069901656</v>
+        <v>4.659278312547134</v>
       </c>
       <c r="L48">
-        <v>5.385126471774627</v>
+        <v>4.242476837328343</v>
       </c>
       <c r="M48">
-        <v>6.726297874721012</v>
+        <v>4.673251956205176</v>
       </c>
       <c r="N48">
-        <v>0.01024418385928313</v>
+        <v>0.0001818673846937779</v>
       </c>
       <c r="O48">
-        <v>0.0003961432354079295</v>
+        <v>1.013604990147755E-05</v>
       </c>
       <c r="P48">
-        <v>0.01305727449771072</v>
+        <v>0.008856831918178744</v>
       </c>
       <c r="Q48">
-        <v>0.003896315059780324</v>
+        <v>0.008660297194789935</v>
       </c>
       <c r="R48">
-        <v>0.001589640977203264</v>
+        <v>0</v>
       </c>
       <c r="S48">
-        <v>3.498042720866258E-05</v>
+        <v>0</v>
       </c>
       <c r="T48">
-        <v>0.004275797452548399</v>
+        <v>0.01772776321721279</v>
       </c>
       <c r="U48">
-        <v>0.0007805523594438094</v>
+        <v>0.003333098900767835</v>
       </c>
       <c r="V48">
-        <v>9.186496229037491</v>
+        <v>38.59399953947235</v>
       </c>
       <c r="W48">
-        <v>1.153672018558744</v>
+        <v>-999.999</v>
       </c>
       <c r="X48">
-        <v>0.0002391655075528339</v>
+        <v>0</v>
       </c>
       <c r="Y48">
         <v>0</v>
       </c>
       <c r="Z48">
-        <v>-0.3108622416259728</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26">
+        <v>-3.952982426531808</v>
+      </c>
+      <c r="AA48">
+        <v>1.331080414497361E-06</v>
+      </c>
+      <c r="AB48">
+        <v>1.285758103802483</v>
+      </c>
+      <c r="AC48">
+        <v>4.219125004774174E-07</v>
+      </c>
+      <c r="AD48">
+        <v>0.003332676988267358</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5.704821587500798E-06</v>
+        <v>5.917141655876594E-06</v>
       </c>
       <c r="C49">
-        <v>0.06607566075229546</v>
+        <v>0.05557847721099839</v>
       </c>
       <c r="D49">
-        <v>0.004429170994600378</v>
+        <v>0.003270376511283182</v>
       </c>
       <c r="E49">
-        <v>0.06982158896750053</v>
+        <v>0.05887750606678344</v>
       </c>
       <c r="F49">
-        <v>7.549229944426719</v>
+        <v>7.498230627167644</v>
       </c>
       <c r="K49">
-        <v>6.709883061941762</v>
+        <v>4.664788375885447</v>
       </c>
       <c r="L49">
-        <v>5.393323083101603</v>
+        <v>4.243078270734616</v>
       </c>
       <c r="M49">
-        <v>6.732121888227064</v>
+        <v>4.679225561685875</v>
       </c>
       <c r="N49">
-        <v>0.01042999594652606</v>
+        <v>0.0001851075985577836</v>
       </c>
       <c r="O49">
-        <v>0.0004053184581260632</v>
+        <v>1.033169836335154E-05</v>
       </c>
       <c r="P49">
-        <v>0.01323012278899242</v>
+        <v>0.008860540120506835</v>
       </c>
       <c r="Q49">
-        <v>0.003915758881826315</v>
+        <v>0.008661273957763917</v>
       </c>
       <c r="R49">
-        <v>0.00161897419512769</v>
+        <v>0</v>
       </c>
       <c r="S49">
-        <v>3.564754971378842E-05</v>
+        <v>0</v>
       </c>
       <c r="T49">
-        <v>0.004341745473173014</v>
+        <v>0.01799936065714572</v>
       </c>
       <c r="U49">
-        <v>0.0007955361064303871</v>
+        <v>0.003395561938892423</v>
       </c>
       <c r="V49">
-        <v>9.227324565665798</v>
+        <v>38.78110826418796</v>
       </c>
       <c r="W49">
-        <v>1.200455076808161</v>
+        <v>-999.999</v>
       </c>
       <c r="X49">
-        <v>0.0002517643064975688</v>
+        <v>0</v>
       </c>
       <c r="Y49">
         <v>0</v>
       </c>
       <c r="Z49">
-        <v>-0.2928776113882048</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26">
+        <v>-3.935561184906827</v>
+      </c>
+      <c r="AA49">
+        <v>1.330771850950415E-06</v>
+      </c>
+      <c r="AB49">
+        <v>1.308751907627912</v>
+      </c>
+      <c r="AC49">
+        <v>4.339990345362454E-07</v>
+      </c>
+      <c r="AD49">
+        <v>0.003395127939857887</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5.678852645924553E-06</v>
+        <v>5.894346371806207E-06</v>
       </c>
       <c r="C50">
-        <v>0.06726117017071266</v>
+        <v>0.05658440222445445</v>
       </c>
       <c r="D50">
-        <v>0.004530905801399311</v>
+        <v>0.003344164475255854</v>
       </c>
       <c r="E50">
-        <v>0.07112082919350951</v>
+        <v>0.05998687637596722</v>
       </c>
       <c r="F50">
-        <v>7.549229944426719</v>
+        <v>7.498230627167644</v>
       </c>
       <c r="K50">
-        <v>6.715819734647211</v>
+        <v>4.670435914683514</v>
       </c>
       <c r="L50">
-        <v>5.401727625206452</v>
+        <v>4.243698157140555</v>
       </c>
       <c r="M50">
-        <v>6.738342227148283</v>
+        <v>4.685212957328458</v>
       </c>
       <c r="N50">
-        <v>0.01062277820591837</v>
+        <v>0.0001884686735615226</v>
       </c>
       <c r="O50">
-        <v>0.0004146085541547049</v>
+        <v>1.053342106558404E-05</v>
       </c>
       <c r="P50">
-        <v>0.01340924517182254</v>
+        <v>0.008864372162098044</v>
       </c>
       <c r="Q50">
-        <v>0.003932850066172404</v>
+        <v>0.008662255459146848</v>
       </c>
       <c r="R50">
-        <v>0.001649422784462573</v>
+        <v>0</v>
       </c>
       <c r="S50">
-        <v>3.616034093323406E-05</v>
+        <v>0</v>
       </c>
       <c r="T50">
-        <v>0.004409941807148834</v>
+        <v>0.01828020294018905</v>
       </c>
       <c r="U50">
-        <v>0.0008111650376115756</v>
+        <v>0.003460593604727936</v>
       </c>
       <c r="V50">
-        <v>9.270955357019064</v>
+        <v>38.97917497299726</v>
       </c>
       <c r="W50">
-        <v>1.247929203963025</v>
+        <v>-999.999</v>
       </c>
       <c r="X50">
-        <v>0.0002648387653852343</v>
+        <v>0</v>
       </c>
       <c r="Y50">
         <v>0</v>
       </c>
       <c r="Z50">
-        <v>-0.2745911062972475</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26">
+        <v>-3.917751403899707</v>
+      </c>
+      <c r="AA50">
+        <v>1.330455588777723E-06</v>
+      </c>
+      <c r="AB50">
+        <v>1.332596347037276</v>
+      </c>
+      <c r="AC50">
+        <v>4.465624759994926E-07</v>
+      </c>
+      <c r="AD50">
+        <v>0.003460147042251937</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5.651921470978951E-06</v>
+        <v>5.870692076239366E-06</v>
       </c>
       <c r="C51">
-        <v>0.0684911753544247</v>
+        <v>0.05762832845483089</v>
       </c>
       <c r="D51">
-        <v>0.004637440544681051</v>
+        <v>0.003421372706685067</v>
       </c>
       <c r="E51">
-        <v>0.07246986752416125</v>
+        <v>0.0611392624739197</v>
       </c>
       <c r="F51">
-        <v>7.549229944426719</v>
+        <v>7.498230627167644</v>
       </c>
       <c r="K51">
-        <v>6.721847967912777</v>
+        <v>4.676226171802778</v>
       </c>
       <c r="L51">
-        <v>5.410330570655499</v>
+        <v>4.24434849771625</v>
       </c>
       <c r="M51">
-        <v>6.744666317327161</v>
+        <v>4.691353743846874</v>
       </c>
       <c r="N51">
-        <v>0.01082293839516864</v>
+        <v>0.0001919576000810509</v>
       </c>
       <c r="O51">
-        <v>0.000424341924373539</v>
+        <v>1.074500366346771E-05</v>
       </c>
       <c r="P51">
-        <v>0.01359505684056078</v>
+        <v>0.008868335234704931</v>
       </c>
       <c r="Q51">
-        <v>0.003950654675044645</v>
+        <v>0.008663254160048884</v>
       </c>
       <c r="R51">
-        <v>0.001681055381394521</v>
+        <v>0</v>
       </c>
       <c r="S51">
-        <v>3.669074950106701E-05</v>
+        <v>0</v>
       </c>
       <c r="T51">
-        <v>0.004480506057531917</v>
+        <v>0.01857078351539417</v>
       </c>
       <c r="U51">
-        <v>0.0008274753724315464</v>
+        <v>0.003528358903015884</v>
       </c>
       <c r="V51">
-        <v>9.31741139874145</v>
+        <v>39.18830820534042</v>
       </c>
       <c r="W51">
-        <v>1.296111691312689</v>
+        <v>-999.999</v>
       </c>
       <c r="X51">
-        <v>0.0002784159018080182</v>
+        <v>0</v>
       </c>
       <c r="Y51">
         <v>0</v>
       </c>
       <c r="Z51">
-        <v>-0.2559930339318459</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26">
+        <v>-3.899538747499427</v>
+      </c>
+      <c r="AA51">
+        <v>1.330131334379044E-06</v>
+      </c>
+      <c r="AB51">
+        <v>1.35733933402986</v>
+      </c>
+      <c r="AC51">
+        <v>4.597760515697688E-07</v>
+      </c>
+      <c r="AD51">
+        <v>0.003527899126964314</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5.623973964462808E-06</v>
+        <v>5.846129519233645E-06</v>
       </c>
       <c r="C52">
-        <v>0.06976825005061957</v>
+        <v>0.05871246756979381</v>
       </c>
       <c r="D52">
-        <v>0.004749120260192632</v>
+        <v>0.003502242989723093</v>
       </c>
       <c r="E52">
-        <v>0.07387160653717555</v>
+        <v>0.06233720312118649</v>
       </c>
       <c r="F52">
-        <v>7.549229944426719</v>
+        <v>7.498230627167644</v>
       </c>
       <c r="K52">
-        <v>6.7279696680558</v>
+        <v>4.682164950058532</v>
       </c>
       <c r="L52">
-        <v>5.419134272064291</v>
+        <v>4.245031378600194</v>
       </c>
       <c r="M52">
-        <v>6.751094576844408</v>
+        <v>4.697652580448784</v>
       </c>
       <c r="N52">
-        <v>0.01103091032458454</v>
+        <v>0.0001955818520094025</v>
       </c>
       <c r="O52">
-        <v>0.0004345459238201459</v>
+        <v>1.096712422092784E-05</v>
       </c>
       <c r="P52">
-        <v>0.0137879448838711</v>
+        <v>0.008872436856198051</v>
       </c>
       <c r="Q52">
-        <v>0.003969232523083028</v>
+        <v>0.008664270914674548</v>
       </c>
       <c r="R52">
-        <v>0.00171394267403239</v>
+        <v>0</v>
       </c>
       <c r="S52">
-        <v>3.724000711824485E-05</v>
+        <v>0</v>
       </c>
       <c r="T52">
-        <v>0.004553566671233925</v>
+        <v>0.01887163200764174</v>
       </c>
       <c r="U52">
-        <v>0.0008445134512390433</v>
+        <v>0.003599037265114614</v>
       </c>
       <c r="V52">
-        <v>9.366726429458485</v>
+        <v>39.40865728212827</v>
       </c>
       <c r="W52">
-        <v>1.345024074563749</v>
+        <v>-999.999</v>
       </c>
       <c r="X52">
-        <v>0.0002925253106701851</v>
+        <v>0</v>
       </c>
       <c r="Y52">
         <v>0</v>
       </c>
       <c r="Z52">
-        <v>-0.2370732803866389</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26">
+        <v>-3.880907006336844</v>
+      </c>
+      <c r="AA52">
+        <v>1.329798762796722E-06</v>
+      </c>
+      <c r="AB52">
+        <v>1.383032385292764</v>
+      </c>
+      <c r="AC52">
+        <v>4.736853811726337E-07</v>
+      </c>
+      <c r="AD52">
+        <v>0.003598563579733441</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5.594253538500698E-06</v>
+        <v>5.819896713124223E-06</v>
       </c>
       <c r="C53">
-        <v>0.07109517106675073</v>
+        <v>0.05983920684693811</v>
       </c>
       <c r="D53">
-        <v>0.004866854428406903</v>
+        <v>0.003587424547984463</v>
       </c>
       <c r="E53">
-        <v>0.07532859771899465</v>
+        <v>0.06358294275314517</v>
       </c>
       <c r="F53">
-        <v>7.548466576556363</v>
+        <v>7.497468019156871</v>
       </c>
       <c r="K53">
-        <v>6.734185943045122</v>
+        <v>4.688257888552724</v>
       </c>
       <c r="L53">
-        <v>5.428184611018836</v>
+        <v>4.245753249121608</v>
       </c>
       <c r="M53">
-        <v>6.757619250282824</v>
+        <v>4.704117182862496</v>
       </c>
       <c r="N53">
-        <v>0.01124716265929401</v>
+        <v>0.0001993494995152898</v>
       </c>
       <c r="O53">
-        <v>0.0004453016545686238</v>
+        <v>1.120183232462339E-05</v>
       </c>
       <c r="P53">
-        <v>0.01398832676878515</v>
+        <v>0.008876685140718939</v>
       </c>
       <c r="Q53">
-        <v>0.003988734107299978</v>
+        <v>0.008665307048767296</v>
       </c>
       <c r="R53">
-        <v>0.001748161095806148</v>
+        <v>0</v>
       </c>
       <c r="S53">
-        <v>3.781412081664609E-05</v>
+        <v>0</v>
       </c>
       <c r="T53">
-        <v>0.004629261634907289</v>
+        <v>0.01918331761463209</v>
       </c>
       <c r="U53">
-        <v>0.0008624147359163223</v>
+        <v>0.003673139615823416</v>
       </c>
       <c r="V53">
-        <v>9.418968091678968</v>
+        <v>39.64049770280469</v>
       </c>
       <c r="W53">
-        <v>1.394684580470255</v>
+        <v>-999.999</v>
       </c>
       <c r="X53">
-        <v>0.0003071980709579582</v>
+        <v>0</v>
       </c>
       <c r="Y53">
         <v>0</v>
       </c>
       <c r="Z53">
-        <v>-0.2178214217222134</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26">
+        <v>-3.861839817736698</v>
+      </c>
+      <c r="AA53">
+        <v>1.329457558241048E-06</v>
+      </c>
+      <c r="AB53">
+        <v>1.40970995104125</v>
+      </c>
+      <c r="AC53">
+        <v>4.883415541702835E-07</v>
+      </c>
+      <c r="AD53">
+        <v>0.003672651274269246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5.564078121244694E-06</v>
+        <v>5.793337538513777E-06</v>
       </c>
       <c r="C54">
-        <v>0.0724749276633829</v>
+        <v>0.06101111897816631</v>
       </c>
       <c r="D54">
-        <v>0.004990025282453009</v>
+        <v>0.003676459441287837</v>
       </c>
       <c r="E54">
-        <v>0.07684533195573111</v>
+        <v>0.06488039763104707</v>
       </c>
       <c r="F54">
-        <v>7.548447556124953</v>
+        <v>7.497449033917925</v>
       </c>
       <c r="K54">
-        <v>6.74050365903</v>
+        <v>4.694511330230532</v>
       </c>
       <c r="L54">
-        <v>5.437413419565927</v>
+        <v>4.246508974650672</v>
       </c>
       <c r="M54">
-        <v>6.764261016713601</v>
+        <v>4.710753959379108</v>
       </c>
       <c r="N54">
-        <v>0.01147220143022579</v>
+        <v>0.000203269242581762</v>
       </c>
       <c r="O54">
-        <v>0.0004565555661713267</v>
+        <v>1.144756691263529E-05</v>
       </c>
       <c r="P54">
-        <v>0.01419665161589942</v>
+        <v>0.008881088850967932</v>
       </c>
       <c r="Q54">
-        <v>0.004009055262619748</v>
+        <v>0.008666361835899082</v>
       </c>
       <c r="R54">
-        <v>0.001783793324451763</v>
+        <v>0</v>
       </c>
       <c r="S54">
-        <v>3.840500019398432E-05</v>
+        <v>0</v>
       </c>
       <c r="T54">
-        <v>0.004707737611969602</v>
+        <v>0.0195064463229406</v>
       </c>
       <c r="U54">
-        <v>0.0008810688681759651</v>
+        <v>0.00375026297895776</v>
       </c>
       <c r="V54">
-        <v>9.47416974866641</v>
+        <v>39.88397764422681</v>
       </c>
       <c r="W54">
-        <v>1.445131749391813</v>
+        <v>-999.999</v>
       </c>
       <c r="X54">
-        <v>0.0003224713137974586</v>
+        <v>0</v>
       </c>
       <c r="Y54">
         <v>0</v>
       </c>
       <c r="Z54">
-        <v>-0.1982210948299201</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26">
+        <v>-3.842319707283465</v>
+      </c>
+      <c r="AA54">
+        <v>1.32910736550709E-06</v>
+      </c>
+      <c r="AB54">
+        <v>1.437472529192064</v>
+      </c>
+      <c r="AC54">
+        <v>5.038043274375036E-07</v>
+      </c>
+      <c r="AD54">
+        <v>0.003749759174630322</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5.532697993318556E-06</v>
+        <v>5.765697910251479E-06</v>
       </c>
       <c r="C55">
-        <v>0.07391077665021119</v>
+        <v>0.06223100535129139</v>
       </c>
       <c r="D55">
-        <v>0.005119596523556903</v>
+        <v>0.003770033558904095</v>
       </c>
       <c r="E55">
-        <v>0.07842493144199356</v>
+        <v>0.06623231692715492</v>
       </c>
       <c r="F55">
-        <v>7.548428270018578</v>
+        <v>7.497429784780734</v>
       </c>
       <c r="K55">
-        <v>6.746924091588911</v>
+        <v>4.700932153108003</v>
       </c>
       <c r="L55">
-        <v>5.446868766087804</v>
+        <v>4.247305137670954</v>
       </c>
       <c r="M55">
-        <v>6.771014259190284</v>
+        <v>4.717570056640255</v>
       </c>
       <c r="N55">
-        <v>0.01170657687414185</v>
+        <v>0.0002073505548300413</v>
       </c>
       <c r="O55">
-        <v>0.0004683943258482471</v>
+        <v>1.170645334479203E-05</v>
       </c>
       <c r="P55">
-        <v>0.01441340898511814</v>
+        <v>0.008885657510863015</v>
       </c>
       <c r="Q55">
-        <v>0.004030343177174856</v>
+        <v>0.00866743770311648</v>
       </c>
       <c r="R55">
-        <v>0.001820929246244481</v>
+        <v>0</v>
       </c>
       <c r="S55">
-        <v>3.901887222343833E-05</v>
+        <v>0</v>
       </c>
       <c r="T55">
-        <v>0.004789156095880104</v>
+        <v>0.0198416842664296</v>
       </c>
       <c r="U55">
-        <v>0.0009006178804091118</v>
+        <v>0.003830943075247123</v>
       </c>
       <c r="V55">
-        <v>9.532399144476516</v>
+        <v>40.13937330687608</v>
       </c>
       <c r="W55">
-        <v>1.496387184248938</v>
+        <v>-999.999</v>
       </c>
       <c r="X55">
-        <v>0.0003383819567186984</v>
+        <v>0</v>
       </c>
       <c r="Y55">
         <v>0</v>
       </c>
       <c r="Z55">
-        <v>-0.1782607811302022</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26">
+        <v>-3.82232713924363</v>
+      </c>
+      <c r="AA55">
+        <v>1.328747799425952E-06</v>
+      </c>
+      <c r="AB55">
+        <v>1.466365025102204</v>
+      </c>
+      <c r="AC55">
+        <v>5.201345536945658E-07</v>
+      </c>
+      <c r="AD55">
+        <v>0.003830422940693429</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5.50004031626747E-06</v>
+        <v>5.73691098227349E-06</v>
       </c>
       <c r="C56">
-        <v>0.07540623708774716</v>
+        <v>0.06350189604243024</v>
       </c>
       <c r="D56">
-        <v>0.005256075079163407</v>
+        <v>0.00386850008035505</v>
       </c>
       <c r="E56">
-        <v>0.08007135675806472</v>
+        <v>0.06764217995367335</v>
       </c>
       <c r="F56">
-        <v>7.548408706550993</v>
+        <v>7.49741026018726</v>
       </c>
       <c r="K56">
-        <v>6.753451069382377</v>
+        <v>4.707526987399431</v>
       </c>
       <c r="L56">
-        <v>5.456563983576151</v>
+        <v>4.248145370897765</v>
       </c>
       <c r="M56">
-        <v>6.777885074238901</v>
+        <v>4.724576983336379</v>
       </c>
       <c r="N56">
-        <v>0.0119508851904091</v>
+        <v>0.000211603687471025</v>
       </c>
       <c r="O56">
-        <v>0.0004808649152079545</v>
+        <v>1.197964137410914E-05</v>
       </c>
       <c r="P56">
-        <v>0.01463912780702995</v>
+        <v>0.00889040141972707</v>
       </c>
       <c r="Q56">
-        <v>0.004052654844704099</v>
+        <v>0.008668533855100349</v>
       </c>
       <c r="R56">
-        <v>0.001859666428288417</v>
+        <v>0</v>
       </c>
       <c r="S56">
-        <v>3.965715323223467E-05</v>
+        <v>0</v>
       </c>
       <c r="T56">
-        <v>0.004873689535346865</v>
+        <v>0.02018974385754226</v>
       </c>
       <c r="U56">
-        <v>0.0009211287721439028</v>
+        <v>0.003915436276567569</v>
       </c>
       <c r="V56">
-        <v>9.593736164149821</v>
+        <v>40.4070061134963</v>
       </c>
       <c r="W56">
-        <v>1.548481063018613</v>
+        <v>-999.999</v>
       </c>
       <c r="X56">
-        <v>0.0003549712405616476</v>
+        <v>0</v>
       </c>
       <c r="Y56">
         <v>0</v>
       </c>
       <c r="Z56">
-        <v>-0.1579261502400833</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26">
+        <v>-3.801843569030474</v>
+      </c>
+      <c r="AA56">
+        <v>1.328378488705632E-06</v>
+      </c>
+      <c r="AB56">
+        <v>1.496457349859208</v>
+      </c>
+      <c r="AC56">
+        <v>5.374049471753927E-07</v>
+      </c>
+      <c r="AD56">
+        <v>0.003914898871620393</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5.466026396588327E-06</v>
+        <v>5.706904399143423E-06</v>
       </c>
       <c r="C57">
-        <v>0.07696512957682679</v>
+        <v>0.06482708261936525</v>
       </c>
       <c r="D57">
-        <v>0.005400022240568481</v>
+        <v>0.003972249425835335</v>
       </c>
       <c r="E57">
-        <v>0.08178890451052542</v>
+        <v>0.06911376587064744</v>
       </c>
       <c r="F57">
-        <v>7.548388853228316</v>
+        <v>7.497390447784517</v>
       </c>
       <c r="K57">
-        <v>6.760087824817254</v>
+        <v>4.714303402049931</v>
       </c>
       <c r="L57">
-        <v>5.466510545913065</v>
+        <v>4.249032251109468</v>
       </c>
       <c r="M57">
-        <v>6.784876986492278</v>
+        <v>4.731773506056529</v>
       </c>
       <c r="N57">
-        <v>0.01220577452985801</v>
+        <v>0.0002160397773842898</v>
       </c>
       <c r="O57">
-        <v>0.000494018375775355</v>
+        <v>1.226803706479811E-05</v>
       </c>
       <c r="P57">
-        <v>0.0148743827617483</v>
+        <v>0.008895331810052108</v>
       </c>
       <c r="Q57">
-        <v>0.004076067904432876</v>
+        <v>0.008669654475950498</v>
       </c>
       <c r="R57">
-        <v>0.001900111078845221</v>
+        <v>0</v>
       </c>
       <c r="S57">
-        <v>4.032157851880289E-05</v>
+        <v>0</v>
       </c>
       <c r="T57">
-        <v>0.004961524218973598</v>
+        <v>0.02055139513711948</v>
       </c>
       <c r="U57">
-        <v>0.0009426753866657724</v>
+        <v>0.004004024355651002</v>
       </c>
       <c r="V57">
-        <v>9.658273461978824</v>
+        <v>40.68724502659505</v>
       </c>
       <c r="W57">
-        <v>1.601445065595833</v>
+        <v>-999.999</v>
       </c>
       <c r="X57">
-        <v>0.0003722843434550387</v>
+        <v>0</v>
       </c>
       <c r="Y57">
         <v>0</v>
       </c>
       <c r="Z57">
-        <v>-0.1372022934520736</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26">
+        <v>-3.780847214415385</v>
+      </c>
+      <c r="AA57">
+        <v>1.327999009485204E-06</v>
+      </c>
+      <c r="AB57">
+        <v>1.52782517671051</v>
+      </c>
+      <c r="AC57">
+        <v>5.556795707594841E-07</v>
+      </c>
+      <c r="AD57">
+        <v>0.004003468676080243</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5.430571050909089E-06</v>
+        <v>5.6755996480226E-06</v>
       </c>
       <c r="C58">
-        <v>0.07859160928901449</v>
+        <v>0.0662101470101273</v>
       </c>
       <c r="D58">
-        <v>0.005552061116012441</v>
+        <v>0.004081714300129435</v>
       </c>
       <c r="E58">
-        <v>0.08358224323168317</v>
+        <v>0.07065118626893241</v>
       </c>
       <c r="F58">
-        <v>7.548368696673089</v>
+        <v>7.497370334349583</v>
       </c>
       <c r="K58">
-        <v>6.766840303756694</v>
+        <v>4.721269354506528</v>
       </c>
       <c r="L58">
-        <v>5.476722705640031</v>
+        <v>4.249970239418004</v>
       </c>
       <c r="M58">
-        <v>6.791995665098867</v>
+        <v>4.739175037738096</v>
       </c>
       <c r="N58">
-        <v>0.01247195080608716</v>
+        <v>0.0002206709533006418</v>
       </c>
       <c r="O58">
-        <v>0.0005079123999037758</v>
+        <v>1.257310823445172E-05</v>
       </c>
       <c r="P58">
-        <v>0.01511979900850547</v>
+        <v>0.008900460840372599</v>
       </c>
       <c r="Q58">
-        <v>0.004100659410024433</v>
+        <v>0.008670799240840162</v>
       </c>
       <c r="R58">
-        <v>0.001942379022034458</v>
+        <v>0</v>
       </c>
       <c r="S58">
-        <v>4.101399556787177E-05</v>
+        <v>0</v>
       </c>
       <c r="T58">
-        <v>0.005052861692435139</v>
+        <v>0.02092747174578921</v>
       </c>
       <c r="U58">
-        <v>0.0009653391746055299</v>
+        <v>0.004097017721677262</v>
       </c>
       <c r="V58">
-        <v>9.726117211337055</v>
+        <v>40.98050941732882</v>
       </c>
       <c r="W58">
-        <v>1.655316856902061</v>
+        <v>-999.999</v>
       </c>
       <c r="X58">
-        <v>0.0003903708547042616</v>
+        <v>0</v>
       </c>
       <c r="Y58">
         <v>0</v>
       </c>
       <c r="Z58">
-        <v>-0.1160706564986409</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26">
+        <v>-3.75931592803934</v>
+      </c>
+      <c r="AA58">
+        <v>1.327608916147635E-06</v>
+      </c>
+      <c r="AB58">
+        <v>1.560550618846178</v>
+      </c>
+      <c r="AC58">
+        <v>5.750495511880495E-07</v>
+      </c>
+      <c r="AD58">
+        <v>0.004096442672126074</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5.393582003451951E-06</v>
+        <v>5.64291145515561E-06</v>
       </c>
       <c r="C59">
-        <v>0.08029020343257266</v>
+        <v>0.06765499428245283</v>
       </c>
       <c r="D59">
-        <v>0.005712885232808987</v>
+        <v>0.004197375490596291</v>
       </c>
       <c r="E59">
-        <v>0.0854564540202442</v>
+        <v>0.07225892215000781</v>
       </c>
       <c r="F59">
-        <v>7.548348222538504</v>
+        <v>7.497349905706152</v>
       </c>
       <c r="K59">
-        <v>6.773711320619701</v>
+        <v>4.728432991844143</v>
       </c>
       <c r="L59">
-        <v>5.487214100005663</v>
+        <v>4.250963424595558</v>
       </c>
       <c r="M59">
-        <v>6.799245355594759</v>
+        <v>4.746788198746948</v>
       </c>
       <c r="N59">
-        <v>0.01275018425739376</v>
+        <v>0.000225510438069623</v>
       </c>
       <c r="O59">
-        <v>0.0005226103056571525</v>
+        <v>1.289621163509531E-05</v>
       </c>
       <c r="P59">
-        <v>0.01537605806893526</v>
+        <v>0.008905801807803586</v>
       </c>
       <c r="Q59">
-        <v>0.004126522032255741</v>
+        <v>0.008671969637651777</v>
       </c>
       <c r="R59">
-        <v>0.001986596813347634</v>
+        <v>0</v>
       </c>
       <c r="S59">
-        <v>4.173657267725511E-05</v>
+        <v>0</v>
       </c>
       <c r="T59">
-        <v>0.005147920355640479</v>
+        <v>0.02131887765332671</v>
       </c>
       <c r="U59">
-        <v>0.0009892106007518787</v>
+        <v>0.004194759078850072</v>
       </c>
       <c r="V59">
-        <v>9.797388116781839</v>
+        <v>41.28727252140537</v>
       </c>
       <c r="W59">
-        <v>1.710128869640307</v>
+        <v>-999.999</v>
       </c>
       <c r="X59">
-        <v>0.0004092838008553504</v>
+        <v>0</v>
       </c>
       <c r="Y59">
         <v>0</v>
       </c>
       <c r="Z59">
-        <v>-0.09451575569034532</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26">
+        <v>-3.737226344544684</v>
+      </c>
+      <c r="AA59">
+        <v>1.327207752456728E-06</v>
+      </c>
+      <c r="AB59">
+        <v>1.594722860563558</v>
+      </c>
+      <c r="AC59">
+        <v>5.956038058396198E-07</v>
+      </c>
+      <c r="AD59">
+        <v>0.004194163475044233</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5.354959119553761E-06</v>
+        <v>5.60874705683544E-06</v>
       </c>
       <c r="C60">
-        <v>0.08206585386590036</v>
+        <v>0.06916588996797322</v>
       </c>
       <c r="D60">
-        <v>0.00588326869007324</v>
+        <v>0.004319768670780821</v>
       </c>
       <c r="E60">
-        <v>0.08741707646619333</v>
+        <v>0.07394186585024022</v>
       </c>
       <c r="F60">
-        <v>7.548327415413333</v>
+        <v>7.497329146630587</v>
       </c>
       <c r="K60">
-        <v>6.780708359815349</v>
+        <v>4.73580368895206</v>
       </c>
       <c r="L60">
-        <v>5.498003036081871</v>
+        <v>4.252016791322531</v>
       </c>
       <c r="M60">
-        <v>6.806633802263799</v>
+        <v>4.754624288064244</v>
       </c>
       <c r="N60">
-        <v>0.01304131697053034</v>
+        <v>0.0002305726815561593</v>
       </c>
       <c r="O60">
-        <v>0.0005381844270235761</v>
+        <v>1.323898457607088E-05</v>
       </c>
       <c r="P60">
-        <v>0.01564390416504667</v>
+        <v>0.008911369240426245</v>
       </c>
       <c r="Q60">
-        <v>0.004153743233141616</v>
+        <v>0.00867316663864778</v>
       </c>
       <c r="R60">
-        <v>0.002032903009554071</v>
+        <v>0</v>
       </c>
       <c r="S60">
-        <v>4.249152565780237E-05</v>
+        <v>0</v>
       </c>
       <c r="T60">
-        <v>0.005246937254566397</v>
+        <v>0.02172659476224281</v>
       </c>
       <c r="U60">
-        <v>0.001014389855947426</v>
+        <v>0.00429762784534734</v>
       </c>
       <c r="V60">
-        <v>9.872222492288579</v>
+        <v>41.60806559292666</v>
       </c>
       <c r="W60">
-        <v>1.76592836489845</v>
+        <v>-999.999</v>
       </c>
       <c r="X60">
-        <v>0.0004290835636912499</v>
+        <v>0</v>
       </c>
       <c r="Y60">
         <v>0</v>
       </c>
       <c r="Z60">
-        <v>-0.07251543623453394</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26">
+        <v>-3.714551991014932</v>
+      </c>
+      <c r="AA60">
+        <v>1.326794993418685E-06</v>
+      </c>
+      <c r="AB60">
+        <v>1.630438919813939</v>
+      </c>
+      <c r="AC60">
+        <v>6.174463874511019E-07</v>
+      </c>
+      <c r="AD60">
+        <v>0.004297010398959889</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5.314593574255017E-06</v>
+        <v>5.573005325148156E-06</v>
       </c>
       <c r="C61">
-        <v>0.08392396569945712</v>
+        <v>0.0707475026825389</v>
       </c>
       <c r="D61">
-        <v>0.00606407807261976</v>
+        <v>0.004449492418135469</v>
       </c>
       <c r="E61">
-        <v>0.08947016078101963</v>
+        <v>0.07570536868386914</v>
       </c>
       <c r="F61">
-        <v>7.548306258714398</v>
+        <v>7.497308040746713</v>
       </c>
       <c r="K61">
-        <v>6.787831804763409</v>
+        <v>4.743390563073374</v>
       </c>
       <c r="L61">
-        <v>5.509103701710548</v>
+        <v>4.253135220810803</v>
       </c>
       <c r="M61">
-        <v>6.814163949619489</v>
+        <v>4.762689311753912</v>
       </c>
       <c r="N61">
-        <v>0.01334627142281099</v>
+        <v>0.0002358735034337225</v>
       </c>
       <c r="O61">
-        <v>0.0005547129388456533</v>
+        <v>1.360307531040236E-05</v>
       </c>
       <c r="P61">
-        <v>0.01592415199265412</v>
+        <v>0.008917179059981819</v>
       </c>
       <c r="Q61">
-        <v>0.004182443608471861</v>
+        <v>0.008674394143591094</v>
       </c>
       <c r="R61">
-        <v>0.002081449631112517</v>
+        <v>0</v>
       </c>
       <c r="S61">
-        <v>4.328155925421674E-05</v>
+        <v>0</v>
       </c>
       <c r="T61">
-        <v>0.005350170117947347</v>
+        <v>0.02215169151631343</v>
       </c>
       <c r="U61">
-        <v>0.001040989023159023</v>
+        <v>0.004406045065755587</v>
       </c>
       <c r="V61">
-        <v>9.950773737475119</v>
+        <v>41.94348278998291</v>
       </c>
       <c r="W61">
-        <v>1.822743617360054</v>
+        <v>-999.999</v>
       </c>
       <c r="X61">
-        <v>0.0004498324110013649</v>
+        <v>0</v>
       </c>
       <c r="Y61">
         <v>0</v>
       </c>
       <c r="Z61">
-        <v>-0.05005476061675651</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26">
+        <v>-3.691266820201719</v>
+      </c>
+      <c r="AA61">
+        <v>1.326370128467891E-06</v>
+      </c>
+      <c r="AB61">
+        <v>1.667804562562785</v>
+      </c>
+      <c r="AC61">
+        <v>6.406835489647358E-07</v>
+      </c>
+      <c r="AD61">
+        <v>0.004405404382206622</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5.272366959265359E-06</v>
+        <v>5.535575897377978E-06</v>
       </c>
       <c r="C62">
-        <v>0.08587046289012805</v>
+        <v>0.07240495293914899</v>
       </c>
       <c r="D62">
-        <v>0.006256286476827723</v>
+        <v>0.004587217580558476</v>
       </c>
       <c r="E62">
-        <v>0.09162232712932558</v>
+        <v>0.07755529538219073</v>
       </c>
       <c r="F62">
-        <v>7.548284734563085</v>
+        <v>7.497286570406399</v>
       </c>
       <c r="K62">
-        <v>6.795090572982429</v>
+        <v>4.75120404811914</v>
       </c>
       <c r="L62">
-        <v>5.520535468544187</v>
+        <v>4.25432469888205</v>
       </c>
       <c r="M62">
-        <v>6.821842345384942</v>
+        <v>4.770995758974519</v>
       </c>
       <c r="N62">
-        <v>0.01366606038491012</v>
+        <v>0.0002414302641368055</v>
       </c>
       <c r="O62">
-        <v>0.0005722861946579509</v>
+        <v>1.399051958377615E-05</v>
       </c>
       <c r="P62">
-        <v>0.01621769470225867</v>
+        <v>0.008923248682891587</v>
       </c>
       <c r="Q62">
-        <v>0.004212746831884906</v>
+        <v>0.008675654220198959</v>
       </c>
       <c r="R62">
-        <v>0.002132403832908975</v>
+        <v>0</v>
       </c>
       <c r="S62">
-        <v>4.410957828502332E-05</v>
+        <v>0</v>
       </c>
       <c r="T62">
-        <v>0.005457899645317055</v>
+        <v>0.02259533267757738</v>
       </c>
       <c r="U62">
-        <v>0.001069132655666125</v>
+        <v>0.004520479405458824</v>
       </c>
       <c r="V62">
-        <v>10.03321380142697</v>
+        <v>42.29418695653866</v>
       </c>
       <c r="W62">
-        <v>1.880629409654674</v>
+        <v>-999.999</v>
       </c>
       <c r="X62">
-        <v>0.0004716031613867843</v>
+        <v>0</v>
       </c>
       <c r="Y62">
         <v>0</v>
       </c>
       <c r="Z62">
-        <v>-0.02710815789103549</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26">
+        <v>-3.667341140620245</v>
+      </c>
+      <c r="AA62">
+        <v>1.325932573305328E-06</v>
+      </c>
+      <c r="AB62">
+        <v>1.706935213312357</v>
+      </c>
+      <c r="AC62">
+        <v>6.654433804724405E-07</v>
+      </c>
+      <c r="AD62">
+        <v>0.004519813962078351</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5.228150196260211E-06</v>
+        <v>5.496338081824038E-06</v>
       </c>
       <c r="C63">
-        <v>0.08791185202893062</v>
+        <v>0.0741438692303949</v>
       </c>
       <c r="D63">
-        <v>0.006460990228448471</v>
+        <v>0.004733698432195272</v>
       </c>
       <c r="E63">
-        <v>0.09388083321731538</v>
+        <v>0.07949808625042981</v>
       </c>
       <c r="F63">
-        <v>7.548262823649765</v>
+        <v>7.49726471655435</v>
       </c>
       <c r="K63">
-        <v>6.802488852668507</v>
+        <v>4.759254946845642</v>
       </c>
       <c r="L63">
-        <v>5.532319089051366</v>
+        <v>4.255592351742538</v>
       </c>
       <c r="M63">
-        <v>6.829676021606653</v>
+        <v>4.779558492637684</v>
       </c>
       <c r="N63">
-        <v>0.01400179818466018</v>
+        <v>0.000247262052458678</v>
       </c>
       <c r="O63">
-        <v>0.0005910051253074229</v>
+        <v>1.440365440523804E-05</v>
       </c>
       <c r="P63">
-        <v>0.0165255138784221</v>
+        <v>0.008929597258858064</v>
       </c>
       <c r="Q63">
-        <v>0.004244783232117329</v>
+        <v>0.00867694620847222</v>
       </c>
       <c r="R63">
-        <v>0.002185949839437794</v>
+        <v>0</v>
       </c>
       <c r="S63">
-        <v>4.497875968307228E-05</v>
+        <v>0</v>
       </c>
       <c r="T63">
-        <v>0.005570432132231182</v>
+        <v>0.02305879045378554</v>
       </c>
       <c r="U63">
-        <v>0.001098960780445882</v>
+        <v>0.004641453975343268</v>
       </c>
       <c r="V63">
-        <v>10.11973518357859</v>
+        <v>42.66091638705472</v>
       </c>
       <c r="W63">
-        <v>1.939628658674806</v>
+        <v>-999.999</v>
       </c>
       <c r="X63">
-        <v>0.000494473190703954</v>
+        <v>0</v>
       </c>
       <c r="Y63">
         <v>0</v>
       </c>
       <c r="Z63">
-        <v>-0.00365432754951911</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26">
+        <v>-3.642744110618946</v>
+      </c>
+      <c r="AA63">
+        <v>1.325481722976644E-06</v>
+      </c>
+      <c r="AB63">
+        <v>1.747957099588604</v>
+      </c>
+      <c r="AC63">
+        <v>6.918701478841261E-07</v>
+      </c>
+      <c r="AD63">
+        <v>0.004640762105195384</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5.181802418416458E-06</v>
+        <v>5.455159656807686E-06</v>
       </c>
       <c r="C64">
-        <v>0.09005529576052226</v>
+        <v>0.07597045267245278</v>
       </c>
       <c r="D64">
-        <v>0.00667942869338397</v>
+        <v>0.004889785908175818</v>
       </c>
       <c r="E64">
-        <v>0.09625365166703134</v>
+        <v>0.08154082848492139</v>
       </c>
       <c r="F64">
-        <v>7.548240505074824</v>
+        <v>7.497242458575622</v>
       </c>
       <c r="K64">
-        <v>6.810031695642913</v>
+        <v>4.767554797016951</v>
       </c>
       <c r="L64">
-        <v>5.544475015350736</v>
+        <v>4.256944951612017</v>
       </c>
       <c r="M64">
-        <v>6.837670083727813</v>
+        <v>4.788383612373322</v>
       </c>
       <c r="N64">
-        <v>0.01435471379148525</v>
+        <v>0.0002533899050390317</v>
       </c>
       <c r="O64">
-        <v>0.0006109831907858874</v>
+        <v>1.484480363965061E-05</v>
       </c>
       <c r="P64">
-        <v>0.01684869100069328</v>
+        <v>0.008936245970710324</v>
       </c>
       <c r="Q64">
-        <v>0.004278714703002181</v>
+        <v>0.008678276095067439</v>
       </c>
       <c r="R64">
-        <v>0.002242291183641866</v>
+        <v>0</v>
       </c>
       <c r="S64">
-        <v>4.589289796381121E-05</v>
+        <v>0</v>
       </c>
       <c r="T64">
-        <v>0.005688102430962374</v>
+        <v>0.02354345720321824</v>
       </c>
       <c r="U64">
-        <v>0.001130630656732407</v>
+        <v>0.004769554477111091</v>
       </c>
       <c r="V64">
-        <v>10.21055313513254</v>
+        <v>43.04449275835232</v>
       </c>
       <c r="W64">
-        <v>1.999790145095147</v>
+        <v>-999.999</v>
       </c>
       <c r="X64">
-        <v>0.0005185286735078149</v>
+        <v>0</v>
       </c>
       <c r="Y64">
         <v>0</v>
       </c>
       <c r="Z64">
-        <v>0.02033058772771135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26">
+        <v>-3.617442582142228</v>
+      </c>
+      <c r="AA64">
+        <v>1.325016931367051E-06</v>
+      </c>
+      <c r="AB64">
+        <v>1.79100850794504</v>
+      </c>
+      <c r="AC64">
+        <v>7.201109367177185E-07</v>
+      </c>
+      <c r="AD64">
+        <v>0.004768834366174373</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5.133169621630283E-06</v>
+        <v>5.411895524800409E-06</v>
       </c>
       <c r="C65">
-        <v>0.09230869757314762</v>
+        <v>0.07789155177418999</v>
       </c>
       <c r="D65">
-        <v>0.006913008092129953</v>
+        <v>0.005056443397459759</v>
       </c>
       <c r="E65">
-        <v>0.09874955864235201</v>
+        <v>0.08369133820814667</v>
       </c>
       <c r="F65">
-        <v>7.548217756171104</v>
+        <v>7.497219774120357</v>
       </c>
       <c r="K65">
-        <v>6.817728558740391</v>
+        <v>4.776116426523358</v>
       </c>
       <c r="L65">
-        <v>5.557029396222789</v>
+        <v>4.258391480333763</v>
       </c>
       <c r="M65">
-        <v>6.845833413506372</v>
+        <v>4.797488744892564</v>
       </c>
       <c r="N65">
-        <v>0.01472616596988253</v>
+        <v>0.0002598370699417177</v>
       </c>
       <c r="O65">
-        <v>0.0006323512746058231</v>
+        <v>1.531696528616379E-05</v>
       </c>
       <c r="P65">
-        <v>0.01718842008982007</v>
+        <v>0.008943218129511482</v>
       </c>
       <c r="Q65">
-        <v>0.004314707180808644</v>
+        <v>0.008679645329745495</v>
       </c>
       <c r="R65">
-        <v>0.002301653299471002</v>
+        <v>0</v>
       </c>
       <c r="S65">
-        <v>4.685605048668128E-05</v>
+        <v>0</v>
       </c>
       <c r="T65">
-        <v>0.0058112773437794</v>
+        <v>0.02405085997959951</v>
       </c>
       <c r="U65">
-        <v>0.001164319369893234</v>
+        <v>0.004905438883233014</v>
       </c>
       <c r="V65">
-        <v>10.30590822195195</v>
+        <v>43.44583043701833</v>
       </c>
       <c r="W65">
-        <v>2.061177385754974</v>
+        <v>-999.999</v>
       </c>
       <c r="X65">
-        <v>0.0005438670153102606</v>
+        <v>0</v>
       </c>
       <c r="Y65">
         <v>0</v>
       </c>
       <c r="Z65">
-        <v>0.04487664990617013</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26">
+        <v>-3.591400143495225</v>
+      </c>
+      <c r="AA65">
+        <v>1.324537480114692E-06</v>
+      </c>
+      <c r="AB65">
+        <v>1.836241191692524</v>
+      </c>
+      <c r="AC65">
+        <v>7.503472063623683E-07</v>
+      </c>
+      <c r="AD65">
+        <v>0.004904688536026652</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5.082083200058821E-06</v>
+        <v>5.366386166539755E-06</v>
       </c>
       <c r="C66">
-        <v>0.09468080005873146</v>
+        <v>0.07991474922909916</v>
       </c>
       <c r="D66">
-        <v>0.007163330101742221</v>
+        <v>0.005234765712670925</v>
       </c>
       <c r="E66">
-        <v>0.1013782358122489</v>
+        <v>0.08595825509644642</v>
       </c>
       <c r="F66">
-        <v>7.548194552299849</v>
+        <v>7.497196638904842</v>
       </c>
       <c r="K66">
-        <v>6.825583236425719</v>
+        <v>4.784953033559767</v>
       </c>
       <c r="L66">
-        <v>5.570009376657802</v>
+        <v>4.259940935141638</v>
       </c>
       <c r="M66">
-        <v>6.854174299392088</v>
+        <v>4.806883720055734</v>
       </c>
       <c r="N66">
-        <v>0.01511766082252911</v>
+        <v>0.0002666292950710387</v>
       </c>
       <c r="O66">
-        <v>0.0006552567840208646</v>
+        <v>1.582323561158266E-05</v>
       </c>
       <c r="P66">
-        <v>0.01754602322618149</v>
+        <v>0.008950539596171649</v>
       </c>
       <c r="Q66">
-        <v>0.004352946106519627</v>
+        <v>0.008681058267787589</v>
       </c>
       <c r="R66">
-        <v>0.002364286556387233</v>
+        <v>0</v>
       </c>
       <c r="S66">
-        <v>4.787283905512591E-05</v>
+        <v>0</v>
       </c>
       <c r="T66">
-        <v>0.005940359509720682</v>
+        <v>0.02458267723227636</v>
       </c>
       <c r="U66">
-        <v>0.001200227920940639</v>
+        <v>0.005049848759246464</v>
       </c>
       <c r="V66">
-        <v>10.40606953238806</v>
+        <v>43.86594736823039</v>
       </c>
       <c r="W66">
-        <v>2.123841633471471</v>
+        <v>-999.999</v>
       </c>
       <c r="X66">
-        <v>0.0005705934100979222</v>
+        <v>0</v>
       </c>
       <c r="Y66">
         <v>0</v>
       </c>
       <c r="Z66">
-        <v>0.0700092155356451</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26">
+        <v>-3.564578268619224</v>
+      </c>
+      <c r="AA66">
+        <v>1.324042630120653E-06</v>
+      </c>
+      <c r="AB66">
+        <v>1.883821987707729</v>
+      </c>
+      <c r="AC66">
+        <v>7.827682299925803E-07</v>
+      </c>
+      <c r="AD66">
+        <v>0.005049065991016472</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5.028358241465572E-06</v>
+        <v>5.318455815787806E-06</v>
       </c>
       <c r="C67">
-        <v>0.09718129920035973</v>
+        <v>0.08204846304385426</v>
       </c>
       <c r="D67">
-        <v>0.007432226531827905</v>
+        <v>0.005426002041644452</v>
       </c>
       <c r="E67">
-        <v>0.104150387851072</v>
+        <v>0.08835115179699057</v>
       </c>
       <c r="F67">
-        <v>7.548170866615132</v>
+        <v>7.497173026482264</v>
       </c>
       <c r="K67">
-        <v>6.833604042966877</v>
+        <v>4.794079378172818</v>
       </c>
       <c r="L67">
-        <v>5.583443571367785</v>
+        <v>4.26160489466373</v>
       </c>
       <c r="M67">
-        <v>6.862700099156941</v>
+        <v>4.816588873773891</v>
       </c>
       <c r="N67">
-        <v>0.01553087236648649</v>
+        <v>0.000273795182484166</v>
       </c>
       <c r="O67">
-        <v>0.0006798687975218925</v>
+        <v>1.636749959393681E-05</v>
       </c>
       <c r="P67">
-        <v>0.01792296828674326</v>
+        <v>0.008958239062696908</v>
       </c>
       <c r="Q67">
-        <v>0.004393657605684181</v>
+        <v>0.008682516466498114</v>
       </c>
       <c r="R67">
-        <v>0.002430469805453865</v>
+        <v>0</v>
       </c>
       <c r="S67">
-        <v>4.89486828642108E-05</v>
+        <v>0</v>
       </c>
       <c r="T67">
-        <v>0.006075791840828683</v>
+        <v>0.0251407580457915</v>
       </c>
       <c r="U67">
-        <v>0.001238584212661093</v>
+        <v>0.005203623097277593</v>
       </c>
       <c r="V67">
-        <v>10.51133822740634</v>
+        <v>44.30597791137775</v>
       </c>
       <c r="W67">
-        <v>2.187848340409936</v>
+        <v>-999.999</v>
       </c>
       <c r="X67">
-        <v>0.0005988265848625423</v>
+        <v>0</v>
       </c>
       <c r="Y67">
         <v>0</v>
       </c>
       <c r="Z67">
-        <v>0.09576066506502912</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26">
+        <v>-3.536935014298713</v>
+      </c>
+      <c r="AA67">
+        <v>1.323531554822322E-06</v>
+      </c>
+      <c r="AB67">
+        <v>1.933934725443762</v>
+      </c>
+      <c r="AC67">
+        <v>8.176049480237676E-07</v>
+      </c>
+      <c r="AD67">
+        <v>0.005202805492329569</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>4.971791706753227E-06</v>
+        <v>5.267910482537495E-06</v>
       </c>
       <c r="C68">
-        <v>0.09982097780825773</v>
+        <v>0.0843020648380369</v>
       </c>
       <c r="D68">
-        <v>0.007721801406051877</v>
+        <v>0.005631583721862575</v>
       </c>
       <c r="E68">
-        <v>0.1070778785069942</v>
+        <v>0.09088066108303321</v>
       </c>
       <c r="F68">
-        <v>7.548146669793507</v>
+        <v>7.497148907979525</v>
       </c>
       <c r="K68">
-        <v>6.841800597828909</v>
+        <v>4.803510971835581</v>
       </c>
       <c r="L68">
-        <v>5.597366541546159</v>
+        <v>4.263394940193387</v>
       </c>
       <c r="M68">
-        <v>6.871421343459828</v>
+        <v>4.826614181377615</v>
       </c>
       <c r="N68">
-        <v>0.01596766658910309</v>
+        <v>0.0002813665849221139</v>
       </c>
       <c r="O68">
-        <v>0.0007063826600526882</v>
+        <v>1.695377238364391E-05</v>
       </c>
       <c r="P68">
-        <v>0.01832088918912735</v>
+        <v>0.008966348550820402</v>
       </c>
       <c r="Q68">
-        <v>0.004437081086452318</v>
+        <v>0.008684027719678879</v>
       </c>
       <c r="R68">
-        <v>0.002500514544353561</v>
+        <v>0</v>
       </c>
       <c r="S68">
-        <v>5.008958886082363E-05</v>
+        <v>0</v>
       </c>
       <c r="T68">
-        <v>0.006218062653421849</v>
+        <v>0.02572714436780662</v>
       </c>
       <c r="U68">
-        <v>0.001279648210038208</v>
+        <v>0.005367714596893227</v>
       </c>
       <c r="V68">
-        <v>10.62205185193528</v>
+        <v>44.76718793086571</v>
       </c>
       <c r="W68">
-        <v>2.253272409143431</v>
+        <v>-999.999</v>
       </c>
       <c r="X68">
-        <v>0.0006287003551482754</v>
+        <v>0</v>
       </c>
       <c r="Y68">
         <v>0</v>
       </c>
       <c r="Z68">
-        <v>0.1221665409507438</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26">
+        <v>-3.508425292798456</v>
+      </c>
+      <c r="AA68">
+        <v>1.323003385577208E-06</v>
+      </c>
+      <c r="AB68">
+        <v>1.986782294442781</v>
+      </c>
+      <c r="AC68">
+        <v>8.550959411126623E-07</v>
+      </c>
+      <c r="AD68">
+        <v>0.005366859500952114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>4.912160239050893E-06</v>
+        <v>5.214535608444701E-06</v>
       </c>
       <c r="C69">
-        <v>0.1026118619416579</v>
+        <v>0.0866860188112543</v>
       </c>
       <c r="D69">
-        <v>0.008034482674135413</v>
+        <v>0.00585315823533531</v>
       </c>
       <c r="E69">
-        <v>0.1101738882984399</v>
+        <v>0.09355862386756901</v>
       </c>
       <c r="F69">
-        <v>7.548121929722226</v>
+        <v>7.497124251791806</v>
       </c>
       <c r="K69">
-        <v>6.850179054368577</v>
+        <v>4.81326487247739</v>
       </c>
       <c r="L69">
-        <v>5.611814120482185</v>
+        <v>4.265326034337485</v>
       </c>
       <c r="M69">
-        <v>6.880347394230248</v>
+        <v>4.836981742956601</v>
       </c>
       <c r="N69">
-        <v>0.01643012973846826</v>
+        <v>0.0002893790943929767</v>
       </c>
       <c r="O69">
-        <v>0.0007350228425721542</v>
+        <v>1.758710187855757E-05</v>
       </c>
       <c r="P69">
-        <v>0.01874161064678417</v>
+        <v>0.00897490372752166</v>
       </c>
       <c r="Q69">
-        <v>0.004483500372705137</v>
+        <v>0.008685593214842323</v>
       </c>
       <c r="R69">
-        <v>0.002574769846035159</v>
+        <v>0</v>
       </c>
       <c r="S69">
-        <v>5.13025777975257E-05</v>
+        <v>0</v>
       </c>
       <c r="T69">
-        <v>0.006367711575948626</v>
+        <v>0.02634409678510703</v>
       </c>
       <c r="U69">
-        <v>0.001323718081397214</v>
+        <v>0.005543209618931465</v>
       </c>
       <c r="V69">
-        <v>10.73858953114883</v>
+        <v>45.25099266674781</v>
       </c>
       <c r="W69">
-        <v>2.320182601532135</v>
+        <v>-999.999</v>
       </c>
       <c r="X69">
-        <v>0.0006603622783760598</v>
+        <v>0</v>
       </c>
       <c r="Y69">
         <v>0</v>
       </c>
       <c r="Z69">
-        <v>0.1492610829961656</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26">
+        <v>-3.478999912409908</v>
+      </c>
+      <c r="AA69">
+        <v>1.322457167141266E-06</v>
+      </c>
+      <c r="AB69">
+        <v>2.042589096513976</v>
+      </c>
+      <c r="AC69">
+        <v>8.955330020442297E-07</v>
+      </c>
+      <c r="AD69">
+        <v>0.00554231408592942</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>4.849217815644954E-06</v>
+        <v>5.158093411119191E-06</v>
       </c>
       <c r="C70">
-        <v>0.105567405043768</v>
+        <v>0.08921204570425177</v>
       </c>
       <c r="D70">
-        <v>0.008373085797475439</v>
+        <v>0.006092630975203691</v>
       </c>
       <c r="E70">
-        <v>0.1134530982742912</v>
+        <v>0.09639826226709695</v>
       </c>
       <c r="F70">
-        <v>7.548096611133892</v>
+        <v>7.497099023229385</v>
       </c>
       <c r="K70">
-        <v>6.858749213159125</v>
+        <v>4.823359478552895</v>
       </c>
       <c r="L70">
-        <v>5.626823504811169</v>
+        <v>4.267414124043396</v>
       </c>
       <c r="M70">
-        <v>6.889485279302838</v>
+        <v>4.847707582835746</v>
       </c>
       <c r="N70">
-        <v>0.01692060182896501</v>
+        <v>0.0002978725941590523</v>
       </c>
       <c r="O70">
-        <v>0.0007660494995554316</v>
+        <v>1.827302910844317E-05</v>
       </c>
       <c r="P70">
-        <v>0.01918717659284914</v>
+        <v>0.008983944681042889</v>
       </c>
       <c r="Q70">
-        <v>0.004533266084945013</v>
+        <v>0.008687220919763953</v>
       </c>
       <c r="R70">
-        <v>0.002653628198167585</v>
+        <v>0</v>
       </c>
       <c r="S70">
-        <v>5.259601451324824E-05</v>
+        <v>0</v>
       </c>
       <c r="T70">
-        <v>0.006525336372653358</v>
+        <v>0.02699412450905001</v>
       </c>
       <c r="U70">
-        <v>0.001371136445543991</v>
+        <v>0.005731352230229404</v>
       </c>
       <c r="V70">
-        <v>10.86137798342952</v>
+        <v>45.7589779338637</v>
       </c>
       <c r="W70">
-        <v>2.388662211811273</v>
+        <v>-999.999</v>
       </c>
       <c r="X70">
-        <v>0.0006939798470470791</v>
+        <v>0</v>
       </c>
       <c r="Y70">
         <v>0</v>
       </c>
       <c r="Z70">
-        <v>0.1770849329703825</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26">
+        <v>-3.448605303053567</v>
+      </c>
+      <c r="AA70">
+        <v>1.321891869201038E-06</v>
+      </c>
+      <c r="AB70">
+        <v>2.101603823312912</v>
+      </c>
+      <c r="AC70">
+        <v>9.392334253601134E-07</v>
+      </c>
+      <c r="AD70">
+        <v>0.005730412996804044</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>4.782693077230783E-06</v>
+        <v>5.098319813329623E-06</v>
       </c>
       <c r="C71">
-        <v>0.1087027056646161</v>
+        <v>0.0918933171471243</v>
       </c>
       <c r="D71">
-        <v>0.00874089270539251</v>
+        <v>0.006352216970874482</v>
       </c>
       <c r="E71">
-        <v>0.1169319046901177</v>
+        <v>0.09941438260644361</v>
       </c>
       <c r="F71">
-        <v>7.548070675184288</v>
+        <v>7.49707318410516</v>
       </c>
       <c r="K71">
-        <v>6.867523315379914</v>
+        <v>4.833814777109714</v>
       </c>
       <c r="L71">
-        <v>5.642447781814037</v>
+        <v>4.269678487446788</v>
       </c>
       <c r="M71">
-        <v>6.898853759327052</v>
+        <v>4.858814012774431</v>
       </c>
       <c r="N71">
-        <v>0.01744171642023629</v>
+        <v>0.0003068919349671365</v>
       </c>
       <c r="O71">
-        <v>0.0007997702349425289</v>
+        <v>1.901819795365965E-05</v>
       </c>
       <c r="P71">
-        <v>0.01965988338342669</v>
+        <v>0.008993516415277694</v>
       </c>
       <c r="Q71">
-        <v>0.004586703451373375</v>
+        <v>0.008688916898325048</v>
       </c>
       <c r="R71">
-        <v>0.002737532462156435</v>
+        <v>0</v>
       </c>
       <c r="S71">
-        <v>5.397876810589652E-05</v>
+        <v>0</v>
       </c>
       <c r="T71">
-        <v>0.00669160088643108</v>
+        <v>0.02768002038901197</v>
       </c>
       <c r="U71">
-        <v>0.001422299717643079</v>
+        <v>0.005933573710518679</v>
       </c>
       <c r="V71">
-        <v>10.99089888857906</v>
+        <v>46.2929254099239</v>
       </c>
       <c r="W71">
-        <v>2.458807311867226</v>
+        <v>-999.999</v>
       </c>
       <c r="X71">
-        <v>0.0007297432128203107</v>
+        <v>0</v>
       </c>
       <c r="Y71">
         <v>0</v>
       </c>
       <c r="Z71">
-        <v>0.2056841166514207</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26">
+        <v>-3.417183473040781</v>
+      </c>
+      <c r="AA71">
+        <v>1.321306372481856E-06</v>
+      </c>
+      <c r="AB71">
+        <v>2.164102668073689</v>
+      </c>
+      <c r="AC71">
+        <v>9.865683031234791E-07</v>
+      </c>
+      <c r="AD71">
+        <v>0.005932587142215555</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4.712286311329545E-06</v>
+        <v>5.034920942060535E-06</v>
       </c>
       <c r="C72">
-        <v>0.1120347660965903</v>
+        <v>0.0947446871529993</v>
       </c>
       <c r="D72">
-        <v>0.009141750540264365</v>
+        <v>0.006634505362192365</v>
       </c>
       <c r="E72">
-        <v>0.1206286706553711</v>
+        <v>0.1026236145240178</v>
       </c>
       <c r="F72">
-        <v>7.548044078951978</v>
+        <v>7.497046692249656</v>
       </c>
       <c r="K72">
-        <v>6.87650866544714</v>
+        <v>4.844652607130235</v>
       </c>
       <c r="L72">
-        <v>5.658728627851765</v>
+        <v>4.272140330948663</v>
       </c>
       <c r="M72">
-        <v>6.908456140210372</v>
+        <v>4.870317302535929</v>
       </c>
       <c r="N72">
-        <v>0.01799644795974608</v>
+        <v>0.0003164877262009191</v>
       </c>
       <c r="O72">
-        <v>0.0008365392953819633</v>
+        <v>1.983003074129134E-05</v>
       </c>
       <c r="P72">
-        <v>0.02016232271449514</v>
+        <v>0.00900366973250945</v>
       </c>
       <c r="Q72">
-        <v>0.004644307821220651</v>
+        <v>0.008690690593928204</v>
       </c>
       <c r="R72">
-        <v>0.002826984251958119</v>
+        <v>0</v>
       </c>
       <c r="S72">
-        <v>5.546244646914454E-05</v>
+        <v>0</v>
       </c>
       <c r="T72">
-        <v>0.006867244258724014</v>
+        <v>0.02840490194496175</v>
       </c>
       <c r="U72">
-        <v>0.001477668443740837</v>
+        <v>0.006151528793307903</v>
       </c>
       <c r="V72">
-        <v>11.12769767275756</v>
+        <v>46.8548429382776</v>
       </c>
       <c r="W72">
-        <v>2.5307062377248</v>
+        <v>-999.999</v>
       </c>
       <c r="X72">
-        <v>0.0007678647706863319</v>
+        <v>0</v>
       </c>
       <c r="Y72">
         <v>0</v>
       </c>
       <c r="Z72">
-        <v>0.2351028126123254</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26">
+        <v>-3.384670482068307</v>
+      </c>
+      <c r="AA72">
+        <v>1.320699454000707E-06</v>
+      </c>
+      <c r="AB72">
+        <v>2.230392987163329</v>
+      </c>
+      <c r="AC72">
+        <v>1.037945600371719E-06</v>
+      </c>
+      <c r="AD72">
+        <v>0.006150490847707531</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5.996124688648926E-06</v>
+        <v>6.482464408576228E-06</v>
       </c>
       <c r="C73">
-        <v>0.1155828011157739</v>
+        <v>0.09778296928371674</v>
       </c>
       <c r="D73">
-        <v>0.00448050052152999</v>
+        <v>0.004331943245775221</v>
       </c>
       <c r="E73">
-        <v>0.1223122540068386</v>
+        <v>0.1039123259078676</v>
       </c>
       <c r="F73">
-        <v>11.14804407895198</v>
+        <v>8.797046692249657</v>
       </c>
       <c r="K73">
-        <v>6.88571815032547</v>
+        <v>4.855896874410571</v>
       </c>
       <c r="L73">
-        <v>5.573633908268253</v>
+        <v>4.260943810083801</v>
       </c>
       <c r="M73">
-        <v>6.909890044846704</v>
+        <v>4.875398951706336</v>
       </c>
       <c r="N73">
-        <v>0.01858816894817242</v>
+        <v>0.0003267173019064233</v>
       </c>
       <c r="O73">
-        <v>0.0006760543364618912</v>
+        <v>1.602641417647336E-05</v>
       </c>
       <c r="P73">
-        <v>0.02069742667633218</v>
+        <v>0.009014462116598454</v>
       </c>
       <c r="Q73">
-        <v>0.004505913840113736</v>
+        <v>0.008687467401946002</v>
       </c>
       <c r="R73">
-        <v>0.002922553969388772</v>
+        <v>0</v>
       </c>
       <c r="S73">
-        <v>4.478725240594732E-05</v>
+        <v>0</v>
       </c>
       <c r="T73">
-        <v>0.007053091700619983</v>
+        <v>0.02917225963984636</v>
       </c>
       <c r="U73">
-        <v>0.000925060213141493</v>
+        <v>0.003044594752649675</v>
       </c>
       <c r="V73">
-        <v>11.15316046405712</v>
+        <v>46.79655091245951</v>
       </c>
       <c r="W73">
-        <v>2.604470153270288</v>
+        <v>-999.999</v>
       </c>
       <c r="X73">
-        <v>0.0008086363675113634</v>
+        <v>0</v>
       </c>
       <c r="Y73">
         <v>0</v>
       </c>
       <c r="Z73">
-        <v>0.2653949495563506</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26">
+        <v>-3.350996603368005</v>
+      </c>
+      <c r="AA73">
+        <v>6.940342074486018E-07</v>
+      </c>
+      <c r="AB73">
+        <v>2.314582283672317</v>
+      </c>
+      <c r="AC73">
+        <v>1.063066243537012E-06</v>
+      </c>
+      <c r="AD73">
+        <v>0.003043531686406138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5.929595769285107E-06</v>
+        <v>6.404014993395959E-06</v>
       </c>
       <c r="C74">
-        <v>0.1195507404227111</v>
+        <v>0.1011205059279289</v>
       </c>
       <c r="D74">
-        <v>0.004689514404066603</v>
+        <v>0.004537371315056621</v>
       </c>
       <c r="E74">
-        <v>0.1266497107652723</v>
+        <v>0.1075777753300472</v>
       </c>
       <c r="F74">
-        <v>11.14804407895198</v>
+        <v>8.797046692249657</v>
       </c>
       <c r="K74">
-        <v>6.895217038448182</v>
+        <v>4.867722713270032</v>
       </c>
       <c r="L74">
-        <v>5.587645600658464</v>
+        <v>4.263246521234839</v>
       </c>
       <c r="M74">
-        <v>6.917776300321862</v>
+        <v>4.888081871124121</v>
       </c>
       <c r="N74">
-        <v>0.01922788732716209</v>
+        <v>0.0003378134050396359</v>
       </c>
       <c r="O74">
-        <v>0.0007071274685279868</v>
+        <v>1.676716492895858E-05</v>
       </c>
       <c r="P74">
-        <v>0.02127569499191141</v>
+        <v>0.009026140499264614</v>
       </c>
       <c r="Q74">
-        <v>0.004579261739987959</v>
+        <v>0.008689219503749457</v>
       </c>
       <c r="R74">
-        <v>0.003025331352138159</v>
+        <v>0</v>
       </c>
       <c r="S74">
-        <v>4.659159550139155E-05</v>
+        <v>0</v>
       </c>
       <c r="T74">
-        <v>0.00727194996802993</v>
+        <v>0.03010539052867481</v>
       </c>
       <c r="U74">
-        <v>0.0009641648167922499</v>
+        <v>0.00318042248646676</v>
       </c>
       <c r="V74">
-        <v>11.18543105013957</v>
+        <v>46.76592555006808</v>
       </c>
       <c r="W74">
-        <v>2.679899031551521</v>
+        <v>-999.999</v>
       </c>
       <c r="X74">
-        <v>0.0008522392952373033</v>
+        <v>0</v>
       </c>
       <c r="Y74">
         <v>0</v>
       </c>
       <c r="Z74">
-        <v>0.296662624035589</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26">
+        <v>-3.315996592325796</v>
+      </c>
+      <c r="AA74">
+        <v>6.950654205971468E-07</v>
+      </c>
+      <c r="AB74">
+        <v>2.393031698851975</v>
+      </c>
+      <c r="AC74">
+        <v>1.127283082354731E-06</v>
+      </c>
+      <c r="AD74">
+        <v>0.003179295203384405</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5.858346728986042E-06</v>
+        <v>6.320088756343396E-06</v>
       </c>
       <c r="C75">
-        <v>0.1238048599048832</v>
+        <v>0.104697659061739</v>
       </c>
       <c r="D75">
-        <v>0.004918763167251446</v>
+        <v>0.004762967253636121</v>
       </c>
       <c r="E75">
-        <v>0.1313039390949906</v>
+        <v>0.1115089806810738</v>
       </c>
       <c r="F75">
-        <v>11.14804407895198</v>
+        <v>8.797046692249657</v>
       </c>
       <c r="K75">
-        <v>6.905028790167307</v>
+        <v>4.880019137953465</v>
       </c>
       <c r="L75">
-        <v>5.603997366977828</v>
+        <v>4.265736224631363</v>
       </c>
       <c r="M75">
-        <v>6.928077995784162</v>
+        <v>4.900962252599571</v>
       </c>
       <c r="N75">
-        <v>0.01991384139600039</v>
+        <v>0.0003497040065252165</v>
       </c>
       <c r="O75">
-        <v>0.0007406424738305784</v>
+        <v>1.75699692957559E-05</v>
       </c>
       <c r="P75">
-        <v>0.02189408140864931</v>
+        <v>0.009038619054654064</v>
       </c>
       <c r="Q75">
-        <v>0.004639549881880266</v>
+        <v>0.008691035255448299</v>
       </c>
       <c r="R75">
-        <v>0.003135655046828409</v>
+        <v>0</v>
       </c>
       <c r="S75">
-        <v>4.781086973137665E-05</v>
+        <v>0</v>
       </c>
       <c r="T75">
-        <v>0.007505571640297993</v>
+        <v>0.03110261156727511</v>
       </c>
       <c r="U75">
-        <v>0.001006964646623593</v>
+        <v>0.003328897795076695</v>
       </c>
       <c r="V75">
-        <v>11.22493308545989</v>
+        <v>46.76423989407824</v>
       </c>
       <c r="W75">
-        <v>2.757568490680342</v>
+        <v>-999.999</v>
       </c>
       <c r="X75">
-        <v>0.0008990682985968036</v>
+        <v>0</v>
       </c>
       <c r="Y75">
         <v>0</v>
       </c>
       <c r="Z75">
-        <v>0.3289845887557803</v>
-      </c>
-    </row>
-    <row r="76" spans="1:26">
+        <v>-3.279667455311589</v>
+      </c>
+      <c r="AA75">
+        <v>6.961376688295422E-07</v>
+      </c>
+      <c r="AB75">
+        <v>2.476957935908441</v>
+      </c>
+      <c r="AC75">
+        <v>1.197113396378586E-06</v>
+      </c>
+      <c r="AD75">
+        <v>0.003327700681680316</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5.781866051171712E-06</v>
+        <v>6.230105629312987E-06</v>
       </c>
       <c r="C76">
-        <v>0.1283774020870998</v>
+        <v>0.1085413010543584</v>
       </c>
       <c r="D76">
-        <v>0.005171292144664269</v>
+        <v>0.005011801780163642</v>
       </c>
       <c r="E76">
-        <v>0.1363104083373191</v>
+        <v>0.1157353992397323</v>
       </c>
       <c r="F76">
-        <v>11.14804407895198</v>
+        <v>8.797046692249657</v>
       </c>
       <c r="K76">
-        <v>6.915117611675496</v>
+        <v>4.892819385916888</v>
       </c>
       <c r="L76">
-        <v>5.621131571347857</v>
+        <v>4.268480128619672</v>
       </c>
       <c r="M76">
-        <v>6.938679860024676</v>
+        <v>4.914364278646156</v>
       </c>
       <c r="N76">
-        <v>0.02065127212377615</v>
+        <v>0.0003624783925725034</v>
       </c>
       <c r="O76">
-        <v>0.0007775203460883848</v>
+        <v>1.845665023037305E-05</v>
       </c>
       <c r="P76">
-        <v>0.02255771723660197</v>
+        <v>0.009051987662315825</v>
       </c>
       <c r="Q76">
-        <v>0.004704923678282221</v>
+        <v>0.008692946176286838</v>
       </c>
       <c r="R76">
-        <v>0.003254418284409065</v>
+        <v>0</v>
       </c>
       <c r="S76">
-        <v>4.91241667671269E-05</v>
+        <v>0</v>
       </c>
       <c r="T76">
-        <v>0.007755518063131624</v>
+        <v>0.03217083132774428</v>
       </c>
       <c r="U76">
-        <v>0.001053859234916744</v>
+        <v>0.003491856909558502</v>
       </c>
       <c r="V76">
-        <v>11.272142267526</v>
+        <v>46.79304212428819</v>
       </c>
       <c r="W76">
-        <v>2.837483992784492</v>
+        <v>-999.999</v>
       </c>
       <c r="X76">
-        <v>0.0009494720125133114</v>
+        <v>0</v>
       </c>
       <c r="Y76">
         <v>0</v>
       </c>
       <c r="Z76">
-        <v>0.3623849259316287</v>
-      </c>
-    </row>
-    <row r="77" spans="1:26">
+        <v>-3.241913443545318</v>
+      </c>
+      <c r="AA76">
+        <v>6.972538504519527E-07</v>
+      </c>
+      <c r="AB76">
+        <v>2.566941062934308</v>
+      </c>
+      <c r="AC76">
+        <v>1.27415172014082E-06</v>
+      </c>
+      <c r="AD76">
+        <v>0.003490582757838361</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5.698810045179779E-06</v>
+        <v>6.132350759516046E-06</v>
       </c>
       <c r="C77">
-        <v>0.1333056464847972</v>
+        <v>0.1126824810253262</v>
       </c>
       <c r="D77">
-        <v>0.005451432586645336</v>
+        <v>0.005288398260235441</v>
       </c>
       <c r="E77">
-        <v>0.1417087956804823</v>
+        <v>0.1202895085005835</v>
       </c>
       <c r="F77">
-        <v>11.14693665417204</v>
+        <v>8.795941432362785</v>
       </c>
       <c r="K77">
-        <v>6.925501781885046</v>
+        <v>4.906159789580941</v>
       </c>
       <c r="L77">
-        <v>5.639168979540302</v>
+        <v>4.271526297551111</v>
       </c>
       <c r="M77">
-        <v>6.949602672034109</v>
+        <v>4.928321567024796</v>
       </c>
       <c r="N77">
-        <v>0.02144622219488366</v>
+        <v>0.0003762392622661886</v>
       </c>
       <c r="O77">
-        <v>0.0008183638005053103</v>
+        <v>1.944338316107383E-05</v>
       </c>
       <c r="P77">
-        <v>0.02327182897893476</v>
+        <v>0.009066349321756985</v>
       </c>
       <c r="Q77">
-        <v>0.004776122776011432</v>
+        <v>0.008694966310832939</v>
       </c>
       <c r="R77">
-        <v>0.003382630049114742</v>
+        <v>0</v>
       </c>
       <c r="S77">
-        <v>5.055130569233014E-05</v>
+        <v>0</v>
       </c>
       <c r="T77">
-        <v>0.008023584416260219</v>
+        <v>0.03331799030447171</v>
       </c>
       <c r="U77">
-        <v>0.001105589110712972</v>
+        <v>0.003671980001429197</v>
       </c>
       <c r="V77">
-        <v>11.32764577756118</v>
+        <v>46.8542930410742</v>
       </c>
       <c r="W77">
-        <v>2.919806440238091</v>
+        <v>-999.999</v>
       </c>
       <c r="X77">
-        <v>0.001003879242652299</v>
+        <v>0</v>
       </c>
       <c r="Y77">
         <v>0</v>
       </c>
       <c r="Z77">
-        <v>0.3969443348153394</v>
-      </c>
-    </row>
-    <row r="78" spans="1:26">
+        <v>-3.202628779627357</v>
+      </c>
+      <c r="AA77">
+        <v>6.984171336514581E-07</v>
+      </c>
+      <c r="AB77">
+        <v>2.663590672843718</v>
+      </c>
+      <c r="AC77">
+        <v>1.359422003573178E-06</v>
+      </c>
+      <c r="AD77">
+        <v>0.003670620579425624</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5.610004102748008E-06</v>
+        <v>6.028151690969409E-06</v>
       </c>
       <c r="C78">
-        <v>0.1386329053972202</v>
+        <v>0.1171572344738716</v>
       </c>
       <c r="D78">
-        <v>0.005762431103936551</v>
+        <v>0.005595760388866587</v>
       </c>
       <c r="E78">
-        <v>0.1475486685376505</v>
+        <v>0.1252131095037806</v>
       </c>
       <c r="F78">
-        <v>11.14691020695608</v>
+        <v>8.795915129596301</v>
       </c>
       <c r="K78">
-        <v>6.936201439421091</v>
+        <v>4.920080466190289</v>
       </c>
       <c r="L78">
-        <v>5.658103623853627</v>
+        <v>4.274904534444111</v>
       </c>
       <c r="M78">
-        <v>6.960871683722906</v>
+        <v>4.942874407640057</v>
       </c>
       <c r="N78">
-        <v>0.02230571629464943</v>
+        <v>0.0003911057572289018</v>
       </c>
       <c r="O78">
-        <v>0.0008636289146802827</v>
+        <v>2.054085692337196E-05</v>
       </c>
       <c r="P78">
-        <v>0.02404248340405657</v>
+        <v>0.00908182361387882</v>
       </c>
       <c r="Q78">
-        <v>0.004853807985417217</v>
+        <v>0.008697113012497192</v>
       </c>
       <c r="R78">
-        <v>0.00352146666342401</v>
+        <v>0</v>
       </c>
       <c r="S78">
-        <v>5.209616708270455E-05</v>
+        <v>0</v>
       </c>
       <c r="T78">
-        <v>0.008311834220658022</v>
+        <v>0.03455324073376515</v>
       </c>
       <c r="U78">
-        <v>0.00116266832096943</v>
+        <v>0.0038710278265545</v>
       </c>
       <c r="V78">
-        <v>11.3920938303864</v>
+        <v>46.95017197401941</v>
       </c>
       <c r="W78">
-        <v>3.004716385731324</v>
+        <v>-999.999</v>
       </c>
       <c r="X78">
-        <v>0.001062790814263626</v>
+        <v>0</v>
       </c>
       <c r="Y78">
         <v>0</v>
       </c>
       <c r="Z78">
-        <v>0.4327535726684424</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26">
+        <v>-3.161696126422441</v>
+      </c>
+      <c r="AA78">
+        <v>6.996310166517932E-07</v>
+      </c>
+      <c r="AB78">
+        <v>2.767763438627371</v>
+      </c>
+      <c r="AC78">
+        <v>1.454174302592409E-06</v>
+      </c>
+      <c r="AD78">
+        <v>0.003869573652251907</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5.513926815929961E-06</v>
+        <v>5.915604845699832E-06</v>
       </c>
       <c r="C79">
-        <v>0.1444098825404065</v>
+        <v>0.1220077333471327</v>
       </c>
       <c r="D79">
-        <v>0.006110415716160735</v>
+        <v>0.005940233315577611</v>
       </c>
       <c r="E79">
-        <v>0.153884034460979</v>
+        <v>0.1305504212099695</v>
       </c>
       <c r="F79">
-        <v>11.14688280955294</v>
+        <v>8.795887891277985</v>
       </c>
       <c r="K79">
-        <v>6.94723647666551</v>
+        <v>4.934626772014893</v>
       </c>
       <c r="L79">
-        <v>5.678086668127459</v>
+        <v>4.278681634265808</v>
       </c>
       <c r="M79">
-        <v>6.97250624291984</v>
+        <v>4.958068888171725</v>
       </c>
       <c r="N79">
-        <v>0.02323798096334374</v>
+        <v>0.0004072172746334901</v>
       </c>
       <c r="O79">
-        <v>0.0009141852859420525</v>
+        <v>2.177189294609738E-05</v>
       </c>
       <c r="P79">
-        <v>0.02487677363964959</v>
+        <v>0.009098550161764979</v>
       </c>
       <c r="Q79">
-        <v>0.00493907442478274</v>
+        <v>0.00869940282986679</v>
       </c>
       <c r="R79">
-        <v>0.003672308858917111</v>
+        <v>0</v>
       </c>
       <c r="S79">
-        <v>5.378531241890452E-05</v>
+        <v>0</v>
       </c>
       <c r="T79">
-        <v>0.008622667520644481</v>
+        <v>0.0358872499906004</v>
       </c>
       <c r="U79">
-        <v>0.001226125173944648</v>
+        <v>0.004092706807041455</v>
       </c>
       <c r="V79">
-        <v>11.46628800963963</v>
+        <v>47.08341227016605</v>
       </c>
       <c r="W79">
-        <v>3.092409190083252</v>
+        <v>-999.999</v>
       </c>
       <c r="X79">
-        <v>0.001126792967974219</v>
+        <v>0</v>
       </c>
       <c r="Y79">
         <v>0</v>
       </c>
       <c r="Z79">
-        <v>0.4699117681152476</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26">
+        <v>-3.118982705520363</v>
+      </c>
+      <c r="AA79">
+        <v>7.008994545196987E-07</v>
+      </c>
+      <c r="AB79">
+        <v>2.88028304557462</v>
+      </c>
+      <c r="AC79">
+        <v>1.559881961613113E-06</v>
+      </c>
+      <c r="AD79">
+        <v>0.004091146925079842</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5.409674361961431E-06</v>
+        <v>5.793705973702033E-06</v>
       </c>
       <c r="C80">
-        <v>0.1506962219415085</v>
+        <v>0.1272835288031125</v>
       </c>
       <c r="D80">
-        <v>0.006502271188497897</v>
+        <v>0.006328807919809387</v>
       </c>
       <c r="E80">
-        <v>0.1607793314645398</v>
+        <v>0.1363545251233994</v>
       </c>
       <c r="F80">
-        <v>11.14685437037319</v>
+        <v>8.795859628026291</v>
       </c>
       <c r="K80">
-        <v>6.958633567530303</v>
+        <v>4.94984924568685</v>
       </c>
       <c r="L80">
-        <v>5.699243667093127</v>
+        <v>4.28292826555776</v>
       </c>
       <c r="M80">
-        <v>6.98453392633734</v>
+        <v>4.973948905089162</v>
       </c>
       <c r="N80">
-        <v>0.02425269894868018</v>
+        <v>0.0004247375192556443</v>
       </c>
       <c r="O80">
-        <v>0.0009710053148936371</v>
+        <v>2.316118190681762E-05</v>
       </c>
       <c r="P80">
-        <v>0.02578303269487081</v>
+        <v>0.009116693222305806</v>
       </c>
       <c r="Q80">
-        <v>0.005033126328662782</v>
+        <v>0.008701864695875942</v>
       </c>
       <c r="R80">
-        <v>0.003836787201939757</v>
+        <v>0</v>
       </c>
       <c r="S80">
-        <v>5.564344105683519E-05</v>
+        <v>0</v>
       </c>
       <c r="T80">
-        <v>0.00895887399094902</v>
+        <v>0.03733245649894398</v>
       </c>
       <c r="U80">
-        <v>0.001297089854780096</v>
+        <v>0.00434105185322661</v>
       </c>
       <c r="V80">
-        <v>11.55118975578753</v>
+        <v>47.25732448846215</v>
       </c>
       <c r="W80">
-        <v>3.183118066101073</v>
+        <v>-999.999</v>
       </c>
       <c r="X80">
-        <v>0.00119658097582091</v>
+        <v>0</v>
       </c>
       <c r="Y80">
         <v>0</v>
       </c>
       <c r="Z80">
-        <v>0.5085357204158427</v>
-      </c>
-    </row>
-    <row r="81" spans="1:26">
+        <v>-3.074339457164561</v>
+      </c>
+      <c r="AA80">
+        <v>7.022268542238934E-07</v>
+      </c>
+      <c r="AB80">
+        <v>3.00215365431989</v>
+      </c>
+      <c r="AC80">
+        <v>1.678297680520752E-06</v>
+      </c>
+      <c r="AD80">
+        <v>0.00433937355554609</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5.296193705304466E-06</v>
+        <v>5.661293344716541E-06</v>
       </c>
       <c r="C81">
-        <v>0.1575626005487948</v>
+        <v>0.1330432774166031</v>
       </c>
       <c r="D81">
-        <v>0.006946673347060328</v>
+        <v>0.006770310081726432</v>
       </c>
       <c r="E81">
-        <v>0.1683103911256007</v>
+        <v>0.1426877264198298</v>
       </c>
       <c r="F81">
-        <v>11.14682478399136</v>
+        <v>8.795830237079233</v>
       </c>
       <c r="K81">
-        <v>6.970419255832317</v>
+        <v>4.965805052732183</v>
       </c>
       <c r="L81">
-        <v>5.721723344464238</v>
+        <v>4.287733348399682</v>
       </c>
       <c r="M81">
-        <v>6.996984857243342</v>
+        <v>4.99056801458351</v>
       </c>
       <c r="N81">
-        <v>0.02536135102647954</v>
+        <v>0.0004438602019865409</v>
       </c>
       <c r="O81">
-        <v>0.001035312283946768</v>
+        <v>2.474003707727911E-05</v>
       </c>
       <c r="P81">
-        <v>0.02677112347421405</v>
+        <v>0.009136446961659609</v>
       </c>
       <c r="Q81">
-        <v>0.005137456784180063</v>
+        <v>0.008704530413715892</v>
       </c>
       <c r="R81">
-        <v>0.004016841666743706</v>
+        <v>0</v>
       </c>
       <c r="S81">
-        <v>5.770168228046614E-05</v>
+        <v>0</v>
       </c>
       <c r="T81">
-        <v>0.009323720854576112</v>
+        <v>0.03890347576778767</v>
       </c>
       <c r="U81">
-        <v>0.001376973968886297</v>
+        <v>0.004621102509088754</v>
       </c>
       <c r="V81">
-        <v>11.64795966231601</v>
+        <v>47.4759362730419</v>
       </c>
       <c r="W81">
-        <v>3.277099703119461</v>
+        <v>-999.999</v>
       </c>
       <c r="X81">
-        <v>0.001272981464432542</v>
+        <v>0</v>
       </c>
       <c r="Y81">
         <v>0</v>
       </c>
       <c r="Z81">
-        <v>0.5487545675320691</v>
-      </c>
-    </row>
-    <row r="82" spans="1:26">
+        <v>-3.027596950685243</v>
+      </c>
+      <c r="AA81">
+        <v>7.036182005982463E-07</v>
+      </c>
+      <c r="AB81">
+        <v>3.134536892365644</v>
+      </c>
+      <c r="AC81">
+        <v>1.811557068658267E-06</v>
+      </c>
+      <c r="AD81">
+        <v>0.004619290952020095</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5.172252665350386E-06</v>
+        <v>5.517018864361551E-06</v>
       </c>
       <c r="C82">
-        <v>0.1650933969088815</v>
+        <v>0.139356925783347</v>
       </c>
       <c r="D82">
-        <v>0.007454702381938208</v>
+        <v>0.007276032752867618</v>
       </c>
       <c r="E82">
-        <v>0.1765670017870863</v>
+        <v>0.1496235857857866</v>
       </c>
       <c r="F82">
-        <v>11.14679392824422</v>
+        <v>8.795799599513883</v>
       </c>
       <c r="K82">
-        <v>6.982624030699861</v>
+        <v>4.982558795602637</v>
       </c>
       <c r="L82">
-        <v>5.745701311557792</v>
+        <v>4.293209026297306</v>
       </c>
       <c r="M82">
-        <v>7.009889550394635</v>
+        <v>5.007986328890289</v>
       </c>
       <c r="N82">
-        <v>0.02657765296360617</v>
+        <v>0.000464816210232004</v>
       </c>
       <c r="O82">
-        <v>0.001108663812232709</v>
+        <v>2.654842421581706E-05</v>
       </c>
       <c r="P82">
-        <v>0.02785280680871575</v>
+        <v>0.009158042789056796</v>
       </c>
       <c r="Q82">
-        <v>0.005253959322562952</v>
+        <v>0.00870744025544788</v>
       </c>
       <c r="R82">
-        <v>0.004214798665966868</v>
+        <v>0</v>
       </c>
       <c r="S82">
-        <v>5.999988654033437E-05</v>
+        <v>0</v>
       </c>
       <c r="T82">
-        <v>0.009721058198860603</v>
+        <v>0.04061759443072262</v>
       </c>
       <c r="U82">
-        <v>0.001467562699955845</v>
+        <v>0.004939230725155025</v>
       </c>
       <c r="V82">
-        <v>11.75800980215262</v>
+        <v>47.74417856214196</v>
       </c>
       <c r="W82">
-        <v>3.374648697446986</v>
+        <v>-999.999</v>
       </c>
       <c r="X82">
-        <v>0.001356986525926106</v>
+        <v>0</v>
       </c>
       <c r="Y82">
         <v>0</v>
       </c>
       <c r="Z82">
-        <v>0.5907167014314716</v>
-      </c>
-    </row>
-    <row r="83" spans="1:26">
+        <v>-2.978562520648577</v>
+      </c>
+      <c r="AA82">
+        <v>7.0507912697655E-07</v>
+      </c>
+      <c r="AB82">
+        <v>3.278780735149163</v>
+      </c>
+      <c r="AC82">
+        <v>1.962264227205954E-06</v>
+      </c>
+      <c r="AD82">
+        <v>0.004937268460927819</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5.036403597550771E-06</v>
+        <v>5.359314308892382E-06</v>
       </c>
       <c r="C83">
-        <v>0.1733901703050364</v>
+        <v>0.1463085517323196</v>
       </c>
       <c r="D83">
-        <v>0.00804072240552872</v>
+        <v>0.007860643022025817</v>
       </c>
       <c r="E83">
-        <v>0.1856561752568969</v>
+        <v>0.1572494963023024</v>
       </c>
       <c r="F83">
-        <v>11.14676166053649</v>
+        <v>8.795767576710773</v>
       </c>
       <c r="K83">
-        <v>6.99528464511225</v>
+        <v>5.000184114919797</v>
       </c>
       <c r="L83">
-        <v>5.771396060382918</v>
+        <v>4.299498604186793</v>
       </c>
       <c r="M83">
-        <v>7.0232895264111</v>
+        <v>5.026269939003844</v>
       </c>
       <c r="N83">
-        <v>0.02791812607683636</v>
+        <v>0.0004878829358118033</v>
       </c>
       <c r="O83">
-        <v>0.001193078451112634</v>
+        <v>2.863799609721021E-05</v>
       </c>
       <c r="P83">
-        <v>0.02904221983430275</v>
+        <v>0.009181758711878318</v>
       </c>
       <c r="Q83">
-        <v>0.005384979761280563</v>
+        <v>0.008710646056883988</v>
       </c>
       <c r="R83">
-        <v>0.004433472285936686</v>
+        <v>0</v>
       </c>
       <c r="S83">
-        <v>6.258876470055345E-05</v>
+        <v>0</v>
       </c>
       <c r="T83">
-        <v>0.01015545269880296</v>
+        <v>0.04249540304680513</v>
       </c>
       <c r="U83">
-        <v>0.00157114644829073</v>
+        <v>0.005303603797453092</v>
       </c>
       <c r="V83">
-        <v>11.88307471782151</v>
+        <v>48.06813727243432</v>
       </c>
       <c r="W83">
-        <v>3.476110573472386</v>
+        <v>-999.999</v>
       </c>
       <c r="X83">
-        <v>0.001449798719216129</v>
+        <v>0</v>
       </c>
       <c r="Y83">
         <v>0</v>
       </c>
       <c r="Z83">
-        <v>0.634594890509474</v>
-      </c>
-    </row>
-    <row r="84" spans="1:26">
+        <v>-2.927015070524069</v>
+      </c>
+      <c r="AA83">
+        <v>7.066160548210063E-07</v>
+      </c>
+      <c r="AB83">
+        <v>3.436453267815421</v>
+      </c>
+      <c r="AC83">
+        <v>2.133608251597518E-06</v>
+      </c>
+      <c r="AD83">
+        <v>0.005301470189201495</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>4.886939376752583E-06</v>
+        <v>5.186352304130139E-06</v>
       </c>
       <c r="C84">
-        <v>0.182576250743898</v>
+        <v>0.1540001022162248</v>
       </c>
       <c r="D84">
-        <v>0.008723670692330444</v>
+        <v>0.008543512080733937</v>
       </c>
       <c r="E84">
-        <v>0.1957063453246643</v>
+        <v>0.1656699786242734</v>
       </c>
       <c r="F84">
-        <v>11.14672781307412</v>
+        <v>8.795734005810234</v>
       </c>
       <c r="K84">
-        <v>7.008436962070646</v>
+        <v>5.018765378790802</v>
       </c>
       <c r="L84">
-        <v>5.799065215267396</v>
+        <v>4.306787575108805</v>
       </c>
       <c r="M84">
-        <v>7.037219980736923</v>
+        <v>5.045492929286183</v>
       </c>
       <c r="N84">
-        <v>0.02940285094493212</v>
+        <v>0.0005133965435737252</v>
       </c>
       <c r="O84">
-        <v>0.001291205109699265</v>
+        <v>3.10767069388484E-05</v>
       </c>
       <c r="P84">
-        <v>0.03035651094947065</v>
+        <v>0.009207931637155782</v>
       </c>
       <c r="Q84">
-        <v>0.005533642010308376</v>
+        <v>0.008714215762316558</v>
       </c>
       <c r="R84">
-        <v>0.004676299148227582</v>
+        <v>0</v>
       </c>
       <c r="S84">
-        <v>6.553597787009522E-05</v>
+        <v>0</v>
       </c>
       <c r="T84">
-        <v>0.0106323586016092</v>
+        <v>0.04456161411621358</v>
       </c>
       <c r="U84">
-        <v>0.001690699099005211</v>
+        <v>0.005724850279663498</v>
       </c>
       <c r="V84">
-        <v>12.02530737274127</v>
+        <v>48.45539920009615</v>
       </c>
       <c r="W84">
-        <v>3.581871328906811</v>
+        <v>-999.999</v>
       </c>
       <c r="X84">
-        <v>0.00155288564463446</v>
+        <v>0</v>
       </c>
       <c r="Y84">
         <v>0</v>
       </c>
       <c r="Z84">
-        <v>0.6805830839728451</v>
-      </c>
-    </row>
-    <row r="85" spans="1:26">
+        <v>-2.872699017506461</v>
+      </c>
+      <c r="AA84">
+        <v>7.082363410305579E-07</v>
+      </c>
+      <c r="AB84">
+        <v>3.609381701675107</v>
+      </c>
+      <c r="AC84">
+        <v>2.329536754891408E-06</v>
+      </c>
+      <c r="AD84">
+        <v>0.005722520742908607</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>4.721840879086006E-06</v>
+        <v>4.996003021996751E-06</v>
       </c>
       <c r="C85">
-        <v>0.1928028730998725</v>
+        <v>0.1625563722241949</v>
       </c>
       <c r="D85">
-        <v>0.009528993499796135</v>
+        <v>0.009350711471156578</v>
       </c>
       <c r="E85">
-        <v>0.2068728138677006</v>
+        <v>0.1750109340517167</v>
       </c>
       <c r="F85">
-        <v>11.14669218663936</v>
+        <v>8.795698693789348</v>
       </c>
       <c r="K85">
-        <v>7.022126913401332</v>
+        <v>5.03839979547886</v>
       </c>
       <c r="L85">
-        <v>5.829032868495092</v>
+        <v>4.31532029314459</v>
       </c>
       <c r="M85">
-        <v>7.051726473401262</v>
+        <v>5.065738900254766</v>
       </c>
       <c r="N85">
-        <v>0.03105647717053406</v>
+        <v>0.0005417682986698945</v>
       </c>
       <c r="O85">
-        <v>0.001406598921173159</v>
+        <v>3.395565604163194E-05</v>
       </c>
       <c r="P85">
-        <v>0.03181667971059784</v>
+        <v>0.009236973747440442</v>
       </c>
       <c r="Q85">
-        <v>0.005704010351541961</v>
+        <v>0.008718242477965018</v>
       </c>
       <c r="R85">
-        <v>0.004947520511189787</v>
+        <v>0</v>
       </c>
       <c r="S85">
-        <v>6.89314215916048E-05</v>
+        <v>0</v>
       </c>
       <c r="T85">
-        <v>0.01115833857235061</v>
+        <v>0.04684612963601065</v>
       </c>
       <c r="U85">
-        <v>0.00183009403848779</v>
+        <v>0.006217038260837597</v>
       </c>
       <c r="V85">
-        <v>12.18740427989021</v>
+        <v>48.91553638905447</v>
       </c>
       <c r="W85">
-        <v>3.692394850696331</v>
+        <v>-999.999</v>
       </c>
       <c r="X85">
-        <v>0.001668062909161978</v>
+        <v>0</v>
       </c>
       <c r="Y85">
         <v>0</v>
       </c>
       <c r="Z85">
-        <v>0.7289128013566479</v>
-      </c>
-    </row>
-    <row r="86" spans="1:26">
+        <v>-2.815317516836156</v>
+      </c>
+      <c r="AA85">
+        <v>7.099484621657566E-07</v>
+      </c>
+      <c r="AB85">
+        <v>3.799695671794619</v>
+      </c>
+      <c r="AC85">
+        <v>2.554975533224419E-06</v>
+      </c>
+      <c r="AD85">
+        <v>0.006214483285304373</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>4.538715903577928E-06</v>
+        <v>4.78578938594613E-06</v>
       </c>
       <c r="C86">
-        <v>0.2042574905748772</v>
+        <v>0.1721317260212596</v>
       </c>
       <c r="D86">
-        <v>0.01049163301644988</v>
+        <v>0.01031808938790868</v>
       </c>
       <c r="E86">
-        <v>0.2193448857632233</v>
+        <v>0.1854251910754859</v>
       </c>
       <c r="F86">
-        <v>11.14665454234272</v>
+        <v>8.795661409627948</v>
       </c>
       <c r="K86">
-        <v>7.03640330998924</v>
+        <v>5.059199969943942</v>
       </c>
       <c r="L86">
-        <v>5.861703098196078</v>
+        <v>4.325423958764946</v>
       </c>
       <c r="M86">
-        <v>7.066856780231824</v>
+        <v>5.08710237981763</v>
       </c>
       <c r="N86">
-        <v>0.0329095945611191</v>
+        <v>0.0005735065888341605</v>
       </c>
       <c r="O86">
-        <v>0.001544127195974743</v>
+        <v>3.73995434252893E-05</v>
       </c>
       <c r="P86">
-        <v>0.03344872154553881</v>
+        <v>0.00926939445178265</v>
       </c>
       <c r="Q86">
-        <v>0.005901582168749389</v>
+        <v>0.008722849627992664</v>
       </c>
       <c r="R86">
-        <v>0.005252432329289671</v>
+        <v>0</v>
       </c>
       <c r="S86">
-        <v>7.289843964456158E-05</v>
+        <v>0</v>
       </c>
       <c r="T86">
-        <v>0.01174135385571703</v>
+        <v>0.04938544784695893</v>
       </c>
       <c r="U86">
-        <v>0.00199460808962538</v>
+        <v>0.006799146131088426</v>
       </c>
       <c r="V86">
-        <v>12.37280486417082</v>
+        <v>49.46079874262654</v>
       </c>
       <c r="W86">
-        <v>3.808218595276799</v>
+        <v>-999.999</v>
       </c>
       <c r="X86">
-        <v>0.001797598319346044</v>
+        <v>0</v>
       </c>
       <c r="Y86">
         <v>0</v>
       </c>
       <c r="Z86">
-        <v>0.7798518863257833</v>
-      </c>
-    </row>
-    <row r="87" spans="1:26">
+        <v>-2.754522470546679</v>
+      </c>
+      <c r="AA86">
+        <v>7.117622373791118E-07</v>
+      </c>
+      <c r="AB86">
+        <v>4.009872023678141</v>
+      </c>
+      <c r="AC86">
+        <v>2.816132501573467E-06</v>
+      </c>
+      <c r="AD86">
+        <v>0.006796329998586853</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>4.334731945229802E-06</v>
+        <v>4.552848263329902E-06</v>
       </c>
       <c r="C87">
-        <v>0.2171752144121057</v>
+        <v>0.1829193017968164</v>
       </c>
       <c r="D87">
-        <v>0.01166077993108159</v>
+        <v>0.01149615223009375</v>
       </c>
       <c r="E87">
-        <v>0.2333553206045638</v>
+        <v>0.1970998285271097</v>
       </c>
       <c r="F87">
-        <v>11.14661459050043</v>
+        <v>8.795621873794342</v>
       </c>
       <c r="K87">
-        <v>7.051324685251607</v>
+        <v>5.081297325430129</v>
       </c>
       <c r="L87">
-        <v>5.897592001411528</v>
+        <v>4.337544233305134</v>
       </c>
       <c r="M87">
-        <v>7.082664304430923</v>
+        <v>5.109686591913334</v>
       </c>
       <c r="N87">
-        <v>0.03500062571879538</v>
+        <v>0.0006092470585280853</v>
       </c>
       <c r="O87">
-        <v>0.001710624889662676</v>
+        <v>4.158288729257027E-05</v>
       </c>
       <c r="P87">
-        <v>0.03528519750399144</v>
+        <v>0.00930583077336865</v>
       </c>
       <c r="Q87">
-        <v>0.00613394939630451</v>
+        <v>0.008728218682912172</v>
       </c>
       <c r="R87">
-        <v>0.005597734588599346</v>
+        <v>0</v>
       </c>
       <c r="S87">
-        <v>7.760987656215207E-05</v>
+        <v>0</v>
       </c>
       <c r="T87">
-        <v>0.0123911369067898</v>
+        <v>0.05222453462801697</v>
       </c>
       <c r="U87">
-        <v>0.002191535200038507</v>
+        <v>0.007497330534146472</v>
       </c>
       <c r="V87">
-        <v>12.58597689700301</v>
+        <v>50.10712780508351</v>
       </c>
       <c r="W87">
-        <v>3.929990358120985</v>
+        <v>-999.999</v>
       </c>
       <c r="X87">
-        <v>0.001944367862180576</v>
+        <v>0</v>
       </c>
       <c r="Y87">
         <v>0</v>
       </c>
       <c r="Z87">
-        <v>0.8337208930288469</v>
-      </c>
-    </row>
-    <row r="88" spans="1:26">
+        <v>-2.689902256017779</v>
+      </c>
+      <c r="AA87">
+        <v>7.136891267775073E-07</v>
+      </c>
+      <c r="AB87">
+        <v>4.24277361046241</v>
+      </c>
+      <c r="AC87">
+        <v>3.120879569356024E-06</v>
+      </c>
+      <c r="AD87">
+        <v>0.007494209654577116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7.550089145368096E-06</v>
+        <v>9.054154617232171E-06</v>
       </c>
       <c r="C88">
-        <v>0.231854816875036</v>
+        <v>0.1951638124801537</v>
       </c>
       <c r="D88">
-        <v>0.007334573529354118</v>
+        <v>0.006459135338157726</v>
       </c>
       <c r="E88">
-        <v>0.2502147664674273</v>
+        <v>0.2138421496832224</v>
       </c>
       <c r="F88">
-        <v>16.14661459050043</v>
+        <v>13.79562187379434</v>
       </c>
       <c r="K88">
-        <v>7.066954616469188</v>
+        <v>5.104846364036375</v>
       </c>
       <c r="L88">
-        <v>5.707682063277014</v>
+        <v>4.28848371788524</v>
       </c>
       <c r="M88">
-        <v>7.099895088140628</v>
+        <v>5.138270658355204</v>
       </c>
       <c r="N88">
-        <v>0.0373784829208763</v>
+        <v>0.0006497944993306221</v>
       </c>
       <c r="O88">
-        <v>0.001099874929079131</v>
+        <v>2.502489484531691E-05</v>
       </c>
       <c r="P88">
-        <v>0.03736742951168336</v>
+        <v>0.009347088779829827</v>
       </c>
       <c r="Q88">
-        <v>0.005596261239914913</v>
+        <v>0.008712706354418577</v>
       </c>
       <c r="R88">
-        <v>0.005992029210887717</v>
+        <v>0</v>
       </c>
       <c r="S88">
-        <v>4.638549433912409E-05</v>
+        <v>0</v>
       </c>
       <c r="T88">
-        <v>0.01311967988584347</v>
+        <v>0.0554193349204363</v>
       </c>
       <c r="U88">
-        <v>0.001439531886882669</v>
+        <v>0.004622496000503963</v>
       </c>
       <c r="V88">
-        <v>12.67314131505025</v>
+        <v>50.27561819195682</v>
       </c>
       <c r="W88">
-        <v>4.058480076550207</v>
+        <v>-999.999</v>
       </c>
       <c r="X88">
-        <v>0.002112158090014808</v>
+        <v>0</v>
       </c>
       <c r="Y88">
         <v>0</v>
       </c>
       <c r="Z88">
-        <v>0.8908990007252777</v>
-      </c>
-    </row>
-    <row r="89" spans="1:26">
+        <v>-2.620965726649256</v>
+      </c>
+      <c r="AA88">
+        <v>7.15742602943972E-07</v>
+      </c>
+      <c r="AB88">
+        <v>4.741467256563887</v>
+      </c>
+      <c r="AC88">
+        <v>3.544072151741638E-06</v>
+      </c>
+      <c r="AD88">
+        <v>0.004618951928352221</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7.258294209501594E-06</v>
+        <v>8.704437709802465E-06</v>
       </c>
       <c r="C89">
-        <v>0.2491256048247039</v>
+        <v>0.2096795568756919</v>
       </c>
       <c r="D89">
-        <v>0.008203229538954939</v>
+        <v>0.007225653873993791</v>
       </c>
       <c r="E89">
-        <v>0.2693499552486437</v>
+        <v>0.2302584696852414</v>
       </c>
       <c r="F89">
-        <v>16.14532492508981</v>
+        <v>13.79433528027687</v>
       </c>
       <c r="K89">
-        <v>7.083651557632749</v>
+        <v>5.130955688368049</v>
       </c>
       <c r="L89">
-        <v>5.741704015193505</v>
+        <v>4.297669379073169</v>
       </c>
       <c r="M89">
-        <v>7.113879842423602</v>
+        <v>5.166316559703098</v>
       </c>
       <c r="N89">
-        <v>0.04016914507409147</v>
+        <v>0.0006978536996756457</v>
       </c>
       <c r="O89">
-        <v>0.001229279616768104</v>
+        <v>2.805335476169786E-05</v>
       </c>
       <c r="P89">
-        <v>0.03981136553258863</v>
+        <v>0.009395887427938385</v>
       </c>
       <c r="Q89">
-        <v>0.005855373305597223</v>
+        <v>0.008717024879343954</v>
       </c>
       <c r="R89">
-        <v>0.006449386419852994</v>
+        <v>0</v>
       </c>
       <c r="S89">
-        <v>5.011980259520578E-05</v>
+        <v>0</v>
       </c>
       <c r="T89">
-        <v>0.01401815280884045</v>
+        <v>0.0593267840681234</v>
       </c>
       <c r="U89">
-        <v>0.00159623144445489</v>
+        <v>0.005137571580950424</v>
       </c>
       <c r="V89">
-        <v>12.78327378610942</v>
+        <v>50.52228747864704</v>
       </c>
       <c r="W89">
-        <v>4.194604124453669</v>
+        <v>-999.999</v>
       </c>
       <c r="X89">
-        <v>0.002306096623404466</v>
+        <v>0</v>
       </c>
       <c r="Y89">
         <v>0</v>
       </c>
       <c r="Z89">
-        <v>0.952529977097198</v>
-      </c>
-    </row>
-    <row r="90" spans="1:26">
+        <v>-2.545598394422502</v>
+      </c>
+      <c r="AA89">
+        <v>7.180193360256939E-07</v>
+      </c>
+      <c r="AB89">
+        <v>5.089897570472718</v>
+      </c>
+      <c r="AC89">
+        <v>4.025705401603318E-06</v>
+      </c>
+      <c r="AD89">
+        <v>0.005133545875548821</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6.922776659292063E-06</v>
+        <v>8.303211705226583E-06</v>
       </c>
       <c r="C90">
-        <v>0.2692024694318496</v>
+        <v>0.2265507154591668</v>
       </c>
       <c r="D90">
-        <v>0.009295525128933901</v>
+        <v>0.008188223153296519</v>
       </c>
       <c r="E90">
-        <v>0.2915360707361552</v>
+        <v>0.2492823732648532</v>
       </c>
       <c r="F90">
-        <v>16.1452832732833</v>
+        <v>13.79429397505563</v>
       </c>
       <c r="K90">
-        <v>7.101508947978047</v>
+        <v>5.159079581811717</v>
       </c>
       <c r="L90">
-        <v>5.782802047811621</v>
+        <v>4.308858672862077</v>
       </c>
       <c r="M90">
-        <v>7.132801700500993</v>
+        <v>5.195533572727295</v>
       </c>
       <c r="N90">
-        <v>0.04341413386220175</v>
+        <v>0.0007536703950851414</v>
       </c>
       <c r="O90">
-        <v>0.00138729492374845</v>
+        <v>3.178432474609374E-05</v>
       </c>
       <c r="P90">
-        <v>0.04264103155150458</v>
+        <v>0.009452459306987921</v>
       </c>
       <c r="Q90">
-        <v>0.006112389159256526</v>
+        <v>0.008722054446905851</v>
       </c>
       <c r="R90">
-        <v>0.00698265863795781</v>
+        <v>0</v>
       </c>
       <c r="S90">
-        <v>5.362372900714054E-05</v>
+        <v>0</v>
       </c>
       <c r="T90">
-        <v>0.01505331292253925</v>
+        <v>0.06384255177538782</v>
       </c>
       <c r="U90">
-        <v>0.001791678063486416</v>
+        <v>0.005777521547016915</v>
       </c>
       <c r="V90">
-        <v>12.92169993848469</v>
+        <v>50.86415901703588</v>
       </c>
       <c r="W90">
-        <v>4.340079018226774</v>
+        <v>-999.999</v>
       </c>
       <c r="X90">
-        <v>0.002532447163917563</v>
+        <v>0</v>
       </c>
       <c r="Y90">
         <v>0</v>
       </c>
       <c r="Z90">
-        <v>1.018840532153838</v>
-      </c>
-    </row>
-    <row r="91" spans="1:26">
+        <v>-2.464326157631875</v>
+      </c>
+      <c r="AA90">
+        <v>7.204717395339817E-07</v>
+      </c>
+      <c r="AB90">
+        <v>5.491082269827996</v>
+      </c>
+      <c r="AC90">
+        <v>4.606283608731453E-06</v>
+      </c>
+      <c r="AD90">
+        <v>0.005772915263408183</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6.53238142960184E-06</v>
+        <v>7.837427312781376E-06</v>
       </c>
       <c r="C91">
-        <v>0.2928303734593874</v>
+        <v>0.2464018511233368</v>
       </c>
       <c r="D91">
-        <v>0.01070884140905485</v>
+        <v>0.009431281599562583</v>
       </c>
       <c r="E91">
-        <v>0.3175256692733578</v>
+        <v>0.2715482461490101</v>
       </c>
       <c r="F91">
-        <v>16.14523797127781</v>
+        <v>13.79424909146879</v>
       </c>
       <c r="K91">
-        <v>7.120437352140749</v>
+        <v>5.189535496881017</v>
       </c>
       <c r="L91">
-        <v>5.829410348496128</v>
+        <v>4.323024950511715</v>
       </c>
       <c r="M91">
-        <v>7.152834773653636</v>
+        <v>5.226963454251828</v>
       </c>
       <c r="N91">
-        <v>0.04723475558387932</v>
+        <v>0.0008192964014796002</v>
       </c>
       <c r="O91">
-        <v>0.00159063003187605</v>
+        <v>3.657387301115065E-05</v>
       </c>
       <c r="P91">
-        <v>0.04596181722352714</v>
+        <v>0.009518859748813566</v>
       </c>
       <c r="Q91">
-        <v>0.006427652596739466</v>
+        <v>0.00872817134855064</v>
       </c>
       <c r="R91">
-        <v>0.007612570902407871</v>
+        <v>0</v>
       </c>
       <c r="S91">
-        <v>5.802707325019708E-05</v>
+        <v>0</v>
       </c>
       <c r="T91">
-        <v>0.01625891609154405</v>
+        <v>0.06912119088705791</v>
       </c>
       <c r="U91">
-        <v>0.002041068334867017</v>
+        <v>0.006593532891618192</v>
       </c>
       <c r="V91">
-        <v>13.09587447738843</v>
+        <v>51.32546824289618</v>
       </c>
       <c r="W91">
-        <v>4.495857003981889</v>
+        <v>-999.999</v>
       </c>
       <c r="X91">
-        <v>0.002799962837321595</v>
+        <v>0</v>
       </c>
       <c r="Y91">
         <v>0</v>
       </c>
       <c r="Z91">
-        <v>1.090384276221386</v>
-      </c>
-    </row>
-    <row r="92" spans="1:26">
+        <v>-2.376154913476578</v>
+      </c>
+      <c r="AA91">
+        <v>7.231274953280247E-07</v>
+      </c>
+      <c r="AB91">
+        <v>5.95682177868252</v>
+      </c>
+      <c r="AC91">
+        <v>5.325646991102259E-06</v>
+      </c>
+      <c r="AD91">
+        <v>0.006588207244627089</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6.073787615088056E-06</v>
+        <v>7.291904947391603E-06</v>
       </c>
       <c r="C92">
-        <v>0.3210425266644207</v>
+        <v>0.2700989080757143</v>
       </c>
       <c r="D92">
-        <v>0.01260267006721155</v>
+        <v>0.01109194318704343</v>
       </c>
       <c r="E92">
-        <v>0.3483304830990994</v>
+        <v>0.297905402058634</v>
       </c>
       <c r="F92">
-        <v>16.14518823504224</v>
+        <v>13.7941998692875</v>
       </c>
       <c r="K92">
-        <v>7.140575644166116</v>
+        <v>5.222718674827422</v>
       </c>
       <c r="L92">
-        <v>5.883154253964887</v>
+        <v>4.341446125768521</v>
       </c>
       <c r="M92">
-        <v>7.174084409346688</v>
+        <v>5.260900784153232</v>
       </c>
       <c r="N92">
-        <v>0.05179916813907965</v>
+        <v>0.0008975686543264453</v>
       </c>
       <c r="O92">
-        <v>0.001861328982133332</v>
+        <v>4.291885445203974E-05</v>
       </c>
       <c r="P92">
-        <v>0.0499152336862059</v>
+        <v>0.009597928588839859</v>
       </c>
       <c r="Q92">
-        <v>0.006826203801624721</v>
+        <v>0.008735876327420813</v>
       </c>
       <c r="R92">
-        <v>0.008368025285323639</v>
+        <v>0</v>
       </c>
       <c r="S92">
-        <v>6.376870417020029E-05</v>
+        <v>0</v>
       </c>
       <c r="T92">
-        <v>0.01768070086721176</v>
+        <v>0.07537395668660189</v>
       </c>
       <c r="U92">
-        <v>0.002369718523300583</v>
+        <v>0.007666977017338749</v>
       </c>
       <c r="V92">
-        <v>13.31682229884531</v>
+        <v>51.94191381154494</v>
       </c>
       <c r="W92">
-        <v>4.663805157894394</v>
+        <v>-999.999</v>
       </c>
       <c r="X92">
-        <v>0.003121016327944483</v>
+        <v>0</v>
       </c>
       <c r="Y92">
         <v>0</v>
       </c>
       <c r="Z92">
-        <v>1.16810930064082</v>
-      </c>
-    </row>
-    <row r="93" spans="1:26">
+        <v>-2.279818749823958</v>
+      </c>
+      <c r="AA92">
+        <v>7.260210684449513E-07</v>
+      </c>
+      <c r="AB92">
+        <v>6.50229492189324</v>
+      </c>
+      <c r="AC92">
+        <v>6.231307849402439E-06</v>
+      </c>
+      <c r="AD92">
+        <v>0.007660745709489346</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5.529868770369521E-06</v>
+        <v>6.64740051076364E-06</v>
       </c>
       <c r="C93">
-        <v>0.3553136218418884</v>
+        <v>0.2988774597300111</v>
       </c>
       <c r="D93">
-        <v>0.01525837949275208</v>
+        <v>0.01340963726065148</v>
       </c>
       <c r="E93">
-        <v>0.3853322226656313</v>
+        <v>0.3295061960394095</v>
       </c>
       <c r="F93">
-        <v>16.14513300539587</v>
+        <v>13.7941452845979</v>
       </c>
       <c r="K93">
-        <v>7.16208687642402</v>
+        <v>5.25913228170115</v>
       </c>
       <c r="L93">
-        <v>5.946477478272067</v>
+        <v>4.366209914988521</v>
       </c>
       <c r="M93">
-        <v>7.196649181653321</v>
+        <v>5.297692649720813</v>
       </c>
       <c r="N93">
-        <v>0.05734781693429591</v>
+        <v>0.0009925297432013794</v>
       </c>
       <c r="O93">
-        <v>0.002238116611361058</v>
+        <v>5.167316030963387E-05</v>
       </c>
       <c r="P93">
-        <v>0.05470290367338159</v>
+        <v>0.009693712173441978</v>
       </c>
       <c r="Q93">
-        <v>0.007350925666045635</v>
+        <v>0.008746026478255758</v>
       </c>
       <c r="R93">
-        <v>0.009290720461007354</v>
+        <v>0</v>
       </c>
       <c r="S93">
-        <v>7.162109645118014E-05</v>
+        <v>0</v>
       </c>
       <c r="T93">
-        <v>0.01938192112764633</v>
+        <v>0.08289695442763115</v>
       </c>
       <c r="U93">
-        <v>0.00282116647281429</v>
+        <v>0.009136256786335176</v>
       </c>
       <c r="V93">
-        <v>13.60171948527744</v>
+        <v>52.76872011612969</v>
       </c>
       <c r="W93">
-        <v>4.84637132319321</v>
+        <v>-999.999</v>
       </c>
       <c r="X93">
-        <v>0.003513487230781898</v>
+        <v>0</v>
       </c>
       <c r="Y93">
         <v>0</v>
       </c>
       <c r="Z93">
-        <v>1.253247737988408</v>
-      </c>
-    </row>
-    <row r="94" spans="1:26">
+        <v>-2.173663841895891</v>
+      </c>
+      <c r="AA93">
+        <v>7.291963349643403E-07</v>
+      </c>
+      <c r="AB93">
+        <v>7.146744773839596</v>
+      </c>
+      <c r="AC93">
+        <v>7.392522439720416E-06</v>
+      </c>
+      <c r="AD93">
+        <v>0.009128864263895456</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>4.879210666971607E-06</v>
+        <v>5.88029975591454E-06</v>
       </c>
       <c r="C94">
-        <v>0.3978205271355305</v>
+        <v>0.3345609375386811</v>
       </c>
       <c r="D94">
-        <v>0.01921689011858262</v>
+        <v>0.01683802531271181</v>
       </c>
       <c r="E94">
-        <v>0.4304592377177475</v>
+        <v>0.3679466640943504</v>
       </c>
       <c r="F94">
-        <v>16.14507080527537</v>
+        <v>13.79408391481639</v>
       </c>
       <c r="K94">
-        <v>7.185158242120202</v>
+        <v>5.29942797451889</v>
       </c>
       <c r="L94">
-        <v>6.023215397927261</v>
+        <v>4.400926798861713</v>
       </c>
       <c r="M94">
-        <v>7.220593846259856</v>
+        <v>5.337746528953911</v>
       </c>
       <c r="N94">
-        <v>0.06423652947466278</v>
+        <v>0.001110136816062848</v>
       </c>
       <c r="O94">
-        <v>0.002795027446155323</v>
+        <v>6.442688787836246E-05</v>
       </c>
       <c r="P94">
-        <v>0.0606219009242986</v>
+        <v>0.009812172885340257</v>
       </c>
       <c r="Q94">
-        <v>0.008081952624410676</v>
+        <v>0.008760221058903547</v>
       </c>
       <c r="R94">
-        <v>0.01044310788157688</v>
+        <v>0</v>
       </c>
       <c r="S94">
-        <v>8.306569059475255E-05</v>
+        <v>0</v>
       </c>
       <c r="T94">
-        <v>0.02145201545950034</v>
+        <v>0.09211704163279316</v>
       </c>
       <c r="U94">
-        <v>0.003476309306868841</v>
+        <v>0.01125455565007441</v>
       </c>
       <c r="V94">
-        <v>13.97919099294692</v>
+        <v>53.89687989136692</v>
       </c>
       <c r="W94">
-        <v>5.046853522396049</v>
+        <v>-999.999</v>
       </c>
       <c r="X94">
-        <v>0.00400420814664787</v>
+        <v>0</v>
       </c>
       <c r="Y94">
         <v>0</v>
       </c>
       <c r="Z94">
-        <v>1.347437123039004</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26">
+        <v>-2.05547381467396</v>
+      </c>
+      <c r="AA94">
+        <v>7.327101193780473E-07</v>
+      </c>
+      <c r="AB94">
+        <v>7.913784158897491</v>
+      </c>
+      <c r="AC94">
+        <v>8.913067792541833E-06</v>
+      </c>
+      <c r="AD94">
+        <v>0.01124564258228186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>4.096296873042377E-06</v>
+        <v>4.962817472670953E-06</v>
       </c>
       <c r="C95">
-        <v>0.4519067609950946</v>
+        <v>0.379949924999534</v>
       </c>
       <c r="D95">
-        <v>0.02564931733148305</v>
+        <v>0.02233969065813272</v>
       </c>
       <c r="E95">
-        <v>0.4864704505798413</v>
+        <v>0.4154879429001366</v>
       </c>
       <c r="F95">
-        <v>16.14279187336026</v>
+        <v>13.79181556000516</v>
       </c>
       <c r="K95">
-        <v>7.209999657583479</v>
+        <v>5.344461621482749</v>
       </c>
       <c r="L95">
-        <v>6.119840571806135</v>
+        <v>4.45231459830641</v>
       </c>
       <c r="M95">
-        <v>7.245889027434743</v>
+        <v>5.381544562453203</v>
       </c>
       <c r="N95">
-        <v>0.07301388690730672</v>
+        <v>0.001259523948660632</v>
       </c>
       <c r="O95">
-        <v>0.003691517738341163</v>
+        <v>8.449433899622617E-05</v>
       </c>
       <c r="P95">
-        <v>0.06812760782428261</v>
+        <v>0.009962451717688361</v>
       </c>
       <c r="Q95">
-        <v>0.009188386748714398</v>
+        <v>0.008781784738689936</v>
       </c>
       <c r="R95">
-        <v>0.01192311390886004</v>
+        <v>0</v>
       </c>
       <c r="S95">
-        <v>0.0001013039262300444</v>
+        <v>0</v>
       </c>
       <c r="T95">
-        <v>0.02401997348130485</v>
+        <v>0.1036688253446101</v>
       </c>
       <c r="U95">
-        <v>0.004501978668877687</v>
+        <v>0.01453324325607456</v>
       </c>
       <c r="V95">
-        <v>14.50151048376286</v>
+        <v>55.48973511870196</v>
       </c>
       <c r="W95">
-        <v>5.269862578922055</v>
+        <v>-999.999</v>
       </c>
       <c r="X95">
-        <v>0.004635360346164377</v>
+        <v>0</v>
       </c>
       <c r="Y95">
         <v>0</v>
       </c>
       <c r="Z95">
-        <v>1.452919018875407</v>
-      </c>
-    </row>
-    <row r="96" spans="1:26">
+        <v>-1.922192274181773</v>
+      </c>
+      <c r="AA95">
+        <v>7.366370533932957E-07</v>
+      </c>
+      <c r="AB95">
+        <v>8.828998087327935</v>
+      </c>
+      <c r="AC95">
+        <v>1.095355294984911E-05</v>
+      </c>
+      <c r="AD95">
+        <v>0.01452228970312471</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>3.166372548463636E-06</v>
+        <v>3.880597097038959E-06</v>
       </c>
       <c r="C96">
-        <v>0.5229496682723633</v>
+        <v>0.4395516307231009</v>
       </c>
       <c r="D96">
-        <v>0.03745249829281754</v>
+        <v>0.03221826976487788</v>
       </c>
       <c r="E96">
-        <v>0.557577772265443</v>
+        <v>0.4755733198400663</v>
       </c>
       <c r="F96">
-        <v>16.14259378847814</v>
+        <v>13.79162109904737</v>
       </c>
       <c r="K96">
-        <v>7.236823049159256</v>
+        <v>5.395364550467854</v>
       </c>
       <c r="L96">
-        <v>6.247219264083713</v>
+        <v>4.533334431529582</v>
       </c>
       <c r="M96">
-        <v>7.272354400437716</v>
+        <v>5.429761895697057</v>
       </c>
       <c r="N96">
-        <v>0.08456761510213433</v>
+        <v>0.001455362216938033</v>
       </c>
       <c r="O96">
-        <v>0.00532009049056875</v>
+        <v>0.0001196824418398516</v>
       </c>
       <c r="P96">
-        <v>0.07795081133687733</v>
+        <v>0.01015922954752143</v>
       </c>
       <c r="Q96">
-        <v>0.01107963312479361</v>
+        <v>0.008818540894833173</v>
       </c>
       <c r="R96">
-        <v>0.01389341557263171</v>
+        <v>0</v>
       </c>
       <c r="S96">
-        <v>0.0001340992569589233</v>
+        <v>0</v>
       </c>
       <c r="T96">
-        <v>0.02727297261670938</v>
+        <v>0.1185247556926994</v>
       </c>
       <c r="U96">
-        <v>0.006278428335759905</v>
+        <v>0.02010568421793528</v>
       </c>
       <c r="V96">
-        <v>15.27483205143201</v>
+        <v>57.87090360774184</v>
       </c>
       <c r="W96">
-        <v>5.522152198260223</v>
+        <v>-999.999</v>
       </c>
       <c r="X96">
-        <v>0.005447460232241933</v>
+        <v>0</v>
       </c>
       <c r="Y96">
-        <v>0.0001047413557479872</v>
+        <v>0</v>
       </c>
       <c r="Z96">
-        <v>1.572859692570535</v>
-      </c>
-    </row>
-    <row r="97" spans="1:26">
+        <v>-1.769468768367096</v>
+      </c>
+      <c r="AA96">
+        <v>7.410757888007969E-07</v>
+      </c>
+      <c r="AB96">
+        <v>9.911024002005188</v>
+      </c>
+      <c r="AC96">
+        <v>1.377740054898457E-05</v>
+      </c>
+      <c r="AD96">
+        <v>0.0200919068173863</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>2.119735307482819E-06</v>
+        <v>2.663966464912512E-06</v>
       </c>
       <c r="C97">
-        <v>0.6200491022682713</v>
+        <v>0.5210183029147445</v>
       </c>
       <c r="D97">
-        <v>0.06321751547834419</v>
+        <v>0.05303512492201259</v>
       </c>
       <c r="E97">
-        <v>0.6509561102625013</v>
+        <v>0.5540414875272867</v>
       </c>
       <c r="F97">
-        <v>16.14235382804302</v>
+        <v>13.7913864551593</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -7010,31 +8174,31 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>0.1004171200244473</v>
+        <v>0.001722498171957666</v>
       </c>
       <c r="O97">
         <v>0</v>
       </c>
       <c r="P97">
-        <v>0.0913250469792939</v>
+        <v>0.01042736727805906</v>
       </c>
       <c r="Q97">
         <v>0</v>
       </c>
       <c r="R97">
-        <v>0.01664527883576624</v>
+        <v>0</v>
       </c>
       <c r="S97">
         <v>0</v>
       </c>
       <c r="T97">
-        <v>0.03147188147289921</v>
+        <v>0.138208569987652</v>
       </c>
       <c r="U97">
         <v>0</v>
       </c>
       <c r="V97">
-        <v>15.11571921756293</v>
+        <v>57.26808169516119</v>
       </c>
       <c r="W97">
         <v>0</v>
@@ -7046,6 +8210,18 @@
         <v>0</v>
       </c>
       <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <v>0</v>
+      </c>
+      <c r="AB97">
+        <v>11.12741999024437</v>
+      </c>
+      <c r="AC97">
+        <v>0</v>
+      </c>
+      <c r="AD97">
         <v>0</v>
       </c>
     </row>
